--- a/Vorlage.xlsx
+++ b/Vorlage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="17010" windowHeight="10365" tabRatio="873"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="17010" windowHeight="10365" tabRatio="873" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1. Halbjahr" sheetId="1" r:id="rId1"/>
@@ -3789,6 +3789,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="1" fontId="25" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -3919,19 +3927,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3972,6 +3967,19 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4020,20 +4028,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="100" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="101" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="89" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4056,6 +4063,50 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="91" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="92" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="100" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="89" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4080,57 +4131,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="92" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="100" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="100" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="101" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="25" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5100,10 +5100,10 @@
   </sheetPr>
   <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="92" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="92" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H44" sqref="H44"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5135,45 +5135,45 @@
         <v>35</v>
       </c>
       <c r="D1" s="251"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="455" t="s">
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="460"/>
+      <c r="I1" s="457" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="456"/>
-      <c r="K1" s="459"/>
-      <c r="L1" s="460"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="461"/>
+      <c r="L1" s="462"/>
       <c r="M1" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="450">
+      <c r="N1" s="452">
         <f ca="1">TODAY()</f>
-        <v>43390</v>
-      </c>
-      <c r="O1" s="451"/>
+        <v>43442</v>
+      </c>
+      <c r="O1" s="453"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
       <c r="B2" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="452" t="s">
+      <c r="C2" s="454" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
-      <c r="J2" s="453"/>
-      <c r="K2" s="453"/>
-      <c r="L2" s="453"/>
-      <c r="M2" s="453"/>
-      <c r="N2" s="453"/>
-      <c r="O2" s="454"/>
+      <c r="D2" s="455"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="455"/>
+      <c r="G2" s="455"/>
+      <c r="H2" s="455"/>
+      <c r="I2" s="455"/>
+      <c r="J2" s="455"/>
+      <c r="K2" s="455"/>
+      <c r="L2" s="455"/>
+      <c r="M2" s="455"/>
+      <c r="N2" s="455"/>
+      <c r="O2" s="456"/>
     </row>
     <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161"/>
@@ -6974,28 +6974,28 @@
       <c r="B39" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="553">
+      <c r="C39" s="450">
         <v>2</v>
       </c>
-      <c r="D39" s="554">
+      <c r="D39" s="451">
         <v>2</v>
       </c>
-      <c r="E39" s="554">
+      <c r="E39" s="451">
         <v>1</v>
       </c>
-      <c r="F39" s="554">
+      <c r="F39" s="451">
         <v>1</v>
       </c>
-      <c r="G39" s="554">
+      <c r="G39" s="451">
         <v>1</v>
       </c>
-      <c r="H39" s="554">
+      <c r="H39" s="451">
         <v>1</v>
       </c>
-      <c r="I39" s="554">
+      <c r="I39" s="451">
         <v>1</v>
       </c>
-      <c r="J39" s="554">
+      <c r="J39" s="451">
         <v>1</v>
       </c>
       <c r="K39" s="256"/>
@@ -7060,8 +7060,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M2" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7079,7 +7079,7 @@
     <col min="11" max="11" width="3.5703125" style="52" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" style="52" customWidth="1"/>
     <col min="13" max="17" width="11.42578125" style="52" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="52" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="11.42578125" style="52"/>
     <col min="22" max="22" width="5.140625" style="52" customWidth="1"/>
@@ -7097,17 +7097,17 @@
       <c r="B1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -7202,7 +7202,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -7228,11 +7228,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -7241,7 +7241,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -8693,21 +8693,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -8732,19 +8732,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -8769,7 +8769,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -8777,11 +8777,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -9524,7 +9524,7 @@
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
@@ -9545,8 +9545,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M3" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9582,17 +9582,17 @@
       <c r="B1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -9687,7 +9687,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -9713,11 +9713,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -9726,7 +9726,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -11178,21 +11178,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -11217,19 +11217,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -11254,7 +11254,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -11262,11 +11262,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -12030,8 +12030,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M2" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M3" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12049,7 +12049,7 @@
     <col min="11" max="11" width="3.5703125" style="52" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" style="52" customWidth="1"/>
     <col min="13" max="17" width="11.42578125" style="52" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="52" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="11.42578125" style="52"/>
     <col min="22" max="22" width="5.140625" style="52" customWidth="1"/>
@@ -12067,17 +12067,17 @@
       <c r="B1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -12172,7 +12172,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -12198,11 +12198,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -12211,7 +12211,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -13663,21 +13663,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -13702,19 +13702,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -13739,7 +13739,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -13747,11 +13747,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -14494,7 +14494,7 @@
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
       <formula1>"E,M"</formula1>
     </dataValidation>
@@ -14515,8 +14515,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M2" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M5" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14552,17 +14552,17 @@
       <c r="B1" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -14657,7 +14657,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -14683,11 +14683,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -14696,7 +14696,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -16148,21 +16148,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -16187,19 +16187,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -16224,7 +16224,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -16232,11 +16232,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -17000,8 +17000,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17037,17 +17037,17 @@
       <c r="B1" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -17142,7 +17142,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -17168,11 +17168,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -17181,7 +17181,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -18633,21 +18633,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -18672,19 +18672,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -18709,7 +18709,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -18717,11 +18717,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -19485,8 +19485,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M2" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M3" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19522,17 +19522,17 @@
       <c r="B1" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -19627,7 +19627,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -19653,11 +19653,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -19666,7 +19666,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -21118,21 +21118,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -21157,19 +21157,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -21194,7 +21194,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -21202,11 +21202,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -21949,7 +21949,7 @@
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
       <formula1>"E,M"</formula1>
     </dataValidation>
@@ -21970,8 +21970,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M2" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M3" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22007,17 +22007,17 @@
       <c r="B1" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -22112,7 +22112,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -22138,11 +22138,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -22151,7 +22151,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -23603,21 +23603,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -23642,19 +23642,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -23679,7 +23679,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -23687,11 +23687,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -24456,7 +24456,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1048576"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24487,10 +24487,10 @@
         <f>"Fach: "&amp;'1. Halbjahr'!E1</f>
         <v xml:space="preserve">Fach: </v>
       </c>
-      <c r="E2" s="485"/>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="485"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
       <c r="I2" s="448"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -24541,15 +24541,15 @@
     <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="417"/>
-      <c r="C5" s="483" t="s">
+      <c r="C5" s="485" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="483"/>
-      <c r="E5" s="486"/>
-      <c r="F5" s="483" t="s">
+      <c r="D5" s="485"/>
+      <c r="E5" s="488"/>
+      <c r="F5" s="485" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="484"/>
+      <c r="G5" s="486"/>
       <c r="H5" s="429" t="s">
         <v>34</v>
       </c>
@@ -26122,11 +26122,11 @@
       <c r="E43" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="482" t="s">
+      <c r="G43" s="484" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="482"/>
-      <c r="I43" s="482"/>
+      <c r="H43" s="484"/>
+      <c r="I43" s="484"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -26747,15 +26747,15 @@
       <c r="G6" s="123"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="487" t="s">
+      <c r="A7" s="503" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="488"/>
-      <c r="C7" s="488"/>
-      <c r="D7" s="488"/>
-      <c r="E7" s="488"/>
-      <c r="F7" s="488"/>
-      <c r="G7" s="489"/>
+      <c r="B7" s="504"/>
+      <c r="C7" s="504"/>
+      <c r="D7" s="504"/>
+      <c r="E7" s="504"/>
+      <c r="F7" s="504"/>
+      <c r="G7" s="505"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="132"/>
@@ -26771,10 +26771,10 @@
       <c r="B9" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="490" t="s">
+      <c r="C9" s="506" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="490"/>
+      <c r="D9" s="506"/>
       <c r="E9" s="126"/>
       <c r="F9" s="126"/>
       <c r="G9" s="129"/>
@@ -27821,8 +27821,8 @@
       <c r="G46" s="123"/>
     </row>
     <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="491"/>
-      <c r="B47" s="491"/>
+      <c r="A47" s="507"/>
+      <c r="B47" s="507"/>
       <c r="C47" s="139" t="s">
         <v>85</v>
       </c>
@@ -27838,10 +27838,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="492">
+      <c r="A48" s="489">
         <v>15</v>
       </c>
-      <c r="B48" s="493"/>
+      <c r="B48" s="490"/>
       <c r="C48" s="141" t="str">
         <f>AP!E50 &amp;"-"&amp; AP!F50</f>
         <v>100-95,5</v>
@@ -27863,10 +27863,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="492">
+      <c r="A49" s="489">
         <v>14</v>
       </c>
-      <c r="B49" s="493"/>
+      <c r="B49" s="490"/>
       <c r="C49" s="141" t="str">
         <f>AP!E51 &amp;"-"&amp; AP!F51</f>
         <v>95-90,5</v>
@@ -27888,10 +27888,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="492">
+      <c r="A50" s="489">
         <v>13</v>
       </c>
-      <c r="B50" s="493"/>
+      <c r="B50" s="490"/>
       <c r="C50" s="141" t="str">
         <f>AP!E52 &amp;"-"&amp; AP!F52</f>
         <v>90-85,5</v>
@@ -27913,10 +27913,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="492">
+      <c r="A51" s="489">
         <v>12</v>
       </c>
-      <c r="B51" s="493"/>
+      <c r="B51" s="490"/>
       <c r="C51" s="141" t="str">
         <f>AP!E53 &amp;"-"&amp; AP!F53</f>
         <v>85-80,5</v>
@@ -27938,10 +27938,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="492">
+      <c r="A52" s="489">
         <v>11</v>
       </c>
-      <c r="B52" s="493"/>
+      <c r="B52" s="490"/>
       <c r="C52" s="141" t="str">
         <f>AP!E54 &amp;"-"&amp; AP!F54</f>
         <v>80-75,5</v>
@@ -27963,10 +27963,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="492">
+      <c r="A53" s="489">
         <v>10</v>
       </c>
-      <c r="B53" s="493"/>
+      <c r="B53" s="490"/>
       <c r="C53" s="141" t="str">
         <f>AP!E55 &amp;"-"&amp; AP!F55</f>
         <v>75-70,5</v>
@@ -27988,10 +27988,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="492">
+      <c r="A54" s="489">
         <v>9</v>
       </c>
-      <c r="B54" s="493"/>
+      <c r="B54" s="490"/>
       <c r="C54" s="141" t="str">
         <f>AP!E56 &amp;"-"&amp; AP!F56</f>
         <v>70-65,5</v>
@@ -28013,10 +28013,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="492">
+      <c r="A55" s="489">
         <v>8</v>
       </c>
-      <c r="B55" s="493"/>
+      <c r="B55" s="490"/>
       <c r="C55" s="141" t="str">
         <f>AP!E57 &amp;"-"&amp; AP!F57</f>
         <v>65-60,5</v>
@@ -28047,64 +28047,73 @@
       <c r="G56" s="115"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="503" t="s">
+      <c r="A57" s="500" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="504"/>
-      <c r="C57" s="504"/>
-      <c r="D57" s="504"/>
-      <c r="E57" s="504"/>
-      <c r="F57" s="504"/>
-      <c r="G57" s="505"/>
+      <c r="B57" s="501"/>
+      <c r="C57" s="501"/>
+      <c r="D57" s="501"/>
+      <c r="E57" s="501"/>
+      <c r="F57" s="501"/>
+      <c r="G57" s="502"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="494" t="e">
+      <c r="A58" s="491" t="e">
         <f ca="1">AVERAGE(E11:E45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B58" s="495"/>
-      <c r="C58" s="495"/>
-      <c r="D58" s="495"/>
-      <c r="E58" s="495"/>
-      <c r="F58" s="495"/>
-      <c r="G58" s="496"/>
+      <c r="B58" s="492"/>
+      <c r="C58" s="492"/>
+      <c r="D58" s="492"/>
+      <c r="E58" s="492"/>
+      <c r="F58" s="492"/>
+      <c r="G58" s="493"/>
     </row>
     <row r="60" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="500" t="s">
+      <c r="A60" s="497" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="501"/>
-      <c r="C60" s="501"/>
-      <c r="D60" s="501"/>
-      <c r="E60" s="501"/>
-      <c r="F60" s="501"/>
-      <c r="G60" s="502"/>
+      <c r="B60" s="498"/>
+      <c r="C60" s="498"/>
+      <c r="D60" s="498"/>
+      <c r="E60" s="498"/>
+      <c r="F60" s="498"/>
+      <c r="G60" s="499"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="114"/>
-      <c r="B65" s="499"/>
-      <c r="C65" s="499"/>
+      <c r="B65" s="496"/>
+      <c r="C65" s="496"/>
       <c r="D65" s="112"/>
       <c r="E65" s="112"/>
-      <c r="F65" s="498"/>
-      <c r="G65" s="498"/>
+      <c r="F65" s="495"/>
+      <c r="G65" s="495"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="112"/>
-      <c r="B66" s="497" t="s">
+      <c r="B66" s="494" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="497"/>
+      <c r="C66" s="494"/>
       <c r="D66" s="112"/>
       <c r="E66" s="113"/>
-      <c r="F66" s="497" t="s">
+      <c r="F66" s="494" t="s">
         <v>80</v>
       </c>
-      <c r="G66" s="497"/>
+      <c r="G66" s="494"/>
     </row>
   </sheetData>
   <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="18">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:G58"/>
@@ -28114,15 +28123,6 @@
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.35433070866141736" top="0.39" bottom="0.52" header="0.19" footer="0.45"/>
@@ -28249,15 +28249,15 @@
       <c r="G5" s="131"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="507" t="s">
+      <c r="A7" s="509" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="508"/>
-      <c r="C7" s="508"/>
-      <c r="D7" s="508"/>
-      <c r="E7" s="508"/>
-      <c r="F7" s="508"/>
-      <c r="G7" s="509"/>
+      <c r="B7" s="510"/>
+      <c r="C7" s="510"/>
+      <c r="D7" s="510"/>
+      <c r="E7" s="510"/>
+      <c r="F7" s="510"/>
+      <c r="G7" s="511"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="375"/>
@@ -29054,39 +29054,39 @@
       <c r="A56" s="375"/>
       <c r="B56" s="371"/>
       <c r="C56" s="371"/>
-      <c r="D56" s="510" t="s">
+      <c r="D56" s="512" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="511"/>
-      <c r="F56" s="511"/>
-      <c r="G56" s="512"/>
+      <c r="E56" s="513"/>
+      <c r="F56" s="513"/>
+      <c r="G56" s="514"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="387"/>
       <c r="B57" s="373"/>
       <c r="C57" s="373"/>
-      <c r="D57" s="513" t="str">
+      <c r="D57" s="515" t="str">
         <f>IF(SUM(C10:C44)=0,"",AVERAGE(C10:C44))</f>
         <v/>
       </c>
-      <c r="E57" s="514"/>
-      <c r="F57" s="514"/>
-      <c r="G57" s="515"/>
+      <c r="E57" s="516"/>
+      <c r="F57" s="516"/>
+      <c r="G57" s="517"/>
     </row>
     <row r="58" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="516" t="s">
+      <c r="A58" s="518" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="517"/>
-      <c r="C58" s="517"/>
-      <c r="D58" s="517"/>
-      <c r="E58" s="517"/>
-      <c r="F58" s="517"/>
-      <c r="G58" s="518"/>
+      <c r="B58" s="519"/>
+      <c r="C58" s="519"/>
+      <c r="D58" s="519"/>
+      <c r="E58" s="519"/>
+      <c r="F58" s="519"/>
+      <c r="G58" s="520"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="519"/>
-      <c r="B60" s="519"/>
+      <c r="A60" s="521"/>
+      <c r="B60" s="521"/>
       <c r="C60" s="371"/>
       <c r="D60" s="371"/>
       <c r="E60" s="371"/>
@@ -29098,12 +29098,12 @@
         <v>81</v>
       </c>
       <c r="C61" s="371"/>
-      <c r="D61" s="506" t="s">
+      <c r="D61" s="508" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="506"/>
-      <c r="F61" s="506"/>
-      <c r="G61" s="506"/>
+      <c r="E61" s="508"/>
+      <c r="F61" s="508"/>
+      <c r="G61" s="508"/>
     </row>
   </sheetData>
   <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -29132,8 +29132,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29149,7 +29149,7 @@
     <col min="9" max="9" width="6.140625" style="52" customWidth="1"/>
     <col min="10" max="10" width="4" style="52" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="3.5703125" style="52" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="52" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="52" hidden="1" customWidth="1"/>
     <col min="13" max="17" width="11.42578125" style="47" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="10.5703125" style="52" customWidth="1"/>
     <col min="19" max="19" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
@@ -29169,17 +29169,17 @@
       <c r="B1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -29274,7 +29274,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="26"/>
@@ -29300,11 +29300,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -29313,7 +29313,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="26"/>
@@ -30752,21 +30752,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -30786,19 +30786,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -30818,7 +30818,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="86" t="s">
         <v>21</v>
@@ -30826,11 +30826,11 @@
       <c r="D42" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -31489,7 +31489,7 @@
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
       <formula1>"E,M"</formula1>
     </dataValidation>
@@ -31646,7 +31646,7 @@
         <f>SUM(C2:AD2)</f>
         <v>100</v>
       </c>
-      <c r="AF2" s="520" t="s">
+      <c r="AF2" s="522" t="s">
         <v>92</v>
       </c>
       <c r="AG2" s="182" t="s">
@@ -31740,7 +31740,7 @@
         <v>71</v>
       </c>
       <c r="AE3" s="78"/>
-      <c r="AF3" s="521"/>
+      <c r="AF3" s="523"/>
       <c r="AG3" s="178" t="s">
         <v>103</v>
       </c>
@@ -33844,66 +33844,66 @@
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="279"/>
       <c r="B6" s="285"/>
-      <c r="C6" s="533" t="s">
+      <c r="C6" s="547" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="534"/>
-      <c r="E6" s="534"/>
-      <c r="F6" s="534"/>
-      <c r="G6" s="534"/>
-      <c r="H6" s="534"/>
-      <c r="I6" s="534"/>
-      <c r="J6" s="534"/>
-      <c r="K6" s="534"/>
-      <c r="L6" s="534"/>
-      <c r="M6" s="534"/>
-      <c r="N6" s="534"/>
-      <c r="O6" s="534"/>
-      <c r="P6" s="534"/>
-      <c r="Q6" s="534"/>
-      <c r="R6" s="535"/>
-      <c r="S6" s="533" t="s">
+      <c r="D6" s="548"/>
+      <c r="E6" s="548"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="548"/>
+      <c r="H6" s="548"/>
+      <c r="I6" s="548"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="548"/>
+      <c r="L6" s="548"/>
+      <c r="M6" s="548"/>
+      <c r="N6" s="548"/>
+      <c r="O6" s="548"/>
+      <c r="P6" s="548"/>
+      <c r="Q6" s="548"/>
+      <c r="R6" s="549"/>
+      <c r="S6" s="547" t="s">
         <v>130</v>
       </c>
-      <c r="T6" s="534"/>
-      <c r="U6" s="534"/>
-      <c r="V6" s="534"/>
-      <c r="W6" s="534"/>
-      <c r="X6" s="535"/>
-      <c r="Y6" s="536" t="s">
+      <c r="T6" s="548"/>
+      <c r="U6" s="548"/>
+      <c r="V6" s="548"/>
+      <c r="W6" s="548"/>
+      <c r="X6" s="549"/>
+      <c r="Y6" s="550" t="s">
         <v>131</v>
       </c>
-      <c r="Z6" s="537"/>
+      <c r="Z6" s="551"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="285"/>
       <c r="B7" s="285"/>
-      <c r="C7" s="538" t="s">
+      <c r="C7" s="552" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="523"/>
-      <c r="E7" s="523"/>
-      <c r="F7" s="523"/>
-      <c r="G7" s="523"/>
-      <c r="H7" s="523"/>
-      <c r="I7" s="523"/>
-      <c r="J7" s="539"/>
-      <c r="K7" s="522" t="s">
+      <c r="D7" s="543"/>
+      <c r="E7" s="543"/>
+      <c r="F7" s="543"/>
+      <c r="G7" s="543"/>
+      <c r="H7" s="543"/>
+      <c r="I7" s="543"/>
+      <c r="J7" s="553"/>
+      <c r="K7" s="542" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="523"/>
-      <c r="M7" s="523"/>
-      <c r="N7" s="523"/>
-      <c r="O7" s="523"/>
-      <c r="P7" s="539"/>
+      <c r="L7" s="543"/>
+      <c r="M7" s="543"/>
+      <c r="N7" s="543"/>
+      <c r="O7" s="543"/>
+      <c r="P7" s="553"/>
       <c r="Q7" s="290"/>
       <c r="R7" s="291"/>
-      <c r="S7" s="540" t="s">
+      <c r="S7" s="554" t="s">
         <v>134</v>
       </c>
-      <c r="T7" s="525"/>
-      <c r="U7" s="525"/>
-      <c r="V7" s="526"/>
+      <c r="T7" s="545"/>
+      <c r="U7" s="545"/>
+      <c r="V7" s="546"/>
       <c r="W7" s="292"/>
       <c r="X7" s="291"/>
       <c r="Y7" s="293"/>
@@ -33934,15 +33934,15 @@
         <v>135</v>
       </c>
       <c r="J8" s="299"/>
-      <c r="K8" s="522" t="s">
+      <c r="K8" s="542" t="s">
         <v>136</v>
       </c>
-      <c r="L8" s="523"/>
-      <c r="M8" s="524" t="s">
+      <c r="L8" s="543"/>
+      <c r="M8" s="544" t="s">
         <v>137</v>
       </c>
-      <c r="N8" s="525"/>
-      <c r="O8" s="526"/>
+      <c r="N8" s="545"/>
+      <c r="O8" s="546"/>
       <c r="P8" s="299"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="291"/>
@@ -34096,10 +34096,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="527">
+      <c r="A11" s="528">
         <v>1</v>
       </c>
-      <c r="B11" s="527" t="str">
+      <c r="B11" s="528" t="str">
         <f>IF('1. Halbjahr'!B4&lt;&gt;"", '1. Halbjahr'!B4, "")</f>
         <v/>
       </c>
@@ -34131,18 +34131,18 @@
         <f ca="1">IF(Q11="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q11/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q11))</f>
         <v/>
       </c>
-      <c r="S11" s="529"/>
-      <c r="T11" s="531"/>
-      <c r="U11" s="541"/>
-      <c r="V11" s="543" t="str">
+      <c r="S11" s="530"/>
+      <c r="T11" s="532"/>
+      <c r="U11" s="534"/>
+      <c r="V11" s="536" t="str">
         <f>IF(B11="","",SUM(S11:U11))</f>
         <v/>
       </c>
-      <c r="W11" s="545" t="str">
+      <c r="W11" s="524" t="str">
         <f>IF(B11="","",IF(ISBLANK(S11),"",IF(AVERAGE(S11:U11)&lt;10,LEFT(AVERAGE(S11:U11),4),LEFT(AVERAGE(S11:U11),5))))</f>
         <v/>
       </c>
-      <c r="X11" s="547" t="str">
+      <c r="X11" s="526" t="str">
         <f>IF(B11="","",IF(W11="","",IF(LEFT(W11,1)="0",0,ROUND(W11,0))))</f>
         <v/>
       </c>
@@ -34157,8 +34157,8 @@
       <c r="AB11" s="336"/>
     </row>
     <row r="12" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="528"/>
-      <c r="B12" s="528"/>
+      <c r="A12" s="529"/>
+      <c r="B12" s="529"/>
       <c r="C12" s="337"/>
       <c r="D12" s="337"/>
       <c r="E12" s="337"/>
@@ -34187,12 +34187,12 @@
         <f ca="1">IF(Q12="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q12/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q12))</f>
         <v/>
       </c>
-      <c r="S12" s="530"/>
-      <c r="T12" s="532"/>
-      <c r="U12" s="542"/>
-      <c r="V12" s="544"/>
-      <c r="W12" s="546"/>
-      <c r="X12" s="548"/>
+      <c r="S12" s="531"/>
+      <c r="T12" s="533"/>
+      <c r="U12" s="535"/>
+      <c r="V12" s="537"/>
+      <c r="W12" s="525"/>
+      <c r="X12" s="527"/>
       <c r="Y12" s="343" t="str">
         <f>IF(B11="","",ROUNDUP(AVERAGE(R12,R12,X11),2))</f>
         <v/>
@@ -34203,10 +34203,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="527">
+      <c r="A13" s="528">
         <v>2</v>
       </c>
-      <c r="B13" s="527" t="str">
+      <c r="B13" s="528" t="str">
         <f>IF('1. Halbjahr'!B5&lt;&gt;"", '1. Halbjahr'!B5, "")</f>
         <v/>
       </c>
@@ -34238,18 +34238,18 @@
         <f ca="1">IF(Q13="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q13/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q13))</f>
         <v/>
       </c>
-      <c r="S13" s="529"/>
-      <c r="T13" s="531"/>
-      <c r="U13" s="541"/>
-      <c r="V13" s="543" t="str">
+      <c r="S13" s="530"/>
+      <c r="T13" s="532"/>
+      <c r="U13" s="534"/>
+      <c r="V13" s="536" t="str">
         <f>IF(B13="","",SUM(S13:U13))</f>
         <v/>
       </c>
-      <c r="W13" s="545" t="str">
+      <c r="W13" s="524" t="str">
         <f>IF(B13="","",IF(ISBLANK(S13),"",IF(AVERAGE(S13:U13)&lt;10,LEFT(AVERAGE(S13:U13),4),LEFT(AVERAGE(S13:U13),5))))</f>
         <v/>
       </c>
-      <c r="X13" s="547" t="str">
+      <c r="X13" s="526" t="str">
         <f>IF(B13="","",IF(W13="","",IF(LEFT(W13,1)="0",0,ROUND(W13,0))))</f>
         <v/>
       </c>
@@ -34264,8 +34264,8 @@
       <c r="AA13" s="347"/>
     </row>
     <row r="14" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="528"/>
-      <c r="B14" s="528"/>
+      <c r="A14" s="529"/>
+      <c r="B14" s="529"/>
       <c r="C14" s="348"/>
       <c r="D14" s="337"/>
       <c r="E14" s="337"/>
@@ -34294,12 +34294,12 @@
         <f ca="1">IF(Q14="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q14/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q14))</f>
         <v/>
       </c>
-      <c r="S14" s="530"/>
-      <c r="T14" s="532"/>
-      <c r="U14" s="542"/>
-      <c r="V14" s="544"/>
-      <c r="W14" s="546"/>
-      <c r="X14" s="548"/>
+      <c r="S14" s="531"/>
+      <c r="T14" s="533"/>
+      <c r="U14" s="535"/>
+      <c r="V14" s="537"/>
+      <c r="W14" s="525"/>
+      <c r="X14" s="527"/>
       <c r="Y14" s="343" t="str">
         <f>IF(B13="","",ROUNDUP(AVERAGE(R14,R14,X13),2))</f>
         <v/>
@@ -34310,10 +34310,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="527">
+      <c r="A15" s="528">
         <v>3</v>
       </c>
-      <c r="B15" s="527" t="str">
+      <c r="B15" s="528" t="str">
         <f>IF('1. Halbjahr'!B6&lt;&gt;"", '1. Halbjahr'!B6, "")</f>
         <v/>
       </c>
@@ -34345,18 +34345,18 @@
         <f ca="1">IF(Q15="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q15/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q15))</f>
         <v/>
       </c>
-      <c r="S15" s="529"/>
-      <c r="T15" s="531"/>
-      <c r="U15" s="541"/>
-      <c r="V15" s="543" t="str">
+      <c r="S15" s="530"/>
+      <c r="T15" s="532"/>
+      <c r="U15" s="534"/>
+      <c r="V15" s="536" t="str">
         <f>IF(B15="","",SUM(S15:U15))</f>
         <v/>
       </c>
-      <c r="W15" s="545" t="str">
+      <c r="W15" s="524" t="str">
         <f>IF(B15="","",IF(ISBLANK(S15),"",IF(AVERAGE(S15:U15)&lt;10,LEFT(AVERAGE(S15:U15),4),LEFT(AVERAGE(S15:U15),5))))</f>
         <v/>
       </c>
-      <c r="X15" s="547" t="str">
+      <c r="X15" s="526" t="str">
         <f>IF(B15="","",IF(W15="","",IF(LEFT(W15,1)="0",0,ROUND(W15,0))))</f>
         <v/>
       </c>
@@ -34370,8 +34370,8 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="528"/>
-      <c r="B16" s="528"/>
+      <c r="A16" s="529"/>
+      <c r="B16" s="529"/>
       <c r="C16" s="348"/>
       <c r="D16" s="337"/>
       <c r="E16" s="337"/>
@@ -34400,12 +34400,12 @@
         <f ca="1">IF(Q16="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q16/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q16))</f>
         <v/>
       </c>
-      <c r="S16" s="530"/>
-      <c r="T16" s="532"/>
-      <c r="U16" s="542"/>
-      <c r="V16" s="544"/>
-      <c r="W16" s="546"/>
-      <c r="X16" s="548"/>
+      <c r="S16" s="531"/>
+      <c r="T16" s="533"/>
+      <c r="U16" s="535"/>
+      <c r="V16" s="537"/>
+      <c r="W16" s="525"/>
+      <c r="X16" s="527"/>
       <c r="Y16" s="343" t="str">
         <f>IF(B15="","",ROUNDUP(AVERAGE(R16,R16,X15),2))</f>
         <v/>
@@ -34416,10 +34416,10 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="527">
+      <c r="A17" s="528">
         <v>4</v>
       </c>
-      <c r="B17" s="527" t="str">
+      <c r="B17" s="528" t="str">
         <f>IF('1. Halbjahr'!B7&lt;&gt;"", '1. Halbjahr'!B7, "")</f>
         <v/>
       </c>
@@ -34451,18 +34451,18 @@
         <f ca="1">IF(Q17="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q17/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q17))</f>
         <v/>
       </c>
-      <c r="S17" s="529"/>
-      <c r="T17" s="531"/>
-      <c r="U17" s="541"/>
-      <c r="V17" s="543" t="str">
+      <c r="S17" s="530"/>
+      <c r="T17" s="532"/>
+      <c r="U17" s="534"/>
+      <c r="V17" s="536" t="str">
         <f>IF(B17="","",SUM(S17:U17))</f>
         <v/>
       </c>
-      <c r="W17" s="545" t="str">
+      <c r="W17" s="524" t="str">
         <f>IF(B17="","",IF(ISBLANK(S17),"",IF(AVERAGE(S17:U17)&lt;10,LEFT(AVERAGE(S17:U17),4),LEFT(AVERAGE(S17:U17),5))))</f>
         <v/>
       </c>
-      <c r="X17" s="547" t="str">
+      <c r="X17" s="526" t="str">
         <f>IF(B17="","",IF(W17="","",IF(LEFT(W17,1)="0",0,ROUND(W17,0))))</f>
         <v/>
       </c>
@@ -34476,8 +34476,8 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="528"/>
-      <c r="B18" s="528"/>
+      <c r="A18" s="529"/>
+      <c r="B18" s="529"/>
       <c r="C18" s="348"/>
       <c r="D18" s="337"/>
       <c r="E18" s="337"/>
@@ -34506,12 +34506,12 @@
         <f ca="1">IF(Q18="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q18/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q18))</f>
         <v/>
       </c>
-      <c r="S18" s="530"/>
-      <c r="T18" s="532"/>
-      <c r="U18" s="542"/>
-      <c r="V18" s="544"/>
-      <c r="W18" s="546"/>
-      <c r="X18" s="548"/>
+      <c r="S18" s="531"/>
+      <c r="T18" s="533"/>
+      <c r="U18" s="535"/>
+      <c r="V18" s="537"/>
+      <c r="W18" s="525"/>
+      <c r="X18" s="527"/>
       <c r="Y18" s="343" t="str">
         <f>IF(B17="","",ROUNDUP(AVERAGE(R18,R18,X17),2))</f>
         <v/>
@@ -34522,10 +34522,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="527">
+      <c r="A19" s="528">
         <v>5</v>
       </c>
-      <c r="B19" s="527" t="str">
+      <c r="B19" s="528" t="str">
         <f>IF('1. Halbjahr'!B8&lt;&gt;"", '1. Halbjahr'!B8, "")</f>
         <v/>
       </c>
@@ -34557,18 +34557,18 @@
         <f ca="1">IF(Q19="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q19/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q19))</f>
         <v/>
       </c>
-      <c r="S19" s="529"/>
-      <c r="T19" s="531"/>
-      <c r="U19" s="541"/>
-      <c r="V19" s="543" t="str">
+      <c r="S19" s="530"/>
+      <c r="T19" s="532"/>
+      <c r="U19" s="534"/>
+      <c r="V19" s="536" t="str">
         <f>IF(B19="","",SUM(S19:U19))</f>
         <v/>
       </c>
-      <c r="W19" s="545" t="str">
+      <c r="W19" s="524" t="str">
         <f>IF(B19="","",IF(ISBLANK(S19),"",IF(AVERAGE(S19:U19)&lt;10,LEFT(AVERAGE(S19:U19),4),LEFT(AVERAGE(S19:U19),5))))</f>
         <v/>
       </c>
-      <c r="X19" s="547" t="str">
+      <c r="X19" s="526" t="str">
         <f>IF(B19="","",IF(W19="","",IF(LEFT(W19,1)="0",0,ROUND(W19,0))))</f>
         <v/>
       </c>
@@ -34582,8 +34582,8 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="528"/>
-      <c r="B20" s="528"/>
+      <c r="A20" s="529"/>
+      <c r="B20" s="529"/>
       <c r="C20" s="348"/>
       <c r="D20" s="337"/>
       <c r="E20" s="337"/>
@@ -34612,12 +34612,12 @@
         <f ca="1">IF(Q20="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q20/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q20))</f>
         <v/>
       </c>
-      <c r="S20" s="530"/>
-      <c r="T20" s="532"/>
-      <c r="U20" s="542"/>
-      <c r="V20" s="544"/>
-      <c r="W20" s="546"/>
-      <c r="X20" s="548"/>
+      <c r="S20" s="531"/>
+      <c r="T20" s="533"/>
+      <c r="U20" s="535"/>
+      <c r="V20" s="537"/>
+      <c r="W20" s="525"/>
+      <c r="X20" s="527"/>
       <c r="Y20" s="343" t="str">
         <f>IF(B19="","",ROUNDUP(AVERAGE(R20,R20,X19),2))</f>
         <v/>
@@ -34628,10 +34628,10 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="527">
+      <c r="A21" s="528">
         <v>6</v>
       </c>
-      <c r="B21" s="527" t="str">
+      <c r="B21" s="528" t="str">
         <f>IF('1. Halbjahr'!B9&lt;&gt;"", '1. Halbjahr'!B9, "")</f>
         <v/>
       </c>
@@ -34663,18 +34663,18 @@
         <f ca="1">IF(Q21="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q21/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q21))</f>
         <v/>
       </c>
-      <c r="S21" s="529"/>
-      <c r="T21" s="531"/>
-      <c r="U21" s="541"/>
-      <c r="V21" s="543" t="str">
+      <c r="S21" s="530"/>
+      <c r="T21" s="532"/>
+      <c r="U21" s="534"/>
+      <c r="V21" s="536" t="str">
         <f>IF(B21="","",SUM(S21:U21))</f>
         <v/>
       </c>
-      <c r="W21" s="545" t="str">
+      <c r="W21" s="524" t="str">
         <f>IF(B21="","",IF(ISBLANK(S21),"",IF(AVERAGE(S21:U21)&lt;10,LEFT(AVERAGE(S21:U21),4),LEFT(AVERAGE(S21:U21),5))))</f>
         <v/>
       </c>
-      <c r="X21" s="547" t="str">
+      <c r="X21" s="526" t="str">
         <f>IF(B21="","",IF(W21="","",IF(LEFT(W21,1)="0",0,ROUND(W21,0))))</f>
         <v/>
       </c>
@@ -34688,8 +34688,8 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="528"/>
-      <c r="B22" s="528"/>
+      <c r="A22" s="529"/>
+      <c r="B22" s="529"/>
       <c r="C22" s="348"/>
       <c r="D22" s="337"/>
       <c r="E22" s="337"/>
@@ -34718,12 +34718,12 @@
         <f ca="1">IF(Q22="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q22/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q22))</f>
         <v/>
       </c>
-      <c r="S22" s="530"/>
-      <c r="T22" s="532"/>
-      <c r="U22" s="542"/>
-      <c r="V22" s="544"/>
-      <c r="W22" s="546"/>
-      <c r="X22" s="548"/>
+      <c r="S22" s="531"/>
+      <c r="T22" s="533"/>
+      <c r="U22" s="535"/>
+      <c r="V22" s="537"/>
+      <c r="W22" s="525"/>
+      <c r="X22" s="527"/>
       <c r="Y22" s="343" t="str">
         <f>IF(B21="","",ROUNDUP(AVERAGE(R22,R22,X21),2))</f>
         <v/>
@@ -34734,10 +34734,10 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="527">
+      <c r="A23" s="528">
         <v>7</v>
       </c>
-      <c r="B23" s="527" t="str">
+      <c r="B23" s="528" t="str">
         <f>IF('1. Halbjahr'!B10&lt;&gt;"", '1. Halbjahr'!B10, "")</f>
         <v/>
       </c>
@@ -34769,18 +34769,18 @@
         <f ca="1">IF(Q23="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q23/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q23))</f>
         <v/>
       </c>
-      <c r="S23" s="529"/>
-      <c r="T23" s="531"/>
-      <c r="U23" s="541"/>
-      <c r="V23" s="543" t="str">
+      <c r="S23" s="530"/>
+      <c r="T23" s="532"/>
+      <c r="U23" s="534"/>
+      <c r="V23" s="536" t="str">
         <f>IF(B23="","",SUM(S23:U23))</f>
         <v/>
       </c>
-      <c r="W23" s="545" t="str">
+      <c r="W23" s="524" t="str">
         <f>IF(B23="","",IF(ISBLANK(S23),"",IF(AVERAGE(S23:U23)&lt;10,LEFT(AVERAGE(S23:U23),4),LEFT(AVERAGE(S23:U23),5))))</f>
         <v/>
       </c>
-      <c r="X23" s="547" t="str">
+      <c r="X23" s="526" t="str">
         <f>IF(B23="","",IF(W23="","",IF(LEFT(W23,1)="0",0,ROUND(W23,0))))</f>
         <v/>
       </c>
@@ -34794,8 +34794,8 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="528"/>
-      <c r="B24" s="528"/>
+      <c r="A24" s="529"/>
+      <c r="B24" s="529"/>
       <c r="C24" s="348"/>
       <c r="D24" s="337"/>
       <c r="E24" s="337"/>
@@ -34824,12 +34824,12 @@
         <f ca="1">IF(Q24="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q24/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q24))</f>
         <v/>
       </c>
-      <c r="S24" s="530"/>
-      <c r="T24" s="532"/>
-      <c r="U24" s="542"/>
-      <c r="V24" s="544"/>
-      <c r="W24" s="546"/>
-      <c r="X24" s="548"/>
+      <c r="S24" s="531"/>
+      <c r="T24" s="533"/>
+      <c r="U24" s="535"/>
+      <c r="V24" s="537"/>
+      <c r="W24" s="525"/>
+      <c r="X24" s="527"/>
       <c r="Y24" s="343" t="str">
         <f>IF(B23="","",ROUNDUP(AVERAGE(R24,R24,X23),2))</f>
         <v/>
@@ -34840,10 +34840,10 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="527">
+      <c r="A25" s="528">
         <v>8</v>
       </c>
-      <c r="B25" s="527" t="str">
+      <c r="B25" s="528" t="str">
         <f>IF('1. Halbjahr'!B11&lt;&gt;"", '1. Halbjahr'!B11, "")</f>
         <v/>
       </c>
@@ -34875,18 +34875,18 @@
         <f ca="1">IF(Q25="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q25/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q25))</f>
         <v/>
       </c>
-      <c r="S25" s="529"/>
-      <c r="T25" s="531"/>
-      <c r="U25" s="541"/>
-      <c r="V25" s="543" t="str">
+      <c r="S25" s="530"/>
+      <c r="T25" s="532"/>
+      <c r="U25" s="534"/>
+      <c r="V25" s="536" t="str">
         <f>IF(B25="","",SUM(S25:U25))</f>
         <v/>
       </c>
-      <c r="W25" s="545" t="str">
+      <c r="W25" s="524" t="str">
         <f>IF(B25="","",IF(ISBLANK(S25),"",IF(AVERAGE(S25:U25)&lt;10,LEFT(AVERAGE(S25:U25),4),LEFT(AVERAGE(S25:U25),5))))</f>
         <v/>
       </c>
-      <c r="X25" s="547" t="str">
+      <c r="X25" s="526" t="str">
         <f>IF(B25="","",IF(W25="","",IF(LEFT(W25,1)="0",0,ROUND(W25,0))))</f>
         <v/>
       </c>
@@ -34900,8 +34900,8 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="528"/>
-      <c r="B26" s="528"/>
+      <c r="A26" s="529"/>
+      <c r="B26" s="529"/>
       <c r="C26" s="348"/>
       <c r="D26" s="337"/>
       <c r="E26" s="337"/>
@@ -34930,12 +34930,12 @@
         <f ca="1">IF(Q26="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q26/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q26))</f>
         <v/>
       </c>
-      <c r="S26" s="530"/>
-      <c r="T26" s="532"/>
-      <c r="U26" s="542"/>
-      <c r="V26" s="544"/>
-      <c r="W26" s="546"/>
-      <c r="X26" s="548"/>
+      <c r="S26" s="531"/>
+      <c r="T26" s="533"/>
+      <c r="U26" s="535"/>
+      <c r="V26" s="537"/>
+      <c r="W26" s="525"/>
+      <c r="X26" s="527"/>
       <c r="Y26" s="343" t="str">
         <f>IF(B25="","",ROUNDUP(AVERAGE(R26,R26,X25),2))</f>
         <v/>
@@ -34946,10 +34946,10 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="527">
+      <c r="A27" s="528">
         <v>9</v>
       </c>
-      <c r="B27" s="527" t="str">
+      <c r="B27" s="528" t="str">
         <f>IF('1. Halbjahr'!B12&lt;&gt;"", '1. Halbjahr'!B12, "")</f>
         <v/>
       </c>
@@ -34981,18 +34981,18 @@
         <f ca="1">IF(Q27="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q27/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q27))</f>
         <v/>
       </c>
-      <c r="S27" s="529"/>
-      <c r="T27" s="531"/>
-      <c r="U27" s="541"/>
-      <c r="V27" s="543" t="str">
+      <c r="S27" s="530"/>
+      <c r="T27" s="532"/>
+      <c r="U27" s="534"/>
+      <c r="V27" s="536" t="str">
         <f>IF(B27="","",SUM(S27:U27))</f>
         <v/>
       </c>
-      <c r="W27" s="545" t="str">
+      <c r="W27" s="524" t="str">
         <f>IF(B27="","",IF(ISBLANK(S27),"",IF(AVERAGE(S27:U27)&lt;10,LEFT(AVERAGE(S27:U27),4),LEFT(AVERAGE(S27:U27),5))))</f>
         <v/>
       </c>
-      <c r="X27" s="547" t="str">
+      <c r="X27" s="526" t="str">
         <f>IF(B27="","",IF(W27="","",IF(LEFT(W27,1)="0",0,ROUND(W27,0))))</f>
         <v/>
       </c>
@@ -35006,8 +35006,8 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="528"/>
-      <c r="B28" s="528"/>
+      <c r="A28" s="529"/>
+      <c r="B28" s="529"/>
       <c r="C28" s="348"/>
       <c r="D28" s="337"/>
       <c r="E28" s="337"/>
@@ -35036,12 +35036,12 @@
         <f ca="1">IF(Q28="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q28/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q28))</f>
         <v/>
       </c>
-      <c r="S28" s="530"/>
-      <c r="T28" s="532"/>
-      <c r="U28" s="542"/>
-      <c r="V28" s="544"/>
-      <c r="W28" s="546"/>
-      <c r="X28" s="548"/>
+      <c r="S28" s="531"/>
+      <c r="T28" s="533"/>
+      <c r="U28" s="535"/>
+      <c r="V28" s="537"/>
+      <c r="W28" s="525"/>
+      <c r="X28" s="527"/>
       <c r="Y28" s="343" t="str">
         <f>IF(B27="","",ROUNDUP(AVERAGE(R28,R28,X27),2))</f>
         <v/>
@@ -35052,10 +35052,10 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="527">
+      <c r="A29" s="528">
         <v>10</v>
       </c>
-      <c r="B29" s="527" t="str">
+      <c r="B29" s="528" t="str">
         <f>IF('1. Halbjahr'!B13&lt;&gt;"", '1. Halbjahr'!B13, "")</f>
         <v/>
       </c>
@@ -35087,18 +35087,18 @@
         <f ca="1">IF(Q29="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q29/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q29))</f>
         <v/>
       </c>
-      <c r="S29" s="529"/>
-      <c r="T29" s="531"/>
-      <c r="U29" s="541"/>
-      <c r="V29" s="543" t="str">
+      <c r="S29" s="530"/>
+      <c r="T29" s="532"/>
+      <c r="U29" s="534"/>
+      <c r="V29" s="536" t="str">
         <f>IF(B29="","",SUM(S29:U29))</f>
         <v/>
       </c>
-      <c r="W29" s="545" t="str">
+      <c r="W29" s="524" t="str">
         <f>IF(B29="","",IF(ISBLANK(S29),"",IF(AVERAGE(S29:U29)&lt;10,LEFT(AVERAGE(S29:U29),4),LEFT(AVERAGE(S29:U29),5))))</f>
         <v/>
       </c>
-      <c r="X29" s="547" t="str">
+      <c r="X29" s="526" t="str">
         <f>IF(B29="","",IF(W29="","",IF(LEFT(W29,1)="0",0,ROUND(W29,0))))</f>
         <v/>
       </c>
@@ -35112,8 +35112,8 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="528"/>
-      <c r="B30" s="528"/>
+      <c r="A30" s="529"/>
+      <c r="B30" s="529"/>
       <c r="C30" s="348"/>
       <c r="D30" s="337"/>
       <c r="E30" s="337"/>
@@ -35142,12 +35142,12 @@
         <f ca="1">IF(Q30="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q30/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q30))</f>
         <v/>
       </c>
-      <c r="S30" s="530"/>
-      <c r="T30" s="532"/>
-      <c r="U30" s="542"/>
-      <c r="V30" s="544"/>
-      <c r="W30" s="546"/>
-      <c r="X30" s="548"/>
+      <c r="S30" s="531"/>
+      <c r="T30" s="533"/>
+      <c r="U30" s="535"/>
+      <c r="V30" s="537"/>
+      <c r="W30" s="525"/>
+      <c r="X30" s="527"/>
       <c r="Y30" s="343" t="str">
         <f>IF(B29="","",ROUNDUP(AVERAGE(R30,R30,X29),2))</f>
         <v/>
@@ -35158,10 +35158,10 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="527">
+      <c r="A31" s="528">
         <v>11</v>
       </c>
-      <c r="B31" s="527" t="str">
+      <c r="B31" s="528" t="str">
         <f>IF('1. Halbjahr'!B14&lt;&gt;"", '1. Halbjahr'!B14, "")</f>
         <v/>
       </c>
@@ -35193,18 +35193,18 @@
         <f ca="1">IF(Q31="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q31/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q31))</f>
         <v/>
       </c>
-      <c r="S31" s="529"/>
-      <c r="T31" s="531"/>
-      <c r="U31" s="541"/>
-      <c r="V31" s="543" t="str">
+      <c r="S31" s="530"/>
+      <c r="T31" s="532"/>
+      <c r="U31" s="534"/>
+      <c r="V31" s="536" t="str">
         <f>IF(B31="","",SUM(S31:U31))</f>
         <v/>
       </c>
-      <c r="W31" s="545" t="str">
+      <c r="W31" s="524" t="str">
         <f>IF(B31="","",IF(ISBLANK(S31),"",IF(AVERAGE(S31:U31)&lt;10,LEFT(AVERAGE(S31:U31),4),LEFT(AVERAGE(S31:U31),5))))</f>
         <v/>
       </c>
-      <c r="X31" s="547" t="str">
+      <c r="X31" s="526" t="str">
         <f>IF(B31="","",IF(W31="","",IF(LEFT(W31,1)="0",0,ROUND(W31,0))))</f>
         <v/>
       </c>
@@ -35218,8 +35218,8 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="528"/>
-      <c r="B32" s="528"/>
+      <c r="A32" s="529"/>
+      <c r="B32" s="529"/>
       <c r="C32" s="348"/>
       <c r="D32" s="337"/>
       <c r="E32" s="337"/>
@@ -35248,12 +35248,12 @@
         <f ca="1">IF(Q32="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q32/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q32))</f>
         <v/>
       </c>
-      <c r="S32" s="530"/>
-      <c r="T32" s="532"/>
-      <c r="U32" s="542"/>
-      <c r="V32" s="544"/>
-      <c r="W32" s="546"/>
-      <c r="X32" s="548"/>
+      <c r="S32" s="531"/>
+      <c r="T32" s="533"/>
+      <c r="U32" s="535"/>
+      <c r="V32" s="537"/>
+      <c r="W32" s="525"/>
+      <c r="X32" s="527"/>
       <c r="Y32" s="343" t="str">
         <f>IF(B31="","",ROUNDUP(AVERAGE(R32,R32,X31),2))</f>
         <v/>
@@ -35264,10 +35264,10 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="527">
+      <c r="A33" s="528">
         <v>12</v>
       </c>
-      <c r="B33" s="527" t="str">
+      <c r="B33" s="528" t="str">
         <f>IF('1. Halbjahr'!B15&lt;&gt;"", '1. Halbjahr'!B15, "")</f>
         <v/>
       </c>
@@ -35299,18 +35299,18 @@
         <f ca="1">IF(Q33="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q33/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q33))</f>
         <v/>
       </c>
-      <c r="S33" s="529"/>
-      <c r="T33" s="531"/>
-      <c r="U33" s="541"/>
-      <c r="V33" s="543" t="str">
+      <c r="S33" s="530"/>
+      <c r="T33" s="532"/>
+      <c r="U33" s="534"/>
+      <c r="V33" s="536" t="str">
         <f>IF(B33="","",SUM(S33:U33))</f>
         <v/>
       </c>
-      <c r="W33" s="545" t="str">
+      <c r="W33" s="524" t="str">
         <f>IF(B33="","",IF(ISBLANK(S33),"",IF(AVERAGE(S33:U33)&lt;10,LEFT(AVERAGE(S33:U33),4),LEFT(AVERAGE(S33:U33),5))))</f>
         <v/>
       </c>
-      <c r="X33" s="547" t="str">
+      <c r="X33" s="526" t="str">
         <f>IF(B33="","",IF(W33="","",IF(LEFT(W33,1)="0",0,ROUND(W33,0))))</f>
         <v/>
       </c>
@@ -35324,8 +35324,8 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="528"/>
-      <c r="B34" s="528"/>
+      <c r="A34" s="529"/>
+      <c r="B34" s="529"/>
       <c r="C34" s="348"/>
       <c r="D34" s="337"/>
       <c r="E34" s="337"/>
@@ -35354,12 +35354,12 @@
         <f ca="1">IF(Q34="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q34/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q34))</f>
         <v/>
       </c>
-      <c r="S34" s="530"/>
-      <c r="T34" s="532"/>
-      <c r="U34" s="542"/>
-      <c r="V34" s="544"/>
-      <c r="W34" s="546"/>
-      <c r="X34" s="548"/>
+      <c r="S34" s="531"/>
+      <c r="T34" s="533"/>
+      <c r="U34" s="535"/>
+      <c r="V34" s="537"/>
+      <c r="W34" s="525"/>
+      <c r="X34" s="527"/>
       <c r="Y34" s="343" t="str">
         <f>IF(B33="","",ROUNDUP(AVERAGE(R34,R34,X33),2))</f>
         <v/>
@@ -35370,10 +35370,10 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="527">
+      <c r="A35" s="528">
         <v>13</v>
       </c>
-      <c r="B35" s="527" t="str">
+      <c r="B35" s="528" t="str">
         <f>IF('1. Halbjahr'!B16&lt;&gt;"", '1. Halbjahr'!B16, "")</f>
         <v/>
       </c>
@@ -35405,18 +35405,18 @@
         <f ca="1">IF(Q35="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q35/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q35))</f>
         <v/>
       </c>
-      <c r="S35" s="529"/>
-      <c r="T35" s="531"/>
-      <c r="U35" s="541"/>
-      <c r="V35" s="543" t="str">
+      <c r="S35" s="530"/>
+      <c r="T35" s="532"/>
+      <c r="U35" s="534"/>
+      <c r="V35" s="536" t="str">
         <f>IF(B35="","",SUM(S35:U35))</f>
         <v/>
       </c>
-      <c r="W35" s="545" t="str">
+      <c r="W35" s="524" t="str">
         <f>IF(B35="","",IF(ISBLANK(S35),"",IF(AVERAGE(S35:U35)&lt;10,LEFT(AVERAGE(S35:U35),4),LEFT(AVERAGE(S35:U35),5))))</f>
         <v/>
       </c>
-      <c r="X35" s="547" t="str">
+      <c r="X35" s="526" t="str">
         <f>IF(B35="","",IF(W35="","",IF(LEFT(W35,1)="0",0,ROUND(W35,0))))</f>
         <v/>
       </c>
@@ -35430,8 +35430,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="528"/>
-      <c r="B36" s="528"/>
+      <c r="A36" s="529"/>
+      <c r="B36" s="529"/>
       <c r="C36" s="348"/>
       <c r="D36" s="337"/>
       <c r="E36" s="337"/>
@@ -35460,12 +35460,12 @@
         <f ca="1">IF(Q36="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q36/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q36))</f>
         <v/>
       </c>
-      <c r="S36" s="530"/>
-      <c r="T36" s="532"/>
-      <c r="U36" s="542"/>
-      <c r="V36" s="544"/>
-      <c r="W36" s="546"/>
-      <c r="X36" s="548"/>
+      <c r="S36" s="531"/>
+      <c r="T36" s="533"/>
+      <c r="U36" s="535"/>
+      <c r="V36" s="537"/>
+      <c r="W36" s="525"/>
+      <c r="X36" s="527"/>
       <c r="Y36" s="343" t="str">
         <f>IF(B35="","",ROUNDUP(AVERAGE(R36,R36,X35),2))</f>
         <v/>
@@ -35476,10 +35476,10 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="527">
+      <c r="A37" s="528">
         <v>14</v>
       </c>
-      <c r="B37" s="527" t="str">
+      <c r="B37" s="528" t="str">
         <f>IF('1. Halbjahr'!B17&lt;&gt;"", '1. Halbjahr'!B17, "")</f>
         <v/>
       </c>
@@ -35511,18 +35511,18 @@
         <f ca="1">IF(Q37="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q37/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q37))</f>
         <v/>
       </c>
-      <c r="S37" s="529"/>
-      <c r="T37" s="531"/>
-      <c r="U37" s="541"/>
-      <c r="V37" s="543" t="str">
+      <c r="S37" s="530"/>
+      <c r="T37" s="532"/>
+      <c r="U37" s="534"/>
+      <c r="V37" s="536" t="str">
         <f>IF(B37="","",SUM(S37:U37))</f>
         <v/>
       </c>
-      <c r="W37" s="545" t="str">
+      <c r="W37" s="524" t="str">
         <f>IF(B37="","",IF(ISBLANK(S37),"",IF(AVERAGE(S37:U37)&lt;10,LEFT(AVERAGE(S37:U37),4),LEFT(AVERAGE(S37:U37),5))))</f>
         <v/>
       </c>
-      <c r="X37" s="547" t="str">
+      <c r="X37" s="526" t="str">
         <f>IF(B37="","",IF(W37="","",IF(LEFT(W37,1)="0",0,ROUND(W37,0))))</f>
         <v/>
       </c>
@@ -35536,8 +35536,8 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="528"/>
-      <c r="B38" s="528"/>
+      <c r="A38" s="529"/>
+      <c r="B38" s="529"/>
       <c r="C38" s="348"/>
       <c r="D38" s="337"/>
       <c r="E38" s="337"/>
@@ -35566,12 +35566,12 @@
         <f ca="1">IF(Q38="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q38/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q38))</f>
         <v/>
       </c>
-      <c r="S38" s="530"/>
-      <c r="T38" s="532"/>
-      <c r="U38" s="542"/>
-      <c r="V38" s="544"/>
-      <c r="W38" s="546"/>
-      <c r="X38" s="548"/>
+      <c r="S38" s="531"/>
+      <c r="T38" s="533"/>
+      <c r="U38" s="535"/>
+      <c r="V38" s="537"/>
+      <c r="W38" s="525"/>
+      <c r="X38" s="527"/>
       <c r="Y38" s="343" t="str">
         <f>IF(B37="","",ROUNDUP(AVERAGE(R38,R38,X37),2))</f>
         <v/>
@@ -35582,10 +35582,10 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="527">
+      <c r="A39" s="528">
         <v>15</v>
       </c>
-      <c r="B39" s="527" t="str">
+      <c r="B39" s="528" t="str">
         <f>IF('1. Halbjahr'!B18&lt;&gt;"", '1. Halbjahr'!B18, "")</f>
         <v/>
       </c>
@@ -35617,18 +35617,18 @@
         <f ca="1">IF(Q39="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q39/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q39))</f>
         <v/>
       </c>
-      <c r="S39" s="549"/>
-      <c r="T39" s="550"/>
-      <c r="U39" s="551"/>
-      <c r="V39" s="552" t="str">
+      <c r="S39" s="538"/>
+      <c r="T39" s="539"/>
+      <c r="U39" s="540"/>
+      <c r="V39" s="541" t="str">
         <f>IF(B39="","",SUM(S39:U39))</f>
         <v/>
       </c>
-      <c r="W39" s="545" t="str">
+      <c r="W39" s="524" t="str">
         <f>IF(B39="","",IF(ISBLANK(S39),"",IF(AVERAGE(S39:U39)&lt;10,LEFT(AVERAGE(S39:U39),4),LEFT(AVERAGE(S39:U39),5))))</f>
         <v/>
       </c>
-      <c r="X39" s="547" t="str">
+      <c r="X39" s="526" t="str">
         <f>IF(B39="","",IF(W39="","",IF(LEFT(W39,1)="0",0,ROUND(W39,0))))</f>
         <v/>
       </c>
@@ -35642,8 +35642,8 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="528"/>
-      <c r="B40" s="528"/>
+      <c r="A40" s="529"/>
+      <c r="B40" s="529"/>
       <c r="C40" s="348"/>
       <c r="D40" s="337"/>
       <c r="E40" s="337"/>
@@ -35672,12 +35672,12 @@
         <f ca="1">IF(Q40="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q40/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q40))</f>
         <v/>
       </c>
-      <c r="S40" s="530"/>
-      <c r="T40" s="532"/>
-      <c r="U40" s="542"/>
-      <c r="V40" s="544"/>
-      <c r="W40" s="546"/>
-      <c r="X40" s="548"/>
+      <c r="S40" s="531"/>
+      <c r="T40" s="533"/>
+      <c r="U40" s="535"/>
+      <c r="V40" s="537"/>
+      <c r="W40" s="525"/>
+      <c r="X40" s="527"/>
       <c r="Y40" s="343" t="str">
         <f>IF(B39="","",ROUNDUP(AVERAGE(R40,R40,X39),2))</f>
         <v/>
@@ -35688,10 +35688,10 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="527">
+      <c r="A41" s="528">
         <v>16</v>
       </c>
-      <c r="B41" s="527" t="str">
+      <c r="B41" s="528" t="str">
         <f>IF('1. Halbjahr'!B19&lt;&gt;"", '1. Halbjahr'!B19, "")</f>
         <v/>
       </c>
@@ -35723,18 +35723,18 @@
         <f ca="1">IF(Q41="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q41/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q41))</f>
         <v/>
       </c>
-      <c r="S41" s="529"/>
-      <c r="T41" s="531"/>
-      <c r="U41" s="541"/>
-      <c r="V41" s="543" t="str">
+      <c r="S41" s="530"/>
+      <c r="T41" s="532"/>
+      <c r="U41" s="534"/>
+      <c r="V41" s="536" t="str">
         <f>IF(B41="","",SUM(S41:U41))</f>
         <v/>
       </c>
-      <c r="W41" s="545" t="str">
+      <c r="W41" s="524" t="str">
         <f>IF(B41="","",IF(ISBLANK(S41),"",IF(AVERAGE(S41:U41)&lt;10,LEFT(AVERAGE(S41:U41),4),LEFT(AVERAGE(S41:U41),5))))</f>
         <v/>
       </c>
-      <c r="X41" s="547" t="str">
+      <c r="X41" s="526" t="str">
         <f>IF(B41="","",IF(W41="","",IF(LEFT(W41,1)="0",0,ROUND(W41,0))))</f>
         <v/>
       </c>
@@ -35748,8 +35748,8 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="528"/>
-      <c r="B42" s="528"/>
+      <c r="A42" s="529"/>
+      <c r="B42" s="529"/>
       <c r="C42" s="348"/>
       <c r="D42" s="337"/>
       <c r="E42" s="337"/>
@@ -35778,12 +35778,12 @@
         <f ca="1">IF(Q42="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q42/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q42))</f>
         <v/>
       </c>
-      <c r="S42" s="530"/>
-      <c r="T42" s="532"/>
-      <c r="U42" s="542"/>
-      <c r="V42" s="544"/>
-      <c r="W42" s="546"/>
-      <c r="X42" s="548"/>
+      <c r="S42" s="531"/>
+      <c r="T42" s="533"/>
+      <c r="U42" s="535"/>
+      <c r="V42" s="537"/>
+      <c r="W42" s="525"/>
+      <c r="X42" s="527"/>
       <c r="Y42" s="343" t="str">
         <f>IF(B41="","",ROUNDUP(AVERAGE(R42,R42,X41),2))</f>
         <v/>
@@ -35794,10 +35794,10 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="527">
+      <c r="A43" s="528">
         <v>17</v>
       </c>
-      <c r="B43" s="527" t="str">
+      <c r="B43" s="528" t="str">
         <f>IF('1. Halbjahr'!B20&lt;&gt;"", '1. Halbjahr'!B20, "")</f>
         <v/>
       </c>
@@ -35829,18 +35829,18 @@
         <f ca="1">IF(Q43="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q43/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q43))</f>
         <v/>
       </c>
-      <c r="S43" s="529"/>
-      <c r="T43" s="531"/>
-      <c r="U43" s="541"/>
-      <c r="V43" s="543" t="str">
+      <c r="S43" s="530"/>
+      <c r="T43" s="532"/>
+      <c r="U43" s="534"/>
+      <c r="V43" s="536" t="str">
         <f>IF(B43="","",SUM(S43:U43))</f>
         <v/>
       </c>
-      <c r="W43" s="545" t="str">
+      <c r="W43" s="524" t="str">
         <f>IF(B43="","",IF(ISBLANK(S43),"",IF(AVERAGE(S43:U43)&lt;10,LEFT(AVERAGE(S43:U43),4),LEFT(AVERAGE(S43:U43),5))))</f>
         <v/>
       </c>
-      <c r="X43" s="547" t="str">
+      <c r="X43" s="526" t="str">
         <f>IF(B43="","",IF(W43="","",IF(LEFT(W43,1)="0",0,ROUND(W43,0))))</f>
         <v/>
       </c>
@@ -35854,8 +35854,8 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="528"/>
-      <c r="B44" s="528"/>
+      <c r="A44" s="529"/>
+      <c r="B44" s="529"/>
       <c r="C44" s="348"/>
       <c r="D44" s="337"/>
       <c r="E44" s="337"/>
@@ -35884,12 +35884,12 @@
         <f ca="1">IF(Q44="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q44/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q44))</f>
         <v/>
       </c>
-      <c r="S44" s="530"/>
-      <c r="T44" s="532"/>
-      <c r="U44" s="542"/>
-      <c r="V44" s="544"/>
-      <c r="W44" s="546"/>
-      <c r="X44" s="548"/>
+      <c r="S44" s="531"/>
+      <c r="T44" s="533"/>
+      <c r="U44" s="535"/>
+      <c r="V44" s="537"/>
+      <c r="W44" s="525"/>
+      <c r="X44" s="527"/>
       <c r="Y44" s="343" t="str">
         <f>IF(B43="","",ROUNDUP(AVERAGE(R44,R44,X43),2))</f>
         <v/>
@@ -35900,10 +35900,10 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="527">
+      <c r="A45" s="528">
         <v>18</v>
       </c>
-      <c r="B45" s="527" t="str">
+      <c r="B45" s="528" t="str">
         <f>IF('1. Halbjahr'!B21&lt;&gt;"", '1. Halbjahr'!B21, "")</f>
         <v/>
       </c>
@@ -35935,18 +35935,18 @@
         <f ca="1">IF(Q45="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q45/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q45))</f>
         <v/>
       </c>
-      <c r="S45" s="529"/>
-      <c r="T45" s="531"/>
-      <c r="U45" s="541"/>
-      <c r="V45" s="543" t="str">
+      <c r="S45" s="530"/>
+      <c r="T45" s="532"/>
+      <c r="U45" s="534"/>
+      <c r="V45" s="536" t="str">
         <f>IF(B45="","",SUM(S45:U45))</f>
         <v/>
       </c>
-      <c r="W45" s="545" t="str">
+      <c r="W45" s="524" t="str">
         <f>IF(B45="","",IF(ISBLANK(S45),"",IF(AVERAGE(S45:U45)&lt;10,LEFT(AVERAGE(S45:U45),4),LEFT(AVERAGE(S45:U45),5))))</f>
         <v/>
       </c>
-      <c r="X45" s="547" t="str">
+      <c r="X45" s="526" t="str">
         <f>IF(B45="","",IF(W45="","",IF(LEFT(W45,1)="0",0,ROUND(W45,0))))</f>
         <v/>
       </c>
@@ -35960,8 +35960,8 @@
       </c>
     </row>
     <row r="46" spans="1:26" s="356" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="528"/>
-      <c r="B46" s="528"/>
+      <c r="A46" s="529"/>
+      <c r="B46" s="529"/>
       <c r="C46" s="353"/>
       <c r="D46" s="354"/>
       <c r="E46" s="354"/>
@@ -35990,12 +35990,12 @@
         <f ca="1">IF(Q46="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q46/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q46))</f>
         <v/>
       </c>
-      <c r="S46" s="530"/>
-      <c r="T46" s="532"/>
-      <c r="U46" s="542"/>
-      <c r="V46" s="544"/>
-      <c r="W46" s="546"/>
-      <c r="X46" s="548"/>
+      <c r="S46" s="531"/>
+      <c r="T46" s="533"/>
+      <c r="U46" s="535"/>
+      <c r="V46" s="537"/>
+      <c r="W46" s="525"/>
+      <c r="X46" s="527"/>
       <c r="Y46" s="343" t="str">
         <f>IF(B45="","",ROUNDUP(AVERAGE(R46,R46,X45),2))</f>
         <v/>
@@ -36006,10 +36006,10 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="527">
+      <c r="A47" s="528">
         <v>19</v>
       </c>
-      <c r="B47" s="527" t="str">
+      <c r="B47" s="528" t="str">
         <f>IF('1. Halbjahr'!B22&lt;&gt;"", '1. Halbjahr'!B22, "")</f>
         <v/>
       </c>
@@ -36041,18 +36041,18 @@
         <f ca="1">IF(Q47="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q47/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q47))</f>
         <v/>
       </c>
-      <c r="S47" s="529"/>
-      <c r="T47" s="531"/>
-      <c r="U47" s="541"/>
-      <c r="V47" s="543" t="str">
+      <c r="S47" s="530"/>
+      <c r="T47" s="532"/>
+      <c r="U47" s="534"/>
+      <c r="V47" s="536" t="str">
         <f>IF(B47="","",SUM(S47:U47))</f>
         <v/>
       </c>
-      <c r="W47" s="545" t="str">
+      <c r="W47" s="524" t="str">
         <f>IF(B47="","",IF(ISBLANK(S47),"",IF(AVERAGE(S47:U47)&lt;10,LEFT(AVERAGE(S47:U47),4),LEFT(AVERAGE(S47:U47),5))))</f>
         <v/>
       </c>
-      <c r="X47" s="547" t="str">
+      <c r="X47" s="526" t="str">
         <f>IF(B47="","",IF(W47="","",IF(LEFT(W47,1)="0",0,ROUND(W47,0))))</f>
         <v/>
       </c>
@@ -36066,8 +36066,8 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="528"/>
-      <c r="B48" s="528"/>
+      <c r="A48" s="529"/>
+      <c r="B48" s="529"/>
       <c r="C48" s="348"/>
       <c r="D48" s="337"/>
       <c r="E48" s="337"/>
@@ -36096,12 +36096,12 @@
         <f ca="1">IF(Q48="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q48/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q48))</f>
         <v/>
       </c>
-      <c r="S48" s="530"/>
-      <c r="T48" s="532"/>
-      <c r="U48" s="542"/>
-      <c r="V48" s="544"/>
-      <c r="W48" s="546"/>
-      <c r="X48" s="548"/>
+      <c r="S48" s="531"/>
+      <c r="T48" s="533"/>
+      <c r="U48" s="535"/>
+      <c r="V48" s="537"/>
+      <c r="W48" s="525"/>
+      <c r="X48" s="527"/>
       <c r="Y48" s="343" t="str">
         <f>IF(B47="","",ROUNDUP(AVERAGE(R48,R48,X47),2))</f>
         <v/>
@@ -36112,10 +36112,10 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="527">
+      <c r="A49" s="528">
         <v>20</v>
       </c>
-      <c r="B49" s="527" t="str">
+      <c r="B49" s="528" t="str">
         <f>IF('1. Halbjahr'!B23&lt;&gt;"", '1. Halbjahr'!B23, "")</f>
         <v/>
       </c>
@@ -36147,18 +36147,18 @@
         <f ca="1">IF(Q49="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q49/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q49))</f>
         <v/>
       </c>
-      <c r="S49" s="529"/>
-      <c r="T49" s="531"/>
-      <c r="U49" s="541"/>
-      <c r="V49" s="543" t="str">
+      <c r="S49" s="530"/>
+      <c r="T49" s="532"/>
+      <c r="U49" s="534"/>
+      <c r="V49" s="536" t="str">
         <f>IF(B49="","",SUM(S49:U49))</f>
         <v/>
       </c>
-      <c r="W49" s="545" t="str">
+      <c r="W49" s="524" t="str">
         <f>IF(B49="","",IF(ISBLANK(S49),"",IF(AVERAGE(S49:U49)&lt;10,LEFT(AVERAGE(S49:U49),4),LEFT(AVERAGE(S49:U49),5))))</f>
         <v/>
       </c>
-      <c r="X49" s="547" t="str">
+      <c r="X49" s="526" t="str">
         <f>IF(B49="","",IF(W49="","",IF(LEFT(W49,1)="0",0,ROUND(W49,0))))</f>
         <v/>
       </c>
@@ -36172,8 +36172,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="528"/>
-      <c r="B50" s="528"/>
+      <c r="A50" s="529"/>
+      <c r="B50" s="529"/>
       <c r="C50" s="348"/>
       <c r="D50" s="337"/>
       <c r="E50" s="337"/>
@@ -36202,12 +36202,12 @@
         <f ca="1">IF(Q50="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q50/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q50))</f>
         <v/>
       </c>
-      <c r="S50" s="530"/>
-      <c r="T50" s="532"/>
-      <c r="U50" s="542"/>
-      <c r="V50" s="544"/>
-      <c r="W50" s="546"/>
-      <c r="X50" s="548"/>
+      <c r="S50" s="531"/>
+      <c r="T50" s="533"/>
+      <c r="U50" s="535"/>
+      <c r="V50" s="537"/>
+      <c r="W50" s="525"/>
+      <c r="X50" s="527"/>
       <c r="Y50" s="343" t="str">
         <f>IF(B49="","",ROUNDUP(AVERAGE(R50,R50,X49),2))</f>
         <v/>
@@ -36218,10 +36218,10 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="527">
+      <c r="A51" s="528">
         <v>21</v>
       </c>
-      <c r="B51" s="527" t="str">
+      <c r="B51" s="528" t="str">
         <f>IF('1. Halbjahr'!B24&lt;&gt;"", '1. Halbjahr'!B24, "")</f>
         <v/>
       </c>
@@ -36253,18 +36253,18 @@
         <f ca="1">IF(Q51="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q51/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q51))</f>
         <v/>
       </c>
-      <c r="S51" s="529"/>
-      <c r="T51" s="531"/>
-      <c r="U51" s="541"/>
-      <c r="V51" s="543" t="str">
+      <c r="S51" s="530"/>
+      <c r="T51" s="532"/>
+      <c r="U51" s="534"/>
+      <c r="V51" s="536" t="str">
         <f>IF(B51="","",SUM(S51:U51))</f>
         <v/>
       </c>
-      <c r="W51" s="545" t="str">
+      <c r="W51" s="524" t="str">
         <f>IF(B51="","",IF(ISBLANK(S51),"",IF(AVERAGE(S51:U51)&lt;10,LEFT(AVERAGE(S51:U51),4),LEFT(AVERAGE(S51:U51),5))))</f>
         <v/>
       </c>
-      <c r="X51" s="547" t="str">
+      <c r="X51" s="526" t="str">
         <f>IF(B51="","",IF(W51="","",IF(LEFT(W51,1)="0",0,ROUND(W51,0))))</f>
         <v/>
       </c>
@@ -36278,8 +36278,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="528"/>
-      <c r="B52" s="528"/>
+      <c r="A52" s="529"/>
+      <c r="B52" s="529"/>
       <c r="C52" s="348"/>
       <c r="D52" s="337"/>
       <c r="E52" s="337"/>
@@ -36308,12 +36308,12 @@
         <f ca="1">IF(Q52="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q52/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q52))</f>
         <v/>
       </c>
-      <c r="S52" s="530"/>
-      <c r="T52" s="532"/>
-      <c r="U52" s="542"/>
-      <c r="V52" s="544"/>
-      <c r="W52" s="546"/>
-      <c r="X52" s="548"/>
+      <c r="S52" s="531"/>
+      <c r="T52" s="533"/>
+      <c r="U52" s="535"/>
+      <c r="V52" s="537"/>
+      <c r="W52" s="525"/>
+      <c r="X52" s="527"/>
       <c r="Y52" s="343" t="str">
         <f>IF(B51="","",ROUNDUP(AVERAGE(R52,R52,X51),2))</f>
         <v/>
@@ -36324,10 +36324,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="527">
+      <c r="A53" s="528">
         <v>22</v>
       </c>
-      <c r="B53" s="527" t="str">
+      <c r="B53" s="528" t="str">
         <f>IF('1. Halbjahr'!B25&lt;&gt;"", '1. Halbjahr'!B25, "")</f>
         <v/>
       </c>
@@ -36359,18 +36359,18 @@
         <f ca="1">IF(Q53="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q53/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q53))</f>
         <v/>
       </c>
-      <c r="S53" s="529"/>
-      <c r="T53" s="531"/>
-      <c r="U53" s="541"/>
-      <c r="V53" s="543" t="str">
+      <c r="S53" s="530"/>
+      <c r="T53" s="532"/>
+      <c r="U53" s="534"/>
+      <c r="V53" s="536" t="str">
         <f>IF(B53="","",SUM(S53:U53))</f>
         <v/>
       </c>
-      <c r="W53" s="545" t="str">
+      <c r="W53" s="524" t="str">
         <f>IF(B53="","",IF(ISBLANK(S53),"",IF(AVERAGE(S53:U53)&lt;10,LEFT(AVERAGE(S53:U53),4),LEFT(AVERAGE(S53:U53),5))))</f>
         <v/>
       </c>
-      <c r="X53" s="547" t="str">
+      <c r="X53" s="526" t="str">
         <f>IF(B53="","",IF(W53="","",IF(LEFT(W53,1)="0",0,ROUND(W53,0))))</f>
         <v/>
       </c>
@@ -36384,8 +36384,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="528"/>
-      <c r="B54" s="528"/>
+      <c r="A54" s="529"/>
+      <c r="B54" s="529"/>
       <c r="C54" s="348"/>
       <c r="D54" s="337"/>
       <c r="E54" s="337"/>
@@ -36414,12 +36414,12 @@
         <f ca="1">IF(Q54="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q54/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q54))</f>
         <v/>
       </c>
-      <c r="S54" s="530"/>
-      <c r="T54" s="532"/>
-      <c r="U54" s="542"/>
-      <c r="V54" s="544"/>
-      <c r="W54" s="546"/>
-      <c r="X54" s="548"/>
+      <c r="S54" s="531"/>
+      <c r="T54" s="533"/>
+      <c r="U54" s="535"/>
+      <c r="V54" s="537"/>
+      <c r="W54" s="525"/>
+      <c r="X54" s="527"/>
       <c r="Y54" s="343" t="str">
         <f>IF(B53="","",ROUNDUP(AVERAGE(R54,R54,X53),2))</f>
         <v/>
@@ -36430,10 +36430,10 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="527">
+      <c r="A55" s="528">
         <v>23</v>
       </c>
-      <c r="B55" s="527" t="str">
+      <c r="B55" s="528" t="str">
         <f>IF('1. Halbjahr'!B26&lt;&gt;"", '1. Halbjahr'!B26, "")</f>
         <v/>
       </c>
@@ -36465,18 +36465,18 @@
         <f ca="1">IF(Q55="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q55/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q55))</f>
         <v/>
       </c>
-      <c r="S55" s="529"/>
-      <c r="T55" s="531"/>
-      <c r="U55" s="541"/>
-      <c r="V55" s="543" t="str">
+      <c r="S55" s="530"/>
+      <c r="T55" s="532"/>
+      <c r="U55" s="534"/>
+      <c r="V55" s="536" t="str">
         <f>IF(B55="","",SUM(S55:U55))</f>
         <v/>
       </c>
-      <c r="W55" s="545" t="str">
+      <c r="W55" s="524" t="str">
         <f>IF(B55="","",IF(ISBLANK(S55),"",IF(AVERAGE(S55:U55)&lt;10,LEFT(AVERAGE(S55:U55),4),LEFT(AVERAGE(S55:U55),5))))</f>
         <v/>
       </c>
-      <c r="X55" s="547" t="str">
+      <c r="X55" s="526" t="str">
         <f>IF(B55="","",IF(W55="","",IF(LEFT(W55,1)="0",0,ROUND(W55,0))))</f>
         <v/>
       </c>
@@ -36490,8 +36490,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="528"/>
-      <c r="B56" s="528"/>
+      <c r="A56" s="529"/>
+      <c r="B56" s="529"/>
       <c r="C56" s="348"/>
       <c r="D56" s="337"/>
       <c r="E56" s="337"/>
@@ -36520,12 +36520,12 @@
         <f ca="1">IF(Q56="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q56/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q56))</f>
         <v/>
       </c>
-      <c r="S56" s="530"/>
-      <c r="T56" s="532"/>
-      <c r="U56" s="542"/>
-      <c r="V56" s="544"/>
-      <c r="W56" s="546"/>
-      <c r="X56" s="548"/>
+      <c r="S56" s="531"/>
+      <c r="T56" s="533"/>
+      <c r="U56" s="535"/>
+      <c r="V56" s="537"/>
+      <c r="W56" s="525"/>
+      <c r="X56" s="527"/>
       <c r="Y56" s="343" t="str">
         <f>IF(B55="","",ROUNDUP(AVERAGE(R56,R56,X55),2))</f>
         <v/>
@@ -36536,10 +36536,10 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="527">
+      <c r="A57" s="528">
         <v>24</v>
       </c>
-      <c r="B57" s="527" t="str">
+      <c r="B57" s="528" t="str">
         <f>IF('1. Halbjahr'!B27&lt;&gt;"", '1. Halbjahr'!B27, "")</f>
         <v/>
       </c>
@@ -36571,18 +36571,18 @@
         <f ca="1">IF(Q57="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q57/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q57))</f>
         <v/>
       </c>
-      <c r="S57" s="529"/>
-      <c r="T57" s="531"/>
-      <c r="U57" s="541"/>
-      <c r="V57" s="543" t="str">
+      <c r="S57" s="530"/>
+      <c r="T57" s="532"/>
+      <c r="U57" s="534"/>
+      <c r="V57" s="536" t="str">
         <f>IF(B57="","",SUM(S57:U57))</f>
         <v/>
       </c>
-      <c r="W57" s="545" t="str">
+      <c r="W57" s="524" t="str">
         <f>IF(B57="","",IF(ISBLANK(S57),"",IF(AVERAGE(S57:U57)&lt;10,LEFT(AVERAGE(S57:U57),4),LEFT(AVERAGE(S57:U57),5))))</f>
         <v/>
       </c>
-      <c r="X57" s="547" t="str">
+      <c r="X57" s="526" t="str">
         <f>IF(B57="","",IF(W57="","",IF(LEFT(W57,1)="0",0,ROUND(W57,0))))</f>
         <v/>
       </c>
@@ -36596,8 +36596,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="528"/>
-      <c r="B58" s="528"/>
+      <c r="A58" s="529"/>
+      <c r="B58" s="529"/>
       <c r="C58" s="348"/>
       <c r="D58" s="337"/>
       <c r="E58" s="337"/>
@@ -36626,12 +36626,12 @@
         <f ca="1">IF(Q58="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q58/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q58))</f>
         <v/>
       </c>
-      <c r="S58" s="530"/>
-      <c r="T58" s="532"/>
-      <c r="U58" s="542"/>
-      <c r="V58" s="544"/>
-      <c r="W58" s="546"/>
-      <c r="X58" s="548"/>
+      <c r="S58" s="531"/>
+      <c r="T58" s="533"/>
+      <c r="U58" s="535"/>
+      <c r="V58" s="537"/>
+      <c r="W58" s="525"/>
+      <c r="X58" s="527"/>
       <c r="Y58" s="343" t="str">
         <f>IF(B57="","",ROUNDUP(AVERAGE(R58,R58,X57),2))</f>
         <v/>
@@ -36642,10 +36642,10 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="527">
+      <c r="A59" s="528">
         <v>25</v>
       </c>
-      <c r="B59" s="527" t="str">
+      <c r="B59" s="528" t="str">
         <f>IF('1. Halbjahr'!B28&lt;&gt;"", '1. Halbjahr'!B28, "")</f>
         <v/>
       </c>
@@ -36677,18 +36677,18 @@
         <f ca="1">IF(Q59="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q59/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q59))</f>
         <v/>
       </c>
-      <c r="S59" s="529"/>
-      <c r="T59" s="531"/>
-      <c r="U59" s="541"/>
-      <c r="V59" s="543" t="str">
+      <c r="S59" s="530"/>
+      <c r="T59" s="532"/>
+      <c r="U59" s="534"/>
+      <c r="V59" s="536" t="str">
         <f>IF(B59="","",SUM(S59:U59))</f>
         <v/>
       </c>
-      <c r="W59" s="545" t="str">
+      <c r="W59" s="524" t="str">
         <f>IF(B59="","",IF(ISBLANK(S59),"",IF(AVERAGE(S59:U59)&lt;10,LEFT(AVERAGE(S59:U59),4),LEFT(AVERAGE(S59:U59),5))))</f>
         <v/>
       </c>
-      <c r="X59" s="547" t="str">
+      <c r="X59" s="526" t="str">
         <f>IF(B59="","",IF(W59="","",IF(LEFT(W59,1)="0",0,ROUND(W59,0))))</f>
         <v/>
       </c>
@@ -36702,8 +36702,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="528"/>
-      <c r="B60" s="528"/>
+      <c r="A60" s="529"/>
+      <c r="B60" s="529"/>
       <c r="C60" s="348"/>
       <c r="D60" s="337"/>
       <c r="E60" s="337"/>
@@ -36732,12 +36732,12 @@
         <f ca="1">IF(Q60="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q60/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q60))</f>
         <v/>
       </c>
-      <c r="S60" s="530"/>
-      <c r="T60" s="532"/>
-      <c r="U60" s="542"/>
-      <c r="V60" s="544"/>
-      <c r="W60" s="546"/>
-      <c r="X60" s="548"/>
+      <c r="S60" s="531"/>
+      <c r="T60" s="533"/>
+      <c r="U60" s="535"/>
+      <c r="V60" s="537"/>
+      <c r="W60" s="525"/>
+      <c r="X60" s="527"/>
       <c r="Y60" s="343" t="str">
         <f>IF(B59="","",ROUNDUP(AVERAGE(R60,R60,X59),2))</f>
         <v/>
@@ -36748,10 +36748,10 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="527">
+      <c r="A61" s="528">
         <v>26</v>
       </c>
-      <c r="B61" s="527" t="str">
+      <c r="B61" s="528" t="str">
         <f>IF('1. Halbjahr'!B29&lt;&gt;"", '1. Halbjahr'!B29, "")</f>
         <v/>
       </c>
@@ -36783,18 +36783,18 @@
         <f ca="1">IF(Q61="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q61/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q61))</f>
         <v/>
       </c>
-      <c r="S61" s="529"/>
-      <c r="T61" s="531"/>
-      <c r="U61" s="541"/>
-      <c r="V61" s="543" t="str">
+      <c r="S61" s="530"/>
+      <c r="T61" s="532"/>
+      <c r="U61" s="534"/>
+      <c r="V61" s="536" t="str">
         <f>IF(B61="","",SUM(S61:U61))</f>
         <v/>
       </c>
-      <c r="W61" s="545" t="str">
+      <c r="W61" s="524" t="str">
         <f>IF(B61="","",IF(ISBLANK(S61),"",IF(AVERAGE(S61:U61)&lt;10,LEFT(AVERAGE(S61:U61),4),LEFT(AVERAGE(S61:U61),5))))</f>
         <v/>
       </c>
-      <c r="X61" s="547" t="str">
+      <c r="X61" s="526" t="str">
         <f>IF(B61="","",IF(W61="","",IF(LEFT(W61,1)="0",0,ROUND(W61,0))))</f>
         <v/>
       </c>
@@ -36808,8 +36808,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="528"/>
-      <c r="B62" s="528"/>
+      <c r="A62" s="529"/>
+      <c r="B62" s="529"/>
       <c r="C62" s="348"/>
       <c r="D62" s="337"/>
       <c r="E62" s="337"/>
@@ -36838,12 +36838,12 @@
         <f ca="1">IF(Q62="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q62/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q62))</f>
         <v/>
       </c>
-      <c r="S62" s="530"/>
-      <c r="T62" s="532"/>
-      <c r="U62" s="542"/>
-      <c r="V62" s="544"/>
-      <c r="W62" s="546"/>
-      <c r="X62" s="548"/>
+      <c r="S62" s="531"/>
+      <c r="T62" s="533"/>
+      <c r="U62" s="535"/>
+      <c r="V62" s="537"/>
+      <c r="W62" s="525"/>
+      <c r="X62" s="527"/>
       <c r="Y62" s="343" t="str">
         <f>IF(B61="","",ROUNDUP(AVERAGE(R62,R62,X61),2))</f>
         <v/>
@@ -36854,10 +36854,10 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="527">
+      <c r="A63" s="528">
         <v>27</v>
       </c>
-      <c r="B63" s="527" t="str">
+      <c r="B63" s="528" t="str">
         <f>IF('1. Halbjahr'!B30&lt;&gt;"", '1. Halbjahr'!B30, "")</f>
         <v/>
       </c>
@@ -36889,18 +36889,18 @@
         <f ca="1">IF(Q63="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q63/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q63))</f>
         <v/>
       </c>
-      <c r="S63" s="529"/>
-      <c r="T63" s="531"/>
-      <c r="U63" s="541"/>
-      <c r="V63" s="543" t="str">
+      <c r="S63" s="530"/>
+      <c r="T63" s="532"/>
+      <c r="U63" s="534"/>
+      <c r="V63" s="536" t="str">
         <f>IF(B63="","",SUM(S63:U63))</f>
         <v/>
       </c>
-      <c r="W63" s="545" t="str">
+      <c r="W63" s="524" t="str">
         <f>IF(B63="","",IF(ISBLANK(S63),"",IF(AVERAGE(S63:U63)&lt;10,LEFT(AVERAGE(S63:U63),4),LEFT(AVERAGE(S63:U63),5))))</f>
         <v/>
       </c>
-      <c r="X63" s="547" t="str">
+      <c r="X63" s="526" t="str">
         <f>IF(B63="","",IF(W63="","",IF(LEFT(W63,1)="0",0,ROUND(W63,0))))</f>
         <v/>
       </c>
@@ -36914,8 +36914,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="528"/>
-      <c r="B64" s="528"/>
+      <c r="A64" s="529"/>
+      <c r="B64" s="529"/>
       <c r="C64" s="348"/>
       <c r="D64" s="337"/>
       <c r="E64" s="337"/>
@@ -36944,12 +36944,12 @@
         <f ca="1">IF(Q64="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q64/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q64))</f>
         <v/>
       </c>
-      <c r="S64" s="530"/>
-      <c r="T64" s="532"/>
-      <c r="U64" s="542"/>
-      <c r="V64" s="544"/>
-      <c r="W64" s="546"/>
-      <c r="X64" s="548"/>
+      <c r="S64" s="531"/>
+      <c r="T64" s="533"/>
+      <c r="U64" s="535"/>
+      <c r="V64" s="537"/>
+      <c r="W64" s="525"/>
+      <c r="X64" s="527"/>
       <c r="Y64" s="343" t="str">
         <f>IF(B63="","",ROUNDUP(AVERAGE(R64,R64,X63),2))</f>
         <v/>
@@ -36960,10 +36960,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="527">
+      <c r="A65" s="528">
         <v>28</v>
       </c>
-      <c r="B65" s="527" t="str">
+      <c r="B65" s="528" t="str">
         <f>IF('1. Halbjahr'!B31&lt;&gt;"", '1. Halbjahr'!B31, "")</f>
         <v/>
       </c>
@@ -36995,18 +36995,18 @@
         <f ca="1">IF(Q65="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q65/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q65))</f>
         <v/>
       </c>
-      <c r="S65" s="529"/>
-      <c r="T65" s="531"/>
-      <c r="U65" s="541"/>
-      <c r="V65" s="543" t="str">
+      <c r="S65" s="530"/>
+      <c r="T65" s="532"/>
+      <c r="U65" s="534"/>
+      <c r="V65" s="536" t="str">
         <f>IF(B65="","",SUM(S65:U65))</f>
         <v/>
       </c>
-      <c r="W65" s="545" t="str">
+      <c r="W65" s="524" t="str">
         <f>IF(B65="","",IF(ISBLANK(S65),"",IF(AVERAGE(S65:U65)&lt;10,LEFT(AVERAGE(S65:U65),4),LEFT(AVERAGE(S65:U65),5))))</f>
         <v/>
       </c>
-      <c r="X65" s="547" t="str">
+      <c r="X65" s="526" t="str">
         <f>IF(B65="","",IF(W65="","",IF(LEFT(W65,1)="0",0,ROUND(W65,0))))</f>
         <v/>
       </c>
@@ -37020,8 +37020,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="528"/>
-      <c r="B66" s="528"/>
+      <c r="A66" s="529"/>
+      <c r="B66" s="529"/>
       <c r="C66" s="348"/>
       <c r="D66" s="337"/>
       <c r="E66" s="337"/>
@@ -37050,12 +37050,12 @@
         <f ca="1">IF(Q66="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q66/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q66))</f>
         <v/>
       </c>
-      <c r="S66" s="530"/>
-      <c r="T66" s="532"/>
-      <c r="U66" s="542"/>
-      <c r="V66" s="544"/>
-      <c r="W66" s="546"/>
-      <c r="X66" s="548"/>
+      <c r="S66" s="531"/>
+      <c r="T66" s="533"/>
+      <c r="U66" s="535"/>
+      <c r="V66" s="537"/>
+      <c r="W66" s="525"/>
+      <c r="X66" s="527"/>
       <c r="Y66" s="343" t="str">
         <f>IF(B65="","",ROUNDUP(AVERAGE(R66,R66,X65),2))</f>
         <v/>
@@ -37066,10 +37066,10 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="527">
+      <c r="A67" s="528">
         <v>29</v>
       </c>
-      <c r="B67" s="527" t="str">
+      <c r="B67" s="528" t="str">
         <f>IF('1. Halbjahr'!B32&lt;&gt;"", '1. Halbjahr'!B32, "")</f>
         <v/>
       </c>
@@ -37101,18 +37101,18 @@
         <f ca="1">IF(Q67="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q67/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q67))</f>
         <v/>
       </c>
-      <c r="S67" s="529"/>
-      <c r="T67" s="531"/>
-      <c r="U67" s="541"/>
-      <c r="V67" s="543" t="str">
+      <c r="S67" s="530"/>
+      <c r="T67" s="532"/>
+      <c r="U67" s="534"/>
+      <c r="V67" s="536" t="str">
         <f>IF(B67="","",SUM(S67:U67))</f>
         <v/>
       </c>
-      <c r="W67" s="545" t="str">
+      <c r="W67" s="524" t="str">
         <f>IF(B67="","",IF(ISBLANK(S67),"",IF(AVERAGE(S67:U67)&lt;10,LEFT(AVERAGE(S67:U67),4),LEFT(AVERAGE(S67:U67),5))))</f>
         <v/>
       </c>
-      <c r="X67" s="547" t="str">
+      <c r="X67" s="526" t="str">
         <f>IF(B67="","",IF(W67="","",IF(LEFT(W67,1)="0",0,ROUND(W67,0))))</f>
         <v/>
       </c>
@@ -37126,8 +37126,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="528"/>
-      <c r="B68" s="528"/>
+      <c r="A68" s="529"/>
+      <c r="B68" s="529"/>
       <c r="C68" s="348"/>
       <c r="D68" s="337"/>
       <c r="E68" s="337"/>
@@ -37156,12 +37156,12 @@
         <f ca="1">IF(Q68="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q68/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q68))</f>
         <v/>
       </c>
-      <c r="S68" s="530"/>
-      <c r="T68" s="532"/>
-      <c r="U68" s="542"/>
-      <c r="V68" s="544"/>
-      <c r="W68" s="546"/>
-      <c r="X68" s="548"/>
+      <c r="S68" s="531"/>
+      <c r="T68" s="533"/>
+      <c r="U68" s="535"/>
+      <c r="V68" s="537"/>
+      <c r="W68" s="525"/>
+      <c r="X68" s="527"/>
       <c r="Y68" s="343" t="str">
         <f>IF(B67="","",ROUNDUP(AVERAGE(R68,R68,X67),2))</f>
         <v/>
@@ -37172,10 +37172,10 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="527">
+      <c r="A69" s="528">
         <v>30</v>
       </c>
-      <c r="B69" s="527" t="str">
+      <c r="B69" s="528" t="str">
         <f>IF('1. Halbjahr'!B33&lt;&gt;"", '1. Halbjahr'!B33, "")</f>
         <v/>
       </c>
@@ -37207,18 +37207,18 @@
         <f ca="1">IF(Q69="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q69/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q69))</f>
         <v/>
       </c>
-      <c r="S69" s="529"/>
-      <c r="T69" s="531"/>
-      <c r="U69" s="541"/>
-      <c r="V69" s="543" t="str">
+      <c r="S69" s="530"/>
+      <c r="T69" s="532"/>
+      <c r="U69" s="534"/>
+      <c r="V69" s="536" t="str">
         <f>IF(B69="","",SUM(S69:U69))</f>
         <v/>
       </c>
-      <c r="W69" s="545" t="str">
+      <c r="W69" s="524" t="str">
         <f>IF(B69="","",IF(ISBLANK(S69),"",IF(AVERAGE(S69:U69)&lt;10,LEFT(AVERAGE(S69:U69),4),LEFT(AVERAGE(S69:U69),5))))</f>
         <v/>
       </c>
-      <c r="X69" s="547" t="str">
+      <c r="X69" s="526" t="str">
         <f>IF(B69="","",IF(W69="","",IF(LEFT(W69,1)="0",0,ROUND(W69,0))))</f>
         <v/>
       </c>
@@ -37232,8 +37232,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="528"/>
-      <c r="B70" s="528"/>
+      <c r="A70" s="529"/>
+      <c r="B70" s="529"/>
       <c r="C70" s="348"/>
       <c r="D70" s="337"/>
       <c r="E70" s="337"/>
@@ -37262,12 +37262,12 @@
         <f ca="1">IF(Q70="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q70/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q70))</f>
         <v/>
       </c>
-      <c r="S70" s="530"/>
-      <c r="T70" s="532"/>
-      <c r="U70" s="542"/>
-      <c r="V70" s="544"/>
-      <c r="W70" s="546"/>
-      <c r="X70" s="548"/>
+      <c r="S70" s="531"/>
+      <c r="T70" s="533"/>
+      <c r="U70" s="535"/>
+      <c r="V70" s="537"/>
+      <c r="W70" s="525"/>
+      <c r="X70" s="527"/>
       <c r="Y70" s="343" t="str">
         <f>IF(B69="","",ROUNDUP(AVERAGE(R70,R70,X69),2))</f>
         <v/>
@@ -37278,10 +37278,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="527">
+      <c r="A71" s="528">
         <v>31</v>
       </c>
-      <c r="B71" s="527" t="str">
+      <c r="B71" s="528" t="str">
         <f>IF('1. Halbjahr'!B34&lt;&gt;"", '1. Halbjahr'!B34, "")</f>
         <v/>
       </c>
@@ -37313,18 +37313,18 @@
         <f ca="1">IF(Q71="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q71/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q71))</f>
         <v/>
       </c>
-      <c r="S71" s="529"/>
-      <c r="T71" s="531"/>
-      <c r="U71" s="541"/>
-      <c r="V71" s="543" t="str">
+      <c r="S71" s="530"/>
+      <c r="T71" s="532"/>
+      <c r="U71" s="534"/>
+      <c r="V71" s="536" t="str">
         <f>IF(B71="","",SUM(S71:U71))</f>
         <v/>
       </c>
-      <c r="W71" s="545" t="str">
+      <c r="W71" s="524" t="str">
         <f>IF(B71="","",IF(ISBLANK(S71),"",IF(AVERAGE(S71:U71)&lt;10,LEFT(AVERAGE(S71:U71),4),LEFT(AVERAGE(S71:U71),5))))</f>
         <v/>
       </c>
-      <c r="X71" s="547" t="str">
+      <c r="X71" s="526" t="str">
         <f>IF(B71="","",IF(W71="","",IF(LEFT(W71,1)="0",0,ROUND(W71,0))))</f>
         <v/>
       </c>
@@ -37338,8 +37338,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="528"/>
-      <c r="B72" s="528"/>
+      <c r="A72" s="529"/>
+      <c r="B72" s="529"/>
       <c r="C72" s="348"/>
       <c r="D72" s="337"/>
       <c r="E72" s="337"/>
@@ -37368,12 +37368,12 @@
         <f ca="1">IF(Q72="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q72/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q72))</f>
         <v/>
       </c>
-      <c r="S72" s="530"/>
-      <c r="T72" s="532"/>
-      <c r="U72" s="542"/>
-      <c r="V72" s="544"/>
-      <c r="W72" s="546"/>
-      <c r="X72" s="548"/>
+      <c r="S72" s="531"/>
+      <c r="T72" s="533"/>
+      <c r="U72" s="535"/>
+      <c r="V72" s="537"/>
+      <c r="W72" s="525"/>
+      <c r="X72" s="527"/>
       <c r="Y72" s="343" t="str">
         <f>IF(B71="","",ROUNDUP(AVERAGE(R72,R72,X71),2))</f>
         <v/>
@@ -37384,10 +37384,10 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="527">
+      <c r="A73" s="528">
         <v>32</v>
       </c>
-      <c r="B73" s="527" t="str">
+      <c r="B73" s="528" t="str">
         <f>IF('1. Halbjahr'!B35&lt;&gt;"", '1. Halbjahr'!B35, "")</f>
         <v/>
       </c>
@@ -37419,18 +37419,18 @@
         <f ca="1">IF(Q73="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q73/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q73))</f>
         <v/>
       </c>
-      <c r="S73" s="529"/>
-      <c r="T73" s="531"/>
-      <c r="U73" s="541"/>
-      <c r="V73" s="543" t="str">
+      <c r="S73" s="530"/>
+      <c r="T73" s="532"/>
+      <c r="U73" s="534"/>
+      <c r="V73" s="536" t="str">
         <f>IF(B73="","",SUM(S73:U73))</f>
         <v/>
       </c>
-      <c r="W73" s="545" t="str">
+      <c r="W73" s="524" t="str">
         <f>IF(B73="","",IF(ISBLANK(S73),"",IF(AVERAGE(S73:U73)&lt;10,LEFT(AVERAGE(S73:U73),4),LEFT(AVERAGE(S73:U73),5))))</f>
         <v/>
       </c>
-      <c r="X73" s="547" t="str">
+      <c r="X73" s="526" t="str">
         <f>IF(B73="","",IF(W73="","",IF(LEFT(W73,1)="0",0,ROUND(W73,0))))</f>
         <v/>
       </c>
@@ -37444,8 +37444,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="528"/>
-      <c r="B74" s="528"/>
+      <c r="A74" s="529"/>
+      <c r="B74" s="529"/>
       <c r="C74" s="348"/>
       <c r="D74" s="337"/>
       <c r="E74" s="337"/>
@@ -37474,12 +37474,12 @@
         <f ca="1">IF(Q74="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q74/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q74))</f>
         <v/>
       </c>
-      <c r="S74" s="530"/>
-      <c r="T74" s="532"/>
-      <c r="U74" s="542"/>
-      <c r="V74" s="544"/>
-      <c r="W74" s="546"/>
-      <c r="X74" s="548"/>
+      <c r="S74" s="531"/>
+      <c r="T74" s="533"/>
+      <c r="U74" s="535"/>
+      <c r="V74" s="537"/>
+      <c r="W74" s="525"/>
+      <c r="X74" s="527"/>
       <c r="Y74" s="343" t="str">
         <f>IF(B73="","",ROUNDUP(AVERAGE(R74,R74,X73),2))</f>
         <v/>
@@ -37490,10 +37490,10 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="527">
+      <c r="A75" s="528">
         <v>33</v>
       </c>
-      <c r="B75" s="527" t="str">
+      <c r="B75" s="528" t="str">
         <f>IF('1. Halbjahr'!B36&lt;&gt;"", '1. Halbjahr'!B36, "")</f>
         <v/>
       </c>
@@ -37525,18 +37525,18 @@
         <f ca="1">IF(Q75="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q75/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q75))</f>
         <v/>
       </c>
-      <c r="S75" s="529"/>
-      <c r="T75" s="531"/>
-      <c r="U75" s="541"/>
-      <c r="V75" s="543" t="str">
+      <c r="S75" s="530"/>
+      <c r="T75" s="532"/>
+      <c r="U75" s="534"/>
+      <c r="V75" s="536" t="str">
         <f>IF(B75="","",SUM(S75:U75))</f>
         <v/>
       </c>
-      <c r="W75" s="545" t="str">
+      <c r="W75" s="524" t="str">
         <f>IF(B75="","",IF(ISBLANK(S75),"",IF(AVERAGE(S75:U75)&lt;10,LEFT(AVERAGE(S75:U75),4),LEFT(AVERAGE(S75:U75),5))))</f>
         <v/>
       </c>
-      <c r="X75" s="547" t="str">
+      <c r="X75" s="526" t="str">
         <f>IF(B75="","",IF(W75="","",IF(LEFT(W75,1)="0",0,ROUND(W75,0))))</f>
         <v/>
       </c>
@@ -37550,8 +37550,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="528"/>
-      <c r="B76" s="528"/>
+      <c r="A76" s="529"/>
+      <c r="B76" s="529"/>
       <c r="C76" s="348"/>
       <c r="D76" s="337"/>
       <c r="E76" s="337"/>
@@ -37580,12 +37580,12 @@
         <f ca="1">IF(Q76="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q76/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q76))</f>
         <v/>
       </c>
-      <c r="S76" s="530"/>
-      <c r="T76" s="532"/>
-      <c r="U76" s="542"/>
-      <c r="V76" s="544"/>
-      <c r="W76" s="546"/>
-      <c r="X76" s="548"/>
+      <c r="S76" s="531"/>
+      <c r="T76" s="533"/>
+      <c r="U76" s="535"/>
+      <c r="V76" s="537"/>
+      <c r="W76" s="525"/>
+      <c r="X76" s="527"/>
       <c r="Y76" s="343" t="str">
         <f>IF(B75="","",ROUNDUP(AVERAGE(R76,R76,X75),2))</f>
         <v/>
@@ -37596,10 +37596,10 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="527">
+      <c r="A77" s="528">
         <v>34</v>
       </c>
-      <c r="B77" s="527" t="str">
+      <c r="B77" s="528" t="str">
         <f>IF('1. Halbjahr'!B37&lt;&gt;"", '1. Halbjahr'!B37, "")</f>
         <v/>
       </c>
@@ -37631,18 +37631,18 @@
         <f ca="1">IF(Q77="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q77/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q77))</f>
         <v/>
       </c>
-      <c r="S77" s="529"/>
-      <c r="T77" s="531"/>
-      <c r="U77" s="541"/>
-      <c r="V77" s="543" t="str">
+      <c r="S77" s="530"/>
+      <c r="T77" s="532"/>
+      <c r="U77" s="534"/>
+      <c r="V77" s="536" t="str">
         <f>IF(B77="","",SUM(S77:U77))</f>
         <v/>
       </c>
-      <c r="W77" s="545" t="str">
+      <c r="W77" s="524" t="str">
         <f>IF(B77="","",IF(ISBLANK(S77),"",IF(AVERAGE(S77:U77)&lt;10,LEFT(AVERAGE(S77:U77),4),LEFT(AVERAGE(S77:U77),5))))</f>
         <v/>
       </c>
-      <c r="X77" s="547" t="str">
+      <c r="X77" s="526" t="str">
         <f>IF(B77="","",IF(W77="","",IF(LEFT(W77,1)="0",0,ROUND(W77,0))))</f>
         <v/>
       </c>
@@ -37656,8 +37656,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="528"/>
-      <c r="B78" s="528"/>
+      <c r="A78" s="529"/>
+      <c r="B78" s="529"/>
       <c r="C78" s="348"/>
       <c r="D78" s="337"/>
       <c r="E78" s="337"/>
@@ -37686,12 +37686,12 @@
         <f ca="1">IF(Q78="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q78/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q78))</f>
         <v/>
       </c>
-      <c r="S78" s="549"/>
-      <c r="T78" s="550"/>
-      <c r="U78" s="551"/>
-      <c r="V78" s="552"/>
-      <c r="W78" s="546"/>
-      <c r="X78" s="548"/>
+      <c r="S78" s="538"/>
+      <c r="T78" s="539"/>
+      <c r="U78" s="540"/>
+      <c r="V78" s="541"/>
+      <c r="W78" s="525"/>
+      <c r="X78" s="527"/>
       <c r="Y78" s="357" t="str">
         <f>IF(B77="","",ROUNDUP(AVERAGE(R78,R78,X77),2))</f>
         <v/>
@@ -37702,10 +37702,10 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="527">
+      <c r="A79" s="528">
         <v>35</v>
       </c>
-      <c r="B79" s="527" t="str">
+      <c r="B79" s="528" t="str">
         <f>IF('1. Halbjahr'!B38&lt;&gt;"", '1. Halbjahr'!B38, "")</f>
         <v/>
       </c>
@@ -37737,18 +37737,18 @@
         <f ca="1">IF(Q79="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q79/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q79))</f>
         <v/>
       </c>
-      <c r="S79" s="529"/>
-      <c r="T79" s="531"/>
-      <c r="U79" s="541"/>
-      <c r="V79" s="543" t="str">
+      <c r="S79" s="530"/>
+      <c r="T79" s="532"/>
+      <c r="U79" s="534"/>
+      <c r="V79" s="536" t="str">
         <f>IF(B79="","",SUM(S79:U79))</f>
         <v/>
       </c>
-      <c r="W79" s="545" t="str">
+      <c r="W79" s="524" t="str">
         <f>IF(B79="","",IF(ISBLANK(S79),"",IF(AVERAGE(S79:U79)&lt;10,LEFT(AVERAGE(S79:U79),4),LEFT(AVERAGE(S79:U79),5))))</f>
         <v/>
       </c>
-      <c r="X79" s="547" t="str">
+      <c r="X79" s="526" t="str">
         <f>IF(B79="","",IF(W79="","",IF(LEFT(W79,1)="0",0,ROUND(W79,0))))</f>
         <v/>
       </c>
@@ -37762,8 +37762,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="528"/>
-      <c r="B80" s="528"/>
+      <c r="A80" s="529"/>
+      <c r="B80" s="529"/>
       <c r="C80" s="353"/>
       <c r="D80" s="354"/>
       <c r="E80" s="354"/>
@@ -37792,12 +37792,12 @@
         <f ca="1">IF(Q80="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q80/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q80))</f>
         <v/>
       </c>
-      <c r="S80" s="530"/>
-      <c r="T80" s="532"/>
-      <c r="U80" s="542"/>
-      <c r="V80" s="544"/>
-      <c r="W80" s="546"/>
-      <c r="X80" s="548"/>
+      <c r="S80" s="531"/>
+      <c r="T80" s="533"/>
+      <c r="U80" s="535"/>
+      <c r="V80" s="537"/>
+      <c r="W80" s="525"/>
+      <c r="X80" s="527"/>
       <c r="Y80" s="343" t="str">
         <f>IF(B79="","",ROUNDUP(AVERAGE(R80,R80,X79),2))</f>
         <v/>
@@ -37890,6 +37890,278 @@
   </sheetData>
   <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="288">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="C6:R6"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="X45:X46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="V47:V48"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="X47:X48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="X49:X50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="X51:X52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="X57:X58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="V57:V58"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="X61:X62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="X63:X64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="T61:T62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="X65:X66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="W67:W68"/>
+    <mergeCell ref="X67:X68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="V65:V66"/>
+    <mergeCell ref="W69:W70"/>
+    <mergeCell ref="X69:X70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="S71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="V71:V72"/>
+    <mergeCell ref="W71:W72"/>
+    <mergeCell ref="X71:X72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="S69:S70"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="U69:U70"/>
+    <mergeCell ref="V69:V70"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="X73:X74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="X75:X76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="U73:U74"/>
+    <mergeCell ref="V73:V74"/>
     <mergeCell ref="W77:W78"/>
     <mergeCell ref="X77:X78"/>
     <mergeCell ref="A79:A80"/>
@@ -37906,278 +38178,6 @@
     <mergeCell ref="T77:T78"/>
     <mergeCell ref="U77:U78"/>
     <mergeCell ref="V77:V78"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="X73:X74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="S75:S76"/>
-    <mergeCell ref="T75:T76"/>
-    <mergeCell ref="U75:U76"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="X75:X76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="U73:U74"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W69:W70"/>
-    <mergeCell ref="X69:X70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="S71:S72"/>
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="V71:V72"/>
-    <mergeCell ref="W71:W72"/>
-    <mergeCell ref="X71:X72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="S69:S70"/>
-    <mergeCell ref="T69:T70"/>
-    <mergeCell ref="U69:U70"/>
-    <mergeCell ref="V69:V70"/>
-    <mergeCell ref="W65:W66"/>
-    <mergeCell ref="X65:X66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="T67:T68"/>
-    <mergeCell ref="U67:U68"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="W67:W68"/>
-    <mergeCell ref="X67:X68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="V65:V66"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="X61:X62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="X63:X64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="T61:T62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="X57:X58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="V57:V58"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="X49:X50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="T51:T52"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="V51:V52"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="X51:X52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="X45:X46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="V47:V48"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="T45:T46"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="T41:T42"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="V41:V42"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="C6:R6"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <conditionalFormatting sqref="C65 C67 C69 C71 C73 C75 C77 C79 C59 C61 C63 C21 C23 C25 C27 C29 C31 C33 C35 C37 C39 C41 C43 C45 C47 C49 C57 C13 C51 C53 C55 C15 C17 C19 C11">
     <cfRule type="cellIs" dxfId="37" priority="21" stopIfTrue="1" operator="greaterThan">
@@ -38966,8 +38966,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M3" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39003,17 +39003,17 @@
       <c r="B1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -39108,7 +39108,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -39134,11 +39134,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -39147,7 +39147,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -40599,21 +40599,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -40638,19 +40638,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -40675,7 +40675,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -40683,11 +40683,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -41488,17 +41488,17 @@
       <c r="B1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -41593,7 +41593,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -41619,11 +41619,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -41632,7 +41632,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -43084,21 +43084,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -43123,19 +43123,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -43160,7 +43160,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -43168,11 +43168,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -43937,7 +43937,7 @@
   <dimension ref="A1:AW59"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="M1" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43973,17 +43973,17 @@
       <c r="B1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -44078,7 +44078,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -44104,11 +44104,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -44117,7 +44117,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -45569,21 +45569,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -45608,19 +45608,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -45645,7 +45645,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -45653,11 +45653,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -46421,8 +46421,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M3" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46458,17 +46458,17 @@
       <c r="B1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -46563,7 +46563,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -46589,11 +46589,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -46602,7 +46602,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -48054,21 +48054,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -48093,19 +48093,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -48130,7 +48130,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -48138,11 +48138,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -48906,8 +48906,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M2" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48943,17 +48943,17 @@
       <c r="B1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -49048,7 +49048,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -49074,11 +49074,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -49087,7 +49087,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -50539,21 +50539,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -50578,19 +50578,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -50615,7 +50615,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -50623,11 +50623,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -51391,8 +51391,8 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M3" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -51428,17 +51428,17 @@
       <c r="B1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="468" t="str">
+      <c r="C1" s="470" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="466"/>
-      <c r="H1" s="467"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="469"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -51533,7 +51533,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="205"/>
       <c r="M4" s="199" t="str">
-        <f>IF(D4="","",IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)))</f>
+        <f>IF(D4="","",ROUNDDOWN(IF($H$3="BE",100 * D4 / IF(E4="",$H$30,E4)),2))</f>
         <v/>
       </c>
       <c r="N4" s="29"/>
@@ -51559,11 +51559,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="464" t="s">
+      <c r="F5" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="465"/>
-      <c r="H5" s="465"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -51572,7 +51572,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="26"/>
       <c r="M5" s="199" t="str">
-        <f t="shared" ref="M5:M38" si="2">IF(D5="","",IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)))</f>
+        <f t="shared" ref="M5:M38" si="2">IF(D5="","",ROUNDDOWN(IF($H$3="BE",100 * D5 / IF(E5="",$H$30,E5)),2))</f>
         <v/>
       </c>
       <c r="N5" s="29"/>
@@ -53024,21 +53024,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="463" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="469" t="s">
+      <c r="C40" s="471" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="470"/>
-      <c r="E40" s="473" t="s">
+      <c r="D40" s="472"/>
+      <c r="E40" s="475" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="473"/>
-      <c r="G40" s="474"/>
+      <c r="F40" s="475"/>
+      <c r="G40" s="476"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -53063,19 +53063,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="462"/>
+      <c r="A41" s="464"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="471" t="s">
+      <c r="C41" s="473" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="472"/>
-      <c r="E41" s="475" t="s">
+      <c r="D41" s="474"/>
+      <c r="E41" s="477" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="475"/>
-      <c r="G41" s="476"/>
+      <c r="F41" s="477"/>
+      <c r="G41" s="478"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -53100,7 +53100,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="463"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -53108,11 +53108,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="475" t="s">
+      <c r="E42" s="477" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="475"/>
-      <c r="G42" s="476"/>
+      <c r="F42" s="477"/>
+      <c r="G42" s="478"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -53914,27 +53914,27 @@
         <v>35</v>
       </c>
       <c r="D1" s="251"/>
-      <c r="E1" s="477">
+      <c r="E1" s="479">
         <f>'1. Halbjahr'!E1:H1</f>
         <v>0</v>
       </c>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="478"/>
-      <c r="I1" s="455" t="s">
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="480"/>
+      <c r="I1" s="457" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="456"/>
-      <c r="K1" s="459"/>
-      <c r="L1" s="460"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="461"/>
+      <c r="L1" s="462"/>
       <c r="M1" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="450">
+      <c r="N1" s="452">
         <f ca="1">TODAY()</f>
-        <v>43390</v>
-      </c>
-      <c r="O1" s="451"/>
+        <v>43442</v>
+      </c>
+      <c r="O1" s="453"/>
       <c r="P1" s="246"/>
       <c r="Q1" s="246"/>
       <c r="R1" s="246"/>
@@ -53946,27 +53946,27 @@
       <c r="B2" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="452" t="s">
+      <c r="C2" s="454" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
-      <c r="J2" s="453"/>
-      <c r="K2" s="453"/>
-      <c r="L2" s="453"/>
-      <c r="M2" s="453"/>
-      <c r="N2" s="453"/>
-      <c r="O2" s="454"/>
+      <c r="D2" s="455"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="455"/>
+      <c r="G2" s="455"/>
+      <c r="H2" s="455"/>
+      <c r="I2" s="455"/>
+      <c r="J2" s="455"/>
+      <c r="K2" s="455"/>
+      <c r="L2" s="455"/>
+      <c r="M2" s="455"/>
+      <c r="N2" s="455"/>
+      <c r="O2" s="456"/>
       <c r="P2" s="153"/>
-      <c r="Q2" s="479" t="s">
+      <c r="Q2" s="481" t="s">
         <v>126</v>
       </c>
-      <c r="R2" s="480"/>
-      <c r="S2" s="481"/>
+      <c r="R2" s="482"/>
+      <c r="S2" s="483"/>
     </row>
     <row r="3" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161"/>

--- a/Vorlage.xlsx
+++ b/Vorlage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="17010" windowHeight="10365" tabRatio="873" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="17010" windowHeight="10365" tabRatio="873" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="1. Halbjahr" sheetId="1" r:id="rId1"/>
@@ -2388,7 +2388,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="555">
+  <cellXfs count="553">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -3646,10 +3646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -3670,10 +3666,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
@@ -3927,6 +3919,19 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3967,19 +3972,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4028,19 +4020,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="100" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="101" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="89" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4063,50 +4056,6 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="91" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="92" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="100" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="89" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4131,6 +4080,49 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="92" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="100" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="100" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="101" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5103,7 +5095,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H44" sqref="H44"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5135,45 +5127,45 @@
         <v>35</v>
       </c>
       <c r="D1" s="251"/>
-      <c r="E1" s="459"/>
-      <c r="F1" s="459"/>
-      <c r="G1" s="459"/>
-      <c r="H1" s="460"/>
-      <c r="I1" s="457" t="s">
+      <c r="E1" s="457"/>
+      <c r="F1" s="457"/>
+      <c r="G1" s="457"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="455" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="458"/>
-      <c r="K1" s="461"/>
-      <c r="L1" s="462"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="459"/>
+      <c r="L1" s="460"/>
       <c r="M1" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="452">
+      <c r="N1" s="450">
         <f ca="1">TODAY()</f>
-        <v>43442</v>
-      </c>
-      <c r="O1" s="453"/>
+        <v>43600</v>
+      </c>
+      <c r="O1" s="451"/>
     </row>
     <row r="2" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="172"/>
       <c r="B2" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="454" t="s">
+      <c r="C2" s="452" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="455"/>
-      <c r="E2" s="455"/>
-      <c r="F2" s="455"/>
-      <c r="G2" s="455"/>
-      <c r="H2" s="455"/>
-      <c r="I2" s="455"/>
-      <c r="J2" s="455"/>
-      <c r="K2" s="455"/>
-      <c r="L2" s="455"/>
-      <c r="M2" s="455"/>
-      <c r="N2" s="455"/>
-      <c r="O2" s="456"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="453"/>
+      <c r="J2" s="453"/>
+      <c r="K2" s="453"/>
+      <c r="L2" s="453"/>
+      <c r="M2" s="453"/>
+      <c r="N2" s="453"/>
+      <c r="O2" s="454"/>
     </row>
     <row r="3" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161"/>
@@ -6974,28 +6966,28 @@
       <c r="B39" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="450">
+      <c r="C39" s="448">
         <v>2</v>
       </c>
-      <c r="D39" s="451">
+      <c r="D39" s="449">
         <v>2</v>
       </c>
-      <c r="E39" s="451">
+      <c r="E39" s="449">
         <v>1</v>
       </c>
-      <c r="F39" s="451">
+      <c r="F39" s="449">
         <v>1</v>
       </c>
-      <c r="G39" s="451">
+      <c r="G39" s="449">
         <v>1</v>
       </c>
-      <c r="H39" s="451">
+      <c r="H39" s="449">
         <v>1</v>
       </c>
-      <c r="I39" s="451">
+      <c r="I39" s="449">
         <v>1</v>
       </c>
-      <c r="J39" s="451">
+      <c r="J39" s="449">
         <v>1</v>
       </c>
       <c r="K39" s="256"/>
@@ -7097,17 +7089,17 @@
       <c r="B1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -7228,11 +7220,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -8693,21 +8685,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -8732,19 +8724,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -8769,7 +8761,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -8777,11 +8769,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -9582,17 +9574,17 @@
       <c r="B1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -9713,11 +9705,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -11178,21 +11170,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -11217,19 +11209,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -11254,7 +11246,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -11262,11 +11254,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -12067,17 +12059,17 @@
       <c r="B1" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -12198,11 +12190,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -13663,21 +13655,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -13702,19 +13694,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -13739,7 +13731,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -13747,11 +13739,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -14552,17 +14544,17 @@
       <c r="B1" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -14683,11 +14675,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -16148,21 +16140,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -16187,19 +16179,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -16224,7 +16216,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -16232,11 +16224,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -17037,17 +17029,17 @@
       <c r="B1" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -17168,11 +17160,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -18633,21 +18625,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -18672,19 +18664,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -18709,7 +18701,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -18717,11 +18709,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -19522,17 +19514,17 @@
       <c r="B1" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -19653,11 +19645,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -21118,21 +21110,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -21157,19 +21149,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -21194,7 +21186,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -21202,11 +21194,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -22007,17 +21999,17 @@
       <c r="B1" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -22138,11 +22130,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -23603,21 +23595,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -23642,19 +23634,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -23679,7 +23671,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -23687,11 +23679,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -24455,9 +24447,7 @@
   </sheetPr>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24478,20 +24468,20 @@
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="435"/>
-      <c r="I1" s="447"/>
-      <c r="J1" s="449"/>
+      <c r="F1" s="433"/>
+      <c r="I1" s="445"/>
+      <c r="J1" s="447"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="str">
         <f>"Fach: "&amp;'1. Halbjahr'!E1</f>
         <v xml:space="preserve">Fach: </v>
       </c>
-      <c r="E2" s="487"/>
-      <c r="F2" s="487"/>
-      <c r="G2" s="487"/>
-      <c r="H2" s="487"/>
-      <c r="I2" s="448"/>
+      <c r="E2" s="485"/>
+      <c r="F2" s="485"/>
+      <c r="G2" s="485"/>
+      <c r="H2" s="485"/>
+      <c r="I2" s="446"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="str">
@@ -24520,10 +24510,10 @@
     <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="406"/>
       <c r="D4" s="406"/>
-      <c r="E4" s="424"/>
-      <c r="F4" s="424"/>
-      <c r="G4" s="424"/>
-      <c r="H4" s="424"/>
+      <c r="E4" s="422"/>
+      <c r="F4" s="422"/>
+      <c r="G4" s="422"/>
+      <c r="H4" s="422"/>
       <c r="I4" s="406"/>
       <c r="J4" s="406"/>
       <c r="K4" s="406"/>
@@ -24540,26 +24530,26 @@
     </row>
     <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="417"/>
-      <c r="C5" s="485" t="s">
+      <c r="B5" s="415"/>
+      <c r="C5" s="483" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="485"/>
-      <c r="E5" s="488"/>
-      <c r="F5" s="485" t="s">
+      <c r="D5" s="483"/>
+      <c r="E5" s="486"/>
+      <c r="F5" s="483" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="429" t="s">
+      <c r="G5" s="484"/>
+      <c r="H5" s="427" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="436" t="s">
+      <c r="I5" s="434" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="437" t="s">
+      <c r="J5" s="435" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="438" t="s">
+      <c r="K5" s="436" t="s">
         <v>12</v>
       </c>
       <c r="M5" s="199"/>
@@ -24581,14 +24571,14 @@
         <f>I1SA!A4</f>
         <v>1</v>
       </c>
-      <c r="B6" s="418" t="str">
+      <c r="B6" s="416" t="str">
         <f>IF('1. Halbjahr'!B4&lt;&gt;"", '1. Halbjahr'!B4, "")</f>
         <v/>
       </c>
-      <c r="C6" s="427"/>
+      <c r="C6" s="425"/>
       <c r="D6" s="64"/>
-      <c r="E6" s="428"/>
-      <c r="F6" s="426" t="str">
+      <c r="E6" s="426"/>
+      <c r="F6" s="424" t="str">
         <f>IF(APRohpunkte!AE4="",'Eingabe Abitur'!Q11,APRohpunkte!AE4)</f>
         <v/>
       </c>
@@ -24596,16 +24586,19 @@
         <f t="shared" ref="G6:G40" ca="1" si="0">IF(F6="","",IF($E$42="BE",INDIRECT("P"&amp;MATCH(M6,$Q$4:$Q$20,-1)+4),F6))</f>
         <v/>
       </c>
-      <c r="H6" s="425"/>
-      <c r="I6" s="433" t="str">
+      <c r="H6" s="423" t="str">
+        <f>'Eingabe Abitur'!X11</f>
+        <v/>
+      </c>
+      <c r="I6" s="431" t="str">
         <f ca="1">IF(G6="","",(G6*2+H6)/(2+COUNT(H6)))</f>
         <v/>
       </c>
-      <c r="J6" s="439" t="str">
+      <c r="J6" s="437" t="str">
         <f ca="1">IF(I6="","", IF(I6&lt;1, 0,ROUND(I6,0)))</f>
         <v/>
       </c>
-      <c r="K6" s="440" t="str">
+      <c r="K6" s="438" t="str">
         <f ca="1">IF(J6="","",((SUM(C6:E6)+IF(diNo!D4="FOS",3,2)*J6))/(COUNT(C6:E6)+IF(diNo!D4="FOS",3,2)))</f>
         <v/>
       </c>
@@ -24631,14 +24624,14 @@
         <f>I1SA!A5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="418" t="str">
+      <c r="B7" s="416" t="str">
         <f>IF('1. Halbjahr'!B5&lt;&gt;"", '1. Halbjahr'!B5, "")</f>
         <v/>
       </c>
-      <c r="C7" s="415"/>
+      <c r="C7" s="413"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="422"/>
-      <c r="F7" s="420" t="str">
+      <c r="E7" s="420"/>
+      <c r="F7" s="418" t="str">
         <f>IF(APRohpunkte!AE5="",'Eingabe Abitur'!Q13,APRohpunkte!AE5)</f>
         <v/>
       </c>
@@ -24646,16 +24639,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H7" s="407"/>
-      <c r="I7" s="430" t="str">
+      <c r="H7" s="423" t="str">
+        <f>'Eingabe Abitur'!X13</f>
+        <v/>
+      </c>
+      <c r="I7" s="428" t="str">
         <f t="shared" ref="I7:I40" ca="1" si="1">IF(G7="","",(G7*2+H7)/(2+COUNT(H7)))</f>
         <v/>
       </c>
-      <c r="J7" s="439" t="str">
+      <c r="J7" s="437" t="str">
         <f t="shared" ref="J7:J40" ca="1" si="2">IF(I7="","", IF(I7&lt;1, 0,ROUND(I7,0)))</f>
         <v/>
       </c>
-      <c r="K7" s="440" t="str">
+      <c r="K7" s="438" t="str">
         <f ca="1">IF(J7="","",((SUM(C7:E7)+IF(diNo!D5="FOS",3,2)*J7))/(COUNT(C7:E7)+IF(diNo!D5="FOS",3,2)))</f>
         <v/>
       </c>
@@ -24681,14 +24677,14 @@
         <f>I1SA!A6</f>
         <v>3</v>
       </c>
-      <c r="B8" s="418" t="str">
+      <c r="B8" s="416" t="str">
         <f>IF('1. Halbjahr'!B6&lt;&gt;"", '1. Halbjahr'!B6, "")</f>
         <v/>
       </c>
-      <c r="C8" s="415"/>
+      <c r="C8" s="413"/>
       <c r="D8" s="44"/>
-      <c r="E8" s="422"/>
-      <c r="F8" s="420" t="str">
+      <c r="E8" s="420"/>
+      <c r="F8" s="418" t="str">
         <f>IF(APRohpunkte!AE6="",'Eingabe Abitur'!Q15,APRohpunkte!AE6)</f>
         <v/>
       </c>
@@ -24696,16 +24692,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="407"/>
-      <c r="I8" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" s="439" t="str">
+      <c r="H8" s="423" t="str">
+        <f>'Eingabe Abitur'!X15</f>
+        <v/>
+      </c>
+      <c r="I8" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J8" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K8" s="440" t="str">
+      <c r="K8" s="438" t="str">
         <f ca="1">IF(J8="","",((SUM(C8:E8)+IF(diNo!D6="FOS",3,2)*J8))/(COUNT(C8:E8)+IF(diNo!D6="FOS",3,2)))</f>
         <v/>
       </c>
@@ -24731,14 +24730,14 @@
         <f>I1SA!A7</f>
         <v>4</v>
       </c>
-      <c r="B9" s="418" t="str">
+      <c r="B9" s="416" t="str">
         <f>IF('1. Halbjahr'!B7&lt;&gt;"", '1. Halbjahr'!B7, "")</f>
         <v/>
       </c>
-      <c r="C9" s="415"/>
+      <c r="C9" s="413"/>
       <c r="D9" s="44"/>
-      <c r="E9" s="422"/>
-      <c r="F9" s="420" t="str">
+      <c r="E9" s="420"/>
+      <c r="F9" s="418" t="str">
         <f>IF(APRohpunkte!AE7="",'Eingabe Abitur'!Q17,APRohpunkte!AE7)</f>
         <v/>
       </c>
@@ -24746,16 +24745,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H9" s="407"/>
-      <c r="I9" s="434" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J9" s="439" t="str">
+      <c r="H9" s="423" t="str">
+        <f>'Eingabe Abitur'!X17</f>
+        <v/>
+      </c>
+      <c r="I9" s="432" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J9" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="440" t="str">
+      <c r="K9" s="438" t="str">
         <f ca="1">IF(J9="","",((SUM(C9:E9)+IF(diNo!D7="FOS",3,2)*J9))/(COUNT(C9:E9)+IF(diNo!D7="FOS",3,2)))</f>
         <v/>
       </c>
@@ -24781,14 +24783,14 @@
         <f>I1SA!A8</f>
         <v>5</v>
       </c>
-      <c r="B10" s="418" t="str">
+      <c r="B10" s="416" t="str">
         <f>IF('1. Halbjahr'!B8&lt;&gt;"", '1. Halbjahr'!B8, "")</f>
         <v/>
       </c>
-      <c r="C10" s="415"/>
+      <c r="C10" s="413"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="422"/>
-      <c r="F10" s="420" t="str">
+      <c r="E10" s="420"/>
+      <c r="F10" s="418" t="str">
         <f>IF(APRohpunkte!AE8="",'Eingabe Abitur'!Q19,APRohpunkte!AE8)</f>
         <v/>
       </c>
@@ -24796,16 +24798,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H10" s="407"/>
-      <c r="I10" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" s="439" t="str">
+      <c r="H10" s="423" t="str">
+        <f>'Eingabe Abitur'!X19</f>
+        <v/>
+      </c>
+      <c r="I10" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J10" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K10" s="440" t="str">
+      <c r="K10" s="438" t="str">
         <f ca="1">IF(J10="","",((SUM(C10:E10)+IF(diNo!D8="FOS",3,2)*J10))/(COUNT(C10:E10)+IF(diNo!D8="FOS",3,2)))</f>
         <v/>
       </c>
@@ -24831,14 +24836,14 @@
         <f>I1SA!A9</f>
         <v>6</v>
       </c>
-      <c r="B11" s="418" t="str">
+      <c r="B11" s="416" t="str">
         <f>IF('1. Halbjahr'!B9&lt;&gt;"", '1. Halbjahr'!B9, "")</f>
         <v/>
       </c>
-      <c r="C11" s="415"/>
+      <c r="C11" s="413"/>
       <c r="D11" s="44"/>
-      <c r="E11" s="422"/>
-      <c r="F11" s="420" t="str">
+      <c r="E11" s="420"/>
+      <c r="F11" s="418" t="str">
         <f>IF(APRohpunkte!AE9="",'Eingabe Abitur'!Q21,APRohpunkte!AE9)</f>
         <v/>
       </c>
@@ -24846,16 +24851,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H11" s="407"/>
-      <c r="I11" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J11" s="439" t="str">
+      <c r="H11" s="423" t="str">
+        <f>'Eingabe Abitur'!X21</f>
+        <v/>
+      </c>
+      <c r="I11" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J11" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K11" s="440" t="str">
+      <c r="K11" s="438" t="str">
         <f ca="1">IF(J11="","",((SUM(C11:E11)+IF(diNo!D9="FOS",3,2)*J11))/(COUNT(C11:E11)+IF(diNo!D9="FOS",3,2)))</f>
         <v/>
       </c>
@@ -24881,14 +24889,14 @@
         <f>I1SA!A10</f>
         <v>7</v>
       </c>
-      <c r="B12" s="418" t="str">
+      <c r="B12" s="416" t="str">
         <f>IF('1. Halbjahr'!B10&lt;&gt;"", '1. Halbjahr'!B10, "")</f>
         <v/>
       </c>
-      <c r="C12" s="415"/>
+      <c r="C12" s="413"/>
       <c r="D12" s="44"/>
-      <c r="E12" s="422"/>
-      <c r="F12" s="420" t="str">
+      <c r="E12" s="420"/>
+      <c r="F12" s="418" t="str">
         <f>IF(APRohpunkte!AE10="",'Eingabe Abitur'!Q23,APRohpunkte!AE10)</f>
         <v/>
       </c>
@@ -24896,16 +24904,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="407"/>
-      <c r="I12" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" s="439" t="str">
+      <c r="H12" s="423" t="str">
+        <f>'Eingabe Abitur'!X23</f>
+        <v/>
+      </c>
+      <c r="I12" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J12" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K12" s="440" t="str">
+      <c r="K12" s="438" t="str">
         <f ca="1">IF(J12="","",((SUM(C12:E12)+IF(diNo!D10="FOS",3,2)*J12))/(COUNT(C12:E12)+IF(diNo!D10="FOS",3,2)))</f>
         <v/>
       </c>
@@ -24931,14 +24942,14 @@
         <f>I1SA!A11</f>
         <v>8</v>
       </c>
-      <c r="B13" s="418" t="str">
+      <c r="B13" s="416" t="str">
         <f>IF('1. Halbjahr'!B11&lt;&gt;"", '1. Halbjahr'!B11, "")</f>
         <v/>
       </c>
-      <c r="C13" s="415"/>
+      <c r="C13" s="413"/>
       <c r="D13" s="44"/>
-      <c r="E13" s="422"/>
-      <c r="F13" s="420" t="str">
+      <c r="E13" s="420"/>
+      <c r="F13" s="418" t="str">
         <f>IF(APRohpunkte!AE11="",'Eingabe Abitur'!Q25,APRohpunkte!AE11)</f>
         <v/>
       </c>
@@ -24946,16 +24957,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H13" s="407"/>
-      <c r="I13" s="434" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J13" s="439" t="str">
+      <c r="H13" s="423" t="str">
+        <f>'Eingabe Abitur'!X25</f>
+        <v/>
+      </c>
+      <c r="I13" s="432" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J13" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K13" s="440" t="str">
+      <c r="K13" s="438" t="str">
         <f ca="1">IF(J13="","",((SUM(C13:E13)+IF(diNo!D11="FOS",3,2)*J13))/(COUNT(C13:E13)+IF(diNo!D11="FOS",3,2)))</f>
         <v/>
       </c>
@@ -24981,14 +24995,14 @@
         <f>I1SA!A12</f>
         <v>9</v>
       </c>
-      <c r="B14" s="418" t="str">
+      <c r="B14" s="416" t="str">
         <f>IF('1. Halbjahr'!B12&lt;&gt;"", '1. Halbjahr'!B12, "")</f>
         <v/>
       </c>
-      <c r="C14" s="415"/>
+      <c r="C14" s="413"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="422"/>
-      <c r="F14" s="420" t="str">
+      <c r="E14" s="420"/>
+      <c r="F14" s="418" t="str">
         <f>IF(APRohpunkte!AE12="",'Eingabe Abitur'!Q27,APRohpunkte!AE12)</f>
         <v/>
       </c>
@@ -24996,16 +25010,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H14" s="407"/>
-      <c r="I14" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J14" s="439" t="str">
+      <c r="H14" s="423" t="str">
+        <f>'Eingabe Abitur'!X27</f>
+        <v/>
+      </c>
+      <c r="I14" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J14" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K14" s="440" t="str">
+      <c r="K14" s="438" t="str">
         <f ca="1">IF(J14="","",((SUM(C14:E14)+IF(diNo!D12="FOS",3,2)*J14))/(COUNT(C14:E14)+IF(diNo!D12="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25031,14 +25048,14 @@
         <f>I1SA!A13</f>
         <v>10</v>
       </c>
-      <c r="B15" s="418" t="str">
+      <c r="B15" s="416" t="str">
         <f>IF('1. Halbjahr'!B13&lt;&gt;"", '1. Halbjahr'!B13, "")</f>
         <v/>
       </c>
-      <c r="C15" s="415"/>
+      <c r="C15" s="413"/>
       <c r="D15" s="44"/>
-      <c r="E15" s="422"/>
-      <c r="F15" s="420" t="str">
+      <c r="E15" s="420"/>
+      <c r="F15" s="418" t="str">
         <f>IF(APRohpunkte!AE13="",'Eingabe Abitur'!Q29,APRohpunkte!AE13)</f>
         <v/>
       </c>
@@ -25046,16 +25063,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="407"/>
-      <c r="I15" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="439" t="str">
+      <c r="H15" s="423" t="str">
+        <f>'Eingabe Abitur'!X29</f>
+        <v/>
+      </c>
+      <c r="I15" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J15" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K15" s="440" t="str">
+      <c r="K15" s="438" t="str">
         <f ca="1">IF(J15="","",((SUM(C15:E15)+IF(diNo!D13="FOS",3,2)*J15))/(COUNT(C15:E15)+IF(diNo!D13="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25081,14 +25101,14 @@
         <f>I1SA!A14</f>
         <v>11</v>
       </c>
-      <c r="B16" s="418" t="str">
+      <c r="B16" s="416" t="str">
         <f>IF('1. Halbjahr'!B14&lt;&gt;"", '1. Halbjahr'!B14, "")</f>
         <v/>
       </c>
-      <c r="C16" s="415"/>
+      <c r="C16" s="413"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="422"/>
-      <c r="F16" s="420" t="str">
+      <c r="E16" s="420"/>
+      <c r="F16" s="418" t="str">
         <f>IF(APRohpunkte!AE14="",'Eingabe Abitur'!Q31,APRohpunkte!AE14)</f>
         <v/>
       </c>
@@ -25096,16 +25116,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H16" s="407"/>
-      <c r="I16" s="434" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" s="439" t="str">
+      <c r="H16" s="423" t="str">
+        <f>'Eingabe Abitur'!X31</f>
+        <v/>
+      </c>
+      <c r="I16" s="432" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J16" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K16" s="440" t="str">
+      <c r="K16" s="438" t="str">
         <f ca="1">IF(J16="","",((SUM(C16:E16)+IF(diNo!D14="FOS",3,2)*J16))/(COUNT(C16:E16)+IF(diNo!D14="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25131,14 +25154,14 @@
         <f>I1SA!A15</f>
         <v>12</v>
       </c>
-      <c r="B17" s="418" t="str">
+      <c r="B17" s="416" t="str">
         <f>IF('1. Halbjahr'!B15&lt;&gt;"", '1. Halbjahr'!B15, "")</f>
         <v/>
       </c>
-      <c r="C17" s="415"/>
+      <c r="C17" s="413"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="422"/>
-      <c r="F17" s="420" t="str">
+      <c r="E17" s="420"/>
+      <c r="F17" s="418" t="str">
         <f>IF(APRohpunkte!AE15="",'Eingabe Abitur'!Q33,APRohpunkte!AE15)</f>
         <v/>
       </c>
@@ -25146,16 +25169,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H17" s="407"/>
-      <c r="I17" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="439" t="str">
+      <c r="H17" s="423" t="str">
+        <f>'Eingabe Abitur'!X33</f>
+        <v/>
+      </c>
+      <c r="I17" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J17" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K17" s="440" t="str">
+      <c r="K17" s="438" t="str">
         <f ca="1">IF(J17="","",((SUM(C17:E17)+IF(diNo!D15="FOS",3,2)*J17))/(COUNT(C17:E17)+IF(diNo!D15="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25181,14 +25207,14 @@
         <f>I1SA!A16</f>
         <v>13</v>
       </c>
-      <c r="B18" s="418" t="str">
+      <c r="B18" s="416" t="str">
         <f>IF('1. Halbjahr'!B16&lt;&gt;"", '1. Halbjahr'!B16, "")</f>
         <v/>
       </c>
-      <c r="C18" s="415"/>
+      <c r="C18" s="413"/>
       <c r="D18" s="44"/>
-      <c r="E18" s="422"/>
-      <c r="F18" s="420" t="str">
+      <c r="E18" s="420"/>
+      <c r="F18" s="418" t="str">
         <f>IF(APRohpunkte!AE16="",'Eingabe Abitur'!Q35,APRohpunkte!AE16)</f>
         <v/>
       </c>
@@ -25196,16 +25222,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H18" s="407"/>
-      <c r="I18" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" s="439" t="str">
+      <c r="H18" s="423" t="str">
+        <f>'Eingabe Abitur'!X35</f>
+        <v/>
+      </c>
+      <c r="I18" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J18" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K18" s="440" t="str">
+      <c r="K18" s="438" t="str">
         <f ca="1">IF(J18="","",((SUM(C18:E18)+IF(diNo!D16="FOS",3,2)*J18))/(COUNT(C18:E18)+IF(diNo!D16="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25231,14 +25260,14 @@
         <f>I1SA!A17</f>
         <v>14</v>
       </c>
-      <c r="B19" s="418" t="str">
+      <c r="B19" s="416" t="str">
         <f>IF('1. Halbjahr'!B17&lt;&gt;"", '1. Halbjahr'!B17, "")</f>
         <v/>
       </c>
-      <c r="C19" s="415"/>
+      <c r="C19" s="413"/>
       <c r="D19" s="44"/>
-      <c r="E19" s="422"/>
-      <c r="F19" s="420" t="str">
+      <c r="E19" s="420"/>
+      <c r="F19" s="418" t="str">
         <f>IF(APRohpunkte!AE17="",'Eingabe Abitur'!Q37,APRohpunkte!AE17)</f>
         <v/>
       </c>
@@ -25246,16 +25275,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H19" s="407"/>
-      <c r="I19" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J19" s="439" t="str">
+      <c r="H19" s="423" t="str">
+        <f>'Eingabe Abitur'!X37</f>
+        <v/>
+      </c>
+      <c r="I19" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J19" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K19" s="440" t="str">
+      <c r="K19" s="438" t="str">
         <f ca="1">IF(J19="","",((SUM(C19:E19)+IF(diNo!D17="FOS",3,2)*J19))/(COUNT(C19:E19)+IF(diNo!D17="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25281,14 +25313,14 @@
         <f>I1SA!A18</f>
         <v>15</v>
       </c>
-      <c r="B20" s="418" t="str">
+      <c r="B20" s="416" t="str">
         <f>IF('1. Halbjahr'!B18&lt;&gt;"", '1. Halbjahr'!B18, "")</f>
         <v/>
       </c>
-      <c r="C20" s="415"/>
+      <c r="C20" s="413"/>
       <c r="D20" s="44"/>
-      <c r="E20" s="422"/>
-      <c r="F20" s="420" t="str">
+      <c r="E20" s="420"/>
+      <c r="F20" s="418" t="str">
         <f>IF(APRohpunkte!AE18="",'Eingabe Abitur'!Q39,APRohpunkte!AE18)</f>
         <v/>
       </c>
@@ -25296,16 +25328,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="407"/>
-      <c r="I20" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="439" t="str">
+      <c r="H20" s="423" t="str">
+        <f>'Eingabe Abitur'!X39</f>
+        <v/>
+      </c>
+      <c r="I20" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J20" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K20" s="440" t="str">
+      <c r="K20" s="438" t="str">
         <f ca="1">IF(J20="","",((SUM(C20:E20)+IF(diNo!D18="FOS",3,2)*J20))/(COUNT(C20:E20)+IF(diNo!D18="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25329,14 +25364,14 @@
         <f>I1SA!A19</f>
         <v>16</v>
       </c>
-      <c r="B21" s="418" t="str">
+      <c r="B21" s="416" t="str">
         <f>IF('1. Halbjahr'!B19&lt;&gt;"", '1. Halbjahr'!B19, "")</f>
         <v/>
       </c>
-      <c r="C21" s="415"/>
+      <c r="C21" s="413"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="422"/>
-      <c r="F21" s="420" t="str">
+      <c r="E21" s="420"/>
+      <c r="F21" s="418" t="str">
         <f>IF(APRohpunkte!AE19="",'Eingabe Abitur'!Q41,APRohpunkte!AE19)</f>
         <v/>
       </c>
@@ -25344,16 +25379,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H21" s="407"/>
-      <c r="I21" s="434" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" s="439" t="str">
+      <c r="H21" s="423" t="str">
+        <f>'Eingabe Abitur'!X41</f>
+        <v/>
+      </c>
+      <c r="I21" s="432" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J21" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K21" s="440" t="str">
+      <c r="K21" s="438" t="str">
         <f ca="1">IF(J21="","",((SUM(C21:E21)+IF(diNo!D19="FOS",3,2)*J21))/(COUNT(C21:E21)+IF(diNo!D19="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25367,14 +25405,14 @@
         <f>I1SA!A20</f>
         <v>17</v>
       </c>
-      <c r="B22" s="418" t="str">
+      <c r="B22" s="416" t="str">
         <f>IF('1. Halbjahr'!B20&lt;&gt;"", '1. Halbjahr'!B20, "")</f>
         <v/>
       </c>
-      <c r="C22" s="415"/>
+      <c r="C22" s="413"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="422"/>
-      <c r="F22" s="420" t="str">
+      <c r="E22" s="420"/>
+      <c r="F22" s="418" t="str">
         <f>IF(APRohpunkte!AE20="",'Eingabe Abitur'!Q43,APRohpunkte!AE20)</f>
         <v/>
       </c>
@@ -25382,16 +25420,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="407"/>
-      <c r="I22" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J22" s="439" t="str">
+      <c r="H22" s="423" t="str">
+        <f>'Eingabe Abitur'!X43</f>
+        <v/>
+      </c>
+      <c r="I22" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J22" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K22" s="440" t="str">
+      <c r="K22" s="438" t="str">
         <f ca="1">IF(J22="","",((SUM(C22:E22)+IF(diNo!D20="FOS",3,2)*J22))/(COUNT(C22:E22)+IF(diNo!D20="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25405,14 +25446,14 @@
         <f>I1SA!A21</f>
         <v>18</v>
       </c>
-      <c r="B23" s="418" t="str">
+      <c r="B23" s="416" t="str">
         <f>IF('1. Halbjahr'!B21&lt;&gt;"", '1. Halbjahr'!B21, "")</f>
         <v/>
       </c>
-      <c r="C23" s="415"/>
+      <c r="C23" s="413"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="422"/>
-      <c r="F23" s="420" t="str">
+      <c r="E23" s="420"/>
+      <c r="F23" s="418" t="str">
         <f>IF(APRohpunkte!AE21="",'Eingabe Abitur'!Q45,APRohpunkte!AE21)</f>
         <v/>
       </c>
@@ -25420,16 +25461,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H23" s="407"/>
-      <c r="I23" s="434" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J23" s="439" t="str">
+      <c r="H23" s="423" t="str">
+        <f>'Eingabe Abitur'!X45</f>
+        <v/>
+      </c>
+      <c r="I23" s="432" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J23" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K23" s="440" t="str">
+      <c r="K23" s="438" t="str">
         <f ca="1">IF(J23="","",((SUM(C23:E23)+IF(diNo!D21="FOS",3,2)*J23))/(COUNT(C23:E23)+IF(diNo!D21="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25443,14 +25487,14 @@
         <f>I1SA!A22</f>
         <v>19</v>
       </c>
-      <c r="B24" s="418" t="str">
+      <c r="B24" s="416" t="str">
         <f>IF('1. Halbjahr'!B22&lt;&gt;"", '1. Halbjahr'!B22, "")</f>
         <v/>
       </c>
-      <c r="C24" s="415"/>
+      <c r="C24" s="413"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="422"/>
-      <c r="F24" s="420" t="str">
+      <c r="E24" s="420"/>
+      <c r="F24" s="418" t="str">
         <f>IF(APRohpunkte!AE22="",'Eingabe Abitur'!Q47,APRohpunkte!AE22)</f>
         <v/>
       </c>
@@ -25458,16 +25502,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H24" s="407"/>
-      <c r="I24" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J24" s="439" t="str">
+      <c r="H24" s="423" t="str">
+        <f>'Eingabe Abitur'!X47</f>
+        <v/>
+      </c>
+      <c r="I24" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J24" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K24" s="440" t="str">
+      <c r="K24" s="438" t="str">
         <f ca="1">IF(J24="","",((SUM(C24:E24)+IF(diNo!D22="FOS",3,2)*J24))/(COUNT(C24:E24)+IF(diNo!D22="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25481,14 +25528,14 @@
         <f>I1SA!A23</f>
         <v>20</v>
       </c>
-      <c r="B25" s="418" t="str">
+      <c r="B25" s="416" t="str">
         <f>IF('1. Halbjahr'!B23&lt;&gt;"", '1. Halbjahr'!B23, "")</f>
         <v/>
       </c>
-      <c r="C25" s="415"/>
+      <c r="C25" s="413"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="422"/>
-      <c r="F25" s="420" t="str">
+      <c r="E25" s="420"/>
+      <c r="F25" s="418" t="str">
         <f>IF(APRohpunkte!AE23="",'Eingabe Abitur'!Q49,APRohpunkte!AE23)</f>
         <v/>
       </c>
@@ -25496,16 +25543,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H25" s="407"/>
-      <c r="I25" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J25" s="439" t="str">
+      <c r="H25" s="423" t="str">
+        <f>'Eingabe Abitur'!X49</f>
+        <v/>
+      </c>
+      <c r="I25" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J25" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K25" s="440" t="str">
+      <c r="K25" s="438" t="str">
         <f ca="1">IF(J25="","",((SUM(C25:E25)+IF(diNo!D23="FOS",3,2)*J25))/(COUNT(C25:E25)+IF(diNo!D23="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25519,14 +25569,14 @@
         <f>I1SA!A24</f>
         <v>21</v>
       </c>
-      <c r="B26" s="418" t="str">
+      <c r="B26" s="416" t="str">
         <f>IF('1. Halbjahr'!B24&lt;&gt;"", '1. Halbjahr'!B24, "")</f>
         <v/>
       </c>
-      <c r="C26" s="415"/>
+      <c r="C26" s="413"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="422"/>
-      <c r="F26" s="420" t="str">
+      <c r="E26" s="420"/>
+      <c r="F26" s="418" t="str">
         <f>IF(APRohpunkte!AE24="",'Eingabe Abitur'!Q51,APRohpunkte!AE24)</f>
         <v/>
       </c>
@@ -25534,16 +25584,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H26" s="407"/>
-      <c r="I26" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J26" s="439" t="str">
+      <c r="H26" s="423" t="str">
+        <f>'Eingabe Abitur'!X51</f>
+        <v/>
+      </c>
+      <c r="I26" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J26" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K26" s="440" t="str">
+      <c r="K26" s="438" t="str">
         <f ca="1">IF(J26="","",((SUM(C26:E26)+IF(diNo!D24="FOS",3,2)*J26))/(COUNT(C26:E26)+IF(diNo!D24="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25557,14 +25610,14 @@
         <f>I1SA!A25</f>
         <v>22</v>
       </c>
-      <c r="B27" s="418" t="str">
+      <c r="B27" s="416" t="str">
         <f>IF('1. Halbjahr'!B25&lt;&gt;"", '1. Halbjahr'!B25, "")</f>
         <v/>
       </c>
-      <c r="C27" s="415"/>
+      <c r="C27" s="413"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="422"/>
-      <c r="F27" s="420" t="str">
+      <c r="E27" s="420"/>
+      <c r="F27" s="418" t="str">
         <f>IF(APRohpunkte!AE25="",'Eingabe Abitur'!Q53,APRohpunkte!AE25)</f>
         <v/>
       </c>
@@ -25572,16 +25625,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H27" s="407"/>
-      <c r="I27" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J27" s="439" t="str">
+      <c r="H27" s="423" t="str">
+        <f>'Eingabe Abitur'!X53</f>
+        <v/>
+      </c>
+      <c r="I27" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J27" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K27" s="440" t="str">
+      <c r="K27" s="438" t="str">
         <f ca="1">IF(J27="","",((SUM(C27:E27)+IF(diNo!D25="FOS",3,2)*J27))/(COUNT(C27:E27)+IF(diNo!D25="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25595,14 +25651,14 @@
         <f>I1SA!A26</f>
         <v>23</v>
       </c>
-      <c r="B28" s="418" t="str">
+      <c r="B28" s="416" t="str">
         <f>IF('1. Halbjahr'!B26&lt;&gt;"", '1. Halbjahr'!B26, "")</f>
         <v/>
       </c>
-      <c r="C28" s="415"/>
+      <c r="C28" s="413"/>
       <c r="D28" s="44"/>
-      <c r="E28" s="422"/>
-      <c r="F28" s="420" t="str">
+      <c r="E28" s="420"/>
+      <c r="F28" s="418" t="str">
         <f>IF(APRohpunkte!AE26="",'Eingabe Abitur'!Q55,APRohpunkte!AE26)</f>
         <v/>
       </c>
@@ -25610,16 +25666,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H28" s="407"/>
-      <c r="I28" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" s="439" t="str">
+      <c r="H28" s="423" t="str">
+        <f>'Eingabe Abitur'!X55</f>
+        <v/>
+      </c>
+      <c r="I28" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J28" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K28" s="440" t="str">
+      <c r="K28" s="438" t="str">
         <f ca="1">IF(J28="","",((SUM(C28:E28)+IF(diNo!D26="FOS",3,2)*J28))/(COUNT(C28:E28)+IF(diNo!D26="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25633,14 +25692,14 @@
         <f>I1SA!A27</f>
         <v>24</v>
       </c>
-      <c r="B29" s="418" t="str">
+      <c r="B29" s="416" t="str">
         <f>IF('1. Halbjahr'!B27&lt;&gt;"", '1. Halbjahr'!B27, "")</f>
         <v/>
       </c>
-      <c r="C29" s="415"/>
+      <c r="C29" s="413"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="422"/>
-      <c r="F29" s="420" t="str">
+      <c r="E29" s="420"/>
+      <c r="F29" s="418" t="str">
         <f>IF(APRohpunkte!AE27="",'Eingabe Abitur'!Q57,APRohpunkte!AE27)</f>
         <v/>
       </c>
@@ -25648,16 +25707,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H29" s="407"/>
-      <c r="I29" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J29" s="439" t="str">
+      <c r="H29" s="423" t="str">
+        <f>'Eingabe Abitur'!X57</f>
+        <v/>
+      </c>
+      <c r="I29" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J29" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K29" s="440" t="str">
+      <c r="K29" s="438" t="str">
         <f ca="1">IF(J29="","",((SUM(C29:E29)+IF(diNo!D27="FOS",3,2)*J29))/(COUNT(C29:E29)+IF(diNo!D27="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25671,14 +25733,14 @@
         <f>I1SA!A28</f>
         <v>25</v>
       </c>
-      <c r="B30" s="418" t="str">
+      <c r="B30" s="416" t="str">
         <f>IF('1. Halbjahr'!B28&lt;&gt;"", '1. Halbjahr'!B28, "")</f>
         <v/>
       </c>
-      <c r="C30" s="415"/>
+      <c r="C30" s="413"/>
       <c r="D30" s="44"/>
-      <c r="E30" s="422"/>
-      <c r="F30" s="420" t="str">
+      <c r="E30" s="420"/>
+      <c r="F30" s="418" t="str">
         <f>IF(APRohpunkte!AE28="",'Eingabe Abitur'!Q59,APRohpunkte!AE28)</f>
         <v/>
       </c>
@@ -25686,16 +25748,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H30" s="407"/>
-      <c r="I30" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J30" s="439" t="str">
+      <c r="H30" s="423" t="str">
+        <f>'Eingabe Abitur'!X59</f>
+        <v/>
+      </c>
+      <c r="I30" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J30" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K30" s="440" t="str">
+      <c r="K30" s="438" t="str">
         <f ca="1">IF(J30="","",((SUM(C30:E30)+IF(diNo!D28="FOS",3,2)*J30))/(COUNT(C30:E30)+IF(diNo!D28="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25709,14 +25774,14 @@
         <f>I1SA!A29</f>
         <v>26</v>
       </c>
-      <c r="B31" s="418" t="str">
+      <c r="B31" s="416" t="str">
         <f>IF('1. Halbjahr'!B29&lt;&gt;"", '1. Halbjahr'!B29, "")</f>
         <v/>
       </c>
-      <c r="C31" s="415"/>
+      <c r="C31" s="413"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="422"/>
-      <c r="F31" s="420" t="str">
+      <c r="E31" s="420"/>
+      <c r="F31" s="418" t="str">
         <f>IF(APRohpunkte!AE29="",'Eingabe Abitur'!Q61,APRohpunkte!AE29)</f>
         <v/>
       </c>
@@ -25724,16 +25789,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H31" s="407"/>
-      <c r="I31" s="434" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J31" s="439" t="str">
+      <c r="H31" s="423" t="str">
+        <f>'Eingabe Abitur'!X61</f>
+        <v/>
+      </c>
+      <c r="I31" s="432" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J31" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K31" s="440" t="str">
+      <c r="K31" s="438" t="str">
         <f ca="1">IF(J31="","",((SUM(C31:E31)+IF(diNo!D29="FOS",3,2)*J31))/(COUNT(C31:E31)+IF(diNo!D29="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25747,14 +25815,14 @@
         <f>I1SA!A30</f>
         <v>27</v>
       </c>
-      <c r="B32" s="418" t="str">
+      <c r="B32" s="416" t="str">
         <f>IF('1. Halbjahr'!B30&lt;&gt;"", '1. Halbjahr'!B30, "")</f>
         <v/>
       </c>
-      <c r="C32" s="415"/>
+      <c r="C32" s="413"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="422"/>
-      <c r="F32" s="420" t="str">
+      <c r="E32" s="420"/>
+      <c r="F32" s="418" t="str">
         <f>IF(APRohpunkte!AE30="",'Eingabe Abitur'!Q63,APRohpunkte!AE30)</f>
         <v/>
       </c>
@@ -25762,16 +25830,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H32" s="407"/>
-      <c r="I32" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J32" s="439" t="str">
+      <c r="H32" s="423" t="str">
+        <f>'Eingabe Abitur'!X63</f>
+        <v/>
+      </c>
+      <c r="I32" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J32" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K32" s="440" t="str">
+      <c r="K32" s="438" t="str">
         <f ca="1">IF(J32="","",((SUM(C32:E32)+IF(diNo!D30="FOS",3,2)*J32))/(COUNT(C32:E32)+IF(diNo!D30="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25785,14 +25856,14 @@
         <f>I1SA!A31</f>
         <v>28</v>
       </c>
-      <c r="B33" s="418" t="str">
+      <c r="B33" s="416" t="str">
         <f>IF('1. Halbjahr'!B31&lt;&gt;"", '1. Halbjahr'!B31, "")</f>
         <v/>
       </c>
-      <c r="C33" s="415"/>
+      <c r="C33" s="413"/>
       <c r="D33" s="44"/>
-      <c r="E33" s="422"/>
-      <c r="F33" s="420" t="str">
+      <c r="E33" s="420"/>
+      <c r="F33" s="418" t="str">
         <f>IF(APRohpunkte!AE31="",'Eingabe Abitur'!Q65,APRohpunkte!AE31)</f>
         <v/>
       </c>
@@ -25800,16 +25871,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H33" s="407"/>
-      <c r="I33" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J33" s="439" t="str">
+      <c r="H33" s="423" t="str">
+        <f>'Eingabe Abitur'!X65</f>
+        <v/>
+      </c>
+      <c r="I33" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J33" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K33" s="440" t="str">
+      <c r="K33" s="438" t="str">
         <f ca="1">IF(J33="","",((SUM(C33:E33)+IF(diNo!D31="FOS",3,2)*J33))/(COUNT(C33:E33)+IF(diNo!D31="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25823,14 +25897,14 @@
         <f>I1SA!A32</f>
         <v>29</v>
       </c>
-      <c r="B34" s="418" t="str">
+      <c r="B34" s="416" t="str">
         <f>IF('1. Halbjahr'!B32&lt;&gt;"", '1. Halbjahr'!B32, "")</f>
         <v/>
       </c>
-      <c r="C34" s="415"/>
+      <c r="C34" s="413"/>
       <c r="D34" s="44"/>
-      <c r="E34" s="422"/>
-      <c r="F34" s="420" t="str">
+      <c r="E34" s="420"/>
+      <c r="F34" s="418" t="str">
         <f>IF(APRohpunkte!AE32="",'Eingabe Abitur'!Q67,APRohpunkte!AE32)</f>
         <v/>
       </c>
@@ -25838,16 +25912,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H34" s="407"/>
-      <c r="I34" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J34" s="439" t="str">
+      <c r="H34" s="423" t="str">
+        <f>'Eingabe Abitur'!X67</f>
+        <v/>
+      </c>
+      <c r="I34" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J34" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K34" s="440" t="str">
+      <c r="K34" s="438" t="str">
         <f ca="1">IF(J34="","",((SUM(C34:E34)+IF(diNo!D32="FOS",3,2)*J34))/(COUNT(C34:E34)+IF(diNo!D32="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25861,14 +25938,14 @@
         <f>I1SA!A33</f>
         <v>30</v>
       </c>
-      <c r="B35" s="418" t="str">
+      <c r="B35" s="416" t="str">
         <f>IF('1. Halbjahr'!B33&lt;&gt;"", '1. Halbjahr'!B33, "")</f>
         <v/>
       </c>
-      <c r="C35" s="415"/>
+      <c r="C35" s="413"/>
       <c r="D35" s="44"/>
-      <c r="E35" s="422"/>
-      <c r="F35" s="420" t="str">
+      <c r="E35" s="420"/>
+      <c r="F35" s="418" t="str">
         <f>IF(APRohpunkte!AE33="",'Eingabe Abitur'!Q69,APRohpunkte!AE33)</f>
         <v/>
       </c>
@@ -25876,16 +25953,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H35" s="407"/>
-      <c r="I35" s="434" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J35" s="439" t="str">
+      <c r="H35" s="423" t="str">
+        <f>'Eingabe Abitur'!X69</f>
+        <v/>
+      </c>
+      <c r="I35" s="432" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J35" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K35" s="440" t="str">
+      <c r="K35" s="438" t="str">
         <f ca="1">IF(J35="","",((SUM(C35:E35)+IF(diNo!D33="FOS",3,2)*J35))/(COUNT(C35:E35)+IF(diNo!D33="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25899,14 +25979,14 @@
         <f>I1SA!A34</f>
         <v>31</v>
       </c>
-      <c r="B36" s="418" t="str">
+      <c r="B36" s="416" t="str">
         <f>IF('1. Halbjahr'!B34&lt;&gt;"", '1. Halbjahr'!B34, "")</f>
         <v/>
       </c>
-      <c r="C36" s="415"/>
+      <c r="C36" s="413"/>
       <c r="D36" s="44"/>
-      <c r="E36" s="422"/>
-      <c r="F36" s="420" t="str">
+      <c r="E36" s="420"/>
+      <c r="F36" s="418" t="str">
         <f>IF(APRohpunkte!AE34="",'Eingabe Abitur'!Q71,APRohpunkte!AE34)</f>
         <v/>
       </c>
@@ -25914,16 +25994,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H36" s="407"/>
-      <c r="I36" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J36" s="439" t="str">
+      <c r="H36" s="423" t="str">
+        <f>'Eingabe Abitur'!X71</f>
+        <v/>
+      </c>
+      <c r="I36" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J36" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K36" s="440" t="str">
+      <c r="K36" s="438" t="str">
         <f ca="1">IF(J36="","",((SUM(C36:E36)+IF(diNo!D34="FOS",3,2)*J36))/(COUNT(C36:E36)+IF(diNo!D34="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25937,14 +26020,14 @@
         <f>I1SA!A35</f>
         <v>32</v>
       </c>
-      <c r="B37" s="418" t="str">
+      <c r="B37" s="416" t="str">
         <f>IF('1. Halbjahr'!B35&lt;&gt;"", '1. Halbjahr'!B35, "")</f>
         <v/>
       </c>
-      <c r="C37" s="415"/>
+      <c r="C37" s="413"/>
       <c r="D37" s="44"/>
-      <c r="E37" s="422"/>
-      <c r="F37" s="420" t="str">
+      <c r="E37" s="420"/>
+      <c r="F37" s="418" t="str">
         <f>IF(APRohpunkte!AE35="",'Eingabe Abitur'!Q73,APRohpunkte!AE35)</f>
         <v/>
       </c>
@@ -25952,16 +26035,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H37" s="407"/>
-      <c r="I37" s="431" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J37" s="439" t="str">
+      <c r="H37" s="423" t="str">
+        <f>'Eingabe Abitur'!X73</f>
+        <v/>
+      </c>
+      <c r="I37" s="429" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J37" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K37" s="440" t="str">
+      <c r="K37" s="438" t="str">
         <f ca="1">IF(J37="","",((SUM(C37:E37)+IF(diNo!D35="FOS",3,2)*J37))/(COUNT(C37:E37)+IF(diNo!D35="FOS",3,2)))</f>
         <v/>
       </c>
@@ -25975,14 +26061,14 @@
         <f>I1SA!A36</f>
         <v>33</v>
       </c>
-      <c r="B38" s="418" t="str">
+      <c r="B38" s="416" t="str">
         <f>IF('1. Halbjahr'!B36&lt;&gt;"", '1. Halbjahr'!B36, "")</f>
         <v/>
       </c>
-      <c r="C38" s="415"/>
+      <c r="C38" s="413"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="422"/>
-      <c r="F38" s="420" t="str">
+      <c r="E38" s="420"/>
+      <c r="F38" s="418" t="str">
         <f>IF(APRohpunkte!AE36="",'Eingabe Abitur'!Q75,APRohpunkte!AE36)</f>
         <v/>
       </c>
@@ -25990,16 +26076,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H38" s="407"/>
-      <c r="I38" s="434" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J38" s="439" t="str">
+      <c r="H38" s="423" t="str">
+        <f>'Eingabe Abitur'!X75</f>
+        <v/>
+      </c>
+      <c r="I38" s="432" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J38" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K38" s="440" t="str">
+      <c r="K38" s="438" t="str">
         <f ca="1">IF(J38="","",((SUM(C38:E38)+IF(diNo!D36="FOS",3,2)*J38))/(COUNT(C38:E38)+IF(diNo!D36="FOS",3,2)))</f>
         <v/>
       </c>
@@ -26013,14 +26102,14 @@
         <f>I1SA!A37</f>
         <v>34</v>
       </c>
-      <c r="B39" s="418" t="str">
+      <c r="B39" s="416" t="str">
         <f>IF('1. Halbjahr'!B37&lt;&gt;"", '1. Halbjahr'!B37, "")</f>
         <v/>
       </c>
-      <c r="C39" s="415"/>
+      <c r="C39" s="413"/>
       <c r="D39" s="44"/>
-      <c r="E39" s="422"/>
-      <c r="F39" s="420" t="str">
+      <c r="E39" s="420"/>
+      <c r="F39" s="418" t="str">
         <f>IF(APRohpunkte!AE37="",'Eingabe Abitur'!Q77,APRohpunkte!AE37)</f>
         <v/>
       </c>
@@ -26028,16 +26117,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H39" s="407"/>
-      <c r="I39" s="430" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J39" s="439" t="str">
+      <c r="H39" s="423" t="str">
+        <f>'Eingabe Abitur'!X77</f>
+        <v/>
+      </c>
+      <c r="I39" s="428" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J39" s="437" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K39" s="440" t="str">
+      <c r="K39" s="438" t="str">
         <f ca="1">IF(J39="","",((SUM(C39:E39)+IF(diNo!D37="FOS",3,2)*J39))/(COUNT(C39:E39)+IF(diNo!D37="FOS",3,2)))</f>
         <v/>
       </c>
@@ -26047,35 +26139,38 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="412">
+      <c r="A40" s="411">
         <f>I1SA!A38</f>
         <v>35</v>
       </c>
-      <c r="B40" s="419" t="str">
+      <c r="B40" s="417" t="str">
         <f>IF('1. Halbjahr'!B38&lt;&gt;"", '1. Halbjahr'!B38, "")</f>
         <v/>
       </c>
-      <c r="C40" s="416"/>
-      <c r="D40" s="413"/>
-      <c r="E40" s="423"/>
-      <c r="F40" s="421" t="str">
+      <c r="C40" s="414"/>
+      <c r="D40" s="412"/>
+      <c r="E40" s="421"/>
+      <c r="F40" s="419" t="str">
         <f>IF(APRohpunkte!AE38="",'Eingabe Abitur'!Q79,APRohpunkte!AE38)</f>
         <v/>
       </c>
-      <c r="G40" s="412" t="str">
+      <c r="G40" s="411" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H40" s="414"/>
-      <c r="I40" s="432" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J40" s="446" t="str">
+      <c r="H40" s="423" t="str">
+        <f>'Eingabe Abitur'!X79</f>
+        <v/>
+      </c>
+      <c r="I40" s="430" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J40" s="444" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
-      <c r="K40" s="441" t="str">
+      <c r="K40" s="439" t="str">
         <f ca="1">IF(J40="","",((SUM(C40:E40)+IF(diNo!D38="FOS",3,2)*J40))/(COUNT(C40:E40)+IF(diNo!D38="FOS",3,2)))</f>
         <v/>
       </c>
@@ -26088,24 +26183,24 @@
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="410" t="e">
+      <c r="E41" s="409" t="e">
         <f>AVERAGE(C6:E40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="410" t="e">
+      <c r="G41" s="409" t="e">
         <f ca="1">AVERAGE(G6:G40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="411" t="e">
+      <c r="H41" s="410" t="e">
         <f>AVERAGE(H6:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="408"/>
+      <c r="I41" s="407"/>
       <c r="J41" s="405" t="e">
         <f ca="1">AVERAGE(J6:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="409"/>
+      <c r="K41" s="408"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -26122,11 +26217,11 @@
       <c r="E43" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="484" t="s">
+      <c r="G43" s="482" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="484"/>
-      <c r="I43" s="484"/>
+      <c r="H43" s="482"/>
+      <c r="I43" s="482"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -26747,15 +26842,15 @@
       <c r="G6" s="123"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="503" t="s">
+      <c r="A7" s="487" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="504"/>
-      <c r="C7" s="504"/>
-      <c r="D7" s="504"/>
-      <c r="E7" s="504"/>
-      <c r="F7" s="504"/>
-      <c r="G7" s="505"/>
+      <c r="B7" s="488"/>
+      <c r="C7" s="488"/>
+      <c r="D7" s="488"/>
+      <c r="E7" s="488"/>
+      <c r="F7" s="488"/>
+      <c r="G7" s="489"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="132"/>
@@ -26771,10 +26866,10 @@
       <c r="B9" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="506" t="s">
+      <c r="C9" s="490" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="506"/>
+      <c r="D9" s="490"/>
       <c r="E9" s="126"/>
       <c r="F9" s="126"/>
       <c r="G9" s="129"/>
@@ -26816,7 +26911,7 @@
         <f ca="1">AP!G6</f>
         <v/>
       </c>
-      <c r="F11" s="443" t="str">
+      <c r="F11" s="441" t="str">
         <f ca="1">IF(D11="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D11, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D11))</f>
         <v/>
       </c>
@@ -26845,7 +26940,7 @@
         <f ca="1">AP!G7</f>
         <v/>
       </c>
-      <c r="F12" s="443" t="str">
+      <c r="F12" s="441" t="str">
         <f ca="1">IF(D12="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D12, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D12))</f>
         <v/>
       </c>
@@ -26874,7 +26969,7 @@
         <f ca="1">AP!G8</f>
         <v/>
       </c>
-      <c r="F13" s="443" t="str">
+      <c r="F13" s="441" t="str">
         <f ca="1">IF(D13="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D13, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D13))</f>
         <v/>
       </c>
@@ -26903,7 +26998,7 @@
         <f ca="1">AP!G9</f>
         <v/>
       </c>
-      <c r="F14" s="443" t="str">
+      <c r="F14" s="441" t="str">
         <f ca="1">IF(D14="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D14, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D14))</f>
         <v/>
       </c>
@@ -26932,7 +27027,7 @@
         <f ca="1">AP!G10</f>
         <v/>
       </c>
-      <c r="F15" s="443" t="str">
+      <c r="F15" s="441" t="str">
         <f ca="1">IF(D15="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D15, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D15))</f>
         <v/>
       </c>
@@ -26961,7 +27056,7 @@
         <f ca="1">AP!G11</f>
         <v/>
       </c>
-      <c r="F16" s="443" t="str">
+      <c r="F16" s="441" t="str">
         <f ca="1">IF(D16="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D16, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D16))</f>
         <v/>
       </c>
@@ -26990,7 +27085,7 @@
         <f ca="1">AP!G12</f>
         <v/>
       </c>
-      <c r="F17" s="443" t="str">
+      <c r="F17" s="441" t="str">
         <f ca="1">IF(D17="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D17, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D17))</f>
         <v/>
       </c>
@@ -27019,7 +27114,7 @@
         <f ca="1">AP!G13</f>
         <v/>
       </c>
-      <c r="F18" s="443" t="str">
+      <c r="F18" s="441" t="str">
         <f ca="1">IF(D18="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D18, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D18))</f>
         <v/>
       </c>
@@ -27048,7 +27143,7 @@
         <f ca="1">AP!G14</f>
         <v/>
       </c>
-      <c r="F19" s="443" t="str">
+      <c r="F19" s="441" t="str">
         <f ca="1">IF(D19="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D19, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D19))</f>
         <v/>
       </c>
@@ -27077,7 +27172,7 @@
         <f ca="1">AP!G15</f>
         <v/>
       </c>
-      <c r="F20" s="443" t="str">
+      <c r="F20" s="441" t="str">
         <f ca="1">IF(D20="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D20, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D20))</f>
         <v/>
       </c>
@@ -27106,7 +27201,7 @@
         <f ca="1">AP!G16</f>
         <v/>
       </c>
-      <c r="F21" s="443" t="str">
+      <c r="F21" s="441" t="str">
         <f ca="1">IF(D21="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D21, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D21))</f>
         <v/>
       </c>
@@ -27135,7 +27230,7 @@
         <f ca="1">AP!G17</f>
         <v/>
       </c>
-      <c r="F22" s="443" t="str">
+      <c r="F22" s="441" t="str">
         <f ca="1">IF(D22="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D22, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D22))</f>
         <v/>
       </c>
@@ -27164,7 +27259,7 @@
         <f ca="1">AP!G18</f>
         <v/>
       </c>
-      <c r="F23" s="443" t="str">
+      <c r="F23" s="441" t="str">
         <f ca="1">IF(D23="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D23, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D23))</f>
         <v/>
       </c>
@@ -27193,7 +27288,7 @@
         <f ca="1">AP!G19</f>
         <v/>
       </c>
-      <c r="F24" s="443" t="str">
+      <c r="F24" s="441" t="str">
         <f ca="1">IF(D24="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D24, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D24))</f>
         <v/>
       </c>
@@ -27222,7 +27317,7 @@
         <f ca="1">AP!G20</f>
         <v/>
       </c>
-      <c r="F25" s="443" t="str">
+      <c r="F25" s="441" t="str">
         <f ca="1">IF(D25="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D25, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D25))</f>
         <v/>
       </c>
@@ -27251,7 +27346,7 @@
         <f ca="1">AP!G21</f>
         <v/>
       </c>
-      <c r="F26" s="443" t="str">
+      <c r="F26" s="441" t="str">
         <f ca="1">IF(D26="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D26, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D26))</f>
         <v/>
       </c>
@@ -27280,7 +27375,7 @@
         <f ca="1">AP!G22</f>
         <v/>
       </c>
-      <c r="F27" s="443" t="str">
+      <c r="F27" s="441" t="str">
         <f ca="1">IF(D27="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D27, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D27))</f>
         <v/>
       </c>
@@ -27309,7 +27404,7 @@
         <f ca="1">AP!G23</f>
         <v/>
       </c>
-      <c r="F28" s="443" t="str">
+      <c r="F28" s="441" t="str">
         <f ca="1">IF(D28="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D28, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D28))</f>
         <v/>
       </c>
@@ -27338,7 +27433,7 @@
         <f ca="1">AP!G24</f>
         <v/>
       </c>
-      <c r="F29" s="443" t="str">
+      <c r="F29" s="441" t="str">
         <f ca="1">IF(D29="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D29, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D29))</f>
         <v/>
       </c>
@@ -27367,7 +27462,7 @@
         <f ca="1">AP!G25</f>
         <v/>
       </c>
-      <c r="F30" s="443" t="str">
+      <c r="F30" s="441" t="str">
         <f ca="1">IF(D30="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D30, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D30))</f>
         <v/>
       </c>
@@ -27396,7 +27491,7 @@
         <f ca="1">AP!G26</f>
         <v/>
       </c>
-      <c r="F31" s="443" t="str">
+      <c r="F31" s="441" t="str">
         <f ca="1">IF(D31="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D31, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D31))</f>
         <v/>
       </c>
@@ -27425,7 +27520,7 @@
         <f ca="1">AP!G27</f>
         <v/>
       </c>
-      <c r="F32" s="443" t="str">
+      <c r="F32" s="441" t="str">
         <f ca="1">IF(D32="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D32, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D32))</f>
         <v/>
       </c>
@@ -27454,7 +27549,7 @@
         <f ca="1">AP!G28</f>
         <v/>
       </c>
-      <c r="F33" s="443" t="str">
+      <c r="F33" s="441" t="str">
         <f ca="1">IF(D33="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D33, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D33))</f>
         <v/>
       </c>
@@ -27483,7 +27578,7 @@
         <f ca="1">AP!G29</f>
         <v/>
       </c>
-      <c r="F34" s="443" t="str">
+      <c r="F34" s="441" t="str">
         <f ca="1">IF(D34="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D34, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D34))</f>
         <v/>
       </c>
@@ -27512,7 +27607,7 @@
         <f ca="1">AP!G30</f>
         <v/>
       </c>
-      <c r="F35" s="443" t="str">
+      <c r="F35" s="441" t="str">
         <f ca="1">IF(D35="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D35, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D35))</f>
         <v/>
       </c>
@@ -27541,7 +27636,7 @@
         <f ca="1">AP!G31</f>
         <v/>
       </c>
-      <c r="F36" s="443" t="str">
+      <c r="F36" s="441" t="str">
         <f ca="1">IF(D36="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D36, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D36))</f>
         <v/>
       </c>
@@ -27570,7 +27665,7 @@
         <f ca="1">AP!G32</f>
         <v/>
       </c>
-      <c r="F37" s="443" t="str">
+      <c r="F37" s="441" t="str">
         <f ca="1">IF(D37="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D37, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D37))</f>
         <v/>
       </c>
@@ -27599,7 +27694,7 @@
         <f ca="1">AP!G33</f>
         <v/>
       </c>
-      <c r="F38" s="443" t="str">
+      <c r="F38" s="441" t="str">
         <f ca="1">IF(D38="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D38, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D38))</f>
         <v/>
       </c>
@@ -27628,7 +27723,7 @@
         <f ca="1">AP!G34</f>
         <v/>
       </c>
-      <c r="F39" s="443" t="str">
+      <c r="F39" s="441" t="str">
         <f ca="1">IF(D39="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D39, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D39))</f>
         <v/>
       </c>
@@ -27657,7 +27752,7 @@
         <f ca="1">AP!G35</f>
         <v/>
       </c>
-      <c r="F40" s="443" t="str">
+      <c r="F40" s="441" t="str">
         <f ca="1">IF(D40="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D40, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D40))</f>
         <v/>
       </c>
@@ -27686,7 +27781,7 @@
         <f ca="1">AP!G36</f>
         <v/>
       </c>
-      <c r="F41" s="443" t="str">
+      <c r="F41" s="441" t="str">
         <f ca="1">IF(D41="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D41, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D41))</f>
         <v/>
       </c>
@@ -27715,7 +27810,7 @@
         <f ca="1">AP!G37</f>
         <v/>
       </c>
-      <c r="F42" s="443" t="str">
+      <c r="F42" s="441" t="str">
         <f ca="1">IF(D42="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D42, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D42))</f>
         <v/>
       </c>
@@ -27744,7 +27839,7 @@
         <f ca="1">AP!G38</f>
         <v/>
       </c>
-      <c r="F43" s="443" t="str">
+      <c r="F43" s="441" t="str">
         <f ca="1">IF(D43="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D43, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D43))</f>
         <v/>
       </c>
@@ -27773,7 +27868,7 @@
         <f ca="1">AP!G39</f>
         <v/>
       </c>
-      <c r="F44" s="443" t="str">
+      <c r="F44" s="441" t="str">
         <f ca="1">IF(D44="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D44, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D44))</f>
         <v/>
       </c>
@@ -27802,7 +27897,7 @@
         <f ca="1">AP!G40</f>
         <v/>
       </c>
-      <c r="F45" s="443" t="str">
+      <c r="F45" s="441" t="str">
         <f ca="1">IF(D45="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D45, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D45))</f>
         <v/>
       </c>
@@ -27821,8 +27916,8 @@
       <c r="G46" s="123"/>
     </row>
     <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="507"/>
-      <c r="B47" s="507"/>
+      <c r="A47" s="491"/>
+      <c r="B47" s="491"/>
       <c r="C47" s="139" t="s">
         <v>85</v>
       </c>
@@ -27838,10 +27933,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="489">
+      <c r="A48" s="492">
         <v>15</v>
       </c>
-      <c r="B48" s="490"/>
+      <c r="B48" s="493"/>
       <c r="C48" s="141" t="str">
         <f>AP!E50 &amp;"-"&amp; AP!F50</f>
         <v>100-95,5</v>
@@ -27863,10 +27958,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="489">
+      <c r="A49" s="492">
         <v>14</v>
       </c>
-      <c r="B49" s="490"/>
+      <c r="B49" s="493"/>
       <c r="C49" s="141" t="str">
         <f>AP!E51 &amp;"-"&amp; AP!F51</f>
         <v>95-90,5</v>
@@ -27888,10 +27983,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="489">
+      <c r="A50" s="492">
         <v>13</v>
       </c>
-      <c r="B50" s="490"/>
+      <c r="B50" s="493"/>
       <c r="C50" s="141" t="str">
         <f>AP!E52 &amp;"-"&amp; AP!F52</f>
         <v>90-85,5</v>
@@ -27913,10 +28008,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="489">
+      <c r="A51" s="492">
         <v>12</v>
       </c>
-      <c r="B51" s="490"/>
+      <c r="B51" s="493"/>
       <c r="C51" s="141" t="str">
         <f>AP!E53 &amp;"-"&amp; AP!F53</f>
         <v>85-80,5</v>
@@ -27938,10 +28033,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="489">
+      <c r="A52" s="492">
         <v>11</v>
       </c>
-      <c r="B52" s="490"/>
+      <c r="B52" s="493"/>
       <c r="C52" s="141" t="str">
         <f>AP!E54 &amp;"-"&amp; AP!F54</f>
         <v>80-75,5</v>
@@ -27963,10 +28058,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="489">
+      <c r="A53" s="492">
         <v>10</v>
       </c>
-      <c r="B53" s="490"/>
+      <c r="B53" s="493"/>
       <c r="C53" s="141" t="str">
         <f>AP!E55 &amp;"-"&amp; AP!F55</f>
         <v>75-70,5</v>
@@ -27988,10 +28083,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="489">
+      <c r="A54" s="492">
         <v>9</v>
       </c>
-      <c r="B54" s="490"/>
+      <c r="B54" s="493"/>
       <c r="C54" s="141" t="str">
         <f>AP!E56 &amp;"-"&amp; AP!F56</f>
         <v>70-65,5</v>
@@ -28013,10 +28108,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="489">
+      <c r="A55" s="492">
         <v>8</v>
       </c>
-      <c r="B55" s="490"/>
+      <c r="B55" s="493"/>
       <c r="C55" s="141" t="str">
         <f>AP!E57 &amp;"-"&amp; AP!F57</f>
         <v>65-60,5</v>
@@ -28047,64 +28142,73 @@
       <c r="G56" s="115"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="500" t="s">
+      <c r="A57" s="503" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="501"/>
-      <c r="C57" s="501"/>
-      <c r="D57" s="501"/>
-      <c r="E57" s="501"/>
-      <c r="F57" s="501"/>
-      <c r="G57" s="502"/>
+      <c r="B57" s="504"/>
+      <c r="C57" s="504"/>
+      <c r="D57" s="504"/>
+      <c r="E57" s="504"/>
+      <c r="F57" s="504"/>
+      <c r="G57" s="505"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="491" t="e">
+      <c r="A58" s="494" t="e">
         <f ca="1">AVERAGE(E11:E45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B58" s="492"/>
-      <c r="C58" s="492"/>
-      <c r="D58" s="492"/>
-      <c r="E58" s="492"/>
-      <c r="F58" s="492"/>
-      <c r="G58" s="493"/>
+      <c r="B58" s="495"/>
+      <c r="C58" s="495"/>
+      <c r="D58" s="495"/>
+      <c r="E58" s="495"/>
+      <c r="F58" s="495"/>
+      <c r="G58" s="496"/>
     </row>
     <row r="60" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="497" t="s">
+      <c r="A60" s="500" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="498"/>
-      <c r="C60" s="498"/>
-      <c r="D60" s="498"/>
-      <c r="E60" s="498"/>
-      <c r="F60" s="498"/>
-      <c r="G60" s="499"/>
+      <c r="B60" s="501"/>
+      <c r="C60" s="501"/>
+      <c r="D60" s="501"/>
+      <c r="E60" s="501"/>
+      <c r="F60" s="501"/>
+      <c r="G60" s="502"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="114"/>
-      <c r="B65" s="496"/>
-      <c r="C65" s="496"/>
+      <c r="B65" s="499"/>
+      <c r="C65" s="499"/>
       <c r="D65" s="112"/>
       <c r="E65" s="112"/>
-      <c r="F65" s="495"/>
-      <c r="G65" s="495"/>
+      <c r="F65" s="498"/>
+      <c r="G65" s="498"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="112"/>
-      <c r="B66" s="494" t="s">
+      <c r="B66" s="497" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="494"/>
+      <c r="C66" s="497"/>
       <c r="D66" s="112"/>
       <c r="E66" s="113"/>
-      <c r="F66" s="494" t="s">
+      <c r="F66" s="497" t="s">
         <v>80</v>
       </c>
-      <c r="G66" s="494"/>
+      <c r="G66" s="497"/>
     </row>
   </sheetData>
   <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="18">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A57:G57"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A47:B47"/>
@@ -28114,15 +28218,6 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A57:G57"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.35433070866141736" top="0.39" bottom="0.52" header="0.19" footer="0.45"/>
@@ -28182,8 +28277,8 @@
   </sheetPr>
   <dimension ref="A2:G61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28249,15 +28344,15 @@
       <c r="G5" s="131"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="509" t="s">
+      <c r="A7" s="507" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="510"/>
-      <c r="C7" s="510"/>
-      <c r="D7" s="510"/>
-      <c r="E7" s="510"/>
-      <c r="F7" s="510"/>
-      <c r="G7" s="511"/>
+      <c r="B7" s="508"/>
+      <c r="C7" s="508"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="508"/>
+      <c r="F7" s="508"/>
+      <c r="G7" s="509"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="375"/>
@@ -29054,39 +29149,39 @@
       <c r="A56" s="375"/>
       <c r="B56" s="371"/>
       <c r="C56" s="371"/>
-      <c r="D56" s="512" t="s">
+      <c r="D56" s="510" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="513"/>
-      <c r="F56" s="513"/>
-      <c r="G56" s="514"/>
+      <c r="E56" s="511"/>
+      <c r="F56" s="511"/>
+      <c r="G56" s="512"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="387"/>
       <c r="B57" s="373"/>
       <c r="C57" s="373"/>
-      <c r="D57" s="515" t="str">
+      <c r="D57" s="513" t="str">
         <f>IF(SUM(C10:C44)=0,"",AVERAGE(C10:C44))</f>
         <v/>
       </c>
-      <c r="E57" s="516"/>
-      <c r="F57" s="516"/>
-      <c r="G57" s="517"/>
+      <c r="E57" s="514"/>
+      <c r="F57" s="514"/>
+      <c r="G57" s="515"/>
     </row>
     <row r="58" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="518" t="s">
+      <c r="A58" s="516" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="519"/>
-      <c r="C58" s="519"/>
-      <c r="D58" s="519"/>
-      <c r="E58" s="519"/>
-      <c r="F58" s="519"/>
-      <c r="G58" s="520"/>
+      <c r="B58" s="517"/>
+      <c r="C58" s="517"/>
+      <c r="D58" s="517"/>
+      <c r="E58" s="517"/>
+      <c r="F58" s="517"/>
+      <c r="G58" s="518"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="521"/>
-      <c r="B60" s="521"/>
+      <c r="A60" s="519"/>
+      <c r="B60" s="519"/>
       <c r="C60" s="371"/>
       <c r="D60" s="371"/>
       <c r="E60" s="371"/>
@@ -29098,12 +29193,12 @@
         <v>81</v>
       </c>
       <c r="C61" s="371"/>
-      <c r="D61" s="508" t="s">
+      <c r="D61" s="506" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="508"/>
-      <c r="F61" s="508"/>
-      <c r="G61" s="508"/>
+      <c r="E61" s="506"/>
+      <c r="F61" s="506"/>
+      <c r="G61" s="506"/>
     </row>
   </sheetData>
   <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -29132,7 +29227,7 @@
   </sheetPr>
   <dimension ref="A1:AW59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -29169,17 +29264,17 @@
       <c r="B1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -29300,11 +29395,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -30752,21 +30847,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -30786,19 +30881,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -30818,7 +30913,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="86" t="s">
         <v>21</v>
@@ -30826,11 +30921,11 @@
       <c r="D42" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -31646,7 +31741,7 @@
         <f>SUM(C2:AD2)</f>
         <v>100</v>
       </c>
-      <c r="AF2" s="522" t="s">
+      <c r="AF2" s="520" t="s">
         <v>92</v>
       </c>
       <c r="AG2" s="182" t="s">
@@ -31740,7 +31835,7 @@
         <v>71</v>
       </c>
       <c r="AE3" s="78"/>
-      <c r="AF3" s="523"/>
+      <c r="AF3" s="521"/>
       <c r="AG3" s="178" t="s">
         <v>103</v>
       </c>
@@ -33657,10 +33752,10 @@
   <dimension ref="A1:AB83"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33844,66 +33939,66 @@
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="279"/>
       <c r="B6" s="285"/>
-      <c r="C6" s="547" t="s">
+      <c r="C6" s="533" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="548"/>
-      <c r="E6" s="548"/>
-      <c r="F6" s="548"/>
-      <c r="G6" s="548"/>
-      <c r="H6" s="548"/>
-      <c r="I6" s="548"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="548"/>
-      <c r="L6" s="548"/>
-      <c r="M6" s="548"/>
-      <c r="N6" s="548"/>
-      <c r="O6" s="548"/>
-      <c r="P6" s="548"/>
-      <c r="Q6" s="548"/>
-      <c r="R6" s="549"/>
-      <c r="S6" s="547" t="s">
+      <c r="D6" s="534"/>
+      <c r="E6" s="534"/>
+      <c r="F6" s="534"/>
+      <c r="G6" s="534"/>
+      <c r="H6" s="534"/>
+      <c r="I6" s="534"/>
+      <c r="J6" s="534"/>
+      <c r="K6" s="534"/>
+      <c r="L6" s="534"/>
+      <c r="M6" s="534"/>
+      <c r="N6" s="534"/>
+      <c r="O6" s="534"/>
+      <c r="P6" s="534"/>
+      <c r="Q6" s="534"/>
+      <c r="R6" s="535"/>
+      <c r="S6" s="533" t="s">
         <v>130</v>
       </c>
-      <c r="T6" s="548"/>
-      <c r="U6" s="548"/>
-      <c r="V6" s="548"/>
-      <c r="W6" s="548"/>
-      <c r="X6" s="549"/>
-      <c r="Y6" s="550" t="s">
+      <c r="T6" s="534"/>
+      <c r="U6" s="534"/>
+      <c r="V6" s="534"/>
+      <c r="W6" s="534"/>
+      <c r="X6" s="535"/>
+      <c r="Y6" s="536" t="s">
         <v>131</v>
       </c>
-      <c r="Z6" s="551"/>
+      <c r="Z6" s="537"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="285"/>
       <c r="B7" s="285"/>
-      <c r="C7" s="552" t="s">
+      <c r="C7" s="538" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="543"/>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="543"/>
-      <c r="H7" s="543"/>
-      <c r="I7" s="543"/>
-      <c r="J7" s="553"/>
-      <c r="K7" s="542" t="s">
+      <c r="D7" s="523"/>
+      <c r="E7" s="523"/>
+      <c r="F7" s="523"/>
+      <c r="G7" s="523"/>
+      <c r="H7" s="523"/>
+      <c r="I7" s="523"/>
+      <c r="J7" s="539"/>
+      <c r="K7" s="522" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="543"/>
-      <c r="M7" s="543"/>
-      <c r="N7" s="543"/>
-      <c r="O7" s="543"/>
-      <c r="P7" s="553"/>
+      <c r="L7" s="523"/>
+      <c r="M7" s="523"/>
+      <c r="N7" s="523"/>
+      <c r="O7" s="523"/>
+      <c r="P7" s="539"/>
       <c r="Q7" s="290"/>
       <c r="R7" s="291"/>
-      <c r="S7" s="554" t="s">
+      <c r="S7" s="540" t="s">
         <v>134</v>
       </c>
-      <c r="T7" s="545"/>
-      <c r="U7" s="545"/>
-      <c r="V7" s="546"/>
+      <c r="T7" s="525"/>
+      <c r="U7" s="525"/>
+      <c r="V7" s="526"/>
       <c r="W7" s="292"/>
       <c r="X7" s="291"/>
       <c r="Y7" s="293"/>
@@ -33934,15 +34029,15 @@
         <v>135</v>
       </c>
       <c r="J8" s="299"/>
-      <c r="K8" s="542" t="s">
+      <c r="K8" s="522" t="s">
         <v>136</v>
       </c>
-      <c r="L8" s="543"/>
-      <c r="M8" s="544" t="s">
+      <c r="L8" s="523"/>
+      <c r="M8" s="524" t="s">
         <v>137</v>
       </c>
-      <c r="N8" s="545"/>
-      <c r="O8" s="546"/>
+      <c r="N8" s="525"/>
+      <c r="O8" s="526"/>
       <c r="P8" s="299"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="291"/>
@@ -34096,10 +34191,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="528">
+      <c r="A11" s="527">
         <v>1</v>
       </c>
-      <c r="B11" s="528" t="str">
+      <c r="B11" s="527" t="str">
         <f>IF('1. Halbjahr'!B4&lt;&gt;"", '1. Halbjahr'!B4, "")</f>
         <v/>
       </c>
@@ -34131,18 +34226,18 @@
         <f ca="1">IF(Q11="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q11/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q11))</f>
         <v/>
       </c>
-      <c r="S11" s="530"/>
-      <c r="T11" s="532"/>
-      <c r="U11" s="534"/>
-      <c r="V11" s="536" t="str">
+      <c r="S11" s="529"/>
+      <c r="T11" s="531"/>
+      <c r="U11" s="541"/>
+      <c r="V11" s="543" t="str">
         <f>IF(B11="","",SUM(S11:U11))</f>
         <v/>
       </c>
-      <c r="W11" s="524" t="str">
+      <c r="W11" s="545" t="str">
         <f>IF(B11="","",IF(ISBLANK(S11),"",IF(AVERAGE(S11:U11)&lt;10,LEFT(AVERAGE(S11:U11),4),LEFT(AVERAGE(S11:U11),5))))</f>
         <v/>
       </c>
-      <c r="X11" s="526" t="str">
+      <c r="X11" s="547" t="str">
         <f>IF(B11="","",IF(W11="","",IF(LEFT(W11,1)="0",0,ROUND(W11,0))))</f>
         <v/>
       </c>
@@ -34157,8 +34252,8 @@
       <c r="AB11" s="336"/>
     </row>
     <row r="12" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="529"/>
-      <c r="B12" s="529"/>
+      <c r="A12" s="528"/>
+      <c r="B12" s="528"/>
       <c r="C12" s="337"/>
       <c r="D12" s="337"/>
       <c r="E12" s="337"/>
@@ -34183,16 +34278,16 @@
         <f>IF(OR(B11="",COUNT(C12:I12)+COUNT(K12:O12)=0),"",ROUND(SUM(P12,J12),0))</f>
         <v/>
       </c>
-      <c r="R12" s="442" t="str">
+      <c r="R12" s="440" t="str">
         <f ca="1">IF(Q12="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q12/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q12))</f>
         <v/>
       </c>
-      <c r="S12" s="531"/>
-      <c r="T12" s="533"/>
-      <c r="U12" s="535"/>
-      <c r="V12" s="537"/>
-      <c r="W12" s="525"/>
-      <c r="X12" s="527"/>
+      <c r="S12" s="530"/>
+      <c r="T12" s="532"/>
+      <c r="U12" s="542"/>
+      <c r="V12" s="544"/>
+      <c r="W12" s="546"/>
+      <c r="X12" s="548"/>
       <c r="Y12" s="343" t="str">
         <f>IF(B11="","",ROUNDUP(AVERAGE(R12,R12,X11),2))</f>
         <v/>
@@ -34203,10 +34298,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="528">
+      <c r="A13" s="527">
         <v>2</v>
       </c>
-      <c r="B13" s="528" t="str">
+      <c r="B13" s="527" t="str">
         <f>IF('1. Halbjahr'!B5&lt;&gt;"", '1. Halbjahr'!B5, "")</f>
         <v/>
       </c>
@@ -34238,18 +34333,18 @@
         <f ca="1">IF(Q13="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q13/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q13))</f>
         <v/>
       </c>
-      <c r="S13" s="530"/>
-      <c r="T13" s="532"/>
-      <c r="U13" s="534"/>
-      <c r="V13" s="536" t="str">
+      <c r="S13" s="529"/>
+      <c r="T13" s="531"/>
+      <c r="U13" s="541"/>
+      <c r="V13" s="543" t="str">
         <f>IF(B13="","",SUM(S13:U13))</f>
         <v/>
       </c>
-      <c r="W13" s="524" t="str">
+      <c r="W13" s="545" t="str">
         <f>IF(B13="","",IF(ISBLANK(S13),"",IF(AVERAGE(S13:U13)&lt;10,LEFT(AVERAGE(S13:U13),4),LEFT(AVERAGE(S13:U13),5))))</f>
         <v/>
       </c>
-      <c r="X13" s="526" t="str">
+      <c r="X13" s="547" t="str">
         <f>IF(B13="","",IF(W13="","",IF(LEFT(W13,1)="0",0,ROUND(W13,0))))</f>
         <v/>
       </c>
@@ -34264,8 +34359,8 @@
       <c r="AA13" s="347"/>
     </row>
     <row r="14" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="529"/>
-      <c r="B14" s="529"/>
+      <c r="A14" s="528"/>
+      <c r="B14" s="528"/>
       <c r="C14" s="348"/>
       <c r="D14" s="337"/>
       <c r="E14" s="337"/>
@@ -34290,16 +34385,16 @@
         <f>IF(OR(B13="",COUNT(C14:I14)+COUNT(K14:O14)=0),"",ROUND(SUM(P14,J14),0))</f>
         <v/>
       </c>
-      <c r="R14" s="442" t="str">
+      <c r="R14" s="440" t="str">
         <f ca="1">IF(Q14="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q14/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q14))</f>
         <v/>
       </c>
-      <c r="S14" s="531"/>
-      <c r="T14" s="533"/>
-      <c r="U14" s="535"/>
-      <c r="V14" s="537"/>
-      <c r="W14" s="525"/>
-      <c r="X14" s="527"/>
+      <c r="S14" s="530"/>
+      <c r="T14" s="532"/>
+      <c r="U14" s="542"/>
+      <c r="V14" s="544"/>
+      <c r="W14" s="546"/>
+      <c r="X14" s="548"/>
       <c r="Y14" s="343" t="str">
         <f>IF(B13="","",ROUNDUP(AVERAGE(R14,R14,X13),2))</f>
         <v/>
@@ -34310,10 +34405,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="528">
+      <c r="A15" s="527">
         <v>3</v>
       </c>
-      <c r="B15" s="528" t="str">
+      <c r="B15" s="527" t="str">
         <f>IF('1. Halbjahr'!B6&lt;&gt;"", '1. Halbjahr'!B6, "")</f>
         <v/>
       </c>
@@ -34345,18 +34440,18 @@
         <f ca="1">IF(Q15="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q15/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q15))</f>
         <v/>
       </c>
-      <c r="S15" s="530"/>
-      <c r="T15" s="532"/>
-      <c r="U15" s="534"/>
-      <c r="V15" s="536" t="str">
+      <c r="S15" s="529"/>
+      <c r="T15" s="531"/>
+      <c r="U15" s="541"/>
+      <c r="V15" s="543" t="str">
         <f>IF(B15="","",SUM(S15:U15))</f>
         <v/>
       </c>
-      <c r="W15" s="524" t="str">
+      <c r="W15" s="545" t="str">
         <f>IF(B15="","",IF(ISBLANK(S15),"",IF(AVERAGE(S15:U15)&lt;10,LEFT(AVERAGE(S15:U15),4),LEFT(AVERAGE(S15:U15),5))))</f>
         <v/>
       </c>
-      <c r="X15" s="526" t="str">
+      <c r="X15" s="547" t="str">
         <f>IF(B15="","",IF(W15="","",IF(LEFT(W15,1)="0",0,ROUND(W15,0))))</f>
         <v/>
       </c>
@@ -34370,8 +34465,8 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="529"/>
-      <c r="B16" s="529"/>
+      <c r="A16" s="528"/>
+      <c r="B16" s="528"/>
       <c r="C16" s="348"/>
       <c r="D16" s="337"/>
       <c r="E16" s="337"/>
@@ -34396,16 +34491,16 @@
         <f>IF(OR(B15="",COUNT(C16:I16)+COUNT(K16:O16)=0),"",ROUND(SUM(P16,J16),0))</f>
         <v/>
       </c>
-      <c r="R16" s="442" t="str">
+      <c r="R16" s="440" t="str">
         <f ca="1">IF(Q16="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q16/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q16))</f>
         <v/>
       </c>
-      <c r="S16" s="531"/>
-      <c r="T16" s="533"/>
-      <c r="U16" s="535"/>
-      <c r="V16" s="537"/>
-      <c r="W16" s="525"/>
-      <c r="X16" s="527"/>
+      <c r="S16" s="530"/>
+      <c r="T16" s="532"/>
+      <c r="U16" s="542"/>
+      <c r="V16" s="544"/>
+      <c r="W16" s="546"/>
+      <c r="X16" s="548"/>
       <c r="Y16" s="343" t="str">
         <f>IF(B15="","",ROUNDUP(AVERAGE(R16,R16,X15),2))</f>
         <v/>
@@ -34416,10 +34511,10 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="528">
+      <c r="A17" s="527">
         <v>4</v>
       </c>
-      <c r="B17" s="528" t="str">
+      <c r="B17" s="527" t="str">
         <f>IF('1. Halbjahr'!B7&lt;&gt;"", '1. Halbjahr'!B7, "")</f>
         <v/>
       </c>
@@ -34451,18 +34546,18 @@
         <f ca="1">IF(Q17="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q17/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q17))</f>
         <v/>
       </c>
-      <c r="S17" s="530"/>
-      <c r="T17" s="532"/>
-      <c r="U17" s="534"/>
-      <c r="V17" s="536" t="str">
+      <c r="S17" s="529"/>
+      <c r="T17" s="531"/>
+      <c r="U17" s="541"/>
+      <c r="V17" s="543" t="str">
         <f>IF(B17="","",SUM(S17:U17))</f>
         <v/>
       </c>
-      <c r="W17" s="524" t="str">
+      <c r="W17" s="545" t="str">
         <f>IF(B17="","",IF(ISBLANK(S17),"",IF(AVERAGE(S17:U17)&lt;10,LEFT(AVERAGE(S17:U17),4),LEFT(AVERAGE(S17:U17),5))))</f>
         <v/>
       </c>
-      <c r="X17" s="526" t="str">
+      <c r="X17" s="547" t="str">
         <f>IF(B17="","",IF(W17="","",IF(LEFT(W17,1)="0",0,ROUND(W17,0))))</f>
         <v/>
       </c>
@@ -34476,8 +34571,8 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="529"/>
-      <c r="B18" s="529"/>
+      <c r="A18" s="528"/>
+      <c r="B18" s="528"/>
       <c r="C18" s="348"/>
       <c r="D18" s="337"/>
       <c r="E18" s="337"/>
@@ -34502,16 +34597,16 @@
         <f>IF(OR(B17="",COUNT(C18:I18)+COUNT(K18:O18)=0),"",ROUND(SUM(P18,J18),0))</f>
         <v/>
       </c>
-      <c r="R18" s="442" t="str">
+      <c r="R18" s="440" t="str">
         <f ca="1">IF(Q18="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q18/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q18))</f>
         <v/>
       </c>
-      <c r="S18" s="531"/>
-      <c r="T18" s="533"/>
-      <c r="U18" s="535"/>
-      <c r="V18" s="537"/>
-      <c r="W18" s="525"/>
-      <c r="X18" s="527"/>
+      <c r="S18" s="530"/>
+      <c r="T18" s="532"/>
+      <c r="U18" s="542"/>
+      <c r="V18" s="544"/>
+      <c r="W18" s="546"/>
+      <c r="X18" s="548"/>
       <c r="Y18" s="343" t="str">
         <f>IF(B17="","",ROUNDUP(AVERAGE(R18,R18,X17),2))</f>
         <v/>
@@ -34522,10 +34617,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="528">
+      <c r="A19" s="527">
         <v>5</v>
       </c>
-      <c r="B19" s="528" t="str">
+      <c r="B19" s="527" t="str">
         <f>IF('1. Halbjahr'!B8&lt;&gt;"", '1. Halbjahr'!B8, "")</f>
         <v/>
       </c>
@@ -34557,18 +34652,18 @@
         <f ca="1">IF(Q19="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q19/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q19))</f>
         <v/>
       </c>
-      <c r="S19" s="530"/>
-      <c r="T19" s="532"/>
-      <c r="U19" s="534"/>
-      <c r="V19" s="536" t="str">
+      <c r="S19" s="529"/>
+      <c r="T19" s="531"/>
+      <c r="U19" s="541"/>
+      <c r="V19" s="543" t="str">
         <f>IF(B19="","",SUM(S19:U19))</f>
         <v/>
       </c>
-      <c r="W19" s="524" t="str">
+      <c r="W19" s="545" t="str">
         <f>IF(B19="","",IF(ISBLANK(S19),"",IF(AVERAGE(S19:U19)&lt;10,LEFT(AVERAGE(S19:U19),4),LEFT(AVERAGE(S19:U19),5))))</f>
         <v/>
       </c>
-      <c r="X19" s="526" t="str">
+      <c r="X19" s="547" t="str">
         <f>IF(B19="","",IF(W19="","",IF(LEFT(W19,1)="0",0,ROUND(W19,0))))</f>
         <v/>
       </c>
@@ -34582,8 +34677,8 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="529"/>
-      <c r="B20" s="529"/>
+      <c r="A20" s="528"/>
+      <c r="B20" s="528"/>
       <c r="C20" s="348"/>
       <c r="D20" s="337"/>
       <c r="E20" s="337"/>
@@ -34608,16 +34703,16 @@
         <f>IF(OR(B19="",COUNT(C20:I20)+COUNT(K20:O20)=0),"",ROUND(SUM(P20,J20),0))</f>
         <v/>
       </c>
-      <c r="R20" s="442" t="str">
+      <c r="R20" s="440" t="str">
         <f ca="1">IF(Q20="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q20/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q20))</f>
         <v/>
       </c>
-      <c r="S20" s="531"/>
-      <c r="T20" s="533"/>
-      <c r="U20" s="535"/>
-      <c r="V20" s="537"/>
-      <c r="W20" s="525"/>
-      <c r="X20" s="527"/>
+      <c r="S20" s="530"/>
+      <c r="T20" s="532"/>
+      <c r="U20" s="542"/>
+      <c r="V20" s="544"/>
+      <c r="W20" s="546"/>
+      <c r="X20" s="548"/>
       <c r="Y20" s="343" t="str">
         <f>IF(B19="","",ROUNDUP(AVERAGE(R20,R20,X19),2))</f>
         <v/>
@@ -34628,10 +34723,10 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="528">
+      <c r="A21" s="527">
         <v>6</v>
       </c>
-      <c r="B21" s="528" t="str">
+      <c r="B21" s="527" t="str">
         <f>IF('1. Halbjahr'!B9&lt;&gt;"", '1. Halbjahr'!B9, "")</f>
         <v/>
       </c>
@@ -34663,18 +34758,18 @@
         <f ca="1">IF(Q21="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q21/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q21))</f>
         <v/>
       </c>
-      <c r="S21" s="530"/>
-      <c r="T21" s="532"/>
-      <c r="U21" s="534"/>
-      <c r="V21" s="536" t="str">
+      <c r="S21" s="529"/>
+      <c r="T21" s="531"/>
+      <c r="U21" s="541"/>
+      <c r="V21" s="543" t="str">
         <f>IF(B21="","",SUM(S21:U21))</f>
         <v/>
       </c>
-      <c r="W21" s="524" t="str">
+      <c r="W21" s="545" t="str">
         <f>IF(B21="","",IF(ISBLANK(S21),"",IF(AVERAGE(S21:U21)&lt;10,LEFT(AVERAGE(S21:U21),4),LEFT(AVERAGE(S21:U21),5))))</f>
         <v/>
       </c>
-      <c r="X21" s="526" t="str">
+      <c r="X21" s="547" t="str">
         <f>IF(B21="","",IF(W21="","",IF(LEFT(W21,1)="0",0,ROUND(W21,0))))</f>
         <v/>
       </c>
@@ -34688,8 +34783,8 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="529"/>
-      <c r="B22" s="529"/>
+      <c r="A22" s="528"/>
+      <c r="B22" s="528"/>
       <c r="C22" s="348"/>
       <c r="D22" s="337"/>
       <c r="E22" s="337"/>
@@ -34718,12 +34813,12 @@
         <f ca="1">IF(Q22="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q22/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q22))</f>
         <v/>
       </c>
-      <c r="S22" s="531"/>
-      <c r="T22" s="533"/>
-      <c r="U22" s="535"/>
-      <c r="V22" s="537"/>
-      <c r="W22" s="525"/>
-      <c r="X22" s="527"/>
+      <c r="S22" s="530"/>
+      <c r="T22" s="532"/>
+      <c r="U22" s="542"/>
+      <c r="V22" s="544"/>
+      <c r="W22" s="546"/>
+      <c r="X22" s="548"/>
       <c r="Y22" s="343" t="str">
         <f>IF(B21="","",ROUNDUP(AVERAGE(R22,R22,X21),2))</f>
         <v/>
@@ -34734,10 +34829,10 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="528">
+      <c r="A23" s="527">
         <v>7</v>
       </c>
-      <c r="B23" s="528" t="str">
+      <c r="B23" s="527" t="str">
         <f>IF('1. Halbjahr'!B10&lt;&gt;"", '1. Halbjahr'!B10, "")</f>
         <v/>
       </c>
@@ -34769,18 +34864,18 @@
         <f ca="1">IF(Q23="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q23/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q23))</f>
         <v/>
       </c>
-      <c r="S23" s="530"/>
-      <c r="T23" s="532"/>
-      <c r="U23" s="534"/>
-      <c r="V23" s="536" t="str">
+      <c r="S23" s="529"/>
+      <c r="T23" s="531"/>
+      <c r="U23" s="541"/>
+      <c r="V23" s="543" t="str">
         <f>IF(B23="","",SUM(S23:U23))</f>
         <v/>
       </c>
-      <c r="W23" s="524" t="str">
+      <c r="W23" s="545" t="str">
         <f>IF(B23="","",IF(ISBLANK(S23),"",IF(AVERAGE(S23:U23)&lt;10,LEFT(AVERAGE(S23:U23),4),LEFT(AVERAGE(S23:U23),5))))</f>
         <v/>
       </c>
-      <c r="X23" s="526" t="str">
+      <c r="X23" s="547" t="str">
         <f>IF(B23="","",IF(W23="","",IF(LEFT(W23,1)="0",0,ROUND(W23,0))))</f>
         <v/>
       </c>
@@ -34794,8 +34889,8 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="529"/>
-      <c r="B24" s="529"/>
+      <c r="A24" s="528"/>
+      <c r="B24" s="528"/>
       <c r="C24" s="348"/>
       <c r="D24" s="337"/>
       <c r="E24" s="337"/>
@@ -34820,16 +34915,16 @@
         <f>IF(OR(B23="",COUNT(C24:I24)+COUNT(K24:O24)=0),"",ROUND(SUM(P24,J24),0))</f>
         <v/>
       </c>
-      <c r="R24" s="442" t="str">
+      <c r="R24" s="440" t="str">
         <f ca="1">IF(Q24="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q24/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q24))</f>
         <v/>
       </c>
-      <c r="S24" s="531"/>
-      <c r="T24" s="533"/>
-      <c r="U24" s="535"/>
-      <c r="V24" s="537"/>
-      <c r="W24" s="525"/>
-      <c r="X24" s="527"/>
+      <c r="S24" s="530"/>
+      <c r="T24" s="532"/>
+      <c r="U24" s="542"/>
+      <c r="V24" s="544"/>
+      <c r="W24" s="546"/>
+      <c r="X24" s="548"/>
       <c r="Y24" s="343" t="str">
         <f>IF(B23="","",ROUNDUP(AVERAGE(R24,R24,X23),2))</f>
         <v/>
@@ -34840,10 +34935,10 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="528">
+      <c r="A25" s="527">
         <v>8</v>
       </c>
-      <c r="B25" s="528" t="str">
+      <c r="B25" s="527" t="str">
         <f>IF('1. Halbjahr'!B11&lt;&gt;"", '1. Halbjahr'!B11, "")</f>
         <v/>
       </c>
@@ -34875,18 +34970,18 @@
         <f ca="1">IF(Q25="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q25/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q25))</f>
         <v/>
       </c>
-      <c r="S25" s="530"/>
-      <c r="T25" s="532"/>
-      <c r="U25" s="534"/>
-      <c r="V25" s="536" t="str">
+      <c r="S25" s="529"/>
+      <c r="T25" s="531"/>
+      <c r="U25" s="541"/>
+      <c r="V25" s="543" t="str">
         <f>IF(B25="","",SUM(S25:U25))</f>
         <v/>
       </c>
-      <c r="W25" s="524" t="str">
+      <c r="W25" s="545" t="str">
         <f>IF(B25="","",IF(ISBLANK(S25),"",IF(AVERAGE(S25:U25)&lt;10,LEFT(AVERAGE(S25:U25),4),LEFT(AVERAGE(S25:U25),5))))</f>
         <v/>
       </c>
-      <c r="X25" s="526" t="str">
+      <c r="X25" s="547" t="str">
         <f>IF(B25="","",IF(W25="","",IF(LEFT(W25,1)="0",0,ROUND(W25,0))))</f>
         <v/>
       </c>
@@ -34900,8 +34995,8 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="529"/>
-      <c r="B26" s="529"/>
+      <c r="A26" s="528"/>
+      <c r="B26" s="528"/>
       <c r="C26" s="348"/>
       <c r="D26" s="337"/>
       <c r="E26" s="337"/>
@@ -34930,12 +35025,12 @@
         <f ca="1">IF(Q26="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q26/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q26))</f>
         <v/>
       </c>
-      <c r="S26" s="531"/>
-      <c r="T26" s="533"/>
-      <c r="U26" s="535"/>
-      <c r="V26" s="537"/>
-      <c r="W26" s="525"/>
-      <c r="X26" s="527"/>
+      <c r="S26" s="530"/>
+      <c r="T26" s="532"/>
+      <c r="U26" s="542"/>
+      <c r="V26" s="544"/>
+      <c r="W26" s="546"/>
+      <c r="X26" s="548"/>
       <c r="Y26" s="343" t="str">
         <f>IF(B25="","",ROUNDUP(AVERAGE(R26,R26,X25),2))</f>
         <v/>
@@ -34946,10 +35041,10 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="528">
+      <c r="A27" s="527">
         <v>9</v>
       </c>
-      <c r="B27" s="528" t="str">
+      <c r="B27" s="527" t="str">
         <f>IF('1. Halbjahr'!B12&lt;&gt;"", '1. Halbjahr'!B12, "")</f>
         <v/>
       </c>
@@ -34981,18 +35076,18 @@
         <f ca="1">IF(Q27="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q27/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q27))</f>
         <v/>
       </c>
-      <c r="S27" s="530"/>
-      <c r="T27" s="532"/>
-      <c r="U27" s="534"/>
-      <c r="V27" s="536" t="str">
+      <c r="S27" s="529"/>
+      <c r="T27" s="531"/>
+      <c r="U27" s="541"/>
+      <c r="V27" s="543" t="str">
         <f>IF(B27="","",SUM(S27:U27))</f>
         <v/>
       </c>
-      <c r="W27" s="524" t="str">
+      <c r="W27" s="545" t="str">
         <f>IF(B27="","",IF(ISBLANK(S27),"",IF(AVERAGE(S27:U27)&lt;10,LEFT(AVERAGE(S27:U27),4),LEFT(AVERAGE(S27:U27),5))))</f>
         <v/>
       </c>
-      <c r="X27" s="526" t="str">
+      <c r="X27" s="547" t="str">
         <f>IF(B27="","",IF(W27="","",IF(LEFT(W27,1)="0",0,ROUND(W27,0))))</f>
         <v/>
       </c>
@@ -35006,8 +35101,8 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="529"/>
-      <c r="B28" s="529"/>
+      <c r="A28" s="528"/>
+      <c r="B28" s="528"/>
       <c r="C28" s="348"/>
       <c r="D28" s="337"/>
       <c r="E28" s="337"/>
@@ -35032,16 +35127,16 @@
         <f>IF(OR(B27="",COUNT(C28:I28)+COUNT(K28:O28)=0),"",ROUND(SUM(P28,J28),0))</f>
         <v/>
       </c>
-      <c r="R28" s="442" t="str">
+      <c r="R28" s="440" t="str">
         <f ca="1">IF(Q28="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q28/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q28))</f>
         <v/>
       </c>
-      <c r="S28" s="531"/>
-      <c r="T28" s="533"/>
-      <c r="U28" s="535"/>
-      <c r="V28" s="537"/>
-      <c r="W28" s="525"/>
-      <c r="X28" s="527"/>
+      <c r="S28" s="530"/>
+      <c r="T28" s="532"/>
+      <c r="U28" s="542"/>
+      <c r="V28" s="544"/>
+      <c r="W28" s="546"/>
+      <c r="X28" s="548"/>
       <c r="Y28" s="343" t="str">
         <f>IF(B27="","",ROUNDUP(AVERAGE(R28,R28,X27),2))</f>
         <v/>
@@ -35052,10 +35147,10 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="528">
+      <c r="A29" s="527">
         <v>10</v>
       </c>
-      <c r="B29" s="528" t="str">
+      <c r="B29" s="527" t="str">
         <f>IF('1. Halbjahr'!B13&lt;&gt;"", '1. Halbjahr'!B13, "")</f>
         <v/>
       </c>
@@ -35087,18 +35182,18 @@
         <f ca="1">IF(Q29="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q29/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q29))</f>
         <v/>
       </c>
-      <c r="S29" s="530"/>
-      <c r="T29" s="532"/>
-      <c r="U29" s="534"/>
-      <c r="V29" s="536" t="str">
+      <c r="S29" s="529"/>
+      <c r="T29" s="531"/>
+      <c r="U29" s="541"/>
+      <c r="V29" s="543" t="str">
         <f>IF(B29="","",SUM(S29:U29))</f>
         <v/>
       </c>
-      <c r="W29" s="524" t="str">
+      <c r="W29" s="545" t="str">
         <f>IF(B29="","",IF(ISBLANK(S29),"",IF(AVERAGE(S29:U29)&lt;10,LEFT(AVERAGE(S29:U29),4),LEFT(AVERAGE(S29:U29),5))))</f>
         <v/>
       </c>
-      <c r="X29" s="526" t="str">
+      <c r="X29" s="547" t="str">
         <f>IF(B29="","",IF(W29="","",IF(LEFT(W29,1)="0",0,ROUND(W29,0))))</f>
         <v/>
       </c>
@@ -35112,8 +35207,8 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="529"/>
-      <c r="B30" s="529"/>
+      <c r="A30" s="528"/>
+      <c r="B30" s="528"/>
       <c r="C30" s="348"/>
       <c r="D30" s="337"/>
       <c r="E30" s="337"/>
@@ -35142,12 +35237,12 @@
         <f ca="1">IF(Q30="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q30/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q30))</f>
         <v/>
       </c>
-      <c r="S30" s="531"/>
-      <c r="T30" s="533"/>
-      <c r="U30" s="535"/>
-      <c r="V30" s="537"/>
-      <c r="W30" s="525"/>
-      <c r="X30" s="527"/>
+      <c r="S30" s="530"/>
+      <c r="T30" s="532"/>
+      <c r="U30" s="542"/>
+      <c r="V30" s="544"/>
+      <c r="W30" s="546"/>
+      <c r="X30" s="548"/>
       <c r="Y30" s="343" t="str">
         <f>IF(B29="","",ROUNDUP(AVERAGE(R30,R30,X29),2))</f>
         <v/>
@@ -35158,10 +35253,10 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="528">
+      <c r="A31" s="527">
         <v>11</v>
       </c>
-      <c r="B31" s="528" t="str">
+      <c r="B31" s="527" t="str">
         <f>IF('1. Halbjahr'!B14&lt;&gt;"", '1. Halbjahr'!B14, "")</f>
         <v/>
       </c>
@@ -35193,18 +35288,18 @@
         <f ca="1">IF(Q31="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q31/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q31))</f>
         <v/>
       </c>
-      <c r="S31" s="530"/>
-      <c r="T31" s="532"/>
-      <c r="U31" s="534"/>
-      <c r="V31" s="536" t="str">
+      <c r="S31" s="529"/>
+      <c r="T31" s="531"/>
+      <c r="U31" s="541"/>
+      <c r="V31" s="543" t="str">
         <f>IF(B31="","",SUM(S31:U31))</f>
         <v/>
       </c>
-      <c r="W31" s="524" t="str">
+      <c r="W31" s="545" t="str">
         <f>IF(B31="","",IF(ISBLANK(S31),"",IF(AVERAGE(S31:U31)&lt;10,LEFT(AVERAGE(S31:U31),4),LEFT(AVERAGE(S31:U31),5))))</f>
         <v/>
       </c>
-      <c r="X31" s="526" t="str">
+      <c r="X31" s="547" t="str">
         <f>IF(B31="","",IF(W31="","",IF(LEFT(W31,1)="0",0,ROUND(W31,0))))</f>
         <v/>
       </c>
@@ -35218,8 +35313,8 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="529"/>
-      <c r="B32" s="529"/>
+      <c r="A32" s="528"/>
+      <c r="B32" s="528"/>
       <c r="C32" s="348"/>
       <c r="D32" s="337"/>
       <c r="E32" s="337"/>
@@ -35244,16 +35339,16 @@
         <f>IF(OR(B31="",COUNT(C32:I32)+COUNT(K32:O32)=0),"",ROUND(SUM(P32,J32),0))</f>
         <v/>
       </c>
-      <c r="R32" s="442" t="str">
+      <c r="R32" s="440" t="str">
         <f ca="1">IF(Q32="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q32/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q32))</f>
         <v/>
       </c>
-      <c r="S32" s="531"/>
-      <c r="T32" s="533"/>
-      <c r="U32" s="535"/>
-      <c r="V32" s="537"/>
-      <c r="W32" s="525"/>
-      <c r="X32" s="527"/>
+      <c r="S32" s="530"/>
+      <c r="T32" s="532"/>
+      <c r="U32" s="542"/>
+      <c r="V32" s="544"/>
+      <c r="W32" s="546"/>
+      <c r="X32" s="548"/>
       <c r="Y32" s="343" t="str">
         <f>IF(B31="","",ROUNDUP(AVERAGE(R32,R32,X31),2))</f>
         <v/>
@@ -35264,10 +35359,10 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="528">
+      <c r="A33" s="527">
         <v>12</v>
       </c>
-      <c r="B33" s="528" t="str">
+      <c r="B33" s="527" t="str">
         <f>IF('1. Halbjahr'!B15&lt;&gt;"", '1. Halbjahr'!B15, "")</f>
         <v/>
       </c>
@@ -35299,18 +35394,18 @@
         <f ca="1">IF(Q33="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q33/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q33))</f>
         <v/>
       </c>
-      <c r="S33" s="530"/>
-      <c r="T33" s="532"/>
-      <c r="U33" s="534"/>
-      <c r="V33" s="536" t="str">
+      <c r="S33" s="529"/>
+      <c r="T33" s="531"/>
+      <c r="U33" s="541"/>
+      <c r="V33" s="543" t="str">
         <f>IF(B33="","",SUM(S33:U33))</f>
         <v/>
       </c>
-      <c r="W33" s="524" t="str">
+      <c r="W33" s="545" t="str">
         <f>IF(B33="","",IF(ISBLANK(S33),"",IF(AVERAGE(S33:U33)&lt;10,LEFT(AVERAGE(S33:U33),4),LEFT(AVERAGE(S33:U33),5))))</f>
         <v/>
       </c>
-      <c r="X33" s="526" t="str">
+      <c r="X33" s="547" t="str">
         <f>IF(B33="","",IF(W33="","",IF(LEFT(W33,1)="0",0,ROUND(W33,0))))</f>
         <v/>
       </c>
@@ -35324,8 +35419,8 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="529"/>
-      <c r="B34" s="529"/>
+      <c r="A34" s="528"/>
+      <c r="B34" s="528"/>
       <c r="C34" s="348"/>
       <c r="D34" s="337"/>
       <c r="E34" s="337"/>
@@ -35350,16 +35445,16 @@
         <f>IF(OR(B33="",COUNT(C34:I34)+COUNT(K34:O34)=0),"",ROUND(SUM(P34,J34),0))</f>
         <v/>
       </c>
-      <c r="R34" s="442" t="str">
+      <c r="R34" s="440" t="str">
         <f ca="1">IF(Q34="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q34/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q34))</f>
         <v/>
       </c>
-      <c r="S34" s="531"/>
-      <c r="T34" s="533"/>
-      <c r="U34" s="535"/>
-      <c r="V34" s="537"/>
-      <c r="W34" s="525"/>
-      <c r="X34" s="527"/>
+      <c r="S34" s="530"/>
+      <c r="T34" s="532"/>
+      <c r="U34" s="542"/>
+      <c r="V34" s="544"/>
+      <c r="W34" s="546"/>
+      <c r="X34" s="548"/>
       <c r="Y34" s="343" t="str">
         <f>IF(B33="","",ROUNDUP(AVERAGE(R34,R34,X33),2))</f>
         <v/>
@@ -35370,10 +35465,10 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="528">
+      <c r="A35" s="527">
         <v>13</v>
       </c>
-      <c r="B35" s="528" t="str">
+      <c r="B35" s="527" t="str">
         <f>IF('1. Halbjahr'!B16&lt;&gt;"", '1. Halbjahr'!B16, "")</f>
         <v/>
       </c>
@@ -35405,18 +35500,18 @@
         <f ca="1">IF(Q35="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q35/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q35))</f>
         <v/>
       </c>
-      <c r="S35" s="530"/>
-      <c r="T35" s="532"/>
-      <c r="U35" s="534"/>
-      <c r="V35" s="536" t="str">
+      <c r="S35" s="529"/>
+      <c r="T35" s="531"/>
+      <c r="U35" s="541"/>
+      <c r="V35" s="543" t="str">
         <f>IF(B35="","",SUM(S35:U35))</f>
         <v/>
       </c>
-      <c r="W35" s="524" t="str">
+      <c r="W35" s="545" t="str">
         <f>IF(B35="","",IF(ISBLANK(S35),"",IF(AVERAGE(S35:U35)&lt;10,LEFT(AVERAGE(S35:U35),4),LEFT(AVERAGE(S35:U35),5))))</f>
         <v/>
       </c>
-      <c r="X35" s="526" t="str">
+      <c r="X35" s="547" t="str">
         <f>IF(B35="","",IF(W35="","",IF(LEFT(W35,1)="0",0,ROUND(W35,0))))</f>
         <v/>
       </c>
@@ -35430,8 +35525,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="529"/>
-      <c r="B36" s="529"/>
+      <c r="A36" s="528"/>
+      <c r="B36" s="528"/>
       <c r="C36" s="348"/>
       <c r="D36" s="337"/>
       <c r="E36" s="337"/>
@@ -35456,16 +35551,16 @@
         <f>IF(OR(B35="",COUNT(C36:I36)+COUNT(K36:O36)=0),"",ROUND(SUM(P36,J36),0))</f>
         <v/>
       </c>
-      <c r="R36" s="442" t="str">
+      <c r="R36" s="440" t="str">
         <f ca="1">IF(Q36="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q36/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q36))</f>
         <v/>
       </c>
-      <c r="S36" s="531"/>
-      <c r="T36" s="533"/>
-      <c r="U36" s="535"/>
-      <c r="V36" s="537"/>
-      <c r="W36" s="525"/>
-      <c r="X36" s="527"/>
+      <c r="S36" s="530"/>
+      <c r="T36" s="532"/>
+      <c r="U36" s="542"/>
+      <c r="V36" s="544"/>
+      <c r="W36" s="546"/>
+      <c r="X36" s="548"/>
       <c r="Y36" s="343" t="str">
         <f>IF(B35="","",ROUNDUP(AVERAGE(R36,R36,X35),2))</f>
         <v/>
@@ -35476,10 +35571,10 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="528">
+      <c r="A37" s="527">
         <v>14</v>
       </c>
-      <c r="B37" s="528" t="str">
+      <c r="B37" s="527" t="str">
         <f>IF('1. Halbjahr'!B17&lt;&gt;"", '1. Halbjahr'!B17, "")</f>
         <v/>
       </c>
@@ -35511,18 +35606,18 @@
         <f ca="1">IF(Q37="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q37/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q37))</f>
         <v/>
       </c>
-      <c r="S37" s="530"/>
-      <c r="T37" s="532"/>
-      <c r="U37" s="534"/>
-      <c r="V37" s="536" t="str">
+      <c r="S37" s="529"/>
+      <c r="T37" s="531"/>
+      <c r="U37" s="541"/>
+      <c r="V37" s="543" t="str">
         <f>IF(B37="","",SUM(S37:U37))</f>
         <v/>
       </c>
-      <c r="W37" s="524" t="str">
+      <c r="W37" s="545" t="str">
         <f>IF(B37="","",IF(ISBLANK(S37),"",IF(AVERAGE(S37:U37)&lt;10,LEFT(AVERAGE(S37:U37),4),LEFT(AVERAGE(S37:U37),5))))</f>
         <v/>
       </c>
-      <c r="X37" s="526" t="str">
+      <c r="X37" s="547" t="str">
         <f>IF(B37="","",IF(W37="","",IF(LEFT(W37,1)="0",0,ROUND(W37,0))))</f>
         <v/>
       </c>
@@ -35536,8 +35631,8 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="529"/>
-      <c r="B38" s="529"/>
+      <c r="A38" s="528"/>
+      <c r="B38" s="528"/>
       <c r="C38" s="348"/>
       <c r="D38" s="337"/>
       <c r="E38" s="337"/>
@@ -35566,12 +35661,12 @@
         <f ca="1">IF(Q38="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q38/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q38))</f>
         <v/>
       </c>
-      <c r="S38" s="531"/>
-      <c r="T38" s="533"/>
-      <c r="U38" s="535"/>
-      <c r="V38" s="537"/>
-      <c r="W38" s="525"/>
-      <c r="X38" s="527"/>
+      <c r="S38" s="530"/>
+      <c r="T38" s="532"/>
+      <c r="U38" s="542"/>
+      <c r="V38" s="544"/>
+      <c r="W38" s="546"/>
+      <c r="X38" s="548"/>
       <c r="Y38" s="343" t="str">
         <f>IF(B37="","",ROUNDUP(AVERAGE(R38,R38,X37),2))</f>
         <v/>
@@ -35582,10 +35677,10 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="528">
+      <c r="A39" s="527">
         <v>15</v>
       </c>
-      <c r="B39" s="528" t="str">
+      <c r="B39" s="527" t="str">
         <f>IF('1. Halbjahr'!B18&lt;&gt;"", '1. Halbjahr'!B18, "")</f>
         <v/>
       </c>
@@ -35617,18 +35712,18 @@
         <f ca="1">IF(Q39="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q39/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q39))</f>
         <v/>
       </c>
-      <c r="S39" s="538"/>
-      <c r="T39" s="539"/>
-      <c r="U39" s="540"/>
-      <c r="V39" s="541" t="str">
+      <c r="S39" s="549"/>
+      <c r="T39" s="550"/>
+      <c r="U39" s="551"/>
+      <c r="V39" s="552" t="str">
         <f>IF(B39="","",SUM(S39:U39))</f>
         <v/>
       </c>
-      <c r="W39" s="524" t="str">
+      <c r="W39" s="545" t="str">
         <f>IF(B39="","",IF(ISBLANK(S39),"",IF(AVERAGE(S39:U39)&lt;10,LEFT(AVERAGE(S39:U39),4),LEFT(AVERAGE(S39:U39),5))))</f>
         <v/>
       </c>
-      <c r="X39" s="526" t="str">
+      <c r="X39" s="547" t="str">
         <f>IF(B39="","",IF(W39="","",IF(LEFT(W39,1)="0",0,ROUND(W39,0))))</f>
         <v/>
       </c>
@@ -35642,8 +35737,8 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="529"/>
-      <c r="B40" s="529"/>
+      <c r="A40" s="528"/>
+      <c r="B40" s="528"/>
       <c r="C40" s="348"/>
       <c r="D40" s="337"/>
       <c r="E40" s="337"/>
@@ -35672,12 +35767,12 @@
         <f ca="1">IF(Q40="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q40/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q40))</f>
         <v/>
       </c>
-      <c r="S40" s="531"/>
-      <c r="T40" s="533"/>
-      <c r="U40" s="535"/>
-      <c r="V40" s="537"/>
-      <c r="W40" s="525"/>
-      <c r="X40" s="527"/>
+      <c r="S40" s="530"/>
+      <c r="T40" s="532"/>
+      <c r="U40" s="542"/>
+      <c r="V40" s="544"/>
+      <c r="W40" s="546"/>
+      <c r="X40" s="548"/>
       <c r="Y40" s="343" t="str">
         <f>IF(B39="","",ROUNDUP(AVERAGE(R40,R40,X39),2))</f>
         <v/>
@@ -35688,10 +35783,10 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="528">
+      <c r="A41" s="527">
         <v>16</v>
       </c>
-      <c r="B41" s="528" t="str">
+      <c r="B41" s="527" t="str">
         <f>IF('1. Halbjahr'!B19&lt;&gt;"", '1. Halbjahr'!B19, "")</f>
         <v/>
       </c>
@@ -35723,18 +35818,18 @@
         <f ca="1">IF(Q41="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q41/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q41))</f>
         <v/>
       </c>
-      <c r="S41" s="530"/>
-      <c r="T41" s="532"/>
-      <c r="U41" s="534"/>
-      <c r="V41" s="536" t="str">
+      <c r="S41" s="529"/>
+      <c r="T41" s="531"/>
+      <c r="U41" s="541"/>
+      <c r="V41" s="543" t="str">
         <f>IF(B41="","",SUM(S41:U41))</f>
         <v/>
       </c>
-      <c r="W41" s="524" t="str">
+      <c r="W41" s="545" t="str">
         <f>IF(B41="","",IF(ISBLANK(S41),"",IF(AVERAGE(S41:U41)&lt;10,LEFT(AVERAGE(S41:U41),4),LEFT(AVERAGE(S41:U41),5))))</f>
         <v/>
       </c>
-      <c r="X41" s="526" t="str">
+      <c r="X41" s="547" t="str">
         <f>IF(B41="","",IF(W41="","",IF(LEFT(W41,1)="0",0,ROUND(W41,0))))</f>
         <v/>
       </c>
@@ -35748,8 +35843,8 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="529"/>
-      <c r="B42" s="529"/>
+      <c r="A42" s="528"/>
+      <c r="B42" s="528"/>
       <c r="C42" s="348"/>
       <c r="D42" s="337"/>
       <c r="E42" s="337"/>
@@ -35774,16 +35869,16 @@
         <f>IF(OR(B41="",COUNT(C42:I42)+COUNT(K42:O42)=0),"",ROUND(SUM(P42,J42),0))</f>
         <v/>
       </c>
-      <c r="R42" s="442" t="str">
+      <c r="R42" s="440" t="str">
         <f ca="1">IF(Q42="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q42/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q42))</f>
         <v/>
       </c>
-      <c r="S42" s="531"/>
-      <c r="T42" s="533"/>
-      <c r="U42" s="535"/>
-      <c r="V42" s="537"/>
-      <c r="W42" s="525"/>
-      <c r="X42" s="527"/>
+      <c r="S42" s="530"/>
+      <c r="T42" s="532"/>
+      <c r="U42" s="542"/>
+      <c r="V42" s="544"/>
+      <c r="W42" s="546"/>
+      <c r="X42" s="548"/>
       <c r="Y42" s="343" t="str">
         <f>IF(B41="","",ROUNDUP(AVERAGE(R42,R42,X41),2))</f>
         <v/>
@@ -35794,10 +35889,10 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="528">
+      <c r="A43" s="527">
         <v>17</v>
       </c>
-      <c r="B43" s="528" t="str">
+      <c r="B43" s="527" t="str">
         <f>IF('1. Halbjahr'!B20&lt;&gt;"", '1. Halbjahr'!B20, "")</f>
         <v/>
       </c>
@@ -35829,18 +35924,18 @@
         <f ca="1">IF(Q43="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q43/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q43))</f>
         <v/>
       </c>
-      <c r="S43" s="530"/>
-      <c r="T43" s="532"/>
-      <c r="U43" s="534"/>
-      <c r="V43" s="536" t="str">
+      <c r="S43" s="529"/>
+      <c r="T43" s="531"/>
+      <c r="U43" s="541"/>
+      <c r="V43" s="543" t="str">
         <f>IF(B43="","",SUM(S43:U43))</f>
         <v/>
       </c>
-      <c r="W43" s="524" t="str">
+      <c r="W43" s="545" t="str">
         <f>IF(B43="","",IF(ISBLANK(S43),"",IF(AVERAGE(S43:U43)&lt;10,LEFT(AVERAGE(S43:U43),4),LEFT(AVERAGE(S43:U43),5))))</f>
         <v/>
       </c>
-      <c r="X43" s="526" t="str">
+      <c r="X43" s="547" t="str">
         <f>IF(B43="","",IF(W43="","",IF(LEFT(W43,1)="0",0,ROUND(W43,0))))</f>
         <v/>
       </c>
@@ -35854,8 +35949,8 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="529"/>
-      <c r="B44" s="529"/>
+      <c r="A44" s="528"/>
+      <c r="B44" s="528"/>
       <c r="C44" s="348"/>
       <c r="D44" s="337"/>
       <c r="E44" s="337"/>
@@ -35884,12 +35979,12 @@
         <f ca="1">IF(Q44="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q44/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q44))</f>
         <v/>
       </c>
-      <c r="S44" s="531"/>
-      <c r="T44" s="533"/>
-      <c r="U44" s="535"/>
-      <c r="V44" s="537"/>
-      <c r="W44" s="525"/>
-      <c r="X44" s="527"/>
+      <c r="S44" s="530"/>
+      <c r="T44" s="532"/>
+      <c r="U44" s="542"/>
+      <c r="V44" s="544"/>
+      <c r="W44" s="546"/>
+      <c r="X44" s="548"/>
       <c r="Y44" s="343" t="str">
         <f>IF(B43="","",ROUNDUP(AVERAGE(R44,R44,X43),2))</f>
         <v/>
@@ -35900,10 +35995,10 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="528">
+      <c r="A45" s="527">
         <v>18</v>
       </c>
-      <c r="B45" s="528" t="str">
+      <c r="B45" s="527" t="str">
         <f>IF('1. Halbjahr'!B21&lt;&gt;"", '1. Halbjahr'!B21, "")</f>
         <v/>
       </c>
@@ -35935,18 +36030,18 @@
         <f ca="1">IF(Q45="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q45/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q45))</f>
         <v/>
       </c>
-      <c r="S45" s="530"/>
-      <c r="T45" s="532"/>
-      <c r="U45" s="534"/>
-      <c r="V45" s="536" t="str">
+      <c r="S45" s="529"/>
+      <c r="T45" s="531"/>
+      <c r="U45" s="541"/>
+      <c r="V45" s="543" t="str">
         <f>IF(B45="","",SUM(S45:U45))</f>
         <v/>
       </c>
-      <c r="W45" s="524" t="str">
+      <c r="W45" s="545" t="str">
         <f>IF(B45="","",IF(ISBLANK(S45),"",IF(AVERAGE(S45:U45)&lt;10,LEFT(AVERAGE(S45:U45),4),LEFT(AVERAGE(S45:U45),5))))</f>
         <v/>
       </c>
-      <c r="X45" s="526" t="str">
+      <c r="X45" s="547" t="str">
         <f>IF(B45="","",IF(W45="","",IF(LEFT(W45,1)="0",0,ROUND(W45,0))))</f>
         <v/>
       </c>
@@ -35960,8 +36055,8 @@
       </c>
     </row>
     <row r="46" spans="1:26" s="356" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="529"/>
-      <c r="B46" s="529"/>
+      <c r="A46" s="528"/>
+      <c r="B46" s="528"/>
       <c r="C46" s="353"/>
       <c r="D46" s="354"/>
       <c r="E46" s="354"/>
@@ -35986,16 +36081,16 @@
         <f>IF(OR(B45="",COUNT(C46:I46)+COUNT(K46:O46)=0),"",ROUND(SUM(P46,J46),0))</f>
         <v/>
       </c>
-      <c r="R46" s="442" t="str">
+      <c r="R46" s="440" t="str">
         <f ca="1">IF(Q46="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q46/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q46))</f>
         <v/>
       </c>
-      <c r="S46" s="531"/>
-      <c r="T46" s="533"/>
-      <c r="U46" s="535"/>
-      <c r="V46" s="537"/>
-      <c r="W46" s="525"/>
-      <c r="X46" s="527"/>
+      <c r="S46" s="530"/>
+      <c r="T46" s="532"/>
+      <c r="U46" s="542"/>
+      <c r="V46" s="544"/>
+      <c r="W46" s="546"/>
+      <c r="X46" s="548"/>
       <c r="Y46" s="343" t="str">
         <f>IF(B45="","",ROUNDUP(AVERAGE(R46,R46,X45),2))</f>
         <v/>
@@ -36006,10 +36101,10 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="528">
+      <c r="A47" s="527">
         <v>19</v>
       </c>
-      <c r="B47" s="528" t="str">
+      <c r="B47" s="527" t="str">
         <f>IF('1. Halbjahr'!B22&lt;&gt;"", '1. Halbjahr'!B22, "")</f>
         <v/>
       </c>
@@ -36041,18 +36136,18 @@
         <f ca="1">IF(Q47="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q47/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q47))</f>
         <v/>
       </c>
-      <c r="S47" s="530"/>
-      <c r="T47" s="532"/>
-      <c r="U47" s="534"/>
-      <c r="V47" s="536" t="str">
+      <c r="S47" s="529"/>
+      <c r="T47" s="531"/>
+      <c r="U47" s="541"/>
+      <c r="V47" s="543" t="str">
         <f>IF(B47="","",SUM(S47:U47))</f>
         <v/>
       </c>
-      <c r="W47" s="524" t="str">
+      <c r="W47" s="545" t="str">
         <f>IF(B47="","",IF(ISBLANK(S47),"",IF(AVERAGE(S47:U47)&lt;10,LEFT(AVERAGE(S47:U47),4),LEFT(AVERAGE(S47:U47),5))))</f>
         <v/>
       </c>
-      <c r="X47" s="526" t="str">
+      <c r="X47" s="547" t="str">
         <f>IF(B47="","",IF(W47="","",IF(LEFT(W47,1)="0",0,ROUND(W47,0))))</f>
         <v/>
       </c>
@@ -36066,8 +36161,8 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="529"/>
-      <c r="B48" s="529"/>
+      <c r="A48" s="528"/>
+      <c r="B48" s="528"/>
       <c r="C48" s="348"/>
       <c r="D48" s="337"/>
       <c r="E48" s="337"/>
@@ -36092,16 +36187,16 @@
         <f>IF(OR(B47="",COUNT(C48:I48)+COUNT(K48:O48)=0),"",ROUND(SUM(P48,J48),0))</f>
         <v/>
       </c>
-      <c r="R48" s="442" t="str">
+      <c r="R48" s="440" t="str">
         <f ca="1">IF(Q48="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q48/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q48))</f>
         <v/>
       </c>
-      <c r="S48" s="531"/>
-      <c r="T48" s="533"/>
-      <c r="U48" s="535"/>
-      <c r="V48" s="537"/>
-      <c r="W48" s="525"/>
-      <c r="X48" s="527"/>
+      <c r="S48" s="530"/>
+      <c r="T48" s="532"/>
+      <c r="U48" s="542"/>
+      <c r="V48" s="544"/>
+      <c r="W48" s="546"/>
+      <c r="X48" s="548"/>
       <c r="Y48" s="343" t="str">
         <f>IF(B47="","",ROUNDUP(AVERAGE(R48,R48,X47),2))</f>
         <v/>
@@ -36112,10 +36207,10 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="528">
+      <c r="A49" s="527">
         <v>20</v>
       </c>
-      <c r="B49" s="528" t="str">
+      <c r="B49" s="527" t="str">
         <f>IF('1. Halbjahr'!B23&lt;&gt;"", '1. Halbjahr'!B23, "")</f>
         <v/>
       </c>
@@ -36147,18 +36242,18 @@
         <f ca="1">IF(Q49="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q49/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q49))</f>
         <v/>
       </c>
-      <c r="S49" s="530"/>
-      <c r="T49" s="532"/>
-      <c r="U49" s="534"/>
-      <c r="V49" s="536" t="str">
+      <c r="S49" s="529"/>
+      <c r="T49" s="531"/>
+      <c r="U49" s="541"/>
+      <c r="V49" s="543" t="str">
         <f>IF(B49="","",SUM(S49:U49))</f>
         <v/>
       </c>
-      <c r="W49" s="524" t="str">
+      <c r="W49" s="545" t="str">
         <f>IF(B49="","",IF(ISBLANK(S49),"",IF(AVERAGE(S49:U49)&lt;10,LEFT(AVERAGE(S49:U49),4),LEFT(AVERAGE(S49:U49),5))))</f>
         <v/>
       </c>
-      <c r="X49" s="526" t="str">
+      <c r="X49" s="547" t="str">
         <f>IF(B49="","",IF(W49="","",IF(LEFT(W49,1)="0",0,ROUND(W49,0))))</f>
         <v/>
       </c>
@@ -36172,8 +36267,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="529"/>
-      <c r="B50" s="529"/>
+      <c r="A50" s="528"/>
+      <c r="B50" s="528"/>
       <c r="C50" s="348"/>
       <c r="D50" s="337"/>
       <c r="E50" s="337"/>
@@ -36202,12 +36297,12 @@
         <f ca="1">IF(Q50="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q50/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q50))</f>
         <v/>
       </c>
-      <c r="S50" s="531"/>
-      <c r="T50" s="533"/>
-      <c r="U50" s="535"/>
-      <c r="V50" s="537"/>
-      <c r="W50" s="525"/>
-      <c r="X50" s="527"/>
+      <c r="S50" s="530"/>
+      <c r="T50" s="532"/>
+      <c r="U50" s="542"/>
+      <c r="V50" s="544"/>
+      <c r="W50" s="546"/>
+      <c r="X50" s="548"/>
       <c r="Y50" s="343" t="str">
         <f>IF(B49="","",ROUNDUP(AVERAGE(R50,R50,X49),2))</f>
         <v/>
@@ -36218,10 +36313,10 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="528">
+      <c r="A51" s="527">
         <v>21</v>
       </c>
-      <c r="B51" s="528" t="str">
+      <c r="B51" s="527" t="str">
         <f>IF('1. Halbjahr'!B24&lt;&gt;"", '1. Halbjahr'!B24, "")</f>
         <v/>
       </c>
@@ -36253,18 +36348,18 @@
         <f ca="1">IF(Q51="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q51/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q51))</f>
         <v/>
       </c>
-      <c r="S51" s="530"/>
-      <c r="T51" s="532"/>
-      <c r="U51" s="534"/>
-      <c r="V51" s="536" t="str">
+      <c r="S51" s="529"/>
+      <c r="T51" s="531"/>
+      <c r="U51" s="541"/>
+      <c r="V51" s="543" t="str">
         <f>IF(B51="","",SUM(S51:U51))</f>
         <v/>
       </c>
-      <c r="W51" s="524" t="str">
+      <c r="W51" s="545" t="str">
         <f>IF(B51="","",IF(ISBLANK(S51),"",IF(AVERAGE(S51:U51)&lt;10,LEFT(AVERAGE(S51:U51),4),LEFT(AVERAGE(S51:U51),5))))</f>
         <v/>
       </c>
-      <c r="X51" s="526" t="str">
+      <c r="X51" s="547" t="str">
         <f>IF(B51="","",IF(W51="","",IF(LEFT(W51,1)="0",0,ROUND(W51,0))))</f>
         <v/>
       </c>
@@ -36278,8 +36373,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="529"/>
-      <c r="B52" s="529"/>
+      <c r="A52" s="528"/>
+      <c r="B52" s="528"/>
       <c r="C52" s="348"/>
       <c r="D52" s="337"/>
       <c r="E52" s="337"/>
@@ -36304,16 +36399,16 @@
         <f>IF(OR(B51="",COUNT(C52:I52)+COUNT(K52:O52)=0),"",ROUND(SUM(P52,J52),0))</f>
         <v/>
       </c>
-      <c r="R52" s="442" t="str">
+      <c r="R52" s="440" t="str">
         <f ca="1">IF(Q52="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q52/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q52))</f>
         <v/>
       </c>
-      <c r="S52" s="531"/>
-      <c r="T52" s="533"/>
-      <c r="U52" s="535"/>
-      <c r="V52" s="537"/>
-      <c r="W52" s="525"/>
-      <c r="X52" s="527"/>
+      <c r="S52" s="530"/>
+      <c r="T52" s="532"/>
+      <c r="U52" s="542"/>
+      <c r="V52" s="544"/>
+      <c r="W52" s="546"/>
+      <c r="X52" s="548"/>
       <c r="Y52" s="343" t="str">
         <f>IF(B51="","",ROUNDUP(AVERAGE(R52,R52,X51),2))</f>
         <v/>
@@ -36324,10 +36419,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="528">
+      <c r="A53" s="527">
         <v>22</v>
       </c>
-      <c r="B53" s="528" t="str">
+      <c r="B53" s="527" t="str">
         <f>IF('1. Halbjahr'!B25&lt;&gt;"", '1. Halbjahr'!B25, "")</f>
         <v/>
       </c>
@@ -36359,18 +36454,18 @@
         <f ca="1">IF(Q53="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q53/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q53))</f>
         <v/>
       </c>
-      <c r="S53" s="530"/>
-      <c r="T53" s="532"/>
-      <c r="U53" s="534"/>
-      <c r="V53" s="536" t="str">
+      <c r="S53" s="529"/>
+      <c r="T53" s="531"/>
+      <c r="U53" s="541"/>
+      <c r="V53" s="543" t="str">
         <f>IF(B53="","",SUM(S53:U53))</f>
         <v/>
       </c>
-      <c r="W53" s="524" t="str">
+      <c r="W53" s="545" t="str">
         <f>IF(B53="","",IF(ISBLANK(S53),"",IF(AVERAGE(S53:U53)&lt;10,LEFT(AVERAGE(S53:U53),4),LEFT(AVERAGE(S53:U53),5))))</f>
         <v/>
       </c>
-      <c r="X53" s="526" t="str">
+      <c r="X53" s="547" t="str">
         <f>IF(B53="","",IF(W53="","",IF(LEFT(W53,1)="0",0,ROUND(W53,0))))</f>
         <v/>
       </c>
@@ -36384,8 +36479,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="529"/>
-      <c r="B54" s="529"/>
+      <c r="A54" s="528"/>
+      <c r="B54" s="528"/>
       <c r="C54" s="348"/>
       <c r="D54" s="337"/>
       <c r="E54" s="337"/>
@@ -36414,12 +36509,12 @@
         <f ca="1">IF(Q54="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q54/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q54))</f>
         <v/>
       </c>
-      <c r="S54" s="531"/>
-      <c r="T54" s="533"/>
-      <c r="U54" s="535"/>
-      <c r="V54" s="537"/>
-      <c r="W54" s="525"/>
-      <c r="X54" s="527"/>
+      <c r="S54" s="530"/>
+      <c r="T54" s="532"/>
+      <c r="U54" s="542"/>
+      <c r="V54" s="544"/>
+      <c r="W54" s="546"/>
+      <c r="X54" s="548"/>
       <c r="Y54" s="343" t="str">
         <f>IF(B53="","",ROUNDUP(AVERAGE(R54,R54,X53),2))</f>
         <v/>
@@ -36430,10 +36525,10 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="528">
+      <c r="A55" s="527">
         <v>23</v>
       </c>
-      <c r="B55" s="528" t="str">
+      <c r="B55" s="527" t="str">
         <f>IF('1. Halbjahr'!B26&lt;&gt;"", '1. Halbjahr'!B26, "")</f>
         <v/>
       </c>
@@ -36465,18 +36560,18 @@
         <f ca="1">IF(Q55="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q55/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q55))</f>
         <v/>
       </c>
-      <c r="S55" s="530"/>
-      <c r="T55" s="532"/>
-      <c r="U55" s="534"/>
-      <c r="V55" s="536" t="str">
+      <c r="S55" s="529"/>
+      <c r="T55" s="531"/>
+      <c r="U55" s="541"/>
+      <c r="V55" s="543" t="str">
         <f>IF(B55="","",SUM(S55:U55))</f>
         <v/>
       </c>
-      <c r="W55" s="524" t="str">
+      <c r="W55" s="545" t="str">
         <f>IF(B55="","",IF(ISBLANK(S55),"",IF(AVERAGE(S55:U55)&lt;10,LEFT(AVERAGE(S55:U55),4),LEFT(AVERAGE(S55:U55),5))))</f>
         <v/>
       </c>
-      <c r="X55" s="526" t="str">
+      <c r="X55" s="547" t="str">
         <f>IF(B55="","",IF(W55="","",IF(LEFT(W55,1)="0",0,ROUND(W55,0))))</f>
         <v/>
       </c>
@@ -36490,8 +36585,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="529"/>
-      <c r="B56" s="529"/>
+      <c r="A56" s="528"/>
+      <c r="B56" s="528"/>
       <c r="C56" s="348"/>
       <c r="D56" s="337"/>
       <c r="E56" s="337"/>
@@ -36516,16 +36611,16 @@
         <f>IF(OR(B55="",COUNT(C56:I56)+COUNT(K56:O56)=0),"",ROUND(SUM(P56,J56),0))</f>
         <v/>
       </c>
-      <c r="R56" s="442" t="str">
+      <c r="R56" s="440" t="str">
         <f ca="1">IF(Q56="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q56/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q56))</f>
         <v/>
       </c>
-      <c r="S56" s="531"/>
-      <c r="T56" s="533"/>
-      <c r="U56" s="535"/>
-      <c r="V56" s="537"/>
-      <c r="W56" s="525"/>
-      <c r="X56" s="527"/>
+      <c r="S56" s="530"/>
+      <c r="T56" s="532"/>
+      <c r="U56" s="542"/>
+      <c r="V56" s="544"/>
+      <c r="W56" s="546"/>
+      <c r="X56" s="548"/>
       <c r="Y56" s="343" t="str">
         <f>IF(B55="","",ROUNDUP(AVERAGE(R56,R56,X55),2))</f>
         <v/>
@@ -36536,10 +36631,10 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="528">
+      <c r="A57" s="527">
         <v>24</v>
       </c>
-      <c r="B57" s="528" t="str">
+      <c r="B57" s="527" t="str">
         <f>IF('1. Halbjahr'!B27&lt;&gt;"", '1. Halbjahr'!B27, "")</f>
         <v/>
       </c>
@@ -36571,18 +36666,18 @@
         <f ca="1">IF(Q57="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q57/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q57))</f>
         <v/>
       </c>
-      <c r="S57" s="530"/>
-      <c r="T57" s="532"/>
-      <c r="U57" s="534"/>
-      <c r="V57" s="536" t="str">
+      <c r="S57" s="529"/>
+      <c r="T57" s="531"/>
+      <c r="U57" s="541"/>
+      <c r="V57" s="543" t="str">
         <f>IF(B57="","",SUM(S57:U57))</f>
         <v/>
       </c>
-      <c r="W57" s="524" t="str">
+      <c r="W57" s="545" t="str">
         <f>IF(B57="","",IF(ISBLANK(S57),"",IF(AVERAGE(S57:U57)&lt;10,LEFT(AVERAGE(S57:U57),4),LEFT(AVERAGE(S57:U57),5))))</f>
         <v/>
       </c>
-      <c r="X57" s="526" t="str">
+      <c r="X57" s="547" t="str">
         <f>IF(B57="","",IF(W57="","",IF(LEFT(W57,1)="0",0,ROUND(W57,0))))</f>
         <v/>
       </c>
@@ -36596,8 +36691,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="529"/>
-      <c r="B58" s="529"/>
+      <c r="A58" s="528"/>
+      <c r="B58" s="528"/>
       <c r="C58" s="348"/>
       <c r="D58" s="337"/>
       <c r="E58" s="337"/>
@@ -36626,12 +36721,12 @@
         <f ca="1">IF(Q58="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q58/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q58))</f>
         <v/>
       </c>
-      <c r="S58" s="531"/>
-      <c r="T58" s="533"/>
-      <c r="U58" s="535"/>
-      <c r="V58" s="537"/>
-      <c r="W58" s="525"/>
-      <c r="X58" s="527"/>
+      <c r="S58" s="530"/>
+      <c r="T58" s="532"/>
+      <c r="U58" s="542"/>
+      <c r="V58" s="544"/>
+      <c r="W58" s="546"/>
+      <c r="X58" s="548"/>
       <c r="Y58" s="343" t="str">
         <f>IF(B57="","",ROUNDUP(AVERAGE(R58,R58,X57),2))</f>
         <v/>
@@ -36642,10 +36737,10 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="528">
+      <c r="A59" s="527">
         <v>25</v>
       </c>
-      <c r="B59" s="528" t="str">
+      <c r="B59" s="527" t="str">
         <f>IF('1. Halbjahr'!B28&lt;&gt;"", '1. Halbjahr'!B28, "")</f>
         <v/>
       </c>
@@ -36677,18 +36772,18 @@
         <f ca="1">IF(Q59="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q59/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q59))</f>
         <v/>
       </c>
-      <c r="S59" s="530"/>
-      <c r="T59" s="532"/>
-      <c r="U59" s="534"/>
-      <c r="V59" s="536" t="str">
+      <c r="S59" s="529"/>
+      <c r="T59" s="531"/>
+      <c r="U59" s="541"/>
+      <c r="V59" s="543" t="str">
         <f>IF(B59="","",SUM(S59:U59))</f>
         <v/>
       </c>
-      <c r="W59" s="524" t="str">
+      <c r="W59" s="545" t="str">
         <f>IF(B59="","",IF(ISBLANK(S59),"",IF(AVERAGE(S59:U59)&lt;10,LEFT(AVERAGE(S59:U59),4),LEFT(AVERAGE(S59:U59),5))))</f>
         <v/>
       </c>
-      <c r="X59" s="526" t="str">
+      <c r="X59" s="547" t="str">
         <f>IF(B59="","",IF(W59="","",IF(LEFT(W59,1)="0",0,ROUND(W59,0))))</f>
         <v/>
       </c>
@@ -36702,8 +36797,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="529"/>
-      <c r="B60" s="529"/>
+      <c r="A60" s="528"/>
+      <c r="B60" s="528"/>
       <c r="C60" s="348"/>
       <c r="D60" s="337"/>
       <c r="E60" s="337"/>
@@ -36728,16 +36823,16 @@
         <f>IF(OR(B59="",COUNT(C60:I60)+COUNT(K60:O60)=0),"",ROUND(SUM(P60,J60),0))</f>
         <v/>
       </c>
-      <c r="R60" s="442" t="str">
+      <c r="R60" s="440" t="str">
         <f ca="1">IF(Q60="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q60/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q60))</f>
         <v/>
       </c>
-      <c r="S60" s="531"/>
-      <c r="T60" s="533"/>
-      <c r="U60" s="535"/>
-      <c r="V60" s="537"/>
-      <c r="W60" s="525"/>
-      <c r="X60" s="527"/>
+      <c r="S60" s="530"/>
+      <c r="T60" s="532"/>
+      <c r="U60" s="542"/>
+      <c r="V60" s="544"/>
+      <c r="W60" s="546"/>
+      <c r="X60" s="548"/>
       <c r="Y60" s="343" t="str">
         <f>IF(B59="","",ROUNDUP(AVERAGE(R60,R60,X59),2))</f>
         <v/>
@@ -36748,10 +36843,10 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="528">
+      <c r="A61" s="527">
         <v>26</v>
       </c>
-      <c r="B61" s="528" t="str">
+      <c r="B61" s="527" t="str">
         <f>IF('1. Halbjahr'!B29&lt;&gt;"", '1. Halbjahr'!B29, "")</f>
         <v/>
       </c>
@@ -36783,18 +36878,18 @@
         <f ca="1">IF(Q61="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q61/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q61))</f>
         <v/>
       </c>
-      <c r="S61" s="530"/>
-      <c r="T61" s="532"/>
-      <c r="U61" s="534"/>
-      <c r="V61" s="536" t="str">
+      <c r="S61" s="529"/>
+      <c r="T61" s="531"/>
+      <c r="U61" s="541"/>
+      <c r="V61" s="543" t="str">
         <f>IF(B61="","",SUM(S61:U61))</f>
         <v/>
       </c>
-      <c r="W61" s="524" t="str">
+      <c r="W61" s="545" t="str">
         <f>IF(B61="","",IF(ISBLANK(S61),"",IF(AVERAGE(S61:U61)&lt;10,LEFT(AVERAGE(S61:U61),4),LEFT(AVERAGE(S61:U61),5))))</f>
         <v/>
       </c>
-      <c r="X61" s="526" t="str">
+      <c r="X61" s="547" t="str">
         <f>IF(B61="","",IF(W61="","",IF(LEFT(W61,1)="0",0,ROUND(W61,0))))</f>
         <v/>
       </c>
@@ -36808,8 +36903,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="529"/>
-      <c r="B62" s="529"/>
+      <c r="A62" s="528"/>
+      <c r="B62" s="528"/>
       <c r="C62" s="348"/>
       <c r="D62" s="337"/>
       <c r="E62" s="337"/>
@@ -36834,16 +36929,16 @@
         <f>IF(OR(B61="",COUNT(C62:I62)+COUNT(K62:O62)=0),"",ROUND(SUM(P62,J62),0))</f>
         <v/>
       </c>
-      <c r="R62" s="442" t="str">
+      <c r="R62" s="440" t="str">
         <f ca="1">IF(Q62="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q62/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q62))</f>
         <v/>
       </c>
-      <c r="S62" s="531"/>
-      <c r="T62" s="533"/>
-      <c r="U62" s="535"/>
-      <c r="V62" s="537"/>
-      <c r="W62" s="525"/>
-      <c r="X62" s="527"/>
+      <c r="S62" s="530"/>
+      <c r="T62" s="532"/>
+      <c r="U62" s="542"/>
+      <c r="V62" s="544"/>
+      <c r="W62" s="546"/>
+      <c r="X62" s="548"/>
       <c r="Y62" s="343" t="str">
         <f>IF(B61="","",ROUNDUP(AVERAGE(R62,R62,X61),2))</f>
         <v/>
@@ -36854,10 +36949,10 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="528">
+      <c r="A63" s="527">
         <v>27</v>
       </c>
-      <c r="B63" s="528" t="str">
+      <c r="B63" s="527" t="str">
         <f>IF('1. Halbjahr'!B30&lt;&gt;"", '1. Halbjahr'!B30, "")</f>
         <v/>
       </c>
@@ -36889,18 +36984,18 @@
         <f ca="1">IF(Q63="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q63/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q63))</f>
         <v/>
       </c>
-      <c r="S63" s="530"/>
-      <c r="T63" s="532"/>
-      <c r="U63" s="534"/>
-      <c r="V63" s="536" t="str">
+      <c r="S63" s="529"/>
+      <c r="T63" s="531"/>
+      <c r="U63" s="541"/>
+      <c r="V63" s="543" t="str">
         <f>IF(B63="","",SUM(S63:U63))</f>
         <v/>
       </c>
-      <c r="W63" s="524" t="str">
+      <c r="W63" s="545" t="str">
         <f>IF(B63="","",IF(ISBLANK(S63),"",IF(AVERAGE(S63:U63)&lt;10,LEFT(AVERAGE(S63:U63),4),LEFT(AVERAGE(S63:U63),5))))</f>
         <v/>
       </c>
-      <c r="X63" s="526" t="str">
+      <c r="X63" s="547" t="str">
         <f>IF(B63="","",IF(W63="","",IF(LEFT(W63,1)="0",0,ROUND(W63,0))))</f>
         <v/>
       </c>
@@ -36914,8 +37009,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="529"/>
-      <c r="B64" s="529"/>
+      <c r="A64" s="528"/>
+      <c r="B64" s="528"/>
       <c r="C64" s="348"/>
       <c r="D64" s="337"/>
       <c r="E64" s="337"/>
@@ -36944,12 +37039,12 @@
         <f ca="1">IF(Q64="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q64/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q64))</f>
         <v/>
       </c>
-      <c r="S64" s="531"/>
-      <c r="T64" s="533"/>
-      <c r="U64" s="535"/>
-      <c r="V64" s="537"/>
-      <c r="W64" s="525"/>
-      <c r="X64" s="527"/>
+      <c r="S64" s="530"/>
+      <c r="T64" s="532"/>
+      <c r="U64" s="542"/>
+      <c r="V64" s="544"/>
+      <c r="W64" s="546"/>
+      <c r="X64" s="548"/>
       <c r="Y64" s="343" t="str">
         <f>IF(B63="","",ROUNDUP(AVERAGE(R64,R64,X63),2))</f>
         <v/>
@@ -36960,10 +37055,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="528">
+      <c r="A65" s="527">
         <v>28</v>
       </c>
-      <c r="B65" s="528" t="str">
+      <c r="B65" s="527" t="str">
         <f>IF('1. Halbjahr'!B31&lt;&gt;"", '1. Halbjahr'!B31, "")</f>
         <v/>
       </c>
@@ -36995,18 +37090,18 @@
         <f ca="1">IF(Q65="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q65/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q65))</f>
         <v/>
       </c>
-      <c r="S65" s="530"/>
-      <c r="T65" s="532"/>
-      <c r="U65" s="534"/>
-      <c r="V65" s="536" t="str">
+      <c r="S65" s="529"/>
+      <c r="T65" s="531"/>
+      <c r="U65" s="541"/>
+      <c r="V65" s="543" t="str">
         <f>IF(B65="","",SUM(S65:U65))</f>
         <v/>
       </c>
-      <c r="W65" s="524" t="str">
+      <c r="W65" s="545" t="str">
         <f>IF(B65="","",IF(ISBLANK(S65),"",IF(AVERAGE(S65:U65)&lt;10,LEFT(AVERAGE(S65:U65),4),LEFT(AVERAGE(S65:U65),5))))</f>
         <v/>
       </c>
-      <c r="X65" s="526" t="str">
+      <c r="X65" s="547" t="str">
         <f>IF(B65="","",IF(W65="","",IF(LEFT(W65,1)="0",0,ROUND(W65,0))))</f>
         <v/>
       </c>
@@ -37020,8 +37115,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="529"/>
-      <c r="B66" s="529"/>
+      <c r="A66" s="528"/>
+      <c r="B66" s="528"/>
       <c r="C66" s="348"/>
       <c r="D66" s="337"/>
       <c r="E66" s="337"/>
@@ -37050,12 +37145,12 @@
         <f ca="1">IF(Q66="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q66/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q66))</f>
         <v/>
       </c>
-      <c r="S66" s="531"/>
-      <c r="T66" s="533"/>
-      <c r="U66" s="535"/>
-      <c r="V66" s="537"/>
-      <c r="W66" s="525"/>
-      <c r="X66" s="527"/>
+      <c r="S66" s="530"/>
+      <c r="T66" s="532"/>
+      <c r="U66" s="542"/>
+      <c r="V66" s="544"/>
+      <c r="W66" s="546"/>
+      <c r="X66" s="548"/>
       <c r="Y66" s="343" t="str">
         <f>IF(B65="","",ROUNDUP(AVERAGE(R66,R66,X65),2))</f>
         <v/>
@@ -37066,10 +37161,10 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="528">
+      <c r="A67" s="527">
         <v>29</v>
       </c>
-      <c r="B67" s="528" t="str">
+      <c r="B67" s="527" t="str">
         <f>IF('1. Halbjahr'!B32&lt;&gt;"", '1. Halbjahr'!B32, "")</f>
         <v/>
       </c>
@@ -37101,18 +37196,18 @@
         <f ca="1">IF(Q67="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q67/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q67))</f>
         <v/>
       </c>
-      <c r="S67" s="530"/>
-      <c r="T67" s="532"/>
-      <c r="U67" s="534"/>
-      <c r="V67" s="536" t="str">
+      <c r="S67" s="529"/>
+      <c r="T67" s="531"/>
+      <c r="U67" s="541"/>
+      <c r="V67" s="543" t="str">
         <f>IF(B67="","",SUM(S67:U67))</f>
         <v/>
       </c>
-      <c r="W67" s="524" t="str">
+      <c r="W67" s="545" t="str">
         <f>IF(B67="","",IF(ISBLANK(S67),"",IF(AVERAGE(S67:U67)&lt;10,LEFT(AVERAGE(S67:U67),4),LEFT(AVERAGE(S67:U67),5))))</f>
         <v/>
       </c>
-      <c r="X67" s="526" t="str">
+      <c r="X67" s="547" t="str">
         <f>IF(B67="","",IF(W67="","",IF(LEFT(W67,1)="0",0,ROUND(W67,0))))</f>
         <v/>
       </c>
@@ -37126,8 +37221,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="529"/>
-      <c r="B68" s="529"/>
+      <c r="A68" s="528"/>
+      <c r="B68" s="528"/>
       <c r="C68" s="348"/>
       <c r="D68" s="337"/>
       <c r="E68" s="337"/>
@@ -37152,16 +37247,16 @@
         <f>IF(OR(B67="",COUNT(C68:I68)+COUNT(K68:O68)=0),"",ROUND(SUM(P68,J68),0))</f>
         <v/>
       </c>
-      <c r="R68" s="442" t="str">
+      <c r="R68" s="440" t="str">
         <f ca="1">IF(Q68="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q68/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q68))</f>
         <v/>
       </c>
-      <c r="S68" s="531"/>
-      <c r="T68" s="533"/>
-      <c r="U68" s="535"/>
-      <c r="V68" s="537"/>
-      <c r="W68" s="525"/>
-      <c r="X68" s="527"/>
+      <c r="S68" s="530"/>
+      <c r="T68" s="532"/>
+      <c r="U68" s="542"/>
+      <c r="V68" s="544"/>
+      <c r="W68" s="546"/>
+      <c r="X68" s="548"/>
       <c r="Y68" s="343" t="str">
         <f>IF(B67="","",ROUNDUP(AVERAGE(R68,R68,X67),2))</f>
         <v/>
@@ -37172,10 +37267,10 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="528">
+      <c r="A69" s="527">
         <v>30</v>
       </c>
-      <c r="B69" s="528" t="str">
+      <c r="B69" s="527" t="str">
         <f>IF('1. Halbjahr'!B33&lt;&gt;"", '1. Halbjahr'!B33, "")</f>
         <v/>
       </c>
@@ -37207,18 +37302,18 @@
         <f ca="1">IF(Q69="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q69/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q69))</f>
         <v/>
       </c>
-      <c r="S69" s="530"/>
-      <c r="T69" s="532"/>
-      <c r="U69" s="534"/>
-      <c r="V69" s="536" t="str">
+      <c r="S69" s="529"/>
+      <c r="T69" s="531"/>
+      <c r="U69" s="541"/>
+      <c r="V69" s="543" t="str">
         <f>IF(B69="","",SUM(S69:U69))</f>
         <v/>
       </c>
-      <c r="W69" s="524" t="str">
+      <c r="W69" s="545" t="str">
         <f>IF(B69="","",IF(ISBLANK(S69),"",IF(AVERAGE(S69:U69)&lt;10,LEFT(AVERAGE(S69:U69),4),LEFT(AVERAGE(S69:U69),5))))</f>
         <v/>
       </c>
-      <c r="X69" s="526" t="str">
+      <c r="X69" s="547" t="str">
         <f>IF(B69="","",IF(W69="","",IF(LEFT(W69,1)="0",0,ROUND(W69,0))))</f>
         <v/>
       </c>
@@ -37232,8 +37327,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="529"/>
-      <c r="B70" s="529"/>
+      <c r="A70" s="528"/>
+      <c r="B70" s="528"/>
       <c r="C70" s="348"/>
       <c r="D70" s="337"/>
       <c r="E70" s="337"/>
@@ -37262,12 +37357,12 @@
         <f ca="1">IF(Q70="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q70/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q70))</f>
         <v/>
       </c>
-      <c r="S70" s="531"/>
-      <c r="T70" s="533"/>
-      <c r="U70" s="535"/>
-      <c r="V70" s="537"/>
-      <c r="W70" s="525"/>
-      <c r="X70" s="527"/>
+      <c r="S70" s="530"/>
+      <c r="T70" s="532"/>
+      <c r="U70" s="542"/>
+      <c r="V70" s="544"/>
+      <c r="W70" s="546"/>
+      <c r="X70" s="548"/>
       <c r="Y70" s="343" t="str">
         <f>IF(B69="","",ROUNDUP(AVERAGE(R70,R70,X69),2))</f>
         <v/>
@@ -37278,10 +37373,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="528">
+      <c r="A71" s="527">
         <v>31</v>
       </c>
-      <c r="B71" s="528" t="str">
+      <c r="B71" s="527" t="str">
         <f>IF('1. Halbjahr'!B34&lt;&gt;"", '1. Halbjahr'!B34, "")</f>
         <v/>
       </c>
@@ -37313,18 +37408,18 @@
         <f ca="1">IF(Q71="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q71/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q71))</f>
         <v/>
       </c>
-      <c r="S71" s="530"/>
-      <c r="T71" s="532"/>
-      <c r="U71" s="534"/>
-      <c r="V71" s="536" t="str">
+      <c r="S71" s="529"/>
+      <c r="T71" s="531"/>
+      <c r="U71" s="541"/>
+      <c r="V71" s="543" t="str">
         <f>IF(B71="","",SUM(S71:U71))</f>
         <v/>
       </c>
-      <c r="W71" s="524" t="str">
+      <c r="W71" s="545" t="str">
         <f>IF(B71="","",IF(ISBLANK(S71),"",IF(AVERAGE(S71:U71)&lt;10,LEFT(AVERAGE(S71:U71),4),LEFT(AVERAGE(S71:U71),5))))</f>
         <v/>
       </c>
-      <c r="X71" s="526" t="str">
+      <c r="X71" s="547" t="str">
         <f>IF(B71="","",IF(W71="","",IF(LEFT(W71,1)="0",0,ROUND(W71,0))))</f>
         <v/>
       </c>
@@ -37338,8 +37433,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="529"/>
-      <c r="B72" s="529"/>
+      <c r="A72" s="528"/>
+      <c r="B72" s="528"/>
       <c r="C72" s="348"/>
       <c r="D72" s="337"/>
       <c r="E72" s="337"/>
@@ -37364,16 +37459,16 @@
         <f>IF(OR(B71="",COUNT(C72:I72)+COUNT(K72:O72)=0),"",ROUND(SUM(P72,J72),0))</f>
         <v/>
       </c>
-      <c r="R72" s="442" t="str">
+      <c r="R72" s="440" t="str">
         <f ca="1">IF(Q72="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q72/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q72))</f>
         <v/>
       </c>
-      <c r="S72" s="531"/>
-      <c r="T72" s="533"/>
-      <c r="U72" s="535"/>
-      <c r="V72" s="537"/>
-      <c r="W72" s="525"/>
-      <c r="X72" s="527"/>
+      <c r="S72" s="530"/>
+      <c r="T72" s="532"/>
+      <c r="U72" s="542"/>
+      <c r="V72" s="544"/>
+      <c r="W72" s="546"/>
+      <c r="X72" s="548"/>
       <c r="Y72" s="343" t="str">
         <f>IF(B71="","",ROUNDUP(AVERAGE(R72,R72,X71),2))</f>
         <v/>
@@ -37384,10 +37479,10 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="528">
+      <c r="A73" s="527">
         <v>32</v>
       </c>
-      <c r="B73" s="528" t="str">
+      <c r="B73" s="527" t="str">
         <f>IF('1. Halbjahr'!B35&lt;&gt;"", '1. Halbjahr'!B35, "")</f>
         <v/>
       </c>
@@ -37419,18 +37514,18 @@
         <f ca="1">IF(Q73="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q73/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q73))</f>
         <v/>
       </c>
-      <c r="S73" s="530"/>
-      <c r="T73" s="532"/>
-      <c r="U73" s="534"/>
-      <c r="V73" s="536" t="str">
+      <c r="S73" s="529"/>
+      <c r="T73" s="531"/>
+      <c r="U73" s="541"/>
+      <c r="V73" s="543" t="str">
         <f>IF(B73="","",SUM(S73:U73))</f>
         <v/>
       </c>
-      <c r="W73" s="524" t="str">
+      <c r="W73" s="545" t="str">
         <f>IF(B73="","",IF(ISBLANK(S73),"",IF(AVERAGE(S73:U73)&lt;10,LEFT(AVERAGE(S73:U73),4),LEFT(AVERAGE(S73:U73),5))))</f>
         <v/>
       </c>
-      <c r="X73" s="526" t="str">
+      <c r="X73" s="547" t="str">
         <f>IF(B73="","",IF(W73="","",IF(LEFT(W73,1)="0",0,ROUND(W73,0))))</f>
         <v/>
       </c>
@@ -37444,8 +37539,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="529"/>
-      <c r="B74" s="529"/>
+      <c r="A74" s="528"/>
+      <c r="B74" s="528"/>
       <c r="C74" s="348"/>
       <c r="D74" s="337"/>
       <c r="E74" s="337"/>
@@ -37470,16 +37565,16 @@
         <f>IF(OR(B73="",COUNT(C74:I74)+COUNT(K74:O74)=0),"",ROUND(SUM(P74,J74),0))</f>
         <v/>
       </c>
-      <c r="R74" s="442" t="str">
+      <c r="R74" s="440" t="str">
         <f ca="1">IF(Q74="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q74/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q74))</f>
         <v/>
       </c>
-      <c r="S74" s="531"/>
-      <c r="T74" s="533"/>
-      <c r="U74" s="535"/>
-      <c r="V74" s="537"/>
-      <c r="W74" s="525"/>
-      <c r="X74" s="527"/>
+      <c r="S74" s="530"/>
+      <c r="T74" s="532"/>
+      <c r="U74" s="542"/>
+      <c r="V74" s="544"/>
+      <c r="W74" s="546"/>
+      <c r="X74" s="548"/>
       <c r="Y74" s="343" t="str">
         <f>IF(B73="","",ROUNDUP(AVERAGE(R74,R74,X73),2))</f>
         <v/>
@@ -37490,10 +37585,10 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="528">
+      <c r="A75" s="527">
         <v>33</v>
       </c>
-      <c r="B75" s="528" t="str">
+      <c r="B75" s="527" t="str">
         <f>IF('1. Halbjahr'!B36&lt;&gt;"", '1. Halbjahr'!B36, "")</f>
         <v/>
       </c>
@@ -37525,18 +37620,18 @@
         <f ca="1">IF(Q75="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q75/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q75))</f>
         <v/>
       </c>
-      <c r="S75" s="530"/>
-      <c r="T75" s="532"/>
-      <c r="U75" s="534"/>
-      <c r="V75" s="536" t="str">
+      <c r="S75" s="529"/>
+      <c r="T75" s="531"/>
+      <c r="U75" s="541"/>
+      <c r="V75" s="543" t="str">
         <f>IF(B75="","",SUM(S75:U75))</f>
         <v/>
       </c>
-      <c r="W75" s="524" t="str">
+      <c r="W75" s="545" t="str">
         <f>IF(B75="","",IF(ISBLANK(S75),"",IF(AVERAGE(S75:U75)&lt;10,LEFT(AVERAGE(S75:U75),4),LEFT(AVERAGE(S75:U75),5))))</f>
         <v/>
       </c>
-      <c r="X75" s="526" t="str">
+      <c r="X75" s="547" t="str">
         <f>IF(B75="","",IF(W75="","",IF(LEFT(W75,1)="0",0,ROUND(W75,0))))</f>
         <v/>
       </c>
@@ -37550,8 +37645,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="529"/>
-      <c r="B76" s="529"/>
+      <c r="A76" s="528"/>
+      <c r="B76" s="528"/>
       <c r="C76" s="348"/>
       <c r="D76" s="337"/>
       <c r="E76" s="337"/>
@@ -37580,12 +37675,12 @@
         <f ca="1">IF(Q76="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q76/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q76))</f>
         <v/>
       </c>
-      <c r="S76" s="531"/>
-      <c r="T76" s="533"/>
-      <c r="U76" s="535"/>
-      <c r="V76" s="537"/>
-      <c r="W76" s="525"/>
-      <c r="X76" s="527"/>
+      <c r="S76" s="530"/>
+      <c r="T76" s="532"/>
+      <c r="U76" s="542"/>
+      <c r="V76" s="544"/>
+      <c r="W76" s="546"/>
+      <c r="X76" s="548"/>
       <c r="Y76" s="343" t="str">
         <f>IF(B75="","",ROUNDUP(AVERAGE(R76,R76,X75),2))</f>
         <v/>
@@ -37596,10 +37691,10 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="528">
+      <c r="A77" s="527">
         <v>34</v>
       </c>
-      <c r="B77" s="528" t="str">
+      <c r="B77" s="527" t="str">
         <f>IF('1. Halbjahr'!B37&lt;&gt;"", '1. Halbjahr'!B37, "")</f>
         <v/>
       </c>
@@ -37631,18 +37726,18 @@
         <f ca="1">IF(Q77="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q77/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q77))</f>
         <v/>
       </c>
-      <c r="S77" s="530"/>
-      <c r="T77" s="532"/>
-      <c r="U77" s="534"/>
-      <c r="V77" s="536" t="str">
+      <c r="S77" s="529"/>
+      <c r="T77" s="531"/>
+      <c r="U77" s="541"/>
+      <c r="V77" s="543" t="str">
         <f>IF(B77="","",SUM(S77:U77))</f>
         <v/>
       </c>
-      <c r="W77" s="524" t="str">
+      <c r="W77" s="545" t="str">
         <f>IF(B77="","",IF(ISBLANK(S77),"",IF(AVERAGE(S77:U77)&lt;10,LEFT(AVERAGE(S77:U77),4),LEFT(AVERAGE(S77:U77),5))))</f>
         <v/>
       </c>
-      <c r="X77" s="526" t="str">
+      <c r="X77" s="547" t="str">
         <f>IF(B77="","",IF(W77="","",IF(LEFT(W77,1)="0",0,ROUND(W77,0))))</f>
         <v/>
       </c>
@@ -37656,8 +37751,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="529"/>
-      <c r="B78" s="529"/>
+      <c r="A78" s="528"/>
+      <c r="B78" s="528"/>
       <c r="C78" s="348"/>
       <c r="D78" s="337"/>
       <c r="E78" s="337"/>
@@ -37686,12 +37781,12 @@
         <f ca="1">IF(Q78="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q78/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q78))</f>
         <v/>
       </c>
-      <c r="S78" s="538"/>
-      <c r="T78" s="539"/>
-      <c r="U78" s="540"/>
-      <c r="V78" s="541"/>
-      <c r="W78" s="525"/>
-      <c r="X78" s="527"/>
+      <c r="S78" s="549"/>
+      <c r="T78" s="550"/>
+      <c r="U78" s="551"/>
+      <c r="V78" s="552"/>
+      <c r="W78" s="546"/>
+      <c r="X78" s="548"/>
       <c r="Y78" s="357" t="str">
         <f>IF(B77="","",ROUNDUP(AVERAGE(R78,R78,X77),2))</f>
         <v/>
@@ -37702,10 +37797,10 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="528">
+      <c r="A79" s="527">
         <v>35</v>
       </c>
-      <c r="B79" s="528" t="str">
+      <c r="B79" s="527" t="str">
         <f>IF('1. Halbjahr'!B38&lt;&gt;"", '1. Halbjahr'!B38, "")</f>
         <v/>
       </c>
@@ -37737,18 +37832,18 @@
         <f ca="1">IF(Q79="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q79/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q79))</f>
         <v/>
       </c>
-      <c r="S79" s="530"/>
-      <c r="T79" s="532"/>
-      <c r="U79" s="534"/>
-      <c r="V79" s="536" t="str">
+      <c r="S79" s="529"/>
+      <c r="T79" s="531"/>
+      <c r="U79" s="541"/>
+      <c r="V79" s="543" t="str">
         <f>IF(B79="","",SUM(S79:U79))</f>
         <v/>
       </c>
-      <c r="W79" s="524" t="str">
+      <c r="W79" s="545" t="str">
         <f>IF(B79="","",IF(ISBLANK(S79),"",IF(AVERAGE(S79:U79)&lt;10,LEFT(AVERAGE(S79:U79),4),LEFT(AVERAGE(S79:U79),5))))</f>
         <v/>
       </c>
-      <c r="X79" s="526" t="str">
+      <c r="X79" s="547" t="str">
         <f>IF(B79="","",IF(W79="","",IF(LEFT(W79,1)="0",0,ROUND(W79,0))))</f>
         <v/>
       </c>
@@ -37762,8 +37857,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="529"/>
-      <c r="B80" s="529"/>
+      <c r="A80" s="528"/>
+      <c r="B80" s="528"/>
       <c r="C80" s="353"/>
       <c r="D80" s="354"/>
       <c r="E80" s="354"/>
@@ -37792,12 +37887,12 @@
         <f ca="1">IF(Q80="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q80/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q80))</f>
         <v/>
       </c>
-      <c r="S80" s="531"/>
-      <c r="T80" s="533"/>
-      <c r="U80" s="535"/>
-      <c r="V80" s="537"/>
-      <c r="W80" s="525"/>
-      <c r="X80" s="527"/>
+      <c r="S80" s="530"/>
+      <c r="T80" s="532"/>
+      <c r="U80" s="542"/>
+      <c r="V80" s="544"/>
+      <c r="W80" s="546"/>
+      <c r="X80" s="548"/>
       <c r="Y80" s="343" t="str">
         <f>IF(B79="","",ROUNDUP(AVERAGE(R80,R80,X79),2))</f>
         <v/>
@@ -37890,6 +37985,278 @@
   </sheetData>
   <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="288">
+    <mergeCell ref="W77:W78"/>
+    <mergeCell ref="X77:X78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="V79:V80"/>
+    <mergeCell ref="W79:W80"/>
+    <mergeCell ref="X79:X80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="S77:S78"/>
+    <mergeCell ref="T77:T78"/>
+    <mergeCell ref="U77:U78"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="X73:X74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="X75:X76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="U73:U74"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W69:W70"/>
+    <mergeCell ref="X69:X70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="S71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="V71:V72"/>
+    <mergeCell ref="W71:W72"/>
+    <mergeCell ref="X71:X72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="S69:S70"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="U69:U70"/>
+    <mergeCell ref="V69:V70"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="X65:X66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="W67:W68"/>
+    <mergeCell ref="X67:X68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="V65:V66"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="X61:X62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="X63:X64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="T61:T62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="X57:X58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="V57:V58"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="X49:X50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="X51:X52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="X45:X46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="V47:V48"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="X47:X48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="A11:A12"/>
@@ -37906,278 +38273,6 @@
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="W11:W12"/>
     <mergeCell ref="X11:X12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="T41:T42"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="V41:V42"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="X45:X46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="V47:V48"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="T45:T46"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="X49:X50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="T51:T52"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="V51:V52"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="X51:X52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="X57:X58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="V57:V58"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="X61:X62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="X63:X64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="T61:T62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="W65:W66"/>
-    <mergeCell ref="X65:X66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="T67:T68"/>
-    <mergeCell ref="U67:U68"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="W67:W68"/>
-    <mergeCell ref="X67:X68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="V65:V66"/>
-    <mergeCell ref="W69:W70"/>
-    <mergeCell ref="X69:X70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="S71:S72"/>
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="V71:V72"/>
-    <mergeCell ref="W71:W72"/>
-    <mergeCell ref="X71:X72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="S69:S70"/>
-    <mergeCell ref="T69:T70"/>
-    <mergeCell ref="U69:U70"/>
-    <mergeCell ref="V69:V70"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="X73:X74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="S75:S76"/>
-    <mergeCell ref="T75:T76"/>
-    <mergeCell ref="U75:U76"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="X75:X76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="U73:U74"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W77:W78"/>
-    <mergeCell ref="X77:X78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="V79:V80"/>
-    <mergeCell ref="W79:W80"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="S77:S78"/>
-    <mergeCell ref="T77:T78"/>
-    <mergeCell ref="U77:U78"/>
-    <mergeCell ref="V77:V78"/>
   </mergeCells>
   <conditionalFormatting sqref="C65 C67 C69 C71 C73 C75 C77 C79 C59 C61 C63 C21 C23 C25 C27 C29 C31 C33 C35 C37 C39 C41 C43 C45 C47 C49 C57 C13 C51 C53 C55 C15 C17 C19 C11">
     <cfRule type="cellIs" dxfId="37" priority="21" stopIfTrue="1" operator="greaterThan">
@@ -38441,7 +38536,7 @@
       <c r="C3" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="444" t="s">
+      <c r="D3" s="442" t="s">
         <v>157</v>
       </c>
       <c r="E3" s="123"/>
@@ -38457,7 +38552,7 @@
         <v/>
       </c>
       <c r="C4" s="185"/>
-      <c r="D4" s="445"/>
+      <c r="D4" s="443"/>
       <c r="E4" s="123"/>
       <c r="F4" s="123"/>
       <c r="G4" s="122"/>
@@ -38471,7 +38566,7 @@
         <v/>
       </c>
       <c r="C5" s="185"/>
-      <c r="D5" s="445"/>
+      <c r="D5" s="443"/>
       <c r="E5" s="123"/>
       <c r="F5" s="123"/>
       <c r="G5" s="122"/>
@@ -38485,7 +38580,7 @@
         <v/>
       </c>
       <c r="C6" s="185"/>
-      <c r="D6" s="445"/>
+      <c r="D6" s="443"/>
       <c r="E6" s="123"/>
       <c r="F6" s="123"/>
       <c r="G6" s="122"/>
@@ -38499,7 +38594,7 @@
         <v/>
       </c>
       <c r="C7" s="185"/>
-      <c r="D7" s="445"/>
+      <c r="D7" s="443"/>
       <c r="E7" s="123"/>
       <c r="F7" s="123"/>
       <c r="G7" s="122"/>
@@ -38513,7 +38608,7 @@
         <v/>
       </c>
       <c r="C8" s="185"/>
-      <c r="D8" s="445"/>
+      <c r="D8" s="443"/>
       <c r="E8" s="126"/>
       <c r="F8" s="123"/>
       <c r="G8" s="122"/>
@@ -38527,7 +38622,7 @@
         <v/>
       </c>
       <c r="C9" s="185"/>
-      <c r="D9" s="445"/>
+      <c r="D9" s="443"/>
       <c r="E9" s="123"/>
       <c r="F9" s="123"/>
       <c r="G9" s="122"/>
@@ -38541,7 +38636,7 @@
         <v/>
       </c>
       <c r="C10" s="185"/>
-      <c r="D10" s="445"/>
+      <c r="D10" s="443"/>
       <c r="E10" s="123"/>
       <c r="F10" s="123"/>
       <c r="G10" s="122"/>
@@ -38555,7 +38650,7 @@
         <v/>
       </c>
       <c r="C11" s="185"/>
-      <c r="D11" s="445"/>
+      <c r="D11" s="443"/>
       <c r="E11" s="123"/>
       <c r="F11" s="123"/>
       <c r="G11" s="122"/>
@@ -38569,7 +38664,7 @@
         <v/>
       </c>
       <c r="C12" s="185"/>
-      <c r="D12" s="445"/>
+      <c r="D12" s="443"/>
       <c r="E12" s="123"/>
       <c r="F12" s="123"/>
       <c r="G12" s="122"/>
@@ -38583,7 +38678,7 @@
         <v/>
       </c>
       <c r="C13" s="185"/>
-      <c r="D13" s="445"/>
+      <c r="D13" s="443"/>
       <c r="E13" s="123"/>
       <c r="F13" s="123"/>
       <c r="G13" s="122"/>
@@ -38597,7 +38692,7 @@
         <v/>
       </c>
       <c r="C14" s="185"/>
-      <c r="D14" s="445"/>
+      <c r="D14" s="443"/>
       <c r="E14" s="123"/>
       <c r="F14" s="123"/>
       <c r="G14" s="122"/>
@@ -38611,7 +38706,7 @@
         <v/>
       </c>
       <c r="C15" s="185"/>
-      <c r="D15" s="445"/>
+      <c r="D15" s="443"/>
       <c r="E15" s="123"/>
       <c r="F15" s="123"/>
       <c r="G15" s="122"/>
@@ -38625,7 +38720,7 @@
         <v/>
       </c>
       <c r="C16" s="185"/>
-      <c r="D16" s="445"/>
+      <c r="D16" s="443"/>
       <c r="E16" s="123"/>
       <c r="F16" s="123"/>
       <c r="G16" s="122"/>
@@ -38639,7 +38734,7 @@
         <v/>
       </c>
       <c r="C17" s="185"/>
-      <c r="D17" s="445"/>
+      <c r="D17" s="443"/>
       <c r="E17" s="123"/>
       <c r="F17" s="123"/>
       <c r="G17" s="122"/>
@@ -38653,7 +38748,7 @@
         <v/>
       </c>
       <c r="C18" s="185"/>
-      <c r="D18" s="445"/>
+      <c r="D18" s="443"/>
       <c r="E18" s="123"/>
       <c r="F18" s="123"/>
       <c r="G18" s="122"/>
@@ -38667,7 +38762,7 @@
         <v/>
       </c>
       <c r="C19" s="185"/>
-      <c r="D19" s="445"/>
+      <c r="D19" s="443"/>
       <c r="E19" s="123"/>
       <c r="F19" s="123"/>
       <c r="G19" s="122"/>
@@ -38681,7 +38776,7 @@
         <v/>
       </c>
       <c r="C20" s="185"/>
-      <c r="D20" s="445"/>
+      <c r="D20" s="443"/>
       <c r="E20" s="123"/>
       <c r="F20" s="123"/>
       <c r="G20" s="122"/>
@@ -38695,7 +38790,7 @@
         <v/>
       </c>
       <c r="C21" s="185"/>
-      <c r="D21" s="445"/>
+      <c r="D21" s="443"/>
       <c r="E21" s="123"/>
       <c r="F21" s="123"/>
       <c r="G21" s="122"/>
@@ -38709,7 +38804,7 @@
         <v/>
       </c>
       <c r="C22" s="185"/>
-      <c r="D22" s="445"/>
+      <c r="D22" s="443"/>
       <c r="E22" s="123"/>
       <c r="F22" s="123"/>
       <c r="G22" s="122"/>
@@ -38723,7 +38818,7 @@
         <v/>
       </c>
       <c r="C23" s="185"/>
-      <c r="D23" s="445"/>
+      <c r="D23" s="443"/>
       <c r="E23" s="123"/>
       <c r="F23" s="123"/>
       <c r="G23" s="122"/>
@@ -38737,7 +38832,7 @@
         <v/>
       </c>
       <c r="C24" s="185"/>
-      <c r="D24" s="445"/>
+      <c r="D24" s="443"/>
       <c r="E24" s="123"/>
       <c r="F24" s="123"/>
       <c r="G24" s="122"/>
@@ -38751,7 +38846,7 @@
         <v/>
       </c>
       <c r="C25" s="185"/>
-      <c r="D25" s="445"/>
+      <c r="D25" s="443"/>
       <c r="E25" s="123"/>
       <c r="F25" s="123"/>
       <c r="G25" s="122"/>
@@ -38765,7 +38860,7 @@
         <v/>
       </c>
       <c r="C26" s="185"/>
-      <c r="D26" s="445"/>
+      <c r="D26" s="443"/>
       <c r="E26" s="123"/>
       <c r="F26" s="123"/>
       <c r="G26" s="122"/>
@@ -38779,7 +38874,7 @@
         <v/>
       </c>
       <c r="C27" s="185"/>
-      <c r="D27" s="445"/>
+      <c r="D27" s="443"/>
       <c r="E27" s="123"/>
       <c r="F27" s="123"/>
       <c r="G27" s="122"/>
@@ -38793,7 +38888,7 @@
         <v/>
       </c>
       <c r="C28" s="185"/>
-      <c r="D28" s="445"/>
+      <c r="D28" s="443"/>
       <c r="E28" s="123"/>
       <c r="F28" s="123"/>
       <c r="G28" s="122"/>
@@ -38807,7 +38902,7 @@
         <v/>
       </c>
       <c r="C29" s="185"/>
-      <c r="D29" s="445"/>
+      <c r="D29" s="443"/>
       <c r="E29" s="123"/>
       <c r="F29" s="123"/>
       <c r="G29" s="122"/>
@@ -38821,7 +38916,7 @@
         <v/>
       </c>
       <c r="C30" s="185"/>
-      <c r="D30" s="445"/>
+      <c r="D30" s="443"/>
       <c r="E30" s="123"/>
       <c r="F30" s="123"/>
       <c r="G30" s="122"/>
@@ -38835,7 +38930,7 @@
         <v/>
       </c>
       <c r="C31" s="185"/>
-      <c r="D31" s="445"/>
+      <c r="D31" s="443"/>
       <c r="E31" s="123"/>
       <c r="F31" s="123"/>
       <c r="G31" s="122"/>
@@ -38849,7 +38944,7 @@
         <v/>
       </c>
       <c r="C32" s="185"/>
-      <c r="D32" s="445"/>
+      <c r="D32" s="443"/>
       <c r="E32" s="123"/>
       <c r="F32" s="123"/>
       <c r="G32" s="122"/>
@@ -38863,7 +38958,7 @@
         <v/>
       </c>
       <c r="C33" s="185"/>
-      <c r="D33" s="445"/>
+      <c r="D33" s="443"/>
       <c r="E33" s="123"/>
       <c r="F33" s="123"/>
       <c r="G33" s="122"/>
@@ -38877,7 +38972,7 @@
         <v/>
       </c>
       <c r="C34" s="185"/>
-      <c r="D34" s="445"/>
+      <c r="D34" s="443"/>
       <c r="E34" s="123"/>
       <c r="F34" s="123"/>
       <c r="G34" s="122"/>
@@ -38891,7 +38986,7 @@
         <v/>
       </c>
       <c r="C35" s="185"/>
-      <c r="D35" s="445"/>
+      <c r="D35" s="443"/>
       <c r="E35" s="123"/>
       <c r="F35" s="123"/>
       <c r="G35" s="122"/>
@@ -38905,7 +39000,7 @@
         <v/>
       </c>
       <c r="C36" s="185"/>
-      <c r="D36" s="445"/>
+      <c r="D36" s="443"/>
       <c r="E36" s="123"/>
       <c r="F36" s="123"/>
       <c r="G36" s="122"/>
@@ -38919,7 +39014,7 @@
         <v/>
       </c>
       <c r="C37" s="185"/>
-      <c r="D37" s="445"/>
+      <c r="D37" s="443"/>
       <c r="E37" s="123"/>
       <c r="F37" s="123"/>
       <c r="G37" s="122"/>
@@ -38933,7 +39028,7 @@
         <v/>
       </c>
       <c r="C38" s="185"/>
-      <c r="D38" s="445"/>
+      <c r="D38" s="443"/>
       <c r="E38" s="123"/>
       <c r="F38" s="123"/>
       <c r="G38" s="122"/>
@@ -39003,17 +39098,17 @@
       <c r="B1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -39134,11 +39229,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -40599,21 +40694,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -40638,19 +40733,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -40675,7 +40770,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -40683,11 +40778,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -41488,17 +41583,17 @@
       <c r="B1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -41619,11 +41714,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -43084,21 +43179,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -43123,19 +43218,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -43160,7 +43255,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -43168,11 +43263,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -43973,17 +44068,17 @@
       <c r="B1" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -44104,11 +44199,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -45569,21 +45664,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -45608,19 +45703,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -45645,7 +45740,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -45653,11 +45748,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -46458,17 +46553,17 @@
       <c r="B1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -46589,11 +46684,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -48054,21 +48149,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -48093,19 +48188,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -48130,7 +48225,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -48138,11 +48233,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -48943,17 +49038,17 @@
       <c r="B1" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -49074,11 +49169,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -50539,21 +50634,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -50578,19 +50673,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -50615,7 +50710,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -50623,11 +50718,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -51428,17 +51523,17 @@
       <c r="B1" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="470" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="470"/>
-      <c r="E1" s="470"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="468"/>
-      <c r="H1" s="469"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
       <c r="K1" s="51"/>
@@ -51559,11 +51654,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="466" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="467"/>
-      <c r="H5" s="467"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57" t="str">
         <f t="shared" si="0"/>
@@ -53024,21 +53119,21 @@
       <c r="AW39" s="67"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="463" t="s">
+      <c r="A40" s="461" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="471" t="s">
+      <c r="C40" s="469" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="472"/>
-      <c r="E40" s="475" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="475"/>
-      <c r="G40" s="476"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
@@ -53063,19 +53158,19 @@
       <c r="AW40" s="67"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="464"/>
+      <c r="A41" s="462"/>
       <c r="B41" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="473" t="s">
+      <c r="C41" s="471" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="474"/>
-      <c r="E41" s="477" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="477"/>
-      <c r="G41" s="478"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
@@ -53100,7 +53195,7 @@
       <c r="AW41" s="67"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
+      <c r="A42" s="463"/>
       <c r="B42" s="29"/>
       <c r="C42" s="216" t="s">
         <v>21</v>
@@ -53108,11 +53203,11 @@
       <c r="D42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="477" t="s">
+      <c r="E42" s="475" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="477"/>
-      <c r="G42" s="478"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
       <c r="J42" s="67"/>
@@ -53914,27 +54009,27 @@
         <v>35</v>
       </c>
       <c r="D1" s="251"/>
-      <c r="E1" s="479">
+      <c r="E1" s="477">
         <f>'1. Halbjahr'!E1:H1</f>
         <v>0</v>
       </c>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="457" t="s">
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="455" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="458"/>
-      <c r="K1" s="461"/>
-      <c r="L1" s="462"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="459"/>
+      <c r="L1" s="460"/>
       <c r="M1" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="452">
+      <c r="N1" s="450">
         <f ca="1">TODAY()</f>
-        <v>43442</v>
-      </c>
-      <c r="O1" s="453"/>
+        <v>43600</v>
+      </c>
+      <c r="O1" s="451"/>
       <c r="P1" s="246"/>
       <c r="Q1" s="246"/>
       <c r="R1" s="246"/>
@@ -53946,27 +54041,27 @@
       <c r="B2" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="454" t="s">
+      <c r="C2" s="452" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="455"/>
-      <c r="E2" s="455"/>
-      <c r="F2" s="455"/>
-      <c r="G2" s="455"/>
-      <c r="H2" s="455"/>
-      <c r="I2" s="455"/>
-      <c r="J2" s="455"/>
-      <c r="K2" s="455"/>
-      <c r="L2" s="455"/>
-      <c r="M2" s="455"/>
-      <c r="N2" s="455"/>
-      <c r="O2" s="456"/>
+      <c r="D2" s="453"/>
+      <c r="E2" s="453"/>
+      <c r="F2" s="453"/>
+      <c r="G2" s="453"/>
+      <c r="H2" s="453"/>
+      <c r="I2" s="453"/>
+      <c r="J2" s="453"/>
+      <c r="K2" s="453"/>
+      <c r="L2" s="453"/>
+      <c r="M2" s="453"/>
+      <c r="N2" s="453"/>
+      <c r="O2" s="454"/>
       <c r="P2" s="153"/>
-      <c r="Q2" s="481" t="s">
+      <c r="Q2" s="479" t="s">
         <v>126</v>
       </c>
-      <c r="R2" s="482"/>
-      <c r="S2" s="483"/>
+      <c r="R2" s="480"/>
+      <c r="S2" s="481"/>
     </row>
     <row r="3" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161"/>

--- a/Vorlage.xlsx
+++ b/Vorlage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="17010" windowHeight="10365" tabRatio="873" activeTab="16"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="17010" windowHeight="10365" tabRatio="873" firstSheet="1" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="1. Halbjahr" sheetId="1" r:id="rId1"/>
@@ -3919,19 +3919,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3972,6 +3959,19 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4020,20 +4020,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="100" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="101" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="89" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4056,6 +4055,50 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="91" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="92" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="100" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="89" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4081,49 +4124,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="92" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="100" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="100" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="101" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -4131,7 +4131,23 @@
     <cellStyle name="Standard 2" xfId="2"/>
     <cellStyle name="Standard 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFCCFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5142,7 +5158,7 @@
       </c>
       <c r="N1" s="450">
         <f ca="1">TODAY()</f>
-        <v>43600</v>
+        <v>43632</v>
       </c>
       <c r="O1" s="451"/>
     </row>
@@ -9499,20 +9515,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="71" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11984,20 +12000,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="67" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14469,20 +14485,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="63" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16954,20 +16970,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="59" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19439,20 +19455,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="55" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21924,20 +21940,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="51" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24409,20 +24425,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="47" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24447,7 +24463,9 @@
   </sheetPr>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26717,18 +26735,18 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="F6:F40">
-    <cfRule type="expression" dxfId="43" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="1" stopIfTrue="1">
       <formula>$E$42="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="2" stopIfTrue="1">
       <formula>$E$42="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:K40">
-    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26757,8 +26775,8 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26842,15 +26860,15 @@
       <c r="G6" s="123"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="487" t="s">
+      <c r="A7" s="501" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="488"/>
-      <c r="C7" s="488"/>
-      <c r="D7" s="488"/>
-      <c r="E7" s="488"/>
-      <c r="F7" s="488"/>
-      <c r="G7" s="489"/>
+      <c r="B7" s="502"/>
+      <c r="C7" s="502"/>
+      <c r="D7" s="502"/>
+      <c r="E7" s="502"/>
+      <c r="F7" s="502"/>
+      <c r="G7" s="503"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="132"/>
@@ -26866,10 +26884,10 @@
       <c r="B9" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="490" t="s">
+      <c r="C9" s="504" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="490"/>
+      <c r="D9" s="504"/>
       <c r="E9" s="126"/>
       <c r="F9" s="126"/>
       <c r="G9" s="129"/>
@@ -26912,7 +26930,7 @@
         <v/>
       </c>
       <c r="F11" s="441" t="str">
-        <f ca="1">IF(D11="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D11, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D11))</f>
+        <f ca="1">IF(D11="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D11, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D11))</f>
         <v/>
       </c>
       <c r="G11" s="404" t="str">
@@ -26941,7 +26959,7 @@
         <v/>
       </c>
       <c r="F12" s="441" t="str">
-        <f ca="1">IF(D12="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D12, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D12))</f>
+        <f ca="1">IF(D12="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D12, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D12))</f>
         <v/>
       </c>
       <c r="G12" s="404" t="str">
@@ -26970,7 +26988,7 @@
         <v/>
       </c>
       <c r="F13" s="441" t="str">
-        <f ca="1">IF(D13="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D13, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D13))</f>
+        <f ca="1">IF(D13="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D13, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D13))</f>
         <v/>
       </c>
       <c r="G13" s="404" t="str">
@@ -26999,7 +27017,7 @@
         <v/>
       </c>
       <c r="F14" s="441" t="str">
-        <f ca="1">IF(D14="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D14, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D14))</f>
+        <f ca="1">IF(D14="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D14, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D14))</f>
         <v/>
       </c>
       <c r="G14" s="404" t="str">
@@ -27028,7 +27046,7 @@
         <v/>
       </c>
       <c r="F15" s="441" t="str">
-        <f ca="1">IF(D15="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D15, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D15))</f>
+        <f ca="1">IF(D15="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D15, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D15))</f>
         <v/>
       </c>
       <c r="G15" s="404" t="str">
@@ -27057,7 +27075,7 @@
         <v/>
       </c>
       <c r="F16" s="441" t="str">
-        <f ca="1">IF(D16="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D16, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D16))</f>
+        <f ca="1">IF(D16="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D16, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D16))</f>
         <v/>
       </c>
       <c r="G16" s="404" t="str">
@@ -27086,7 +27104,7 @@
         <v/>
       </c>
       <c r="F17" s="441" t="str">
-        <f ca="1">IF(D17="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D17, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D17))</f>
+        <f ca="1">IF(D17="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D17, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D17))</f>
         <v/>
       </c>
       <c r="G17" s="404" t="str">
@@ -27115,7 +27133,7 @@
         <v/>
       </c>
       <c r="F18" s="441" t="str">
-        <f ca="1">IF(D18="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D18, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D18))</f>
+        <f ca="1">IF(D18="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D18, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D18))</f>
         <v/>
       </c>
       <c r="G18" s="404" t="str">
@@ -27144,7 +27162,7 @@
         <v/>
       </c>
       <c r="F19" s="441" t="str">
-        <f ca="1">IF(D19="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D19, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D19))</f>
+        <f ca="1">IF(D19="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D19, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D19))</f>
         <v/>
       </c>
       <c r="G19" s="404" t="str">
@@ -27173,7 +27191,7 @@
         <v/>
       </c>
       <c r="F20" s="441" t="str">
-        <f ca="1">IF(D20="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D20, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D20))</f>
+        <f ca="1">IF(D20="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D20, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D20))</f>
         <v/>
       </c>
       <c r="G20" s="404" t="str">
@@ -27202,7 +27220,7 @@
         <v/>
       </c>
       <c r="F21" s="441" t="str">
-        <f ca="1">IF(D21="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D21, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D21))</f>
+        <f ca="1">IF(D21="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D21, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D21))</f>
         <v/>
       </c>
       <c r="G21" s="404" t="str">
@@ -27231,7 +27249,7 @@
         <v/>
       </c>
       <c r="F22" s="441" t="str">
-        <f ca="1">IF(D22="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D22, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D22))</f>
+        <f ca="1">IF(D22="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D22, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D22))</f>
         <v/>
       </c>
       <c r="G22" s="404" t="str">
@@ -27260,7 +27278,7 @@
         <v/>
       </c>
       <c r="F23" s="441" t="str">
-        <f ca="1">IF(D23="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D23, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D23))</f>
+        <f ca="1">IF(D23="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D23, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D23))</f>
         <v/>
       </c>
       <c r="G23" s="404" t="str">
@@ -27289,7 +27307,7 @@
         <v/>
       </c>
       <c r="F24" s="441" t="str">
-        <f ca="1">IF(D24="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D24, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D24))</f>
+        <f ca="1">IF(D24="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D24, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D24))</f>
         <v/>
       </c>
       <c r="G24" s="404" t="str">
@@ -27318,7 +27336,7 @@
         <v/>
       </c>
       <c r="F25" s="441" t="str">
-        <f ca="1">IF(D25="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D25, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D25))</f>
+        <f ca="1">IF(D25="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D25, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D25))</f>
         <v/>
       </c>
       <c r="G25" s="404" t="str">
@@ -27347,7 +27365,7 @@
         <v/>
       </c>
       <c r="F26" s="441" t="str">
-        <f ca="1">IF(D26="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D26, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D26))</f>
+        <f ca="1">IF(D26="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D26, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D26))</f>
         <v/>
       </c>
       <c r="G26" s="404" t="str">
@@ -27376,7 +27394,7 @@
         <v/>
       </c>
       <c r="F27" s="441" t="str">
-        <f ca="1">IF(D27="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D27, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D27))</f>
+        <f ca="1">IF(D27="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D27, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D27))</f>
         <v/>
       </c>
       <c r="G27" s="404" t="str">
@@ -27405,7 +27423,7 @@
         <v/>
       </c>
       <c r="F28" s="441" t="str">
-        <f ca="1">IF(D28="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D28, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D28))</f>
+        <f ca="1">IF(D28="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D28, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D28))</f>
         <v/>
       </c>
       <c r="G28" s="404" t="str">
@@ -27434,7 +27452,7 @@
         <v/>
       </c>
       <c r="F29" s="441" t="str">
-        <f ca="1">IF(D29="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D29, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D29))</f>
+        <f ca="1">IF(D29="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D29, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D29))</f>
         <v/>
       </c>
       <c r="G29" s="404" t="str">
@@ -27463,7 +27481,7 @@
         <v/>
       </c>
       <c r="F30" s="441" t="str">
-        <f ca="1">IF(D30="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D30, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D30))</f>
+        <f ca="1">IF(D30="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D30, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D30))</f>
         <v/>
       </c>
       <c r="G30" s="404" t="str">
@@ -27492,7 +27510,7 @@
         <v/>
       </c>
       <c r="F31" s="441" t="str">
-        <f ca="1">IF(D31="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D31, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D31))</f>
+        <f ca="1">IF(D31="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D31, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D31))</f>
         <v/>
       </c>
       <c r="G31" s="404" t="str">
@@ -27521,7 +27539,7 @@
         <v/>
       </c>
       <c r="F32" s="441" t="str">
-        <f ca="1">IF(D32="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D32, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D32))</f>
+        <f ca="1">IF(D32="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D32, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D32))</f>
         <v/>
       </c>
       <c r="G32" s="404" t="str">
@@ -27550,7 +27568,7 @@
         <v/>
       </c>
       <c r="F33" s="441" t="str">
-        <f ca="1">IF(D33="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D33, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D33))</f>
+        <f ca="1">IF(D33="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D33, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D33))</f>
         <v/>
       </c>
       <c r="G33" s="404" t="str">
@@ -27579,7 +27597,7 @@
         <v/>
       </c>
       <c r="F34" s="441" t="str">
-        <f ca="1">IF(D34="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D34, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D34))</f>
+        <f ca="1">IF(D34="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D34, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D34))</f>
         <v/>
       </c>
       <c r="G34" s="404" t="str">
@@ -27608,7 +27626,7 @@
         <v/>
       </c>
       <c r="F35" s="441" t="str">
-        <f ca="1">IF(D35="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D35, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D35))</f>
+        <f ca="1">IF(D35="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D35, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D35))</f>
         <v/>
       </c>
       <c r="G35" s="404" t="str">
@@ -27637,7 +27655,7 @@
         <v/>
       </c>
       <c r="F36" s="441" t="str">
-        <f ca="1">IF(D36="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D36, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D36))</f>
+        <f ca="1">IF(D36="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D36, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D36))</f>
         <v/>
       </c>
       <c r="G36" s="404" t="str">
@@ -27666,7 +27684,7 @@
         <v/>
       </c>
       <c r="F37" s="441" t="str">
-        <f ca="1">IF(D37="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D37, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D37))</f>
+        <f ca="1">IF(D37="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D37, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D37))</f>
         <v/>
       </c>
       <c r="G37" s="404" t="str">
@@ -27695,7 +27713,7 @@
         <v/>
       </c>
       <c r="F38" s="441" t="str">
-        <f ca="1">IF(D38="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D38, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D38))</f>
+        <f ca="1">IF(D38="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D38, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D38))</f>
         <v/>
       </c>
       <c r="G38" s="404" t="str">
@@ -27724,7 +27742,7 @@
         <v/>
       </c>
       <c r="F39" s="441" t="str">
-        <f ca="1">IF(D39="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D39, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D39))</f>
+        <f ca="1">IF(D39="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D39, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D39))</f>
         <v/>
       </c>
       <c r="G39" s="404" t="str">
@@ -27753,7 +27771,7 @@
         <v/>
       </c>
       <c r="F40" s="441" t="str">
-        <f ca="1">IF(D40="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D40, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D40))</f>
+        <f ca="1">IF(D40="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D40, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D40))</f>
         <v/>
       </c>
       <c r="G40" s="404" t="str">
@@ -27782,7 +27800,7 @@
         <v/>
       </c>
       <c r="F41" s="441" t="str">
-        <f ca="1">IF(D41="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D41, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D41))</f>
+        <f ca="1">IF(D41="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D41, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D41))</f>
         <v/>
       </c>
       <c r="G41" s="404" t="str">
@@ -27811,7 +27829,7 @@
         <v/>
       </c>
       <c r="F42" s="441" t="str">
-        <f ca="1">IF(D42="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D42, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D42))</f>
+        <f ca="1">IF(D42="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D42, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D42))</f>
         <v/>
       </c>
       <c r="G42" s="404" t="str">
@@ -27840,7 +27858,7 @@
         <v/>
       </c>
       <c r="F43" s="441" t="str">
-        <f ca="1">IF(D43="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D43, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D43))</f>
+        <f ca="1">IF(D43="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D43, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D43))</f>
         <v/>
       </c>
       <c r="G43" s="404" t="str">
@@ -27869,7 +27887,7 @@
         <v/>
       </c>
       <c r="F44" s="441" t="str">
-        <f ca="1">IF(D44="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D44, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D44))</f>
+        <f ca="1">IF(D44="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D44, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D44))</f>
         <v/>
       </c>
       <c r="G44" s="404" t="str">
@@ -27898,7 +27916,7 @@
         <v/>
       </c>
       <c r="F45" s="441" t="str">
-        <f ca="1">IF(D45="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(ROUNDUP(D45, 0) / AP!$E$44 * 100,AP!$Q$4:$Q$20,-1)+4),D45))</f>
+        <f ca="1">IF(D45="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D45, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D45))</f>
         <v/>
       </c>
       <c r="G45" s="404" t="str">
@@ -27916,8 +27934,8 @@
       <c r="G46" s="123"/>
     </row>
     <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="491"/>
-      <c r="B47" s="491"/>
+      <c r="A47" s="505"/>
+      <c r="B47" s="505"/>
       <c r="C47" s="139" t="s">
         <v>85</v>
       </c>
@@ -27933,10 +27951,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="492">
+      <c r="A48" s="487">
         <v>15</v>
       </c>
-      <c r="B48" s="493"/>
+      <c r="B48" s="488"/>
       <c r="C48" s="141" t="str">
         <f>AP!E50 &amp;"-"&amp; AP!F50</f>
         <v>100-95,5</v>
@@ -27958,10 +27976,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="492">
+      <c r="A49" s="487">
         <v>14</v>
       </c>
-      <c r="B49" s="493"/>
+      <c r="B49" s="488"/>
       <c r="C49" s="141" t="str">
         <f>AP!E51 &amp;"-"&amp; AP!F51</f>
         <v>95-90,5</v>
@@ -27983,10 +28001,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="492">
+      <c r="A50" s="487">
         <v>13</v>
       </c>
-      <c r="B50" s="493"/>
+      <c r="B50" s="488"/>
       <c r="C50" s="141" t="str">
         <f>AP!E52 &amp;"-"&amp; AP!F52</f>
         <v>90-85,5</v>
@@ -28008,10 +28026,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="492">
+      <c r="A51" s="487">
         <v>12</v>
       </c>
-      <c r="B51" s="493"/>
+      <c r="B51" s="488"/>
       <c r="C51" s="141" t="str">
         <f>AP!E53 &amp;"-"&amp; AP!F53</f>
         <v>85-80,5</v>
@@ -28033,10 +28051,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="492">
+      <c r="A52" s="487">
         <v>11</v>
       </c>
-      <c r="B52" s="493"/>
+      <c r="B52" s="488"/>
       <c r="C52" s="141" t="str">
         <f>AP!E54 &amp;"-"&amp; AP!F54</f>
         <v>80-75,5</v>
@@ -28058,10 +28076,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="492">
+      <c r="A53" s="487">
         <v>10</v>
       </c>
-      <c r="B53" s="493"/>
+      <c r="B53" s="488"/>
       <c r="C53" s="141" t="str">
         <f>AP!E55 &amp;"-"&amp; AP!F55</f>
         <v>75-70,5</v>
@@ -28083,10 +28101,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="492">
+      <c r="A54" s="487">
         <v>9</v>
       </c>
-      <c r="B54" s="493"/>
+      <c r="B54" s="488"/>
       <c r="C54" s="141" t="str">
         <f>AP!E56 &amp;"-"&amp; AP!F56</f>
         <v>70-65,5</v>
@@ -28108,10 +28126,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="492">
+      <c r="A55" s="487">
         <v>8</v>
       </c>
-      <c r="B55" s="493"/>
+      <c r="B55" s="488"/>
       <c r="C55" s="141" t="str">
         <f>AP!E57 &amp;"-"&amp; AP!F57</f>
         <v>65-60,5</v>
@@ -28142,64 +28160,73 @@
       <c r="G56" s="115"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="503" t="s">
+      <c r="A57" s="498" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="504"/>
-      <c r="C57" s="504"/>
-      <c r="D57" s="504"/>
-      <c r="E57" s="504"/>
-      <c r="F57" s="504"/>
-      <c r="G57" s="505"/>
+      <c r="B57" s="499"/>
+      <c r="C57" s="499"/>
+      <c r="D57" s="499"/>
+      <c r="E57" s="499"/>
+      <c r="F57" s="499"/>
+      <c r="G57" s="500"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="494" t="e">
+      <c r="A58" s="489" t="e">
         <f ca="1">AVERAGE(E11:E45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B58" s="495"/>
-      <c r="C58" s="495"/>
-      <c r="D58" s="495"/>
-      <c r="E58" s="495"/>
-      <c r="F58" s="495"/>
-      <c r="G58" s="496"/>
+      <c r="B58" s="490"/>
+      <c r="C58" s="490"/>
+      <c r="D58" s="490"/>
+      <c r="E58" s="490"/>
+      <c r="F58" s="490"/>
+      <c r="G58" s="491"/>
     </row>
     <row r="60" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="500" t="s">
+      <c r="A60" s="495" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="501"/>
-      <c r="C60" s="501"/>
-      <c r="D60" s="501"/>
-      <c r="E60" s="501"/>
-      <c r="F60" s="501"/>
-      <c r="G60" s="502"/>
+      <c r="B60" s="496"/>
+      <c r="C60" s="496"/>
+      <c r="D60" s="496"/>
+      <c r="E60" s="496"/>
+      <c r="F60" s="496"/>
+      <c r="G60" s="497"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="114"/>
-      <c r="B65" s="499"/>
-      <c r="C65" s="499"/>
+      <c r="B65" s="494"/>
+      <c r="C65" s="494"/>
       <c r="D65" s="112"/>
       <c r="E65" s="112"/>
-      <c r="F65" s="498"/>
-      <c r="G65" s="498"/>
+      <c r="F65" s="493"/>
+      <c r="G65" s="493"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="112"/>
-      <c r="B66" s="497" t="s">
+      <c r="B66" s="492" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="497"/>
+      <c r="C66" s="492"/>
       <c r="D66" s="112"/>
       <c r="E66" s="113"/>
-      <c r="F66" s="497" t="s">
+      <c r="F66" s="492" t="s">
         <v>80</v>
       </c>
-      <c r="G66" s="497"/>
+      <c r="G66" s="492"/>
     </row>
   </sheetData>
   <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="18">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A58:G58"/>
@@ -28209,15 +28236,6 @@
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.35433070866141736" top="0.39" bottom="0.52" header="0.19" footer="0.45"/>
@@ -31567,20 +31585,20 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="99" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33939,66 +33957,66 @@
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="279"/>
       <c r="B6" s="285"/>
-      <c r="C6" s="533" t="s">
+      <c r="C6" s="545" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="534"/>
-      <c r="E6" s="534"/>
-      <c r="F6" s="534"/>
-      <c r="G6" s="534"/>
-      <c r="H6" s="534"/>
-      <c r="I6" s="534"/>
-      <c r="J6" s="534"/>
-      <c r="K6" s="534"/>
-      <c r="L6" s="534"/>
-      <c r="M6" s="534"/>
-      <c r="N6" s="534"/>
-      <c r="O6" s="534"/>
-      <c r="P6" s="534"/>
-      <c r="Q6" s="534"/>
-      <c r="R6" s="535"/>
-      <c r="S6" s="533" t="s">
+      <c r="D6" s="546"/>
+      <c r="E6" s="546"/>
+      <c r="F6" s="546"/>
+      <c r="G6" s="546"/>
+      <c r="H6" s="546"/>
+      <c r="I6" s="546"/>
+      <c r="J6" s="546"/>
+      <c r="K6" s="546"/>
+      <c r="L6" s="546"/>
+      <c r="M6" s="546"/>
+      <c r="N6" s="546"/>
+      <c r="O6" s="546"/>
+      <c r="P6" s="546"/>
+      <c r="Q6" s="546"/>
+      <c r="R6" s="547"/>
+      <c r="S6" s="545" t="s">
         <v>130</v>
       </c>
-      <c r="T6" s="534"/>
-      <c r="U6" s="534"/>
-      <c r="V6" s="534"/>
-      <c r="W6" s="534"/>
-      <c r="X6" s="535"/>
-      <c r="Y6" s="536" t="s">
+      <c r="T6" s="546"/>
+      <c r="U6" s="546"/>
+      <c r="V6" s="546"/>
+      <c r="W6" s="546"/>
+      <c r="X6" s="547"/>
+      <c r="Y6" s="548" t="s">
         <v>131</v>
       </c>
-      <c r="Z6" s="537"/>
+      <c r="Z6" s="549"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="285"/>
       <c r="B7" s="285"/>
-      <c r="C7" s="538" t="s">
+      <c r="C7" s="550" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="523"/>
-      <c r="E7" s="523"/>
-      <c r="F7" s="523"/>
-      <c r="G7" s="523"/>
-      <c r="H7" s="523"/>
-      <c r="I7" s="523"/>
-      <c r="J7" s="539"/>
-      <c r="K7" s="522" t="s">
+      <c r="D7" s="541"/>
+      <c r="E7" s="541"/>
+      <c r="F7" s="541"/>
+      <c r="G7" s="541"/>
+      <c r="H7" s="541"/>
+      <c r="I7" s="541"/>
+      <c r="J7" s="551"/>
+      <c r="K7" s="540" t="s">
         <v>133</v>
       </c>
-      <c r="L7" s="523"/>
-      <c r="M7" s="523"/>
-      <c r="N7" s="523"/>
-      <c r="O7" s="523"/>
-      <c r="P7" s="539"/>
+      <c r="L7" s="541"/>
+      <c r="M7" s="541"/>
+      <c r="N7" s="541"/>
+      <c r="O7" s="541"/>
+      <c r="P7" s="551"/>
       <c r="Q7" s="290"/>
       <c r="R7" s="291"/>
-      <c r="S7" s="540" t="s">
+      <c r="S7" s="552" t="s">
         <v>134</v>
       </c>
-      <c r="T7" s="525"/>
-      <c r="U7" s="525"/>
-      <c r="V7" s="526"/>
+      <c r="T7" s="543"/>
+      <c r="U7" s="543"/>
+      <c r="V7" s="544"/>
       <c r="W7" s="292"/>
       <c r="X7" s="291"/>
       <c r="Y7" s="293"/>
@@ -34029,15 +34047,15 @@
         <v>135</v>
       </c>
       <c r="J8" s="299"/>
-      <c r="K8" s="522" t="s">
+      <c r="K8" s="540" t="s">
         <v>136</v>
       </c>
-      <c r="L8" s="523"/>
-      <c r="M8" s="524" t="s">
+      <c r="L8" s="541"/>
+      <c r="M8" s="542" t="s">
         <v>137</v>
       </c>
-      <c r="N8" s="525"/>
-      <c r="O8" s="526"/>
+      <c r="N8" s="543"/>
+      <c r="O8" s="544"/>
       <c r="P8" s="299"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="291"/>
@@ -34191,10 +34209,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="527">
+      <c r="A11" s="526">
         <v>1</v>
       </c>
-      <c r="B11" s="527" t="str">
+      <c r="B11" s="526" t="str">
         <f>IF('1. Halbjahr'!B4&lt;&gt;"", '1. Halbjahr'!B4, "")</f>
         <v/>
       </c>
@@ -34226,18 +34244,18 @@
         <f ca="1">IF(Q11="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q11/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q11))</f>
         <v/>
       </c>
-      <c r="S11" s="529"/>
-      <c r="T11" s="531"/>
-      <c r="U11" s="541"/>
-      <c r="V11" s="543" t="str">
+      <c r="S11" s="528"/>
+      <c r="T11" s="530"/>
+      <c r="U11" s="532"/>
+      <c r="V11" s="534" t="str">
         <f>IF(B11="","",SUM(S11:U11))</f>
         <v/>
       </c>
-      <c r="W11" s="545" t="str">
+      <c r="W11" s="522" t="str">
         <f>IF(B11="","",IF(ISBLANK(S11),"",IF(AVERAGE(S11:U11)&lt;10,LEFT(AVERAGE(S11:U11),4),LEFT(AVERAGE(S11:U11),5))))</f>
         <v/>
       </c>
-      <c r="X11" s="547" t="str">
+      <c r="X11" s="524" t="str">
         <f>IF(B11="","",IF(W11="","",IF(LEFT(W11,1)="0",0,ROUND(W11,0))))</f>
         <v/>
       </c>
@@ -34252,8 +34270,8 @@
       <c r="AB11" s="336"/>
     </row>
     <row r="12" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="528"/>
-      <c r="B12" s="528"/>
+      <c r="A12" s="527"/>
+      <c r="B12" s="527"/>
       <c r="C12" s="337"/>
       <c r="D12" s="337"/>
       <c r="E12" s="337"/>
@@ -34282,12 +34300,12 @@
         <f ca="1">IF(Q12="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q12/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q12))</f>
         <v/>
       </c>
-      <c r="S12" s="530"/>
-      <c r="T12" s="532"/>
-      <c r="U12" s="542"/>
-      <c r="V12" s="544"/>
-      <c r="W12" s="546"/>
-      <c r="X12" s="548"/>
+      <c r="S12" s="529"/>
+      <c r="T12" s="531"/>
+      <c r="U12" s="533"/>
+      <c r="V12" s="535"/>
+      <c r="W12" s="523"/>
+      <c r="X12" s="525"/>
       <c r="Y12" s="343" t="str">
         <f>IF(B11="","",ROUNDUP(AVERAGE(R12,R12,X11),2))</f>
         <v/>
@@ -34298,10 +34316,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="527">
+      <c r="A13" s="526">
         <v>2</v>
       </c>
-      <c r="B13" s="527" t="str">
+      <c r="B13" s="526" t="str">
         <f>IF('1. Halbjahr'!B5&lt;&gt;"", '1. Halbjahr'!B5, "")</f>
         <v/>
       </c>
@@ -34333,18 +34351,18 @@
         <f ca="1">IF(Q13="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q13/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q13))</f>
         <v/>
       </c>
-      <c r="S13" s="529"/>
-      <c r="T13" s="531"/>
-      <c r="U13" s="541"/>
-      <c r="V13" s="543" t="str">
+      <c r="S13" s="528"/>
+      <c r="T13" s="530"/>
+      <c r="U13" s="532"/>
+      <c r="V13" s="534" t="str">
         <f>IF(B13="","",SUM(S13:U13))</f>
         <v/>
       </c>
-      <c r="W13" s="545" t="str">
+      <c r="W13" s="522" t="str">
         <f>IF(B13="","",IF(ISBLANK(S13),"",IF(AVERAGE(S13:U13)&lt;10,LEFT(AVERAGE(S13:U13),4),LEFT(AVERAGE(S13:U13),5))))</f>
         <v/>
       </c>
-      <c r="X13" s="547" t="str">
+      <c r="X13" s="524" t="str">
         <f>IF(B13="","",IF(W13="","",IF(LEFT(W13,1)="0",0,ROUND(W13,0))))</f>
         <v/>
       </c>
@@ -34359,8 +34377,8 @@
       <c r="AA13" s="347"/>
     </row>
     <row r="14" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="528"/>
-      <c r="B14" s="528"/>
+      <c r="A14" s="527"/>
+      <c r="B14" s="527"/>
       <c r="C14" s="348"/>
       <c r="D14" s="337"/>
       <c r="E14" s="337"/>
@@ -34389,12 +34407,12 @@
         <f ca="1">IF(Q14="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q14/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q14))</f>
         <v/>
       </c>
-      <c r="S14" s="530"/>
-      <c r="T14" s="532"/>
-      <c r="U14" s="542"/>
-      <c r="V14" s="544"/>
-      <c r="W14" s="546"/>
-      <c r="X14" s="548"/>
+      <c r="S14" s="529"/>
+      <c r="T14" s="531"/>
+      <c r="U14" s="533"/>
+      <c r="V14" s="535"/>
+      <c r="W14" s="523"/>
+      <c r="X14" s="525"/>
       <c r="Y14" s="343" t="str">
         <f>IF(B13="","",ROUNDUP(AVERAGE(R14,R14,X13),2))</f>
         <v/>
@@ -34405,10 +34423,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="527">
+      <c r="A15" s="526">
         <v>3</v>
       </c>
-      <c r="B15" s="527" t="str">
+      <c r="B15" s="526" t="str">
         <f>IF('1. Halbjahr'!B6&lt;&gt;"", '1. Halbjahr'!B6, "")</f>
         <v/>
       </c>
@@ -34440,18 +34458,18 @@
         <f ca="1">IF(Q15="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q15/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q15))</f>
         <v/>
       </c>
-      <c r="S15" s="529"/>
-      <c r="T15" s="531"/>
-      <c r="U15" s="541"/>
-      <c r="V15" s="543" t="str">
+      <c r="S15" s="528"/>
+      <c r="T15" s="530"/>
+      <c r="U15" s="532"/>
+      <c r="V15" s="534" t="str">
         <f>IF(B15="","",SUM(S15:U15))</f>
         <v/>
       </c>
-      <c r="W15" s="545" t="str">
+      <c r="W15" s="522" t="str">
         <f>IF(B15="","",IF(ISBLANK(S15),"",IF(AVERAGE(S15:U15)&lt;10,LEFT(AVERAGE(S15:U15),4),LEFT(AVERAGE(S15:U15),5))))</f>
         <v/>
       </c>
-      <c r="X15" s="547" t="str">
+      <c r="X15" s="524" t="str">
         <f>IF(B15="","",IF(W15="","",IF(LEFT(W15,1)="0",0,ROUND(W15,0))))</f>
         <v/>
       </c>
@@ -34465,8 +34483,8 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="528"/>
-      <c r="B16" s="528"/>
+      <c r="A16" s="527"/>
+      <c r="B16" s="527"/>
       <c r="C16" s="348"/>
       <c r="D16" s="337"/>
       <c r="E16" s="337"/>
@@ -34495,12 +34513,12 @@
         <f ca="1">IF(Q16="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q16/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q16))</f>
         <v/>
       </c>
-      <c r="S16" s="530"/>
-      <c r="T16" s="532"/>
-      <c r="U16" s="542"/>
-      <c r="V16" s="544"/>
-      <c r="W16" s="546"/>
-      <c r="X16" s="548"/>
+      <c r="S16" s="529"/>
+      <c r="T16" s="531"/>
+      <c r="U16" s="533"/>
+      <c r="V16" s="535"/>
+      <c r="W16" s="523"/>
+      <c r="X16" s="525"/>
       <c r="Y16" s="343" t="str">
         <f>IF(B15="","",ROUNDUP(AVERAGE(R16,R16,X15),2))</f>
         <v/>
@@ -34511,10 +34529,10 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="527">
+      <c r="A17" s="526">
         <v>4</v>
       </c>
-      <c r="B17" s="527" t="str">
+      <c r="B17" s="526" t="str">
         <f>IF('1. Halbjahr'!B7&lt;&gt;"", '1. Halbjahr'!B7, "")</f>
         <v/>
       </c>
@@ -34546,18 +34564,18 @@
         <f ca="1">IF(Q17="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q17/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q17))</f>
         <v/>
       </c>
-      <c r="S17" s="529"/>
-      <c r="T17" s="531"/>
-      <c r="U17" s="541"/>
-      <c r="V17" s="543" t="str">
+      <c r="S17" s="528"/>
+      <c r="T17" s="530"/>
+      <c r="U17" s="532"/>
+      <c r="V17" s="534" t="str">
         <f>IF(B17="","",SUM(S17:U17))</f>
         <v/>
       </c>
-      <c r="W17" s="545" t="str">
+      <c r="W17" s="522" t="str">
         <f>IF(B17="","",IF(ISBLANK(S17),"",IF(AVERAGE(S17:U17)&lt;10,LEFT(AVERAGE(S17:U17),4),LEFT(AVERAGE(S17:U17),5))))</f>
         <v/>
       </c>
-      <c r="X17" s="547" t="str">
+      <c r="X17" s="524" t="str">
         <f>IF(B17="","",IF(W17="","",IF(LEFT(W17,1)="0",0,ROUND(W17,0))))</f>
         <v/>
       </c>
@@ -34571,8 +34589,8 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="528"/>
-      <c r="B18" s="528"/>
+      <c r="A18" s="527"/>
+      <c r="B18" s="527"/>
       <c r="C18" s="348"/>
       <c r="D18" s="337"/>
       <c r="E18" s="337"/>
@@ -34601,12 +34619,12 @@
         <f ca="1">IF(Q18="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q18/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q18))</f>
         <v/>
       </c>
-      <c r="S18" s="530"/>
-      <c r="T18" s="532"/>
-      <c r="U18" s="542"/>
-      <c r="V18" s="544"/>
-      <c r="W18" s="546"/>
-      <c r="X18" s="548"/>
+      <c r="S18" s="529"/>
+      <c r="T18" s="531"/>
+      <c r="U18" s="533"/>
+      <c r="V18" s="535"/>
+      <c r="W18" s="523"/>
+      <c r="X18" s="525"/>
       <c r="Y18" s="343" t="str">
         <f>IF(B17="","",ROUNDUP(AVERAGE(R18,R18,X17),2))</f>
         <v/>
@@ -34617,10 +34635,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="527">
+      <c r="A19" s="526">
         <v>5</v>
       </c>
-      <c r="B19" s="527" t="str">
+      <c r="B19" s="526" t="str">
         <f>IF('1. Halbjahr'!B8&lt;&gt;"", '1. Halbjahr'!B8, "")</f>
         <v/>
       </c>
@@ -34652,18 +34670,18 @@
         <f ca="1">IF(Q19="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q19/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q19))</f>
         <v/>
       </c>
-      <c r="S19" s="529"/>
-      <c r="T19" s="531"/>
-      <c r="U19" s="541"/>
-      <c r="V19" s="543" t="str">
+      <c r="S19" s="528"/>
+      <c r="T19" s="530"/>
+      <c r="U19" s="532"/>
+      <c r="V19" s="534" t="str">
         <f>IF(B19="","",SUM(S19:U19))</f>
         <v/>
       </c>
-      <c r="W19" s="545" t="str">
+      <c r="W19" s="522" t="str">
         <f>IF(B19="","",IF(ISBLANK(S19),"",IF(AVERAGE(S19:U19)&lt;10,LEFT(AVERAGE(S19:U19),4),LEFT(AVERAGE(S19:U19),5))))</f>
         <v/>
       </c>
-      <c r="X19" s="547" t="str">
+      <c r="X19" s="524" t="str">
         <f>IF(B19="","",IF(W19="","",IF(LEFT(W19,1)="0",0,ROUND(W19,0))))</f>
         <v/>
       </c>
@@ -34677,8 +34695,8 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="528"/>
-      <c r="B20" s="528"/>
+      <c r="A20" s="527"/>
+      <c r="B20" s="527"/>
       <c r="C20" s="348"/>
       <c r="D20" s="337"/>
       <c r="E20" s="337"/>
@@ -34707,12 +34725,12 @@
         <f ca="1">IF(Q20="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q20/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q20))</f>
         <v/>
       </c>
-      <c r="S20" s="530"/>
-      <c r="T20" s="532"/>
-      <c r="U20" s="542"/>
-      <c r="V20" s="544"/>
-      <c r="W20" s="546"/>
-      <c r="X20" s="548"/>
+      <c r="S20" s="529"/>
+      <c r="T20" s="531"/>
+      <c r="U20" s="533"/>
+      <c r="V20" s="535"/>
+      <c r="W20" s="523"/>
+      <c r="X20" s="525"/>
       <c r="Y20" s="343" t="str">
         <f>IF(B19="","",ROUNDUP(AVERAGE(R20,R20,X19),2))</f>
         <v/>
@@ -34723,10 +34741,10 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="527">
+      <c r="A21" s="526">
         <v>6</v>
       </c>
-      <c r="B21" s="527" t="str">
+      <c r="B21" s="526" t="str">
         <f>IF('1. Halbjahr'!B9&lt;&gt;"", '1. Halbjahr'!B9, "")</f>
         <v/>
       </c>
@@ -34758,18 +34776,18 @@
         <f ca="1">IF(Q21="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q21/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q21))</f>
         <v/>
       </c>
-      <c r="S21" s="529"/>
-      <c r="T21" s="531"/>
-      <c r="U21" s="541"/>
-      <c r="V21" s="543" t="str">
+      <c r="S21" s="528"/>
+      <c r="T21" s="530"/>
+      <c r="U21" s="532"/>
+      <c r="V21" s="534" t="str">
         <f>IF(B21="","",SUM(S21:U21))</f>
         <v/>
       </c>
-      <c r="W21" s="545" t="str">
+      <c r="W21" s="522" t="str">
         <f>IF(B21="","",IF(ISBLANK(S21),"",IF(AVERAGE(S21:U21)&lt;10,LEFT(AVERAGE(S21:U21),4),LEFT(AVERAGE(S21:U21),5))))</f>
         <v/>
       </c>
-      <c r="X21" s="547" t="str">
+      <c r="X21" s="524" t="str">
         <f>IF(B21="","",IF(W21="","",IF(LEFT(W21,1)="0",0,ROUND(W21,0))))</f>
         <v/>
       </c>
@@ -34783,8 +34801,8 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="528"/>
-      <c r="B22" s="528"/>
+      <c r="A22" s="527"/>
+      <c r="B22" s="527"/>
       <c r="C22" s="348"/>
       <c r="D22" s="337"/>
       <c r="E22" s="337"/>
@@ -34813,12 +34831,12 @@
         <f ca="1">IF(Q22="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q22/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q22))</f>
         <v/>
       </c>
-      <c r="S22" s="530"/>
-      <c r="T22" s="532"/>
-      <c r="U22" s="542"/>
-      <c r="V22" s="544"/>
-      <c r="W22" s="546"/>
-      <c r="X22" s="548"/>
+      <c r="S22" s="529"/>
+      <c r="T22" s="531"/>
+      <c r="U22" s="533"/>
+      <c r="V22" s="535"/>
+      <c r="W22" s="523"/>
+      <c r="X22" s="525"/>
       <c r="Y22" s="343" t="str">
         <f>IF(B21="","",ROUNDUP(AVERAGE(R22,R22,X21),2))</f>
         <v/>
@@ -34829,10 +34847,10 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="527">
+      <c r="A23" s="526">
         <v>7</v>
       </c>
-      <c r="B23" s="527" t="str">
+      <c r="B23" s="526" t="str">
         <f>IF('1. Halbjahr'!B10&lt;&gt;"", '1. Halbjahr'!B10, "")</f>
         <v/>
       </c>
@@ -34864,18 +34882,18 @@
         <f ca="1">IF(Q23="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q23/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q23))</f>
         <v/>
       </c>
-      <c r="S23" s="529"/>
-      <c r="T23" s="531"/>
-      <c r="U23" s="541"/>
-      <c r="V23" s="543" t="str">
+      <c r="S23" s="528"/>
+      <c r="T23" s="530"/>
+      <c r="U23" s="532"/>
+      <c r="V23" s="534" t="str">
         <f>IF(B23="","",SUM(S23:U23))</f>
         <v/>
       </c>
-      <c r="W23" s="545" t="str">
+      <c r="W23" s="522" t="str">
         <f>IF(B23="","",IF(ISBLANK(S23),"",IF(AVERAGE(S23:U23)&lt;10,LEFT(AVERAGE(S23:U23),4),LEFT(AVERAGE(S23:U23),5))))</f>
         <v/>
       </c>
-      <c r="X23" s="547" t="str">
+      <c r="X23" s="524" t="str">
         <f>IF(B23="","",IF(W23="","",IF(LEFT(W23,1)="0",0,ROUND(W23,0))))</f>
         <v/>
       </c>
@@ -34889,8 +34907,8 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="528"/>
-      <c r="B24" s="528"/>
+      <c r="A24" s="527"/>
+      <c r="B24" s="527"/>
       <c r="C24" s="348"/>
       <c r="D24" s="337"/>
       <c r="E24" s="337"/>
@@ -34919,12 +34937,12 @@
         <f ca="1">IF(Q24="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q24/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q24))</f>
         <v/>
       </c>
-      <c r="S24" s="530"/>
-      <c r="T24" s="532"/>
-      <c r="U24" s="542"/>
-      <c r="V24" s="544"/>
-      <c r="W24" s="546"/>
-      <c r="X24" s="548"/>
+      <c r="S24" s="529"/>
+      <c r="T24" s="531"/>
+      <c r="U24" s="533"/>
+      <c r="V24" s="535"/>
+      <c r="W24" s="523"/>
+      <c r="X24" s="525"/>
       <c r="Y24" s="343" t="str">
         <f>IF(B23="","",ROUNDUP(AVERAGE(R24,R24,X23),2))</f>
         <v/>
@@ -34935,10 +34953,10 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="527">
+      <c r="A25" s="526">
         <v>8</v>
       </c>
-      <c r="B25" s="527" t="str">
+      <c r="B25" s="526" t="str">
         <f>IF('1. Halbjahr'!B11&lt;&gt;"", '1. Halbjahr'!B11, "")</f>
         <v/>
       </c>
@@ -34970,18 +34988,18 @@
         <f ca="1">IF(Q25="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q25/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q25))</f>
         <v/>
       </c>
-      <c r="S25" s="529"/>
-      <c r="T25" s="531"/>
-      <c r="U25" s="541"/>
-      <c r="V25" s="543" t="str">
+      <c r="S25" s="528"/>
+      <c r="T25" s="530"/>
+      <c r="U25" s="532"/>
+      <c r="V25" s="534" t="str">
         <f>IF(B25="","",SUM(S25:U25))</f>
         <v/>
       </c>
-      <c r="W25" s="545" t="str">
+      <c r="W25" s="522" t="str">
         <f>IF(B25="","",IF(ISBLANK(S25),"",IF(AVERAGE(S25:U25)&lt;10,LEFT(AVERAGE(S25:U25),4),LEFT(AVERAGE(S25:U25),5))))</f>
         <v/>
       </c>
-      <c r="X25" s="547" t="str">
+      <c r="X25" s="524" t="str">
         <f>IF(B25="","",IF(W25="","",IF(LEFT(W25,1)="0",0,ROUND(W25,0))))</f>
         <v/>
       </c>
@@ -34995,8 +35013,8 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="528"/>
-      <c r="B26" s="528"/>
+      <c r="A26" s="527"/>
+      <c r="B26" s="527"/>
       <c r="C26" s="348"/>
       <c r="D26" s="337"/>
       <c r="E26" s="337"/>
@@ -35025,12 +35043,12 @@
         <f ca="1">IF(Q26="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q26/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q26))</f>
         <v/>
       </c>
-      <c r="S26" s="530"/>
-      <c r="T26" s="532"/>
-      <c r="U26" s="542"/>
-      <c r="V26" s="544"/>
-      <c r="W26" s="546"/>
-      <c r="X26" s="548"/>
+      <c r="S26" s="529"/>
+      <c r="T26" s="531"/>
+      <c r="U26" s="533"/>
+      <c r="V26" s="535"/>
+      <c r="W26" s="523"/>
+      <c r="X26" s="525"/>
       <c r="Y26" s="343" t="str">
         <f>IF(B25="","",ROUNDUP(AVERAGE(R26,R26,X25),2))</f>
         <v/>
@@ -35041,10 +35059,10 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="527">
+      <c r="A27" s="526">
         <v>9</v>
       </c>
-      <c r="B27" s="527" t="str">
+      <c r="B27" s="526" t="str">
         <f>IF('1. Halbjahr'!B12&lt;&gt;"", '1. Halbjahr'!B12, "")</f>
         <v/>
       </c>
@@ -35076,18 +35094,18 @@
         <f ca="1">IF(Q27="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q27/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q27))</f>
         <v/>
       </c>
-      <c r="S27" s="529"/>
-      <c r="T27" s="531"/>
-      <c r="U27" s="541"/>
-      <c r="V27" s="543" t="str">
+      <c r="S27" s="528"/>
+      <c r="T27" s="530"/>
+      <c r="U27" s="532"/>
+      <c r="V27" s="534" t="str">
         <f>IF(B27="","",SUM(S27:U27))</f>
         <v/>
       </c>
-      <c r="W27" s="545" t="str">
+      <c r="W27" s="522" t="str">
         <f>IF(B27="","",IF(ISBLANK(S27),"",IF(AVERAGE(S27:U27)&lt;10,LEFT(AVERAGE(S27:U27),4),LEFT(AVERAGE(S27:U27),5))))</f>
         <v/>
       </c>
-      <c r="X27" s="547" t="str">
+      <c r="X27" s="524" t="str">
         <f>IF(B27="","",IF(W27="","",IF(LEFT(W27,1)="0",0,ROUND(W27,0))))</f>
         <v/>
       </c>
@@ -35101,8 +35119,8 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="528"/>
-      <c r="B28" s="528"/>
+      <c r="A28" s="527"/>
+      <c r="B28" s="527"/>
       <c r="C28" s="348"/>
       <c r="D28" s="337"/>
       <c r="E28" s="337"/>
@@ -35131,12 +35149,12 @@
         <f ca="1">IF(Q28="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q28/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q28))</f>
         <v/>
       </c>
-      <c r="S28" s="530"/>
-      <c r="T28" s="532"/>
-      <c r="U28" s="542"/>
-      <c r="V28" s="544"/>
-      <c r="W28" s="546"/>
-      <c r="X28" s="548"/>
+      <c r="S28" s="529"/>
+      <c r="T28" s="531"/>
+      <c r="U28" s="533"/>
+      <c r="V28" s="535"/>
+      <c r="W28" s="523"/>
+      <c r="X28" s="525"/>
       <c r="Y28" s="343" t="str">
         <f>IF(B27="","",ROUNDUP(AVERAGE(R28,R28,X27),2))</f>
         <v/>
@@ -35147,10 +35165,10 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="527">
+      <c r="A29" s="526">
         <v>10</v>
       </c>
-      <c r="B29" s="527" t="str">
+      <c r="B29" s="526" t="str">
         <f>IF('1. Halbjahr'!B13&lt;&gt;"", '1. Halbjahr'!B13, "")</f>
         <v/>
       </c>
@@ -35182,18 +35200,18 @@
         <f ca="1">IF(Q29="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q29/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q29))</f>
         <v/>
       </c>
-      <c r="S29" s="529"/>
-      <c r="T29" s="531"/>
-      <c r="U29" s="541"/>
-      <c r="V29" s="543" t="str">
+      <c r="S29" s="528"/>
+      <c r="T29" s="530"/>
+      <c r="U29" s="532"/>
+      <c r="V29" s="534" t="str">
         <f>IF(B29="","",SUM(S29:U29))</f>
         <v/>
       </c>
-      <c r="W29" s="545" t="str">
+      <c r="W29" s="522" t="str">
         <f>IF(B29="","",IF(ISBLANK(S29),"",IF(AVERAGE(S29:U29)&lt;10,LEFT(AVERAGE(S29:U29),4),LEFT(AVERAGE(S29:U29),5))))</f>
         <v/>
       </c>
-      <c r="X29" s="547" t="str">
+      <c r="X29" s="524" t="str">
         <f>IF(B29="","",IF(W29="","",IF(LEFT(W29,1)="0",0,ROUND(W29,0))))</f>
         <v/>
       </c>
@@ -35207,8 +35225,8 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="528"/>
-      <c r="B30" s="528"/>
+      <c r="A30" s="527"/>
+      <c r="B30" s="527"/>
       <c r="C30" s="348"/>
       <c r="D30" s="337"/>
       <c r="E30" s="337"/>
@@ -35237,12 +35255,12 @@
         <f ca="1">IF(Q30="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q30/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q30))</f>
         <v/>
       </c>
-      <c r="S30" s="530"/>
-      <c r="T30" s="532"/>
-      <c r="U30" s="542"/>
-      <c r="V30" s="544"/>
-      <c r="W30" s="546"/>
-      <c r="X30" s="548"/>
+      <c r="S30" s="529"/>
+      <c r="T30" s="531"/>
+      <c r="U30" s="533"/>
+      <c r="V30" s="535"/>
+      <c r="W30" s="523"/>
+      <c r="X30" s="525"/>
       <c r="Y30" s="343" t="str">
         <f>IF(B29="","",ROUNDUP(AVERAGE(R30,R30,X29),2))</f>
         <v/>
@@ -35253,10 +35271,10 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="527">
+      <c r="A31" s="526">
         <v>11</v>
       </c>
-      <c r="B31" s="527" t="str">
+      <c r="B31" s="526" t="str">
         <f>IF('1. Halbjahr'!B14&lt;&gt;"", '1. Halbjahr'!B14, "")</f>
         <v/>
       </c>
@@ -35288,18 +35306,18 @@
         <f ca="1">IF(Q31="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q31/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q31))</f>
         <v/>
       </c>
-      <c r="S31" s="529"/>
-      <c r="T31" s="531"/>
-      <c r="U31" s="541"/>
-      <c r="V31" s="543" t="str">
+      <c r="S31" s="528"/>
+      <c r="T31" s="530"/>
+      <c r="U31" s="532"/>
+      <c r="V31" s="534" t="str">
         <f>IF(B31="","",SUM(S31:U31))</f>
         <v/>
       </c>
-      <c r="W31" s="545" t="str">
+      <c r="W31" s="522" t="str">
         <f>IF(B31="","",IF(ISBLANK(S31),"",IF(AVERAGE(S31:U31)&lt;10,LEFT(AVERAGE(S31:U31),4),LEFT(AVERAGE(S31:U31),5))))</f>
         <v/>
       </c>
-      <c r="X31" s="547" t="str">
+      <c r="X31" s="524" t="str">
         <f>IF(B31="","",IF(W31="","",IF(LEFT(W31,1)="0",0,ROUND(W31,0))))</f>
         <v/>
       </c>
@@ -35313,8 +35331,8 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="528"/>
-      <c r="B32" s="528"/>
+      <c r="A32" s="527"/>
+      <c r="B32" s="527"/>
       <c r="C32" s="348"/>
       <c r="D32" s="337"/>
       <c r="E32" s="337"/>
@@ -35343,12 +35361,12 @@
         <f ca="1">IF(Q32="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q32/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q32))</f>
         <v/>
       </c>
-      <c r="S32" s="530"/>
-      <c r="T32" s="532"/>
-      <c r="U32" s="542"/>
-      <c r="V32" s="544"/>
-      <c r="W32" s="546"/>
-      <c r="X32" s="548"/>
+      <c r="S32" s="529"/>
+      <c r="T32" s="531"/>
+      <c r="U32" s="533"/>
+      <c r="V32" s="535"/>
+      <c r="W32" s="523"/>
+      <c r="X32" s="525"/>
       <c r="Y32" s="343" t="str">
         <f>IF(B31="","",ROUNDUP(AVERAGE(R32,R32,X31),2))</f>
         <v/>
@@ -35359,10 +35377,10 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="527">
+      <c r="A33" s="526">
         <v>12</v>
       </c>
-      <c r="B33" s="527" t="str">
+      <c r="B33" s="526" t="str">
         <f>IF('1. Halbjahr'!B15&lt;&gt;"", '1. Halbjahr'!B15, "")</f>
         <v/>
       </c>
@@ -35394,18 +35412,18 @@
         <f ca="1">IF(Q33="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q33/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q33))</f>
         <v/>
       </c>
-      <c r="S33" s="529"/>
-      <c r="T33" s="531"/>
-      <c r="U33" s="541"/>
-      <c r="V33" s="543" t="str">
+      <c r="S33" s="528"/>
+      <c r="T33" s="530"/>
+      <c r="U33" s="532"/>
+      <c r="V33" s="534" t="str">
         <f>IF(B33="","",SUM(S33:U33))</f>
         <v/>
       </c>
-      <c r="W33" s="545" t="str">
+      <c r="W33" s="522" t="str">
         <f>IF(B33="","",IF(ISBLANK(S33),"",IF(AVERAGE(S33:U33)&lt;10,LEFT(AVERAGE(S33:U33),4),LEFT(AVERAGE(S33:U33),5))))</f>
         <v/>
       </c>
-      <c r="X33" s="547" t="str">
+      <c r="X33" s="524" t="str">
         <f>IF(B33="","",IF(W33="","",IF(LEFT(W33,1)="0",0,ROUND(W33,0))))</f>
         <v/>
       </c>
@@ -35419,8 +35437,8 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="528"/>
-      <c r="B34" s="528"/>
+      <c r="A34" s="527"/>
+      <c r="B34" s="527"/>
       <c r="C34" s="348"/>
       <c r="D34" s="337"/>
       <c r="E34" s="337"/>
@@ -35449,12 +35467,12 @@
         <f ca="1">IF(Q34="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q34/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q34))</f>
         <v/>
       </c>
-      <c r="S34" s="530"/>
-      <c r="T34" s="532"/>
-      <c r="U34" s="542"/>
-      <c r="V34" s="544"/>
-      <c r="W34" s="546"/>
-      <c r="X34" s="548"/>
+      <c r="S34" s="529"/>
+      <c r="T34" s="531"/>
+      <c r="U34" s="533"/>
+      <c r="V34" s="535"/>
+      <c r="W34" s="523"/>
+      <c r="X34" s="525"/>
       <c r="Y34" s="343" t="str">
         <f>IF(B33="","",ROUNDUP(AVERAGE(R34,R34,X33),2))</f>
         <v/>
@@ -35465,10 +35483,10 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="527">
+      <c r="A35" s="526">
         <v>13</v>
       </c>
-      <c r="B35" s="527" t="str">
+      <c r="B35" s="526" t="str">
         <f>IF('1. Halbjahr'!B16&lt;&gt;"", '1. Halbjahr'!B16, "")</f>
         <v/>
       </c>
@@ -35500,18 +35518,18 @@
         <f ca="1">IF(Q35="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q35/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q35))</f>
         <v/>
       </c>
-      <c r="S35" s="529"/>
-      <c r="T35" s="531"/>
-      <c r="U35" s="541"/>
-      <c r="V35" s="543" t="str">
+      <c r="S35" s="528"/>
+      <c r="T35" s="530"/>
+      <c r="U35" s="532"/>
+      <c r="V35" s="534" t="str">
         <f>IF(B35="","",SUM(S35:U35))</f>
         <v/>
       </c>
-      <c r="W35" s="545" t="str">
+      <c r="W35" s="522" t="str">
         <f>IF(B35="","",IF(ISBLANK(S35),"",IF(AVERAGE(S35:U35)&lt;10,LEFT(AVERAGE(S35:U35),4),LEFT(AVERAGE(S35:U35),5))))</f>
         <v/>
       </c>
-      <c r="X35" s="547" t="str">
+      <c r="X35" s="524" t="str">
         <f>IF(B35="","",IF(W35="","",IF(LEFT(W35,1)="0",0,ROUND(W35,0))))</f>
         <v/>
       </c>
@@ -35525,8 +35543,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="528"/>
-      <c r="B36" s="528"/>
+      <c r="A36" s="527"/>
+      <c r="B36" s="527"/>
       <c r="C36" s="348"/>
       <c r="D36" s="337"/>
       <c r="E36" s="337"/>
@@ -35555,12 +35573,12 @@
         <f ca="1">IF(Q36="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q36/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q36))</f>
         <v/>
       </c>
-      <c r="S36" s="530"/>
-      <c r="T36" s="532"/>
-      <c r="U36" s="542"/>
-      <c r="V36" s="544"/>
-      <c r="W36" s="546"/>
-      <c r="X36" s="548"/>
+      <c r="S36" s="529"/>
+      <c r="T36" s="531"/>
+      <c r="U36" s="533"/>
+      <c r="V36" s="535"/>
+      <c r="W36" s="523"/>
+      <c r="X36" s="525"/>
       <c r="Y36" s="343" t="str">
         <f>IF(B35="","",ROUNDUP(AVERAGE(R36,R36,X35),2))</f>
         <v/>
@@ -35571,10 +35589,10 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="527">
+      <c r="A37" s="526">
         <v>14</v>
       </c>
-      <c r="B37" s="527" t="str">
+      <c r="B37" s="526" t="str">
         <f>IF('1. Halbjahr'!B17&lt;&gt;"", '1. Halbjahr'!B17, "")</f>
         <v/>
       </c>
@@ -35606,18 +35624,18 @@
         <f ca="1">IF(Q37="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q37/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q37))</f>
         <v/>
       </c>
-      <c r="S37" s="529"/>
-      <c r="T37" s="531"/>
-      <c r="U37" s="541"/>
-      <c r="V37" s="543" t="str">
+      <c r="S37" s="528"/>
+      <c r="T37" s="530"/>
+      <c r="U37" s="532"/>
+      <c r="V37" s="534" t="str">
         <f>IF(B37="","",SUM(S37:U37))</f>
         <v/>
       </c>
-      <c r="W37" s="545" t="str">
+      <c r="W37" s="522" t="str">
         <f>IF(B37="","",IF(ISBLANK(S37),"",IF(AVERAGE(S37:U37)&lt;10,LEFT(AVERAGE(S37:U37),4),LEFT(AVERAGE(S37:U37),5))))</f>
         <v/>
       </c>
-      <c r="X37" s="547" t="str">
+      <c r="X37" s="524" t="str">
         <f>IF(B37="","",IF(W37="","",IF(LEFT(W37,1)="0",0,ROUND(W37,0))))</f>
         <v/>
       </c>
@@ -35631,8 +35649,8 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="528"/>
-      <c r="B38" s="528"/>
+      <c r="A38" s="527"/>
+      <c r="B38" s="527"/>
       <c r="C38" s="348"/>
       <c r="D38" s="337"/>
       <c r="E38" s="337"/>
@@ -35661,12 +35679,12 @@
         <f ca="1">IF(Q38="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q38/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q38))</f>
         <v/>
       </c>
-      <c r="S38" s="530"/>
-      <c r="T38" s="532"/>
-      <c r="U38" s="542"/>
-      <c r="V38" s="544"/>
-      <c r="W38" s="546"/>
-      <c r="X38" s="548"/>
+      <c r="S38" s="529"/>
+      <c r="T38" s="531"/>
+      <c r="U38" s="533"/>
+      <c r="V38" s="535"/>
+      <c r="W38" s="523"/>
+      <c r="X38" s="525"/>
       <c r="Y38" s="343" t="str">
         <f>IF(B37="","",ROUNDUP(AVERAGE(R38,R38,X37),2))</f>
         <v/>
@@ -35677,10 +35695,10 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="527">
+      <c r="A39" s="526">
         <v>15</v>
       </c>
-      <c r="B39" s="527" t="str">
+      <c r="B39" s="526" t="str">
         <f>IF('1. Halbjahr'!B18&lt;&gt;"", '1. Halbjahr'!B18, "")</f>
         <v/>
       </c>
@@ -35712,18 +35730,18 @@
         <f ca="1">IF(Q39="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q39/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q39))</f>
         <v/>
       </c>
-      <c r="S39" s="549"/>
-      <c r="T39" s="550"/>
-      <c r="U39" s="551"/>
-      <c r="V39" s="552" t="str">
+      <c r="S39" s="536"/>
+      <c r="T39" s="537"/>
+      <c r="U39" s="538"/>
+      <c r="V39" s="539" t="str">
         <f>IF(B39="","",SUM(S39:U39))</f>
         <v/>
       </c>
-      <c r="W39" s="545" t="str">
+      <c r="W39" s="522" t="str">
         <f>IF(B39="","",IF(ISBLANK(S39),"",IF(AVERAGE(S39:U39)&lt;10,LEFT(AVERAGE(S39:U39),4),LEFT(AVERAGE(S39:U39),5))))</f>
         <v/>
       </c>
-      <c r="X39" s="547" t="str">
+      <c r="X39" s="524" t="str">
         <f>IF(B39="","",IF(W39="","",IF(LEFT(W39,1)="0",0,ROUND(W39,0))))</f>
         <v/>
       </c>
@@ -35737,8 +35755,8 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="528"/>
-      <c r="B40" s="528"/>
+      <c r="A40" s="527"/>
+      <c r="B40" s="527"/>
       <c r="C40" s="348"/>
       <c r="D40" s="337"/>
       <c r="E40" s="337"/>
@@ -35767,12 +35785,12 @@
         <f ca="1">IF(Q40="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q40/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q40))</f>
         <v/>
       </c>
-      <c r="S40" s="530"/>
-      <c r="T40" s="532"/>
-      <c r="U40" s="542"/>
-      <c r="V40" s="544"/>
-      <c r="W40" s="546"/>
-      <c r="X40" s="548"/>
+      <c r="S40" s="529"/>
+      <c r="T40" s="531"/>
+      <c r="U40" s="533"/>
+      <c r="V40" s="535"/>
+      <c r="W40" s="523"/>
+      <c r="X40" s="525"/>
       <c r="Y40" s="343" t="str">
         <f>IF(B39="","",ROUNDUP(AVERAGE(R40,R40,X39),2))</f>
         <v/>
@@ -35783,10 +35801,10 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="527">
+      <c r="A41" s="526">
         <v>16</v>
       </c>
-      <c r="B41" s="527" t="str">
+      <c r="B41" s="526" t="str">
         <f>IF('1. Halbjahr'!B19&lt;&gt;"", '1. Halbjahr'!B19, "")</f>
         <v/>
       </c>
@@ -35818,18 +35836,18 @@
         <f ca="1">IF(Q41="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q41/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q41))</f>
         <v/>
       </c>
-      <c r="S41" s="529"/>
-      <c r="T41" s="531"/>
-      <c r="U41" s="541"/>
-      <c r="V41" s="543" t="str">
+      <c r="S41" s="528"/>
+      <c r="T41" s="530"/>
+      <c r="U41" s="532"/>
+      <c r="V41" s="534" t="str">
         <f>IF(B41="","",SUM(S41:U41))</f>
         <v/>
       </c>
-      <c r="W41" s="545" t="str">
+      <c r="W41" s="522" t="str">
         <f>IF(B41="","",IF(ISBLANK(S41),"",IF(AVERAGE(S41:U41)&lt;10,LEFT(AVERAGE(S41:U41),4),LEFT(AVERAGE(S41:U41),5))))</f>
         <v/>
       </c>
-      <c r="X41" s="547" t="str">
+      <c r="X41" s="524" t="str">
         <f>IF(B41="","",IF(W41="","",IF(LEFT(W41,1)="0",0,ROUND(W41,0))))</f>
         <v/>
       </c>
@@ -35843,8 +35861,8 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="528"/>
-      <c r="B42" s="528"/>
+      <c r="A42" s="527"/>
+      <c r="B42" s="527"/>
       <c r="C42" s="348"/>
       <c r="D42" s="337"/>
       <c r="E42" s="337"/>
@@ -35873,12 +35891,12 @@
         <f ca="1">IF(Q42="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q42/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q42))</f>
         <v/>
       </c>
-      <c r="S42" s="530"/>
-      <c r="T42" s="532"/>
-      <c r="U42" s="542"/>
-      <c r="V42" s="544"/>
-      <c r="W42" s="546"/>
-      <c r="X42" s="548"/>
+      <c r="S42" s="529"/>
+      <c r="T42" s="531"/>
+      <c r="U42" s="533"/>
+      <c r="V42" s="535"/>
+      <c r="W42" s="523"/>
+      <c r="X42" s="525"/>
       <c r="Y42" s="343" t="str">
         <f>IF(B41="","",ROUNDUP(AVERAGE(R42,R42,X41),2))</f>
         <v/>
@@ -35889,10 +35907,10 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="527">
+      <c r="A43" s="526">
         <v>17</v>
       </c>
-      <c r="B43" s="527" t="str">
+      <c r="B43" s="526" t="str">
         <f>IF('1. Halbjahr'!B20&lt;&gt;"", '1. Halbjahr'!B20, "")</f>
         <v/>
       </c>
@@ -35924,18 +35942,18 @@
         <f ca="1">IF(Q43="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q43/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q43))</f>
         <v/>
       </c>
-      <c r="S43" s="529"/>
-      <c r="T43" s="531"/>
-      <c r="U43" s="541"/>
-      <c r="V43" s="543" t="str">
+      <c r="S43" s="528"/>
+      <c r="T43" s="530"/>
+      <c r="U43" s="532"/>
+      <c r="V43" s="534" t="str">
         <f>IF(B43="","",SUM(S43:U43))</f>
         <v/>
       </c>
-      <c r="W43" s="545" t="str">
+      <c r="W43" s="522" t="str">
         <f>IF(B43="","",IF(ISBLANK(S43),"",IF(AVERAGE(S43:U43)&lt;10,LEFT(AVERAGE(S43:U43),4),LEFT(AVERAGE(S43:U43),5))))</f>
         <v/>
       </c>
-      <c r="X43" s="547" t="str">
+      <c r="X43" s="524" t="str">
         <f>IF(B43="","",IF(W43="","",IF(LEFT(W43,1)="0",0,ROUND(W43,0))))</f>
         <v/>
       </c>
@@ -35949,8 +35967,8 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="528"/>
-      <c r="B44" s="528"/>
+      <c r="A44" s="527"/>
+      <c r="B44" s="527"/>
       <c r="C44" s="348"/>
       <c r="D44" s="337"/>
       <c r="E44" s="337"/>
@@ -35979,12 +35997,12 @@
         <f ca="1">IF(Q44="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q44/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q44))</f>
         <v/>
       </c>
-      <c r="S44" s="530"/>
-      <c r="T44" s="532"/>
-      <c r="U44" s="542"/>
-      <c r="V44" s="544"/>
-      <c r="W44" s="546"/>
-      <c r="X44" s="548"/>
+      <c r="S44" s="529"/>
+      <c r="T44" s="531"/>
+      <c r="U44" s="533"/>
+      <c r="V44" s="535"/>
+      <c r="W44" s="523"/>
+      <c r="X44" s="525"/>
       <c r="Y44" s="343" t="str">
         <f>IF(B43="","",ROUNDUP(AVERAGE(R44,R44,X43),2))</f>
         <v/>
@@ -35995,10 +36013,10 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="527">
+      <c r="A45" s="526">
         <v>18</v>
       </c>
-      <c r="B45" s="527" t="str">
+      <c r="B45" s="526" t="str">
         <f>IF('1. Halbjahr'!B21&lt;&gt;"", '1. Halbjahr'!B21, "")</f>
         <v/>
       </c>
@@ -36030,18 +36048,18 @@
         <f ca="1">IF(Q45="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q45/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q45))</f>
         <v/>
       </c>
-      <c r="S45" s="529"/>
-      <c r="T45" s="531"/>
-      <c r="U45" s="541"/>
-      <c r="V45" s="543" t="str">
+      <c r="S45" s="528"/>
+      <c r="T45" s="530"/>
+      <c r="U45" s="532"/>
+      <c r="V45" s="534" t="str">
         <f>IF(B45="","",SUM(S45:U45))</f>
         <v/>
       </c>
-      <c r="W45" s="545" t="str">
+      <c r="W45" s="522" t="str">
         <f>IF(B45="","",IF(ISBLANK(S45),"",IF(AVERAGE(S45:U45)&lt;10,LEFT(AVERAGE(S45:U45),4),LEFT(AVERAGE(S45:U45),5))))</f>
         <v/>
       </c>
-      <c r="X45" s="547" t="str">
+      <c r="X45" s="524" t="str">
         <f>IF(B45="","",IF(W45="","",IF(LEFT(W45,1)="0",0,ROUND(W45,0))))</f>
         <v/>
       </c>
@@ -36055,8 +36073,8 @@
       </c>
     </row>
     <row r="46" spans="1:26" s="356" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="528"/>
-      <c r="B46" s="528"/>
+      <c r="A46" s="527"/>
+      <c r="B46" s="527"/>
       <c r="C46" s="353"/>
       <c r="D46" s="354"/>
       <c r="E46" s="354"/>
@@ -36085,12 +36103,12 @@
         <f ca="1">IF(Q46="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q46/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q46))</f>
         <v/>
       </c>
-      <c r="S46" s="530"/>
-      <c r="T46" s="532"/>
-      <c r="U46" s="542"/>
-      <c r="V46" s="544"/>
-      <c r="W46" s="546"/>
-      <c r="X46" s="548"/>
+      <c r="S46" s="529"/>
+      <c r="T46" s="531"/>
+      <c r="U46" s="533"/>
+      <c r="V46" s="535"/>
+      <c r="W46" s="523"/>
+      <c r="X46" s="525"/>
       <c r="Y46" s="343" t="str">
         <f>IF(B45="","",ROUNDUP(AVERAGE(R46,R46,X45),2))</f>
         <v/>
@@ -36101,10 +36119,10 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="527">
+      <c r="A47" s="526">
         <v>19</v>
       </c>
-      <c r="B47" s="527" t="str">
+      <c r="B47" s="526" t="str">
         <f>IF('1. Halbjahr'!B22&lt;&gt;"", '1. Halbjahr'!B22, "")</f>
         <v/>
       </c>
@@ -36136,18 +36154,18 @@
         <f ca="1">IF(Q47="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q47/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q47))</f>
         <v/>
       </c>
-      <c r="S47" s="529"/>
-      <c r="T47" s="531"/>
-      <c r="U47" s="541"/>
-      <c r="V47" s="543" t="str">
+      <c r="S47" s="528"/>
+      <c r="T47" s="530"/>
+      <c r="U47" s="532"/>
+      <c r="V47" s="534" t="str">
         <f>IF(B47="","",SUM(S47:U47))</f>
         <v/>
       </c>
-      <c r="W47" s="545" t="str">
+      <c r="W47" s="522" t="str">
         <f>IF(B47="","",IF(ISBLANK(S47),"",IF(AVERAGE(S47:U47)&lt;10,LEFT(AVERAGE(S47:U47),4),LEFT(AVERAGE(S47:U47),5))))</f>
         <v/>
       </c>
-      <c r="X47" s="547" t="str">
+      <c r="X47" s="524" t="str">
         <f>IF(B47="","",IF(W47="","",IF(LEFT(W47,1)="0",0,ROUND(W47,0))))</f>
         <v/>
       </c>
@@ -36161,8 +36179,8 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="528"/>
-      <c r="B48" s="528"/>
+      <c r="A48" s="527"/>
+      <c r="B48" s="527"/>
       <c r="C48" s="348"/>
       <c r="D48" s="337"/>
       <c r="E48" s="337"/>
@@ -36191,12 +36209,12 @@
         <f ca="1">IF(Q48="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q48/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q48))</f>
         <v/>
       </c>
-      <c r="S48" s="530"/>
-      <c r="T48" s="532"/>
-      <c r="U48" s="542"/>
-      <c r="V48" s="544"/>
-      <c r="W48" s="546"/>
-      <c r="X48" s="548"/>
+      <c r="S48" s="529"/>
+      <c r="T48" s="531"/>
+      <c r="U48" s="533"/>
+      <c r="V48" s="535"/>
+      <c r="W48" s="523"/>
+      <c r="X48" s="525"/>
       <c r="Y48" s="343" t="str">
         <f>IF(B47="","",ROUNDUP(AVERAGE(R48,R48,X47),2))</f>
         <v/>
@@ -36207,10 +36225,10 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="527">
+      <c r="A49" s="526">
         <v>20</v>
       </c>
-      <c r="B49" s="527" t="str">
+      <c r="B49" s="526" t="str">
         <f>IF('1. Halbjahr'!B23&lt;&gt;"", '1. Halbjahr'!B23, "")</f>
         <v/>
       </c>
@@ -36242,18 +36260,18 @@
         <f ca="1">IF(Q49="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q49/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q49))</f>
         <v/>
       </c>
-      <c r="S49" s="529"/>
-      <c r="T49" s="531"/>
-      <c r="U49" s="541"/>
-      <c r="V49" s="543" t="str">
+      <c r="S49" s="528"/>
+      <c r="T49" s="530"/>
+      <c r="U49" s="532"/>
+      <c r="V49" s="534" t="str">
         <f>IF(B49="","",SUM(S49:U49))</f>
         <v/>
       </c>
-      <c r="W49" s="545" t="str">
+      <c r="W49" s="522" t="str">
         <f>IF(B49="","",IF(ISBLANK(S49),"",IF(AVERAGE(S49:U49)&lt;10,LEFT(AVERAGE(S49:U49),4),LEFT(AVERAGE(S49:U49),5))))</f>
         <v/>
       </c>
-      <c r="X49" s="547" t="str">
+      <c r="X49" s="524" t="str">
         <f>IF(B49="","",IF(W49="","",IF(LEFT(W49,1)="0",0,ROUND(W49,0))))</f>
         <v/>
       </c>
@@ -36267,8 +36285,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="528"/>
-      <c r="B50" s="528"/>
+      <c r="A50" s="527"/>
+      <c r="B50" s="527"/>
       <c r="C50" s="348"/>
       <c r="D50" s="337"/>
       <c r="E50" s="337"/>
@@ -36297,12 +36315,12 @@
         <f ca="1">IF(Q50="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q50/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q50))</f>
         <v/>
       </c>
-      <c r="S50" s="530"/>
-      <c r="T50" s="532"/>
-      <c r="U50" s="542"/>
-      <c r="V50" s="544"/>
-      <c r="W50" s="546"/>
-      <c r="X50" s="548"/>
+      <c r="S50" s="529"/>
+      <c r="T50" s="531"/>
+      <c r="U50" s="533"/>
+      <c r="V50" s="535"/>
+      <c r="W50" s="523"/>
+      <c r="X50" s="525"/>
       <c r="Y50" s="343" t="str">
         <f>IF(B49="","",ROUNDUP(AVERAGE(R50,R50,X49),2))</f>
         <v/>
@@ -36313,10 +36331,10 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="527">
+      <c r="A51" s="526">
         <v>21</v>
       </c>
-      <c r="B51" s="527" t="str">
+      <c r="B51" s="526" t="str">
         <f>IF('1. Halbjahr'!B24&lt;&gt;"", '1. Halbjahr'!B24, "")</f>
         <v/>
       </c>
@@ -36348,18 +36366,18 @@
         <f ca="1">IF(Q51="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q51/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q51))</f>
         <v/>
       </c>
-      <c r="S51" s="529"/>
-      <c r="T51" s="531"/>
-      <c r="U51" s="541"/>
-      <c r="V51" s="543" t="str">
+      <c r="S51" s="528"/>
+      <c r="T51" s="530"/>
+      <c r="U51" s="532"/>
+      <c r="V51" s="534" t="str">
         <f>IF(B51="","",SUM(S51:U51))</f>
         <v/>
       </c>
-      <c r="W51" s="545" t="str">
+      <c r="W51" s="522" t="str">
         <f>IF(B51="","",IF(ISBLANK(S51),"",IF(AVERAGE(S51:U51)&lt;10,LEFT(AVERAGE(S51:U51),4),LEFT(AVERAGE(S51:U51),5))))</f>
         <v/>
       </c>
-      <c r="X51" s="547" t="str">
+      <c r="X51" s="524" t="str">
         <f>IF(B51="","",IF(W51="","",IF(LEFT(W51,1)="0",0,ROUND(W51,0))))</f>
         <v/>
       </c>
@@ -36373,8 +36391,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="528"/>
-      <c r="B52" s="528"/>
+      <c r="A52" s="527"/>
+      <c r="B52" s="527"/>
       <c r="C52" s="348"/>
       <c r="D52" s="337"/>
       <c r="E52" s="337"/>
@@ -36403,12 +36421,12 @@
         <f ca="1">IF(Q52="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q52/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q52))</f>
         <v/>
       </c>
-      <c r="S52" s="530"/>
-      <c r="T52" s="532"/>
-      <c r="U52" s="542"/>
-      <c r="V52" s="544"/>
-      <c r="W52" s="546"/>
-      <c r="X52" s="548"/>
+      <c r="S52" s="529"/>
+      <c r="T52" s="531"/>
+      <c r="U52" s="533"/>
+      <c r="V52" s="535"/>
+      <c r="W52" s="523"/>
+      <c r="X52" s="525"/>
       <c r="Y52" s="343" t="str">
         <f>IF(B51="","",ROUNDUP(AVERAGE(R52,R52,X51),2))</f>
         <v/>
@@ -36419,10 +36437,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="527">
+      <c r="A53" s="526">
         <v>22</v>
       </c>
-      <c r="B53" s="527" t="str">
+      <c r="B53" s="526" t="str">
         <f>IF('1. Halbjahr'!B25&lt;&gt;"", '1. Halbjahr'!B25, "")</f>
         <v/>
       </c>
@@ -36454,18 +36472,18 @@
         <f ca="1">IF(Q53="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q53/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q53))</f>
         <v/>
       </c>
-      <c r="S53" s="529"/>
-      <c r="T53" s="531"/>
-      <c r="U53" s="541"/>
-      <c r="V53" s="543" t="str">
+      <c r="S53" s="528"/>
+      <c r="T53" s="530"/>
+      <c r="U53" s="532"/>
+      <c r="V53" s="534" t="str">
         <f>IF(B53="","",SUM(S53:U53))</f>
         <v/>
       </c>
-      <c r="W53" s="545" t="str">
+      <c r="W53" s="522" t="str">
         <f>IF(B53="","",IF(ISBLANK(S53),"",IF(AVERAGE(S53:U53)&lt;10,LEFT(AVERAGE(S53:U53),4),LEFT(AVERAGE(S53:U53),5))))</f>
         <v/>
       </c>
-      <c r="X53" s="547" t="str">
+      <c r="X53" s="524" t="str">
         <f>IF(B53="","",IF(W53="","",IF(LEFT(W53,1)="0",0,ROUND(W53,0))))</f>
         <v/>
       </c>
@@ -36479,8 +36497,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="528"/>
-      <c r="B54" s="528"/>
+      <c r="A54" s="527"/>
+      <c r="B54" s="527"/>
       <c r="C54" s="348"/>
       <c r="D54" s="337"/>
       <c r="E54" s="337"/>
@@ -36509,12 +36527,12 @@
         <f ca="1">IF(Q54="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q54/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q54))</f>
         <v/>
       </c>
-      <c r="S54" s="530"/>
-      <c r="T54" s="532"/>
-      <c r="U54" s="542"/>
-      <c r="V54" s="544"/>
-      <c r="W54" s="546"/>
-      <c r="X54" s="548"/>
+      <c r="S54" s="529"/>
+      <c r="T54" s="531"/>
+      <c r="U54" s="533"/>
+      <c r="V54" s="535"/>
+      <c r="W54" s="523"/>
+      <c r="X54" s="525"/>
       <c r="Y54" s="343" t="str">
         <f>IF(B53="","",ROUNDUP(AVERAGE(R54,R54,X53),2))</f>
         <v/>
@@ -36525,10 +36543,10 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="527">
+      <c r="A55" s="526">
         <v>23</v>
       </c>
-      <c r="B55" s="527" t="str">
+      <c r="B55" s="526" t="str">
         <f>IF('1. Halbjahr'!B26&lt;&gt;"", '1. Halbjahr'!B26, "")</f>
         <v/>
       </c>
@@ -36560,18 +36578,18 @@
         <f ca="1">IF(Q55="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q55/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q55))</f>
         <v/>
       </c>
-      <c r="S55" s="529"/>
-      <c r="T55" s="531"/>
-      <c r="U55" s="541"/>
-      <c r="V55" s="543" t="str">
+      <c r="S55" s="528"/>
+      <c r="T55" s="530"/>
+      <c r="U55" s="532"/>
+      <c r="V55" s="534" t="str">
         <f>IF(B55="","",SUM(S55:U55))</f>
         <v/>
       </c>
-      <c r="W55" s="545" t="str">
+      <c r="W55" s="522" t="str">
         <f>IF(B55="","",IF(ISBLANK(S55),"",IF(AVERAGE(S55:U55)&lt;10,LEFT(AVERAGE(S55:U55),4),LEFT(AVERAGE(S55:U55),5))))</f>
         <v/>
       </c>
-      <c r="X55" s="547" t="str">
+      <c r="X55" s="524" t="str">
         <f>IF(B55="","",IF(W55="","",IF(LEFT(W55,1)="0",0,ROUND(W55,0))))</f>
         <v/>
       </c>
@@ -36585,8 +36603,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="528"/>
-      <c r="B56" s="528"/>
+      <c r="A56" s="527"/>
+      <c r="B56" s="527"/>
       <c r="C56" s="348"/>
       <c r="D56" s="337"/>
       <c r="E56" s="337"/>
@@ -36615,12 +36633,12 @@
         <f ca="1">IF(Q56="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q56/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q56))</f>
         <v/>
       </c>
-      <c r="S56" s="530"/>
-      <c r="T56" s="532"/>
-      <c r="U56" s="542"/>
-      <c r="V56" s="544"/>
-      <c r="W56" s="546"/>
-      <c r="X56" s="548"/>
+      <c r="S56" s="529"/>
+      <c r="T56" s="531"/>
+      <c r="U56" s="533"/>
+      <c r="V56" s="535"/>
+      <c r="W56" s="523"/>
+      <c r="X56" s="525"/>
       <c r="Y56" s="343" t="str">
         <f>IF(B55="","",ROUNDUP(AVERAGE(R56,R56,X55),2))</f>
         <v/>
@@ -36631,10 +36649,10 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="527">
+      <c r="A57" s="526">
         <v>24</v>
       </c>
-      <c r="B57" s="527" t="str">
+      <c r="B57" s="526" t="str">
         <f>IF('1. Halbjahr'!B27&lt;&gt;"", '1. Halbjahr'!B27, "")</f>
         <v/>
       </c>
@@ -36666,18 +36684,18 @@
         <f ca="1">IF(Q57="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q57/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q57))</f>
         <v/>
       </c>
-      <c r="S57" s="529"/>
-      <c r="T57" s="531"/>
-      <c r="U57" s="541"/>
-      <c r="V57" s="543" t="str">
+      <c r="S57" s="528"/>
+      <c r="T57" s="530"/>
+      <c r="U57" s="532"/>
+      <c r="V57" s="534" t="str">
         <f>IF(B57="","",SUM(S57:U57))</f>
         <v/>
       </c>
-      <c r="W57" s="545" t="str">
+      <c r="W57" s="522" t="str">
         <f>IF(B57="","",IF(ISBLANK(S57),"",IF(AVERAGE(S57:U57)&lt;10,LEFT(AVERAGE(S57:U57),4),LEFT(AVERAGE(S57:U57),5))))</f>
         <v/>
       </c>
-      <c r="X57" s="547" t="str">
+      <c r="X57" s="524" t="str">
         <f>IF(B57="","",IF(W57="","",IF(LEFT(W57,1)="0",0,ROUND(W57,0))))</f>
         <v/>
       </c>
@@ -36691,8 +36709,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="528"/>
-      <c r="B58" s="528"/>
+      <c r="A58" s="527"/>
+      <c r="B58" s="527"/>
       <c r="C58" s="348"/>
       <c r="D58" s="337"/>
       <c r="E58" s="337"/>
@@ -36721,12 +36739,12 @@
         <f ca="1">IF(Q58="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q58/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q58))</f>
         <v/>
       </c>
-      <c r="S58" s="530"/>
-      <c r="T58" s="532"/>
-      <c r="U58" s="542"/>
-      <c r="V58" s="544"/>
-      <c r="W58" s="546"/>
-      <c r="X58" s="548"/>
+      <c r="S58" s="529"/>
+      <c r="T58" s="531"/>
+      <c r="U58" s="533"/>
+      <c r="V58" s="535"/>
+      <c r="W58" s="523"/>
+      <c r="X58" s="525"/>
       <c r="Y58" s="343" t="str">
         <f>IF(B57="","",ROUNDUP(AVERAGE(R58,R58,X57),2))</f>
         <v/>
@@ -36737,10 +36755,10 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="527">
+      <c r="A59" s="526">
         <v>25</v>
       </c>
-      <c r="B59" s="527" t="str">
+      <c r="B59" s="526" t="str">
         <f>IF('1. Halbjahr'!B28&lt;&gt;"", '1. Halbjahr'!B28, "")</f>
         <v/>
       </c>
@@ -36772,18 +36790,18 @@
         <f ca="1">IF(Q59="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q59/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q59))</f>
         <v/>
       </c>
-      <c r="S59" s="529"/>
-      <c r="T59" s="531"/>
-      <c r="U59" s="541"/>
-      <c r="V59" s="543" t="str">
+      <c r="S59" s="528"/>
+      <c r="T59" s="530"/>
+      <c r="U59" s="532"/>
+      <c r="V59" s="534" t="str">
         <f>IF(B59="","",SUM(S59:U59))</f>
         <v/>
       </c>
-      <c r="W59" s="545" t="str">
+      <c r="W59" s="522" t="str">
         <f>IF(B59="","",IF(ISBLANK(S59),"",IF(AVERAGE(S59:U59)&lt;10,LEFT(AVERAGE(S59:U59),4),LEFT(AVERAGE(S59:U59),5))))</f>
         <v/>
       </c>
-      <c r="X59" s="547" t="str">
+      <c r="X59" s="524" t="str">
         <f>IF(B59="","",IF(W59="","",IF(LEFT(W59,1)="0",0,ROUND(W59,0))))</f>
         <v/>
       </c>
@@ -36797,8 +36815,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="528"/>
-      <c r="B60" s="528"/>
+      <c r="A60" s="527"/>
+      <c r="B60" s="527"/>
       <c r="C60" s="348"/>
       <c r="D60" s="337"/>
       <c r="E60" s="337"/>
@@ -36827,12 +36845,12 @@
         <f ca="1">IF(Q60="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q60/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q60))</f>
         <v/>
       </c>
-      <c r="S60" s="530"/>
-      <c r="T60" s="532"/>
-      <c r="U60" s="542"/>
-      <c r="V60" s="544"/>
-      <c r="W60" s="546"/>
-      <c r="X60" s="548"/>
+      <c r="S60" s="529"/>
+      <c r="T60" s="531"/>
+      <c r="U60" s="533"/>
+      <c r="V60" s="535"/>
+      <c r="W60" s="523"/>
+      <c r="X60" s="525"/>
       <c r="Y60" s="343" t="str">
         <f>IF(B59="","",ROUNDUP(AVERAGE(R60,R60,X59),2))</f>
         <v/>
@@ -36843,10 +36861,10 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="527">
+      <c r="A61" s="526">
         <v>26</v>
       </c>
-      <c r="B61" s="527" t="str">
+      <c r="B61" s="526" t="str">
         <f>IF('1. Halbjahr'!B29&lt;&gt;"", '1. Halbjahr'!B29, "")</f>
         <v/>
       </c>
@@ -36878,18 +36896,18 @@
         <f ca="1">IF(Q61="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q61/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q61))</f>
         <v/>
       </c>
-      <c r="S61" s="529"/>
-      <c r="T61" s="531"/>
-      <c r="U61" s="541"/>
-      <c r="V61" s="543" t="str">
+      <c r="S61" s="528"/>
+      <c r="T61" s="530"/>
+      <c r="U61" s="532"/>
+      <c r="V61" s="534" t="str">
         <f>IF(B61="","",SUM(S61:U61))</f>
         <v/>
       </c>
-      <c r="W61" s="545" t="str">
+      <c r="W61" s="522" t="str">
         <f>IF(B61="","",IF(ISBLANK(S61),"",IF(AVERAGE(S61:U61)&lt;10,LEFT(AVERAGE(S61:U61),4),LEFT(AVERAGE(S61:U61),5))))</f>
         <v/>
       </c>
-      <c r="X61" s="547" t="str">
+      <c r="X61" s="524" t="str">
         <f>IF(B61="","",IF(W61="","",IF(LEFT(W61,1)="0",0,ROUND(W61,0))))</f>
         <v/>
       </c>
@@ -36903,8 +36921,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="528"/>
-      <c r="B62" s="528"/>
+      <c r="A62" s="527"/>
+      <c r="B62" s="527"/>
       <c r="C62" s="348"/>
       <c r="D62" s="337"/>
       <c r="E62" s="337"/>
@@ -36933,12 +36951,12 @@
         <f ca="1">IF(Q62="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q62/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q62))</f>
         <v/>
       </c>
-      <c r="S62" s="530"/>
-      <c r="T62" s="532"/>
-      <c r="U62" s="542"/>
-      <c r="V62" s="544"/>
-      <c r="W62" s="546"/>
-      <c r="X62" s="548"/>
+      <c r="S62" s="529"/>
+      <c r="T62" s="531"/>
+      <c r="U62" s="533"/>
+      <c r="V62" s="535"/>
+      <c r="W62" s="523"/>
+      <c r="X62" s="525"/>
       <c r="Y62" s="343" t="str">
         <f>IF(B61="","",ROUNDUP(AVERAGE(R62,R62,X61),2))</f>
         <v/>
@@ -36949,10 +36967,10 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="527">
+      <c r="A63" s="526">
         <v>27</v>
       </c>
-      <c r="B63" s="527" t="str">
+      <c r="B63" s="526" t="str">
         <f>IF('1. Halbjahr'!B30&lt;&gt;"", '1. Halbjahr'!B30, "")</f>
         <v/>
       </c>
@@ -36984,18 +37002,18 @@
         <f ca="1">IF(Q63="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q63/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q63))</f>
         <v/>
       </c>
-      <c r="S63" s="529"/>
-      <c r="T63" s="531"/>
-      <c r="U63" s="541"/>
-      <c r="V63" s="543" t="str">
+      <c r="S63" s="528"/>
+      <c r="T63" s="530"/>
+      <c r="U63" s="532"/>
+      <c r="V63" s="534" t="str">
         <f>IF(B63="","",SUM(S63:U63))</f>
         <v/>
       </c>
-      <c r="W63" s="545" t="str">
+      <c r="W63" s="522" t="str">
         <f>IF(B63="","",IF(ISBLANK(S63),"",IF(AVERAGE(S63:U63)&lt;10,LEFT(AVERAGE(S63:U63),4),LEFT(AVERAGE(S63:U63),5))))</f>
         <v/>
       </c>
-      <c r="X63" s="547" t="str">
+      <c r="X63" s="524" t="str">
         <f>IF(B63="","",IF(W63="","",IF(LEFT(W63,1)="0",0,ROUND(W63,0))))</f>
         <v/>
       </c>
@@ -37009,8 +37027,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="528"/>
-      <c r="B64" s="528"/>
+      <c r="A64" s="527"/>
+      <c r="B64" s="527"/>
       <c r="C64" s="348"/>
       <c r="D64" s="337"/>
       <c r="E64" s="337"/>
@@ -37039,12 +37057,12 @@
         <f ca="1">IF(Q64="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q64/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q64))</f>
         <v/>
       </c>
-      <c r="S64" s="530"/>
-      <c r="T64" s="532"/>
-      <c r="U64" s="542"/>
-      <c r="V64" s="544"/>
-      <c r="W64" s="546"/>
-      <c r="X64" s="548"/>
+      <c r="S64" s="529"/>
+      <c r="T64" s="531"/>
+      <c r="U64" s="533"/>
+      <c r="V64" s="535"/>
+      <c r="W64" s="523"/>
+      <c r="X64" s="525"/>
       <c r="Y64" s="343" t="str">
         <f>IF(B63="","",ROUNDUP(AVERAGE(R64,R64,X63),2))</f>
         <v/>
@@ -37055,10 +37073,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="527">
+      <c r="A65" s="526">
         <v>28</v>
       </c>
-      <c r="B65" s="527" t="str">
+      <c r="B65" s="526" t="str">
         <f>IF('1. Halbjahr'!B31&lt;&gt;"", '1. Halbjahr'!B31, "")</f>
         <v/>
       </c>
@@ -37090,18 +37108,18 @@
         <f ca="1">IF(Q65="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q65/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q65))</f>
         <v/>
       </c>
-      <c r="S65" s="529"/>
-      <c r="T65" s="531"/>
-      <c r="U65" s="541"/>
-      <c r="V65" s="543" t="str">
+      <c r="S65" s="528"/>
+      <c r="T65" s="530"/>
+      <c r="U65" s="532"/>
+      <c r="V65" s="534" t="str">
         <f>IF(B65="","",SUM(S65:U65))</f>
         <v/>
       </c>
-      <c r="W65" s="545" t="str">
+      <c r="W65" s="522" t="str">
         <f>IF(B65="","",IF(ISBLANK(S65),"",IF(AVERAGE(S65:U65)&lt;10,LEFT(AVERAGE(S65:U65),4),LEFT(AVERAGE(S65:U65),5))))</f>
         <v/>
       </c>
-      <c r="X65" s="547" t="str">
+      <c r="X65" s="524" t="str">
         <f>IF(B65="","",IF(W65="","",IF(LEFT(W65,1)="0",0,ROUND(W65,0))))</f>
         <v/>
       </c>
@@ -37115,8 +37133,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="528"/>
-      <c r="B66" s="528"/>
+      <c r="A66" s="527"/>
+      <c r="B66" s="527"/>
       <c r="C66" s="348"/>
       <c r="D66" s="337"/>
       <c r="E66" s="337"/>
@@ -37145,12 +37163,12 @@
         <f ca="1">IF(Q66="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q66/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q66))</f>
         <v/>
       </c>
-      <c r="S66" s="530"/>
-      <c r="T66" s="532"/>
-      <c r="U66" s="542"/>
-      <c r="V66" s="544"/>
-      <c r="W66" s="546"/>
-      <c r="X66" s="548"/>
+      <c r="S66" s="529"/>
+      <c r="T66" s="531"/>
+      <c r="U66" s="533"/>
+      <c r="V66" s="535"/>
+      <c r="W66" s="523"/>
+      <c r="X66" s="525"/>
       <c r="Y66" s="343" t="str">
         <f>IF(B65="","",ROUNDUP(AVERAGE(R66,R66,X65),2))</f>
         <v/>
@@ -37161,10 +37179,10 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="527">
+      <c r="A67" s="526">
         <v>29</v>
       </c>
-      <c r="B67" s="527" t="str">
+      <c r="B67" s="526" t="str">
         <f>IF('1. Halbjahr'!B32&lt;&gt;"", '1. Halbjahr'!B32, "")</f>
         <v/>
       </c>
@@ -37196,18 +37214,18 @@
         <f ca="1">IF(Q67="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q67/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q67))</f>
         <v/>
       </c>
-      <c r="S67" s="529"/>
-      <c r="T67" s="531"/>
-      <c r="U67" s="541"/>
-      <c r="V67" s="543" t="str">
+      <c r="S67" s="528"/>
+      <c r="T67" s="530"/>
+      <c r="U67" s="532"/>
+      <c r="V67" s="534" t="str">
         <f>IF(B67="","",SUM(S67:U67))</f>
         <v/>
       </c>
-      <c r="W67" s="545" t="str">
+      <c r="W67" s="522" t="str">
         <f>IF(B67="","",IF(ISBLANK(S67),"",IF(AVERAGE(S67:U67)&lt;10,LEFT(AVERAGE(S67:U67),4),LEFT(AVERAGE(S67:U67),5))))</f>
         <v/>
       </c>
-      <c r="X67" s="547" t="str">
+      <c r="X67" s="524" t="str">
         <f>IF(B67="","",IF(W67="","",IF(LEFT(W67,1)="0",0,ROUND(W67,0))))</f>
         <v/>
       </c>
@@ -37221,8 +37239,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="528"/>
-      <c r="B68" s="528"/>
+      <c r="A68" s="527"/>
+      <c r="B68" s="527"/>
       <c r="C68" s="348"/>
       <c r="D68" s="337"/>
       <c r="E68" s="337"/>
@@ -37251,12 +37269,12 @@
         <f ca="1">IF(Q68="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q68/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q68))</f>
         <v/>
       </c>
-      <c r="S68" s="530"/>
-      <c r="T68" s="532"/>
-      <c r="U68" s="542"/>
-      <c r="V68" s="544"/>
-      <c r="W68" s="546"/>
-      <c r="X68" s="548"/>
+      <c r="S68" s="529"/>
+      <c r="T68" s="531"/>
+      <c r="U68" s="533"/>
+      <c r="V68" s="535"/>
+      <c r="W68" s="523"/>
+      <c r="X68" s="525"/>
       <c r="Y68" s="343" t="str">
         <f>IF(B67="","",ROUNDUP(AVERAGE(R68,R68,X67),2))</f>
         <v/>
@@ -37267,10 +37285,10 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="527">
+      <c r="A69" s="526">
         <v>30</v>
       </c>
-      <c r="B69" s="527" t="str">
+      <c r="B69" s="526" t="str">
         <f>IF('1. Halbjahr'!B33&lt;&gt;"", '1. Halbjahr'!B33, "")</f>
         <v/>
       </c>
@@ -37302,18 +37320,18 @@
         <f ca="1">IF(Q69="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q69/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q69))</f>
         <v/>
       </c>
-      <c r="S69" s="529"/>
-      <c r="T69" s="531"/>
-      <c r="U69" s="541"/>
-      <c r="V69" s="543" t="str">
+      <c r="S69" s="528"/>
+      <c r="T69" s="530"/>
+      <c r="U69" s="532"/>
+      <c r="V69" s="534" t="str">
         <f>IF(B69="","",SUM(S69:U69))</f>
         <v/>
       </c>
-      <c r="W69" s="545" t="str">
+      <c r="W69" s="522" t="str">
         <f>IF(B69="","",IF(ISBLANK(S69),"",IF(AVERAGE(S69:U69)&lt;10,LEFT(AVERAGE(S69:U69),4),LEFT(AVERAGE(S69:U69),5))))</f>
         <v/>
       </c>
-      <c r="X69" s="547" t="str">
+      <c r="X69" s="524" t="str">
         <f>IF(B69="","",IF(W69="","",IF(LEFT(W69,1)="0",0,ROUND(W69,0))))</f>
         <v/>
       </c>
@@ -37327,8 +37345,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="528"/>
-      <c r="B70" s="528"/>
+      <c r="A70" s="527"/>
+      <c r="B70" s="527"/>
       <c r="C70" s="348"/>
       <c r="D70" s="337"/>
       <c r="E70" s="337"/>
@@ -37357,12 +37375,12 @@
         <f ca="1">IF(Q70="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q70/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q70))</f>
         <v/>
       </c>
-      <c r="S70" s="530"/>
-      <c r="T70" s="532"/>
-      <c r="U70" s="542"/>
-      <c r="V70" s="544"/>
-      <c r="W70" s="546"/>
-      <c r="X70" s="548"/>
+      <c r="S70" s="529"/>
+      <c r="T70" s="531"/>
+      <c r="U70" s="533"/>
+      <c r="V70" s="535"/>
+      <c r="W70" s="523"/>
+      <c r="X70" s="525"/>
       <c r="Y70" s="343" t="str">
         <f>IF(B69="","",ROUNDUP(AVERAGE(R70,R70,X69),2))</f>
         <v/>
@@ -37373,10 +37391,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="527">
+      <c r="A71" s="526">
         <v>31</v>
       </c>
-      <c r="B71" s="527" t="str">
+      <c r="B71" s="526" t="str">
         <f>IF('1. Halbjahr'!B34&lt;&gt;"", '1. Halbjahr'!B34, "")</f>
         <v/>
       </c>
@@ -37408,18 +37426,18 @@
         <f ca="1">IF(Q71="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q71/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q71))</f>
         <v/>
       </c>
-      <c r="S71" s="529"/>
-      <c r="T71" s="531"/>
-      <c r="U71" s="541"/>
-      <c r="V71" s="543" t="str">
+      <c r="S71" s="528"/>
+      <c r="T71" s="530"/>
+      <c r="U71" s="532"/>
+      <c r="V71" s="534" t="str">
         <f>IF(B71="","",SUM(S71:U71))</f>
         <v/>
       </c>
-      <c r="W71" s="545" t="str">
+      <c r="W71" s="522" t="str">
         <f>IF(B71="","",IF(ISBLANK(S71),"",IF(AVERAGE(S71:U71)&lt;10,LEFT(AVERAGE(S71:U71),4),LEFT(AVERAGE(S71:U71),5))))</f>
         <v/>
       </c>
-      <c r="X71" s="547" t="str">
+      <c r="X71" s="524" t="str">
         <f>IF(B71="","",IF(W71="","",IF(LEFT(W71,1)="0",0,ROUND(W71,0))))</f>
         <v/>
       </c>
@@ -37433,8 +37451,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="528"/>
-      <c r="B72" s="528"/>
+      <c r="A72" s="527"/>
+      <c r="B72" s="527"/>
       <c r="C72" s="348"/>
       <c r="D72" s="337"/>
       <c r="E72" s="337"/>
@@ -37463,12 +37481,12 @@
         <f ca="1">IF(Q72="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q72/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q72))</f>
         <v/>
       </c>
-      <c r="S72" s="530"/>
-      <c r="T72" s="532"/>
-      <c r="U72" s="542"/>
-      <c r="V72" s="544"/>
-      <c r="W72" s="546"/>
-      <c r="X72" s="548"/>
+      <c r="S72" s="529"/>
+      <c r="T72" s="531"/>
+      <c r="U72" s="533"/>
+      <c r="V72" s="535"/>
+      <c r="W72" s="523"/>
+      <c r="X72" s="525"/>
       <c r="Y72" s="343" t="str">
         <f>IF(B71="","",ROUNDUP(AVERAGE(R72,R72,X71),2))</f>
         <v/>
@@ -37479,10 +37497,10 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="527">
+      <c r="A73" s="526">
         <v>32</v>
       </c>
-      <c r="B73" s="527" t="str">
+      <c r="B73" s="526" t="str">
         <f>IF('1. Halbjahr'!B35&lt;&gt;"", '1. Halbjahr'!B35, "")</f>
         <v/>
       </c>
@@ -37514,18 +37532,18 @@
         <f ca="1">IF(Q73="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q73/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q73))</f>
         <v/>
       </c>
-      <c r="S73" s="529"/>
-      <c r="T73" s="531"/>
-      <c r="U73" s="541"/>
-      <c r="V73" s="543" t="str">
+      <c r="S73" s="528"/>
+      <c r="T73" s="530"/>
+      <c r="U73" s="532"/>
+      <c r="V73" s="534" t="str">
         <f>IF(B73="","",SUM(S73:U73))</f>
         <v/>
       </c>
-      <c r="W73" s="545" t="str">
+      <c r="W73" s="522" t="str">
         <f>IF(B73="","",IF(ISBLANK(S73),"",IF(AVERAGE(S73:U73)&lt;10,LEFT(AVERAGE(S73:U73),4),LEFT(AVERAGE(S73:U73),5))))</f>
         <v/>
       </c>
-      <c r="X73" s="547" t="str">
+      <c r="X73" s="524" t="str">
         <f>IF(B73="","",IF(W73="","",IF(LEFT(W73,1)="0",0,ROUND(W73,0))))</f>
         <v/>
       </c>
@@ -37539,8 +37557,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="528"/>
-      <c r="B74" s="528"/>
+      <c r="A74" s="527"/>
+      <c r="B74" s="527"/>
       <c r="C74" s="348"/>
       <c r="D74" s="337"/>
       <c r="E74" s="337"/>
@@ -37569,12 +37587,12 @@
         <f ca="1">IF(Q74="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q74/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q74))</f>
         <v/>
       </c>
-      <c r="S74" s="530"/>
-      <c r="T74" s="532"/>
-      <c r="U74" s="542"/>
-      <c r="V74" s="544"/>
-      <c r="W74" s="546"/>
-      <c r="X74" s="548"/>
+      <c r="S74" s="529"/>
+      <c r="T74" s="531"/>
+      <c r="U74" s="533"/>
+      <c r="V74" s="535"/>
+      <c r="W74" s="523"/>
+      <c r="X74" s="525"/>
       <c r="Y74" s="343" t="str">
         <f>IF(B73="","",ROUNDUP(AVERAGE(R74,R74,X73),2))</f>
         <v/>
@@ -37585,10 +37603,10 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="527">
+      <c r="A75" s="526">
         <v>33</v>
       </c>
-      <c r="B75" s="527" t="str">
+      <c r="B75" s="526" t="str">
         <f>IF('1. Halbjahr'!B36&lt;&gt;"", '1. Halbjahr'!B36, "")</f>
         <v/>
       </c>
@@ -37620,18 +37638,18 @@
         <f ca="1">IF(Q75="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q75/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q75))</f>
         <v/>
       </c>
-      <c r="S75" s="529"/>
-      <c r="T75" s="531"/>
-      <c r="U75" s="541"/>
-      <c r="V75" s="543" t="str">
+      <c r="S75" s="528"/>
+      <c r="T75" s="530"/>
+      <c r="U75" s="532"/>
+      <c r="V75" s="534" t="str">
         <f>IF(B75="","",SUM(S75:U75))</f>
         <v/>
       </c>
-      <c r="W75" s="545" t="str">
+      <c r="W75" s="522" t="str">
         <f>IF(B75="","",IF(ISBLANK(S75),"",IF(AVERAGE(S75:U75)&lt;10,LEFT(AVERAGE(S75:U75),4),LEFT(AVERAGE(S75:U75),5))))</f>
         <v/>
       </c>
-      <c r="X75" s="547" t="str">
+      <c r="X75" s="524" t="str">
         <f>IF(B75="","",IF(W75="","",IF(LEFT(W75,1)="0",0,ROUND(W75,0))))</f>
         <v/>
       </c>
@@ -37645,8 +37663,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="528"/>
-      <c r="B76" s="528"/>
+      <c r="A76" s="527"/>
+      <c r="B76" s="527"/>
       <c r="C76" s="348"/>
       <c r="D76" s="337"/>
       <c r="E76" s="337"/>
@@ -37675,12 +37693,12 @@
         <f ca="1">IF(Q76="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q76/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q76))</f>
         <v/>
       </c>
-      <c r="S76" s="530"/>
-      <c r="T76" s="532"/>
-      <c r="U76" s="542"/>
-      <c r="V76" s="544"/>
-      <c r="W76" s="546"/>
-      <c r="X76" s="548"/>
+      <c r="S76" s="529"/>
+      <c r="T76" s="531"/>
+      <c r="U76" s="533"/>
+      <c r="V76" s="535"/>
+      <c r="W76" s="523"/>
+      <c r="X76" s="525"/>
       <c r="Y76" s="343" t="str">
         <f>IF(B75="","",ROUNDUP(AVERAGE(R76,R76,X75),2))</f>
         <v/>
@@ -37691,10 +37709,10 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="527">
+      <c r="A77" s="526">
         <v>34</v>
       </c>
-      <c r="B77" s="527" t="str">
+      <c r="B77" s="526" t="str">
         <f>IF('1. Halbjahr'!B37&lt;&gt;"", '1. Halbjahr'!B37, "")</f>
         <v/>
       </c>
@@ -37726,18 +37744,18 @@
         <f ca="1">IF(Q77="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q77/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q77))</f>
         <v/>
       </c>
-      <c r="S77" s="529"/>
-      <c r="T77" s="531"/>
-      <c r="U77" s="541"/>
-      <c r="V77" s="543" t="str">
+      <c r="S77" s="528"/>
+      <c r="T77" s="530"/>
+      <c r="U77" s="532"/>
+      <c r="V77" s="534" t="str">
         <f>IF(B77="","",SUM(S77:U77))</f>
         <v/>
       </c>
-      <c r="W77" s="545" t="str">
+      <c r="W77" s="522" t="str">
         <f>IF(B77="","",IF(ISBLANK(S77),"",IF(AVERAGE(S77:U77)&lt;10,LEFT(AVERAGE(S77:U77),4),LEFT(AVERAGE(S77:U77),5))))</f>
         <v/>
       </c>
-      <c r="X77" s="547" t="str">
+      <c r="X77" s="524" t="str">
         <f>IF(B77="","",IF(W77="","",IF(LEFT(W77,1)="0",0,ROUND(W77,0))))</f>
         <v/>
       </c>
@@ -37751,8 +37769,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="528"/>
-      <c r="B78" s="528"/>
+      <c r="A78" s="527"/>
+      <c r="B78" s="527"/>
       <c r="C78" s="348"/>
       <c r="D78" s="337"/>
       <c r="E78" s="337"/>
@@ -37781,12 +37799,12 @@
         <f ca="1">IF(Q78="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q78/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q78))</f>
         <v/>
       </c>
-      <c r="S78" s="549"/>
-      <c r="T78" s="550"/>
-      <c r="U78" s="551"/>
-      <c r="V78" s="552"/>
-      <c r="W78" s="546"/>
-      <c r="X78" s="548"/>
+      <c r="S78" s="536"/>
+      <c r="T78" s="537"/>
+      <c r="U78" s="538"/>
+      <c r="V78" s="539"/>
+      <c r="W78" s="523"/>
+      <c r="X78" s="525"/>
       <c r="Y78" s="357" t="str">
         <f>IF(B77="","",ROUNDUP(AVERAGE(R78,R78,X77),2))</f>
         <v/>
@@ -37797,10 +37815,10 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="527">
+      <c r="A79" s="526">
         <v>35</v>
       </c>
-      <c r="B79" s="527" t="str">
+      <c r="B79" s="526" t="str">
         <f>IF('1. Halbjahr'!B38&lt;&gt;"", '1. Halbjahr'!B38, "")</f>
         <v/>
       </c>
@@ -37832,18 +37850,18 @@
         <f ca="1">IF(Q79="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q79/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q79))</f>
         <v/>
       </c>
-      <c r="S79" s="529"/>
-      <c r="T79" s="531"/>
-      <c r="U79" s="541"/>
-      <c r="V79" s="543" t="str">
+      <c r="S79" s="528"/>
+      <c r="T79" s="530"/>
+      <c r="U79" s="532"/>
+      <c r="V79" s="534" t="str">
         <f>IF(B79="","",SUM(S79:U79))</f>
         <v/>
       </c>
-      <c r="W79" s="545" t="str">
+      <c r="W79" s="522" t="str">
         <f>IF(B79="","",IF(ISBLANK(S79),"",IF(AVERAGE(S79:U79)&lt;10,LEFT(AVERAGE(S79:U79),4),LEFT(AVERAGE(S79:U79),5))))</f>
         <v/>
       </c>
-      <c r="X79" s="547" t="str">
+      <c r="X79" s="524" t="str">
         <f>IF(B79="","",IF(W79="","",IF(LEFT(W79,1)="0",0,ROUND(W79,0))))</f>
         <v/>
       </c>
@@ -37857,8 +37875,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="528"/>
-      <c r="B80" s="528"/>
+      <c r="A80" s="527"/>
+      <c r="B80" s="527"/>
       <c r="C80" s="353"/>
       <c r="D80" s="354"/>
       <c r="E80" s="354"/>
@@ -37887,12 +37905,12 @@
         <f ca="1">IF(Q80="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q80/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q80))</f>
         <v/>
       </c>
-      <c r="S80" s="530"/>
-      <c r="T80" s="532"/>
-      <c r="U80" s="542"/>
-      <c r="V80" s="544"/>
-      <c r="W80" s="546"/>
-      <c r="X80" s="548"/>
+      <c r="S80" s="529"/>
+      <c r="T80" s="531"/>
+      <c r="U80" s="533"/>
+      <c r="V80" s="535"/>
+      <c r="W80" s="523"/>
+      <c r="X80" s="525"/>
       <c r="Y80" s="343" t="str">
         <f>IF(B79="","",ROUNDUP(AVERAGE(R80,R80,X79),2))</f>
         <v/>
@@ -37985,6 +38003,278 @@
   </sheetData>
   <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="288">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="C6:R6"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="X45:X46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="V47:V48"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="X47:X48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="X49:X50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="X51:X52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="X57:X58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="V57:V58"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="X61:X62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="X63:X64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="T61:T62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="X65:X66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="W67:W68"/>
+    <mergeCell ref="X67:X68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="V65:V66"/>
+    <mergeCell ref="W69:W70"/>
+    <mergeCell ref="X69:X70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="S71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="V71:V72"/>
+    <mergeCell ref="W71:W72"/>
+    <mergeCell ref="X71:X72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="S69:S70"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="U69:U70"/>
+    <mergeCell ref="V69:V70"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="X73:X74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="X75:X76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="U73:U74"/>
+    <mergeCell ref="V73:V74"/>
     <mergeCell ref="W77:W78"/>
     <mergeCell ref="X77:X78"/>
     <mergeCell ref="A79:A80"/>
@@ -38001,466 +38291,194 @@
     <mergeCell ref="T77:T78"/>
     <mergeCell ref="U77:U78"/>
     <mergeCell ref="V77:V78"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="X73:X74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="S75:S76"/>
-    <mergeCell ref="T75:T76"/>
-    <mergeCell ref="U75:U76"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="X75:X76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="U73:U74"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W69:W70"/>
-    <mergeCell ref="X69:X70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="S71:S72"/>
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="V71:V72"/>
-    <mergeCell ref="W71:W72"/>
-    <mergeCell ref="X71:X72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="S69:S70"/>
-    <mergeCell ref="T69:T70"/>
-    <mergeCell ref="U69:U70"/>
-    <mergeCell ref="V69:V70"/>
-    <mergeCell ref="W65:W66"/>
-    <mergeCell ref="X65:X66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="T67:T68"/>
-    <mergeCell ref="U67:U68"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="W67:W68"/>
-    <mergeCell ref="X67:X68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="V65:V66"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="X61:X62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="X63:X64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="T61:T62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="X57:X58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="V57:V58"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="X49:X50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="T51:T52"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="V51:V52"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="X51:X52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="X45:X46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="V47:V48"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="T45:T46"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="T41:T42"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="V41:V42"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="C6:R6"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <conditionalFormatting sqref="C65 C67 C69 C71 C73 C75 C77 C79 C59 C61 C63 C21 C23 C25 C27 C29 C31 C33 C35 C37 C39 C41 C43 C45 C47 C49 C57 C13 C51 C53 C55 C15 C17 C19 C11">
-    <cfRule type="cellIs" dxfId="37" priority="21" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="21" stopIfTrue="1" operator="greaterThan">
       <formula>$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65 D67 D69 D71 D73 D75 D77 D79 D59 D61 D63 D21 D23 D25 D27 D29 D31 D33 D35 D37 D39 D41 D43 D45 D47 D49 D57 D13 D51 D53 D55 D15 D17 D19 D11">
-    <cfRule type="cellIs" dxfId="36" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65 E67 E69 E71 E73 E75 E77 E79 E59 E61 E63 E21 E23 E25 E27 E29 E31 E33 E35 E37 E39 E41 E43 E45 E47 E49 E57 E13 E51 E53 E55 E15 E17 E19 E11">
-    <cfRule type="cellIs" dxfId="35" priority="23" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="23" stopIfTrue="1" operator="greaterThan">
       <formula>$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75 F73 F71 F69 F67 F65 F63 F61 F59 F77 F79 F21 F23 F25 F27 F29 F31 F33 F35 F37 F39 F41 F43 F45 F47 F49 F57 F13 F51 F53 F55 F15 F17 F19 F11">
-    <cfRule type="cellIs" dxfId="34" priority="24" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="24" stopIfTrue="1" operator="greaterThan">
       <formula>$F$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63 K65 K67 K69 K71 K73 K75 K77 K57 K59 K61 K19 K21 K23 K25 K27 K29 K31 K33 K35 K37 K39 K41 K43 K45 K47 K55 K49 K51 K53 K79 K11 K13 K15 K17">
-    <cfRule type="cellIs" dxfId="33" priority="25" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="25" stopIfTrue="1" operator="greaterThan">
       <formula>$K$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63 L65 L67 L69 L71 L73 L75 L77 L57 L59 L61 L19 L21 L23 L25 L27 L29 L31 L33 L35 L37 L39 L41 L43 L45 L47 L55 L49 L51 L53 L79 L11 L13 L15 L17">
-    <cfRule type="cellIs" dxfId="32" priority="26" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>$L$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63 M65 M67 M69 M71 M73 M75 M77 M57 M59 M61 M19 M21 M23 M25 M27 M29 M31 M33 M35 M37 M39 M41 M43 M45 M47 M55 M49 M51 M53 M79 M11 M13 M15 M17">
-    <cfRule type="cellIs" dxfId="31" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>$M$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N63 N65 N67 N69 N71 N73 N75 N77 N57 N59 N61 N11 N21 N23 N25 N27 N29 N31 N33 N35 N37 N39 N41 N43 N45 N47 N49 N51 N53 N55 N79 N13 N15 N17 N19">
-    <cfRule type="cellIs" dxfId="30" priority="28" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>$N$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O63 O65 O67 O69 O71 O73 O75 O77 O57 O59 O61 O11 O21 O23 O25 O27 O29 O31 O33 O35 O37 O39 O41 O43 O45 O47 O49 O51 O53 O55 O79 O13 O15 O17 O19">
-    <cfRule type="cellIs" dxfId="29" priority="29" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="greaterThan">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11 S57 S59 S61 S63 S65 S67 S69 S71 S73 S75 S77 S79 S13 S15 S17 S19 S21 S23 S25 S27 S31 S29 S33 S35 S37 S39 S41 S43 S45 S47 S49 S51 S53 S55">
-    <cfRule type="cellIs" dxfId="28" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>$S$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11 T57 T59 T61 T63 T65 T67 T69 T71 T73 T75 T77 T79 T13 T15 T17 T19 T21 T23 T25 T27 T29 T31 T33 T35 T37 T39 T41 T43 T45 T47 T49 T51 T53 T55">
-    <cfRule type="cellIs" dxfId="27" priority="31" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>$T$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11 U57 U59 U61 U63 U65 U67 U69 U71 U73 U75 U77 U79 U13 U15 U17 U19 U21 U23 U25 U27 U29 U31 U33 U35 U37 U39 U41 U43 U45 U47 U49 U51 U53 U55">
-    <cfRule type="cellIs" dxfId="26" priority="32" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>$U$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11 Z77 Z13 Z15 Z17 Z19 Z21 Z23 Z25 Z27 Z29 Z31 Z33 Z35 Z37 Z39 Z41 Z43 Z45 Z47 Z49 Z51 Z53 Z55 Z57 Z59 Z61 Z63 Z65 Z67 Z69 Z71 Z73 Z75 Z79 R11:R80">
-    <cfRule type="cellIs" dxfId="25" priority="33" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="33" stopIfTrue="1" operator="notEqual">
       <formula>R11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12 Z78 Z14 Z16 Z18 Z20 Z22 Z24 Z26 Z28 Z30 Z32 Z34 Z36 Z38 Z40 Z42 Z44 Z46 Z48 Z50 Z52 Z54 Z56 Z58 Z60 Z62 Z64 Z66 Z68 Z70 Z72 Z74 Z76 Z80">
-    <cfRule type="cellIs" dxfId="24" priority="34" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="34" stopIfTrue="1" operator="notEqual">
       <formula>Z11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:I14 C16:I16 C18:I18 C20:I20 C22:I22 C24:I24 C26:I26 C28:I28 C30:I30 C32:I32 C34:I34 C36:I36 C38:I38 C40:I40 C42:I42 C44:I44 C46:I46 C48:I48 C50:I50 C52:I52 K80:O80 C60:I60 C62:I62 C64:I64 C66:I66 C68:I68 C70:I70 C72:I72 C74:I74 C76:I76 C78:I78 C80:I80 C54:I54 C56:I56 C58:I58 K58:O58 K60:O60 K62:O62 K64:O64 K66:O66 K68:O68 K70:O70 K72:O72 K74:O74 K76:O76 K78:O78 K56:O56 C12:I12 K14:O14 K16:O16 K18:O18 K20:O20 K22:O22 K24:O24 K26:O26 K28:O28 K30:O30 K32:O32 K34:O34 K36:O36 K38:O38 K40:O40 K42:O42 K44:O44 K46:O46 K48:O48 K50:O50 K52:O52 K54:O54 K12:O12">
-    <cfRule type="cellIs" dxfId="23" priority="35" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="25" priority="35" stopIfTrue="1" operator="notEqual">
       <formula>C11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77 G79 G59 G61 G63 G65 G67 G69 G71 G73 G75 G21 G23 G25 G27 G29 G31 G33 G35 G37 G39 G41 G43 G45 G47 G49 G57 G13 G51 G53 G55 G15 G17 G19 G11">
-    <cfRule type="cellIs" dxfId="22" priority="36" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="36" stopIfTrue="1" operator="greaterThan">
       <formula>$G$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 H21 H23 H25 H27 H29 H31 H33 H35 H37 H39 H41 H43 H45 H47 H49 H51 H53 H55 H57 H59 H61 H63 H65 H67 H69 H71 H73 H75 H77 H79 H13 H15 H17 H19">
-    <cfRule type="cellIs" dxfId="21" priority="37" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="37" stopIfTrue="1" operator="greaterThan">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11 I21 I23 I25 I27 I29 I31 I33 I35 I37 I39 I41 I43 I45 I47 I49 I51 I53 I55 I57 I59 I61 I63 I65 I67 I69 I71 I73 I75 I77 I79 I13 I15 I17 I19">
-    <cfRule type="cellIs" dxfId="20" priority="38" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="38" stopIfTrue="1" operator="greaterThan">
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="greaterThan">
       <formula>$S$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="19" stopIfTrue="1" operator="greaterThan">
       <formula>$T$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>$U$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:I10">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="equal">
       <formula>"??"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:O10">
-    <cfRule type="cellIs" dxfId="15" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
       <formula>"??"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:I8">
-    <cfRule type="cellIs" dxfId="14" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" stopIfTrue="1" operator="equal">
       <formula>"??"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>$C$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="greaterThan">
       <formula>$D$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>$E$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>$F$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:I14 C16:I16 C18:I18 C20:I20 C12:I12">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="notEqual">
       <formula>C11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$G$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="6" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="greaterThan">
       <formula>$K$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="greaterThan">
       <formula>$L$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="greaterThan">
       <formula>$M$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$N$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>$O$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:O14 K16:O16 K18:O18 K20:O20 K12:O12">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>K11</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41508,20 +41526,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="95" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="93" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43993,20 +44011,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="91" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="89" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46478,20 +46496,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="87" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48963,20 +48981,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="83" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51448,20 +51466,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="79" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53933,20 +53951,20 @@
     <mergeCell ref="E42:G42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D38">
-    <cfRule type="expression" dxfId="75" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="3" stopIfTrue="1">
       <formula>$H$3="Punkte"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="4" stopIfTrue="1">
       <formula>$H$3="BE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F58">
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>"ALARM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B58">
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
       <formula>"ALARM!   Breite zu klein"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54027,7 +54045,7 @@
       </c>
       <c r="N1" s="450">
         <f ca="1">TODAY()</f>
-        <v>43600</v>
+        <v>43632</v>
       </c>
       <c r="O1" s="451"/>
       <c r="P1" s="246"/>

--- a/Vorlage.xlsx
+++ b/Vorlage.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\diNo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E08EE9-DC7F-4BC8-A71D-08C41DAAB185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="240" windowWidth="17010" windowHeight="10185" tabRatio="873"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="873" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Halbjahr" sheetId="1" r:id="rId1"/>
@@ -38,18 +44,28 @@
     <definedName name="_xlnm.Print_Area" localSheetId="18">'Ausdruck SAP'!$A$1:$G$68</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="20">'Eingabe Abitur'!$1:$10</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Lehrer</author>
     <author>Ernst Wölker</author>
   </authors>
   <commentList>
-    <comment ref="Q9" authorId="0">
+    <comment ref="Q9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X9" authorId="1">
+    <comment ref="X9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -561,7 +577,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
@@ -3789,9 +3805,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -4000,29 +4013,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4057,6 +4051,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
@@ -4101,20 +4114,19 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4137,6 +4149,50 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="86" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="95" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4162,55 +4218,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="95" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
-    <cellStyle name="Standard 3" xfId="3"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="100">
     <dxf>
@@ -4876,14 +4892,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4921,9 +4940,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4956,9 +4975,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4991,9 +5027,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5166,14 +5219,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AJ91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K27" sqref="K27"/>
       <selection pane="topRight" activeCell="K27" sqref="K27"/>
@@ -5210,24 +5263,24 @@
         <v>33</v>
       </c>
       <c r="D1" s="224"/>
-      <c r="E1" s="478"/>
-      <c r="F1" s="478"/>
-      <c r="G1" s="478"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="476" t="s">
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="475" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="477"/>
-      <c r="K1" s="480"/>
-      <c r="L1" s="481"/>
+      <c r="J1" s="476"/>
+      <c r="K1" s="479"/>
+      <c r="L1" s="480"/>
       <c r="M1" s="452" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="472">
+      <c r="N1" s="471">
         <f ca="1">TODAY()</f>
-        <v>43701</v>
-      </c>
-      <c r="O1" s="473"/>
+        <v>44015</v>
+      </c>
+      <c r="O1" s="472"/>
       <c r="P1" s="450"/>
       <c r="Q1" s="450"/>
       <c r="R1" s="450"/>
@@ -5254,21 +5307,21 @@
       <c r="B2" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="474" t="s">
+      <c r="C2" s="473" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="475"/>
-      <c r="E2" s="475"/>
-      <c r="F2" s="475"/>
-      <c r="G2" s="475"/>
-      <c r="H2" s="475"/>
-      <c r="I2" s="475"/>
-      <c r="J2" s="475"/>
-      <c r="K2" s="475"/>
-      <c r="L2" s="475"/>
-      <c r="M2" s="475"/>
-      <c r="N2" s="475"/>
-      <c r="O2" s="475"/>
+      <c r="D2" s="474"/>
+      <c r="E2" s="474"/>
+      <c r="F2" s="474"/>
+      <c r="G2" s="474"/>
+      <c r="H2" s="474"/>
+      <c r="I2" s="474"/>
+      <c r="J2" s="474"/>
+      <c r="K2" s="474"/>
+      <c r="L2" s="474"/>
+      <c r="M2" s="474"/>
+      <c r="N2" s="474"/>
+      <c r="O2" s="474"/>
       <c r="P2" s="450"/>
       <c r="Q2" s="450"/>
       <c r="R2" s="450"/>
@@ -9775,7 +9828,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J38" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"15,14,13,12,11,10,9,8,7,6,5,4,3,2,1,0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9786,7 +9839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Tabelle11">
     <tabColor indexed="34"/>
   </sheetPr>
@@ -9827,17 +9880,17 @@
       <c r="B1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -9958,11 +10011,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -11423,21 +11476,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -11462,19 +11515,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -11499,7 +11552,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -11507,11 +11560,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -12255,10 +12308,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12269,7 +12322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Tabelle12">
     <tabColor indexed="34"/>
   </sheetPr>
@@ -12310,17 +12363,17 @@
       <c r="B1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -12441,11 +12494,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -13906,21 +13959,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -13945,19 +13998,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -13982,7 +14035,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -13990,11 +14043,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -14738,10 +14791,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14752,7 +14805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Tabelle13">
     <tabColor rgb="FFFFCC66"/>
   </sheetPr>
@@ -14793,17 +14846,17 @@
       <c r="B1" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -14924,11 +14977,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -16389,21 +16442,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -16428,19 +16481,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -16465,7 +16518,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -16473,11 +16526,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -17221,10 +17274,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17235,7 +17288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Tabelle14">
     <tabColor rgb="FFFFCC66"/>
   </sheetPr>
@@ -17276,17 +17329,17 @@
       <c r="B1" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -17407,11 +17460,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -18872,21 +18925,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -18911,19 +18964,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -18948,7 +19001,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -18956,11 +19009,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -19704,10 +19757,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19718,7 +19771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Tabelle15">
     <tabColor rgb="FF66FF33"/>
   </sheetPr>
@@ -19759,17 +19812,17 @@
       <c r="B1" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -19890,11 +19943,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -21355,21 +21408,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -21394,19 +21447,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -21431,7 +21484,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -21439,11 +21492,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -22187,10 +22240,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22201,7 +22254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Tabelle16">
     <tabColor rgb="FF66FF33"/>
   </sheetPr>
@@ -22242,17 +22295,17 @@
       <c r="B1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -22373,11 +22426,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -23838,21 +23891,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -23877,19 +23930,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -23914,7 +23967,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -23922,11 +23975,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -24670,10 +24723,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24684,7 +24737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Tabelle17">
     <tabColor rgb="FF66FF33"/>
   </sheetPr>
@@ -24725,17 +24778,17 @@
       <c r="B1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -24856,11 +24909,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -26321,21 +26374,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -26360,19 +26413,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -26397,7 +26450,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -26405,11 +26458,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -27153,10 +27206,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0F00-000001000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27167,8 +27220,8 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle19" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr codeName="Tabelle19">
     <tabColor indexed="10"/>
   </sheetPr>
   <dimension ref="A1:Q65"/>
@@ -27213,10 +27266,10 @@
       </c>
       <c r="C2" s="413"/>
       <c r="D2" s="413"/>
-      <c r="E2" s="511"/>
-      <c r="F2" s="511"/>
-      <c r="G2" s="511"/>
-      <c r="H2" s="511"/>
+      <c r="E2" s="510"/>
+      <c r="F2" s="510"/>
+      <c r="G2" s="510"/>
+      <c r="H2" s="510"/>
       <c r="I2" s="413"/>
       <c r="J2" s="413"/>
     </row>
@@ -27273,20 +27326,20 @@
     <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="383"/>
-      <c r="C5" s="512"/>
-      <c r="D5" s="512"/>
-      <c r="E5" s="513"/>
-      <c r="F5" s="509" t="s">
+      <c r="C5" s="511"/>
+      <c r="D5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="508" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="510"/>
-      <c r="H5" s="462" t="s">
+      <c r="G5" s="509"/>
+      <c r="H5" s="461" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="514" t="s">
+      <c r="I5" s="513" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="515"/>
+      <c r="J5" s="514"/>
       <c r="K5" s="406" t="s">
         <v>12</v>
       </c>
@@ -28952,11 +29005,11 @@
       <c r="E43" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="508" t="s">
+      <c r="G43" s="507" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="508"/>
-      <c r="I43" s="508"/>
+      <c r="H43" s="507"/>
+      <c r="I43" s="507"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -29453,14 +29506,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43" xr:uid="{00000000-0002-0000-1000-000001000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="I1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H40">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{00000000-0002-0000-1000-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H40" xr:uid="{00000000-0002-0000-1000-000003000000}">
       <formula1>"15,14,13,12,11,10,9,8,7,6,5,4,3,2,1,0"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29471,7 +29524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Tabelle2">
     <tabColor rgb="FFAB5353"/>
     <pageSetUpPr fitToPage="1"/>
@@ -29629,14 +29682,14 @@
       </c>
       <c r="AE3" s="422"/>
       <c r="AF3" s="430"/>
-      <c r="AG3" s="516" t="s">
+      <c r="AG3" s="515" t="s">
         <v>148</v>
       </c>
-      <c r="AH3" s="517"/>
-      <c r="AI3" s="518" t="s">
+      <c r="AH3" s="516"/>
+      <c r="AI3" s="517" t="s">
         <v>91</v>
       </c>
-      <c r="AJ3" s="519"/>
+      <c r="AJ3" s="518"/>
     </row>
     <row r="4" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="437"/>
@@ -29777,16 +29830,16 @@
       <c r="AD5" s="434"/>
       <c r="AE5" s="434"/>
       <c r="AF5" s="435"/>
-      <c r="AG5" s="467" t="str">
+      <c r="AG5" s="466" t="str">
         <f t="shared" ref="AG5:AG39" si="0">IF(COUNT(C5:AF5)&gt;0,SUM(C5:AF5),"")</f>
         <v/>
       </c>
-      <c r="AH5" s="468" t="str">
+      <c r="AH5" s="467" t="str">
         <f ca="1">AP!G6</f>
         <v/>
       </c>
       <c r="AI5" s="436"/>
-      <c r="AJ5" s="470" t="str">
+      <c r="AJ5" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F11</f>
         <v/>
       </c>
@@ -29830,16 +29883,16 @@
       <c r="AD6" s="130"/>
       <c r="AE6" s="130"/>
       <c r="AF6" s="431"/>
-      <c r="AG6" s="469" t="str">
+      <c r="AG6" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH6" s="468" t="str">
+      <c r="AH6" s="467" t="str">
         <f ca="1">AP!G7</f>
         <v/>
       </c>
       <c r="AI6" s="432"/>
-      <c r="AJ6" s="470" t="str">
+      <c r="AJ6" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F12</f>
         <v/>
       </c>
@@ -29883,16 +29936,16 @@
       <c r="AD7" s="130"/>
       <c r="AE7" s="130"/>
       <c r="AF7" s="431"/>
-      <c r="AG7" s="469" t="str">
+      <c r="AG7" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH7" s="468" t="str">
+      <c r="AH7" s="467" t="str">
         <f ca="1">AP!G8</f>
         <v/>
       </c>
       <c r="AI7" s="432"/>
-      <c r="AJ7" s="470" t="str">
+      <c r="AJ7" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F13</f>
         <v/>
       </c>
@@ -29936,16 +29989,16 @@
       <c r="AD8" s="130"/>
       <c r="AE8" s="130"/>
       <c r="AF8" s="431"/>
-      <c r="AG8" s="469" t="str">
+      <c r="AG8" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH8" s="468" t="str">
+      <c r="AH8" s="467" t="str">
         <f ca="1">AP!G9</f>
         <v/>
       </c>
       <c r="AI8" s="432"/>
-      <c r="AJ8" s="470" t="str">
+      <c r="AJ8" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F14</f>
         <v/>
       </c>
@@ -29989,16 +30042,16 @@
       <c r="AD9" s="130"/>
       <c r="AE9" s="130"/>
       <c r="AF9" s="431"/>
-      <c r="AG9" s="469" t="str">
+      <c r="AG9" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH9" s="468" t="str">
+      <c r="AH9" s="467" t="str">
         <f ca="1">AP!G10</f>
         <v/>
       </c>
       <c r="AI9" s="432"/>
-      <c r="AJ9" s="470" t="str">
+      <c r="AJ9" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F15</f>
         <v/>
       </c>
@@ -30042,16 +30095,16 @@
       <c r="AD10" s="130"/>
       <c r="AE10" s="130"/>
       <c r="AF10" s="431"/>
-      <c r="AG10" s="469" t="str">
+      <c r="AG10" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH10" s="468" t="str">
+      <c r="AH10" s="467" t="str">
         <f ca="1">AP!G11</f>
         <v/>
       </c>
       <c r="AI10" s="432"/>
-      <c r="AJ10" s="470" t="str">
+      <c r="AJ10" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F16</f>
         <v/>
       </c>
@@ -30095,16 +30148,16 @@
       <c r="AD11" s="130"/>
       <c r="AE11" s="130"/>
       <c r="AF11" s="431"/>
-      <c r="AG11" s="469" t="str">
+      <c r="AG11" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH11" s="468" t="str">
+      <c r="AH11" s="467" t="str">
         <f ca="1">AP!G12</f>
         <v/>
       </c>
       <c r="AI11" s="432"/>
-      <c r="AJ11" s="470" t="str">
+      <c r="AJ11" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F17</f>
         <v/>
       </c>
@@ -30148,16 +30201,16 @@
       <c r="AD12" s="130"/>
       <c r="AE12" s="130"/>
       <c r="AF12" s="431"/>
-      <c r="AG12" s="469" t="str">
+      <c r="AG12" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH12" s="468" t="str">
+      <c r="AH12" s="467" t="str">
         <f ca="1">AP!G13</f>
         <v/>
       </c>
       <c r="AI12" s="432"/>
-      <c r="AJ12" s="470" t="str">
+      <c r="AJ12" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F18</f>
         <v/>
       </c>
@@ -30201,16 +30254,16 @@
       <c r="AD13" s="130"/>
       <c r="AE13" s="130"/>
       <c r="AF13" s="431"/>
-      <c r="AG13" s="469" t="str">
+      <c r="AG13" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH13" s="468" t="str">
+      <c r="AH13" s="467" t="str">
         <f ca="1">AP!G14</f>
         <v/>
       </c>
       <c r="AI13" s="432"/>
-      <c r="AJ13" s="470" t="str">
+      <c r="AJ13" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F19</f>
         <v/>
       </c>
@@ -30254,16 +30307,16 @@
       <c r="AD14" s="130"/>
       <c r="AE14" s="130"/>
       <c r="AF14" s="431"/>
-      <c r="AG14" s="469" t="str">
+      <c r="AG14" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH14" s="468" t="str">
+      <c r="AH14" s="467" t="str">
         <f ca="1">AP!G15</f>
         <v/>
       </c>
       <c r="AI14" s="432"/>
-      <c r="AJ14" s="470" t="str">
+      <c r="AJ14" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F20</f>
         <v/>
       </c>
@@ -30307,16 +30360,16 @@
       <c r="AD15" s="130"/>
       <c r="AE15" s="130"/>
       <c r="AF15" s="431"/>
-      <c r="AG15" s="469" t="str">
+      <c r="AG15" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH15" s="468" t="str">
+      <c r="AH15" s="467" t="str">
         <f ca="1">AP!G16</f>
         <v/>
       </c>
       <c r="AI15" s="432"/>
-      <c r="AJ15" s="470" t="str">
+      <c r="AJ15" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F21</f>
         <v/>
       </c>
@@ -30360,16 +30413,16 @@
       <c r="AD16" s="130"/>
       <c r="AE16" s="130"/>
       <c r="AF16" s="431"/>
-      <c r="AG16" s="469" t="str">
+      <c r="AG16" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH16" s="468" t="str">
+      <c r="AH16" s="467" t="str">
         <f ca="1">AP!G17</f>
         <v/>
       </c>
       <c r="AI16" s="432"/>
-      <c r="AJ16" s="470" t="str">
+      <c r="AJ16" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F22</f>
         <v/>
       </c>
@@ -30413,16 +30466,16 @@
       <c r="AD17" s="130"/>
       <c r="AE17" s="130"/>
       <c r="AF17" s="431"/>
-      <c r="AG17" s="469" t="str">
+      <c r="AG17" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH17" s="468" t="str">
+      <c r="AH17" s="467" t="str">
         <f ca="1">AP!G18</f>
         <v/>
       </c>
       <c r="AI17" s="432"/>
-      <c r="AJ17" s="470" t="str">
+      <c r="AJ17" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F23</f>
         <v/>
       </c>
@@ -30466,16 +30519,16 @@
       <c r="AD18" s="130"/>
       <c r="AE18" s="130"/>
       <c r="AF18" s="431"/>
-      <c r="AG18" s="469" t="str">
+      <c r="AG18" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH18" s="468" t="str">
+      <c r="AH18" s="467" t="str">
         <f ca="1">AP!G19</f>
         <v/>
       </c>
       <c r="AI18" s="432"/>
-      <c r="AJ18" s="470" t="str">
+      <c r="AJ18" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F24</f>
         <v/>
       </c>
@@ -30519,16 +30572,16 @@
       <c r="AD19" s="130"/>
       <c r="AE19" s="130"/>
       <c r="AF19" s="431"/>
-      <c r="AG19" s="469" t="str">
+      <c r="AG19" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH19" s="468" t="str">
+      <c r="AH19" s="467" t="str">
         <f ca="1">AP!G20</f>
         <v/>
       </c>
       <c r="AI19" s="432"/>
-      <c r="AJ19" s="470" t="str">
+      <c r="AJ19" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F25</f>
         <v/>
       </c>
@@ -30572,16 +30625,16 @@
       <c r="AD20" s="130"/>
       <c r="AE20" s="130"/>
       <c r="AF20" s="431"/>
-      <c r="AG20" s="469" t="str">
+      <c r="AG20" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH20" s="468" t="str">
+      <c r="AH20" s="467" t="str">
         <f ca="1">AP!G21</f>
         <v/>
       </c>
       <c r="AI20" s="432"/>
-      <c r="AJ20" s="470" t="str">
+      <c r="AJ20" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F26</f>
         <v/>
       </c>
@@ -30625,16 +30678,16 @@
       <c r="AD21" s="130"/>
       <c r="AE21" s="130"/>
       <c r="AF21" s="431"/>
-      <c r="AG21" s="469" t="str">
+      <c r="AG21" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH21" s="468" t="str">
+      <c r="AH21" s="467" t="str">
         <f ca="1">AP!G22</f>
         <v/>
       </c>
       <c r="AI21" s="432"/>
-      <c r="AJ21" s="470" t="str">
+      <c r="AJ21" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F27</f>
         <v/>
       </c>
@@ -30678,16 +30731,16 @@
       <c r="AD22" s="130"/>
       <c r="AE22" s="130"/>
       <c r="AF22" s="431"/>
-      <c r="AG22" s="469" t="str">
+      <c r="AG22" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH22" s="468" t="str">
+      <c r="AH22" s="467" t="str">
         <f ca="1">AP!G23</f>
         <v/>
       </c>
       <c r="AI22" s="432"/>
-      <c r="AJ22" s="470" t="str">
+      <c r="AJ22" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F28</f>
         <v/>
       </c>
@@ -30731,16 +30784,16 @@
       <c r="AD23" s="130"/>
       <c r="AE23" s="130"/>
       <c r="AF23" s="431"/>
-      <c r="AG23" s="469" t="str">
+      <c r="AG23" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH23" s="468" t="str">
+      <c r="AH23" s="467" t="str">
         <f ca="1">AP!G24</f>
         <v/>
       </c>
       <c r="AI23" s="432"/>
-      <c r="AJ23" s="470" t="str">
+      <c r="AJ23" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F29</f>
         <v/>
       </c>
@@ -30784,16 +30837,16 @@
       <c r="AD24" s="130"/>
       <c r="AE24" s="130"/>
       <c r="AF24" s="431"/>
-      <c r="AG24" s="469" t="str">
+      <c r="AG24" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH24" s="468" t="str">
+      <c r="AH24" s="467" t="str">
         <f ca="1">AP!G25</f>
         <v/>
       </c>
       <c r="AI24" s="432"/>
-      <c r="AJ24" s="470" t="str">
+      <c r="AJ24" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F30</f>
         <v/>
       </c>
@@ -30837,16 +30890,16 @@
       <c r="AD25" s="130"/>
       <c r="AE25" s="130"/>
       <c r="AF25" s="431"/>
-      <c r="AG25" s="469" t="str">
+      <c r="AG25" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH25" s="468" t="str">
+      <c r="AH25" s="467" t="str">
         <f ca="1">AP!G26</f>
         <v/>
       </c>
       <c r="AI25" s="432"/>
-      <c r="AJ25" s="470" t="str">
+      <c r="AJ25" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F31</f>
         <v/>
       </c>
@@ -30890,16 +30943,16 @@
       <c r="AD26" s="130"/>
       <c r="AE26" s="130"/>
       <c r="AF26" s="431"/>
-      <c r="AG26" s="469" t="str">
+      <c r="AG26" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH26" s="468" t="str">
+      <c r="AH26" s="467" t="str">
         <f ca="1">AP!G27</f>
         <v/>
       </c>
       <c r="AI26" s="432"/>
-      <c r="AJ26" s="470" t="str">
+      <c r="AJ26" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F32</f>
         <v/>
       </c>
@@ -30943,16 +30996,16 @@
       <c r="AD27" s="130"/>
       <c r="AE27" s="130"/>
       <c r="AF27" s="431"/>
-      <c r="AG27" s="469" t="str">
+      <c r="AG27" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH27" s="468" t="str">
+      <c r="AH27" s="467" t="str">
         <f ca="1">AP!G28</f>
         <v/>
       </c>
       <c r="AI27" s="432"/>
-      <c r="AJ27" s="470" t="str">
+      <c r="AJ27" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F33</f>
         <v/>
       </c>
@@ -30996,16 +31049,16 @@
       <c r="AD28" s="130"/>
       <c r="AE28" s="130"/>
       <c r="AF28" s="431"/>
-      <c r="AG28" s="469" t="str">
+      <c r="AG28" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH28" s="468" t="str">
+      <c r="AH28" s="467" t="str">
         <f ca="1">AP!G29</f>
         <v/>
       </c>
       <c r="AI28" s="432"/>
-      <c r="AJ28" s="470" t="str">
+      <c r="AJ28" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F34</f>
         <v/>
       </c>
@@ -31049,16 +31102,16 @@
       <c r="AD29" s="130"/>
       <c r="AE29" s="130"/>
       <c r="AF29" s="431"/>
-      <c r="AG29" s="469" t="str">
+      <c r="AG29" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH29" s="468" t="str">
+      <c r="AH29" s="467" t="str">
         <f ca="1">AP!G30</f>
         <v/>
       </c>
       <c r="AI29" s="432"/>
-      <c r="AJ29" s="470" t="str">
+      <c r="AJ29" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F35</f>
         <v/>
       </c>
@@ -31102,16 +31155,16 @@
       <c r="AD30" s="130"/>
       <c r="AE30" s="130"/>
       <c r="AF30" s="431"/>
-      <c r="AG30" s="469" t="str">
+      <c r="AG30" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH30" s="468" t="str">
+      <c r="AH30" s="467" t="str">
         <f ca="1">AP!G31</f>
         <v/>
       </c>
       <c r="AI30" s="432"/>
-      <c r="AJ30" s="470" t="str">
+      <c r="AJ30" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F36</f>
         <v/>
       </c>
@@ -31155,16 +31208,16 @@
       <c r="AD31" s="130"/>
       <c r="AE31" s="130"/>
       <c r="AF31" s="431"/>
-      <c r="AG31" s="469" t="str">
+      <c r="AG31" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH31" s="468" t="str">
+      <c r="AH31" s="467" t="str">
         <f ca="1">AP!G32</f>
         <v/>
       </c>
       <c r="AI31" s="432"/>
-      <c r="AJ31" s="470" t="str">
+      <c r="AJ31" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F37</f>
         <v/>
       </c>
@@ -31208,16 +31261,16 @@
       <c r="AD32" s="130"/>
       <c r="AE32" s="130"/>
       <c r="AF32" s="431"/>
-      <c r="AG32" s="469" t="str">
+      <c r="AG32" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH32" s="468" t="str">
+      <c r="AH32" s="467" t="str">
         <f ca="1">AP!G33</f>
         <v/>
       </c>
       <c r="AI32" s="432"/>
-      <c r="AJ32" s="470" t="str">
+      <c r="AJ32" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F38</f>
         <v/>
       </c>
@@ -31261,16 +31314,16 @@
       <c r="AD33" s="130"/>
       <c r="AE33" s="130"/>
       <c r="AF33" s="431"/>
-      <c r="AG33" s="469" t="str">
+      <c r="AG33" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH33" s="468" t="str">
+      <c r="AH33" s="467" t="str">
         <f ca="1">AP!G34</f>
         <v/>
       </c>
       <c r="AI33" s="432"/>
-      <c r="AJ33" s="470" t="str">
+      <c r="AJ33" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F39</f>
         <v/>
       </c>
@@ -31314,16 +31367,16 @@
       <c r="AD34" s="130"/>
       <c r="AE34" s="130"/>
       <c r="AF34" s="431"/>
-      <c r="AG34" s="469" t="str">
+      <c r="AG34" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH34" s="468" t="str">
+      <c r="AH34" s="467" t="str">
         <f ca="1">AP!G35</f>
         <v/>
       </c>
       <c r="AI34" s="432"/>
-      <c r="AJ34" s="470" t="str">
+      <c r="AJ34" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F40</f>
         <v/>
       </c>
@@ -31367,16 +31420,16 @@
       <c r="AD35" s="130"/>
       <c r="AE35" s="130"/>
       <c r="AF35" s="431"/>
-      <c r="AG35" s="469" t="str">
+      <c r="AG35" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH35" s="468" t="str">
+      <c r="AH35" s="467" t="str">
         <f ca="1">AP!G36</f>
         <v/>
       </c>
       <c r="AI35" s="432"/>
-      <c r="AJ35" s="470" t="str">
+      <c r="AJ35" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F41</f>
         <v/>
       </c>
@@ -31420,16 +31473,16 @@
       <c r="AD36" s="130"/>
       <c r="AE36" s="130"/>
       <c r="AF36" s="431"/>
-      <c r="AG36" s="469" t="str">
+      <c r="AG36" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH36" s="468" t="str">
+      <c r="AH36" s="467" t="str">
         <f ca="1">AP!G37</f>
         <v/>
       </c>
       <c r="AI36" s="432"/>
-      <c r="AJ36" s="470" t="str">
+      <c r="AJ36" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F42</f>
         <v/>
       </c>
@@ -31473,16 +31526,16 @@
       <c r="AD37" s="130"/>
       <c r="AE37" s="130"/>
       <c r="AF37" s="431"/>
-      <c r="AG37" s="469" t="str">
+      <c r="AG37" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH37" s="468" t="str">
+      <c r="AH37" s="467" t="str">
         <f ca="1">AP!G38</f>
         <v/>
       </c>
       <c r="AI37" s="432"/>
-      <c r="AJ37" s="470" t="str">
+      <c r="AJ37" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F43</f>
         <v/>
       </c>
@@ -31526,16 +31579,16 @@
       <c r="AD38" s="130"/>
       <c r="AE38" s="130"/>
       <c r="AF38" s="431"/>
-      <c r="AG38" s="469" t="str">
+      <c r="AG38" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH38" s="468" t="str">
+      <c r="AH38" s="467" t="str">
         <f ca="1">AP!G39</f>
         <v/>
       </c>
       <c r="AI38" s="432"/>
-      <c r="AJ38" s="470" t="str">
+      <c r="AJ38" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F44</f>
         <v/>
       </c>
@@ -31579,16 +31632,16 @@
       <c r="AD39" s="130"/>
       <c r="AE39" s="130"/>
       <c r="AF39" s="431"/>
-      <c r="AG39" s="469" t="str">
+      <c r="AG39" s="468" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH39" s="468" t="str">
+      <c r="AH39" s="467" t="str">
         <f ca="1">AP!G40</f>
         <v/>
       </c>
       <c r="AI39" s="432"/>
-      <c r="AJ39" s="470" t="str">
+      <c r="AJ39" s="469" t="str">
         <f ca="1">'Ausdruck SAP'!F45</f>
         <v/>
       </c>
@@ -31716,11 +31769,11 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG40" s="466" t="e">
+      <c r="AG40" s="465" t="e">
         <f>SUM(AG5:AG39)/COUNT(AG5:AG39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH40" s="465" t="e">
+      <c r="AH40" s="464" t="e">
         <f ca="1">SUM(AH5:AH39)/COUNT(AH5:AH39)</f>
         <v>#DIV/0!</v>
       </c>
@@ -31867,13 +31920,13 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Tabelle22">
     <tabColor rgb="FFAB5353"/>
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -31954,15 +32007,15 @@
       <c r="G6" s="111"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="520" t="s">
+      <c r="A7" s="533" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="521"/>
-      <c r="C7" s="521"/>
-      <c r="D7" s="521"/>
-      <c r="E7" s="521"/>
-      <c r="F7" s="521"/>
-      <c r="G7" s="522"/>
+      <c r="B7" s="534"/>
+      <c r="C7" s="534"/>
+      <c r="D7" s="534"/>
+      <c r="E7" s="534"/>
+      <c r="F7" s="534"/>
+      <c r="G7" s="535"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="120"/>
@@ -31978,14 +32031,14 @@
       <c r="B9" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="523" t="s">
+      <c r="C9" s="536" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="523"/>
-      <c r="E9" s="527" t="s">
+      <c r="D9" s="536"/>
+      <c r="E9" s="538" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="528"/>
+      <c r="F9" s="539"/>
       <c r="G9" s="117"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32025,7 +32078,7 @@
         <f ca="1">AP!G6</f>
         <v/>
       </c>
-      <c r="F11" s="471" t="str">
+      <c r="F11" s="470" t="str">
         <f ca="1">IF(D11="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D11, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D11))</f>
         <v/>
       </c>
@@ -32046,7 +32099,7 @@
         <f>IF(APRohpunkte!AG6="",'Eingabe Abitur'!Q13,APRohpunkte!AG6)</f>
         <v/>
       </c>
-      <c r="D12" s="461" t="str">
+      <c r="D12" s="585" t="str">
         <f>IF(APRohpunkte!AI6="",'Eingabe Abitur'!Q14,APRohpunkte!AI6)</f>
         <v/>
       </c>
@@ -32054,7 +32107,7 @@
         <f ca="1">AP!G7</f>
         <v/>
       </c>
-      <c r="F12" s="471" t="str">
+      <c r="F12" s="470" t="str">
         <f ca="1">IF(D12="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D12, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D12))</f>
         <v/>
       </c>
@@ -32083,7 +32136,7 @@
         <f ca="1">AP!G8</f>
         <v/>
       </c>
-      <c r="F13" s="471" t="str">
+      <c r="F13" s="470" t="str">
         <f ca="1">IF(D13="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D13, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D13))</f>
         <v/>
       </c>
@@ -32112,7 +32165,7 @@
         <f ca="1">AP!G9</f>
         <v/>
       </c>
-      <c r="F14" s="471" t="str">
+      <c r="F14" s="470" t="str">
         <f ca="1">IF(D14="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D14, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D14))</f>
         <v/>
       </c>
@@ -32141,7 +32194,7 @@
         <f ca="1">AP!G10</f>
         <v/>
       </c>
-      <c r="F15" s="471" t="str">
+      <c r="F15" s="470" t="str">
         <f ca="1">IF(D15="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D15, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D15))</f>
         <v/>
       </c>
@@ -32170,7 +32223,7 @@
         <f ca="1">AP!G11</f>
         <v/>
       </c>
-      <c r="F16" s="471" t="str">
+      <c r="F16" s="470" t="str">
         <f ca="1">IF(D16="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D16, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D16))</f>
         <v/>
       </c>
@@ -32199,7 +32252,7 @@
         <f ca="1">AP!G12</f>
         <v/>
       </c>
-      <c r="F17" s="471" t="str">
+      <c r="F17" s="470" t="str">
         <f ca="1">IF(D17="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D17, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D17))</f>
         <v/>
       </c>
@@ -32228,7 +32281,7 @@
         <f ca="1">AP!G13</f>
         <v/>
       </c>
-      <c r="F18" s="471" t="str">
+      <c r="F18" s="470" t="str">
         <f ca="1">IF(D18="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D18, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D18))</f>
         <v/>
       </c>
@@ -32257,7 +32310,7 @@
         <f ca="1">AP!G14</f>
         <v/>
       </c>
-      <c r="F19" s="471" t="str">
+      <c r="F19" s="470" t="str">
         <f ca="1">IF(D19="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D19, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D19))</f>
         <v/>
       </c>
@@ -32286,7 +32339,7 @@
         <f ca="1">AP!G15</f>
         <v/>
       </c>
-      <c r="F20" s="471" t="str">
+      <c r="F20" s="470" t="str">
         <f ca="1">IF(D20="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D20, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D20))</f>
         <v/>
       </c>
@@ -32315,7 +32368,7 @@
         <f ca="1">AP!G16</f>
         <v/>
       </c>
-      <c r="F21" s="471" t="str">
+      <c r="F21" s="470" t="str">
         <f ca="1">IF(D21="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D21, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D21))</f>
         <v/>
       </c>
@@ -32344,7 +32397,7 @@
         <f ca="1">AP!G17</f>
         <v/>
       </c>
-      <c r="F22" s="471" t="str">
+      <c r="F22" s="470" t="str">
         <f ca="1">IF(D22="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D22, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D22))</f>
         <v/>
       </c>
@@ -32373,7 +32426,7 @@
         <f ca="1">AP!G18</f>
         <v/>
       </c>
-      <c r="F23" s="471" t="str">
+      <c r="F23" s="470" t="str">
         <f ca="1">IF(D23="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D23, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D23))</f>
         <v/>
       </c>
@@ -32402,7 +32455,7 @@
         <f ca="1">AP!G19</f>
         <v/>
       </c>
-      <c r="F24" s="471" t="str">
+      <c r="F24" s="470" t="str">
         <f ca="1">IF(D24="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D24, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D24))</f>
         <v/>
       </c>
@@ -32431,7 +32484,7 @@
         <f ca="1">AP!G20</f>
         <v/>
       </c>
-      <c r="F25" s="471" t="str">
+      <c r="F25" s="470" t="str">
         <f ca="1">IF(D25="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D25, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D25))</f>
         <v/>
       </c>
@@ -32460,7 +32513,7 @@
         <f ca="1">AP!G21</f>
         <v/>
       </c>
-      <c r="F26" s="471" t="str">
+      <c r="F26" s="470" t="str">
         <f ca="1">IF(D26="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D26, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D26))</f>
         <v/>
       </c>
@@ -32489,7 +32542,7 @@
         <f ca="1">AP!G22</f>
         <v/>
       </c>
-      <c r="F27" s="471" t="str">
+      <c r="F27" s="470" t="str">
         <f ca="1">IF(D27="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D27, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D27))</f>
         <v/>
       </c>
@@ -32518,7 +32571,7 @@
         <f ca="1">AP!G23</f>
         <v/>
       </c>
-      <c r="F28" s="471" t="str">
+      <c r="F28" s="470" t="str">
         <f ca="1">IF(D28="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D28, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D28))</f>
         <v/>
       </c>
@@ -32547,7 +32600,7 @@
         <f ca="1">AP!G24</f>
         <v/>
       </c>
-      <c r="F29" s="471" t="str">
+      <c r="F29" s="470" t="str">
         <f ca="1">IF(D29="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D29, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D29))</f>
         <v/>
       </c>
@@ -32576,7 +32629,7 @@
         <f ca="1">AP!G25</f>
         <v/>
       </c>
-      <c r="F30" s="471" t="str">
+      <c r="F30" s="470" t="str">
         <f ca="1">IF(D30="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D30, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D30))</f>
         <v/>
       </c>
@@ -32605,7 +32658,7 @@
         <f ca="1">AP!G26</f>
         <v/>
       </c>
-      <c r="F31" s="471" t="str">
+      <c r="F31" s="470" t="str">
         <f ca="1">IF(D31="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D31, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D31))</f>
         <v/>
       </c>
@@ -32634,7 +32687,7 @@
         <f ca="1">AP!G27</f>
         <v/>
       </c>
-      <c r="F32" s="471" t="str">
+      <c r="F32" s="470" t="str">
         <f ca="1">IF(D32="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D32, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D32))</f>
         <v/>
       </c>
@@ -32663,7 +32716,7 @@
         <f ca="1">AP!G28</f>
         <v/>
       </c>
-      <c r="F33" s="471" t="str">
+      <c r="F33" s="470" t="str">
         <f ca="1">IF(D33="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D33, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D33))</f>
         <v/>
       </c>
@@ -32692,7 +32745,7 @@
         <f ca="1">AP!G29</f>
         <v/>
       </c>
-      <c r="F34" s="471" t="str">
+      <c r="F34" s="470" t="str">
         <f ca="1">IF(D34="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D34, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D34))</f>
         <v/>
       </c>
@@ -32721,7 +32774,7 @@
         <f ca="1">AP!G30</f>
         <v/>
       </c>
-      <c r="F35" s="471" t="str">
+      <c r="F35" s="470" t="str">
         <f ca="1">IF(D35="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D35, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D35))</f>
         <v/>
       </c>
@@ -32750,7 +32803,7 @@
         <f ca="1">AP!G31</f>
         <v/>
       </c>
-      <c r="F36" s="471" t="str">
+      <c r="F36" s="470" t="str">
         <f ca="1">IF(D36="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D36, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D36))</f>
         <v/>
       </c>
@@ -32779,7 +32832,7 @@
         <f ca="1">AP!G32</f>
         <v/>
       </c>
-      <c r="F37" s="471" t="str">
+      <c r="F37" s="470" t="str">
         <f ca="1">IF(D37="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D37, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D37))</f>
         <v/>
       </c>
@@ -32808,7 +32861,7 @@
         <f ca="1">AP!G33</f>
         <v/>
       </c>
-      <c r="F38" s="471" t="str">
+      <c r="F38" s="470" t="str">
         <f ca="1">IF(D38="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D38, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D38))</f>
         <v/>
       </c>
@@ -32837,7 +32890,7 @@
         <f ca="1">AP!G34</f>
         <v/>
       </c>
-      <c r="F39" s="471" t="str">
+      <c r="F39" s="470" t="str">
         <f ca="1">IF(D39="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D39, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D39))</f>
         <v/>
       </c>
@@ -32866,7 +32919,7 @@
         <f ca="1">AP!G35</f>
         <v/>
       </c>
-      <c r="F40" s="471" t="str">
+      <c r="F40" s="470" t="str">
         <f ca="1">IF(D40="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D40, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D40))</f>
         <v/>
       </c>
@@ -32895,7 +32948,7 @@
         <f ca="1">AP!G36</f>
         <v/>
       </c>
-      <c r="F41" s="471" t="str">
+      <c r="F41" s="470" t="str">
         <f ca="1">IF(D41="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D41, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D41))</f>
         <v/>
       </c>
@@ -32924,7 +32977,7 @@
         <f ca="1">AP!G37</f>
         <v/>
       </c>
-      <c r="F42" s="471" t="str">
+      <c r="F42" s="470" t="str">
         <f ca="1">IF(D42="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D42, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D42))</f>
         <v/>
       </c>
@@ -32953,7 +33006,7 @@
         <f ca="1">AP!G38</f>
         <v/>
       </c>
-      <c r="F43" s="471" t="str">
+      <c r="F43" s="470" t="str">
         <f ca="1">IF(D43="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D43, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D43))</f>
         <v/>
       </c>
@@ -32982,7 +33035,7 @@
         <f ca="1">AP!G39</f>
         <v/>
       </c>
-      <c r="F44" s="471" t="str">
+      <c r="F44" s="470" t="str">
         <f ca="1">IF(D44="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D44, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D44))</f>
         <v/>
       </c>
@@ -33011,7 +33064,7 @@
         <f ca="1">AP!G40</f>
         <v/>
       </c>
-      <c r="F45" s="471" t="str">
+      <c r="F45" s="470" t="str">
         <f ca="1">IF(D45="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D45, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D45))</f>
         <v/>
       </c>
@@ -33030,8 +33083,8 @@
       <c r="G46" s="111"/>
     </row>
     <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="524"/>
-      <c r="B47" s="524"/>
+      <c r="A47" s="537"/>
+      <c r="B47" s="537"/>
       <c r="C47" s="127" t="s">
         <v>80</v>
       </c>
@@ -33047,10 +33100,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="525">
+      <c r="A48" s="519">
         <v>15</v>
       </c>
-      <c r="B48" s="526"/>
+      <c r="B48" s="520"/>
       <c r="C48" s="129" t="str">
         <f>AP!E50 &amp;"-"&amp; AP!F50</f>
         <v>100-95,5</v>
@@ -33072,10 +33125,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="525">
+      <c r="A49" s="519">
         <v>14</v>
       </c>
-      <c r="B49" s="526"/>
+      <c r="B49" s="520"/>
       <c r="C49" s="129" t="str">
         <f>AP!E51 &amp;"-"&amp; AP!F51</f>
         <v>95-90,5</v>
@@ -33097,10 +33150,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="525">
+      <c r="A50" s="519">
         <v>13</v>
       </c>
-      <c r="B50" s="526"/>
+      <c r="B50" s="520"/>
       <c r="C50" s="129" t="str">
         <f>AP!E52 &amp;"-"&amp; AP!F52</f>
         <v>90-85,5</v>
@@ -33122,10 +33175,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="525">
+      <c r="A51" s="519">
         <v>12</v>
       </c>
-      <c r="B51" s="526"/>
+      <c r="B51" s="520"/>
       <c r="C51" s="129" t="str">
         <f>AP!E53 &amp;"-"&amp; AP!F53</f>
         <v>85-80,5</v>
@@ -33147,10 +33200,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="525">
+      <c r="A52" s="519">
         <v>11</v>
       </c>
-      <c r="B52" s="526"/>
+      <c r="B52" s="520"/>
       <c r="C52" s="129" t="str">
         <f>AP!E54 &amp;"-"&amp; AP!F54</f>
         <v>80-75,5</v>
@@ -33172,10 +33225,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="525">
+      <c r="A53" s="519">
         <v>10</v>
       </c>
-      <c r="B53" s="526"/>
+      <c r="B53" s="520"/>
       <c r="C53" s="129" t="str">
         <f>AP!E55 &amp;"-"&amp; AP!F55</f>
         <v>75-70,5</v>
@@ -33197,10 +33250,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="525">
+      <c r="A54" s="519">
         <v>9</v>
       </c>
-      <c r="B54" s="526"/>
+      <c r="B54" s="520"/>
       <c r="C54" s="129" t="str">
         <f>AP!E56 &amp;"-"&amp; AP!F56</f>
         <v>70-65,5</v>
@@ -33222,10 +33275,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="525">
+      <c r="A55" s="519">
         <v>8</v>
       </c>
-      <c r="B55" s="526"/>
+      <c r="B55" s="520"/>
       <c r="C55" s="129" t="str">
         <f>AP!E57 &amp;"-"&amp; AP!F57</f>
         <v>65-60,5</v>
@@ -33256,73 +33309,64 @@
       <c r="G56" s="104"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="538" t="s">
+      <c r="A57" s="530" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="539"/>
-      <c r="C57" s="539"/>
-      <c r="D57" s="539"/>
-      <c r="E57" s="539"/>
-      <c r="F57" s="539"/>
-      <c r="G57" s="540"/>
+      <c r="B57" s="531"/>
+      <c r="C57" s="531"/>
+      <c r="D57" s="531"/>
+      <c r="E57" s="531"/>
+      <c r="F57" s="531"/>
+      <c r="G57" s="532"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="529" t="e">
+      <c r="A58" s="521" t="e">
         <f ca="1">AVERAGE(E11:E45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B58" s="530"/>
-      <c r="C58" s="530"/>
-      <c r="D58" s="530"/>
-      <c r="E58" s="530"/>
-      <c r="F58" s="530"/>
-      <c r="G58" s="531"/>
+      <c r="B58" s="522"/>
+      <c r="C58" s="522"/>
+      <c r="D58" s="522"/>
+      <c r="E58" s="522"/>
+      <c r="F58" s="522"/>
+      <c r="G58" s="523"/>
     </row>
     <row r="60" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="535" t="s">
+      <c r="A60" s="527" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="536"/>
-      <c r="C60" s="536"/>
-      <c r="D60" s="536"/>
-      <c r="E60" s="536"/>
-      <c r="F60" s="536"/>
-      <c r="G60" s="537"/>
+      <c r="B60" s="528"/>
+      <c r="C60" s="528"/>
+      <c r="D60" s="528"/>
+      <c r="E60" s="528"/>
+      <c r="F60" s="528"/>
+      <c r="G60" s="529"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="103"/>
-      <c r="B65" s="534"/>
-      <c r="C65" s="534"/>
+      <c r="B65" s="526"/>
+      <c r="C65" s="526"/>
       <c r="D65" s="101"/>
       <c r="E65" s="101"/>
-      <c r="F65" s="533"/>
-      <c r="G65" s="533"/>
+      <c r="F65" s="525"/>
+      <c r="G65" s="525"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="101"/>
-      <c r="B66" s="532" t="s">
+      <c r="B66" s="524" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="532"/>
+      <c r="C66" s="524"/>
       <c r="D66" s="101"/>
       <c r="E66" s="102"/>
-      <c r="F66" s="532" t="s">
+      <c r="F66" s="524" t="s">
         <v>76</v>
       </c>
-      <c r="G66" s="532"/>
+      <c r="G66" s="524"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BUBUwTKnbflwenFY/eJTBj810JGBNO3GUCkvQlIAcIlkr97QXqdQt7tzAq9x2LgSWVRUaqwWO1X5yZy7AJF56w==" saltValue="FpDh3U86E+8H8zUX4Yp/og==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A57:G57"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A47:B47"/>
@@ -33333,6 +33377,15 @@
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A57:G57"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.35433070866141736" top="0.39" bottom="0.52" header="0.19" footer="0.45"/>
@@ -33373,7 +33426,7 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="Eingabe momentan nicht erlaubt" error="Die Eingabe in diese Zelle ist nur erlaubt, wenn die Abschlussprüfung über Punkte anstatt Bewertungseinheiten eingegeben wird">
+        <x14:dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="Eingabe momentan nicht erlaubt" error="Die Eingabe in diese Zelle ist nur erlaubt, wenn die Abschlussprüfung über Punkte anstatt Bewertungseinheiten eingegeben wird" xr:uid="{00000000-0002-0000-1200-000000000000}">
           <x14:formula1>
             <xm:f>AP!$E$42&lt;&gt;"BE"</xm:f>
           </x14:formula1>
@@ -33386,8 +33439,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Tabelle4">
     <tabColor indexed="34"/>
   </sheetPr>
   <dimension ref="A1:AW59"/>
@@ -33427,17 +33480,17 @@
       <c r="B1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -33558,11 +33611,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -35010,21 +35063,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -35044,19 +35097,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -35076,7 +35129,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="81" t="s">
         <v>21</v>
@@ -35084,11 +35137,11 @@
       <c r="D42" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -35748,10 +35801,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35762,7 +35815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Tabelle18">
     <tabColor rgb="FFAB5555"/>
   </sheetPr>
@@ -35835,15 +35888,15 @@
       <c r="G5" s="119"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="542" t="s">
+      <c r="A7" s="541" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="543"/>
-      <c r="C7" s="543"/>
-      <c r="D7" s="543"/>
-      <c r="E7" s="543"/>
-      <c r="F7" s="543"/>
-      <c r="G7" s="544"/>
+      <c r="B7" s="542"/>
+      <c r="C7" s="542"/>
+      <c r="D7" s="542"/>
+      <c r="E7" s="542"/>
+      <c r="F7" s="542"/>
+      <c r="G7" s="543"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="345"/>
@@ -36640,39 +36693,39 @@
       <c r="A56" s="345"/>
       <c r="B56" s="341"/>
       <c r="C56" s="341"/>
-      <c r="D56" s="545" t="s">
+      <c r="D56" s="544" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="546"/>
-      <c r="F56" s="546"/>
-      <c r="G56" s="547"/>
+      <c r="E56" s="545"/>
+      <c r="F56" s="545"/>
+      <c r="G56" s="546"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="357"/>
       <c r="B57" s="343"/>
       <c r="C57" s="343"/>
-      <c r="D57" s="548" t="str">
+      <c r="D57" s="547" t="str">
         <f>IF(SUM(C10:C44)=0,"",AVERAGE(C10:C44))</f>
         <v/>
       </c>
-      <c r="E57" s="549"/>
-      <c r="F57" s="549"/>
-      <c r="G57" s="550"/>
+      <c r="E57" s="548"/>
+      <c r="F57" s="548"/>
+      <c r="G57" s="549"/>
     </row>
     <row r="58" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="551" t="s">
+      <c r="A58" s="550" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="552"/>
-      <c r="C58" s="552"/>
-      <c r="D58" s="552"/>
-      <c r="E58" s="552"/>
-      <c r="F58" s="552"/>
-      <c r="G58" s="553"/>
+      <c r="B58" s="551"/>
+      <c r="C58" s="551"/>
+      <c r="D58" s="551"/>
+      <c r="E58" s="551"/>
+      <c r="F58" s="551"/>
+      <c r="G58" s="552"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="554"/>
-      <c r="B60" s="554"/>
+      <c r="A60" s="553"/>
+      <c r="B60" s="553"/>
       <c r="C60" s="341"/>
       <c r="D60" s="341"/>
       <c r="E60" s="341"/>
@@ -36684,12 +36737,12 @@
         <v>77</v>
       </c>
       <c r="C61" s="341"/>
-      <c r="D61" s="541" t="s">
+      <c r="D61" s="540" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="541"/>
-      <c r="F61" s="541"/>
-      <c r="G61" s="541"/>
+      <c r="E61" s="540"/>
+      <c r="F61" s="540"/>
+      <c r="G61" s="540"/>
     </row>
   </sheetData>
   <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -36712,7 +36765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Tabelle20">
     <tabColor rgb="FFAB5555"/>
   </sheetPr>
@@ -36907,66 +36960,66 @@
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="249"/>
       <c r="B6" s="255"/>
-      <c r="C6" s="566" t="s">
+      <c r="C6" s="577" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="567"/>
-      <c r="E6" s="567"/>
-      <c r="F6" s="567"/>
-      <c r="G6" s="567"/>
-      <c r="H6" s="567"/>
-      <c r="I6" s="567"/>
-      <c r="J6" s="567"/>
-      <c r="K6" s="567"/>
-      <c r="L6" s="567"/>
-      <c r="M6" s="567"/>
-      <c r="N6" s="567"/>
-      <c r="O6" s="567"/>
-      <c r="P6" s="567"/>
-      <c r="Q6" s="567"/>
-      <c r="R6" s="568"/>
-      <c r="S6" s="566" t="s">
+      <c r="D6" s="578"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="578"/>
+      <c r="I6" s="578"/>
+      <c r="J6" s="578"/>
+      <c r="K6" s="578"/>
+      <c r="L6" s="578"/>
+      <c r="M6" s="578"/>
+      <c r="N6" s="578"/>
+      <c r="O6" s="578"/>
+      <c r="P6" s="578"/>
+      <c r="Q6" s="578"/>
+      <c r="R6" s="579"/>
+      <c r="S6" s="577" t="s">
         <v>117</v>
       </c>
-      <c r="T6" s="567"/>
-      <c r="U6" s="567"/>
-      <c r="V6" s="567"/>
-      <c r="W6" s="567"/>
-      <c r="X6" s="568"/>
-      <c r="Y6" s="569" t="s">
+      <c r="T6" s="578"/>
+      <c r="U6" s="578"/>
+      <c r="V6" s="578"/>
+      <c r="W6" s="578"/>
+      <c r="X6" s="579"/>
+      <c r="Y6" s="580" t="s">
         <v>118</v>
       </c>
-      <c r="Z6" s="570"/>
+      <c r="Z6" s="581"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="255"/>
       <c r="B7" s="255"/>
-      <c r="C7" s="571" t="s">
+      <c r="C7" s="582" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="556"/>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="556"/>
-      <c r="J7" s="572"/>
-      <c r="K7" s="555" t="s">
+      <c r="D7" s="573"/>
+      <c r="E7" s="573"/>
+      <c r="F7" s="573"/>
+      <c r="G7" s="573"/>
+      <c r="H7" s="573"/>
+      <c r="I7" s="573"/>
+      <c r="J7" s="583"/>
+      <c r="K7" s="572" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="556"/>
-      <c r="M7" s="556"/>
-      <c r="N7" s="556"/>
-      <c r="O7" s="556"/>
-      <c r="P7" s="572"/>
+      <c r="L7" s="573"/>
+      <c r="M7" s="573"/>
+      <c r="N7" s="573"/>
+      <c r="O7" s="573"/>
+      <c r="P7" s="583"/>
       <c r="Q7" s="260"/>
       <c r="R7" s="261"/>
-      <c r="S7" s="573" t="s">
+      <c r="S7" s="584" t="s">
         <v>121</v>
       </c>
-      <c r="T7" s="558"/>
-      <c r="U7" s="558"/>
-      <c r="V7" s="559"/>
+      <c r="T7" s="575"/>
+      <c r="U7" s="575"/>
+      <c r="V7" s="576"/>
       <c r="W7" s="262"/>
       <c r="X7" s="261"/>
       <c r="Y7" s="263"/>
@@ -36997,15 +37050,15 @@
         <v>122</v>
       </c>
       <c r="J8" s="269"/>
-      <c r="K8" s="555" t="s">
+      <c r="K8" s="572" t="s">
         <v>123</v>
       </c>
-      <c r="L8" s="556"/>
-      <c r="M8" s="557" t="s">
+      <c r="L8" s="573"/>
+      <c r="M8" s="574" t="s">
         <v>124</v>
       </c>
-      <c r="N8" s="558"/>
-      <c r="O8" s="559"/>
+      <c r="N8" s="575"/>
+      <c r="O8" s="576"/>
       <c r="P8" s="269"/>
       <c r="Q8" s="270"/>
       <c r="R8" s="261"/>
@@ -37159,10 +37212,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="560">
+      <c r="A11" s="558">
         <v>1</v>
       </c>
-      <c r="B11" s="560" t="str">
+      <c r="B11" s="558" t="str">
         <f>IF('1. Halbjahr'!B4&lt;&gt;"", '1. Halbjahr'!B4, "")</f>
         <v/>
       </c>
@@ -37194,18 +37247,18 @@
         <f ca="1">IF(Q11="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q11/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q11))</f>
         <v/>
       </c>
-      <c r="S11" s="562"/>
-      <c r="T11" s="564"/>
-      <c r="U11" s="574"/>
-      <c r="V11" s="576" t="str">
+      <c r="S11" s="560"/>
+      <c r="T11" s="562"/>
+      <c r="U11" s="564"/>
+      <c r="V11" s="566" t="str">
         <f>IF(B11="","",SUM(S11:U11))</f>
         <v/>
       </c>
-      <c r="W11" s="578" t="str">
+      <c r="W11" s="554" t="str">
         <f>IF(B11="","",IF(ISBLANK(S11),"",IF(AVERAGE(S11:U11)&lt;10,LEFT(AVERAGE(S11:U11),4),LEFT(AVERAGE(S11:U11),5))))</f>
         <v/>
       </c>
-      <c r="X11" s="580" t="str">
+      <c r="X11" s="556" t="str">
         <f>IF(B11="","",IF(W11="","",IF(LEFT(W11,1)="0",0,ROUND(W11,0))))</f>
         <v/>
       </c>
@@ -37220,8 +37273,8 @@
       <c r="AB11" s="306"/>
     </row>
     <row r="12" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="561"/>
-      <c r="B12" s="561"/>
+      <c r="A12" s="559"/>
+      <c r="B12" s="559"/>
       <c r="C12" s="307"/>
       <c r="D12" s="307"/>
       <c r="E12" s="307"/>
@@ -37250,12 +37303,12 @@
         <f ca="1">IF(Q12="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q12/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q12))</f>
         <v/>
       </c>
-      <c r="S12" s="563"/>
-      <c r="T12" s="565"/>
-      <c r="U12" s="575"/>
-      <c r="V12" s="577"/>
-      <c r="W12" s="579"/>
-      <c r="X12" s="581"/>
+      <c r="S12" s="561"/>
+      <c r="T12" s="563"/>
+      <c r="U12" s="565"/>
+      <c r="V12" s="567"/>
+      <c r="W12" s="555"/>
+      <c r="X12" s="557"/>
       <c r="Y12" s="313" t="str">
         <f>IF(B11="","",ROUNDUP(AVERAGE(R12,R12,X11),2))</f>
         <v/>
@@ -37266,10 +37319,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="560">
+      <c r="A13" s="558">
         <v>2</v>
       </c>
-      <c r="B13" s="560" t="str">
+      <c r="B13" s="558" t="str">
         <f>IF('1. Halbjahr'!B5&lt;&gt;"", '1. Halbjahr'!B5, "")</f>
         <v/>
       </c>
@@ -37301,18 +37354,18 @@
         <f ca="1">IF(Q13="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q13/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q13))</f>
         <v/>
       </c>
-      <c r="S13" s="562"/>
-      <c r="T13" s="564"/>
-      <c r="U13" s="574"/>
-      <c r="V13" s="576" t="str">
+      <c r="S13" s="560"/>
+      <c r="T13" s="562"/>
+      <c r="U13" s="564"/>
+      <c r="V13" s="566" t="str">
         <f>IF(B13="","",SUM(S13:U13))</f>
         <v/>
       </c>
-      <c r="W13" s="578" t="str">
+      <c r="W13" s="554" t="str">
         <f>IF(B13="","",IF(ISBLANK(S13),"",IF(AVERAGE(S13:U13)&lt;10,LEFT(AVERAGE(S13:U13),4),LEFT(AVERAGE(S13:U13),5))))</f>
         <v/>
       </c>
-      <c r="X13" s="580" t="str">
+      <c r="X13" s="556" t="str">
         <f>IF(B13="","",IF(W13="","",IF(LEFT(W13,1)="0",0,ROUND(W13,0))))</f>
         <v/>
       </c>
@@ -37327,8 +37380,8 @@
       <c r="AA13" s="317"/>
     </row>
     <row r="14" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="561"/>
-      <c r="B14" s="561"/>
+      <c r="A14" s="559"/>
+      <c r="B14" s="559"/>
       <c r="C14" s="318"/>
       <c r="D14" s="307"/>
       <c r="E14" s="307"/>
@@ -37357,12 +37410,12 @@
         <f ca="1">IF(Q14="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q14/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q14))</f>
         <v/>
       </c>
-      <c r="S14" s="563"/>
-      <c r="T14" s="565"/>
-      <c r="U14" s="575"/>
-      <c r="V14" s="577"/>
-      <c r="W14" s="579"/>
-      <c r="X14" s="581"/>
+      <c r="S14" s="561"/>
+      <c r="T14" s="563"/>
+      <c r="U14" s="565"/>
+      <c r="V14" s="567"/>
+      <c r="W14" s="555"/>
+      <c r="X14" s="557"/>
       <c r="Y14" s="313" t="str">
         <f>IF(B13="","",ROUNDUP(AVERAGE(R14,R14,X13),2))</f>
         <v/>
@@ -37373,10 +37426,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="560">
+      <c r="A15" s="558">
         <v>3</v>
       </c>
-      <c r="B15" s="560" t="str">
+      <c r="B15" s="558" t="str">
         <f>IF('1. Halbjahr'!B6&lt;&gt;"", '1. Halbjahr'!B6, "")</f>
         <v/>
       </c>
@@ -37408,18 +37461,18 @@
         <f ca="1">IF(Q15="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q15/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q15))</f>
         <v/>
       </c>
-      <c r="S15" s="562"/>
-      <c r="T15" s="564"/>
-      <c r="U15" s="574"/>
-      <c r="V15" s="576" t="str">
+      <c r="S15" s="560"/>
+      <c r="T15" s="562"/>
+      <c r="U15" s="564"/>
+      <c r="V15" s="566" t="str">
         <f>IF(B15="","",SUM(S15:U15))</f>
         <v/>
       </c>
-      <c r="W15" s="578" t="str">
+      <c r="W15" s="554" t="str">
         <f>IF(B15="","",IF(ISBLANK(S15),"",IF(AVERAGE(S15:U15)&lt;10,LEFT(AVERAGE(S15:U15),4),LEFT(AVERAGE(S15:U15),5))))</f>
         <v/>
       </c>
-      <c r="X15" s="580" t="str">
+      <c r="X15" s="556" t="str">
         <f>IF(B15="","",IF(W15="","",IF(LEFT(W15,1)="0",0,ROUND(W15,0))))</f>
         <v/>
       </c>
@@ -37433,8 +37486,8 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="561"/>
-      <c r="B16" s="561"/>
+      <c r="A16" s="559"/>
+      <c r="B16" s="559"/>
       <c r="C16" s="318"/>
       <c r="D16" s="307"/>
       <c r="E16" s="307"/>
@@ -37463,12 +37516,12 @@
         <f ca="1">IF(Q16="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q16/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q16))</f>
         <v/>
       </c>
-      <c r="S16" s="563"/>
-      <c r="T16" s="565"/>
-      <c r="U16" s="575"/>
-      <c r="V16" s="577"/>
-      <c r="W16" s="579"/>
-      <c r="X16" s="581"/>
+      <c r="S16" s="561"/>
+      <c r="T16" s="563"/>
+      <c r="U16" s="565"/>
+      <c r="V16" s="567"/>
+      <c r="W16" s="555"/>
+      <c r="X16" s="557"/>
       <c r="Y16" s="313" t="str">
         <f>IF(B15="","",ROUNDUP(AVERAGE(R16,R16,X15),2))</f>
         <v/>
@@ -37479,10 +37532,10 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="560">
+      <c r="A17" s="558">
         <v>4</v>
       </c>
-      <c r="B17" s="560" t="str">
+      <c r="B17" s="558" t="str">
         <f>IF('1. Halbjahr'!B7&lt;&gt;"", '1. Halbjahr'!B7, "")</f>
         <v/>
       </c>
@@ -37514,18 +37567,18 @@
         <f ca="1">IF(Q17="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q17/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q17))</f>
         <v/>
       </c>
-      <c r="S17" s="562"/>
-      <c r="T17" s="564"/>
-      <c r="U17" s="574"/>
-      <c r="V17" s="576" t="str">
+      <c r="S17" s="560"/>
+      <c r="T17" s="562"/>
+      <c r="U17" s="564"/>
+      <c r="V17" s="566" t="str">
         <f>IF(B17="","",SUM(S17:U17))</f>
         <v/>
       </c>
-      <c r="W17" s="578" t="str">
+      <c r="W17" s="554" t="str">
         <f>IF(B17="","",IF(ISBLANK(S17),"",IF(AVERAGE(S17:U17)&lt;10,LEFT(AVERAGE(S17:U17),4),LEFT(AVERAGE(S17:U17),5))))</f>
         <v/>
       </c>
-      <c r="X17" s="580" t="str">
+      <c r="X17" s="556" t="str">
         <f>IF(B17="","",IF(W17="","",IF(LEFT(W17,1)="0",0,ROUND(W17,0))))</f>
         <v/>
       </c>
@@ -37539,8 +37592,8 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="561"/>
-      <c r="B18" s="561"/>
+      <c r="A18" s="559"/>
+      <c r="B18" s="559"/>
       <c r="C18" s="318"/>
       <c r="D18" s="307"/>
       <c r="E18" s="307"/>
@@ -37569,12 +37622,12 @@
         <f ca="1">IF(Q18="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q18/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q18))</f>
         <v/>
       </c>
-      <c r="S18" s="563"/>
-      <c r="T18" s="565"/>
-      <c r="U18" s="575"/>
-      <c r="V18" s="577"/>
-      <c r="W18" s="579"/>
-      <c r="X18" s="581"/>
+      <c r="S18" s="561"/>
+      <c r="T18" s="563"/>
+      <c r="U18" s="565"/>
+      <c r="V18" s="567"/>
+      <c r="W18" s="555"/>
+      <c r="X18" s="557"/>
       <c r="Y18" s="313" t="str">
         <f>IF(B17="","",ROUNDUP(AVERAGE(R18,R18,X17),2))</f>
         <v/>
@@ -37585,10 +37638,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="560">
+      <c r="A19" s="558">
         <v>5</v>
       </c>
-      <c r="B19" s="560" t="str">
+      <c r="B19" s="558" t="str">
         <f>IF('1. Halbjahr'!B8&lt;&gt;"", '1. Halbjahr'!B8, "")</f>
         <v/>
       </c>
@@ -37620,18 +37673,18 @@
         <f ca="1">IF(Q19="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q19/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q19))</f>
         <v/>
       </c>
-      <c r="S19" s="562"/>
-      <c r="T19" s="564"/>
-      <c r="U19" s="574"/>
-      <c r="V19" s="576" t="str">
+      <c r="S19" s="560"/>
+      <c r="T19" s="562"/>
+      <c r="U19" s="564"/>
+      <c r="V19" s="566" t="str">
         <f>IF(B19="","",SUM(S19:U19))</f>
         <v/>
       </c>
-      <c r="W19" s="578" t="str">
+      <c r="W19" s="554" t="str">
         <f>IF(B19="","",IF(ISBLANK(S19),"",IF(AVERAGE(S19:U19)&lt;10,LEFT(AVERAGE(S19:U19),4),LEFT(AVERAGE(S19:U19),5))))</f>
         <v/>
       </c>
-      <c r="X19" s="580" t="str">
+      <c r="X19" s="556" t="str">
         <f>IF(B19="","",IF(W19="","",IF(LEFT(W19,1)="0",0,ROUND(W19,0))))</f>
         <v/>
       </c>
@@ -37645,8 +37698,8 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="561"/>
-      <c r="B20" s="561"/>
+      <c r="A20" s="559"/>
+      <c r="B20" s="559"/>
       <c r="C20" s="318"/>
       <c r="D20" s="307"/>
       <c r="E20" s="307"/>
@@ -37675,12 +37728,12 @@
         <f ca="1">IF(Q20="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q20/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q20))</f>
         <v/>
       </c>
-      <c r="S20" s="563"/>
-      <c r="T20" s="565"/>
-      <c r="U20" s="575"/>
-      <c r="V20" s="577"/>
-      <c r="W20" s="579"/>
-      <c r="X20" s="581"/>
+      <c r="S20" s="561"/>
+      <c r="T20" s="563"/>
+      <c r="U20" s="565"/>
+      <c r="V20" s="567"/>
+      <c r="W20" s="555"/>
+      <c r="X20" s="557"/>
       <c r="Y20" s="313" t="str">
         <f>IF(B19="","",ROUNDUP(AVERAGE(R20,R20,X19),2))</f>
         <v/>
@@ -37691,10 +37744,10 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="560">
+      <c r="A21" s="558">
         <v>6</v>
       </c>
-      <c r="B21" s="560" t="str">
+      <c r="B21" s="558" t="str">
         <f>IF('1. Halbjahr'!B9&lt;&gt;"", '1. Halbjahr'!B9, "")</f>
         <v/>
       </c>
@@ -37726,18 +37779,18 @@
         <f ca="1">IF(Q21="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q21/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q21))</f>
         <v/>
       </c>
-      <c r="S21" s="562"/>
-      <c r="T21" s="564"/>
-      <c r="U21" s="574"/>
-      <c r="V21" s="576" t="str">
+      <c r="S21" s="560"/>
+      <c r="T21" s="562"/>
+      <c r="U21" s="564"/>
+      <c r="V21" s="566" t="str">
         <f>IF(B21="","",SUM(S21:U21))</f>
         <v/>
       </c>
-      <c r="W21" s="578" t="str">
+      <c r="W21" s="554" t="str">
         <f>IF(B21="","",IF(ISBLANK(S21),"",IF(AVERAGE(S21:U21)&lt;10,LEFT(AVERAGE(S21:U21),4),LEFT(AVERAGE(S21:U21),5))))</f>
         <v/>
       </c>
-      <c r="X21" s="580" t="str">
+      <c r="X21" s="556" t="str">
         <f>IF(B21="","",IF(W21="","",IF(LEFT(W21,1)="0",0,ROUND(W21,0))))</f>
         <v/>
       </c>
@@ -37751,8 +37804,8 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="561"/>
-      <c r="B22" s="561"/>
+      <c r="A22" s="559"/>
+      <c r="B22" s="559"/>
       <c r="C22" s="318"/>
       <c r="D22" s="307"/>
       <c r="E22" s="307"/>
@@ -37781,12 +37834,12 @@
         <f ca="1">IF(Q22="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q22/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q22))</f>
         <v/>
       </c>
-      <c r="S22" s="563"/>
-      <c r="T22" s="565"/>
-      <c r="U22" s="575"/>
-      <c r="V22" s="577"/>
-      <c r="W22" s="579"/>
-      <c r="X22" s="581"/>
+      <c r="S22" s="561"/>
+      <c r="T22" s="563"/>
+      <c r="U22" s="565"/>
+      <c r="V22" s="567"/>
+      <c r="W22" s="555"/>
+      <c r="X22" s="557"/>
       <c r="Y22" s="313" t="str">
         <f>IF(B21="","",ROUNDUP(AVERAGE(R22,R22,X21),2))</f>
         <v/>
@@ -37797,10 +37850,10 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="560">
+      <c r="A23" s="558">
         <v>7</v>
       </c>
-      <c r="B23" s="560" t="str">
+      <c r="B23" s="558" t="str">
         <f>IF('1. Halbjahr'!B10&lt;&gt;"", '1. Halbjahr'!B10, "")</f>
         <v/>
       </c>
@@ -37832,18 +37885,18 @@
         <f ca="1">IF(Q23="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q23/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q23))</f>
         <v/>
       </c>
-      <c r="S23" s="562"/>
-      <c r="T23" s="564"/>
-      <c r="U23" s="574"/>
-      <c r="V23" s="576" t="str">
+      <c r="S23" s="560"/>
+      <c r="T23" s="562"/>
+      <c r="U23" s="564"/>
+      <c r="V23" s="566" t="str">
         <f>IF(B23="","",SUM(S23:U23))</f>
         <v/>
       </c>
-      <c r="W23" s="578" t="str">
+      <c r="W23" s="554" t="str">
         <f>IF(B23="","",IF(ISBLANK(S23),"",IF(AVERAGE(S23:U23)&lt;10,LEFT(AVERAGE(S23:U23),4),LEFT(AVERAGE(S23:U23),5))))</f>
         <v/>
       </c>
-      <c r="X23" s="580" t="str">
+      <c r="X23" s="556" t="str">
         <f>IF(B23="","",IF(W23="","",IF(LEFT(W23,1)="0",0,ROUND(W23,0))))</f>
         <v/>
       </c>
@@ -37857,8 +37910,8 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="561"/>
-      <c r="B24" s="561"/>
+      <c r="A24" s="559"/>
+      <c r="B24" s="559"/>
       <c r="C24" s="318"/>
       <c r="D24" s="307"/>
       <c r="E24" s="307"/>
@@ -37887,12 +37940,12 @@
         <f ca="1">IF(Q24="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q24/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q24))</f>
         <v/>
       </c>
-      <c r="S24" s="563"/>
-      <c r="T24" s="565"/>
-      <c r="U24" s="575"/>
-      <c r="V24" s="577"/>
-      <c r="W24" s="579"/>
-      <c r="X24" s="581"/>
+      <c r="S24" s="561"/>
+      <c r="T24" s="563"/>
+      <c r="U24" s="565"/>
+      <c r="V24" s="567"/>
+      <c r="W24" s="555"/>
+      <c r="X24" s="557"/>
       <c r="Y24" s="313" t="str">
         <f>IF(B23="","",ROUNDUP(AVERAGE(R24,R24,X23),2))</f>
         <v/>
@@ -37903,10 +37956,10 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="560">
+      <c r="A25" s="558">
         <v>8</v>
       </c>
-      <c r="B25" s="560" t="str">
+      <c r="B25" s="558" t="str">
         <f>IF('1. Halbjahr'!B11&lt;&gt;"", '1. Halbjahr'!B11, "")</f>
         <v/>
       </c>
@@ -37938,18 +37991,18 @@
         <f ca="1">IF(Q25="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q25/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q25))</f>
         <v/>
       </c>
-      <c r="S25" s="562"/>
-      <c r="T25" s="564"/>
-      <c r="U25" s="574"/>
-      <c r="V25" s="576" t="str">
+      <c r="S25" s="560"/>
+      <c r="T25" s="562"/>
+      <c r="U25" s="564"/>
+      <c r="V25" s="566" t="str">
         <f>IF(B25="","",SUM(S25:U25))</f>
         <v/>
       </c>
-      <c r="W25" s="578" t="str">
+      <c r="W25" s="554" t="str">
         <f>IF(B25="","",IF(ISBLANK(S25),"",IF(AVERAGE(S25:U25)&lt;10,LEFT(AVERAGE(S25:U25),4),LEFT(AVERAGE(S25:U25),5))))</f>
         <v/>
       </c>
-      <c r="X25" s="580" t="str">
+      <c r="X25" s="556" t="str">
         <f>IF(B25="","",IF(W25="","",IF(LEFT(W25,1)="0",0,ROUND(W25,0))))</f>
         <v/>
       </c>
@@ -37963,8 +38016,8 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="561"/>
-      <c r="B26" s="561"/>
+      <c r="A26" s="559"/>
+      <c r="B26" s="559"/>
       <c r="C26" s="318"/>
       <c r="D26" s="307"/>
       <c r="E26" s="307"/>
@@ -37993,12 +38046,12 @@
         <f ca="1">IF(Q26="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q26/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q26))</f>
         <v/>
       </c>
-      <c r="S26" s="563"/>
-      <c r="T26" s="565"/>
-      <c r="U26" s="575"/>
-      <c r="V26" s="577"/>
-      <c r="W26" s="579"/>
-      <c r="X26" s="581"/>
+      <c r="S26" s="561"/>
+      <c r="T26" s="563"/>
+      <c r="U26" s="565"/>
+      <c r="V26" s="567"/>
+      <c r="W26" s="555"/>
+      <c r="X26" s="557"/>
       <c r="Y26" s="313" t="str">
         <f>IF(B25="","",ROUNDUP(AVERAGE(R26,R26,X25),2))</f>
         <v/>
@@ -38009,10 +38062,10 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="560">
+      <c r="A27" s="558">
         <v>9</v>
       </c>
-      <c r="B27" s="560" t="str">
+      <c r="B27" s="558" t="str">
         <f>IF('1. Halbjahr'!B12&lt;&gt;"", '1. Halbjahr'!B12, "")</f>
         <v/>
       </c>
@@ -38044,18 +38097,18 @@
         <f ca="1">IF(Q27="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q27/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q27))</f>
         <v/>
       </c>
-      <c r="S27" s="562"/>
-      <c r="T27" s="564"/>
-      <c r="U27" s="574"/>
-      <c r="V27" s="576" t="str">
+      <c r="S27" s="560"/>
+      <c r="T27" s="562"/>
+      <c r="U27" s="564"/>
+      <c r="V27" s="566" t="str">
         <f>IF(B27="","",SUM(S27:U27))</f>
         <v/>
       </c>
-      <c r="W27" s="578" t="str">
+      <c r="W27" s="554" t="str">
         <f>IF(B27="","",IF(ISBLANK(S27),"",IF(AVERAGE(S27:U27)&lt;10,LEFT(AVERAGE(S27:U27),4),LEFT(AVERAGE(S27:U27),5))))</f>
         <v/>
       </c>
-      <c r="X27" s="580" t="str">
+      <c r="X27" s="556" t="str">
         <f>IF(B27="","",IF(W27="","",IF(LEFT(W27,1)="0",0,ROUND(W27,0))))</f>
         <v/>
       </c>
@@ -38069,8 +38122,8 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="561"/>
-      <c r="B28" s="561"/>
+      <c r="A28" s="559"/>
+      <c r="B28" s="559"/>
       <c r="C28" s="318"/>
       <c r="D28" s="307"/>
       <c r="E28" s="307"/>
@@ -38099,12 +38152,12 @@
         <f ca="1">IF(Q28="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q28/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q28))</f>
         <v/>
       </c>
-      <c r="S28" s="563"/>
-      <c r="T28" s="565"/>
-      <c r="U28" s="575"/>
-      <c r="V28" s="577"/>
-      <c r="W28" s="579"/>
-      <c r="X28" s="581"/>
+      <c r="S28" s="561"/>
+      <c r="T28" s="563"/>
+      <c r="U28" s="565"/>
+      <c r="V28" s="567"/>
+      <c r="W28" s="555"/>
+      <c r="X28" s="557"/>
       <c r="Y28" s="313" t="str">
         <f>IF(B27="","",ROUNDUP(AVERAGE(R28,R28,X27),2))</f>
         <v/>
@@ -38115,10 +38168,10 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="560">
+      <c r="A29" s="558">
         <v>10</v>
       </c>
-      <c r="B29" s="560" t="str">
+      <c r="B29" s="558" t="str">
         <f>IF('1. Halbjahr'!B13&lt;&gt;"", '1. Halbjahr'!B13, "")</f>
         <v/>
       </c>
@@ -38150,18 +38203,18 @@
         <f ca="1">IF(Q29="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q29/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q29))</f>
         <v/>
       </c>
-      <c r="S29" s="562"/>
-      <c r="T29" s="564"/>
-      <c r="U29" s="574"/>
-      <c r="V29" s="576" t="str">
+      <c r="S29" s="560"/>
+      <c r="T29" s="562"/>
+      <c r="U29" s="564"/>
+      <c r="V29" s="566" t="str">
         <f>IF(B29="","",SUM(S29:U29))</f>
         <v/>
       </c>
-      <c r="W29" s="578" t="str">
+      <c r="W29" s="554" t="str">
         <f>IF(B29="","",IF(ISBLANK(S29),"",IF(AVERAGE(S29:U29)&lt;10,LEFT(AVERAGE(S29:U29),4),LEFT(AVERAGE(S29:U29),5))))</f>
         <v/>
       </c>
-      <c r="X29" s="580" t="str">
+      <c r="X29" s="556" t="str">
         <f>IF(B29="","",IF(W29="","",IF(LEFT(W29,1)="0",0,ROUND(W29,0))))</f>
         <v/>
       </c>
@@ -38175,8 +38228,8 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="561"/>
-      <c r="B30" s="561"/>
+      <c r="A30" s="559"/>
+      <c r="B30" s="559"/>
       <c r="C30" s="318"/>
       <c r="D30" s="307"/>
       <c r="E30" s="307"/>
@@ -38205,12 +38258,12 @@
         <f ca="1">IF(Q30="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q30/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q30))</f>
         <v/>
       </c>
-      <c r="S30" s="563"/>
-      <c r="T30" s="565"/>
-      <c r="U30" s="575"/>
-      <c r="V30" s="577"/>
-      <c r="W30" s="579"/>
-      <c r="X30" s="581"/>
+      <c r="S30" s="561"/>
+      <c r="T30" s="563"/>
+      <c r="U30" s="565"/>
+      <c r="V30" s="567"/>
+      <c r="W30" s="555"/>
+      <c r="X30" s="557"/>
       <c r="Y30" s="313" t="str">
         <f>IF(B29="","",ROUNDUP(AVERAGE(R30,R30,X29),2))</f>
         <v/>
@@ -38221,10 +38274,10 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="560">
+      <c r="A31" s="558">
         <v>11</v>
       </c>
-      <c r="B31" s="560" t="str">
+      <c r="B31" s="558" t="str">
         <f>IF('1. Halbjahr'!B14&lt;&gt;"", '1. Halbjahr'!B14, "")</f>
         <v/>
       </c>
@@ -38256,18 +38309,18 @@
         <f ca="1">IF(Q31="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q31/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q31))</f>
         <v/>
       </c>
-      <c r="S31" s="562"/>
-      <c r="T31" s="564"/>
-      <c r="U31" s="574"/>
-      <c r="V31" s="576" t="str">
+      <c r="S31" s="560"/>
+      <c r="T31" s="562"/>
+      <c r="U31" s="564"/>
+      <c r="V31" s="566" t="str">
         <f>IF(B31="","",SUM(S31:U31))</f>
         <v/>
       </c>
-      <c r="W31" s="578" t="str">
+      <c r="W31" s="554" t="str">
         <f>IF(B31="","",IF(ISBLANK(S31),"",IF(AVERAGE(S31:U31)&lt;10,LEFT(AVERAGE(S31:U31),4),LEFT(AVERAGE(S31:U31),5))))</f>
         <v/>
       </c>
-      <c r="X31" s="580" t="str">
+      <c r="X31" s="556" t="str">
         <f>IF(B31="","",IF(W31="","",IF(LEFT(W31,1)="0",0,ROUND(W31,0))))</f>
         <v/>
       </c>
@@ -38281,8 +38334,8 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="561"/>
-      <c r="B32" s="561"/>
+      <c r="A32" s="559"/>
+      <c r="B32" s="559"/>
       <c r="C32" s="318"/>
       <c r="D32" s="307"/>
       <c r="E32" s="307"/>
@@ -38311,12 +38364,12 @@
         <f ca="1">IF(Q32="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q32/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q32))</f>
         <v/>
       </c>
-      <c r="S32" s="563"/>
-      <c r="T32" s="565"/>
-      <c r="U32" s="575"/>
-      <c r="V32" s="577"/>
-      <c r="W32" s="579"/>
-      <c r="X32" s="581"/>
+      <c r="S32" s="561"/>
+      <c r="T32" s="563"/>
+      <c r="U32" s="565"/>
+      <c r="V32" s="567"/>
+      <c r="W32" s="555"/>
+      <c r="X32" s="557"/>
       <c r="Y32" s="313" t="str">
         <f>IF(B31="","",ROUNDUP(AVERAGE(R32,R32,X31),2))</f>
         <v/>
@@ -38327,10 +38380,10 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="560">
+      <c r="A33" s="558">
         <v>12</v>
       </c>
-      <c r="B33" s="560" t="str">
+      <c r="B33" s="558" t="str">
         <f>IF('1. Halbjahr'!B15&lt;&gt;"", '1. Halbjahr'!B15, "")</f>
         <v/>
       </c>
@@ -38362,18 +38415,18 @@
         <f ca="1">IF(Q33="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q33/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q33))</f>
         <v/>
       </c>
-      <c r="S33" s="562"/>
-      <c r="T33" s="564"/>
-      <c r="U33" s="574"/>
-      <c r="V33" s="576" t="str">
+      <c r="S33" s="560"/>
+      <c r="T33" s="562"/>
+      <c r="U33" s="564"/>
+      <c r="V33" s="566" t="str">
         <f>IF(B33="","",SUM(S33:U33))</f>
         <v/>
       </c>
-      <c r="W33" s="578" t="str">
+      <c r="W33" s="554" t="str">
         <f>IF(B33="","",IF(ISBLANK(S33),"",IF(AVERAGE(S33:U33)&lt;10,LEFT(AVERAGE(S33:U33),4),LEFT(AVERAGE(S33:U33),5))))</f>
         <v/>
       </c>
-      <c r="X33" s="580" t="str">
+      <c r="X33" s="556" t="str">
         <f>IF(B33="","",IF(W33="","",IF(LEFT(W33,1)="0",0,ROUND(W33,0))))</f>
         <v/>
       </c>
@@ -38387,8 +38440,8 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="561"/>
-      <c r="B34" s="561"/>
+      <c r="A34" s="559"/>
+      <c r="B34" s="559"/>
       <c r="C34" s="318"/>
       <c r="D34" s="307"/>
       <c r="E34" s="307"/>
@@ -38417,12 +38470,12 @@
         <f ca="1">IF(Q34="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q34/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q34))</f>
         <v/>
       </c>
-      <c r="S34" s="563"/>
-      <c r="T34" s="565"/>
-      <c r="U34" s="575"/>
-      <c r="V34" s="577"/>
-      <c r="W34" s="579"/>
-      <c r="X34" s="581"/>
+      <c r="S34" s="561"/>
+      <c r="T34" s="563"/>
+      <c r="U34" s="565"/>
+      <c r="V34" s="567"/>
+      <c r="W34" s="555"/>
+      <c r="X34" s="557"/>
       <c r="Y34" s="313" t="str">
         <f>IF(B33="","",ROUNDUP(AVERAGE(R34,R34,X33),2))</f>
         <v/>
@@ -38433,10 +38486,10 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="560">
+      <c r="A35" s="558">
         <v>13</v>
       </c>
-      <c r="B35" s="560" t="str">
+      <c r="B35" s="558" t="str">
         <f>IF('1. Halbjahr'!B16&lt;&gt;"", '1. Halbjahr'!B16, "")</f>
         <v/>
       </c>
@@ -38468,18 +38521,18 @@
         <f ca="1">IF(Q35="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q35/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q35))</f>
         <v/>
       </c>
-      <c r="S35" s="562"/>
-      <c r="T35" s="564"/>
-      <c r="U35" s="574"/>
-      <c r="V35" s="576" t="str">
+      <c r="S35" s="560"/>
+      <c r="T35" s="562"/>
+      <c r="U35" s="564"/>
+      <c r="V35" s="566" t="str">
         <f>IF(B35="","",SUM(S35:U35))</f>
         <v/>
       </c>
-      <c r="W35" s="578" t="str">
+      <c r="W35" s="554" t="str">
         <f>IF(B35="","",IF(ISBLANK(S35),"",IF(AVERAGE(S35:U35)&lt;10,LEFT(AVERAGE(S35:U35),4),LEFT(AVERAGE(S35:U35),5))))</f>
         <v/>
       </c>
-      <c r="X35" s="580" t="str">
+      <c r="X35" s="556" t="str">
         <f>IF(B35="","",IF(W35="","",IF(LEFT(W35,1)="0",0,ROUND(W35,0))))</f>
         <v/>
       </c>
@@ -38493,8 +38546,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="561"/>
-      <c r="B36" s="561"/>
+      <c r="A36" s="559"/>
+      <c r="B36" s="559"/>
       <c r="C36" s="318"/>
       <c r="D36" s="307"/>
       <c r="E36" s="307"/>
@@ -38523,12 +38576,12 @@
         <f ca="1">IF(Q36="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q36/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q36))</f>
         <v/>
       </c>
-      <c r="S36" s="563"/>
-      <c r="T36" s="565"/>
-      <c r="U36" s="575"/>
-      <c r="V36" s="577"/>
-      <c r="W36" s="579"/>
-      <c r="X36" s="581"/>
+      <c r="S36" s="561"/>
+      <c r="T36" s="563"/>
+      <c r="U36" s="565"/>
+      <c r="V36" s="567"/>
+      <c r="W36" s="555"/>
+      <c r="X36" s="557"/>
       <c r="Y36" s="313" t="str">
         <f>IF(B35="","",ROUNDUP(AVERAGE(R36,R36,X35),2))</f>
         <v/>
@@ -38539,10 +38592,10 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="560">
+      <c r="A37" s="558">
         <v>14</v>
       </c>
-      <c r="B37" s="560" t="str">
+      <c r="B37" s="558" t="str">
         <f>IF('1. Halbjahr'!B17&lt;&gt;"", '1. Halbjahr'!B17, "")</f>
         <v/>
       </c>
@@ -38574,18 +38627,18 @@
         <f ca="1">IF(Q37="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q37/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q37))</f>
         <v/>
       </c>
-      <c r="S37" s="562"/>
-      <c r="T37" s="564"/>
-      <c r="U37" s="574"/>
-      <c r="V37" s="576" t="str">
+      <c r="S37" s="560"/>
+      <c r="T37" s="562"/>
+      <c r="U37" s="564"/>
+      <c r="V37" s="566" t="str">
         <f>IF(B37="","",SUM(S37:U37))</f>
         <v/>
       </c>
-      <c r="W37" s="578" t="str">
+      <c r="W37" s="554" t="str">
         <f>IF(B37="","",IF(ISBLANK(S37),"",IF(AVERAGE(S37:U37)&lt;10,LEFT(AVERAGE(S37:U37),4),LEFT(AVERAGE(S37:U37),5))))</f>
         <v/>
       </c>
-      <c r="X37" s="580" t="str">
+      <c r="X37" s="556" t="str">
         <f>IF(B37="","",IF(W37="","",IF(LEFT(W37,1)="0",0,ROUND(W37,0))))</f>
         <v/>
       </c>
@@ -38599,8 +38652,8 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="561"/>
-      <c r="B38" s="561"/>
+      <c r="A38" s="559"/>
+      <c r="B38" s="559"/>
       <c r="C38" s="318"/>
       <c r="D38" s="307"/>
       <c r="E38" s="307"/>
@@ -38629,12 +38682,12 @@
         <f ca="1">IF(Q38="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q38/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q38))</f>
         <v/>
       </c>
-      <c r="S38" s="563"/>
-      <c r="T38" s="565"/>
-      <c r="U38" s="575"/>
-      <c r="V38" s="577"/>
-      <c r="W38" s="579"/>
-      <c r="X38" s="581"/>
+      <c r="S38" s="561"/>
+      <c r="T38" s="563"/>
+      <c r="U38" s="565"/>
+      <c r="V38" s="567"/>
+      <c r="W38" s="555"/>
+      <c r="X38" s="557"/>
       <c r="Y38" s="313" t="str">
         <f>IF(B37="","",ROUNDUP(AVERAGE(R38,R38,X37),2))</f>
         <v/>
@@ -38645,10 +38698,10 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="560">
+      <c r="A39" s="558">
         <v>15</v>
       </c>
-      <c r="B39" s="560" t="str">
+      <c r="B39" s="558" t="str">
         <f>IF('1. Halbjahr'!B18&lt;&gt;"", '1. Halbjahr'!B18, "")</f>
         <v/>
       </c>
@@ -38680,18 +38733,18 @@
         <f ca="1">IF(Q39="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q39/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q39))</f>
         <v/>
       </c>
-      <c r="S39" s="582"/>
-      <c r="T39" s="583"/>
-      <c r="U39" s="584"/>
-      <c r="V39" s="585" t="str">
+      <c r="S39" s="568"/>
+      <c r="T39" s="569"/>
+      <c r="U39" s="570"/>
+      <c r="V39" s="571" t="str">
         <f>IF(B39="","",SUM(S39:U39))</f>
         <v/>
       </c>
-      <c r="W39" s="578" t="str">
+      <c r="W39" s="554" t="str">
         <f>IF(B39="","",IF(ISBLANK(S39),"",IF(AVERAGE(S39:U39)&lt;10,LEFT(AVERAGE(S39:U39),4),LEFT(AVERAGE(S39:U39),5))))</f>
         <v/>
       </c>
-      <c r="X39" s="580" t="str">
+      <c r="X39" s="556" t="str">
         <f>IF(B39="","",IF(W39="","",IF(LEFT(W39,1)="0",0,ROUND(W39,0))))</f>
         <v/>
       </c>
@@ -38705,8 +38758,8 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="561"/>
-      <c r="B40" s="561"/>
+      <c r="A40" s="559"/>
+      <c r="B40" s="559"/>
       <c r="C40" s="318"/>
       <c r="D40" s="307"/>
       <c r="E40" s="307"/>
@@ -38735,12 +38788,12 @@
         <f ca="1">IF(Q40="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q40/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q40))</f>
         <v/>
       </c>
-      <c r="S40" s="563"/>
-      <c r="T40" s="565"/>
-      <c r="U40" s="575"/>
-      <c r="V40" s="577"/>
-      <c r="W40" s="579"/>
-      <c r="X40" s="581"/>
+      <c r="S40" s="561"/>
+      <c r="T40" s="563"/>
+      <c r="U40" s="565"/>
+      <c r="V40" s="567"/>
+      <c r="W40" s="555"/>
+      <c r="X40" s="557"/>
       <c r="Y40" s="313" t="str">
         <f>IF(B39="","",ROUNDUP(AVERAGE(R40,R40,X39),2))</f>
         <v/>
@@ -38751,10 +38804,10 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="560">
+      <c r="A41" s="558">
         <v>16</v>
       </c>
-      <c r="B41" s="560" t="str">
+      <c r="B41" s="558" t="str">
         <f>IF('1. Halbjahr'!B19&lt;&gt;"", '1. Halbjahr'!B19, "")</f>
         <v/>
       </c>
@@ -38786,18 +38839,18 @@
         <f ca="1">IF(Q41="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q41/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q41))</f>
         <v/>
       </c>
-      <c r="S41" s="562"/>
-      <c r="T41" s="564"/>
-      <c r="U41" s="574"/>
-      <c r="V41" s="576" t="str">
+      <c r="S41" s="560"/>
+      <c r="T41" s="562"/>
+      <c r="U41" s="564"/>
+      <c r="V41" s="566" t="str">
         <f>IF(B41="","",SUM(S41:U41))</f>
         <v/>
       </c>
-      <c r="W41" s="578" t="str">
+      <c r="W41" s="554" t="str">
         <f>IF(B41="","",IF(ISBLANK(S41),"",IF(AVERAGE(S41:U41)&lt;10,LEFT(AVERAGE(S41:U41),4),LEFT(AVERAGE(S41:U41),5))))</f>
         <v/>
       </c>
-      <c r="X41" s="580" t="str">
+      <c r="X41" s="556" t="str">
         <f>IF(B41="","",IF(W41="","",IF(LEFT(W41,1)="0",0,ROUND(W41,0))))</f>
         <v/>
       </c>
@@ -38811,8 +38864,8 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="561"/>
-      <c r="B42" s="561"/>
+      <c r="A42" s="559"/>
+      <c r="B42" s="559"/>
       <c r="C42" s="318"/>
       <c r="D42" s="307"/>
       <c r="E42" s="307"/>
@@ -38841,12 +38894,12 @@
         <f ca="1">IF(Q42="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q42/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q42))</f>
         <v/>
       </c>
-      <c r="S42" s="563"/>
-      <c r="T42" s="565"/>
-      <c r="U42" s="575"/>
-      <c r="V42" s="577"/>
-      <c r="W42" s="579"/>
-      <c r="X42" s="581"/>
+      <c r="S42" s="561"/>
+      <c r="T42" s="563"/>
+      <c r="U42" s="565"/>
+      <c r="V42" s="567"/>
+      <c r="W42" s="555"/>
+      <c r="X42" s="557"/>
       <c r="Y42" s="313" t="str">
         <f>IF(B41="","",ROUNDUP(AVERAGE(R42,R42,X41),2))</f>
         <v/>
@@ -38857,10 +38910,10 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="560">
+      <c r="A43" s="558">
         <v>17</v>
       </c>
-      <c r="B43" s="560" t="str">
+      <c r="B43" s="558" t="str">
         <f>IF('1. Halbjahr'!B20&lt;&gt;"", '1. Halbjahr'!B20, "")</f>
         <v/>
       </c>
@@ -38892,18 +38945,18 @@
         <f ca="1">IF(Q43="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q43/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q43))</f>
         <v/>
       </c>
-      <c r="S43" s="562"/>
-      <c r="T43" s="564"/>
-      <c r="U43" s="574"/>
-      <c r="V43" s="576" t="str">
+      <c r="S43" s="560"/>
+      <c r="T43" s="562"/>
+      <c r="U43" s="564"/>
+      <c r="V43" s="566" t="str">
         <f>IF(B43="","",SUM(S43:U43))</f>
         <v/>
       </c>
-      <c r="W43" s="578" t="str">
+      <c r="W43" s="554" t="str">
         <f>IF(B43="","",IF(ISBLANK(S43),"",IF(AVERAGE(S43:U43)&lt;10,LEFT(AVERAGE(S43:U43),4),LEFT(AVERAGE(S43:U43),5))))</f>
         <v/>
       </c>
-      <c r="X43" s="580" t="str">
+      <c r="X43" s="556" t="str">
         <f>IF(B43="","",IF(W43="","",IF(LEFT(W43,1)="0",0,ROUND(W43,0))))</f>
         <v/>
       </c>
@@ -38917,8 +38970,8 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="561"/>
-      <c r="B44" s="561"/>
+      <c r="A44" s="559"/>
+      <c r="B44" s="559"/>
       <c r="C44" s="318"/>
       <c r="D44" s="307"/>
       <c r="E44" s="307"/>
@@ -38947,12 +39000,12 @@
         <f ca="1">IF(Q44="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q44/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q44))</f>
         <v/>
       </c>
-      <c r="S44" s="563"/>
-      <c r="T44" s="565"/>
-      <c r="U44" s="575"/>
-      <c r="V44" s="577"/>
-      <c r="W44" s="579"/>
-      <c r="X44" s="581"/>
+      <c r="S44" s="561"/>
+      <c r="T44" s="563"/>
+      <c r="U44" s="565"/>
+      <c r="V44" s="567"/>
+      <c r="W44" s="555"/>
+      <c r="X44" s="557"/>
       <c r="Y44" s="313" t="str">
         <f>IF(B43="","",ROUNDUP(AVERAGE(R44,R44,X43),2))</f>
         <v/>
@@ -38963,10 +39016,10 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="560">
+      <c r="A45" s="558">
         <v>18</v>
       </c>
-      <c r="B45" s="560" t="str">
+      <c r="B45" s="558" t="str">
         <f>IF('1. Halbjahr'!B21&lt;&gt;"", '1. Halbjahr'!B21, "")</f>
         <v/>
       </c>
@@ -38998,18 +39051,18 @@
         <f ca="1">IF(Q45="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q45/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q45))</f>
         <v/>
       </c>
-      <c r="S45" s="562"/>
-      <c r="T45" s="564"/>
-      <c r="U45" s="574"/>
-      <c r="V45" s="576" t="str">
+      <c r="S45" s="560"/>
+      <c r="T45" s="562"/>
+      <c r="U45" s="564"/>
+      <c r="V45" s="566" t="str">
         <f>IF(B45="","",SUM(S45:U45))</f>
         <v/>
       </c>
-      <c r="W45" s="578" t="str">
+      <c r="W45" s="554" t="str">
         <f>IF(B45="","",IF(ISBLANK(S45),"",IF(AVERAGE(S45:U45)&lt;10,LEFT(AVERAGE(S45:U45),4),LEFT(AVERAGE(S45:U45),5))))</f>
         <v/>
       </c>
-      <c r="X45" s="580" t="str">
+      <c r="X45" s="556" t="str">
         <f>IF(B45="","",IF(W45="","",IF(LEFT(W45,1)="0",0,ROUND(W45,0))))</f>
         <v/>
       </c>
@@ -39023,8 +39076,8 @@
       </c>
     </row>
     <row r="46" spans="1:26" s="326" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="561"/>
-      <c r="B46" s="561"/>
+      <c r="A46" s="559"/>
+      <c r="B46" s="559"/>
       <c r="C46" s="323"/>
       <c r="D46" s="324"/>
       <c r="E46" s="324"/>
@@ -39053,12 +39106,12 @@
         <f ca="1">IF(Q46="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q46/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q46))</f>
         <v/>
       </c>
-      <c r="S46" s="563"/>
-      <c r="T46" s="565"/>
-      <c r="U46" s="575"/>
-      <c r="V46" s="577"/>
-      <c r="W46" s="579"/>
-      <c r="X46" s="581"/>
+      <c r="S46" s="561"/>
+      <c r="T46" s="563"/>
+      <c r="U46" s="565"/>
+      <c r="V46" s="567"/>
+      <c r="W46" s="555"/>
+      <c r="X46" s="557"/>
       <c r="Y46" s="313" t="str">
         <f>IF(B45="","",ROUNDUP(AVERAGE(R46,R46,X45),2))</f>
         <v/>
@@ -39069,10 +39122,10 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="560">
+      <c r="A47" s="558">
         <v>19</v>
       </c>
-      <c r="B47" s="560" t="str">
+      <c r="B47" s="558" t="str">
         <f>IF('1. Halbjahr'!B22&lt;&gt;"", '1. Halbjahr'!B22, "")</f>
         <v/>
       </c>
@@ -39104,18 +39157,18 @@
         <f ca="1">IF(Q47="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q47/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q47))</f>
         <v/>
       </c>
-      <c r="S47" s="562"/>
-      <c r="T47" s="564"/>
-      <c r="U47" s="574"/>
-      <c r="V47" s="576" t="str">
+      <c r="S47" s="560"/>
+      <c r="T47" s="562"/>
+      <c r="U47" s="564"/>
+      <c r="V47" s="566" t="str">
         <f>IF(B47="","",SUM(S47:U47))</f>
         <v/>
       </c>
-      <c r="W47" s="578" t="str">
+      <c r="W47" s="554" t="str">
         <f>IF(B47="","",IF(ISBLANK(S47),"",IF(AVERAGE(S47:U47)&lt;10,LEFT(AVERAGE(S47:U47),4),LEFT(AVERAGE(S47:U47),5))))</f>
         <v/>
       </c>
-      <c r="X47" s="580" t="str">
+      <c r="X47" s="556" t="str">
         <f>IF(B47="","",IF(W47="","",IF(LEFT(W47,1)="0",0,ROUND(W47,0))))</f>
         <v/>
       </c>
@@ -39129,8 +39182,8 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="561"/>
-      <c r="B48" s="561"/>
+      <c r="A48" s="559"/>
+      <c r="B48" s="559"/>
       <c r="C48" s="318"/>
       <c r="D48" s="307"/>
       <c r="E48" s="307"/>
@@ -39159,12 +39212,12 @@
         <f ca="1">IF(Q48="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q48/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q48))</f>
         <v/>
       </c>
-      <c r="S48" s="563"/>
-      <c r="T48" s="565"/>
-      <c r="U48" s="575"/>
-      <c r="V48" s="577"/>
-      <c r="W48" s="579"/>
-      <c r="X48" s="581"/>
+      <c r="S48" s="561"/>
+      <c r="T48" s="563"/>
+      <c r="U48" s="565"/>
+      <c r="V48" s="567"/>
+      <c r="W48" s="555"/>
+      <c r="X48" s="557"/>
       <c r="Y48" s="313" t="str">
         <f>IF(B47="","",ROUNDUP(AVERAGE(R48,R48,X47),2))</f>
         <v/>
@@ -39175,10 +39228,10 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="560">
+      <c r="A49" s="558">
         <v>20</v>
       </c>
-      <c r="B49" s="560" t="str">
+      <c r="B49" s="558" t="str">
         <f>IF('1. Halbjahr'!B23&lt;&gt;"", '1. Halbjahr'!B23, "")</f>
         <v/>
       </c>
@@ -39210,18 +39263,18 @@
         <f ca="1">IF(Q49="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q49/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q49))</f>
         <v/>
       </c>
-      <c r="S49" s="562"/>
-      <c r="T49" s="564"/>
-      <c r="U49" s="574"/>
-      <c r="V49" s="576" t="str">
+      <c r="S49" s="560"/>
+      <c r="T49" s="562"/>
+      <c r="U49" s="564"/>
+      <c r="V49" s="566" t="str">
         <f>IF(B49="","",SUM(S49:U49))</f>
         <v/>
       </c>
-      <c r="W49" s="578" t="str">
+      <c r="W49" s="554" t="str">
         <f>IF(B49="","",IF(ISBLANK(S49),"",IF(AVERAGE(S49:U49)&lt;10,LEFT(AVERAGE(S49:U49),4),LEFT(AVERAGE(S49:U49),5))))</f>
         <v/>
       </c>
-      <c r="X49" s="580" t="str">
+      <c r="X49" s="556" t="str">
         <f>IF(B49="","",IF(W49="","",IF(LEFT(W49,1)="0",0,ROUND(W49,0))))</f>
         <v/>
       </c>
@@ -39235,8 +39288,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="561"/>
-      <c r="B50" s="561"/>
+      <c r="A50" s="559"/>
+      <c r="B50" s="559"/>
       <c r="C50" s="318"/>
       <c r="D50" s="307"/>
       <c r="E50" s="307"/>
@@ -39265,12 +39318,12 @@
         <f ca="1">IF(Q50="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q50/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q50))</f>
         <v/>
       </c>
-      <c r="S50" s="563"/>
-      <c r="T50" s="565"/>
-      <c r="U50" s="575"/>
-      <c r="V50" s="577"/>
-      <c r="W50" s="579"/>
-      <c r="X50" s="581"/>
+      <c r="S50" s="561"/>
+      <c r="T50" s="563"/>
+      <c r="U50" s="565"/>
+      <c r="V50" s="567"/>
+      <c r="W50" s="555"/>
+      <c r="X50" s="557"/>
       <c r="Y50" s="313" t="str">
         <f>IF(B49="","",ROUNDUP(AVERAGE(R50,R50,X49),2))</f>
         <v/>
@@ -39281,10 +39334,10 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="560">
+      <c r="A51" s="558">
         <v>21</v>
       </c>
-      <c r="B51" s="560" t="str">
+      <c r="B51" s="558" t="str">
         <f>IF('1. Halbjahr'!B24&lt;&gt;"", '1. Halbjahr'!B24, "")</f>
         <v/>
       </c>
@@ -39316,18 +39369,18 @@
         <f ca="1">IF(Q51="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q51/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q51))</f>
         <v/>
       </c>
-      <c r="S51" s="562"/>
-      <c r="T51" s="564"/>
-      <c r="U51" s="574"/>
-      <c r="V51" s="576" t="str">
+      <c r="S51" s="560"/>
+      <c r="T51" s="562"/>
+      <c r="U51" s="564"/>
+      <c r="V51" s="566" t="str">
         <f>IF(B51="","",SUM(S51:U51))</f>
         <v/>
       </c>
-      <c r="W51" s="578" t="str">
+      <c r="W51" s="554" t="str">
         <f>IF(B51="","",IF(ISBLANK(S51),"",IF(AVERAGE(S51:U51)&lt;10,LEFT(AVERAGE(S51:U51),4),LEFT(AVERAGE(S51:U51),5))))</f>
         <v/>
       </c>
-      <c r="X51" s="580" t="str">
+      <c r="X51" s="556" t="str">
         <f>IF(B51="","",IF(W51="","",IF(LEFT(W51,1)="0",0,ROUND(W51,0))))</f>
         <v/>
       </c>
@@ -39341,8 +39394,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="561"/>
-      <c r="B52" s="561"/>
+      <c r="A52" s="559"/>
+      <c r="B52" s="559"/>
       <c r="C52" s="318"/>
       <c r="D52" s="307"/>
       <c r="E52" s="307"/>
@@ -39371,12 +39424,12 @@
         <f ca="1">IF(Q52="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q52/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q52))</f>
         <v/>
       </c>
-      <c r="S52" s="563"/>
-      <c r="T52" s="565"/>
-      <c r="U52" s="575"/>
-      <c r="V52" s="577"/>
-      <c r="W52" s="579"/>
-      <c r="X52" s="581"/>
+      <c r="S52" s="561"/>
+      <c r="T52" s="563"/>
+      <c r="U52" s="565"/>
+      <c r="V52" s="567"/>
+      <c r="W52" s="555"/>
+      <c r="X52" s="557"/>
       <c r="Y52" s="313" t="str">
         <f>IF(B51="","",ROUNDUP(AVERAGE(R52,R52,X51),2))</f>
         <v/>
@@ -39387,10 +39440,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="560">
+      <c r="A53" s="558">
         <v>22</v>
       </c>
-      <c r="B53" s="560" t="str">
+      <c r="B53" s="558" t="str">
         <f>IF('1. Halbjahr'!B25&lt;&gt;"", '1. Halbjahr'!B25, "")</f>
         <v/>
       </c>
@@ -39422,18 +39475,18 @@
         <f ca="1">IF(Q53="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q53/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q53))</f>
         <v/>
       </c>
-      <c r="S53" s="562"/>
-      <c r="T53" s="564"/>
-      <c r="U53" s="574"/>
-      <c r="V53" s="576" t="str">
+      <c r="S53" s="560"/>
+      <c r="T53" s="562"/>
+      <c r="U53" s="564"/>
+      <c r="V53" s="566" t="str">
         <f>IF(B53="","",SUM(S53:U53))</f>
         <v/>
       </c>
-      <c r="W53" s="578" t="str">
+      <c r="W53" s="554" t="str">
         <f>IF(B53="","",IF(ISBLANK(S53),"",IF(AVERAGE(S53:U53)&lt;10,LEFT(AVERAGE(S53:U53),4),LEFT(AVERAGE(S53:U53),5))))</f>
         <v/>
       </c>
-      <c r="X53" s="580" t="str">
+      <c r="X53" s="556" t="str">
         <f>IF(B53="","",IF(W53="","",IF(LEFT(W53,1)="0",0,ROUND(W53,0))))</f>
         <v/>
       </c>
@@ -39447,8 +39500,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="561"/>
-      <c r="B54" s="561"/>
+      <c r="A54" s="559"/>
+      <c r="B54" s="559"/>
       <c r="C54" s="318"/>
       <c r="D54" s="307"/>
       <c r="E54" s="307"/>
@@ -39477,12 +39530,12 @@
         <f ca="1">IF(Q54="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q54/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q54))</f>
         <v/>
       </c>
-      <c r="S54" s="563"/>
-      <c r="T54" s="565"/>
-      <c r="U54" s="575"/>
-      <c r="V54" s="577"/>
-      <c r="W54" s="579"/>
-      <c r="X54" s="581"/>
+      <c r="S54" s="561"/>
+      <c r="T54" s="563"/>
+      <c r="U54" s="565"/>
+      <c r="V54" s="567"/>
+      <c r="W54" s="555"/>
+      <c r="X54" s="557"/>
       <c r="Y54" s="313" t="str">
         <f>IF(B53="","",ROUNDUP(AVERAGE(R54,R54,X53),2))</f>
         <v/>
@@ -39493,10 +39546,10 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="560">
+      <c r="A55" s="558">
         <v>23</v>
       </c>
-      <c r="B55" s="560" t="str">
+      <c r="B55" s="558" t="str">
         <f>IF('1. Halbjahr'!B26&lt;&gt;"", '1. Halbjahr'!B26, "")</f>
         <v/>
       </c>
@@ -39528,18 +39581,18 @@
         <f ca="1">IF(Q55="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q55/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q55))</f>
         <v/>
       </c>
-      <c r="S55" s="562"/>
-      <c r="T55" s="564"/>
-      <c r="U55" s="574"/>
-      <c r="V55" s="576" t="str">
+      <c r="S55" s="560"/>
+      <c r="T55" s="562"/>
+      <c r="U55" s="564"/>
+      <c r="V55" s="566" t="str">
         <f>IF(B55="","",SUM(S55:U55))</f>
         <v/>
       </c>
-      <c r="W55" s="578" t="str">
+      <c r="W55" s="554" t="str">
         <f>IF(B55="","",IF(ISBLANK(S55),"",IF(AVERAGE(S55:U55)&lt;10,LEFT(AVERAGE(S55:U55),4),LEFT(AVERAGE(S55:U55),5))))</f>
         <v/>
       </c>
-      <c r="X55" s="580" t="str">
+      <c r="X55" s="556" t="str">
         <f>IF(B55="","",IF(W55="","",IF(LEFT(W55,1)="0",0,ROUND(W55,0))))</f>
         <v/>
       </c>
@@ -39553,8 +39606,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="561"/>
-      <c r="B56" s="561"/>
+      <c r="A56" s="559"/>
+      <c r="B56" s="559"/>
       <c r="C56" s="318"/>
       <c r="D56" s="307"/>
       <c r="E56" s="307"/>
@@ -39583,12 +39636,12 @@
         <f ca="1">IF(Q56="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q56/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q56))</f>
         <v/>
       </c>
-      <c r="S56" s="563"/>
-      <c r="T56" s="565"/>
-      <c r="U56" s="575"/>
-      <c r="V56" s="577"/>
-      <c r="W56" s="579"/>
-      <c r="X56" s="581"/>
+      <c r="S56" s="561"/>
+      <c r="T56" s="563"/>
+      <c r="U56" s="565"/>
+      <c r="V56" s="567"/>
+      <c r="W56" s="555"/>
+      <c r="X56" s="557"/>
       <c r="Y56" s="313" t="str">
         <f>IF(B55="","",ROUNDUP(AVERAGE(R56,R56,X55),2))</f>
         <v/>
@@ -39599,10 +39652,10 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="560">
+      <c r="A57" s="558">
         <v>24</v>
       </c>
-      <c r="B57" s="560" t="str">
+      <c r="B57" s="558" t="str">
         <f>IF('1. Halbjahr'!B27&lt;&gt;"", '1. Halbjahr'!B27, "")</f>
         <v/>
       </c>
@@ -39634,18 +39687,18 @@
         <f ca="1">IF(Q57="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q57/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q57))</f>
         <v/>
       </c>
-      <c r="S57" s="562"/>
-      <c r="T57" s="564"/>
-      <c r="U57" s="574"/>
-      <c r="V57" s="576" t="str">
+      <c r="S57" s="560"/>
+      <c r="T57" s="562"/>
+      <c r="U57" s="564"/>
+      <c r="V57" s="566" t="str">
         <f>IF(B57="","",SUM(S57:U57))</f>
         <v/>
       </c>
-      <c r="W57" s="578" t="str">
+      <c r="W57" s="554" t="str">
         <f>IF(B57="","",IF(ISBLANK(S57),"",IF(AVERAGE(S57:U57)&lt;10,LEFT(AVERAGE(S57:U57),4),LEFT(AVERAGE(S57:U57),5))))</f>
         <v/>
       </c>
-      <c r="X57" s="580" t="str">
+      <c r="X57" s="556" t="str">
         <f>IF(B57="","",IF(W57="","",IF(LEFT(W57,1)="0",0,ROUND(W57,0))))</f>
         <v/>
       </c>
@@ -39659,8 +39712,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="561"/>
-      <c r="B58" s="561"/>
+      <c r="A58" s="559"/>
+      <c r="B58" s="559"/>
       <c r="C58" s="318"/>
       <c r="D58" s="307"/>
       <c r="E58" s="307"/>
@@ -39689,12 +39742,12 @@
         <f ca="1">IF(Q58="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q58/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q58))</f>
         <v/>
       </c>
-      <c r="S58" s="563"/>
-      <c r="T58" s="565"/>
-      <c r="U58" s="575"/>
-      <c r="V58" s="577"/>
-      <c r="W58" s="579"/>
-      <c r="X58" s="581"/>
+      <c r="S58" s="561"/>
+      <c r="T58" s="563"/>
+      <c r="U58" s="565"/>
+      <c r="V58" s="567"/>
+      <c r="W58" s="555"/>
+      <c r="X58" s="557"/>
       <c r="Y58" s="313" t="str">
         <f>IF(B57="","",ROUNDUP(AVERAGE(R58,R58,X57),2))</f>
         <v/>
@@ -39705,10 +39758,10 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="560">
+      <c r="A59" s="558">
         <v>25</v>
       </c>
-      <c r="B59" s="560" t="str">
+      <c r="B59" s="558" t="str">
         <f>IF('1. Halbjahr'!B28&lt;&gt;"", '1. Halbjahr'!B28, "")</f>
         <v/>
       </c>
@@ -39740,18 +39793,18 @@
         <f ca="1">IF(Q59="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q59/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q59))</f>
         <v/>
       </c>
-      <c r="S59" s="562"/>
-      <c r="T59" s="564"/>
-      <c r="U59" s="574"/>
-      <c r="V59" s="576" t="str">
+      <c r="S59" s="560"/>
+      <c r="T59" s="562"/>
+      <c r="U59" s="564"/>
+      <c r="V59" s="566" t="str">
         <f>IF(B59="","",SUM(S59:U59))</f>
         <v/>
       </c>
-      <c r="W59" s="578" t="str">
+      <c r="W59" s="554" t="str">
         <f>IF(B59="","",IF(ISBLANK(S59),"",IF(AVERAGE(S59:U59)&lt;10,LEFT(AVERAGE(S59:U59),4),LEFT(AVERAGE(S59:U59),5))))</f>
         <v/>
       </c>
-      <c r="X59" s="580" t="str">
+      <c r="X59" s="556" t="str">
         <f>IF(B59="","",IF(W59="","",IF(LEFT(W59,1)="0",0,ROUND(W59,0))))</f>
         <v/>
       </c>
@@ -39765,8 +39818,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="561"/>
-      <c r="B60" s="561"/>
+      <c r="A60" s="559"/>
+      <c r="B60" s="559"/>
       <c r="C60" s="318"/>
       <c r="D60" s="307"/>
       <c r="E60" s="307"/>
@@ -39795,12 +39848,12 @@
         <f ca="1">IF(Q60="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q60/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q60))</f>
         <v/>
       </c>
-      <c r="S60" s="563"/>
-      <c r="T60" s="565"/>
-      <c r="U60" s="575"/>
-      <c r="V60" s="577"/>
-      <c r="W60" s="579"/>
-      <c r="X60" s="581"/>
+      <c r="S60" s="561"/>
+      <c r="T60" s="563"/>
+      <c r="U60" s="565"/>
+      <c r="V60" s="567"/>
+      <c r="W60" s="555"/>
+      <c r="X60" s="557"/>
       <c r="Y60" s="313" t="str">
         <f>IF(B59="","",ROUNDUP(AVERAGE(R60,R60,X59),2))</f>
         <v/>
@@ -39811,10 +39864,10 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="560">
+      <c r="A61" s="558">
         <v>26</v>
       </c>
-      <c r="B61" s="560" t="str">
+      <c r="B61" s="558" t="str">
         <f>IF('1. Halbjahr'!B29&lt;&gt;"", '1. Halbjahr'!B29, "")</f>
         <v/>
       </c>
@@ -39846,18 +39899,18 @@
         <f ca="1">IF(Q61="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q61/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q61))</f>
         <v/>
       </c>
-      <c r="S61" s="562"/>
-      <c r="T61" s="564"/>
-      <c r="U61" s="574"/>
-      <c r="V61" s="576" t="str">
+      <c r="S61" s="560"/>
+      <c r="T61" s="562"/>
+      <c r="U61" s="564"/>
+      <c r="V61" s="566" t="str">
         <f>IF(B61="","",SUM(S61:U61))</f>
         <v/>
       </c>
-      <c r="W61" s="578" t="str">
+      <c r="W61" s="554" t="str">
         <f>IF(B61="","",IF(ISBLANK(S61),"",IF(AVERAGE(S61:U61)&lt;10,LEFT(AVERAGE(S61:U61),4),LEFT(AVERAGE(S61:U61),5))))</f>
         <v/>
       </c>
-      <c r="X61" s="580" t="str">
+      <c r="X61" s="556" t="str">
         <f>IF(B61="","",IF(W61="","",IF(LEFT(W61,1)="0",0,ROUND(W61,0))))</f>
         <v/>
       </c>
@@ -39871,8 +39924,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="561"/>
-      <c r="B62" s="561"/>
+      <c r="A62" s="559"/>
+      <c r="B62" s="559"/>
       <c r="C62" s="318"/>
       <c r="D62" s="307"/>
       <c r="E62" s="307"/>
@@ -39901,12 +39954,12 @@
         <f ca="1">IF(Q62="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q62/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q62))</f>
         <v/>
       </c>
-      <c r="S62" s="563"/>
-      <c r="T62" s="565"/>
-      <c r="U62" s="575"/>
-      <c r="V62" s="577"/>
-      <c r="W62" s="579"/>
-      <c r="X62" s="581"/>
+      <c r="S62" s="561"/>
+      <c r="T62" s="563"/>
+      <c r="U62" s="565"/>
+      <c r="V62" s="567"/>
+      <c r="W62" s="555"/>
+      <c r="X62" s="557"/>
       <c r="Y62" s="313" t="str">
         <f>IF(B61="","",ROUNDUP(AVERAGE(R62,R62,X61),2))</f>
         <v/>
@@ -39917,10 +39970,10 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="560">
+      <c r="A63" s="558">
         <v>27</v>
       </c>
-      <c r="B63" s="560" t="str">
+      <c r="B63" s="558" t="str">
         <f>IF('1. Halbjahr'!B30&lt;&gt;"", '1. Halbjahr'!B30, "")</f>
         <v/>
       </c>
@@ -39952,18 +40005,18 @@
         <f ca="1">IF(Q63="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q63/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q63))</f>
         <v/>
       </c>
-      <c r="S63" s="562"/>
-      <c r="T63" s="564"/>
-      <c r="U63" s="574"/>
-      <c r="V63" s="576" t="str">
+      <c r="S63" s="560"/>
+      <c r="T63" s="562"/>
+      <c r="U63" s="564"/>
+      <c r="V63" s="566" t="str">
         <f>IF(B63="","",SUM(S63:U63))</f>
         <v/>
       </c>
-      <c r="W63" s="578" t="str">
+      <c r="W63" s="554" t="str">
         <f>IF(B63="","",IF(ISBLANK(S63),"",IF(AVERAGE(S63:U63)&lt;10,LEFT(AVERAGE(S63:U63),4),LEFT(AVERAGE(S63:U63),5))))</f>
         <v/>
       </c>
-      <c r="X63" s="580" t="str">
+      <c r="X63" s="556" t="str">
         <f>IF(B63="","",IF(W63="","",IF(LEFT(W63,1)="0",0,ROUND(W63,0))))</f>
         <v/>
       </c>
@@ -39977,8 +40030,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="561"/>
-      <c r="B64" s="561"/>
+      <c r="A64" s="559"/>
+      <c r="B64" s="559"/>
       <c r="C64" s="318"/>
       <c r="D64" s="307"/>
       <c r="E64" s="307"/>
@@ -40007,12 +40060,12 @@
         <f ca="1">IF(Q64="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q64/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q64))</f>
         <v/>
       </c>
-      <c r="S64" s="563"/>
-      <c r="T64" s="565"/>
-      <c r="U64" s="575"/>
-      <c r="V64" s="577"/>
-      <c r="W64" s="579"/>
-      <c r="X64" s="581"/>
+      <c r="S64" s="561"/>
+      <c r="T64" s="563"/>
+      <c r="U64" s="565"/>
+      <c r="V64" s="567"/>
+      <c r="W64" s="555"/>
+      <c r="X64" s="557"/>
       <c r="Y64" s="313" t="str">
         <f>IF(B63="","",ROUNDUP(AVERAGE(R64,R64,X63),2))</f>
         <v/>
@@ -40023,10 +40076,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="560">
+      <c r="A65" s="558">
         <v>28</v>
       </c>
-      <c r="B65" s="560" t="str">
+      <c r="B65" s="558" t="str">
         <f>IF('1. Halbjahr'!B31&lt;&gt;"", '1. Halbjahr'!B31, "")</f>
         <v/>
       </c>
@@ -40058,18 +40111,18 @@
         <f ca="1">IF(Q65="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q65/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q65))</f>
         <v/>
       </c>
-      <c r="S65" s="562"/>
-      <c r="T65" s="564"/>
-      <c r="U65" s="574"/>
-      <c r="V65" s="576" t="str">
+      <c r="S65" s="560"/>
+      <c r="T65" s="562"/>
+      <c r="U65" s="564"/>
+      <c r="V65" s="566" t="str">
         <f>IF(B65="","",SUM(S65:U65))</f>
         <v/>
       </c>
-      <c r="W65" s="578" t="str">
+      <c r="W65" s="554" t="str">
         <f>IF(B65="","",IF(ISBLANK(S65),"",IF(AVERAGE(S65:U65)&lt;10,LEFT(AVERAGE(S65:U65),4),LEFT(AVERAGE(S65:U65),5))))</f>
         <v/>
       </c>
-      <c r="X65" s="580" t="str">
+      <c r="X65" s="556" t="str">
         <f>IF(B65="","",IF(W65="","",IF(LEFT(W65,1)="0",0,ROUND(W65,0))))</f>
         <v/>
       </c>
@@ -40083,8 +40136,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="561"/>
-      <c r="B66" s="561"/>
+      <c r="A66" s="559"/>
+      <c r="B66" s="559"/>
       <c r="C66" s="318"/>
       <c r="D66" s="307"/>
       <c r="E66" s="307"/>
@@ -40113,12 +40166,12 @@
         <f ca="1">IF(Q66="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q66/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q66))</f>
         <v/>
       </c>
-      <c r="S66" s="563"/>
-      <c r="T66" s="565"/>
-      <c r="U66" s="575"/>
-      <c r="V66" s="577"/>
-      <c r="W66" s="579"/>
-      <c r="X66" s="581"/>
+      <c r="S66" s="561"/>
+      <c r="T66" s="563"/>
+      <c r="U66" s="565"/>
+      <c r="V66" s="567"/>
+      <c r="W66" s="555"/>
+      <c r="X66" s="557"/>
       <c r="Y66" s="313" t="str">
         <f>IF(B65="","",ROUNDUP(AVERAGE(R66,R66,X65),2))</f>
         <v/>
@@ -40129,10 +40182,10 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="560">
+      <c r="A67" s="558">
         <v>29</v>
       </c>
-      <c r="B67" s="560" t="str">
+      <c r="B67" s="558" t="str">
         <f>IF('1. Halbjahr'!B32&lt;&gt;"", '1. Halbjahr'!B32, "")</f>
         <v/>
       </c>
@@ -40164,18 +40217,18 @@
         <f ca="1">IF(Q67="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q67/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q67))</f>
         <v/>
       </c>
-      <c r="S67" s="562"/>
-      <c r="T67" s="564"/>
-      <c r="U67" s="574"/>
-      <c r="V67" s="576" t="str">
+      <c r="S67" s="560"/>
+      <c r="T67" s="562"/>
+      <c r="U67" s="564"/>
+      <c r="V67" s="566" t="str">
         <f>IF(B67="","",SUM(S67:U67))</f>
         <v/>
       </c>
-      <c r="W67" s="578" t="str">
+      <c r="W67" s="554" t="str">
         <f>IF(B67="","",IF(ISBLANK(S67),"",IF(AVERAGE(S67:U67)&lt;10,LEFT(AVERAGE(S67:U67),4),LEFT(AVERAGE(S67:U67),5))))</f>
         <v/>
       </c>
-      <c r="X67" s="580" t="str">
+      <c r="X67" s="556" t="str">
         <f>IF(B67="","",IF(W67="","",IF(LEFT(W67,1)="0",0,ROUND(W67,0))))</f>
         <v/>
       </c>
@@ -40189,8 +40242,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="561"/>
-      <c r="B68" s="561"/>
+      <c r="A68" s="559"/>
+      <c r="B68" s="559"/>
       <c r="C68" s="318"/>
       <c r="D68" s="307"/>
       <c r="E68" s="307"/>
@@ -40219,12 +40272,12 @@
         <f ca="1">IF(Q68="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q68/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q68))</f>
         <v/>
       </c>
-      <c r="S68" s="563"/>
-      <c r="T68" s="565"/>
-      <c r="U68" s="575"/>
-      <c r="V68" s="577"/>
-      <c r="W68" s="579"/>
-      <c r="X68" s="581"/>
+      <c r="S68" s="561"/>
+      <c r="T68" s="563"/>
+      <c r="U68" s="565"/>
+      <c r="V68" s="567"/>
+      <c r="W68" s="555"/>
+      <c r="X68" s="557"/>
       <c r="Y68" s="313" t="str">
         <f>IF(B67="","",ROUNDUP(AVERAGE(R68,R68,X67),2))</f>
         <v/>
@@ -40235,10 +40288,10 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="560">
+      <c r="A69" s="558">
         <v>30</v>
       </c>
-      <c r="B69" s="560" t="str">
+      <c r="B69" s="558" t="str">
         <f>IF('1. Halbjahr'!B33&lt;&gt;"", '1. Halbjahr'!B33, "")</f>
         <v/>
       </c>
@@ -40270,18 +40323,18 @@
         <f ca="1">IF(Q69="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q69/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q69))</f>
         <v/>
       </c>
-      <c r="S69" s="562"/>
-      <c r="T69" s="564"/>
-      <c r="U69" s="574"/>
-      <c r="V69" s="576" t="str">
+      <c r="S69" s="560"/>
+      <c r="T69" s="562"/>
+      <c r="U69" s="564"/>
+      <c r="V69" s="566" t="str">
         <f>IF(B69="","",SUM(S69:U69))</f>
         <v/>
       </c>
-      <c r="W69" s="578" t="str">
+      <c r="W69" s="554" t="str">
         <f>IF(B69="","",IF(ISBLANK(S69),"",IF(AVERAGE(S69:U69)&lt;10,LEFT(AVERAGE(S69:U69),4),LEFT(AVERAGE(S69:U69),5))))</f>
         <v/>
       </c>
-      <c r="X69" s="580" t="str">
+      <c r="X69" s="556" t="str">
         <f>IF(B69="","",IF(W69="","",IF(LEFT(W69,1)="0",0,ROUND(W69,0))))</f>
         <v/>
       </c>
@@ -40295,8 +40348,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="561"/>
-      <c r="B70" s="561"/>
+      <c r="A70" s="559"/>
+      <c r="B70" s="559"/>
       <c r="C70" s="318"/>
       <c r="D70" s="307"/>
       <c r="E70" s="307"/>
@@ -40325,12 +40378,12 @@
         <f ca="1">IF(Q70="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q70/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q70))</f>
         <v/>
       </c>
-      <c r="S70" s="563"/>
-      <c r="T70" s="565"/>
-      <c r="U70" s="575"/>
-      <c r="V70" s="577"/>
-      <c r="W70" s="579"/>
-      <c r="X70" s="581"/>
+      <c r="S70" s="561"/>
+      <c r="T70" s="563"/>
+      <c r="U70" s="565"/>
+      <c r="V70" s="567"/>
+      <c r="W70" s="555"/>
+      <c r="X70" s="557"/>
       <c r="Y70" s="313" t="str">
         <f>IF(B69="","",ROUNDUP(AVERAGE(R70,R70,X69),2))</f>
         <v/>
@@ -40341,10 +40394,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="560">
+      <c r="A71" s="558">
         <v>31</v>
       </c>
-      <c r="B71" s="560" t="str">
+      <c r="B71" s="558" t="str">
         <f>IF('1. Halbjahr'!B34&lt;&gt;"", '1. Halbjahr'!B34, "")</f>
         <v/>
       </c>
@@ -40376,18 +40429,18 @@
         <f ca="1">IF(Q71="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q71/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q71))</f>
         <v/>
       </c>
-      <c r="S71" s="562"/>
-      <c r="T71" s="564"/>
-      <c r="U71" s="574"/>
-      <c r="V71" s="576" t="str">
+      <c r="S71" s="560"/>
+      <c r="T71" s="562"/>
+      <c r="U71" s="564"/>
+      <c r="V71" s="566" t="str">
         <f>IF(B71="","",SUM(S71:U71))</f>
         <v/>
       </c>
-      <c r="W71" s="578" t="str">
+      <c r="W71" s="554" t="str">
         <f>IF(B71="","",IF(ISBLANK(S71),"",IF(AVERAGE(S71:U71)&lt;10,LEFT(AVERAGE(S71:U71),4),LEFT(AVERAGE(S71:U71),5))))</f>
         <v/>
       </c>
-      <c r="X71" s="580" t="str">
+      <c r="X71" s="556" t="str">
         <f>IF(B71="","",IF(W71="","",IF(LEFT(W71,1)="0",0,ROUND(W71,0))))</f>
         <v/>
       </c>
@@ -40401,8 +40454,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="561"/>
-      <c r="B72" s="561"/>
+      <c r="A72" s="559"/>
+      <c r="B72" s="559"/>
       <c r="C72" s="318"/>
       <c r="D72" s="307"/>
       <c r="E72" s="307"/>
@@ -40431,12 +40484,12 @@
         <f ca="1">IF(Q72="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q72/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q72))</f>
         <v/>
       </c>
-      <c r="S72" s="563"/>
-      <c r="T72" s="565"/>
-      <c r="U72" s="575"/>
-      <c r="V72" s="577"/>
-      <c r="W72" s="579"/>
-      <c r="X72" s="581"/>
+      <c r="S72" s="561"/>
+      <c r="T72" s="563"/>
+      <c r="U72" s="565"/>
+      <c r="V72" s="567"/>
+      <c r="W72" s="555"/>
+      <c r="X72" s="557"/>
       <c r="Y72" s="313" t="str">
         <f>IF(B71="","",ROUNDUP(AVERAGE(R72,R72,X71),2))</f>
         <v/>
@@ -40447,10 +40500,10 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="560">
+      <c r="A73" s="558">
         <v>32</v>
       </c>
-      <c r="B73" s="560" t="str">
+      <c r="B73" s="558" t="str">
         <f>IF('1. Halbjahr'!B35&lt;&gt;"", '1. Halbjahr'!B35, "")</f>
         <v/>
       </c>
@@ -40482,18 +40535,18 @@
         <f ca="1">IF(Q73="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q73/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q73))</f>
         <v/>
       </c>
-      <c r="S73" s="562"/>
-      <c r="T73" s="564"/>
-      <c r="U73" s="574"/>
-      <c r="V73" s="576" t="str">
+      <c r="S73" s="560"/>
+      <c r="T73" s="562"/>
+      <c r="U73" s="564"/>
+      <c r="V73" s="566" t="str">
         <f>IF(B73="","",SUM(S73:U73))</f>
         <v/>
       </c>
-      <c r="W73" s="578" t="str">
+      <c r="W73" s="554" t="str">
         <f>IF(B73="","",IF(ISBLANK(S73),"",IF(AVERAGE(S73:U73)&lt;10,LEFT(AVERAGE(S73:U73),4),LEFT(AVERAGE(S73:U73),5))))</f>
         <v/>
       </c>
-      <c r="X73" s="580" t="str">
+      <c r="X73" s="556" t="str">
         <f>IF(B73="","",IF(W73="","",IF(LEFT(W73,1)="0",0,ROUND(W73,0))))</f>
         <v/>
       </c>
@@ -40507,8 +40560,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="561"/>
-      <c r="B74" s="561"/>
+      <c r="A74" s="559"/>
+      <c r="B74" s="559"/>
       <c r="C74" s="318"/>
       <c r="D74" s="307"/>
       <c r="E74" s="307"/>
@@ -40537,12 +40590,12 @@
         <f ca="1">IF(Q74="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q74/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q74))</f>
         <v/>
       </c>
-      <c r="S74" s="563"/>
-      <c r="T74" s="565"/>
-      <c r="U74" s="575"/>
-      <c r="V74" s="577"/>
-      <c r="W74" s="579"/>
-      <c r="X74" s="581"/>
+      <c r="S74" s="561"/>
+      <c r="T74" s="563"/>
+      <c r="U74" s="565"/>
+      <c r="V74" s="567"/>
+      <c r="W74" s="555"/>
+      <c r="X74" s="557"/>
       <c r="Y74" s="313" t="str">
         <f>IF(B73="","",ROUNDUP(AVERAGE(R74,R74,X73),2))</f>
         <v/>
@@ -40553,10 +40606,10 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="560">
+      <c r="A75" s="558">
         <v>33</v>
       </c>
-      <c r="B75" s="560" t="str">
+      <c r="B75" s="558" t="str">
         <f>IF('1. Halbjahr'!B36&lt;&gt;"", '1. Halbjahr'!B36, "")</f>
         <v/>
       </c>
@@ -40588,18 +40641,18 @@
         <f ca="1">IF(Q75="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q75/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q75))</f>
         <v/>
       </c>
-      <c r="S75" s="562"/>
-      <c r="T75" s="564"/>
-      <c r="U75" s="574"/>
-      <c r="V75" s="576" t="str">
+      <c r="S75" s="560"/>
+      <c r="T75" s="562"/>
+      <c r="U75" s="564"/>
+      <c r="V75" s="566" t="str">
         <f>IF(B75="","",SUM(S75:U75))</f>
         <v/>
       </c>
-      <c r="W75" s="578" t="str">
+      <c r="W75" s="554" t="str">
         <f>IF(B75="","",IF(ISBLANK(S75),"",IF(AVERAGE(S75:U75)&lt;10,LEFT(AVERAGE(S75:U75),4),LEFT(AVERAGE(S75:U75),5))))</f>
         <v/>
       </c>
-      <c r="X75" s="580" t="str">
+      <c r="X75" s="556" t="str">
         <f>IF(B75="","",IF(W75="","",IF(LEFT(W75,1)="0",0,ROUND(W75,0))))</f>
         <v/>
       </c>
@@ -40613,8 +40666,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="561"/>
-      <c r="B76" s="561"/>
+      <c r="A76" s="559"/>
+      <c r="B76" s="559"/>
       <c r="C76" s="318"/>
       <c r="D76" s="307"/>
       <c r="E76" s="307"/>
@@ -40643,12 +40696,12 @@
         <f ca="1">IF(Q76="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q76/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q76))</f>
         <v/>
       </c>
-      <c r="S76" s="563"/>
-      <c r="T76" s="565"/>
-      <c r="U76" s="575"/>
-      <c r="V76" s="577"/>
-      <c r="W76" s="579"/>
-      <c r="X76" s="581"/>
+      <c r="S76" s="561"/>
+      <c r="T76" s="563"/>
+      <c r="U76" s="565"/>
+      <c r="V76" s="567"/>
+      <c r="W76" s="555"/>
+      <c r="X76" s="557"/>
       <c r="Y76" s="313" t="str">
         <f>IF(B75="","",ROUNDUP(AVERAGE(R76,R76,X75),2))</f>
         <v/>
@@ -40659,10 +40712,10 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="560">
+      <c r="A77" s="558">
         <v>34</v>
       </c>
-      <c r="B77" s="560" t="str">
+      <c r="B77" s="558" t="str">
         <f>IF('1. Halbjahr'!B37&lt;&gt;"", '1. Halbjahr'!B37, "")</f>
         <v/>
       </c>
@@ -40694,18 +40747,18 @@
         <f ca="1">IF(Q77="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q77/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q77))</f>
         <v/>
       </c>
-      <c r="S77" s="562"/>
-      <c r="T77" s="564"/>
-      <c r="U77" s="574"/>
-      <c r="V77" s="576" t="str">
+      <c r="S77" s="560"/>
+      <c r="T77" s="562"/>
+      <c r="U77" s="564"/>
+      <c r="V77" s="566" t="str">
         <f>IF(B77="","",SUM(S77:U77))</f>
         <v/>
       </c>
-      <c r="W77" s="578" t="str">
+      <c r="W77" s="554" t="str">
         <f>IF(B77="","",IF(ISBLANK(S77),"",IF(AVERAGE(S77:U77)&lt;10,LEFT(AVERAGE(S77:U77),4),LEFT(AVERAGE(S77:U77),5))))</f>
         <v/>
       </c>
-      <c r="X77" s="580" t="str">
+      <c r="X77" s="556" t="str">
         <f>IF(B77="","",IF(W77="","",IF(LEFT(W77,1)="0",0,ROUND(W77,0))))</f>
         <v/>
       </c>
@@ -40719,8 +40772,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="561"/>
-      <c r="B78" s="561"/>
+      <c r="A78" s="559"/>
+      <c r="B78" s="559"/>
       <c r="C78" s="318"/>
       <c r="D78" s="307"/>
       <c r="E78" s="307"/>
@@ -40749,12 +40802,12 @@
         <f ca="1">IF(Q78="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q78/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q78))</f>
         <v/>
       </c>
-      <c r="S78" s="582"/>
-      <c r="T78" s="583"/>
-      <c r="U78" s="584"/>
-      <c r="V78" s="585"/>
-      <c r="W78" s="579"/>
-      <c r="X78" s="581"/>
+      <c r="S78" s="568"/>
+      <c r="T78" s="569"/>
+      <c r="U78" s="570"/>
+      <c r="V78" s="571"/>
+      <c r="W78" s="555"/>
+      <c r="X78" s="557"/>
       <c r="Y78" s="327" t="str">
         <f>IF(B77="","",ROUNDUP(AVERAGE(R78,R78,X77),2))</f>
         <v/>
@@ -40765,10 +40818,10 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="560">
+      <c r="A79" s="558">
         <v>35</v>
       </c>
-      <c r="B79" s="560" t="str">
+      <c r="B79" s="558" t="str">
         <f>IF('1. Halbjahr'!B38&lt;&gt;"", '1. Halbjahr'!B38, "")</f>
         <v/>
       </c>
@@ -40800,18 +40853,18 @@
         <f ca="1">IF(Q79="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q79/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q79))</f>
         <v/>
       </c>
-      <c r="S79" s="562"/>
-      <c r="T79" s="564"/>
-      <c r="U79" s="574"/>
-      <c r="V79" s="576" t="str">
+      <c r="S79" s="560"/>
+      <c r="T79" s="562"/>
+      <c r="U79" s="564"/>
+      <c r="V79" s="566" t="str">
         <f>IF(B79="","",SUM(S79:U79))</f>
         <v/>
       </c>
-      <c r="W79" s="578" t="str">
+      <c r="W79" s="554" t="str">
         <f>IF(B79="","",IF(ISBLANK(S79),"",IF(AVERAGE(S79:U79)&lt;10,LEFT(AVERAGE(S79:U79),4),LEFT(AVERAGE(S79:U79),5))))</f>
         <v/>
       </c>
-      <c r="X79" s="580" t="str">
+      <c r="X79" s="556" t="str">
         <f>IF(B79="","",IF(W79="","",IF(LEFT(W79,1)="0",0,ROUND(W79,0))))</f>
         <v/>
       </c>
@@ -40825,8 +40878,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="561"/>
-      <c r="B80" s="561"/>
+      <c r="A80" s="559"/>
+      <c r="B80" s="559"/>
       <c r="C80" s="323"/>
       <c r="D80" s="324"/>
       <c r="E80" s="324"/>
@@ -40855,12 +40908,12 @@
         <f ca="1">IF(Q80="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q80/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q80))</f>
         <v/>
       </c>
-      <c r="S80" s="563"/>
-      <c r="T80" s="565"/>
-      <c r="U80" s="575"/>
-      <c r="V80" s="577"/>
-      <c r="W80" s="579"/>
-      <c r="X80" s="581"/>
+      <c r="S80" s="561"/>
+      <c r="T80" s="563"/>
+      <c r="U80" s="565"/>
+      <c r="V80" s="567"/>
+      <c r="W80" s="555"/>
+      <c r="X80" s="557"/>
       <c r="Y80" s="313" t="str">
         <f>IF(B79="","",ROUNDUP(AVERAGE(R80,R80,X79),2))</f>
         <v/>
@@ -40953,6 +41006,278 @@
   </sheetData>
   <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="288">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="C6:R6"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="X45:X46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="V47:V48"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="X47:X48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="X49:X50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="X51:X52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="X57:X58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="V57:V58"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="X61:X62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="X63:X64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="T61:T62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="X65:X66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="W67:W68"/>
+    <mergeCell ref="X67:X68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="V65:V66"/>
+    <mergeCell ref="W69:W70"/>
+    <mergeCell ref="X69:X70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="S71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="V71:V72"/>
+    <mergeCell ref="W71:W72"/>
+    <mergeCell ref="X71:X72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="S69:S70"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="U69:U70"/>
+    <mergeCell ref="V69:V70"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="X73:X74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="X75:X76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="U73:U74"/>
+    <mergeCell ref="V73:V74"/>
     <mergeCell ref="W77:W78"/>
     <mergeCell ref="X77:X78"/>
     <mergeCell ref="A79:A80"/>
@@ -40969,278 +41294,6 @@
     <mergeCell ref="T77:T78"/>
     <mergeCell ref="U77:U78"/>
     <mergeCell ref="V77:V78"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="X73:X74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="S75:S76"/>
-    <mergeCell ref="T75:T76"/>
-    <mergeCell ref="U75:U76"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="X75:X76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="U73:U74"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W69:W70"/>
-    <mergeCell ref="X69:X70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="S71:S72"/>
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="V71:V72"/>
-    <mergeCell ref="W71:W72"/>
-    <mergeCell ref="X71:X72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="S69:S70"/>
-    <mergeCell ref="T69:T70"/>
-    <mergeCell ref="U69:U70"/>
-    <mergeCell ref="V69:V70"/>
-    <mergeCell ref="W65:W66"/>
-    <mergeCell ref="X65:X66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="T67:T68"/>
-    <mergeCell ref="U67:U68"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="W67:W68"/>
-    <mergeCell ref="X67:X68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="V65:V66"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="X61:X62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="X63:X64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="T61:T62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="X57:X58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="V57:V58"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="X49:X50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="T51:T52"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="V51:V52"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="X51:X52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="X45:X46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="V47:V48"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="T45:T46"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="T41:T42"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="V41:V42"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="C6:R6"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <conditionalFormatting sqref="C65 C67 C69 C71 C73 C75 C77 C79 C59 C61 C63 C21 C23 C25 C27 C29 C31 C33 C35 C37 C39 C41 C43 C45 C47 C49 C57 C13 C51 C53 C55 C15 C17 C19 C11">
     <cfRule type="cellIs" dxfId="37" priority="21" stopIfTrue="1" operator="greaterThan">
@@ -41447,7 +41500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Tabelle23"/>
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -42004,7 +42057,7 @@
   </sheetData>
   <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D38" xr:uid="{00000000-0002-0000-1500-000000000000}">
       <formula1>"FOS,BOS"</formula1>
     </dataValidation>
   </dataValidations>
@@ -42014,7 +42067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Tabelle3">
     <tabColor indexed="34"/>
   </sheetPr>
@@ -42055,17 +42108,17 @@
       <c r="B1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -42186,11 +42239,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -43651,21 +43704,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -43690,19 +43743,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -43727,7 +43780,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -43735,11 +43788,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -44483,10 +44536,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
   </dataValidations>
@@ -44497,7 +44550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle5">
     <tabColor rgb="FFFFCC66"/>
   </sheetPr>
@@ -44538,17 +44591,17 @@
       <c r="B1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -44669,11 +44722,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -46134,21 +46187,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -46173,19 +46226,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -46210,7 +46263,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -46218,11 +46271,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -46966,10 +47019,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
   </dataValidations>
@@ -46980,7 +47033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle6">
     <tabColor rgb="FFFFCC66"/>
   </sheetPr>
@@ -47021,17 +47074,17 @@
       <c r="B1" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -47152,11 +47205,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -48617,21 +48670,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -48656,19 +48709,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -48693,7 +48746,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -48701,11 +48754,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -49449,10 +49502,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
   </dataValidations>
@@ -49463,7 +49516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Tabelle7">
     <tabColor rgb="FF66FF33"/>
   </sheetPr>
@@ -49504,17 +49557,17 @@
       <c r="B1" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -49635,11 +49688,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -51100,21 +51153,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -51139,19 +51192,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -51176,7 +51229,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -51184,11 +51237,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -51932,10 +51985,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
   </dataValidations>
@@ -51946,7 +51999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Tabelle8">
     <tabColor rgb="FF66FF33"/>
   </sheetPr>
@@ -51987,17 +52040,17 @@
       <c r="B1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -52118,11 +52171,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -53583,21 +53636,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -53622,19 +53675,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -53659,7 +53712,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -53667,11 +53720,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -54415,10 +54468,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
   </dataValidations>
@@ -54429,7 +54482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Tabelle9">
     <tabColor rgb="FF66FF33"/>
   </sheetPr>
@@ -54470,17 +54523,17 @@
       <c r="B1" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="489" t="str">
+      <c r="C1" s="488" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="489"/>
-      <c r="E1" s="489"/>
+      <c r="D1" s="488"/>
+      <c r="E1" s="488"/>
       <c r="F1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="487"/>
-      <c r="H1" s="488"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="487"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="49"/>
@@ -54601,11 +54654,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="485" t="s">
+      <c r="F5" s="484" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="486"/>
-      <c r="H5" s="486"/>
+      <c r="G5" s="485"/>
+      <c r="H5" s="485"/>
       <c r="I5" s="45"/>
       <c r="J5" s="55" t="str">
         <f t="shared" si="0"/>
@@ -56066,21 +56119,21 @@
       <c r="AW39" s="65"/>
     </row>
     <row r="40" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="482" t="s">
+      <c r="A40" s="481" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="490" t="s">
+      <c r="C40" s="489" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="491"/>
-      <c r="E40" s="494" t="s">
+      <c r="D40" s="490"/>
+      <c r="E40" s="493" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
+      <c r="F40" s="493"/>
+      <c r="G40" s="494"/>
       <c r="H40" s="65"/>
       <c r="I40" s="65"/>
       <c r="J40" s="65"/>
@@ -56105,19 +56158,19 @@
       <c r="AW40" s="65"/>
     </row>
     <row r="41" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="483"/>
+      <c r="A41" s="482"/>
       <c r="B41" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="492" t="s">
+      <c r="C41" s="491" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="493"/>
-      <c r="E41" s="496" t="s">
+      <c r="D41" s="492"/>
+      <c r="E41" s="495" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="496"/>
-      <c r="G41" s="497"/>
+      <c r="F41" s="495"/>
+      <c r="G41" s="496"/>
       <c r="H41" s="65"/>
       <c r="I41" s="65"/>
       <c r="J41" s="65"/>
@@ -56142,7 +56195,7 @@
       <c r="AW41" s="65"/>
     </row>
     <row r="42" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="484"/>
+      <c r="A42" s="483"/>
       <c r="B42" s="29"/>
       <c r="C42" s="195" t="s">
         <v>21</v>
@@ -56150,11 +56203,11 @@
       <c r="D42" s="196" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="496" t="s">
+      <c r="E42" s="495" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="496"/>
-      <c r="G42" s="497"/>
+      <c r="F42" s="495"/>
+      <c r="G42" s="496"/>
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="65"/>
@@ -56898,10 +56951,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H32" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"E,M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"BE,Punkte"</formula1>
     </dataValidation>
   </dataValidations>
@@ -56912,7 +56965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Tabelle10">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
@@ -56950,39 +57003,39 @@
       <c r="A1" s="457" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="463">
+      <c r="B1" s="462">
         <f>'1. Halbjahr'!B1</f>
         <v>0</v>
       </c>
-      <c r="C1" s="464" t="s">
+      <c r="C1" s="463" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="449"/>
-      <c r="E1" s="505">
+      <c r="E1" s="504">
         <f>'1. Halbjahr'!E1:H1</f>
         <v>0</v>
       </c>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="498" t="str">
+      <c r="F1" s="504"/>
+      <c r="G1" s="504"/>
+      <c r="H1" s="505"/>
+      <c r="I1" s="497" t="str">
         <f>'1. Halbjahr'!I1:J1</f>
         <v>Lehrer/in:</v>
       </c>
-      <c r="J1" s="499"/>
-      <c r="K1" s="505">
+      <c r="J1" s="498"/>
+      <c r="K1" s="504">
         <f>'1. Halbjahr'!K1:L1</f>
         <v>0</v>
       </c>
-      <c r="L1" s="506"/>
+      <c r="L1" s="505"/>
       <c r="M1" s="449" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="500">
+      <c r="N1" s="499">
         <f ca="1">TODAY()</f>
-        <v>43701</v>
-      </c>
-      <c r="O1" s="501"/>
+        <v>44015</v>
+      </c>
+      <c r="O1" s="500"/>
       <c r="P1" s="449"/>
       <c r="Q1" s="171"/>
       <c r="R1" s="171"/>
@@ -57010,27 +57063,27 @@
       <c r="B2" s="458" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="502" t="s">
+      <c r="C2" s="501" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="503"/>
-      <c r="E2" s="503"/>
-      <c r="F2" s="503"/>
-      <c r="G2" s="503"/>
-      <c r="H2" s="503"/>
-      <c r="I2" s="503"/>
-      <c r="J2" s="503"/>
-      <c r="K2" s="503"/>
-      <c r="L2" s="503"/>
-      <c r="M2" s="503"/>
-      <c r="N2" s="503"/>
-      <c r="O2" s="504"/>
+      <c r="D2" s="502"/>
+      <c r="E2" s="502"/>
+      <c r="F2" s="502"/>
+      <c r="G2" s="502"/>
+      <c r="H2" s="502"/>
+      <c r="I2" s="502"/>
+      <c r="J2" s="502"/>
+      <c r="K2" s="502"/>
+      <c r="L2" s="502"/>
+      <c r="M2" s="502"/>
+      <c r="N2" s="502"/>
+      <c r="O2" s="503"/>
       <c r="P2" s="158"/>
-      <c r="Q2" s="502" t="s">
+      <c r="Q2" s="501" t="s">
         <v>113</v>
       </c>
-      <c r="R2" s="503"/>
-      <c r="S2" s="507"/>
+      <c r="R2" s="502"/>
+      <c r="S2" s="506"/>
       <c r="T2" s="450"/>
       <c r="U2" s="450"/>
       <c r="V2" s="450"/>
@@ -63208,7 +63261,7 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J38 S4:S38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:J38 S4:S38" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"15,14,13,12,11,10,9,8,7,6,5,4,3,2,1,0"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Vorlage.xlsx
+++ b/Vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Notenverwaltung\NotendateienTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\diNo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C6A8A9-9F11-4546-BDA4-B86BD617583F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3D7C37-E9C7-4310-AE66-D8766025B319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="873" firstSheet="1" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Halbjahr" sheetId="1" r:id="rId1"/>
@@ -2261,7 +2261,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="561">
+  <cellXfs count="559">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -3621,6 +3621,55 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="2" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="2" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="86" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -3791,10 +3840,29 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3829,25 +3897,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3892,19 +3941,20 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="95" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="96" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3927,50 +3977,6 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="86" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="95" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3996,57 +4002,47 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="2" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="84" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="86" xfId="2" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="86" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="95" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="95" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="96" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -4696,9 +4692,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4736,9 +4732,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4771,26 +4767,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4823,26 +4802,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5022,7 +4984,7 @@
   </sheetPr>
   <dimension ref="A1:AJ91"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K27" sqref="K27"/>
       <selection pane="topRight" activeCell="K27" sqref="K27"/>
@@ -5059,24 +5021,24 @@
         <v>33</v>
       </c>
       <c r="D1" s="198"/>
-      <c r="E1" s="424"/>
-      <c r="F1" s="424"/>
-      <c r="G1" s="424"/>
-      <c r="H1" s="425"/>
-      <c r="I1" s="422" t="s">
+      <c r="E1" s="451"/>
+      <c r="F1" s="451"/>
+      <c r="G1" s="451"/>
+      <c r="H1" s="452"/>
+      <c r="I1" s="449" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="423"/>
-      <c r="K1" s="426"/>
-      <c r="L1" s="427"/>
+      <c r="J1" s="450"/>
+      <c r="K1" s="453"/>
+      <c r="L1" s="454"/>
       <c r="M1" s="397" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="418">
+      <c r="N1" s="445">
         <f ca="1">TODAY()</f>
-        <v>45040</v>
-      </c>
-      <c r="O1" s="419"/>
+        <v>45132</v>
+      </c>
+      <c r="O1" s="446"/>
       <c r="P1" s="395"/>
       <c r="Q1" s="395"/>
       <c r="R1" s="395"/>
@@ -5103,21 +5065,21 @@
       <c r="B2" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="420" t="s">
+      <c r="C2" s="447" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="421"/>
-      <c r="H2" s="421"/>
-      <c r="I2" s="421"/>
-      <c r="J2" s="421"/>
-      <c r="K2" s="421"/>
-      <c r="L2" s="421"/>
-      <c r="M2" s="421"/>
-      <c r="N2" s="421"/>
-      <c r="O2" s="421"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="448"/>
+      <c r="F2" s="448"/>
+      <c r="G2" s="448"/>
+      <c r="H2" s="448"/>
+      <c r="I2" s="448"/>
+      <c r="J2" s="448"/>
+      <c r="K2" s="448"/>
+      <c r="L2" s="448"/>
+      <c r="M2" s="448"/>
+      <c r="N2" s="448"/>
+      <c r="O2" s="448"/>
       <c r="P2" s="395"/>
       <c r="Q2" s="395"/>
       <c r="R2" s="395"/>
@@ -9671,17 +9633,17 @@
       <c r="B1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -9797,11 +9759,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -11115,50 +11077,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -11580,17 +11542,17 @@
       <c r="B1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -11706,11 +11668,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -13024,50 +12986,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -13489,17 +13451,17 @@
       <c r="B1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -13615,11 +13577,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -14933,50 +14895,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -15398,17 +15360,17 @@
       <c r="B1" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -15524,11 +15486,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -16842,50 +16804,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -17307,17 +17269,17 @@
       <c r="B1" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -17433,11 +17395,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -18751,50 +18713,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -19216,17 +19178,17 @@
       <c r="B1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -19342,11 +19304,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -20660,50 +20622,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -21125,17 +21087,17 @@
       <c r="B1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -21251,11 +21213,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -22569,50 +22531,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -23035,10 +22997,10 @@
         <f>"Fach: "&amp;'1. Halbjahr'!E1</f>
         <v xml:space="preserve">Fach: </v>
       </c>
-      <c r="E2" s="457"/>
-      <c r="F2" s="457"/>
-      <c r="G2" s="457"/>
-      <c r="H2" s="457"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="484"/>
+      <c r="G2" s="484"/>
+      <c r="H2" s="484"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="str">
@@ -23088,20 +23050,20 @@
     <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="339"/>
-      <c r="C5" s="458"/>
-      <c r="D5" s="458"/>
-      <c r="E5" s="459"/>
-      <c r="F5" s="455" t="s">
+      <c r="C5" s="485"/>
+      <c r="D5" s="485"/>
+      <c r="E5" s="486"/>
+      <c r="F5" s="482" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="456"/>
+      <c r="G5" s="483"/>
       <c r="H5" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="460" t="s">
+      <c r="I5" s="487" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="461"/>
+      <c r="J5" s="488"/>
       <c r="K5" s="359" t="s">
         <v>12</v>
       </c>
@@ -24767,11 +24729,11 @@
       <c r="E43" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="454" t="s">
+      <c r="G43" s="481" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="454"/>
-      <c r="I43" s="454"/>
+      <c r="H43" s="481"/>
+      <c r="I43" s="481"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -25388,14 +25350,14 @@
       <c r="AD3" s="417"/>
       <c r="AE3" s="416"/>
       <c r="AF3" s="417"/>
-      <c r="AG3" s="462" t="s">
+      <c r="AG3" s="489" t="s">
         <v>120</v>
       </c>
-      <c r="AH3" s="463"/>
-      <c r="AI3" s="464" t="s">
+      <c r="AH3" s="490"/>
+      <c r="AI3" s="491" t="s">
         <v>64</v>
       </c>
-      <c r="AJ3" s="465"/>
+      <c r="AJ3" s="492"/>
     </row>
     <row r="4" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="383"/>
@@ -27575,7 +27537,7 @@
   </sheetPr>
   <dimension ref="A2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -27628,15 +27590,15 @@
       <c r="G5" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="480" t="s">
+      <c r="A7" s="493" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="481"/>
-      <c r="C7" s="481"/>
-      <c r="D7" s="481"/>
-      <c r="E7" s="481"/>
-      <c r="F7" s="481"/>
-      <c r="G7" s="482"/>
+      <c r="B7" s="494"/>
+      <c r="C7" s="494"/>
+      <c r="D7" s="494"/>
+      <c r="E7" s="494"/>
+      <c r="F7" s="494"/>
+      <c r="G7" s="495"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="101"/>
@@ -27652,14 +27614,14 @@
       <c r="B9" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="483" t="s">
+      <c r="C9" s="496" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="483"/>
-      <c r="E9" s="485" t="s">
+      <c r="D9" s="496"/>
+      <c r="E9" s="500" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="486"/>
+      <c r="F9" s="501"/>
       <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27680,36 +27642,36 @@
       <c r="G10" s="89"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="536">
+      <c r="A11" s="421">
         <v>1</v>
       </c>
-      <c r="B11" s="537" t="str">
+      <c r="B11" s="422" t="str">
         <f>IF('1. Halbjahr'!B4&lt;&gt;"", '1. Halbjahr'!B4, "")</f>
         <v/>
       </c>
-      <c r="C11" s="538" t="str">
+      <c r="C11" s="423" t="str">
         <f>IF(APRohpunkte!AG5="",'Eingabe Abitur'!Q11,APRohpunkte!AG5)</f>
         <v/>
       </c>
-      <c r="D11" s="539" t="str">
+      <c r="D11" s="424" t="str">
         <f>IF(APRohpunkte!AI5="",'Eingabe Abitur'!Q12,APRohpunkte!AI5)</f>
         <v/>
       </c>
-      <c r="E11" s="538" t="str">
+      <c r="E11" s="423" t="str">
         <f ca="1">AP!G6</f>
         <v/>
       </c>
-      <c r="F11" s="540" t="str">
+      <c r="F11" s="425" t="str">
         <f ca="1">IF(D11="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D11, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D11))</f>
         <v/>
       </c>
-      <c r="G11" s="541" t="str">
+      <c r="G11" s="426" t="str">
         <f ca="1">IF(AND(E11&lt;&gt;F11,F11&lt;&gt;""),"Keine Einigung","")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="542">
+      <c r="A12" s="427">
         <v>2</v>
       </c>
       <c r="B12" s="94" t="str">
@@ -27732,13 +27694,13 @@
         <f ca="1">IF(D12="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D12, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D12))</f>
         <v/>
       </c>
-      <c r="G12" s="543" t="str">
+      <c r="G12" s="428" t="str">
         <f t="shared" ref="G12:G45" ca="1" si="0">IF(AND(E12&lt;&gt;F12,F12&lt;&gt;""),"Keine Einigung","")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="542">
+      <c r="A13" s="427">
         <v>3</v>
       </c>
       <c r="B13" s="94" t="str">
@@ -27761,13 +27723,13 @@
         <f ca="1">IF(D13="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D13, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D13))</f>
         <v/>
       </c>
-      <c r="G13" s="543" t="str">
+      <c r="G13" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="542">
+      <c r="A14" s="427">
         <v>4</v>
       </c>
       <c r="B14" s="94" t="str">
@@ -27790,13 +27752,13 @@
         <f ca="1">IF(D14="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D14, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D14))</f>
         <v/>
       </c>
-      <c r="G14" s="543" t="str">
+      <c r="G14" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="542">
+      <c r="A15" s="427">
         <v>5</v>
       </c>
       <c r="B15" s="94" t="str">
@@ -27819,13 +27781,13 @@
         <f ca="1">IF(D15="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D15, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D15))</f>
         <v/>
       </c>
-      <c r="G15" s="543" t="str">
+      <c r="G15" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="542">
+      <c r="A16" s="427">
         <v>6</v>
       </c>
       <c r="B16" s="94" t="str">
@@ -27848,13 +27810,13 @@
         <f ca="1">IF(D16="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D16, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D16))</f>
         <v/>
       </c>
-      <c r="G16" s="543" t="str">
+      <c r="G16" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="542">
+      <c r="A17" s="427">
         <v>7</v>
       </c>
       <c r="B17" s="94" t="str">
@@ -27877,13 +27839,13 @@
         <f ca="1">IF(D17="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D17, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D17))</f>
         <v/>
       </c>
-      <c r="G17" s="543" t="str">
+      <c r="G17" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="542">
+      <c r="A18" s="427">
         <v>8</v>
       </c>
       <c r="B18" s="94" t="str">
@@ -27906,13 +27868,13 @@
         <f ca="1">IF(D18="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D18, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D18))</f>
         <v/>
       </c>
-      <c r="G18" s="543" t="str">
+      <c r="G18" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="542">
+      <c r="A19" s="427">
         <v>9</v>
       </c>
       <c r="B19" s="94" t="str">
@@ -27935,13 +27897,13 @@
         <f ca="1">IF(D19="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D19, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D19))</f>
         <v/>
       </c>
-      <c r="G19" s="543" t="str">
+      <c r="G19" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="542">
+      <c r="A20" s="427">
         <v>10</v>
       </c>
       <c r="B20" s="94" t="str">
@@ -27964,13 +27926,13 @@
         <f ca="1">IF(D20="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D20, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D20))</f>
         <v/>
       </c>
-      <c r="G20" s="543" t="str">
+      <c r="G20" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="542">
+      <c r="A21" s="427">
         <v>11</v>
       </c>
       <c r="B21" s="94" t="str">
@@ -27993,13 +27955,13 @@
         <f ca="1">IF(D21="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D21, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D21))</f>
         <v/>
       </c>
-      <c r="G21" s="543" t="str">
+      <c r="G21" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="542">
+      <c r="A22" s="427">
         <v>12</v>
       </c>
       <c r="B22" s="94" t="str">
@@ -28022,13 +27984,13 @@
         <f ca="1">IF(D22="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D22, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D22))</f>
         <v/>
       </c>
-      <c r="G22" s="543" t="str">
+      <c r="G22" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="542">
+      <c r="A23" s="427">
         <v>13</v>
       </c>
       <c r="B23" s="94" t="str">
@@ -28051,13 +28013,13 @@
         <f ca="1">IF(D23="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D23, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D23))</f>
         <v/>
       </c>
-      <c r="G23" s="543" t="str">
+      <c r="G23" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="542">
+      <c r="A24" s="427">
         <v>14</v>
       </c>
       <c r="B24" s="94" t="str">
@@ -28080,13 +28042,13 @@
         <f ca="1">IF(D24="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D24, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D24))</f>
         <v/>
       </c>
-      <c r="G24" s="543" t="str">
+      <c r="G24" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="542">
+      <c r="A25" s="427">
         <v>15</v>
       </c>
       <c r="B25" s="94" t="str">
@@ -28109,13 +28071,13 @@
         <f ca="1">IF(D25="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D25, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D25))</f>
         <v/>
       </c>
-      <c r="G25" s="543" t="str">
+      <c r="G25" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="542">
+      <c r="A26" s="427">
         <v>16</v>
       </c>
       <c r="B26" s="94" t="str">
@@ -28138,13 +28100,13 @@
         <f ca="1">IF(D26="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D26, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D26))</f>
         <v/>
       </c>
-      <c r="G26" s="543" t="str">
+      <c r="G26" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="542">
+      <c r="A27" s="427">
         <v>17</v>
       </c>
       <c r="B27" s="94" t="str">
@@ -28167,13 +28129,13 @@
         <f ca="1">IF(D27="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D27, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D27))</f>
         <v/>
       </c>
-      <c r="G27" s="543" t="str">
+      <c r="G27" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="542">
+      <c r="A28" s="427">
         <v>18</v>
       </c>
       <c r="B28" s="94" t="str">
@@ -28196,13 +28158,13 @@
         <f ca="1">IF(D28="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D28, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D28))</f>
         <v/>
       </c>
-      <c r="G28" s="543" t="str">
+      <c r="G28" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="542">
+      <c r="A29" s="427">
         <v>19</v>
       </c>
       <c r="B29" s="94" t="str">
@@ -28225,13 +28187,13 @@
         <f ca="1">IF(D29="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D29, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D29))</f>
         <v/>
       </c>
-      <c r="G29" s="543" t="str">
+      <c r="G29" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="542">
+      <c r="A30" s="427">
         <v>20</v>
       </c>
       <c r="B30" s="94" t="str">
@@ -28254,13 +28216,13 @@
         <f ca="1">IF(D30="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D30, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D30))</f>
         <v/>
       </c>
-      <c r="G30" s="543" t="str">
+      <c r="G30" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="542">
+      <c r="A31" s="427">
         <v>21</v>
       </c>
       <c r="B31" s="94" t="str">
@@ -28283,13 +28245,13 @@
         <f ca="1">IF(D31="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D31, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D31))</f>
         <v/>
       </c>
-      <c r="G31" s="543" t="str">
+      <c r="G31" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="542">
+      <c r="A32" s="427">
         <v>22</v>
       </c>
       <c r="B32" s="94" t="str">
@@ -28312,13 +28274,13 @@
         <f ca="1">IF(D32="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D32, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D32))</f>
         <v/>
       </c>
-      <c r="G32" s="543" t="str">
+      <c r="G32" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="542">
+      <c r="A33" s="427">
         <v>23</v>
       </c>
       <c r="B33" s="94" t="str">
@@ -28341,13 +28303,13 @@
         <f ca="1">IF(D33="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D33, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D33))</f>
         <v/>
       </c>
-      <c r="G33" s="543" t="str">
+      <c r="G33" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="542">
+      <c r="A34" s="427">
         <v>24</v>
       </c>
       <c r="B34" s="94" t="str">
@@ -28370,13 +28332,13 @@
         <f ca="1">IF(D34="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D34, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D34))</f>
         <v/>
       </c>
-      <c r="G34" s="543" t="str">
+      <c r="G34" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="542">
+      <c r="A35" s="427">
         <v>25</v>
       </c>
       <c r="B35" s="94" t="str">
@@ -28399,13 +28361,13 @@
         <f ca="1">IF(D35="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D35, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D35))</f>
         <v/>
       </c>
-      <c r="G35" s="543" t="str">
+      <c r="G35" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="542">
+      <c r="A36" s="427">
         <v>26</v>
       </c>
       <c r="B36" s="94" t="str">
@@ -28428,13 +28390,13 @@
         <f ca="1">IF(D36="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D36, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D36))</f>
         <v/>
       </c>
-      <c r="G36" s="543" t="str">
+      <c r="G36" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="542">
+      <c r="A37" s="427">
         <v>27</v>
       </c>
       <c r="B37" s="94" t="str">
@@ -28457,13 +28419,13 @@
         <f ca="1">IF(D37="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D37, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D37))</f>
         <v/>
       </c>
-      <c r="G37" s="543" t="str">
+      <c r="G37" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="542">
+      <c r="A38" s="427">
         <v>28</v>
       </c>
       <c r="B38" s="94" t="str">
@@ -28486,13 +28448,13 @@
         <f ca="1">IF(D38="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D38, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D38))</f>
         <v/>
       </c>
-      <c r="G38" s="543" t="str">
+      <c r="G38" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="542">
+      <c r="A39" s="427">
         <v>29</v>
       </c>
       <c r="B39" s="94" t="str">
@@ -28515,13 +28477,13 @@
         <f ca="1">IF(D39="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D39, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D39))</f>
         <v/>
       </c>
-      <c r="G39" s="543" t="str">
+      <c r="G39" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="542">
+      <c r="A40" s="427">
         <v>30</v>
       </c>
       <c r="B40" s="94" t="str">
@@ -28544,13 +28506,13 @@
         <f ca="1">IF(D40="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D40, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D40))</f>
         <v/>
       </c>
-      <c r="G40" s="543" t="str">
+      <c r="G40" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="542">
+      <c r="A41" s="427">
         <v>31</v>
       </c>
       <c r="B41" s="94" t="str">
@@ -28573,13 +28535,13 @@
         <f ca="1">IF(D41="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D41, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D41))</f>
         <v/>
       </c>
-      <c r="G41" s="543" t="str">
+      <c r="G41" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="542">
+      <c r="A42" s="427">
         <v>32</v>
       </c>
       <c r="B42" s="94" t="str">
@@ -28602,13 +28564,13 @@
         <f ca="1">IF(D42="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D42, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D42))</f>
         <v/>
       </c>
-      <c r="G42" s="543" t="str">
+      <c r="G42" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="542">
+      <c r="A43" s="427">
         <v>33</v>
       </c>
       <c r="B43" s="94" t="str">
@@ -28631,13 +28593,13 @@
         <f ca="1">IF(D43="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D43, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D43))</f>
         <v/>
       </c>
-      <c r="G43" s="543" t="str">
+      <c r="G43" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="542">
+      <c r="A44" s="427">
         <v>34</v>
       </c>
       <c r="B44" s="94" t="str">
@@ -28660,36 +28622,36 @@
         <f ca="1">IF(D44="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D44, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D44))</f>
         <v/>
       </c>
-      <c r="G44" s="543" t="str">
+      <c r="G44" s="428" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="544">
+      <c r="A45" s="429">
         <v>35</v>
       </c>
-      <c r="B45" s="545" t="str">
+      <c r="B45" s="430" t="str">
         <f>IF('1. Halbjahr'!B38&lt;&gt;"", '1. Halbjahr'!B38, "")</f>
         <v/>
       </c>
-      <c r="C45" s="546" t="str">
+      <c r="C45" s="431" t="str">
         <f>IF(APRohpunkte!AG39="",'Eingabe Abitur'!Q79,APRohpunkte!AG39)</f>
         <v/>
       </c>
-      <c r="D45" s="547" t="str">
+      <c r="D45" s="432" t="str">
         <f>IF(APRohpunkte!AI39="",'Eingabe Abitur'!Q80,APRohpunkte!AI39)</f>
         <v/>
       </c>
-      <c r="E45" s="546" t="str">
+      <c r="E45" s="431" t="str">
         <f ca="1">AP!G40</f>
         <v/>
       </c>
-      <c r="F45" s="548" t="str">
+      <c r="F45" s="433" t="str">
         <f ca="1">IF(D45="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*ROUNDUP(D45, 0) / AP!$E$44,AP!$Q$4:$Q$20,-1)+4),D45))</f>
         <v/>
       </c>
-      <c r="G45" s="549" t="str">
+      <c r="G45" s="434" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -28698,8 +28660,8 @@
       <c r="C46" s="106"/>
     </row>
     <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="484"/>
-      <c r="B47" s="484"/>
+      <c r="A47" s="497"/>
+      <c r="B47" s="497"/>
       <c r="C47" s="107" t="s">
         <v>53</v>
       </c>
@@ -28715,10 +28677,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="466">
+      <c r="A48" s="498">
         <v>15</v>
       </c>
-      <c r="B48" s="467"/>
+      <c r="B48" s="499"/>
       <c r="C48" s="109" t="str">
         <f>AP!E50 &amp;"-"&amp; AP!F50</f>
         <v>100-95,5</v>
@@ -28740,10 +28702,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="466">
+      <c r="A49" s="498">
         <v>14</v>
       </c>
-      <c r="B49" s="467"/>
+      <c r="B49" s="499"/>
       <c r="C49" s="109" t="str">
         <f>AP!E51 &amp;"-"&amp; AP!F51</f>
         <v>95-90,5</v>
@@ -28765,10 +28727,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="466">
+      <c r="A50" s="498">
         <v>13</v>
       </c>
-      <c r="B50" s="467"/>
+      <c r="B50" s="499"/>
       <c r="C50" s="109" t="str">
         <f>AP!E52 &amp;"-"&amp; AP!F52</f>
         <v>90-85,5</v>
@@ -28790,10 +28752,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="466">
+      <c r="A51" s="498">
         <v>12</v>
       </c>
-      <c r="B51" s="467"/>
+      <c r="B51" s="499"/>
       <c r="C51" s="109" t="str">
         <f>AP!E53 &amp;"-"&amp; AP!F53</f>
         <v>85-80,5</v>
@@ -28815,10 +28777,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="466">
+      <c r="A52" s="498">
         <v>11</v>
       </c>
-      <c r="B52" s="467"/>
+      <c r="B52" s="499"/>
       <c r="C52" s="109" t="str">
         <f>AP!E54 &amp;"-"&amp; AP!F54</f>
         <v>80-75,5</v>
@@ -28840,10 +28802,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="466">
+      <c r="A53" s="498">
         <v>10</v>
       </c>
-      <c r="B53" s="467"/>
+      <c r="B53" s="499"/>
       <c r="C53" s="109" t="str">
         <f>AP!E55 &amp;"-"&amp; AP!F55</f>
         <v>75-70,5</v>
@@ -28865,10 +28827,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="466">
+      <c r="A54" s="498">
         <v>9</v>
       </c>
-      <c r="B54" s="467"/>
+      <c r="B54" s="499"/>
       <c r="C54" s="109" t="str">
         <f>AP!E56 &amp;"-"&amp; AP!F56</f>
         <v>70-65,5</v>
@@ -28890,10 +28852,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="466">
+      <c r="A55" s="498">
         <v>8</v>
       </c>
-      <c r="B55" s="467"/>
+      <c r="B55" s="499"/>
       <c r="C55" s="109" t="str">
         <f>AP!E57 &amp;"-"&amp; AP!F57</f>
         <v>65-60,5</v>
@@ -28919,60 +28881,69 @@
       <c r="G56" s="89"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="477" t="s">
+      <c r="A57" s="511" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="478"/>
-      <c r="C57" s="478"/>
-      <c r="D57" s="478"/>
-      <c r="E57" s="478"/>
-      <c r="F57" s="478"/>
-      <c r="G57" s="479"/>
+      <c r="B57" s="512"/>
+      <c r="C57" s="512"/>
+      <c r="D57" s="512"/>
+      <c r="E57" s="512"/>
+      <c r="F57" s="512"/>
+      <c r="G57" s="513"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="468" t="e">
+      <c r="A58" s="502" t="e">
         <f ca="1">AVERAGE(E11:E45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B58" s="469"/>
-      <c r="C58" s="469"/>
-      <c r="D58" s="469"/>
-      <c r="E58" s="469"/>
-      <c r="F58" s="469"/>
-      <c r="G58" s="470"/>
+      <c r="B58" s="503"/>
+      <c r="C58" s="503"/>
+      <c r="D58" s="503"/>
+      <c r="E58" s="503"/>
+      <c r="F58" s="503"/>
+      <c r="G58" s="504"/>
     </row>
     <row r="60" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="474" t="s">
+      <c r="A60" s="508" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="475"/>
-      <c r="C60" s="475"/>
-      <c r="D60" s="475"/>
-      <c r="E60" s="475"/>
-      <c r="F60" s="475"/>
-      <c r="G60" s="476"/>
+      <c r="B60" s="509"/>
+      <c r="C60" s="509"/>
+      <c r="D60" s="509"/>
+      <c r="E60" s="509"/>
+      <c r="F60" s="509"/>
+      <c r="G60" s="510"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="88"/>
-      <c r="B65" s="473"/>
-      <c r="C65" s="473"/>
-      <c r="F65" s="472"/>
-      <c r="G65" s="472"/>
+      <c r="B65" s="507"/>
+      <c r="C65" s="507"/>
+      <c r="F65" s="506"/>
+      <c r="G65" s="506"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="471" t="s">
+      <c r="B66" s="505" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="471"/>
+      <c r="C66" s="505"/>
       <c r="E66" s="87"/>
-      <c r="F66" s="471" t="s">
+      <c r="F66" s="505" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="471"/>
+      <c r="G66" s="505"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="viA8MQZFScxRiN/URXghXIdjuFfl8FneqkFI9WrqfxeFMurmd1p78H5C9Jfjm2EIs35ml6TpMxOqTKKkAJrcbg==" saltValue="xJFKfhN7SG7gTqxazWYorA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A57:G57"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A47:B47"/>
@@ -28983,15 +28954,6 @@
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A57:G57"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.35433070866141736" top="0.39" bottom="0.52" header="0.19" footer="0.45"/>
@@ -29081,17 +29043,17 @@
       <c r="B1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -29207,11 +29169,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -30525,50 +30487,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -30978,82 +30940,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="550" t="s">
+      <c r="A1" s="435" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="551"/>
-      <c r="C1" s="551"/>
-      <c r="D1" s="551" t="str">
+      <c r="B1" s="436"/>
+      <c r="C1" s="436"/>
+      <c r="D1" s="436" t="str">
         <f>AP!B1</f>
         <v>Abschlussprüfung 2023</v>
       </c>
-      <c r="E1" s="552"/>
-      <c r="F1" s="551"/>
-      <c r="G1" s="553"/>
+      <c r="E1" s="437"/>
+      <c r="F1" s="436"/>
+      <c r="G1" s="438"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="554"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="555"/>
-      <c r="D2" s="555"/>
-      <c r="E2" s="555"/>
-      <c r="F2" s="555"/>
-      <c r="G2" s="556"/>
+      <c r="A2" s="439"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="440"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="554" t="str">
+      <c r="A3" s="439" t="str">
         <f>AP!B2</f>
         <v xml:space="preserve">Fach: </v>
       </c>
-      <c r="B3" s="555"/>
-      <c r="C3" s="555"/>
-      <c r="D3" s="555"/>
-      <c r="E3" s="555"/>
-      <c r="F3" s="555"/>
-      <c r="G3" s="556"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="440"/>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="557" t="str">
+      <c r="A4" s="441" t="str">
         <f>AP!B3</f>
         <v xml:space="preserve">Klasse: </v>
       </c>
-      <c r="B4" s="558"/>
-      <c r="C4" s="559"/>
-      <c r="D4" s="558"/>
-      <c r="E4" s="559" t="str">
+      <c r="B4" s="442"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="442"/>
+      <c r="E4" s="443" t="str">
         <f>AP!E3</f>
         <v xml:space="preserve">Lehrer/in: </v>
       </c>
-      <c r="F4" s="558"/>
-      <c r="G4" s="560"/>
+      <c r="F4" s="442"/>
+      <c r="G4" s="444"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="488" t="s">
+      <c r="A6" s="515" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="489"/>
-      <c r="C6" s="489"/>
-      <c r="D6" s="489"/>
-      <c r="E6" s="489"/>
-      <c r="F6" s="489"/>
-      <c r="G6" s="490"/>
+      <c r="B6" s="516"/>
+      <c r="C6" s="516"/>
+      <c r="D6" s="516"/>
+      <c r="E6" s="516"/>
+      <c r="F6" s="516"/>
+      <c r="G6" s="517"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="307"/>
       <c r="G7" s="304"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="533"/>
-      <c r="B8" s="534" t="s">
+      <c r="A8" s="418"/>
+      <c r="B8" s="419" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="535" t="s">
+      <c r="C8" s="420" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="304"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="533">
+      <c r="A9" s="418">
         <v>1</v>
       </c>
       <c r="B9" s="308" t="str">
@@ -31067,7 +31029,7 @@
       <c r="G9" s="304"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="533">
+      <c r="A10" s="418">
         <v>2</v>
       </c>
       <c r="B10" s="308" t="str">
@@ -31081,7 +31043,7 @@
       <c r="G10" s="304"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="533">
+      <c r="A11" s="418">
         <v>3</v>
       </c>
       <c r="B11" s="308" t="str">
@@ -31095,7 +31057,7 @@
       <c r="G11" s="304"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="533">
+      <c r="A12" s="418">
         <v>4</v>
       </c>
       <c r="B12" s="308" t="str">
@@ -31109,7 +31071,7 @@
       <c r="G12" s="304"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="533">
+      <c r="A13" s="418">
         <v>5</v>
       </c>
       <c r="B13" s="308" t="str">
@@ -31123,7 +31085,7 @@
       <c r="G13" s="304"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="533">
+      <c r="A14" s="418">
         <v>6</v>
       </c>
       <c r="B14" s="308" t="str">
@@ -31137,7 +31099,7 @@
       <c r="G14" s="304"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="533">
+      <c r="A15" s="418">
         <v>7</v>
       </c>
       <c r="B15" s="308" t="str">
@@ -31151,7 +31113,7 @@
       <c r="G15" s="304"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="533">
+      <c r="A16" s="418">
         <v>8</v>
       </c>
       <c r="B16" s="308" t="str">
@@ -31165,7 +31127,7 @@
       <c r="G16" s="304"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="533">
+      <c r="A17" s="418">
         <v>9</v>
       </c>
       <c r="B17" s="308" t="str">
@@ -31179,7 +31141,7 @@
       <c r="G17" s="304"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="533">
+      <c r="A18" s="418">
         <v>10</v>
       </c>
       <c r="B18" s="308" t="str">
@@ -31193,7 +31155,7 @@
       <c r="G18" s="304"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="533">
+      <c r="A19" s="418">
         <v>11</v>
       </c>
       <c r="B19" s="308" t="str">
@@ -31207,7 +31169,7 @@
       <c r="G19" s="304"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="533">
+      <c r="A20" s="418">
         <v>12</v>
       </c>
       <c r="B20" s="308" t="str">
@@ -31221,7 +31183,7 @@
       <c r="G20" s="304"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="533">
+      <c r="A21" s="418">
         <v>13</v>
       </c>
       <c r="B21" s="308" t="str">
@@ -31235,7 +31197,7 @@
       <c r="G21" s="304"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="533">
+      <c r="A22" s="418">
         <v>14</v>
       </c>
       <c r="B22" s="308" t="str">
@@ -31249,7 +31211,7 @@
       <c r="G22" s="304"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="533">
+      <c r="A23" s="418">
         <v>15</v>
       </c>
       <c r="B23" s="308" t="str">
@@ -31263,7 +31225,7 @@
       <c r="G23" s="304"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="533">
+      <c r="A24" s="418">
         <v>16</v>
       </c>
       <c r="B24" s="308" t="str">
@@ -31277,7 +31239,7 @@
       <c r="G24" s="304"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="533">
+      <c r="A25" s="418">
         <v>17</v>
       </c>
       <c r="B25" s="308" t="str">
@@ -31291,7 +31253,7 @@
       <c r="G25" s="304"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="533">
+      <c r="A26" s="418">
         <v>18</v>
       </c>
       <c r="B26" s="308" t="str">
@@ -31305,7 +31267,7 @@
       <c r="G26" s="304"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="533">
+      <c r="A27" s="418">
         <v>19</v>
       </c>
       <c r="B27" s="308" t="str">
@@ -31319,7 +31281,7 @@
       <c r="G27" s="304"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="533">
+      <c r="A28" s="418">
         <v>20</v>
       </c>
       <c r="B28" s="308" t="str">
@@ -31333,7 +31295,7 @@
       <c r="G28" s="304"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="533">
+      <c r="A29" s="418">
         <v>21</v>
       </c>
       <c r="B29" s="308" t="str">
@@ -31347,7 +31309,7 @@
       <c r="G29" s="304"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="533">
+      <c r="A30" s="418">
         <v>22</v>
       </c>
       <c r="B30" s="308" t="str">
@@ -31361,7 +31323,7 @@
       <c r="G30" s="304"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="533">
+      <c r="A31" s="418">
         <v>23</v>
       </c>
       <c r="B31" s="308" t="str">
@@ -31375,7 +31337,7 @@
       <c r="G31" s="304"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="533">
+      <c r="A32" s="418">
         <v>24</v>
       </c>
       <c r="B32" s="308" t="str">
@@ -31389,7 +31351,7 @@
       <c r="G32" s="304"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="533">
+      <c r="A33" s="418">
         <v>25</v>
       </c>
       <c r="B33" s="308" t="str">
@@ -31403,7 +31365,7 @@
       <c r="G33" s="304"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="533">
+      <c r="A34" s="418">
         <v>26</v>
       </c>
       <c r="B34" s="308" t="str">
@@ -31417,7 +31379,7 @@
       <c r="G34" s="304"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="533">
+      <c r="A35" s="418">
         <v>27</v>
       </c>
       <c r="B35" s="308" t="str">
@@ -31431,7 +31393,7 @@
       <c r="G35" s="304"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="533">
+      <c r="A36" s="418">
         <v>28</v>
       </c>
       <c r="B36" s="308" t="str">
@@ -31445,7 +31407,7 @@
       <c r="G36" s="304"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="533">
+      <c r="A37" s="418">
         <v>29</v>
       </c>
       <c r="B37" s="308" t="str">
@@ -31459,7 +31421,7 @@
       <c r="G37" s="304"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="533">
+      <c r="A38" s="418">
         <v>30</v>
       </c>
       <c r="B38" s="308" t="str">
@@ -31473,7 +31435,7 @@
       <c r="G38" s="304"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="533">
+      <c r="A39" s="418">
         <v>31</v>
       </c>
       <c r="B39" s="308" t="str">
@@ -31487,7 +31449,7 @@
       <c r="G39" s="304"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="533">
+      <c r="A40" s="418">
         <v>32</v>
       </c>
       <c r="B40" s="308" t="str">
@@ -31501,7 +31463,7 @@
       <c r="G40" s="304"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="533">
+      <c r="A41" s="418">
         <v>33</v>
       </c>
       <c r="B41" s="308" t="str">
@@ -31515,7 +31477,7 @@
       <c r="G41" s="304"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="533">
+      <c r="A42" s="418">
         <v>34</v>
       </c>
       <c r="B42" s="308" t="str">
@@ -31529,7 +31491,7 @@
       <c r="G42" s="304"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="533">
+      <c r="A43" s="418">
         <v>35</v>
       </c>
       <c r="B43" s="308" t="str">
@@ -31540,9 +31502,6 @@
         <f>'Eingabe Abitur'!X79</f>
         <v/>
       </c>
-      <c r="D43" s="532"/>
-      <c r="E43" s="532"/>
-      <c r="F43" s="532"/>
       <c r="G43" s="304"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -31553,8 +31512,6 @@
     </row>
     <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="307"/>
-      <c r="B45" s="532"/>
-      <c r="C45" s="532"/>
       <c r="D45" s="310"/>
       <c r="E45" s="311" t="s">
         <v>52</v>
@@ -31707,53 +31664,53 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="307"/>
-      <c r="D55" s="491" t="s">
+      <c r="D55" s="518" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="492"/>
-      <c r="F55" s="492"/>
-      <c r="G55" s="493"/>
+      <c r="E55" s="519"/>
+      <c r="F55" s="519"/>
+      <c r="G55" s="520"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="315"/>
       <c r="B56" s="305"/>
       <c r="C56" s="305"/>
-      <c r="D56" s="494" t="str">
+      <c r="D56" s="521" t="str">
         <f>IF(SUM(C9:C43)=0,"",AVERAGE(C9:C43))</f>
         <v/>
       </c>
-      <c r="E56" s="495"/>
-      <c r="F56" s="495"/>
-      <c r="G56" s="496"/>
+      <c r="E56" s="522"/>
+      <c r="F56" s="522"/>
+      <c r="G56" s="523"/>
     </row>
     <row r="57" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="497" t="s">
+      <c r="A57" s="524" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="498"/>
-      <c r="C57" s="498"/>
-      <c r="D57" s="498"/>
-      <c r="E57" s="498"/>
-      <c r="F57" s="498"/>
-      <c r="G57" s="499"/>
+      <c r="B57" s="525"/>
+      <c r="C57" s="525"/>
+      <c r="D57" s="525"/>
+      <c r="E57" s="525"/>
+      <c r="F57" s="525"/>
+      <c r="G57" s="526"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="500"/>
-      <c r="B59" s="500"/>
+      <c r="A59" s="527"/>
+      <c r="B59" s="527"/>
       <c r="F59" s="316"/>
       <c r="G59" s="316"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="487" t="s">
+      <c r="A60" s="514" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="487"/>
-      <c r="D60" s="487" t="s">
+      <c r="B60" s="514"/>
+      <c r="D60" s="514" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="487"/>
-      <c r="F60" s="487"/>
-      <c r="G60" s="487"/>
+      <c r="E60" s="514"/>
+      <c r="F60" s="514"/>
+      <c r="G60" s="514"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0y/UmkNXUwqOJuDIDd02wXiOzct/GkLD5VMJC9qHM11b9dVaHFU+XAyUoGL9pv24TTbPQJwaN+VJmdKXDTKWFw==" saltValue="QO4ZUq6T/IFoQ61WtKruUQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -31786,7 +31743,7 @@
       <selection activeCell="K27" sqref="K27"/>
       <selection pane="topRight" activeCell="K27" sqref="K27"/>
       <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31875,64 +31832,64 @@
       <c r="Z5" s="228"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C6" s="524" t="s">
+      <c r="C6" s="539" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="525"/>
-      <c r="E6" s="525"/>
-      <c r="F6" s="525"/>
-      <c r="G6" s="525"/>
-      <c r="H6" s="525"/>
-      <c r="I6" s="525"/>
-      <c r="J6" s="525"/>
-      <c r="K6" s="525"/>
-      <c r="L6" s="525"/>
-      <c r="M6" s="525"/>
-      <c r="N6" s="525"/>
-      <c r="O6" s="525"/>
-      <c r="P6" s="525"/>
-      <c r="Q6" s="525"/>
-      <c r="R6" s="526"/>
-      <c r="S6" s="524" t="s">
+      <c r="D6" s="540"/>
+      <c r="E6" s="540"/>
+      <c r="F6" s="540"/>
+      <c r="G6" s="540"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="540"/>
+      <c r="J6" s="540"/>
+      <c r="K6" s="540"/>
+      <c r="L6" s="540"/>
+      <c r="M6" s="540"/>
+      <c r="N6" s="540"/>
+      <c r="O6" s="540"/>
+      <c r="P6" s="540"/>
+      <c r="Q6" s="540"/>
+      <c r="R6" s="541"/>
+      <c r="S6" s="539" t="s">
         <v>90</v>
       </c>
-      <c r="T6" s="525"/>
-      <c r="U6" s="525"/>
-      <c r="V6" s="525"/>
-      <c r="W6" s="525"/>
-      <c r="X6" s="526"/>
-      <c r="Y6" s="527" t="s">
+      <c r="T6" s="540"/>
+      <c r="U6" s="540"/>
+      <c r="V6" s="540"/>
+      <c r="W6" s="540"/>
+      <c r="X6" s="541"/>
+      <c r="Y6" s="542" t="s">
         <v>91</v>
       </c>
-      <c r="Z6" s="528"/>
+      <c r="Z6" s="543"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C7" s="529" t="s">
+      <c r="C7" s="544" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="520"/>
-      <c r="E7" s="520"/>
-      <c r="F7" s="520"/>
-      <c r="G7" s="520"/>
-      <c r="H7" s="520"/>
-      <c r="I7" s="520"/>
-      <c r="J7" s="530"/>
-      <c r="K7" s="519" t="s">
+      <c r="D7" s="529"/>
+      <c r="E7" s="529"/>
+      <c r="F7" s="529"/>
+      <c r="G7" s="529"/>
+      <c r="H7" s="529"/>
+      <c r="I7" s="529"/>
+      <c r="J7" s="545"/>
+      <c r="K7" s="528" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="520"/>
-      <c r="M7" s="520"/>
-      <c r="N7" s="520"/>
-      <c r="O7" s="520"/>
-      <c r="P7" s="530"/>
+      <c r="L7" s="529"/>
+      <c r="M7" s="529"/>
+      <c r="N7" s="529"/>
+      <c r="O7" s="529"/>
+      <c r="P7" s="545"/>
       <c r="Q7" s="231"/>
       <c r="R7" s="232"/>
-      <c r="S7" s="531" t="s">
+      <c r="S7" s="546" t="s">
         <v>94</v>
       </c>
-      <c r="T7" s="522"/>
-      <c r="U7" s="522"/>
-      <c r="V7" s="523"/>
+      <c r="T7" s="531"/>
+      <c r="U7" s="531"/>
+      <c r="V7" s="532"/>
       <c r="W7" s="233"/>
       <c r="X7" s="232"/>
       <c r="Y7" s="234"/>
@@ -31961,15 +31918,15 @@
         <v>95</v>
       </c>
       <c r="J8" s="240"/>
-      <c r="K8" s="519" t="s">
+      <c r="K8" s="528" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="520"/>
-      <c r="M8" s="521" t="s">
+      <c r="L8" s="529"/>
+      <c r="M8" s="530" t="s">
         <v>97</v>
       </c>
-      <c r="N8" s="522"/>
-      <c r="O8" s="523"/>
+      <c r="N8" s="531"/>
+      <c r="O8" s="532"/>
       <c r="P8" s="240"/>
       <c r="Q8" s="241"/>
       <c r="R8" s="232"/>
@@ -32122,10 +32079,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="505">
+      <c r="A11" s="533">
         <v>1</v>
       </c>
-      <c r="B11" s="505" t="str">
+      <c r="B11" s="533" t="str">
         <f>IF('1. Halbjahr'!B4&lt;&gt;"", '1. Halbjahr'!B4, "")</f>
         <v/>
       </c>
@@ -32157,18 +32114,18 @@
         <f ca="1">IF(Q11="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q11/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q11))</f>
         <v/>
       </c>
-      <c r="S11" s="507"/>
-      <c r="T11" s="509"/>
-      <c r="U11" s="511"/>
-      <c r="V11" s="513" t="str">
+      <c r="S11" s="535"/>
+      <c r="T11" s="537"/>
+      <c r="U11" s="547"/>
+      <c r="V11" s="549" t="str">
         <f>IF(B11="","",SUM(S11:U11))</f>
         <v/>
       </c>
-      <c r="W11" s="501" t="str">
+      <c r="W11" s="551" t="str">
         <f>IF(B11="","",IF(ISBLANK(S11),"",IF(AVERAGE(S11:U11)&lt;10,LEFT(AVERAGE(S11:U11),4),LEFT(AVERAGE(S11:U11),5))))</f>
         <v/>
       </c>
-      <c r="X11" s="503" t="str">
+      <c r="X11" s="557" t="str">
         <f>IF(B11="","",IF(W11="","",IF(LEFT(W11,1)="0",0,ROUND(W11,0))))</f>
         <v/>
       </c>
@@ -32183,8 +32140,8 @@
       <c r="AB11" s="276"/>
     </row>
     <row r="12" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="506"/>
-      <c r="B12" s="506"/>
+      <c r="A12" s="534"/>
+      <c r="B12" s="534"/>
       <c r="C12" s="277"/>
       <c r="D12" s="277"/>
       <c r="E12" s="277"/>
@@ -32213,12 +32170,12 @@
         <f ca="1">IF(Q12="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q12/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q12))</f>
         <v/>
       </c>
-      <c r="S12" s="508"/>
-      <c r="T12" s="510"/>
-      <c r="U12" s="512"/>
-      <c r="V12" s="514"/>
-      <c r="W12" s="502"/>
-      <c r="X12" s="504"/>
+      <c r="S12" s="536"/>
+      <c r="T12" s="538"/>
+      <c r="U12" s="548"/>
+      <c r="V12" s="550"/>
+      <c r="W12" s="552"/>
+      <c r="X12" s="558"/>
       <c r="Y12" s="283" t="str">
         <f>IF(B11="","",ROUNDUP(AVERAGE(R12,R12,X11),2))</f>
         <v/>
@@ -32229,10 +32186,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="505">
+      <c r="A13" s="533">
         <v>2</v>
       </c>
-      <c r="B13" s="505" t="str">
+      <c r="B13" s="533" t="str">
         <f>IF('1. Halbjahr'!B5&lt;&gt;"", '1. Halbjahr'!B5, "")</f>
         <v/>
       </c>
@@ -32264,18 +32221,18 @@
         <f ca="1">IF(Q13="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q13/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q13))</f>
         <v/>
       </c>
-      <c r="S13" s="507"/>
-      <c r="T13" s="509"/>
-      <c r="U13" s="511"/>
-      <c r="V13" s="513" t="str">
+      <c r="S13" s="535"/>
+      <c r="T13" s="537"/>
+      <c r="U13" s="547"/>
+      <c r="V13" s="549" t="str">
         <f>IF(B13="","",SUM(S13:U13))</f>
         <v/>
       </c>
-      <c r="W13" s="501" t="str">
+      <c r="W13" s="551" t="str">
         <f>IF(B13="","",IF(ISBLANK(S13),"",IF(AVERAGE(S13:U13)&lt;10,LEFT(AVERAGE(S13:U13),4),LEFT(AVERAGE(S13:U13),5))))</f>
         <v/>
       </c>
-      <c r="X13" s="503" t="str">
+      <c r="X13" s="557" t="str">
         <f>IF(B13="","",IF(W13="","",IF(LEFT(W13,1)="0",0,ROUND(W13,0))))</f>
         <v/>
       </c>
@@ -32290,8 +32247,8 @@
       <c r="AA13" s="287"/>
     </row>
     <row r="14" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="506"/>
-      <c r="B14" s="506"/>
+      <c r="A14" s="534"/>
+      <c r="B14" s="534"/>
       <c r="C14" s="288"/>
       <c r="D14" s="277"/>
       <c r="E14" s="277"/>
@@ -32320,12 +32277,12 @@
         <f ca="1">IF(Q14="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q14/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q14))</f>
         <v/>
       </c>
-      <c r="S14" s="508"/>
-      <c r="T14" s="510"/>
-      <c r="U14" s="512"/>
-      <c r="V14" s="514"/>
-      <c r="W14" s="502"/>
-      <c r="X14" s="504"/>
+      <c r="S14" s="536"/>
+      <c r="T14" s="538"/>
+      <c r="U14" s="548"/>
+      <c r="V14" s="550"/>
+      <c r="W14" s="552"/>
+      <c r="X14" s="558"/>
       <c r="Y14" s="283" t="str">
         <f>IF(B13="","",ROUNDUP(AVERAGE(R14,R14,X13),2))</f>
         <v/>
@@ -32336,10 +32293,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="505">
+      <c r="A15" s="533">
         <v>3</v>
       </c>
-      <c r="B15" s="505" t="str">
+      <c r="B15" s="533" t="str">
         <f>IF('1. Halbjahr'!B6&lt;&gt;"", '1. Halbjahr'!B6, "")</f>
         <v/>
       </c>
@@ -32371,18 +32328,18 @@
         <f ca="1">IF(Q15="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q15/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q15))</f>
         <v/>
       </c>
-      <c r="S15" s="507"/>
-      <c r="T15" s="509"/>
-      <c r="U15" s="511"/>
-      <c r="V15" s="513" t="str">
+      <c r="S15" s="535"/>
+      <c r="T15" s="537"/>
+      <c r="U15" s="547"/>
+      <c r="V15" s="549" t="str">
         <f>IF(B15="","",SUM(S15:U15))</f>
         <v/>
       </c>
-      <c r="W15" s="501" t="str">
+      <c r="W15" s="551" t="str">
         <f>IF(B15="","",IF(ISBLANK(S15),"",IF(AVERAGE(S15:U15)&lt;10,LEFT(AVERAGE(S15:U15),4),LEFT(AVERAGE(S15:U15),5))))</f>
         <v/>
       </c>
-      <c r="X15" s="503" t="str">
+      <c r="X15" s="557" t="str">
         <f>IF(B15="","",IF(W15="","",IF(LEFT(W15,1)="0",0,ROUND(W15,0))))</f>
         <v/>
       </c>
@@ -32396,8 +32353,8 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="506"/>
-      <c r="B16" s="506"/>
+      <c r="A16" s="534"/>
+      <c r="B16" s="534"/>
       <c r="C16" s="288"/>
       <c r="D16" s="277"/>
       <c r="E16" s="277"/>
@@ -32426,12 +32383,12 @@
         <f ca="1">IF(Q16="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q16/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q16))</f>
         <v/>
       </c>
-      <c r="S16" s="508"/>
-      <c r="T16" s="510"/>
-      <c r="U16" s="512"/>
-      <c r="V16" s="514"/>
-      <c r="W16" s="502"/>
-      <c r="X16" s="504"/>
+      <c r="S16" s="536"/>
+      <c r="T16" s="538"/>
+      <c r="U16" s="548"/>
+      <c r="V16" s="550"/>
+      <c r="W16" s="552"/>
+      <c r="X16" s="558"/>
       <c r="Y16" s="283" t="str">
         <f>IF(B15="","",ROUNDUP(AVERAGE(R16,R16,X15),2))</f>
         <v/>
@@ -32442,10 +32399,10 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="505">
+      <c r="A17" s="533">
         <v>4</v>
       </c>
-      <c r="B17" s="505" t="str">
+      <c r="B17" s="533" t="str">
         <f>IF('1. Halbjahr'!B7&lt;&gt;"", '1. Halbjahr'!B7, "")</f>
         <v/>
       </c>
@@ -32477,18 +32434,18 @@
         <f ca="1">IF(Q17="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q17/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q17))</f>
         <v/>
       </c>
-      <c r="S17" s="507"/>
-      <c r="T17" s="509"/>
-      <c r="U17" s="511"/>
-      <c r="V17" s="513" t="str">
+      <c r="S17" s="535"/>
+      <c r="T17" s="537"/>
+      <c r="U17" s="547"/>
+      <c r="V17" s="549" t="str">
         <f>IF(B17="","",SUM(S17:U17))</f>
         <v/>
       </c>
-      <c r="W17" s="501" t="str">
+      <c r="W17" s="551" t="str">
         <f>IF(B17="","",IF(ISBLANK(S17),"",IF(AVERAGE(S17:U17)&lt;10,LEFT(AVERAGE(S17:U17),4),LEFT(AVERAGE(S17:U17),5))))</f>
         <v/>
       </c>
-      <c r="X17" s="503" t="str">
+      <c r="X17" s="557" t="str">
         <f>IF(B17="","",IF(W17="","",IF(LEFT(W17,1)="0",0,ROUND(W17,0))))</f>
         <v/>
       </c>
@@ -32502,8 +32459,8 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="506"/>
-      <c r="B18" s="506"/>
+      <c r="A18" s="534"/>
+      <c r="B18" s="534"/>
       <c r="C18" s="288"/>
       <c r="D18" s="277"/>
       <c r="E18" s="277"/>
@@ -32532,12 +32489,12 @@
         <f ca="1">IF(Q18="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q18/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q18))</f>
         <v/>
       </c>
-      <c r="S18" s="508"/>
-      <c r="T18" s="510"/>
-      <c r="U18" s="512"/>
-      <c r="V18" s="514"/>
-      <c r="W18" s="502"/>
-      <c r="X18" s="504"/>
+      <c r="S18" s="536"/>
+      <c r="T18" s="538"/>
+      <c r="U18" s="548"/>
+      <c r="V18" s="550"/>
+      <c r="W18" s="552"/>
+      <c r="X18" s="558"/>
       <c r="Y18" s="283" t="str">
         <f>IF(B17="","",ROUNDUP(AVERAGE(R18,R18,X17),2))</f>
         <v/>
@@ -32548,10 +32505,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="505">
+      <c r="A19" s="533">
         <v>5</v>
       </c>
-      <c r="B19" s="505" t="str">
+      <c r="B19" s="533" t="str">
         <f>IF('1. Halbjahr'!B8&lt;&gt;"", '1. Halbjahr'!B8, "")</f>
         <v/>
       </c>
@@ -32583,18 +32540,18 @@
         <f ca="1">IF(Q19="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q19/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q19))</f>
         <v/>
       </c>
-      <c r="S19" s="507"/>
-      <c r="T19" s="509"/>
-      <c r="U19" s="511"/>
-      <c r="V19" s="513" t="str">
+      <c r="S19" s="535"/>
+      <c r="T19" s="537"/>
+      <c r="U19" s="547"/>
+      <c r="V19" s="549" t="str">
         <f>IF(B19="","",SUM(S19:U19))</f>
         <v/>
       </c>
-      <c r="W19" s="501" t="str">
+      <c r="W19" s="551" t="str">
         <f>IF(B19="","",IF(ISBLANK(S19),"",IF(AVERAGE(S19:U19)&lt;10,LEFT(AVERAGE(S19:U19),4),LEFT(AVERAGE(S19:U19),5))))</f>
         <v/>
       </c>
-      <c r="X19" s="503" t="str">
+      <c r="X19" s="557" t="str">
         <f>IF(B19="","",IF(W19="","",IF(LEFT(W19,1)="0",0,ROUND(W19,0))))</f>
         <v/>
       </c>
@@ -32608,8 +32565,8 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="506"/>
-      <c r="B20" s="506"/>
+      <c r="A20" s="534"/>
+      <c r="B20" s="534"/>
       <c r="C20" s="288"/>
       <c r="D20" s="277"/>
       <c r="E20" s="277"/>
@@ -32638,12 +32595,12 @@
         <f ca="1">IF(Q20="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q20/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q20))</f>
         <v/>
       </c>
-      <c r="S20" s="508"/>
-      <c r="T20" s="510"/>
-      <c r="U20" s="512"/>
-      <c r="V20" s="514"/>
-      <c r="W20" s="502"/>
-      <c r="X20" s="504"/>
+      <c r="S20" s="536"/>
+      <c r="T20" s="538"/>
+      <c r="U20" s="548"/>
+      <c r="V20" s="550"/>
+      <c r="W20" s="552"/>
+      <c r="X20" s="558"/>
       <c r="Y20" s="283" t="str">
         <f>IF(B19="","",ROUNDUP(AVERAGE(R20,R20,X19),2))</f>
         <v/>
@@ -32654,10 +32611,10 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="505">
+      <c r="A21" s="533">
         <v>6</v>
       </c>
-      <c r="B21" s="505" t="str">
+      <c r="B21" s="533" t="str">
         <f>IF('1. Halbjahr'!B9&lt;&gt;"", '1. Halbjahr'!B9, "")</f>
         <v/>
       </c>
@@ -32689,18 +32646,18 @@
         <f ca="1">IF(Q21="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q21/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q21))</f>
         <v/>
       </c>
-      <c r="S21" s="507"/>
-      <c r="T21" s="509"/>
-      <c r="U21" s="511"/>
-      <c r="V21" s="513" t="str">
+      <c r="S21" s="535"/>
+      <c r="T21" s="537"/>
+      <c r="U21" s="547"/>
+      <c r="V21" s="549" t="str">
         <f>IF(B21="","",SUM(S21:U21))</f>
         <v/>
       </c>
-      <c r="W21" s="501" t="str">
+      <c r="W21" s="551" t="str">
         <f>IF(B21="","",IF(ISBLANK(S21),"",IF(AVERAGE(S21:U21)&lt;10,LEFT(AVERAGE(S21:U21),4),LEFT(AVERAGE(S21:U21),5))))</f>
         <v/>
       </c>
-      <c r="X21" s="503" t="str">
+      <c r="X21" s="557" t="str">
         <f>IF(B21="","",IF(W21="","",IF(LEFT(W21,1)="0",0,ROUND(W21,0))))</f>
         <v/>
       </c>
@@ -32714,8 +32671,8 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="506"/>
-      <c r="B22" s="506"/>
+      <c r="A22" s="534"/>
+      <c r="B22" s="534"/>
       <c r="C22" s="288"/>
       <c r="D22" s="277"/>
       <c r="E22" s="277"/>
@@ -32744,12 +32701,12 @@
         <f ca="1">IF(Q22="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q22/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q22))</f>
         <v/>
       </c>
-      <c r="S22" s="508"/>
-      <c r="T22" s="510"/>
-      <c r="U22" s="512"/>
-      <c r="V22" s="514"/>
-      <c r="W22" s="502"/>
-      <c r="X22" s="504"/>
+      <c r="S22" s="536"/>
+      <c r="T22" s="538"/>
+      <c r="U22" s="548"/>
+      <c r="V22" s="550"/>
+      <c r="W22" s="552"/>
+      <c r="X22" s="558"/>
       <c r="Y22" s="283" t="str">
         <f>IF(B21="","",ROUNDUP(AVERAGE(R22,R22,X21),2))</f>
         <v/>
@@ -32760,10 +32717,10 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="505">
+      <c r="A23" s="533">
         <v>7</v>
       </c>
-      <c r="B23" s="505" t="str">
+      <c r="B23" s="533" t="str">
         <f>IF('1. Halbjahr'!B10&lt;&gt;"", '1. Halbjahr'!B10, "")</f>
         <v/>
       </c>
@@ -32795,18 +32752,18 @@
         <f ca="1">IF(Q23="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q23/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q23))</f>
         <v/>
       </c>
-      <c r="S23" s="507"/>
-      <c r="T23" s="509"/>
-      <c r="U23" s="511"/>
-      <c r="V23" s="513" t="str">
+      <c r="S23" s="535"/>
+      <c r="T23" s="537"/>
+      <c r="U23" s="547"/>
+      <c r="V23" s="549" t="str">
         <f>IF(B23="","",SUM(S23:U23))</f>
         <v/>
       </c>
-      <c r="W23" s="501" t="str">
+      <c r="W23" s="551" t="str">
         <f>IF(B23="","",IF(ISBLANK(S23),"",IF(AVERAGE(S23:U23)&lt;10,LEFT(AVERAGE(S23:U23),4),LEFT(AVERAGE(S23:U23),5))))</f>
         <v/>
       </c>
-      <c r="X23" s="503" t="str">
+      <c r="X23" s="557" t="str">
         <f>IF(B23="","",IF(W23="","",IF(LEFT(W23,1)="0",0,ROUND(W23,0))))</f>
         <v/>
       </c>
@@ -32820,8 +32777,8 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="506"/>
-      <c r="B24" s="506"/>
+      <c r="A24" s="534"/>
+      <c r="B24" s="534"/>
       <c r="C24" s="288"/>
       <c r="D24" s="277"/>
       <c r="E24" s="277"/>
@@ -32850,12 +32807,12 @@
         <f ca="1">IF(Q24="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q24/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q24))</f>
         <v/>
       </c>
-      <c r="S24" s="508"/>
-      <c r="T24" s="510"/>
-      <c r="U24" s="512"/>
-      <c r="V24" s="514"/>
-      <c r="W24" s="502"/>
-      <c r="X24" s="504"/>
+      <c r="S24" s="536"/>
+      <c r="T24" s="538"/>
+      <c r="U24" s="548"/>
+      <c r="V24" s="550"/>
+      <c r="W24" s="552"/>
+      <c r="X24" s="558"/>
       <c r="Y24" s="283" t="str">
         <f>IF(B23="","",ROUNDUP(AVERAGE(R24,R24,X23),2))</f>
         <v/>
@@ -32866,10 +32823,10 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="505">
+      <c r="A25" s="533">
         <v>8</v>
       </c>
-      <c r="B25" s="505" t="str">
+      <c r="B25" s="533" t="str">
         <f>IF('1. Halbjahr'!B11&lt;&gt;"", '1. Halbjahr'!B11, "")</f>
         <v/>
       </c>
@@ -32901,18 +32858,18 @@
         <f ca="1">IF(Q25="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q25/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q25))</f>
         <v/>
       </c>
-      <c r="S25" s="507"/>
-      <c r="T25" s="509"/>
-      <c r="U25" s="511"/>
-      <c r="V25" s="513" t="str">
+      <c r="S25" s="535"/>
+      <c r="T25" s="537"/>
+      <c r="U25" s="547"/>
+      <c r="V25" s="549" t="str">
         <f>IF(B25="","",SUM(S25:U25))</f>
         <v/>
       </c>
-      <c r="W25" s="501" t="str">
+      <c r="W25" s="551" t="str">
         <f>IF(B25="","",IF(ISBLANK(S25),"",IF(AVERAGE(S25:U25)&lt;10,LEFT(AVERAGE(S25:U25),4),LEFT(AVERAGE(S25:U25),5))))</f>
         <v/>
       </c>
-      <c r="X25" s="503" t="str">
+      <c r="X25" s="557" t="str">
         <f>IF(B25="","",IF(W25="","",IF(LEFT(W25,1)="0",0,ROUND(W25,0))))</f>
         <v/>
       </c>
@@ -32926,8 +32883,8 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="506"/>
-      <c r="B26" s="506"/>
+      <c r="A26" s="534"/>
+      <c r="B26" s="534"/>
       <c r="C26" s="288"/>
       <c r="D26" s="277"/>
       <c r="E26" s="277"/>
@@ -32956,12 +32913,12 @@
         <f ca="1">IF(Q26="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q26/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q26))</f>
         <v/>
       </c>
-      <c r="S26" s="508"/>
-      <c r="T26" s="510"/>
-      <c r="U26" s="512"/>
-      <c r="V26" s="514"/>
-      <c r="W26" s="502"/>
-      <c r="X26" s="504"/>
+      <c r="S26" s="536"/>
+      <c r="T26" s="538"/>
+      <c r="U26" s="548"/>
+      <c r="V26" s="550"/>
+      <c r="W26" s="552"/>
+      <c r="X26" s="558"/>
       <c r="Y26" s="283" t="str">
         <f>IF(B25="","",ROUNDUP(AVERAGE(R26,R26,X25),2))</f>
         <v/>
@@ -32972,10 +32929,10 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="505">
+      <c r="A27" s="533">
         <v>9</v>
       </c>
-      <c r="B27" s="505" t="str">
+      <c r="B27" s="533" t="str">
         <f>IF('1. Halbjahr'!B12&lt;&gt;"", '1. Halbjahr'!B12, "")</f>
         <v/>
       </c>
@@ -33007,18 +32964,18 @@
         <f ca="1">IF(Q27="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q27/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q27))</f>
         <v/>
       </c>
-      <c r="S27" s="507"/>
-      <c r="T27" s="509"/>
-      <c r="U27" s="511"/>
-      <c r="V27" s="513" t="str">
+      <c r="S27" s="535"/>
+      <c r="T27" s="537"/>
+      <c r="U27" s="547"/>
+      <c r="V27" s="549" t="str">
         <f>IF(B27="","",SUM(S27:U27))</f>
         <v/>
       </c>
-      <c r="W27" s="501" t="str">
+      <c r="W27" s="551" t="str">
         <f>IF(B27="","",IF(ISBLANK(S27),"",IF(AVERAGE(S27:U27)&lt;10,LEFT(AVERAGE(S27:U27),4),LEFT(AVERAGE(S27:U27),5))))</f>
         <v/>
       </c>
-      <c r="X27" s="503" t="str">
+      <c r="X27" s="557" t="str">
         <f>IF(B27="","",IF(W27="","",IF(LEFT(W27,1)="0",0,ROUND(W27,0))))</f>
         <v/>
       </c>
@@ -33032,8 +32989,8 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="506"/>
-      <c r="B28" s="506"/>
+      <c r="A28" s="534"/>
+      <c r="B28" s="534"/>
       <c r="C28" s="288"/>
       <c r="D28" s="277"/>
       <c r="E28" s="277"/>
@@ -33062,12 +33019,12 @@
         <f ca="1">IF(Q28="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q28/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q28))</f>
         <v/>
       </c>
-      <c r="S28" s="508"/>
-      <c r="T28" s="510"/>
-      <c r="U28" s="512"/>
-      <c r="V28" s="514"/>
-      <c r="W28" s="502"/>
-      <c r="X28" s="504"/>
+      <c r="S28" s="536"/>
+      <c r="T28" s="538"/>
+      <c r="U28" s="548"/>
+      <c r="V28" s="550"/>
+      <c r="W28" s="552"/>
+      <c r="X28" s="558"/>
       <c r="Y28" s="283" t="str">
         <f>IF(B27="","",ROUNDUP(AVERAGE(R28,R28,X27),2))</f>
         <v/>
@@ -33078,10 +33035,10 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="505">
+      <c r="A29" s="533">
         <v>10</v>
       </c>
-      <c r="B29" s="505" t="str">
+      <c r="B29" s="533" t="str">
         <f>IF('1. Halbjahr'!B13&lt;&gt;"", '1. Halbjahr'!B13, "")</f>
         <v/>
       </c>
@@ -33113,18 +33070,18 @@
         <f ca="1">IF(Q29="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q29/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q29))</f>
         <v/>
       </c>
-      <c r="S29" s="507"/>
-      <c r="T29" s="509"/>
-      <c r="U29" s="511"/>
-      <c r="V29" s="513" t="str">
+      <c r="S29" s="535"/>
+      <c r="T29" s="537"/>
+      <c r="U29" s="547"/>
+      <c r="V29" s="549" t="str">
         <f>IF(B29="","",SUM(S29:U29))</f>
         <v/>
       </c>
-      <c r="W29" s="501" t="str">
+      <c r="W29" s="551" t="str">
         <f>IF(B29="","",IF(ISBLANK(S29),"",IF(AVERAGE(S29:U29)&lt;10,LEFT(AVERAGE(S29:U29),4),LEFT(AVERAGE(S29:U29),5))))</f>
         <v/>
       </c>
-      <c r="X29" s="503" t="str">
+      <c r="X29" s="557" t="str">
         <f>IF(B29="","",IF(W29="","",IF(LEFT(W29,1)="0",0,ROUND(W29,0))))</f>
         <v/>
       </c>
@@ -33138,8 +33095,8 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="506"/>
-      <c r="B30" s="506"/>
+      <c r="A30" s="534"/>
+      <c r="B30" s="534"/>
       <c r="C30" s="288"/>
       <c r="D30" s="277"/>
       <c r="E30" s="277"/>
@@ -33168,12 +33125,12 @@
         <f ca="1">IF(Q30="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q30/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q30))</f>
         <v/>
       </c>
-      <c r="S30" s="508"/>
-      <c r="T30" s="510"/>
-      <c r="U30" s="512"/>
-      <c r="V30" s="514"/>
-      <c r="W30" s="502"/>
-      <c r="X30" s="504"/>
+      <c r="S30" s="536"/>
+      <c r="T30" s="538"/>
+      <c r="U30" s="548"/>
+      <c r="V30" s="550"/>
+      <c r="W30" s="552"/>
+      <c r="X30" s="558"/>
       <c r="Y30" s="283" t="str">
         <f>IF(B29="","",ROUNDUP(AVERAGE(R30,R30,X29),2))</f>
         <v/>
@@ -33184,10 +33141,10 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="505">
+      <c r="A31" s="533">
         <v>11</v>
       </c>
-      <c r="B31" s="505" t="str">
+      <c r="B31" s="533" t="str">
         <f>IF('1. Halbjahr'!B14&lt;&gt;"", '1. Halbjahr'!B14, "")</f>
         <v/>
       </c>
@@ -33219,18 +33176,18 @@
         <f ca="1">IF(Q31="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q31/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q31))</f>
         <v/>
       </c>
-      <c r="S31" s="507"/>
-      <c r="T31" s="509"/>
-      <c r="U31" s="511"/>
-      <c r="V31" s="513" t="str">
+      <c r="S31" s="535"/>
+      <c r="T31" s="537"/>
+      <c r="U31" s="547"/>
+      <c r="V31" s="549" t="str">
         <f>IF(B31="","",SUM(S31:U31))</f>
         <v/>
       </c>
-      <c r="W31" s="501" t="str">
+      <c r="W31" s="551" t="str">
         <f>IF(B31="","",IF(ISBLANK(S31),"",IF(AVERAGE(S31:U31)&lt;10,LEFT(AVERAGE(S31:U31),4),LEFT(AVERAGE(S31:U31),5))))</f>
         <v/>
       </c>
-      <c r="X31" s="503" t="str">
+      <c r="X31" s="557" t="str">
         <f>IF(B31="","",IF(W31="","",IF(LEFT(W31,1)="0",0,ROUND(W31,0))))</f>
         <v/>
       </c>
@@ -33244,8 +33201,8 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="506"/>
-      <c r="B32" s="506"/>
+      <c r="A32" s="534"/>
+      <c r="B32" s="534"/>
       <c r="C32" s="288"/>
       <c r="D32" s="277"/>
       <c r="E32" s="277"/>
@@ -33274,12 +33231,12 @@
         <f ca="1">IF(Q32="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q32/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q32))</f>
         <v/>
       </c>
-      <c r="S32" s="508"/>
-      <c r="T32" s="510"/>
-      <c r="U32" s="512"/>
-      <c r="V32" s="514"/>
-      <c r="W32" s="502"/>
-      <c r="X32" s="504"/>
+      <c r="S32" s="536"/>
+      <c r="T32" s="538"/>
+      <c r="U32" s="548"/>
+      <c r="V32" s="550"/>
+      <c r="W32" s="552"/>
+      <c r="X32" s="558"/>
       <c r="Y32" s="283" t="str">
         <f>IF(B31="","",ROUNDUP(AVERAGE(R32,R32,X31),2))</f>
         <v/>
@@ -33290,10 +33247,10 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="505">
+      <c r="A33" s="533">
         <v>12</v>
       </c>
-      <c r="B33" s="505" t="str">
+      <c r="B33" s="533" t="str">
         <f>IF('1. Halbjahr'!B15&lt;&gt;"", '1. Halbjahr'!B15, "")</f>
         <v/>
       </c>
@@ -33325,18 +33282,18 @@
         <f ca="1">IF(Q33="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q33/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q33))</f>
         <v/>
       </c>
-      <c r="S33" s="507"/>
-      <c r="T33" s="509"/>
-      <c r="U33" s="511"/>
-      <c r="V33" s="513" t="str">
+      <c r="S33" s="535"/>
+      <c r="T33" s="537"/>
+      <c r="U33" s="547"/>
+      <c r="V33" s="549" t="str">
         <f>IF(B33="","",SUM(S33:U33))</f>
         <v/>
       </c>
-      <c r="W33" s="501" t="str">
+      <c r="W33" s="551" t="str">
         <f>IF(B33="","",IF(ISBLANK(S33),"",IF(AVERAGE(S33:U33)&lt;10,LEFT(AVERAGE(S33:U33),4),LEFT(AVERAGE(S33:U33),5))))</f>
         <v/>
       </c>
-      <c r="X33" s="503" t="str">
+      <c r="X33" s="557" t="str">
         <f>IF(B33="","",IF(W33="","",IF(LEFT(W33,1)="0",0,ROUND(W33,0))))</f>
         <v/>
       </c>
@@ -33350,8 +33307,8 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="506"/>
-      <c r="B34" s="506"/>
+      <c r="A34" s="534"/>
+      <c r="B34" s="534"/>
       <c r="C34" s="288"/>
       <c r="D34" s="277"/>
       <c r="E34" s="277"/>
@@ -33380,12 +33337,12 @@
         <f ca="1">IF(Q34="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q34/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q34))</f>
         <v/>
       </c>
-      <c r="S34" s="508"/>
-      <c r="T34" s="510"/>
-      <c r="U34" s="512"/>
-      <c r="V34" s="514"/>
-      <c r="W34" s="502"/>
-      <c r="X34" s="504"/>
+      <c r="S34" s="536"/>
+      <c r="T34" s="538"/>
+      <c r="U34" s="548"/>
+      <c r="V34" s="550"/>
+      <c r="W34" s="552"/>
+      <c r="X34" s="558"/>
       <c r="Y34" s="283" t="str">
         <f>IF(B33="","",ROUNDUP(AVERAGE(R34,R34,X33),2))</f>
         <v/>
@@ -33396,10 +33353,10 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="505">
+      <c r="A35" s="533">
         <v>13</v>
       </c>
-      <c r="B35" s="505" t="str">
+      <c r="B35" s="533" t="str">
         <f>IF('1. Halbjahr'!B16&lt;&gt;"", '1. Halbjahr'!B16, "")</f>
         <v/>
       </c>
@@ -33431,18 +33388,18 @@
         <f ca="1">IF(Q35="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q35/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q35))</f>
         <v/>
       </c>
-      <c r="S35" s="507"/>
-      <c r="T35" s="509"/>
-      <c r="U35" s="511"/>
-      <c r="V35" s="513" t="str">
+      <c r="S35" s="535"/>
+      <c r="T35" s="537"/>
+      <c r="U35" s="547"/>
+      <c r="V35" s="549" t="str">
         <f>IF(B35="","",SUM(S35:U35))</f>
         <v/>
       </c>
-      <c r="W35" s="501" t="str">
+      <c r="W35" s="551" t="str">
         <f>IF(B35="","",IF(ISBLANK(S35),"",IF(AVERAGE(S35:U35)&lt;10,LEFT(AVERAGE(S35:U35),4),LEFT(AVERAGE(S35:U35),5))))</f>
         <v/>
       </c>
-      <c r="X35" s="503" t="str">
+      <c r="X35" s="557" t="str">
         <f>IF(B35="","",IF(W35="","",IF(LEFT(W35,1)="0",0,ROUND(W35,0))))</f>
         <v/>
       </c>
@@ -33456,8 +33413,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="506"/>
-      <c r="B36" s="506"/>
+      <c r="A36" s="534"/>
+      <c r="B36" s="534"/>
       <c r="C36" s="288"/>
       <c r="D36" s="277"/>
       <c r="E36" s="277"/>
@@ -33486,12 +33443,12 @@
         <f ca="1">IF(Q36="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q36/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q36))</f>
         <v/>
       </c>
-      <c r="S36" s="508"/>
-      <c r="T36" s="510"/>
-      <c r="U36" s="512"/>
-      <c r="V36" s="514"/>
-      <c r="W36" s="502"/>
-      <c r="X36" s="504"/>
+      <c r="S36" s="536"/>
+      <c r="T36" s="538"/>
+      <c r="U36" s="548"/>
+      <c r="V36" s="550"/>
+      <c r="W36" s="552"/>
+      <c r="X36" s="558"/>
       <c r="Y36" s="283" t="str">
         <f>IF(B35="","",ROUNDUP(AVERAGE(R36,R36,X35),2))</f>
         <v/>
@@ -33502,10 +33459,10 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="505">
+      <c r="A37" s="533">
         <v>14</v>
       </c>
-      <c r="B37" s="505" t="str">
+      <c r="B37" s="533" t="str">
         <f>IF('1. Halbjahr'!B17&lt;&gt;"", '1. Halbjahr'!B17, "")</f>
         <v/>
       </c>
@@ -33537,18 +33494,18 @@
         <f ca="1">IF(Q37="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q37/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q37))</f>
         <v/>
       </c>
-      <c r="S37" s="507"/>
-      <c r="T37" s="509"/>
-      <c r="U37" s="511"/>
-      <c r="V37" s="513" t="str">
+      <c r="S37" s="535"/>
+      <c r="T37" s="537"/>
+      <c r="U37" s="547"/>
+      <c r="V37" s="549" t="str">
         <f>IF(B37="","",SUM(S37:U37))</f>
         <v/>
       </c>
-      <c r="W37" s="501" t="str">
+      <c r="W37" s="551" t="str">
         <f>IF(B37="","",IF(ISBLANK(S37),"",IF(AVERAGE(S37:U37)&lt;10,LEFT(AVERAGE(S37:U37),4),LEFT(AVERAGE(S37:U37),5))))</f>
         <v/>
       </c>
-      <c r="X37" s="503" t="str">
+      <c r="X37" s="557" t="str">
         <f>IF(B37="","",IF(W37="","",IF(LEFT(W37,1)="0",0,ROUND(W37,0))))</f>
         <v/>
       </c>
@@ -33562,8 +33519,8 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="506"/>
-      <c r="B38" s="506"/>
+      <c r="A38" s="534"/>
+      <c r="B38" s="534"/>
       <c r="C38" s="288"/>
       <c r="D38" s="277"/>
       <c r="E38" s="277"/>
@@ -33592,12 +33549,12 @@
         <f ca="1">IF(Q38="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q38/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q38))</f>
         <v/>
       </c>
-      <c r="S38" s="508"/>
-      <c r="T38" s="510"/>
-      <c r="U38" s="512"/>
-      <c r="V38" s="514"/>
-      <c r="W38" s="502"/>
-      <c r="X38" s="504"/>
+      <c r="S38" s="536"/>
+      <c r="T38" s="538"/>
+      <c r="U38" s="548"/>
+      <c r="V38" s="550"/>
+      <c r="W38" s="552"/>
+      <c r="X38" s="558"/>
       <c r="Y38" s="283" t="str">
         <f>IF(B37="","",ROUNDUP(AVERAGE(R38,R38,X37),2))</f>
         <v/>
@@ -33608,10 +33565,10 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="505">
+      <c r="A39" s="533">
         <v>15</v>
       </c>
-      <c r="B39" s="505" t="str">
+      <c r="B39" s="533" t="str">
         <f>IF('1. Halbjahr'!B18&lt;&gt;"", '1. Halbjahr'!B18, "")</f>
         <v/>
       </c>
@@ -33643,18 +33600,18 @@
         <f ca="1">IF(Q39="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q39/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q39))</f>
         <v/>
       </c>
-      <c r="S39" s="515"/>
-      <c r="T39" s="516"/>
-      <c r="U39" s="517"/>
-      <c r="V39" s="518" t="str">
+      <c r="S39" s="553"/>
+      <c r="T39" s="554"/>
+      <c r="U39" s="555"/>
+      <c r="V39" s="556" t="str">
         <f>IF(B39="","",SUM(S39:U39))</f>
         <v/>
       </c>
-      <c r="W39" s="501" t="str">
+      <c r="W39" s="551" t="str">
         <f>IF(B39="","",IF(ISBLANK(S39),"",IF(AVERAGE(S39:U39)&lt;10,LEFT(AVERAGE(S39:U39),4),LEFT(AVERAGE(S39:U39),5))))</f>
         <v/>
       </c>
-      <c r="X39" s="503" t="str">
+      <c r="X39" s="557" t="str">
         <f>IF(B39="","",IF(W39="","",IF(LEFT(W39,1)="0",0,ROUND(W39,0))))</f>
         <v/>
       </c>
@@ -33668,8 +33625,8 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="506"/>
-      <c r="B40" s="506"/>
+      <c r="A40" s="534"/>
+      <c r="B40" s="534"/>
       <c r="C40" s="288"/>
       <c r="D40" s="277"/>
       <c r="E40" s="277"/>
@@ -33698,12 +33655,12 @@
         <f ca="1">IF(Q40="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q40/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q40))</f>
         <v/>
       </c>
-      <c r="S40" s="508"/>
-      <c r="T40" s="510"/>
-      <c r="U40" s="512"/>
-      <c r="V40" s="514"/>
-      <c r="W40" s="502"/>
-      <c r="X40" s="504"/>
+      <c r="S40" s="536"/>
+      <c r="T40" s="538"/>
+      <c r="U40" s="548"/>
+      <c r="V40" s="550"/>
+      <c r="W40" s="552"/>
+      <c r="X40" s="558"/>
       <c r="Y40" s="283" t="str">
         <f>IF(B39="","",ROUNDUP(AVERAGE(R40,R40,X39),2))</f>
         <v/>
@@ -33714,10 +33671,10 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="505">
+      <c r="A41" s="533">
         <v>16</v>
       </c>
-      <c r="B41" s="505" t="str">
+      <c r="B41" s="533" t="str">
         <f>IF('1. Halbjahr'!B19&lt;&gt;"", '1. Halbjahr'!B19, "")</f>
         <v/>
       </c>
@@ -33749,18 +33706,18 @@
         <f ca="1">IF(Q41="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q41/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q41))</f>
         <v/>
       </c>
-      <c r="S41" s="507"/>
-      <c r="T41" s="509"/>
-      <c r="U41" s="511"/>
-      <c r="V41" s="513" t="str">
+      <c r="S41" s="535"/>
+      <c r="T41" s="537"/>
+      <c r="U41" s="547"/>
+      <c r="V41" s="549" t="str">
         <f>IF(B41="","",SUM(S41:U41))</f>
         <v/>
       </c>
-      <c r="W41" s="501" t="str">
+      <c r="W41" s="551" t="str">
         <f>IF(B41="","",IF(ISBLANK(S41),"",IF(AVERAGE(S41:U41)&lt;10,LEFT(AVERAGE(S41:U41),4),LEFT(AVERAGE(S41:U41),5))))</f>
         <v/>
       </c>
-      <c r="X41" s="503" t="str">
+      <c r="X41" s="557" t="str">
         <f>IF(B41="","",IF(W41="","",IF(LEFT(W41,1)="0",0,ROUND(W41,0))))</f>
         <v/>
       </c>
@@ -33774,8 +33731,8 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="506"/>
-      <c r="B42" s="506"/>
+      <c r="A42" s="534"/>
+      <c r="B42" s="534"/>
       <c r="C42" s="288"/>
       <c r="D42" s="277"/>
       <c r="E42" s="277"/>
@@ -33804,12 +33761,12 @@
         <f ca="1">IF(Q42="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q42/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q42))</f>
         <v/>
       </c>
-      <c r="S42" s="508"/>
-      <c r="T42" s="510"/>
-      <c r="U42" s="512"/>
-      <c r="V42" s="514"/>
-      <c r="W42" s="502"/>
-      <c r="X42" s="504"/>
+      <c r="S42" s="536"/>
+      <c r="T42" s="538"/>
+      <c r="U42" s="548"/>
+      <c r="V42" s="550"/>
+      <c r="W42" s="552"/>
+      <c r="X42" s="558"/>
       <c r="Y42" s="283" t="str">
         <f>IF(B41="","",ROUNDUP(AVERAGE(R42,R42,X41),2))</f>
         <v/>
@@ -33820,10 +33777,10 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="505">
+      <c r="A43" s="533">
         <v>17</v>
       </c>
-      <c r="B43" s="505" t="str">
+      <c r="B43" s="533" t="str">
         <f>IF('1. Halbjahr'!B20&lt;&gt;"", '1. Halbjahr'!B20, "")</f>
         <v/>
       </c>
@@ -33855,18 +33812,18 @@
         <f ca="1">IF(Q43="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q43/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q43))</f>
         <v/>
       </c>
-      <c r="S43" s="507"/>
-      <c r="T43" s="509"/>
-      <c r="U43" s="511"/>
-      <c r="V43" s="513" t="str">
+      <c r="S43" s="535"/>
+      <c r="T43" s="537"/>
+      <c r="U43" s="547"/>
+      <c r="V43" s="549" t="str">
         <f>IF(B43="","",SUM(S43:U43))</f>
         <v/>
       </c>
-      <c r="W43" s="501" t="str">
+      <c r="W43" s="551" t="str">
         <f>IF(B43="","",IF(ISBLANK(S43),"",IF(AVERAGE(S43:U43)&lt;10,LEFT(AVERAGE(S43:U43),4),LEFT(AVERAGE(S43:U43),5))))</f>
         <v/>
       </c>
-      <c r="X43" s="503" t="str">
+      <c r="X43" s="557" t="str">
         <f>IF(B43="","",IF(W43="","",IF(LEFT(W43,1)="0",0,ROUND(W43,0))))</f>
         <v/>
       </c>
@@ -33880,8 +33837,8 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="506"/>
-      <c r="B44" s="506"/>
+      <c r="A44" s="534"/>
+      <c r="B44" s="534"/>
       <c r="C44" s="288"/>
       <c r="D44" s="277"/>
       <c r="E44" s="277"/>
@@ -33910,12 +33867,12 @@
         <f ca="1">IF(Q44="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q44/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q44))</f>
         <v/>
       </c>
-      <c r="S44" s="508"/>
-      <c r="T44" s="510"/>
-      <c r="U44" s="512"/>
-      <c r="V44" s="514"/>
-      <c r="W44" s="502"/>
-      <c r="X44" s="504"/>
+      <c r="S44" s="536"/>
+      <c r="T44" s="538"/>
+      <c r="U44" s="548"/>
+      <c r="V44" s="550"/>
+      <c r="W44" s="552"/>
+      <c r="X44" s="558"/>
       <c r="Y44" s="283" t="str">
         <f>IF(B43="","",ROUNDUP(AVERAGE(R44,R44,X43),2))</f>
         <v/>
@@ -33926,10 +33883,10 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="505">
+      <c r="A45" s="533">
         <v>18</v>
       </c>
-      <c r="B45" s="505" t="str">
+      <c r="B45" s="533" t="str">
         <f>IF('1. Halbjahr'!B21&lt;&gt;"", '1. Halbjahr'!B21, "")</f>
         <v/>
       </c>
@@ -33961,18 +33918,18 @@
         <f ca="1">IF(Q45="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q45/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q45))</f>
         <v/>
       </c>
-      <c r="S45" s="507"/>
-      <c r="T45" s="509"/>
-      <c r="U45" s="511"/>
-      <c r="V45" s="513" t="str">
+      <c r="S45" s="535"/>
+      <c r="T45" s="537"/>
+      <c r="U45" s="547"/>
+      <c r="V45" s="549" t="str">
         <f>IF(B45="","",SUM(S45:U45))</f>
         <v/>
       </c>
-      <c r="W45" s="501" t="str">
+      <c r="W45" s="551" t="str">
         <f>IF(B45="","",IF(ISBLANK(S45),"",IF(AVERAGE(S45:U45)&lt;10,LEFT(AVERAGE(S45:U45),4),LEFT(AVERAGE(S45:U45),5))))</f>
         <v/>
       </c>
-      <c r="X45" s="503" t="str">
+      <c r="X45" s="557" t="str">
         <f>IF(B45="","",IF(W45="","",IF(LEFT(W45,1)="0",0,ROUND(W45,0))))</f>
         <v/>
       </c>
@@ -33986,8 +33943,8 @@
       </c>
     </row>
     <row r="46" spans="1:26" s="226" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="506"/>
-      <c r="B46" s="506"/>
+      <c r="A46" s="534"/>
+      <c r="B46" s="534"/>
       <c r="C46" s="293"/>
       <c r="D46" s="294"/>
       <c r="E46" s="294"/>
@@ -34016,12 +33973,12 @@
         <f ca="1">IF(Q46="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q46/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q46))</f>
         <v/>
       </c>
-      <c r="S46" s="508"/>
-      <c r="T46" s="510"/>
-      <c r="U46" s="512"/>
-      <c r="V46" s="514"/>
-      <c r="W46" s="502"/>
-      <c r="X46" s="504"/>
+      <c r="S46" s="536"/>
+      <c r="T46" s="538"/>
+      <c r="U46" s="548"/>
+      <c r="V46" s="550"/>
+      <c r="W46" s="552"/>
+      <c r="X46" s="558"/>
       <c r="Y46" s="283" t="str">
         <f>IF(B45="","",ROUNDUP(AVERAGE(R46,R46,X45),2))</f>
         <v/>
@@ -34032,10 +33989,10 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="505">
+      <c r="A47" s="533">
         <v>19</v>
       </c>
-      <c r="B47" s="505" t="str">
+      <c r="B47" s="533" t="str">
         <f>IF('1. Halbjahr'!B22&lt;&gt;"", '1. Halbjahr'!B22, "")</f>
         <v/>
       </c>
@@ -34067,18 +34024,18 @@
         <f ca="1">IF(Q47="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q47/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q47))</f>
         <v/>
       </c>
-      <c r="S47" s="507"/>
-      <c r="T47" s="509"/>
-      <c r="U47" s="511"/>
-      <c r="V47" s="513" t="str">
+      <c r="S47" s="535"/>
+      <c r="T47" s="537"/>
+      <c r="U47" s="547"/>
+      <c r="V47" s="549" t="str">
         <f>IF(B47="","",SUM(S47:U47))</f>
         <v/>
       </c>
-      <c r="W47" s="501" t="str">
+      <c r="W47" s="551" t="str">
         <f>IF(B47="","",IF(ISBLANK(S47),"",IF(AVERAGE(S47:U47)&lt;10,LEFT(AVERAGE(S47:U47),4),LEFT(AVERAGE(S47:U47),5))))</f>
         <v/>
       </c>
-      <c r="X47" s="503" t="str">
+      <c r="X47" s="557" t="str">
         <f>IF(B47="","",IF(W47="","",IF(LEFT(W47,1)="0",0,ROUND(W47,0))))</f>
         <v/>
       </c>
@@ -34092,8 +34049,8 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="506"/>
-      <c r="B48" s="506"/>
+      <c r="A48" s="534"/>
+      <c r="B48" s="534"/>
       <c r="C48" s="288"/>
       <c r="D48" s="277"/>
       <c r="E48" s="277"/>
@@ -34122,12 +34079,12 @@
         <f ca="1">IF(Q48="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q48/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q48))</f>
         <v/>
       </c>
-      <c r="S48" s="508"/>
-      <c r="T48" s="510"/>
-      <c r="U48" s="512"/>
-      <c r="V48" s="514"/>
-      <c r="W48" s="502"/>
-      <c r="X48" s="504"/>
+      <c r="S48" s="536"/>
+      <c r="T48" s="538"/>
+      <c r="U48" s="548"/>
+      <c r="V48" s="550"/>
+      <c r="W48" s="552"/>
+      <c r="X48" s="558"/>
       <c r="Y48" s="283" t="str">
         <f>IF(B47="","",ROUNDUP(AVERAGE(R48,R48,X47),2))</f>
         <v/>
@@ -34138,10 +34095,10 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="505">
+      <c r="A49" s="533">
         <v>20</v>
       </c>
-      <c r="B49" s="505" t="str">
+      <c r="B49" s="533" t="str">
         <f>IF('1. Halbjahr'!B23&lt;&gt;"", '1. Halbjahr'!B23, "")</f>
         <v/>
       </c>
@@ -34173,18 +34130,18 @@
         <f ca="1">IF(Q49="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q49/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q49))</f>
         <v/>
       </c>
-      <c r="S49" s="507"/>
-      <c r="T49" s="509"/>
-      <c r="U49" s="511"/>
-      <c r="V49" s="513" t="str">
+      <c r="S49" s="535"/>
+      <c r="T49" s="537"/>
+      <c r="U49" s="547"/>
+      <c r="V49" s="549" t="str">
         <f>IF(B49="","",SUM(S49:U49))</f>
         <v/>
       </c>
-      <c r="W49" s="501" t="str">
+      <c r="W49" s="551" t="str">
         <f>IF(B49="","",IF(ISBLANK(S49),"",IF(AVERAGE(S49:U49)&lt;10,LEFT(AVERAGE(S49:U49),4),LEFT(AVERAGE(S49:U49),5))))</f>
         <v/>
       </c>
-      <c r="X49" s="503" t="str">
+      <c r="X49" s="557" t="str">
         <f>IF(B49="","",IF(W49="","",IF(LEFT(W49,1)="0",0,ROUND(W49,0))))</f>
         <v/>
       </c>
@@ -34198,8 +34155,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="506"/>
-      <c r="B50" s="506"/>
+      <c r="A50" s="534"/>
+      <c r="B50" s="534"/>
       <c r="C50" s="288"/>
       <c r="D50" s="277"/>
       <c r="E50" s="277"/>
@@ -34228,12 +34185,12 @@
         <f ca="1">IF(Q50="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q50/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q50))</f>
         <v/>
       </c>
-      <c r="S50" s="508"/>
-      <c r="T50" s="510"/>
-      <c r="U50" s="512"/>
-      <c r="V50" s="514"/>
-      <c r="W50" s="502"/>
-      <c r="X50" s="504"/>
+      <c r="S50" s="536"/>
+      <c r="T50" s="538"/>
+      <c r="U50" s="548"/>
+      <c r="V50" s="550"/>
+      <c r="W50" s="552"/>
+      <c r="X50" s="558"/>
       <c r="Y50" s="283" t="str">
         <f>IF(B49="","",ROUNDUP(AVERAGE(R50,R50,X49),2))</f>
         <v/>
@@ -34244,10 +34201,10 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="505">
+      <c r="A51" s="533">
         <v>21</v>
       </c>
-      <c r="B51" s="505" t="str">
+      <c r="B51" s="533" t="str">
         <f>IF('1. Halbjahr'!B24&lt;&gt;"", '1. Halbjahr'!B24, "")</f>
         <v/>
       </c>
@@ -34279,18 +34236,18 @@
         <f ca="1">IF(Q51="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q51/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q51))</f>
         <v/>
       </c>
-      <c r="S51" s="507"/>
-      <c r="T51" s="509"/>
-      <c r="U51" s="511"/>
-      <c r="V51" s="513" t="str">
+      <c r="S51" s="535"/>
+      <c r="T51" s="537"/>
+      <c r="U51" s="547"/>
+      <c r="V51" s="549" t="str">
         <f>IF(B51="","",SUM(S51:U51))</f>
         <v/>
       </c>
-      <c r="W51" s="501" t="str">
+      <c r="W51" s="551" t="str">
         <f>IF(B51="","",IF(ISBLANK(S51),"",IF(AVERAGE(S51:U51)&lt;10,LEFT(AVERAGE(S51:U51),4),LEFT(AVERAGE(S51:U51),5))))</f>
         <v/>
       </c>
-      <c r="X51" s="503" t="str">
+      <c r="X51" s="557" t="str">
         <f>IF(B51="","",IF(W51="","",IF(LEFT(W51,1)="0",0,ROUND(W51,0))))</f>
         <v/>
       </c>
@@ -34304,8 +34261,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="506"/>
-      <c r="B52" s="506"/>
+      <c r="A52" s="534"/>
+      <c r="B52" s="534"/>
       <c r="C52" s="288"/>
       <c r="D52" s="277"/>
       <c r="E52" s="277"/>
@@ -34334,12 +34291,12 @@
         <f ca="1">IF(Q52="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q52/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q52))</f>
         <v/>
       </c>
-      <c r="S52" s="508"/>
-      <c r="T52" s="510"/>
-      <c r="U52" s="512"/>
-      <c r="V52" s="514"/>
-      <c r="W52" s="502"/>
-      <c r="X52" s="504"/>
+      <c r="S52" s="536"/>
+      <c r="T52" s="538"/>
+      <c r="U52" s="548"/>
+      <c r="V52" s="550"/>
+      <c r="W52" s="552"/>
+      <c r="X52" s="558"/>
       <c r="Y52" s="283" t="str">
         <f>IF(B51="","",ROUNDUP(AVERAGE(R52,R52,X51),2))</f>
         <v/>
@@ -34350,10 +34307,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="505">
+      <c r="A53" s="533">
         <v>22</v>
       </c>
-      <c r="B53" s="505" t="str">
+      <c r="B53" s="533" t="str">
         <f>IF('1. Halbjahr'!B25&lt;&gt;"", '1. Halbjahr'!B25, "")</f>
         <v/>
       </c>
@@ -34385,18 +34342,18 @@
         <f ca="1">IF(Q53="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q53/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q53))</f>
         <v/>
       </c>
-      <c r="S53" s="507"/>
-      <c r="T53" s="509"/>
-      <c r="U53" s="511"/>
-      <c r="V53" s="513" t="str">
+      <c r="S53" s="535"/>
+      <c r="T53" s="537"/>
+      <c r="U53" s="547"/>
+      <c r="V53" s="549" t="str">
         <f>IF(B53="","",SUM(S53:U53))</f>
         <v/>
       </c>
-      <c r="W53" s="501" t="str">
+      <c r="W53" s="551" t="str">
         <f>IF(B53="","",IF(ISBLANK(S53),"",IF(AVERAGE(S53:U53)&lt;10,LEFT(AVERAGE(S53:U53),4),LEFT(AVERAGE(S53:U53),5))))</f>
         <v/>
       </c>
-      <c r="X53" s="503" t="str">
+      <c r="X53" s="557" t="str">
         <f>IF(B53="","",IF(W53="","",IF(LEFT(W53,1)="0",0,ROUND(W53,0))))</f>
         <v/>
       </c>
@@ -34410,8 +34367,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="506"/>
-      <c r="B54" s="506"/>
+      <c r="A54" s="534"/>
+      <c r="B54" s="534"/>
       <c r="C54" s="288"/>
       <c r="D54" s="277"/>
       <c r="E54" s="277"/>
@@ -34440,12 +34397,12 @@
         <f ca="1">IF(Q54="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q54/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q54))</f>
         <v/>
       </c>
-      <c r="S54" s="508"/>
-      <c r="T54" s="510"/>
-      <c r="U54" s="512"/>
-      <c r="V54" s="514"/>
-      <c r="W54" s="502"/>
-      <c r="X54" s="504"/>
+      <c r="S54" s="536"/>
+      <c r="T54" s="538"/>
+      <c r="U54" s="548"/>
+      <c r="V54" s="550"/>
+      <c r="W54" s="552"/>
+      <c r="X54" s="558"/>
       <c r="Y54" s="283" t="str">
         <f>IF(B53="","",ROUNDUP(AVERAGE(R54,R54,X53),2))</f>
         <v/>
@@ -34456,10 +34413,10 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="505">
+      <c r="A55" s="533">
         <v>23</v>
       </c>
-      <c r="B55" s="505" t="str">
+      <c r="B55" s="533" t="str">
         <f>IF('1. Halbjahr'!B26&lt;&gt;"", '1. Halbjahr'!B26, "")</f>
         <v/>
       </c>
@@ -34491,18 +34448,18 @@
         <f ca="1">IF(Q55="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q55/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q55))</f>
         <v/>
       </c>
-      <c r="S55" s="507"/>
-      <c r="T55" s="509"/>
-      <c r="U55" s="511"/>
-      <c r="V55" s="513" t="str">
+      <c r="S55" s="535"/>
+      <c r="T55" s="537"/>
+      <c r="U55" s="547"/>
+      <c r="V55" s="549" t="str">
         <f>IF(B55="","",SUM(S55:U55))</f>
         <v/>
       </c>
-      <c r="W55" s="501" t="str">
+      <c r="W55" s="551" t="str">
         <f>IF(B55="","",IF(ISBLANK(S55),"",IF(AVERAGE(S55:U55)&lt;10,LEFT(AVERAGE(S55:U55),4),LEFT(AVERAGE(S55:U55),5))))</f>
         <v/>
       </c>
-      <c r="X55" s="503" t="str">
+      <c r="X55" s="557" t="str">
         <f>IF(B55="","",IF(W55="","",IF(LEFT(W55,1)="0",0,ROUND(W55,0))))</f>
         <v/>
       </c>
@@ -34516,8 +34473,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="506"/>
-      <c r="B56" s="506"/>
+      <c r="A56" s="534"/>
+      <c r="B56" s="534"/>
       <c r="C56" s="288"/>
       <c r="D56" s="277"/>
       <c r="E56" s="277"/>
@@ -34546,12 +34503,12 @@
         <f ca="1">IF(Q56="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q56/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q56))</f>
         <v/>
       </c>
-      <c r="S56" s="508"/>
-      <c r="T56" s="510"/>
-      <c r="U56" s="512"/>
-      <c r="V56" s="514"/>
-      <c r="W56" s="502"/>
-      <c r="X56" s="504"/>
+      <c r="S56" s="536"/>
+      <c r="T56" s="538"/>
+      <c r="U56" s="548"/>
+      <c r="V56" s="550"/>
+      <c r="W56" s="552"/>
+      <c r="X56" s="558"/>
       <c r="Y56" s="283" t="str">
         <f>IF(B55="","",ROUNDUP(AVERAGE(R56,R56,X55),2))</f>
         <v/>
@@ -34562,10 +34519,10 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="505">
+      <c r="A57" s="533">
         <v>24</v>
       </c>
-      <c r="B57" s="505" t="str">
+      <c r="B57" s="533" t="str">
         <f>IF('1. Halbjahr'!B27&lt;&gt;"", '1. Halbjahr'!B27, "")</f>
         <v/>
       </c>
@@ -34597,18 +34554,18 @@
         <f ca="1">IF(Q57="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q57/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q57))</f>
         <v/>
       </c>
-      <c r="S57" s="507"/>
-      <c r="T57" s="509"/>
-      <c r="U57" s="511"/>
-      <c r="V57" s="513" t="str">
+      <c r="S57" s="535"/>
+      <c r="T57" s="537"/>
+      <c r="U57" s="547"/>
+      <c r="V57" s="549" t="str">
         <f>IF(B57="","",SUM(S57:U57))</f>
         <v/>
       </c>
-      <c r="W57" s="501" t="str">
+      <c r="W57" s="551" t="str">
         <f>IF(B57="","",IF(ISBLANK(S57),"",IF(AVERAGE(S57:U57)&lt;10,LEFT(AVERAGE(S57:U57),4),LEFT(AVERAGE(S57:U57),5))))</f>
         <v/>
       </c>
-      <c r="X57" s="503" t="str">
+      <c r="X57" s="557" t="str">
         <f>IF(B57="","",IF(W57="","",IF(LEFT(W57,1)="0",0,ROUND(W57,0))))</f>
         <v/>
       </c>
@@ -34622,8 +34579,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="506"/>
-      <c r="B58" s="506"/>
+      <c r="A58" s="534"/>
+      <c r="B58" s="534"/>
       <c r="C58" s="288"/>
       <c r="D58" s="277"/>
       <c r="E58" s="277"/>
@@ -34652,12 +34609,12 @@
         <f ca="1">IF(Q58="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q58/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q58))</f>
         <v/>
       </c>
-      <c r="S58" s="508"/>
-      <c r="T58" s="510"/>
-      <c r="U58" s="512"/>
-      <c r="V58" s="514"/>
-      <c r="W58" s="502"/>
-      <c r="X58" s="504"/>
+      <c r="S58" s="536"/>
+      <c r="T58" s="538"/>
+      <c r="U58" s="548"/>
+      <c r="V58" s="550"/>
+      <c r="W58" s="552"/>
+      <c r="X58" s="558"/>
       <c r="Y58" s="283" t="str">
         <f>IF(B57="","",ROUNDUP(AVERAGE(R58,R58,X57),2))</f>
         <v/>
@@ -34668,10 +34625,10 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="505">
+      <c r="A59" s="533">
         <v>25</v>
       </c>
-      <c r="B59" s="505" t="str">
+      <c r="B59" s="533" t="str">
         <f>IF('1. Halbjahr'!B28&lt;&gt;"", '1. Halbjahr'!B28, "")</f>
         <v/>
       </c>
@@ -34703,18 +34660,18 @@
         <f ca="1">IF(Q59="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q59/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q59))</f>
         <v/>
       </c>
-      <c r="S59" s="507"/>
-      <c r="T59" s="509"/>
-      <c r="U59" s="511"/>
-      <c r="V59" s="513" t="str">
+      <c r="S59" s="535"/>
+      <c r="T59" s="537"/>
+      <c r="U59" s="547"/>
+      <c r="V59" s="549" t="str">
         <f>IF(B59="","",SUM(S59:U59))</f>
         <v/>
       </c>
-      <c r="W59" s="501" t="str">
+      <c r="W59" s="551" t="str">
         <f>IF(B59="","",IF(ISBLANK(S59),"",IF(AVERAGE(S59:U59)&lt;10,LEFT(AVERAGE(S59:U59),4),LEFT(AVERAGE(S59:U59),5))))</f>
         <v/>
       </c>
-      <c r="X59" s="503" t="str">
+      <c r="X59" s="557" t="str">
         <f>IF(B59="","",IF(W59="","",IF(LEFT(W59,1)="0",0,ROUND(W59,0))))</f>
         <v/>
       </c>
@@ -34728,8 +34685,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="506"/>
-      <c r="B60" s="506"/>
+      <c r="A60" s="534"/>
+      <c r="B60" s="534"/>
       <c r="C60" s="288"/>
       <c r="D60" s="277"/>
       <c r="E60" s="277"/>
@@ -34758,12 +34715,12 @@
         <f ca="1">IF(Q60="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q60/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q60))</f>
         <v/>
       </c>
-      <c r="S60" s="508"/>
-      <c r="T60" s="510"/>
-      <c r="U60" s="512"/>
-      <c r="V60" s="514"/>
-      <c r="W60" s="502"/>
-      <c r="X60" s="504"/>
+      <c r="S60" s="536"/>
+      <c r="T60" s="538"/>
+      <c r="U60" s="548"/>
+      <c r="V60" s="550"/>
+      <c r="W60" s="552"/>
+      <c r="X60" s="558"/>
       <c r="Y60" s="283" t="str">
         <f>IF(B59="","",ROUNDUP(AVERAGE(R60,R60,X59),2))</f>
         <v/>
@@ -34774,10 +34731,10 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="505">
+      <c r="A61" s="533">
         <v>26</v>
       </c>
-      <c r="B61" s="505" t="str">
+      <c r="B61" s="533" t="str">
         <f>IF('1. Halbjahr'!B29&lt;&gt;"", '1. Halbjahr'!B29, "")</f>
         <v/>
       </c>
@@ -34809,18 +34766,18 @@
         <f ca="1">IF(Q61="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q61/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q61))</f>
         <v/>
       </c>
-      <c r="S61" s="507"/>
-      <c r="T61" s="509"/>
-      <c r="U61" s="511"/>
-      <c r="V61" s="513" t="str">
+      <c r="S61" s="535"/>
+      <c r="T61" s="537"/>
+      <c r="U61" s="547"/>
+      <c r="V61" s="549" t="str">
         <f>IF(B61="","",SUM(S61:U61))</f>
         <v/>
       </c>
-      <c r="W61" s="501" t="str">
+      <c r="W61" s="551" t="str">
         <f>IF(B61="","",IF(ISBLANK(S61),"",IF(AVERAGE(S61:U61)&lt;10,LEFT(AVERAGE(S61:U61),4),LEFT(AVERAGE(S61:U61),5))))</f>
         <v/>
       </c>
-      <c r="X61" s="503" t="str">
+      <c r="X61" s="557" t="str">
         <f>IF(B61="","",IF(W61="","",IF(LEFT(W61,1)="0",0,ROUND(W61,0))))</f>
         <v/>
       </c>
@@ -34834,8 +34791,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="506"/>
-      <c r="B62" s="506"/>
+      <c r="A62" s="534"/>
+      <c r="B62" s="534"/>
       <c r="C62" s="288"/>
       <c r="D62" s="277"/>
       <c r="E62" s="277"/>
@@ -34864,12 +34821,12 @@
         <f ca="1">IF(Q62="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q62/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q62))</f>
         <v/>
       </c>
-      <c r="S62" s="508"/>
-      <c r="T62" s="510"/>
-      <c r="U62" s="512"/>
-      <c r="V62" s="514"/>
-      <c r="W62" s="502"/>
-      <c r="X62" s="504"/>
+      <c r="S62" s="536"/>
+      <c r="T62" s="538"/>
+      <c r="U62" s="548"/>
+      <c r="V62" s="550"/>
+      <c r="W62" s="552"/>
+      <c r="X62" s="558"/>
       <c r="Y62" s="283" t="str">
         <f>IF(B61="","",ROUNDUP(AVERAGE(R62,R62,X61),2))</f>
         <v/>
@@ -34880,10 +34837,10 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="505">
+      <c r="A63" s="533">
         <v>27</v>
       </c>
-      <c r="B63" s="505" t="str">
+      <c r="B63" s="533" t="str">
         <f>IF('1. Halbjahr'!B30&lt;&gt;"", '1. Halbjahr'!B30, "")</f>
         <v/>
       </c>
@@ -34915,18 +34872,18 @@
         <f ca="1">IF(Q63="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q63/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q63))</f>
         <v/>
       </c>
-      <c r="S63" s="507"/>
-      <c r="T63" s="509"/>
-      <c r="U63" s="511"/>
-      <c r="V63" s="513" t="str">
+      <c r="S63" s="535"/>
+      <c r="T63" s="537"/>
+      <c r="U63" s="547"/>
+      <c r="V63" s="549" t="str">
         <f>IF(B63="","",SUM(S63:U63))</f>
         <v/>
       </c>
-      <c r="W63" s="501" t="str">
+      <c r="W63" s="551" t="str">
         <f>IF(B63="","",IF(ISBLANK(S63),"",IF(AVERAGE(S63:U63)&lt;10,LEFT(AVERAGE(S63:U63),4),LEFT(AVERAGE(S63:U63),5))))</f>
         <v/>
       </c>
-      <c r="X63" s="503" t="str">
+      <c r="X63" s="557" t="str">
         <f>IF(B63="","",IF(W63="","",IF(LEFT(W63,1)="0",0,ROUND(W63,0))))</f>
         <v/>
       </c>
@@ -34940,8 +34897,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="506"/>
-      <c r="B64" s="506"/>
+      <c r="A64" s="534"/>
+      <c r="B64" s="534"/>
       <c r="C64" s="288"/>
       <c r="D64" s="277"/>
       <c r="E64" s="277"/>
@@ -34970,12 +34927,12 @@
         <f ca="1">IF(Q64="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q64/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q64))</f>
         <v/>
       </c>
-      <c r="S64" s="508"/>
-      <c r="T64" s="510"/>
-      <c r="U64" s="512"/>
-      <c r="V64" s="514"/>
-      <c r="W64" s="502"/>
-      <c r="X64" s="504"/>
+      <c r="S64" s="536"/>
+      <c r="T64" s="538"/>
+      <c r="U64" s="548"/>
+      <c r="V64" s="550"/>
+      <c r="W64" s="552"/>
+      <c r="X64" s="558"/>
       <c r="Y64" s="283" t="str">
         <f>IF(B63="","",ROUNDUP(AVERAGE(R64,R64,X63),2))</f>
         <v/>
@@ -34986,10 +34943,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="505">
+      <c r="A65" s="533">
         <v>28</v>
       </c>
-      <c r="B65" s="505" t="str">
+      <c r="B65" s="533" t="str">
         <f>IF('1. Halbjahr'!B31&lt;&gt;"", '1. Halbjahr'!B31, "")</f>
         <v/>
       </c>
@@ -35021,18 +34978,18 @@
         <f ca="1">IF(Q65="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q65/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q65))</f>
         <v/>
       </c>
-      <c r="S65" s="507"/>
-      <c r="T65" s="509"/>
-      <c r="U65" s="511"/>
-      <c r="V65" s="513" t="str">
+      <c r="S65" s="535"/>
+      <c r="T65" s="537"/>
+      <c r="U65" s="547"/>
+      <c r="V65" s="549" t="str">
         <f>IF(B65="","",SUM(S65:U65))</f>
         <v/>
       </c>
-      <c r="W65" s="501" t="str">
+      <c r="W65" s="551" t="str">
         <f>IF(B65="","",IF(ISBLANK(S65),"",IF(AVERAGE(S65:U65)&lt;10,LEFT(AVERAGE(S65:U65),4),LEFT(AVERAGE(S65:U65),5))))</f>
         <v/>
       </c>
-      <c r="X65" s="503" t="str">
+      <c r="X65" s="557" t="str">
         <f>IF(B65="","",IF(W65="","",IF(LEFT(W65,1)="0",0,ROUND(W65,0))))</f>
         <v/>
       </c>
@@ -35046,8 +35003,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="506"/>
-      <c r="B66" s="506"/>
+      <c r="A66" s="534"/>
+      <c r="B66" s="534"/>
       <c r="C66" s="288"/>
       <c r="D66" s="277"/>
       <c r="E66" s="277"/>
@@ -35076,12 +35033,12 @@
         <f ca="1">IF(Q66="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q66/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q66))</f>
         <v/>
       </c>
-      <c r="S66" s="508"/>
-      <c r="T66" s="510"/>
-      <c r="U66" s="512"/>
-      <c r="V66" s="514"/>
-      <c r="W66" s="502"/>
-      <c r="X66" s="504"/>
+      <c r="S66" s="536"/>
+      <c r="T66" s="538"/>
+      <c r="U66" s="548"/>
+      <c r="V66" s="550"/>
+      <c r="W66" s="552"/>
+      <c r="X66" s="558"/>
       <c r="Y66" s="283" t="str">
         <f>IF(B65="","",ROUNDUP(AVERAGE(R66,R66,X65),2))</f>
         <v/>
@@ -35092,10 +35049,10 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="505">
+      <c r="A67" s="533">
         <v>29</v>
       </c>
-      <c r="B67" s="505" t="str">
+      <c r="B67" s="533" t="str">
         <f>IF('1. Halbjahr'!B32&lt;&gt;"", '1. Halbjahr'!B32, "")</f>
         <v/>
       </c>
@@ -35127,18 +35084,18 @@
         <f ca="1">IF(Q67="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q67/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q67))</f>
         <v/>
       </c>
-      <c r="S67" s="507"/>
-      <c r="T67" s="509"/>
-      <c r="U67" s="511"/>
-      <c r="V67" s="513" t="str">
+      <c r="S67" s="535"/>
+      <c r="T67" s="537"/>
+      <c r="U67" s="547"/>
+      <c r="V67" s="549" t="str">
         <f>IF(B67="","",SUM(S67:U67))</f>
         <v/>
       </c>
-      <c r="W67" s="501" t="str">
+      <c r="W67" s="551" t="str">
         <f>IF(B67="","",IF(ISBLANK(S67),"",IF(AVERAGE(S67:U67)&lt;10,LEFT(AVERAGE(S67:U67),4),LEFT(AVERAGE(S67:U67),5))))</f>
         <v/>
       </c>
-      <c r="X67" s="503" t="str">
+      <c r="X67" s="557" t="str">
         <f>IF(B67="","",IF(W67="","",IF(LEFT(W67,1)="0",0,ROUND(W67,0))))</f>
         <v/>
       </c>
@@ -35152,8 +35109,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="506"/>
-      <c r="B68" s="506"/>
+      <c r="A68" s="534"/>
+      <c r="B68" s="534"/>
       <c r="C68" s="288"/>
       <c r="D68" s="277"/>
       <c r="E68" s="277"/>
@@ -35182,12 +35139,12 @@
         <f ca="1">IF(Q68="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q68/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q68))</f>
         <v/>
       </c>
-      <c r="S68" s="508"/>
-      <c r="T68" s="510"/>
-      <c r="U68" s="512"/>
-      <c r="V68" s="514"/>
-      <c r="W68" s="502"/>
-      <c r="X68" s="504"/>
+      <c r="S68" s="536"/>
+      <c r="T68" s="538"/>
+      <c r="U68" s="548"/>
+      <c r="V68" s="550"/>
+      <c r="W68" s="552"/>
+      <c r="X68" s="558"/>
       <c r="Y68" s="283" t="str">
         <f>IF(B67="","",ROUNDUP(AVERAGE(R68,R68,X67),2))</f>
         <v/>
@@ -35198,10 +35155,10 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="505">
+      <c r="A69" s="533">
         <v>30</v>
       </c>
-      <c r="B69" s="505" t="str">
+      <c r="B69" s="533" t="str">
         <f>IF('1. Halbjahr'!B33&lt;&gt;"", '1. Halbjahr'!B33, "")</f>
         <v/>
       </c>
@@ -35233,18 +35190,18 @@
         <f ca="1">IF(Q69="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q69/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q69))</f>
         <v/>
       </c>
-      <c r="S69" s="507"/>
-      <c r="T69" s="509"/>
-      <c r="U69" s="511"/>
-      <c r="V69" s="513" t="str">
+      <c r="S69" s="535"/>
+      <c r="T69" s="537"/>
+      <c r="U69" s="547"/>
+      <c r="V69" s="549" t="str">
         <f>IF(B69="","",SUM(S69:U69))</f>
         <v/>
       </c>
-      <c r="W69" s="501" t="str">
+      <c r="W69" s="551" t="str">
         <f>IF(B69="","",IF(ISBLANK(S69),"",IF(AVERAGE(S69:U69)&lt;10,LEFT(AVERAGE(S69:U69),4),LEFT(AVERAGE(S69:U69),5))))</f>
         <v/>
       </c>
-      <c r="X69" s="503" t="str">
+      <c r="X69" s="557" t="str">
         <f>IF(B69="","",IF(W69="","",IF(LEFT(W69,1)="0",0,ROUND(W69,0))))</f>
         <v/>
       </c>
@@ -35258,8 +35215,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="506"/>
-      <c r="B70" s="506"/>
+      <c r="A70" s="534"/>
+      <c r="B70" s="534"/>
       <c r="C70" s="288"/>
       <c r="D70" s="277"/>
       <c r="E70" s="277"/>
@@ -35288,12 +35245,12 @@
         <f ca="1">IF(Q70="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q70/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q70))</f>
         <v/>
       </c>
-      <c r="S70" s="508"/>
-      <c r="T70" s="510"/>
-      <c r="U70" s="512"/>
-      <c r="V70" s="514"/>
-      <c r="W70" s="502"/>
-      <c r="X70" s="504"/>
+      <c r="S70" s="536"/>
+      <c r="T70" s="538"/>
+      <c r="U70" s="548"/>
+      <c r="V70" s="550"/>
+      <c r="W70" s="552"/>
+      <c r="X70" s="558"/>
       <c r="Y70" s="283" t="str">
         <f>IF(B69="","",ROUNDUP(AVERAGE(R70,R70,X69),2))</f>
         <v/>
@@ -35304,10 +35261,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="505">
+      <c r="A71" s="533">
         <v>31</v>
       </c>
-      <c r="B71" s="505" t="str">
+      <c r="B71" s="533" t="str">
         <f>IF('1. Halbjahr'!B34&lt;&gt;"", '1. Halbjahr'!B34, "")</f>
         <v/>
       </c>
@@ -35339,18 +35296,18 @@
         <f ca="1">IF(Q71="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q71/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q71))</f>
         <v/>
       </c>
-      <c r="S71" s="507"/>
-      <c r="T71" s="509"/>
-      <c r="U71" s="511"/>
-      <c r="V71" s="513" t="str">
+      <c r="S71" s="535"/>
+      <c r="T71" s="537"/>
+      <c r="U71" s="547"/>
+      <c r="V71" s="549" t="str">
         <f>IF(B71="","",SUM(S71:U71))</f>
         <v/>
       </c>
-      <c r="W71" s="501" t="str">
+      <c r="W71" s="551" t="str">
         <f>IF(B71="","",IF(ISBLANK(S71),"",IF(AVERAGE(S71:U71)&lt;10,LEFT(AVERAGE(S71:U71),4),LEFT(AVERAGE(S71:U71),5))))</f>
         <v/>
       </c>
-      <c r="X71" s="503" t="str">
+      <c r="X71" s="557" t="str">
         <f>IF(B71="","",IF(W71="","",IF(LEFT(W71,1)="0",0,ROUND(W71,0))))</f>
         <v/>
       </c>
@@ -35364,8 +35321,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="506"/>
-      <c r="B72" s="506"/>
+      <c r="A72" s="534"/>
+      <c r="B72" s="534"/>
       <c r="C72" s="288"/>
       <c r="D72" s="277"/>
       <c r="E72" s="277"/>
@@ -35394,12 +35351,12 @@
         <f ca="1">IF(Q72="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q72/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q72))</f>
         <v/>
       </c>
-      <c r="S72" s="508"/>
-      <c r="T72" s="510"/>
-      <c r="U72" s="512"/>
-      <c r="V72" s="514"/>
-      <c r="W72" s="502"/>
-      <c r="X72" s="504"/>
+      <c r="S72" s="536"/>
+      <c r="T72" s="538"/>
+      <c r="U72" s="548"/>
+      <c r="V72" s="550"/>
+      <c r="W72" s="552"/>
+      <c r="X72" s="558"/>
       <c r="Y72" s="283" t="str">
         <f>IF(B71="","",ROUNDUP(AVERAGE(R72,R72,X71),2))</f>
         <v/>
@@ -35410,10 +35367,10 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="505">
+      <c r="A73" s="533">
         <v>32</v>
       </c>
-      <c r="B73" s="505" t="str">
+      <c r="B73" s="533" t="str">
         <f>IF('1. Halbjahr'!B35&lt;&gt;"", '1. Halbjahr'!B35, "")</f>
         <v/>
       </c>
@@ -35445,18 +35402,18 @@
         <f ca="1">IF(Q73="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q73/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q73))</f>
         <v/>
       </c>
-      <c r="S73" s="507"/>
-      <c r="T73" s="509"/>
-      <c r="U73" s="511"/>
-      <c r="V73" s="513" t="str">
+      <c r="S73" s="535"/>
+      <c r="T73" s="537"/>
+      <c r="U73" s="547"/>
+      <c r="V73" s="549" t="str">
         <f>IF(B73="","",SUM(S73:U73))</f>
         <v/>
       </c>
-      <c r="W73" s="501" t="str">
+      <c r="W73" s="551" t="str">
         <f>IF(B73="","",IF(ISBLANK(S73),"",IF(AVERAGE(S73:U73)&lt;10,LEFT(AVERAGE(S73:U73),4),LEFT(AVERAGE(S73:U73),5))))</f>
         <v/>
       </c>
-      <c r="X73" s="503" t="str">
+      <c r="X73" s="557" t="str">
         <f>IF(B73="","",IF(W73="","",IF(LEFT(W73,1)="0",0,ROUND(W73,0))))</f>
         <v/>
       </c>
@@ -35470,8 +35427,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="506"/>
-      <c r="B74" s="506"/>
+      <c r="A74" s="534"/>
+      <c r="B74" s="534"/>
       <c r="C74" s="288"/>
       <c r="D74" s="277"/>
       <c r="E74" s="277"/>
@@ -35500,12 +35457,12 @@
         <f ca="1">IF(Q74="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q74/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q74))</f>
         <v/>
       </c>
-      <c r="S74" s="508"/>
-      <c r="T74" s="510"/>
-      <c r="U74" s="512"/>
-      <c r="V74" s="514"/>
-      <c r="W74" s="502"/>
-      <c r="X74" s="504"/>
+      <c r="S74" s="536"/>
+      <c r="T74" s="538"/>
+      <c r="U74" s="548"/>
+      <c r="V74" s="550"/>
+      <c r="W74" s="552"/>
+      <c r="X74" s="558"/>
       <c r="Y74" s="283" t="str">
         <f>IF(B73="","",ROUNDUP(AVERAGE(R74,R74,X73),2))</f>
         <v/>
@@ -35516,10 +35473,10 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="505">
+      <c r="A75" s="533">
         <v>33</v>
       </c>
-      <c r="B75" s="505" t="str">
+      <c r="B75" s="533" t="str">
         <f>IF('1. Halbjahr'!B36&lt;&gt;"", '1. Halbjahr'!B36, "")</f>
         <v/>
       </c>
@@ -35551,18 +35508,18 @@
         <f ca="1">IF(Q75="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q75/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q75))</f>
         <v/>
       </c>
-      <c r="S75" s="507"/>
-      <c r="T75" s="509"/>
-      <c r="U75" s="511"/>
-      <c r="V75" s="513" t="str">
+      <c r="S75" s="535"/>
+      <c r="T75" s="537"/>
+      <c r="U75" s="547"/>
+      <c r="V75" s="549" t="str">
         <f>IF(B75="","",SUM(S75:U75))</f>
         <v/>
       </c>
-      <c r="W75" s="501" t="str">
+      <c r="W75" s="551" t="str">
         <f>IF(B75="","",IF(ISBLANK(S75),"",IF(AVERAGE(S75:U75)&lt;10,LEFT(AVERAGE(S75:U75),4),LEFT(AVERAGE(S75:U75),5))))</f>
         <v/>
       </c>
-      <c r="X75" s="503" t="str">
+      <c r="X75" s="557" t="str">
         <f>IF(B75="","",IF(W75="","",IF(LEFT(W75,1)="0",0,ROUND(W75,0))))</f>
         <v/>
       </c>
@@ -35576,8 +35533,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="506"/>
-      <c r="B76" s="506"/>
+      <c r="A76" s="534"/>
+      <c r="B76" s="534"/>
       <c r="C76" s="288"/>
       <c r="D76" s="277"/>
       <c r="E76" s="277"/>
@@ -35606,12 +35563,12 @@
         <f ca="1">IF(Q76="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q76/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q76))</f>
         <v/>
       </c>
-      <c r="S76" s="508"/>
-      <c r="T76" s="510"/>
-      <c r="U76" s="512"/>
-      <c r="V76" s="514"/>
-      <c r="W76" s="502"/>
-      <c r="X76" s="504"/>
+      <c r="S76" s="536"/>
+      <c r="T76" s="538"/>
+      <c r="U76" s="548"/>
+      <c r="V76" s="550"/>
+      <c r="W76" s="552"/>
+      <c r="X76" s="558"/>
       <c r="Y76" s="283" t="str">
         <f>IF(B75="","",ROUNDUP(AVERAGE(R76,R76,X75),2))</f>
         <v/>
@@ -35622,10 +35579,10 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="505">
+      <c r="A77" s="533">
         <v>34</v>
       </c>
-      <c r="B77" s="505" t="str">
+      <c r="B77" s="533" t="str">
         <f>IF('1. Halbjahr'!B37&lt;&gt;"", '1. Halbjahr'!B37, "")</f>
         <v/>
       </c>
@@ -35657,18 +35614,18 @@
         <f ca="1">IF(Q77="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q77/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q77))</f>
         <v/>
       </c>
-      <c r="S77" s="507"/>
-      <c r="T77" s="509"/>
-      <c r="U77" s="511"/>
-      <c r="V77" s="513" t="str">
+      <c r="S77" s="535"/>
+      <c r="T77" s="537"/>
+      <c r="U77" s="547"/>
+      <c r="V77" s="549" t="str">
         <f>IF(B77="","",SUM(S77:U77))</f>
         <v/>
       </c>
-      <c r="W77" s="501" t="str">
+      <c r="W77" s="551" t="str">
         <f>IF(B77="","",IF(ISBLANK(S77),"",IF(AVERAGE(S77:U77)&lt;10,LEFT(AVERAGE(S77:U77),4),LEFT(AVERAGE(S77:U77),5))))</f>
         <v/>
       </c>
-      <c r="X77" s="503" t="str">
+      <c r="X77" s="557" t="str">
         <f>IF(B77="","",IF(W77="","",IF(LEFT(W77,1)="0",0,ROUND(W77,0))))</f>
         <v/>
       </c>
@@ -35682,8 +35639,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="506"/>
-      <c r="B78" s="506"/>
+      <c r="A78" s="534"/>
+      <c r="B78" s="534"/>
       <c r="C78" s="288"/>
       <c r="D78" s="277"/>
       <c r="E78" s="277"/>
@@ -35712,12 +35669,12 @@
         <f ca="1">IF(Q78="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q78/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q78))</f>
         <v/>
       </c>
-      <c r="S78" s="515"/>
-      <c r="T78" s="516"/>
-      <c r="U78" s="517"/>
-      <c r="V78" s="518"/>
-      <c r="W78" s="502"/>
-      <c r="X78" s="504"/>
+      <c r="S78" s="553"/>
+      <c r="T78" s="554"/>
+      <c r="U78" s="555"/>
+      <c r="V78" s="556"/>
+      <c r="W78" s="552"/>
+      <c r="X78" s="558"/>
       <c r="Y78" s="296" t="str">
         <f>IF(B77="","",ROUNDUP(AVERAGE(R78,R78,X77),2))</f>
         <v/>
@@ -35728,10 +35685,10 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="505">
+      <c r="A79" s="533">
         <v>35</v>
       </c>
-      <c r="B79" s="505" t="str">
+      <c r="B79" s="533" t="str">
         <f>IF('1. Halbjahr'!B38&lt;&gt;"", '1. Halbjahr'!B38, "")</f>
         <v/>
       </c>
@@ -35763,18 +35720,18 @@
         <f ca="1">IF(Q79="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q79/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q79))</f>
         <v/>
       </c>
-      <c r="S79" s="507"/>
-      <c r="T79" s="509"/>
-      <c r="U79" s="511"/>
-      <c r="V79" s="513" t="str">
+      <c r="S79" s="535"/>
+      <c r="T79" s="537"/>
+      <c r="U79" s="547"/>
+      <c r="V79" s="549" t="str">
         <f>IF(B79="","",SUM(S79:U79))</f>
         <v/>
       </c>
-      <c r="W79" s="501" t="str">
+      <c r="W79" s="551" t="str">
         <f>IF(B79="","",IF(ISBLANK(S79),"",IF(AVERAGE(S79:U79)&lt;10,LEFT(AVERAGE(S79:U79),4),LEFT(AVERAGE(S79:U79),5))))</f>
         <v/>
       </c>
-      <c r="X79" s="503" t="str">
+      <c r="X79" s="557" t="str">
         <f>IF(B79="","",IF(W79="","",IF(LEFT(W79,1)="0",0,ROUND(W79,0))))</f>
         <v/>
       </c>
@@ -35788,8 +35745,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="506"/>
-      <c r="B80" s="506"/>
+      <c r="A80" s="534"/>
+      <c r="B80" s="534"/>
       <c r="C80" s="293"/>
       <c r="D80" s="294"/>
       <c r="E80" s="294"/>
@@ -35818,12 +35775,12 @@
         <f ca="1">IF(Q80="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q80/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q80))</f>
         <v/>
       </c>
-      <c r="S80" s="508"/>
-      <c r="T80" s="510"/>
-      <c r="U80" s="512"/>
-      <c r="V80" s="514"/>
-      <c r="W80" s="502"/>
-      <c r="X80" s="504"/>
+      <c r="S80" s="536"/>
+      <c r="T80" s="538"/>
+      <c r="U80" s="548"/>
+      <c r="V80" s="550"/>
+      <c r="W80" s="552"/>
+      <c r="X80" s="558"/>
       <c r="Y80" s="283" t="str">
         <f>IF(B79="","",ROUNDUP(AVERAGE(R80,R80,X79),2))</f>
         <v/>
@@ -35850,8 +35807,280 @@
       <c r="U83" s="299"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OsDQw8mQrx3W/bG0hOvgLryQtPhvP5y+MoTr4DiMiUOoFd/3r91DSmMi7o7/KiUMDnF0vnWSl8hjYeigHH15wg==" saltValue="MtvnhRcUoZ7SE4E9ezCSUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="IppJqeepZy/+JpcvuAiGit/lzmlUXO8bmXdIJzaZOa9BHPaRKv3FHheBRWcUp6wCd4O4icdewY05iJOEL7xncA==" saltValue="z7vjioWHbyWIyQqHGYRqtg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="288">
+    <mergeCell ref="W77:W78"/>
+    <mergeCell ref="X77:X78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="V79:V80"/>
+    <mergeCell ref="W79:W80"/>
+    <mergeCell ref="X79:X80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="S77:S78"/>
+    <mergeCell ref="T77:T78"/>
+    <mergeCell ref="U77:U78"/>
+    <mergeCell ref="V77:V78"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="X73:X74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="X75:X76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="U73:U74"/>
+    <mergeCell ref="V73:V74"/>
+    <mergeCell ref="W69:W70"/>
+    <mergeCell ref="X69:X70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="S71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="V71:V72"/>
+    <mergeCell ref="W71:W72"/>
+    <mergeCell ref="X71:X72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="S69:S70"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="U69:U70"/>
+    <mergeCell ref="V69:V70"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="X65:X66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="W67:W68"/>
+    <mergeCell ref="X67:X68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="V65:V66"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="X61:X62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="X63:X64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="T61:T62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="X57:X58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="V57:V58"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="X49:X50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="X51:X52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="X45:X46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="V47:V48"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="X47:X48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="A11:A12"/>
@@ -35868,278 +36097,6 @@
     <mergeCell ref="V11:V12"/>
     <mergeCell ref="W11:W12"/>
     <mergeCell ref="X11:X12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="T41:T42"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="V41:V42"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="X45:X46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="V47:V48"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="T45:T46"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="X49:X50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="T51:T52"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="V51:V52"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="X51:X52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="X57:X58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="V57:V58"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="X61:X62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="X63:X64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="T61:T62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="W65:W66"/>
-    <mergeCell ref="X65:X66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="T67:T68"/>
-    <mergeCell ref="U67:U68"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="W67:W68"/>
-    <mergeCell ref="X67:X68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="V65:V66"/>
-    <mergeCell ref="W69:W70"/>
-    <mergeCell ref="X69:X70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="S71:S72"/>
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="V71:V72"/>
-    <mergeCell ref="W71:W72"/>
-    <mergeCell ref="X71:X72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="S69:S70"/>
-    <mergeCell ref="T69:T70"/>
-    <mergeCell ref="U69:U70"/>
-    <mergeCell ref="V69:V70"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="X73:X74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="S75:S76"/>
-    <mergeCell ref="T75:T76"/>
-    <mergeCell ref="U75:U76"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="X75:X76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="U73:U74"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W77:W78"/>
-    <mergeCell ref="X77:X78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="V79:V80"/>
-    <mergeCell ref="W79:W80"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="S77:S78"/>
-    <mergeCell ref="T77:T78"/>
-    <mergeCell ref="U77:U78"/>
-    <mergeCell ref="V77:V78"/>
   </mergeCells>
   <conditionalFormatting sqref="C11 C15 C17 C19 C21 C23 C25 C27 C29 C31 C33 C35 C37 C39 C41 C43 C45 C47 C49 C51 C53 C55 C57 C59 C61 C63 C65 C67 C69 C71 C73 C75 C77 C79">
     <cfRule type="cellIs" dxfId="37" priority="21" stopIfTrue="1" operator="greaterThan">
@@ -36867,17 +36824,17 @@
       <c r="B1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -36993,11 +36950,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -38311,50 +38268,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -38776,17 +38733,17 @@
       <c r="B1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -38902,11 +38859,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -40220,50 +40177,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -40685,17 +40642,17 @@
       <c r="B1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -40811,11 +40768,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -42129,50 +42086,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -42594,17 +42551,17 @@
       <c r="B1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -42720,11 +42677,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -44038,50 +43995,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -44503,17 +44460,17 @@
       <c r="B1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -44629,11 +44586,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -45947,50 +45904,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -46412,17 +46369,17 @@
       <c r="B1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="435" t="str">
+      <c r="C1" s="462" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
+      <c r="D1" s="462"/>
+      <c r="E1" s="462"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="433"/>
-      <c r="H1" s="434"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="461"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -46538,11 +46495,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="431" t="s">
+      <c r="F5" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
+      <c r="G5" s="459"/>
+      <c r="H5" s="459"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -47856,50 +47813,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="428" t="s">
+      <c r="A40" s="455" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="436" t="s">
+      <c r="C40" s="463" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="437"/>
-      <c r="E40" s="440" t="s">
+      <c r="D40" s="464"/>
+      <c r="E40" s="467" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="440"/>
-      <c r="G40" s="441"/>
+      <c r="F40" s="467"/>
+      <c r="G40" s="468"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="429"/>
+      <c r="A41" s="456"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="438" t="s">
+      <c r="C41" s="465" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="439"/>
-      <c r="E41" s="442" t="s">
+      <c r="D41" s="466"/>
+      <c r="E41" s="469" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="442"/>
-      <c r="G41" s="443"/>
+      <c r="F41" s="469"/>
+      <c r="G41" s="470"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="430"/>
+      <c r="A42" s="457"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="442" t="s">
+      <c r="E42" s="469" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="442"/>
-      <c r="G42" s="443"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="470"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -48331,31 +48288,31 @@
         <v>33</v>
       </c>
       <c r="D1" s="394"/>
-      <c r="E1" s="451">
+      <c r="E1" s="478">
         <f>'1. Halbjahr'!E1:H1</f>
         <v>0</v>
       </c>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="452"/>
-      <c r="I1" s="444" t="str">
+      <c r="F1" s="478"/>
+      <c r="G1" s="478"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="471" t="str">
         <f>'1. Halbjahr'!I1:J1</f>
         <v>Lehrer/in:</v>
       </c>
-      <c r="J1" s="445"/>
-      <c r="K1" s="451">
+      <c r="J1" s="472"/>
+      <c r="K1" s="478">
         <f>'1. Halbjahr'!K1:L1</f>
         <v>0</v>
       </c>
-      <c r="L1" s="452"/>
+      <c r="L1" s="479"/>
       <c r="M1" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="446">
+      <c r="N1" s="473">
         <f ca="1">TODAY()</f>
-        <v>45040</v>
-      </c>
-      <c r="O1" s="447"/>
+        <v>45132</v>
+      </c>
+      <c r="O1" s="474"/>
       <c r="P1" s="394"/>
       <c r="Q1" s="151"/>
       <c r="R1" s="151"/>
@@ -48383,27 +48340,27 @@
       <c r="B2" s="403" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="448" t="s">
+      <c r="C2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="449"/>
-      <c r="E2" s="449"/>
-      <c r="F2" s="449"/>
-      <c r="G2" s="449"/>
-      <c r="H2" s="449"/>
-      <c r="I2" s="449"/>
-      <c r="J2" s="449"/>
-      <c r="K2" s="449"/>
-      <c r="L2" s="449"/>
-      <c r="M2" s="449"/>
-      <c r="N2" s="449"/>
-      <c r="O2" s="450"/>
+      <c r="D2" s="476"/>
+      <c r="E2" s="476"/>
+      <c r="F2" s="476"/>
+      <c r="G2" s="476"/>
+      <c r="H2" s="476"/>
+      <c r="I2" s="476"/>
+      <c r="J2" s="476"/>
+      <c r="K2" s="476"/>
+      <c r="L2" s="476"/>
+      <c r="M2" s="476"/>
+      <c r="N2" s="476"/>
+      <c r="O2" s="477"/>
       <c r="P2" s="138"/>
-      <c r="Q2" s="448" t="s">
+      <c r="Q2" s="475" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="449"/>
-      <c r="S2" s="453"/>
+      <c r="R2" s="476"/>
+      <c r="S2" s="480"/>
       <c r="T2" s="395"/>
       <c r="U2" s="395"/>
       <c r="V2" s="395"/>

--- a/Vorlage.xlsx
+++ b/Vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20415"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\diNo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diNo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D6B7B2-A237-45D6-BE7F-CD3FCCFB35AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A886B2-4B3D-46DF-9468-9A3D82482DE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,19 +43,23 @@
     <definedName name="_xlnm.Print_Area" localSheetId="19">'Ausdruck MAP'!$A$1:$G$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">'Ausdruck SAP'!$A$1:$G$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="20">'Eingabe Abitur'!$A$1:$Z$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">I1Ext!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">I1KA!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">I1SA!$A$1:$I$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">I2Ext!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">I2KA!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">I2SA!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">I3Ext!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">II1Ext!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">II1KA!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">II1SA!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">II2Ext!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">II2KA!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">II2SA!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">II3Ext!$A$1:$I$59</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="20">'Eingabe Abitur'!$1:$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -119,14 +123,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -3695,6 +3699,20 @@
     </xf>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -3865,29 +3883,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3922,6 +3921,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3966,20 +3984,17 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="95" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="96" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4002,6 +4017,50 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="86" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="95" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4026,61 +4085,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="87" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="95" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="95" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="96" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4731,9 +4735,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4771,9 +4775,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4806,9 +4810,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4841,9 +4862,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5028,7 +5066,7 @@
       <selection activeCell="K27" sqref="K27"/>
       <selection pane="topRight" activeCell="K27" sqref="K27"/>
       <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5060,24 +5098,24 @@
         <v>33</v>
       </c>
       <c r="D1" s="196"/>
-      <c r="E1" s="453"/>
-      <c r="F1" s="453"/>
-      <c r="G1" s="453"/>
-      <c r="H1" s="454"/>
-      <c r="I1" s="451" t="s">
+      <c r="E1" s="457"/>
+      <c r="F1" s="457"/>
+      <c r="G1" s="457"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="455" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="452"/>
-      <c r="K1" s="455"/>
-      <c r="L1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="459"/>
+      <c r="L1" s="460"/>
       <c r="M1" s="395" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="447">
+      <c r="N1" s="451">
         <f ca="1">TODAY()</f>
-        <v>45551</v>
-      </c>
-      <c r="O1" s="448"/>
+        <v>45582</v>
+      </c>
+      <c r="O1" s="452"/>
       <c r="P1" s="393"/>
       <c r="Q1" s="393"/>
       <c r="R1" s="393"/>
@@ -5104,21 +5142,21 @@
       <c r="B2" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="449" t="s">
+      <c r="C2" s="453" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="450"/>
-      <c r="J2" s="450"/>
-      <c r="K2" s="450"/>
-      <c r="L2" s="450"/>
-      <c r="M2" s="450"/>
-      <c r="N2" s="450"/>
-      <c r="O2" s="450"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="454"/>
+      <c r="F2" s="454"/>
+      <c r="G2" s="454"/>
+      <c r="H2" s="454"/>
+      <c r="I2" s="454"/>
+      <c r="J2" s="454"/>
+      <c r="K2" s="454"/>
+      <c r="L2" s="454"/>
+      <c r="M2" s="454"/>
+      <c r="N2" s="454"/>
+      <c r="O2" s="454"/>
       <c r="P2" s="393"/>
       <c r="Q2" s="393"/>
       <c r="R2" s="393"/>
@@ -9630,7 +9668,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.53" right="0.17" top="0.28999999999999998" bottom="0.22" header="7.874015748031496E-2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -9642,9 +9680,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9674,17 +9710,17 @@
       <c r="B1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -9800,11 +9836,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -11118,50 +11154,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -11553,9 +11589,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11585,17 +11619,17 @@
       <c r="B1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -11711,11 +11745,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -13029,50 +13063,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -13464,9 +13498,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13496,17 +13528,17 @@
       <c r="B1" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -13622,11 +13654,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -14940,50 +14972,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -15375,9 +15407,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15407,17 +15437,17 @@
       <c r="B1" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -15533,11 +15563,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -16851,50 +16881,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -17286,9 +17316,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17318,17 +17346,17 @@
       <c r="B1" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -17444,11 +17472,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -18762,50 +18790,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -19197,9 +19225,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19229,17 +19255,17 @@
       <c r="B1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -19355,11 +19381,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -20673,50 +20699,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -21108,9 +21134,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21140,17 +21164,17 @@
       <c r="B1" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -21266,11 +21290,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -22584,50 +22608,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -23050,10 +23074,10 @@
         <f>"Fach: "&amp;'1. Halbjahr'!E1</f>
         <v xml:space="preserve">Fach: </v>
       </c>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
+      <c r="E2" s="490"/>
+      <c r="F2" s="490"/>
+      <c r="G2" s="490"/>
+      <c r="H2" s="490"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="str">
@@ -23103,20 +23127,20 @@
     <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="337"/>
-      <c r="C5" s="487"/>
-      <c r="D5" s="487"/>
-      <c r="E5" s="488"/>
-      <c r="F5" s="484" t="s">
+      <c r="C5" s="491"/>
+      <c r="D5" s="491"/>
+      <c r="E5" s="492"/>
+      <c r="F5" s="488" t="s">
         <v>108</v>
       </c>
-      <c r="G5" s="485"/>
+      <c r="G5" s="489"/>
       <c r="H5" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="489" t="s">
+      <c r="I5" s="493" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="490"/>
+      <c r="J5" s="494"/>
       <c r="K5" s="357" t="s">
         <v>12</v>
       </c>
@@ -24782,11 +24806,11 @@
       <c r="E43" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="483" t="s">
+      <c r="G43" s="487" t="s">
         <v>38</v>
       </c>
-      <c r="H43" s="483"/>
-      <c r="I43" s="483"/>
+      <c r="H43" s="487"/>
+      <c r="I43" s="487"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -25309,9 +25333,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="K27" sqref="K27"/>
-      <selection pane="topRight" activeCell="K27" sqref="K27"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -25403,14 +25426,14 @@
       <c r="AD3" s="415"/>
       <c r="AE3" s="414"/>
       <c r="AF3" s="415"/>
-      <c r="AG3" s="491" t="s">
+      <c r="AG3" s="495" t="s">
         <v>120</v>
       </c>
-      <c r="AH3" s="492"/>
-      <c r="AI3" s="493" t="s">
+      <c r="AH3" s="496"/>
+      <c r="AI3" s="497" t="s">
         <v>64</v>
       </c>
-      <c r="AJ3" s="494"/>
+      <c r="AJ3" s="498"/>
     </row>
     <row r="4" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="381"/>
@@ -27590,9 +27613,7 @@
   </sheetPr>
   <dimension ref="A2:G66"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27643,15 +27664,15 @@
       <c r="G5" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="495" t="s">
+      <c r="A7" s="513" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="496"/>
-      <c r="C7" s="496"/>
-      <c r="D7" s="496"/>
-      <c r="E7" s="496"/>
-      <c r="F7" s="496"/>
-      <c r="G7" s="497"/>
+      <c r="B7" s="514"/>
+      <c r="C7" s="514"/>
+      <c r="D7" s="514"/>
+      <c r="E7" s="514"/>
+      <c r="F7" s="514"/>
+      <c r="G7" s="515"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="101"/>
@@ -27667,14 +27688,14 @@
       <c r="B9" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="498" t="s">
+      <c r="C9" s="516" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="498"/>
-      <c r="E9" s="502" t="s">
+      <c r="D9" s="516"/>
+      <c r="E9" s="518" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="503"/>
+      <c r="F9" s="519"/>
       <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28713,8 +28734,8 @@
       <c r="C46" s="106"/>
     </row>
     <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="499"/>
-      <c r="B47" s="499"/>
+      <c r="A47" s="517"/>
+      <c r="B47" s="517"/>
       <c r="C47" s="107" t="s">
         <v>53</v>
       </c>
@@ -28730,10 +28751,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="500">
+      <c r="A48" s="499">
         <v>15</v>
       </c>
-      <c r="B48" s="501"/>
+      <c r="B48" s="500"/>
       <c r="C48" s="109" t="str">
         <f>AP!E50 &amp;"-"&amp; AP!F50</f>
         <v>100-95,5</v>
@@ -28755,10 +28776,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="500">
+      <c r="A49" s="499">
         <v>14</v>
       </c>
-      <c r="B49" s="501"/>
+      <c r="B49" s="500"/>
       <c r="C49" s="109" t="str">
         <f>AP!E51 &amp;"-"&amp; AP!F51</f>
         <v>95-90,5</v>
@@ -28780,10 +28801,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="500">
+      <c r="A50" s="499">
         <v>13</v>
       </c>
-      <c r="B50" s="501"/>
+      <c r="B50" s="500"/>
       <c r="C50" s="109" t="str">
         <f>AP!E52 &amp;"-"&amp; AP!F52</f>
         <v>90-85,5</v>
@@ -28805,10 +28826,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="500">
+      <c r="A51" s="499">
         <v>12</v>
       </c>
-      <c r="B51" s="501"/>
+      <c r="B51" s="500"/>
       <c r="C51" s="109" t="str">
         <f>AP!E53 &amp;"-"&amp; AP!F53</f>
         <v>85-80,5</v>
@@ -28830,10 +28851,10 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="500">
+      <c r="A52" s="499">
         <v>11</v>
       </c>
-      <c r="B52" s="501"/>
+      <c r="B52" s="500"/>
       <c r="C52" s="109" t="str">
         <f>AP!E54 &amp;"-"&amp; AP!F54</f>
         <v>80-75,5</v>
@@ -28855,10 +28876,10 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="500">
+      <c r="A53" s="499">
         <v>10</v>
       </c>
-      <c r="B53" s="501"/>
+      <c r="B53" s="500"/>
       <c r="C53" s="109" t="str">
         <f>AP!E55 &amp;"-"&amp; AP!F55</f>
         <v>75-70,5</v>
@@ -28880,10 +28901,10 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="500">
+      <c r="A54" s="499">
         <v>9</v>
       </c>
-      <c r="B54" s="501"/>
+      <c r="B54" s="500"/>
       <c r="C54" s="109" t="str">
         <f>AP!E56 &amp;"-"&amp; AP!F56</f>
         <v>70-65,5</v>
@@ -28905,10 +28926,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="500">
+      <c r="A55" s="499">
         <v>8</v>
       </c>
-      <c r="B55" s="501"/>
+      <c r="B55" s="500"/>
       <c r="C55" s="109" t="str">
         <f>AP!E57 &amp;"-"&amp; AP!F57</f>
         <v>65-60,5</v>
@@ -28934,69 +28955,60 @@
       <c r="G56" s="89"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="513" t="s">
+      <c r="A57" s="510" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="514"/>
-      <c r="C57" s="514"/>
-      <c r="D57" s="514"/>
-      <c r="E57" s="514"/>
-      <c r="F57" s="514"/>
-      <c r="G57" s="515"/>
+      <c r="B57" s="511"/>
+      <c r="C57" s="511"/>
+      <c r="D57" s="511"/>
+      <c r="E57" s="511"/>
+      <c r="F57" s="511"/>
+      <c r="G57" s="512"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="504" t="e">
+      <c r="A58" s="501" t="e">
         <f ca="1">AVERAGE(E11:E45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B58" s="505"/>
-      <c r="C58" s="505"/>
-      <c r="D58" s="505"/>
-      <c r="E58" s="505"/>
-      <c r="F58" s="505"/>
-      <c r="G58" s="506"/>
+      <c r="B58" s="502"/>
+      <c r="C58" s="502"/>
+      <c r="D58" s="502"/>
+      <c r="E58" s="502"/>
+      <c r="F58" s="502"/>
+      <c r="G58" s="503"/>
     </row>
     <row r="60" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="510" t="s">
+      <c r="A60" s="507" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="511"/>
-      <c r="C60" s="511"/>
-      <c r="D60" s="511"/>
-      <c r="E60" s="511"/>
-      <c r="F60" s="511"/>
-      <c r="G60" s="512"/>
+      <c r="B60" s="508"/>
+      <c r="C60" s="508"/>
+      <c r="D60" s="508"/>
+      <c r="E60" s="508"/>
+      <c r="F60" s="508"/>
+      <c r="G60" s="509"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="88"/>
-      <c r="B65" s="509"/>
-      <c r="C65" s="509"/>
-      <c r="F65" s="508"/>
-      <c r="G65" s="508"/>
+      <c r="B65" s="506"/>
+      <c r="C65" s="506"/>
+      <c r="F65" s="505"/>
+      <c r="G65" s="505"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="507" t="s">
+      <c r="B66" s="504" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="507"/>
+      <c r="C66" s="504"/>
       <c r="E66" s="87"/>
-      <c r="F66" s="507" t="s">
+      <c r="F66" s="504" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="507"/>
+      <c r="G66" s="504"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="1aT7flJRCq8uyK02Sy2eiEEKCAtvG5WKUnwpfM8fHVan73Hf6jB7i9nHDXm/6wqIY0VaTvFiZsCtpJndxkIjqw==" saltValue="pPZPZSRKxLRjhE4gdZ78zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="19">
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A57:G57"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A47:B47"/>
@@ -29007,6 +29019,15 @@
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A57:G57"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.35433070866141736" top="0.39" bottom="0.52" header="0.19" footer="0.45"/>
@@ -29066,9 +29087,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29098,17 +29117,17 @@
       <c r="B1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -29224,11 +29243,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -30542,50 +30561,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -30926,7 +30945,7 @@
       <c r="B59" s="172"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lx2uMYf5+ampHnqrK/c5AX/iSb0iTwpKmnbmoQv/X2oJG6JL/JqEyi/GGkRX+6/WpEElZaqXOjVKUANsYPy5Lg==" saltValue="hLcoaI1mVKjIQ4gFGYIBYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LtTTzw59aGTkBlXwIXbpARFG3uUT9WhdtVLJjUhSlAGDj4vXRhg7Sugxr7jP5W+2lrjtIMfW9CBoJRuwel39PA==" saltValue="D4IhtlxSMshXERyuNAqJmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="F5:H5"/>
@@ -30978,9 +30997,7 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -31045,15 +31062,15 @@
       <c r="G4" s="442"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="517" t="s">
+      <c r="A6" s="521" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="518"/>
-      <c r="C6" s="518"/>
-      <c r="D6" s="518"/>
-      <c r="E6" s="518"/>
-      <c r="F6" s="518"/>
-      <c r="G6" s="519"/>
+      <c r="B6" s="522"/>
+      <c r="C6" s="522"/>
+      <c r="D6" s="522"/>
+      <c r="E6" s="522"/>
+      <c r="F6" s="522"/>
+      <c r="G6" s="523"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="305"/>
@@ -31719,53 +31736,53 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="305"/>
-      <c r="D55" s="520" t="s">
+      <c r="D55" s="524" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="521"/>
-      <c r="F55" s="521"/>
-      <c r="G55" s="522"/>
+      <c r="E55" s="525"/>
+      <c r="F55" s="525"/>
+      <c r="G55" s="526"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="313"/>
       <c r="B56" s="303"/>
       <c r="C56" s="303"/>
-      <c r="D56" s="523" t="str">
+      <c r="D56" s="527" t="str">
         <f>IF(SUM(C9:C43)=0,"",AVERAGE(C9:C43))</f>
         <v/>
       </c>
-      <c r="E56" s="524"/>
-      <c r="F56" s="524"/>
-      <c r="G56" s="525"/>
+      <c r="E56" s="528"/>
+      <c r="F56" s="528"/>
+      <c r="G56" s="529"/>
     </row>
     <row r="57" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="526" t="s">
+      <c r="A57" s="530" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="527"/>
-      <c r="C57" s="527"/>
-      <c r="D57" s="527"/>
-      <c r="E57" s="527"/>
-      <c r="F57" s="527"/>
-      <c r="G57" s="528"/>
+      <c r="B57" s="531"/>
+      <c r="C57" s="531"/>
+      <c r="D57" s="531"/>
+      <c r="E57" s="531"/>
+      <c r="F57" s="531"/>
+      <c r="G57" s="532"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="529"/>
-      <c r="B59" s="529"/>
+      <c r="A59" s="533"/>
+      <c r="B59" s="533"/>
       <c r="F59" s="314"/>
       <c r="G59" s="314"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="516" t="s">
+      <c r="A60" s="520" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="516"/>
-      <c r="D60" s="516" t="s">
+      <c r="B60" s="520"/>
+      <c r="D60" s="520" t="s">
         <v>49</v>
       </c>
-      <c r="E60" s="516"/>
-      <c r="F60" s="516"/>
-      <c r="G60" s="516"/>
+      <c r="E60" s="520"/>
+      <c r="F60" s="520"/>
+      <c r="G60" s="520"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hgVGhI6rwQSQFaZ45bsjtIprbWND4AxZRMiaylMjVuqR2W3UDRCGTj5u1XZftsP90vPdDLbYsJbOM804Z8z91Q==" saltValue="GOnLVeubzoJiTyPby5OlVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -31795,9 +31812,8 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="K27" sqref="K27"/>
-      <selection pane="topRight" activeCell="K27" sqref="K27"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -31887,64 +31903,64 @@
       <c r="Z5" s="226"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C6" s="541" t="s">
+      <c r="C6" s="557" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="542"/>
-      <c r="E6" s="542"/>
-      <c r="F6" s="542"/>
-      <c r="G6" s="542"/>
-      <c r="H6" s="542"/>
-      <c r="I6" s="542"/>
-      <c r="J6" s="542"/>
-      <c r="K6" s="542"/>
-      <c r="L6" s="542"/>
-      <c r="M6" s="542"/>
-      <c r="N6" s="542"/>
-      <c r="O6" s="542"/>
-      <c r="P6" s="542"/>
-      <c r="Q6" s="542"/>
-      <c r="R6" s="543"/>
-      <c r="S6" s="541" t="s">
+      <c r="D6" s="558"/>
+      <c r="E6" s="558"/>
+      <c r="F6" s="558"/>
+      <c r="G6" s="558"/>
+      <c r="H6" s="558"/>
+      <c r="I6" s="558"/>
+      <c r="J6" s="558"/>
+      <c r="K6" s="558"/>
+      <c r="L6" s="558"/>
+      <c r="M6" s="558"/>
+      <c r="N6" s="558"/>
+      <c r="O6" s="558"/>
+      <c r="P6" s="558"/>
+      <c r="Q6" s="558"/>
+      <c r="R6" s="559"/>
+      <c r="S6" s="557" t="s">
         <v>90</v>
       </c>
-      <c r="T6" s="542"/>
-      <c r="U6" s="542"/>
-      <c r="V6" s="542"/>
-      <c r="W6" s="542"/>
-      <c r="X6" s="543"/>
-      <c r="Y6" s="544" t="s">
+      <c r="T6" s="558"/>
+      <c r="U6" s="558"/>
+      <c r="V6" s="558"/>
+      <c r="W6" s="558"/>
+      <c r="X6" s="559"/>
+      <c r="Y6" s="560" t="s">
         <v>91</v>
       </c>
-      <c r="Z6" s="545"/>
+      <c r="Z6" s="561"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C7" s="546" t="s">
+      <c r="C7" s="562" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="531"/>
-      <c r="E7" s="531"/>
-      <c r="F7" s="531"/>
-      <c r="G7" s="531"/>
-      <c r="H7" s="531"/>
-      <c r="I7" s="531"/>
-      <c r="J7" s="547"/>
-      <c r="K7" s="530" t="s">
+      <c r="D7" s="553"/>
+      <c r="E7" s="553"/>
+      <c r="F7" s="553"/>
+      <c r="G7" s="553"/>
+      <c r="H7" s="553"/>
+      <c r="I7" s="553"/>
+      <c r="J7" s="563"/>
+      <c r="K7" s="552" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="531"/>
-      <c r="M7" s="531"/>
-      <c r="N7" s="531"/>
-      <c r="O7" s="531"/>
-      <c r="P7" s="547"/>
+      <c r="L7" s="553"/>
+      <c r="M7" s="553"/>
+      <c r="N7" s="553"/>
+      <c r="O7" s="553"/>
+      <c r="P7" s="563"/>
       <c r="Q7" s="229"/>
       <c r="R7" s="230"/>
-      <c r="S7" s="548" t="s">
+      <c r="S7" s="564" t="s">
         <v>94</v>
       </c>
-      <c r="T7" s="533"/>
-      <c r="U7" s="533"/>
-      <c r="V7" s="534"/>
+      <c r="T7" s="555"/>
+      <c r="U7" s="555"/>
+      <c r="V7" s="556"/>
       <c r="W7" s="231"/>
       <c r="X7" s="230"/>
       <c r="Y7" s="232"/>
@@ -31973,15 +31989,15 @@
         <v>95</v>
       </c>
       <c r="J8" s="238"/>
-      <c r="K8" s="530" t="s">
+      <c r="K8" s="552" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="531"/>
-      <c r="M8" s="532" t="s">
+      <c r="L8" s="553"/>
+      <c r="M8" s="554" t="s">
         <v>97</v>
       </c>
-      <c r="N8" s="533"/>
-      <c r="O8" s="534"/>
+      <c r="N8" s="555"/>
+      <c r="O8" s="556"/>
       <c r="P8" s="238"/>
       <c r="Q8" s="239"/>
       <c r="R8" s="230"/>
@@ -32134,10 +32150,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="535">
+      <c r="A11" s="538">
         <v>1</v>
       </c>
-      <c r="B11" s="535" t="str">
+      <c r="B11" s="538" t="str">
         <f>IF('1. Halbjahr'!B4&lt;&gt;"", '1. Halbjahr'!B4, "")</f>
         <v/>
       </c>
@@ -32169,18 +32185,18 @@
         <f ca="1">IF(Q11="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q11/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q11))</f>
         <v/>
       </c>
-      <c r="S11" s="537"/>
-      <c r="T11" s="539"/>
-      <c r="U11" s="549"/>
-      <c r="V11" s="551" t="str">
+      <c r="S11" s="540"/>
+      <c r="T11" s="542"/>
+      <c r="U11" s="544"/>
+      <c r="V11" s="546" t="str">
         <f>IF(B11="","",SUM(S11:U11))</f>
         <v/>
       </c>
-      <c r="W11" s="553" t="str">
+      <c r="W11" s="534" t="str">
         <f>IF(B11="","",IF(ISBLANK(S11),"",IF(AVERAGE(S11:U11)&lt;10,LEFT(AVERAGE(S11:U11),4),LEFT(AVERAGE(S11:U11),5))))</f>
         <v/>
       </c>
-      <c r="X11" s="555" t="str">
+      <c r="X11" s="536" t="str">
         <f>IF(B11="","",IF(W11="","",IF(LEFT(W11,1)="0",0,ROUND(W11,0))))</f>
         <v/>
       </c>
@@ -32195,8 +32211,8 @@
       <c r="AB11" s="274"/>
     </row>
     <row r="12" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="536"/>
-      <c r="B12" s="536"/>
+      <c r="A12" s="539"/>
+      <c r="B12" s="539"/>
       <c r="C12" s="275"/>
       <c r="D12" s="275"/>
       <c r="E12" s="275"/>
@@ -32225,12 +32241,12 @@
         <f ca="1">IF(Q12="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q12/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q12))</f>
         <v/>
       </c>
-      <c r="S12" s="538"/>
-      <c r="T12" s="540"/>
-      <c r="U12" s="550"/>
-      <c r="V12" s="552"/>
-      <c r="W12" s="554"/>
-      <c r="X12" s="556"/>
+      <c r="S12" s="541"/>
+      <c r="T12" s="543"/>
+      <c r="U12" s="545"/>
+      <c r="V12" s="547"/>
+      <c r="W12" s="535"/>
+      <c r="X12" s="537"/>
       <c r="Y12" s="281" t="str">
         <f>IF(B11="","",ROUNDUP(AVERAGE(R12,R12,X11),2))</f>
         <v/>
@@ -32241,10 +32257,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="535">
+      <c r="A13" s="538">
         <v>2</v>
       </c>
-      <c r="B13" s="535" t="str">
+      <c r="B13" s="538" t="str">
         <f>IF('1. Halbjahr'!B5&lt;&gt;"", '1. Halbjahr'!B5, "")</f>
         <v/>
       </c>
@@ -32276,18 +32292,18 @@
         <f ca="1">IF(Q13="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q13/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q13))</f>
         <v/>
       </c>
-      <c r="S13" s="537"/>
-      <c r="T13" s="539"/>
-      <c r="U13" s="549"/>
-      <c r="V13" s="551" t="str">
+      <c r="S13" s="540"/>
+      <c r="T13" s="542"/>
+      <c r="U13" s="544"/>
+      <c r="V13" s="546" t="str">
         <f>IF(B13="","",SUM(S13:U13))</f>
         <v/>
       </c>
-      <c r="W13" s="553" t="str">
+      <c r="W13" s="534" t="str">
         <f>IF(B13="","",IF(ISBLANK(S13),"",IF(AVERAGE(S13:U13)&lt;10,LEFT(AVERAGE(S13:U13),4),LEFT(AVERAGE(S13:U13),5))))</f>
         <v/>
       </c>
-      <c r="X13" s="555" t="str">
+      <c r="X13" s="536" t="str">
         <f>IF(B13="","",IF(W13="","",IF(LEFT(W13,1)="0",0,ROUND(W13,0))))</f>
         <v/>
       </c>
@@ -32302,8 +32318,8 @@
       <c r="AA13" s="285"/>
     </row>
     <row r="14" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="536"/>
-      <c r="B14" s="536"/>
+      <c r="A14" s="539"/>
+      <c r="B14" s="539"/>
       <c r="C14" s="286"/>
       <c r="D14" s="275"/>
       <c r="E14" s="275"/>
@@ -32332,12 +32348,12 @@
         <f ca="1">IF(Q14="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q14/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q14))</f>
         <v/>
       </c>
-      <c r="S14" s="538"/>
-      <c r="T14" s="540"/>
-      <c r="U14" s="550"/>
-      <c r="V14" s="552"/>
-      <c r="W14" s="554"/>
-      <c r="X14" s="556"/>
+      <c r="S14" s="541"/>
+      <c r="T14" s="543"/>
+      <c r="U14" s="545"/>
+      <c r="V14" s="547"/>
+      <c r="W14" s="535"/>
+      <c r="X14" s="537"/>
       <c r="Y14" s="281" t="str">
         <f>IF(B13="","",ROUNDUP(AVERAGE(R14,R14,X13),2))</f>
         <v/>
@@ -32348,10 +32364,10 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="535">
+      <c r="A15" s="538">
         <v>3</v>
       </c>
-      <c r="B15" s="535" t="str">
+      <c r="B15" s="538" t="str">
         <f>IF('1. Halbjahr'!B6&lt;&gt;"", '1. Halbjahr'!B6, "")</f>
         <v/>
       </c>
@@ -32383,18 +32399,18 @@
         <f ca="1">IF(Q15="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q15/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q15))</f>
         <v/>
       </c>
-      <c r="S15" s="537"/>
-      <c r="T15" s="539"/>
-      <c r="U15" s="549"/>
-      <c r="V15" s="551" t="str">
+      <c r="S15" s="540"/>
+      <c r="T15" s="542"/>
+      <c r="U15" s="544"/>
+      <c r="V15" s="546" t="str">
         <f>IF(B15="","",SUM(S15:U15))</f>
         <v/>
       </c>
-      <c r="W15" s="553" t="str">
+      <c r="W15" s="534" t="str">
         <f>IF(B15="","",IF(ISBLANK(S15),"",IF(AVERAGE(S15:U15)&lt;10,LEFT(AVERAGE(S15:U15),4),LEFT(AVERAGE(S15:U15),5))))</f>
         <v/>
       </c>
-      <c r="X15" s="555" t="str">
+      <c r="X15" s="536" t="str">
         <f>IF(B15="","",IF(W15="","",IF(LEFT(W15,1)="0",0,ROUND(W15,0))))</f>
         <v/>
       </c>
@@ -32408,8 +32424,8 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="536"/>
-      <c r="B16" s="536"/>
+      <c r="A16" s="539"/>
+      <c r="B16" s="539"/>
       <c r="C16" s="286"/>
       <c r="D16" s="275"/>
       <c r="E16" s="275"/>
@@ -32438,12 +32454,12 @@
         <f ca="1">IF(Q16="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q16/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q16))</f>
         <v/>
       </c>
-      <c r="S16" s="538"/>
-      <c r="T16" s="540"/>
-      <c r="U16" s="550"/>
-      <c r="V16" s="552"/>
-      <c r="W16" s="554"/>
-      <c r="X16" s="556"/>
+      <c r="S16" s="541"/>
+      <c r="T16" s="543"/>
+      <c r="U16" s="545"/>
+      <c r="V16" s="547"/>
+      <c r="W16" s="535"/>
+      <c r="X16" s="537"/>
       <c r="Y16" s="281" t="str">
         <f>IF(B15="","",ROUNDUP(AVERAGE(R16,R16,X15),2))</f>
         <v/>
@@ -32454,10 +32470,10 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="535">
+      <c r="A17" s="538">
         <v>4</v>
       </c>
-      <c r="B17" s="535" t="str">
+      <c r="B17" s="538" t="str">
         <f>IF('1. Halbjahr'!B7&lt;&gt;"", '1. Halbjahr'!B7, "")</f>
         <v/>
       </c>
@@ -32489,18 +32505,18 @@
         <f ca="1">IF(Q17="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q17/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q17))</f>
         <v/>
       </c>
-      <c r="S17" s="537"/>
-      <c r="T17" s="539"/>
-      <c r="U17" s="549"/>
-      <c r="V17" s="551" t="str">
+      <c r="S17" s="540"/>
+      <c r="T17" s="542"/>
+      <c r="U17" s="544"/>
+      <c r="V17" s="546" t="str">
         <f>IF(B17="","",SUM(S17:U17))</f>
         <v/>
       </c>
-      <c r="W17" s="553" t="str">
+      <c r="W17" s="534" t="str">
         <f>IF(B17="","",IF(ISBLANK(S17),"",IF(AVERAGE(S17:U17)&lt;10,LEFT(AVERAGE(S17:U17),4),LEFT(AVERAGE(S17:U17),5))))</f>
         <v/>
       </c>
-      <c r="X17" s="555" t="str">
+      <c r="X17" s="536" t="str">
         <f>IF(B17="","",IF(W17="","",IF(LEFT(W17,1)="0",0,ROUND(W17,0))))</f>
         <v/>
       </c>
@@ -32514,8 +32530,8 @@
       </c>
     </row>
     <row r="18" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="536"/>
-      <c r="B18" s="536"/>
+      <c r="A18" s="539"/>
+      <c r="B18" s="539"/>
       <c r="C18" s="286"/>
       <c r="D18" s="275"/>
       <c r="E18" s="275"/>
@@ -32544,12 +32560,12 @@
         <f ca="1">IF(Q18="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q18/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q18))</f>
         <v/>
       </c>
-      <c r="S18" s="538"/>
-      <c r="T18" s="540"/>
-      <c r="U18" s="550"/>
-      <c r="V18" s="552"/>
-      <c r="W18" s="554"/>
-      <c r="X18" s="556"/>
+      <c r="S18" s="541"/>
+      <c r="T18" s="543"/>
+      <c r="U18" s="545"/>
+      <c r="V18" s="547"/>
+      <c r="W18" s="535"/>
+      <c r="X18" s="537"/>
       <c r="Y18" s="281" t="str">
         <f>IF(B17="","",ROUNDUP(AVERAGE(R18,R18,X17),2))</f>
         <v/>
@@ -32560,10 +32576,10 @@
       </c>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="535">
+      <c r="A19" s="538">
         <v>5</v>
       </c>
-      <c r="B19" s="535" t="str">
+      <c r="B19" s="538" t="str">
         <f>IF('1. Halbjahr'!B8&lt;&gt;"", '1. Halbjahr'!B8, "")</f>
         <v/>
       </c>
@@ -32595,18 +32611,18 @@
         <f ca="1">IF(Q19="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q19/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q19))</f>
         <v/>
       </c>
-      <c r="S19" s="537"/>
-      <c r="T19" s="539"/>
-      <c r="U19" s="549"/>
-      <c r="V19" s="551" t="str">
+      <c r="S19" s="540"/>
+      <c r="T19" s="542"/>
+      <c r="U19" s="544"/>
+      <c r="V19" s="546" t="str">
         <f>IF(B19="","",SUM(S19:U19))</f>
         <v/>
       </c>
-      <c r="W19" s="553" t="str">
+      <c r="W19" s="534" t="str">
         <f>IF(B19="","",IF(ISBLANK(S19),"",IF(AVERAGE(S19:U19)&lt;10,LEFT(AVERAGE(S19:U19),4),LEFT(AVERAGE(S19:U19),5))))</f>
         <v/>
       </c>
-      <c r="X19" s="555" t="str">
+      <c r="X19" s="536" t="str">
         <f>IF(B19="","",IF(W19="","",IF(LEFT(W19,1)="0",0,ROUND(W19,0))))</f>
         <v/>
       </c>
@@ -32620,8 +32636,8 @@
       </c>
     </row>
     <row r="20" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="536"/>
-      <c r="B20" s="536"/>
+      <c r="A20" s="539"/>
+      <c r="B20" s="539"/>
       <c r="C20" s="286"/>
       <c r="D20" s="275"/>
       <c r="E20" s="275"/>
@@ -32650,12 +32666,12 @@
         <f ca="1">IF(Q20="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q20/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q20))</f>
         <v/>
       </c>
-      <c r="S20" s="538"/>
-      <c r="T20" s="540"/>
-      <c r="U20" s="550"/>
-      <c r="V20" s="552"/>
-      <c r="W20" s="554"/>
-      <c r="X20" s="556"/>
+      <c r="S20" s="541"/>
+      <c r="T20" s="543"/>
+      <c r="U20" s="545"/>
+      <c r="V20" s="547"/>
+      <c r="W20" s="535"/>
+      <c r="X20" s="537"/>
       <c r="Y20" s="281" t="str">
         <f>IF(B19="","",ROUNDUP(AVERAGE(R20,R20,X19),2))</f>
         <v/>
@@ -32666,10 +32682,10 @@
       </c>
     </row>
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="535">
+      <c r="A21" s="538">
         <v>6</v>
       </c>
-      <c r="B21" s="535" t="str">
+      <c r="B21" s="538" t="str">
         <f>IF('1. Halbjahr'!B9&lt;&gt;"", '1. Halbjahr'!B9, "")</f>
         <v/>
       </c>
@@ -32701,18 +32717,18 @@
         <f ca="1">IF(Q21="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q21/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q21))</f>
         <v/>
       </c>
-      <c r="S21" s="537"/>
-      <c r="T21" s="539"/>
-      <c r="U21" s="549"/>
-      <c r="V21" s="551" t="str">
+      <c r="S21" s="540"/>
+      <c r="T21" s="542"/>
+      <c r="U21" s="544"/>
+      <c r="V21" s="546" t="str">
         <f>IF(B21="","",SUM(S21:U21))</f>
         <v/>
       </c>
-      <c r="W21" s="553" t="str">
+      <c r="W21" s="534" t="str">
         <f>IF(B21="","",IF(ISBLANK(S21),"",IF(AVERAGE(S21:U21)&lt;10,LEFT(AVERAGE(S21:U21),4),LEFT(AVERAGE(S21:U21),5))))</f>
         <v/>
       </c>
-      <c r="X21" s="555" t="str">
+      <c r="X21" s="536" t="str">
         <f>IF(B21="","",IF(W21="","",IF(LEFT(W21,1)="0",0,ROUND(W21,0))))</f>
         <v/>
       </c>
@@ -32726,8 +32742,8 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="536"/>
-      <c r="B22" s="536"/>
+      <c r="A22" s="539"/>
+      <c r="B22" s="539"/>
       <c r="C22" s="286"/>
       <c r="D22" s="275"/>
       <c r="E22" s="275"/>
@@ -32756,12 +32772,12 @@
         <f ca="1">IF(Q22="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q22/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q22))</f>
         <v/>
       </c>
-      <c r="S22" s="538"/>
-      <c r="T22" s="540"/>
-      <c r="U22" s="550"/>
-      <c r="V22" s="552"/>
-      <c r="W22" s="554"/>
-      <c r="X22" s="556"/>
+      <c r="S22" s="541"/>
+      <c r="T22" s="543"/>
+      <c r="U22" s="545"/>
+      <c r="V22" s="547"/>
+      <c r="W22" s="535"/>
+      <c r="X22" s="537"/>
       <c r="Y22" s="281" t="str">
         <f>IF(B21="","",ROUNDUP(AVERAGE(R22,R22,X21),2))</f>
         <v/>
@@ -32772,10 +32788,10 @@
       </c>
     </row>
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="535">
+      <c r="A23" s="538">
         <v>7</v>
       </c>
-      <c r="B23" s="535" t="str">
+      <c r="B23" s="538" t="str">
         <f>IF('1. Halbjahr'!B10&lt;&gt;"", '1. Halbjahr'!B10, "")</f>
         <v/>
       </c>
@@ -32807,18 +32823,18 @@
         <f ca="1">IF(Q23="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q23/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q23))</f>
         <v/>
       </c>
-      <c r="S23" s="537"/>
-      <c r="T23" s="539"/>
-      <c r="U23" s="549"/>
-      <c r="V23" s="551" t="str">
+      <c r="S23" s="540"/>
+      <c r="T23" s="542"/>
+      <c r="U23" s="544"/>
+      <c r="V23" s="546" t="str">
         <f>IF(B23="","",SUM(S23:U23))</f>
         <v/>
       </c>
-      <c r="W23" s="553" t="str">
+      <c r="W23" s="534" t="str">
         <f>IF(B23="","",IF(ISBLANK(S23),"",IF(AVERAGE(S23:U23)&lt;10,LEFT(AVERAGE(S23:U23),4),LEFT(AVERAGE(S23:U23),5))))</f>
         <v/>
       </c>
-      <c r="X23" s="555" t="str">
+      <c r="X23" s="536" t="str">
         <f>IF(B23="","",IF(W23="","",IF(LEFT(W23,1)="0",0,ROUND(W23,0))))</f>
         <v/>
       </c>
@@ -32832,8 +32848,8 @@
       </c>
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="536"/>
-      <c r="B24" s="536"/>
+      <c r="A24" s="539"/>
+      <c r="B24" s="539"/>
       <c r="C24" s="286"/>
       <c r="D24" s="275"/>
       <c r="E24" s="275"/>
@@ -32862,12 +32878,12 @@
         <f ca="1">IF(Q24="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q24/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q24))</f>
         <v/>
       </c>
-      <c r="S24" s="538"/>
-      <c r="T24" s="540"/>
-      <c r="U24" s="550"/>
-      <c r="V24" s="552"/>
-      <c r="W24" s="554"/>
-      <c r="X24" s="556"/>
+      <c r="S24" s="541"/>
+      <c r="T24" s="543"/>
+      <c r="U24" s="545"/>
+      <c r="V24" s="547"/>
+      <c r="W24" s="535"/>
+      <c r="X24" s="537"/>
       <c r="Y24" s="281" t="str">
         <f>IF(B23="","",ROUNDUP(AVERAGE(R24,R24,X23),2))</f>
         <v/>
@@ -32878,10 +32894,10 @@
       </c>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="535">
+      <c r="A25" s="538">
         <v>8</v>
       </c>
-      <c r="B25" s="535" t="str">
+      <c r="B25" s="538" t="str">
         <f>IF('1. Halbjahr'!B11&lt;&gt;"", '1. Halbjahr'!B11, "")</f>
         <v/>
       </c>
@@ -32913,18 +32929,18 @@
         <f ca="1">IF(Q25="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q25/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q25))</f>
         <v/>
       </c>
-      <c r="S25" s="537"/>
-      <c r="T25" s="539"/>
-      <c r="U25" s="549"/>
-      <c r="V25" s="551" t="str">
+      <c r="S25" s="540"/>
+      <c r="T25" s="542"/>
+      <c r="U25" s="544"/>
+      <c r="V25" s="546" t="str">
         <f>IF(B25="","",SUM(S25:U25))</f>
         <v/>
       </c>
-      <c r="W25" s="553" t="str">
+      <c r="W25" s="534" t="str">
         <f>IF(B25="","",IF(ISBLANK(S25),"",IF(AVERAGE(S25:U25)&lt;10,LEFT(AVERAGE(S25:U25),4),LEFT(AVERAGE(S25:U25),5))))</f>
         <v/>
       </c>
-      <c r="X25" s="555" t="str">
+      <c r="X25" s="536" t="str">
         <f>IF(B25="","",IF(W25="","",IF(LEFT(W25,1)="0",0,ROUND(W25,0))))</f>
         <v/>
       </c>
@@ -32938,8 +32954,8 @@
       </c>
     </row>
     <row r="26" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="536"/>
-      <c r="B26" s="536"/>
+      <c r="A26" s="539"/>
+      <c r="B26" s="539"/>
       <c r="C26" s="286"/>
       <c r="D26" s="275"/>
       <c r="E26" s="275"/>
@@ -32968,12 +32984,12 @@
         <f ca="1">IF(Q26="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q26/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q26))</f>
         <v/>
       </c>
-      <c r="S26" s="538"/>
-      <c r="T26" s="540"/>
-      <c r="U26" s="550"/>
-      <c r="V26" s="552"/>
-      <c r="W26" s="554"/>
-      <c r="X26" s="556"/>
+      <c r="S26" s="541"/>
+      <c r="T26" s="543"/>
+      <c r="U26" s="545"/>
+      <c r="V26" s="547"/>
+      <c r="W26" s="535"/>
+      <c r="X26" s="537"/>
       <c r="Y26" s="281" t="str">
         <f>IF(B25="","",ROUNDUP(AVERAGE(R26,R26,X25),2))</f>
         <v/>
@@ -32984,10 +33000,10 @@
       </c>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="535">
+      <c r="A27" s="538">
         <v>9</v>
       </c>
-      <c r="B27" s="535" t="str">
+      <c r="B27" s="538" t="str">
         <f>IF('1. Halbjahr'!B12&lt;&gt;"", '1. Halbjahr'!B12, "")</f>
         <v/>
       </c>
@@ -33019,18 +33035,18 @@
         <f ca="1">IF(Q27="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q27/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q27))</f>
         <v/>
       </c>
-      <c r="S27" s="537"/>
-      <c r="T27" s="539"/>
-      <c r="U27" s="549"/>
-      <c r="V27" s="551" t="str">
+      <c r="S27" s="540"/>
+      <c r="T27" s="542"/>
+      <c r="U27" s="544"/>
+      <c r="V27" s="546" t="str">
         <f>IF(B27="","",SUM(S27:U27))</f>
         <v/>
       </c>
-      <c r="W27" s="553" t="str">
+      <c r="W27" s="534" t="str">
         <f>IF(B27="","",IF(ISBLANK(S27),"",IF(AVERAGE(S27:U27)&lt;10,LEFT(AVERAGE(S27:U27),4),LEFT(AVERAGE(S27:U27),5))))</f>
         <v/>
       </c>
-      <c r="X27" s="555" t="str">
+      <c r="X27" s="536" t="str">
         <f>IF(B27="","",IF(W27="","",IF(LEFT(W27,1)="0",0,ROUND(W27,0))))</f>
         <v/>
       </c>
@@ -33044,8 +33060,8 @@
       </c>
     </row>
     <row r="28" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="536"/>
-      <c r="B28" s="536"/>
+      <c r="A28" s="539"/>
+      <c r="B28" s="539"/>
       <c r="C28" s="286"/>
       <c r="D28" s="275"/>
       <c r="E28" s="275"/>
@@ -33074,12 +33090,12 @@
         <f ca="1">IF(Q28="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q28/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q28))</f>
         <v/>
       </c>
-      <c r="S28" s="538"/>
-      <c r="T28" s="540"/>
-      <c r="U28" s="550"/>
-      <c r="V28" s="552"/>
-      <c r="W28" s="554"/>
-      <c r="X28" s="556"/>
+      <c r="S28" s="541"/>
+      <c r="T28" s="543"/>
+      <c r="U28" s="545"/>
+      <c r="V28" s="547"/>
+      <c r="W28" s="535"/>
+      <c r="X28" s="537"/>
       <c r="Y28" s="281" t="str">
         <f>IF(B27="","",ROUNDUP(AVERAGE(R28,R28,X27),2))</f>
         <v/>
@@ -33090,10 +33106,10 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="535">
+      <c r="A29" s="538">
         <v>10</v>
       </c>
-      <c r="B29" s="535" t="str">
+      <c r="B29" s="538" t="str">
         <f>IF('1. Halbjahr'!B13&lt;&gt;"", '1. Halbjahr'!B13, "")</f>
         <v/>
       </c>
@@ -33125,18 +33141,18 @@
         <f ca="1">IF(Q29="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q29/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q29))</f>
         <v/>
       </c>
-      <c r="S29" s="537"/>
-      <c r="T29" s="539"/>
-      <c r="U29" s="549"/>
-      <c r="V29" s="551" t="str">
+      <c r="S29" s="540"/>
+      <c r="T29" s="542"/>
+      <c r="U29" s="544"/>
+      <c r="V29" s="546" t="str">
         <f>IF(B29="","",SUM(S29:U29))</f>
         <v/>
       </c>
-      <c r="W29" s="553" t="str">
+      <c r="W29" s="534" t="str">
         <f>IF(B29="","",IF(ISBLANK(S29),"",IF(AVERAGE(S29:U29)&lt;10,LEFT(AVERAGE(S29:U29),4),LEFT(AVERAGE(S29:U29),5))))</f>
         <v/>
       </c>
-      <c r="X29" s="555" t="str">
+      <c r="X29" s="536" t="str">
         <f>IF(B29="","",IF(W29="","",IF(LEFT(W29,1)="0",0,ROUND(W29,0))))</f>
         <v/>
       </c>
@@ -33150,8 +33166,8 @@
       </c>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="536"/>
-      <c r="B30" s="536"/>
+      <c r="A30" s="539"/>
+      <c r="B30" s="539"/>
       <c r="C30" s="286"/>
       <c r="D30" s="275"/>
       <c r="E30" s="275"/>
@@ -33180,12 +33196,12 @@
         <f ca="1">IF(Q30="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q30/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q30))</f>
         <v/>
       </c>
-      <c r="S30" s="538"/>
-      <c r="T30" s="540"/>
-      <c r="U30" s="550"/>
-      <c r="V30" s="552"/>
-      <c r="W30" s="554"/>
-      <c r="X30" s="556"/>
+      <c r="S30" s="541"/>
+      <c r="T30" s="543"/>
+      <c r="U30" s="545"/>
+      <c r="V30" s="547"/>
+      <c r="W30" s="535"/>
+      <c r="X30" s="537"/>
       <c r="Y30" s="281" t="str">
         <f>IF(B29="","",ROUNDUP(AVERAGE(R30,R30,X29),2))</f>
         <v/>
@@ -33196,10 +33212,10 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="535">
+      <c r="A31" s="538">
         <v>11</v>
       </c>
-      <c r="B31" s="535" t="str">
+      <c r="B31" s="538" t="str">
         <f>IF('1. Halbjahr'!B14&lt;&gt;"", '1. Halbjahr'!B14, "")</f>
         <v/>
       </c>
@@ -33231,18 +33247,18 @@
         <f ca="1">IF(Q31="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q31/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q31))</f>
         <v/>
       </c>
-      <c r="S31" s="537"/>
-      <c r="T31" s="539"/>
-      <c r="U31" s="549"/>
-      <c r="V31" s="551" t="str">
+      <c r="S31" s="540"/>
+      <c r="T31" s="542"/>
+      <c r="U31" s="544"/>
+      <c r="V31" s="546" t="str">
         <f>IF(B31="","",SUM(S31:U31))</f>
         <v/>
       </c>
-      <c r="W31" s="553" t="str">
+      <c r="W31" s="534" t="str">
         <f>IF(B31="","",IF(ISBLANK(S31),"",IF(AVERAGE(S31:U31)&lt;10,LEFT(AVERAGE(S31:U31),4),LEFT(AVERAGE(S31:U31),5))))</f>
         <v/>
       </c>
-      <c r="X31" s="555" t="str">
+      <c r="X31" s="536" t="str">
         <f>IF(B31="","",IF(W31="","",IF(LEFT(W31,1)="0",0,ROUND(W31,0))))</f>
         <v/>
       </c>
@@ -33256,8 +33272,8 @@
       </c>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="536"/>
-      <c r="B32" s="536"/>
+      <c r="A32" s="539"/>
+      <c r="B32" s="539"/>
       <c r="C32" s="286"/>
       <c r="D32" s="275"/>
       <c r="E32" s="275"/>
@@ -33286,12 +33302,12 @@
         <f ca="1">IF(Q32="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q32/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q32))</f>
         <v/>
       </c>
-      <c r="S32" s="538"/>
-      <c r="T32" s="540"/>
-      <c r="U32" s="550"/>
-      <c r="V32" s="552"/>
-      <c r="W32" s="554"/>
-      <c r="X32" s="556"/>
+      <c r="S32" s="541"/>
+      <c r="T32" s="543"/>
+      <c r="U32" s="545"/>
+      <c r="V32" s="547"/>
+      <c r="W32" s="535"/>
+      <c r="X32" s="537"/>
       <c r="Y32" s="281" t="str">
         <f>IF(B31="","",ROUNDUP(AVERAGE(R32,R32,X31),2))</f>
         <v/>
@@ -33302,10 +33318,10 @@
       </c>
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="535">
+      <c r="A33" s="538">
         <v>12</v>
       </c>
-      <c r="B33" s="535" t="str">
+      <c r="B33" s="538" t="str">
         <f>IF('1. Halbjahr'!B15&lt;&gt;"", '1. Halbjahr'!B15, "")</f>
         <v/>
       </c>
@@ -33337,18 +33353,18 @@
         <f ca="1">IF(Q33="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q33/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q33))</f>
         <v/>
       </c>
-      <c r="S33" s="537"/>
-      <c r="T33" s="539"/>
-      <c r="U33" s="549"/>
-      <c r="V33" s="551" t="str">
+      <c r="S33" s="540"/>
+      <c r="T33" s="542"/>
+      <c r="U33" s="544"/>
+      <c r="V33" s="546" t="str">
         <f>IF(B33="","",SUM(S33:U33))</f>
         <v/>
       </c>
-      <c r="W33" s="553" t="str">
+      <c r="W33" s="534" t="str">
         <f>IF(B33="","",IF(ISBLANK(S33),"",IF(AVERAGE(S33:U33)&lt;10,LEFT(AVERAGE(S33:U33),4),LEFT(AVERAGE(S33:U33),5))))</f>
         <v/>
       </c>
-      <c r="X33" s="555" t="str">
+      <c r="X33" s="536" t="str">
         <f>IF(B33="","",IF(W33="","",IF(LEFT(W33,1)="0",0,ROUND(W33,0))))</f>
         <v/>
       </c>
@@ -33362,8 +33378,8 @@
       </c>
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="536"/>
-      <c r="B34" s="536"/>
+      <c r="A34" s="539"/>
+      <c r="B34" s="539"/>
       <c r="C34" s="286"/>
       <c r="D34" s="275"/>
       <c r="E34" s="275"/>
@@ -33392,12 +33408,12 @@
         <f ca="1">IF(Q34="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q34/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q34))</f>
         <v/>
       </c>
-      <c r="S34" s="538"/>
-      <c r="T34" s="540"/>
-      <c r="U34" s="550"/>
-      <c r="V34" s="552"/>
-      <c r="W34" s="554"/>
-      <c r="X34" s="556"/>
+      <c r="S34" s="541"/>
+      <c r="T34" s="543"/>
+      <c r="U34" s="545"/>
+      <c r="V34" s="547"/>
+      <c r="W34" s="535"/>
+      <c r="X34" s="537"/>
       <c r="Y34" s="281" t="str">
         <f>IF(B33="","",ROUNDUP(AVERAGE(R34,R34,X33),2))</f>
         <v/>
@@ -33408,10 +33424,10 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="535">
+      <c r="A35" s="538">
         <v>13</v>
       </c>
-      <c r="B35" s="535" t="str">
+      <c r="B35" s="538" t="str">
         <f>IF('1. Halbjahr'!B16&lt;&gt;"", '1. Halbjahr'!B16, "")</f>
         <v/>
       </c>
@@ -33443,18 +33459,18 @@
         <f ca="1">IF(Q35="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q35/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q35))</f>
         <v/>
       </c>
-      <c r="S35" s="537"/>
-      <c r="T35" s="539"/>
-      <c r="U35" s="549"/>
-      <c r="V35" s="551" t="str">
+      <c r="S35" s="540"/>
+      <c r="T35" s="542"/>
+      <c r="U35" s="544"/>
+      <c r="V35" s="546" t="str">
         <f>IF(B35="","",SUM(S35:U35))</f>
         <v/>
       </c>
-      <c r="W35" s="553" t="str">
+      <c r="W35" s="534" t="str">
         <f>IF(B35="","",IF(ISBLANK(S35),"",IF(AVERAGE(S35:U35)&lt;10,LEFT(AVERAGE(S35:U35),4),LEFT(AVERAGE(S35:U35),5))))</f>
         <v/>
       </c>
-      <c r="X35" s="555" t="str">
+      <c r="X35" s="536" t="str">
         <f>IF(B35="","",IF(W35="","",IF(LEFT(W35,1)="0",0,ROUND(W35,0))))</f>
         <v/>
       </c>
@@ -33468,8 +33484,8 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="536"/>
-      <c r="B36" s="536"/>
+      <c r="A36" s="539"/>
+      <c r="B36" s="539"/>
       <c r="C36" s="286"/>
       <c r="D36" s="275"/>
       <c r="E36" s="275"/>
@@ -33498,12 +33514,12 @@
         <f ca="1">IF(Q36="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q36/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q36))</f>
         <v/>
       </c>
-      <c r="S36" s="538"/>
-      <c r="T36" s="540"/>
-      <c r="U36" s="550"/>
-      <c r="V36" s="552"/>
-      <c r="W36" s="554"/>
-      <c r="X36" s="556"/>
+      <c r="S36" s="541"/>
+      <c r="T36" s="543"/>
+      <c r="U36" s="545"/>
+      <c r="V36" s="547"/>
+      <c r="W36" s="535"/>
+      <c r="X36" s="537"/>
       <c r="Y36" s="281" t="str">
         <f>IF(B35="","",ROUNDUP(AVERAGE(R36,R36,X35),2))</f>
         <v/>
@@ -33514,10 +33530,10 @@
       </c>
     </row>
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="535">
+      <c r="A37" s="538">
         <v>14</v>
       </c>
-      <c r="B37" s="535" t="str">
+      <c r="B37" s="538" t="str">
         <f>IF('1. Halbjahr'!B17&lt;&gt;"", '1. Halbjahr'!B17, "")</f>
         <v/>
       </c>
@@ -33549,18 +33565,18 @@
         <f ca="1">IF(Q37="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q37/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q37))</f>
         <v/>
       </c>
-      <c r="S37" s="537"/>
-      <c r="T37" s="539"/>
-      <c r="U37" s="549"/>
-      <c r="V37" s="551" t="str">
+      <c r="S37" s="540"/>
+      <c r="T37" s="542"/>
+      <c r="U37" s="544"/>
+      <c r="V37" s="546" t="str">
         <f>IF(B37="","",SUM(S37:U37))</f>
         <v/>
       </c>
-      <c r="W37" s="553" t="str">
+      <c r="W37" s="534" t="str">
         <f>IF(B37="","",IF(ISBLANK(S37),"",IF(AVERAGE(S37:U37)&lt;10,LEFT(AVERAGE(S37:U37),4),LEFT(AVERAGE(S37:U37),5))))</f>
         <v/>
       </c>
-      <c r="X37" s="555" t="str">
+      <c r="X37" s="536" t="str">
         <f>IF(B37="","",IF(W37="","",IF(LEFT(W37,1)="0",0,ROUND(W37,0))))</f>
         <v/>
       </c>
@@ -33574,8 +33590,8 @@
       </c>
     </row>
     <row r="38" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="536"/>
-      <c r="B38" s="536"/>
+      <c r="A38" s="539"/>
+      <c r="B38" s="539"/>
       <c r="C38" s="286"/>
       <c r="D38" s="275"/>
       <c r="E38" s="275"/>
@@ -33604,12 +33620,12 @@
         <f ca="1">IF(Q38="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q38/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q38))</f>
         <v/>
       </c>
-      <c r="S38" s="538"/>
-      <c r="T38" s="540"/>
-      <c r="U38" s="550"/>
-      <c r="V38" s="552"/>
-      <c r="W38" s="554"/>
-      <c r="X38" s="556"/>
+      <c r="S38" s="541"/>
+      <c r="T38" s="543"/>
+      <c r="U38" s="545"/>
+      <c r="V38" s="547"/>
+      <c r="W38" s="535"/>
+      <c r="X38" s="537"/>
       <c r="Y38" s="281" t="str">
         <f>IF(B37="","",ROUNDUP(AVERAGE(R38,R38,X37),2))</f>
         <v/>
@@ -33620,10 +33636,10 @@
       </c>
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="535">
+      <c r="A39" s="538">
         <v>15</v>
       </c>
-      <c r="B39" s="535" t="str">
+      <c r="B39" s="538" t="str">
         <f>IF('1. Halbjahr'!B18&lt;&gt;"", '1. Halbjahr'!B18, "")</f>
         <v/>
       </c>
@@ -33655,18 +33671,18 @@
         <f ca="1">IF(Q39="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q39/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q39))</f>
         <v/>
       </c>
-      <c r="S39" s="557"/>
-      <c r="T39" s="558"/>
-      <c r="U39" s="559"/>
-      <c r="V39" s="560" t="str">
+      <c r="S39" s="548"/>
+      <c r="T39" s="549"/>
+      <c r="U39" s="550"/>
+      <c r="V39" s="551" t="str">
         <f>IF(B39="","",SUM(S39:U39))</f>
         <v/>
       </c>
-      <c r="W39" s="553" t="str">
+      <c r="W39" s="534" t="str">
         <f>IF(B39="","",IF(ISBLANK(S39),"",IF(AVERAGE(S39:U39)&lt;10,LEFT(AVERAGE(S39:U39),4),LEFT(AVERAGE(S39:U39),5))))</f>
         <v/>
       </c>
-      <c r="X39" s="555" t="str">
+      <c r="X39" s="536" t="str">
         <f>IF(B39="","",IF(W39="","",IF(LEFT(W39,1)="0",0,ROUND(W39,0))))</f>
         <v/>
       </c>
@@ -33680,8 +33696,8 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="536"/>
-      <c r="B40" s="536"/>
+      <c r="A40" s="539"/>
+      <c r="B40" s="539"/>
       <c r="C40" s="286"/>
       <c r="D40" s="275"/>
       <c r="E40" s="275"/>
@@ -33710,12 +33726,12 @@
         <f ca="1">IF(Q40="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q40/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q40))</f>
         <v/>
       </c>
-      <c r="S40" s="538"/>
-      <c r="T40" s="540"/>
-      <c r="U40" s="550"/>
-      <c r="V40" s="552"/>
-      <c r="W40" s="554"/>
-      <c r="X40" s="556"/>
+      <c r="S40" s="541"/>
+      <c r="T40" s="543"/>
+      <c r="U40" s="545"/>
+      <c r="V40" s="547"/>
+      <c r="W40" s="535"/>
+      <c r="X40" s="537"/>
       <c r="Y40" s="281" t="str">
         <f>IF(B39="","",ROUNDUP(AVERAGE(R40,R40,X39),2))</f>
         <v/>
@@ -33726,10 +33742,10 @@
       </c>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="535">
+      <c r="A41" s="538">
         <v>16</v>
       </c>
-      <c r="B41" s="535" t="str">
+      <c r="B41" s="538" t="str">
         <f>IF('1. Halbjahr'!B19&lt;&gt;"", '1. Halbjahr'!B19, "")</f>
         <v/>
       </c>
@@ -33761,18 +33777,18 @@
         <f ca="1">IF(Q41="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q41/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q41))</f>
         <v/>
       </c>
-      <c r="S41" s="537"/>
-      <c r="T41" s="539"/>
-      <c r="U41" s="549"/>
-      <c r="V41" s="551" t="str">
+      <c r="S41" s="540"/>
+      <c r="T41" s="542"/>
+      <c r="U41" s="544"/>
+      <c r="V41" s="546" t="str">
         <f>IF(B41="","",SUM(S41:U41))</f>
         <v/>
       </c>
-      <c r="W41" s="553" t="str">
+      <c r="W41" s="534" t="str">
         <f>IF(B41="","",IF(ISBLANK(S41),"",IF(AVERAGE(S41:U41)&lt;10,LEFT(AVERAGE(S41:U41),4),LEFT(AVERAGE(S41:U41),5))))</f>
         <v/>
       </c>
-      <c r="X41" s="555" t="str">
+      <c r="X41" s="536" t="str">
         <f>IF(B41="","",IF(W41="","",IF(LEFT(W41,1)="0",0,ROUND(W41,0))))</f>
         <v/>
       </c>
@@ -33786,8 +33802,8 @@
       </c>
     </row>
     <row r="42" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="536"/>
-      <c r="B42" s="536"/>
+      <c r="A42" s="539"/>
+      <c r="B42" s="539"/>
       <c r="C42" s="286"/>
       <c r="D42" s="275"/>
       <c r="E42" s="275"/>
@@ -33816,12 +33832,12 @@
         <f ca="1">IF(Q42="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q42/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q42))</f>
         <v/>
       </c>
-      <c r="S42" s="538"/>
-      <c r="T42" s="540"/>
-      <c r="U42" s="550"/>
-      <c r="V42" s="552"/>
-      <c r="W42" s="554"/>
-      <c r="X42" s="556"/>
+      <c r="S42" s="541"/>
+      <c r="T42" s="543"/>
+      <c r="U42" s="545"/>
+      <c r="V42" s="547"/>
+      <c r="W42" s="535"/>
+      <c r="X42" s="537"/>
       <c r="Y42" s="281" t="str">
         <f>IF(B41="","",ROUNDUP(AVERAGE(R42,R42,X41),2))</f>
         <v/>
@@ -33832,10 +33848,10 @@
       </c>
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="535">
+      <c r="A43" s="538">
         <v>17</v>
       </c>
-      <c r="B43" s="535" t="str">
+      <c r="B43" s="538" t="str">
         <f>IF('1. Halbjahr'!B20&lt;&gt;"", '1. Halbjahr'!B20, "")</f>
         <v/>
       </c>
@@ -33867,18 +33883,18 @@
         <f ca="1">IF(Q43="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q43/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q43))</f>
         <v/>
       </c>
-      <c r="S43" s="537"/>
-      <c r="T43" s="539"/>
-      <c r="U43" s="549"/>
-      <c r="V43" s="551" t="str">
+      <c r="S43" s="540"/>
+      <c r="T43" s="542"/>
+      <c r="U43" s="544"/>
+      <c r="V43" s="546" t="str">
         <f>IF(B43="","",SUM(S43:U43))</f>
         <v/>
       </c>
-      <c r="W43" s="553" t="str">
+      <c r="W43" s="534" t="str">
         <f>IF(B43="","",IF(ISBLANK(S43),"",IF(AVERAGE(S43:U43)&lt;10,LEFT(AVERAGE(S43:U43),4),LEFT(AVERAGE(S43:U43),5))))</f>
         <v/>
       </c>
-      <c r="X43" s="555" t="str">
+      <c r="X43" s="536" t="str">
         <f>IF(B43="","",IF(W43="","",IF(LEFT(W43,1)="0",0,ROUND(W43,0))))</f>
         <v/>
       </c>
@@ -33892,8 +33908,8 @@
       </c>
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="536"/>
-      <c r="B44" s="536"/>
+      <c r="A44" s="539"/>
+      <c r="B44" s="539"/>
       <c r="C44" s="286"/>
       <c r="D44" s="275"/>
       <c r="E44" s="275"/>
@@ -33922,12 +33938,12 @@
         <f ca="1">IF(Q44="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q44/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q44))</f>
         <v/>
       </c>
-      <c r="S44" s="538"/>
-      <c r="T44" s="540"/>
-      <c r="U44" s="550"/>
-      <c r="V44" s="552"/>
-      <c r="W44" s="554"/>
-      <c r="X44" s="556"/>
+      <c r="S44" s="541"/>
+      <c r="T44" s="543"/>
+      <c r="U44" s="545"/>
+      <c r="V44" s="547"/>
+      <c r="W44" s="535"/>
+      <c r="X44" s="537"/>
       <c r="Y44" s="281" t="str">
         <f>IF(B43="","",ROUNDUP(AVERAGE(R44,R44,X43),2))</f>
         <v/>
@@ -33938,10 +33954,10 @@
       </c>
     </row>
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="535">
+      <c r="A45" s="538">
         <v>18</v>
       </c>
-      <c r="B45" s="535" t="str">
+      <c r="B45" s="538" t="str">
         <f>IF('1. Halbjahr'!B21&lt;&gt;"", '1. Halbjahr'!B21, "")</f>
         <v/>
       </c>
@@ -33973,18 +33989,18 @@
         <f ca="1">IF(Q45="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q45/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q45))</f>
         <v/>
       </c>
-      <c r="S45" s="537"/>
-      <c r="T45" s="539"/>
-      <c r="U45" s="549"/>
-      <c r="V45" s="551" t="str">
+      <c r="S45" s="540"/>
+      <c r="T45" s="542"/>
+      <c r="U45" s="544"/>
+      <c r="V45" s="546" t="str">
         <f>IF(B45="","",SUM(S45:U45))</f>
         <v/>
       </c>
-      <c r="W45" s="553" t="str">
+      <c r="W45" s="534" t="str">
         <f>IF(B45="","",IF(ISBLANK(S45),"",IF(AVERAGE(S45:U45)&lt;10,LEFT(AVERAGE(S45:U45),4),LEFT(AVERAGE(S45:U45),5))))</f>
         <v/>
       </c>
-      <c r="X45" s="555" t="str">
+      <c r="X45" s="536" t="str">
         <f>IF(B45="","",IF(W45="","",IF(LEFT(W45,1)="0",0,ROUND(W45,0))))</f>
         <v/>
       </c>
@@ -33998,8 +34014,8 @@
       </c>
     </row>
     <row r="46" spans="1:26" s="224" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="536"/>
-      <c r="B46" s="536"/>
+      <c r="A46" s="539"/>
+      <c r="B46" s="539"/>
       <c r="C46" s="291"/>
       <c r="D46" s="292"/>
       <c r="E46" s="292"/>
@@ -34028,12 +34044,12 @@
         <f ca="1">IF(Q46="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q46/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q46))</f>
         <v/>
       </c>
-      <c r="S46" s="538"/>
-      <c r="T46" s="540"/>
-      <c r="U46" s="550"/>
-      <c r="V46" s="552"/>
-      <c r="W46" s="554"/>
-      <c r="X46" s="556"/>
+      <c r="S46" s="541"/>
+      <c r="T46" s="543"/>
+      <c r="U46" s="545"/>
+      <c r="V46" s="547"/>
+      <c r="W46" s="535"/>
+      <c r="X46" s="537"/>
       <c r="Y46" s="281" t="str">
         <f>IF(B45="","",ROUNDUP(AVERAGE(R46,R46,X45),2))</f>
         <v/>
@@ -34044,10 +34060,10 @@
       </c>
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="535">
+      <c r="A47" s="538">
         <v>19</v>
       </c>
-      <c r="B47" s="535" t="str">
+      <c r="B47" s="538" t="str">
         <f>IF('1. Halbjahr'!B22&lt;&gt;"", '1. Halbjahr'!B22, "")</f>
         <v/>
       </c>
@@ -34079,18 +34095,18 @@
         <f ca="1">IF(Q47="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q47/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q47))</f>
         <v/>
       </c>
-      <c r="S47" s="537"/>
-      <c r="T47" s="539"/>
-      <c r="U47" s="549"/>
-      <c r="V47" s="551" t="str">
+      <c r="S47" s="540"/>
+      <c r="T47" s="542"/>
+      <c r="U47" s="544"/>
+      <c r="V47" s="546" t="str">
         <f>IF(B47="","",SUM(S47:U47))</f>
         <v/>
       </c>
-      <c r="W47" s="553" t="str">
+      <c r="W47" s="534" t="str">
         <f>IF(B47="","",IF(ISBLANK(S47),"",IF(AVERAGE(S47:U47)&lt;10,LEFT(AVERAGE(S47:U47),4),LEFT(AVERAGE(S47:U47),5))))</f>
         <v/>
       </c>
-      <c r="X47" s="555" t="str">
+      <c r="X47" s="536" t="str">
         <f>IF(B47="","",IF(W47="","",IF(LEFT(W47,1)="0",0,ROUND(W47,0))))</f>
         <v/>
       </c>
@@ -34104,8 +34120,8 @@
       </c>
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="536"/>
-      <c r="B48" s="536"/>
+      <c r="A48" s="539"/>
+      <c r="B48" s="539"/>
       <c r="C48" s="286"/>
       <c r="D48" s="275"/>
       <c r="E48" s="275"/>
@@ -34134,12 +34150,12 @@
         <f ca="1">IF(Q48="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q48/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q48))</f>
         <v/>
       </c>
-      <c r="S48" s="538"/>
-      <c r="T48" s="540"/>
-      <c r="U48" s="550"/>
-      <c r="V48" s="552"/>
-      <c r="W48" s="554"/>
-      <c r="X48" s="556"/>
+      <c r="S48" s="541"/>
+      <c r="T48" s="543"/>
+      <c r="U48" s="545"/>
+      <c r="V48" s="547"/>
+      <c r="W48" s="535"/>
+      <c r="X48" s="537"/>
       <c r="Y48" s="281" t="str">
         <f>IF(B47="","",ROUNDUP(AVERAGE(R48,R48,X47),2))</f>
         <v/>
@@ -34150,10 +34166,10 @@
       </c>
     </row>
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="535">
+      <c r="A49" s="538">
         <v>20</v>
       </c>
-      <c r="B49" s="535" t="str">
+      <c r="B49" s="538" t="str">
         <f>IF('1. Halbjahr'!B23&lt;&gt;"", '1. Halbjahr'!B23, "")</f>
         <v/>
       </c>
@@ -34185,18 +34201,18 @@
         <f ca="1">IF(Q49="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q49/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q49))</f>
         <v/>
       </c>
-      <c r="S49" s="537"/>
-      <c r="T49" s="539"/>
-      <c r="U49" s="549"/>
-      <c r="V49" s="551" t="str">
+      <c r="S49" s="540"/>
+      <c r="T49" s="542"/>
+      <c r="U49" s="544"/>
+      <c r="V49" s="546" t="str">
         <f>IF(B49="","",SUM(S49:U49))</f>
         <v/>
       </c>
-      <c r="W49" s="553" t="str">
+      <c r="W49" s="534" t="str">
         <f>IF(B49="","",IF(ISBLANK(S49),"",IF(AVERAGE(S49:U49)&lt;10,LEFT(AVERAGE(S49:U49),4),LEFT(AVERAGE(S49:U49),5))))</f>
         <v/>
       </c>
-      <c r="X49" s="555" t="str">
+      <c r="X49" s="536" t="str">
         <f>IF(B49="","",IF(W49="","",IF(LEFT(W49,1)="0",0,ROUND(W49,0))))</f>
         <v/>
       </c>
@@ -34210,8 +34226,8 @@
       </c>
     </row>
     <row r="50" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="536"/>
-      <c r="B50" s="536"/>
+      <c r="A50" s="539"/>
+      <c r="B50" s="539"/>
       <c r="C50" s="286"/>
       <c r="D50" s="275"/>
       <c r="E50" s="275"/>
@@ -34240,12 +34256,12 @@
         <f ca="1">IF(Q50="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q50/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q50))</f>
         <v/>
       </c>
-      <c r="S50" s="538"/>
-      <c r="T50" s="540"/>
-      <c r="U50" s="550"/>
-      <c r="V50" s="552"/>
-      <c r="W50" s="554"/>
-      <c r="X50" s="556"/>
+      <c r="S50" s="541"/>
+      <c r="T50" s="543"/>
+      <c r="U50" s="545"/>
+      <c r="V50" s="547"/>
+      <c r="W50" s="535"/>
+      <c r="X50" s="537"/>
       <c r="Y50" s="281" t="str">
         <f>IF(B49="","",ROUNDUP(AVERAGE(R50,R50,X49),2))</f>
         <v/>
@@ -34256,10 +34272,10 @@
       </c>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="535">
+      <c r="A51" s="538">
         <v>21</v>
       </c>
-      <c r="B51" s="535" t="str">
+      <c r="B51" s="538" t="str">
         <f>IF('1. Halbjahr'!B24&lt;&gt;"", '1. Halbjahr'!B24, "")</f>
         <v/>
       </c>
@@ -34291,18 +34307,18 @@
         <f ca="1">IF(Q51="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q51/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q51))</f>
         <v/>
       </c>
-      <c r="S51" s="537"/>
-      <c r="T51" s="539"/>
-      <c r="U51" s="549"/>
-      <c r="V51" s="551" t="str">
+      <c r="S51" s="540"/>
+      <c r="T51" s="542"/>
+      <c r="U51" s="544"/>
+      <c r="V51" s="546" t="str">
         <f>IF(B51="","",SUM(S51:U51))</f>
         <v/>
       </c>
-      <c r="W51" s="553" t="str">
+      <c r="W51" s="534" t="str">
         <f>IF(B51="","",IF(ISBLANK(S51),"",IF(AVERAGE(S51:U51)&lt;10,LEFT(AVERAGE(S51:U51),4),LEFT(AVERAGE(S51:U51),5))))</f>
         <v/>
       </c>
-      <c r="X51" s="555" t="str">
+      <c r="X51" s="536" t="str">
         <f>IF(B51="","",IF(W51="","",IF(LEFT(W51,1)="0",0,ROUND(W51,0))))</f>
         <v/>
       </c>
@@ -34316,8 +34332,8 @@
       </c>
     </row>
     <row r="52" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="536"/>
-      <c r="B52" s="536"/>
+      <c r="A52" s="539"/>
+      <c r="B52" s="539"/>
       <c r="C52" s="286"/>
       <c r="D52" s="275"/>
       <c r="E52" s="275"/>
@@ -34346,12 +34362,12 @@
         <f ca="1">IF(Q52="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q52/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q52))</f>
         <v/>
       </c>
-      <c r="S52" s="538"/>
-      <c r="T52" s="540"/>
-      <c r="U52" s="550"/>
-      <c r="V52" s="552"/>
-      <c r="W52" s="554"/>
-      <c r="X52" s="556"/>
+      <c r="S52" s="541"/>
+      <c r="T52" s="543"/>
+      <c r="U52" s="545"/>
+      <c r="V52" s="547"/>
+      <c r="W52" s="535"/>
+      <c r="X52" s="537"/>
       <c r="Y52" s="281" t="str">
         <f>IF(B51="","",ROUNDUP(AVERAGE(R52,R52,X51),2))</f>
         <v/>
@@ -34362,10 +34378,10 @@
       </c>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="535">
+      <c r="A53" s="538">
         <v>22</v>
       </c>
-      <c r="B53" s="535" t="str">
+      <c r="B53" s="538" t="str">
         <f>IF('1. Halbjahr'!B25&lt;&gt;"", '1. Halbjahr'!B25, "")</f>
         <v/>
       </c>
@@ -34397,18 +34413,18 @@
         <f ca="1">IF(Q53="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q53/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q53))</f>
         <v/>
       </c>
-      <c r="S53" s="537"/>
-      <c r="T53" s="539"/>
-      <c r="U53" s="549"/>
-      <c r="V53" s="551" t="str">
+      <c r="S53" s="540"/>
+      <c r="T53" s="542"/>
+      <c r="U53" s="544"/>
+      <c r="V53" s="546" t="str">
         <f>IF(B53="","",SUM(S53:U53))</f>
         <v/>
       </c>
-      <c r="W53" s="553" t="str">
+      <c r="W53" s="534" t="str">
         <f>IF(B53="","",IF(ISBLANK(S53),"",IF(AVERAGE(S53:U53)&lt;10,LEFT(AVERAGE(S53:U53),4),LEFT(AVERAGE(S53:U53),5))))</f>
         <v/>
       </c>
-      <c r="X53" s="555" t="str">
+      <c r="X53" s="536" t="str">
         <f>IF(B53="","",IF(W53="","",IF(LEFT(W53,1)="0",0,ROUND(W53,0))))</f>
         <v/>
       </c>
@@ -34422,8 +34438,8 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="536"/>
-      <c r="B54" s="536"/>
+      <c r="A54" s="539"/>
+      <c r="B54" s="539"/>
       <c r="C54" s="286"/>
       <c r="D54" s="275"/>
       <c r="E54" s="275"/>
@@ -34452,12 +34468,12 @@
         <f ca="1">IF(Q54="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q54/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q54))</f>
         <v/>
       </c>
-      <c r="S54" s="538"/>
-      <c r="T54" s="540"/>
-      <c r="U54" s="550"/>
-      <c r="V54" s="552"/>
-      <c r="W54" s="554"/>
-      <c r="X54" s="556"/>
+      <c r="S54" s="541"/>
+      <c r="T54" s="543"/>
+      <c r="U54" s="545"/>
+      <c r="V54" s="547"/>
+      <c r="W54" s="535"/>
+      <c r="X54" s="537"/>
       <c r="Y54" s="281" t="str">
         <f>IF(B53="","",ROUNDUP(AVERAGE(R54,R54,X53),2))</f>
         <v/>
@@ -34468,10 +34484,10 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="535">
+      <c r="A55" s="538">
         <v>23</v>
       </c>
-      <c r="B55" s="535" t="str">
+      <c r="B55" s="538" t="str">
         <f>IF('1. Halbjahr'!B26&lt;&gt;"", '1. Halbjahr'!B26, "")</f>
         <v/>
       </c>
@@ -34503,18 +34519,18 @@
         <f ca="1">IF(Q55="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q55/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q55))</f>
         <v/>
       </c>
-      <c r="S55" s="537"/>
-      <c r="T55" s="539"/>
-      <c r="U55" s="549"/>
-      <c r="V55" s="551" t="str">
+      <c r="S55" s="540"/>
+      <c r="T55" s="542"/>
+      <c r="U55" s="544"/>
+      <c r="V55" s="546" t="str">
         <f>IF(B55="","",SUM(S55:U55))</f>
         <v/>
       </c>
-      <c r="W55" s="553" t="str">
+      <c r="W55" s="534" t="str">
         <f>IF(B55="","",IF(ISBLANK(S55),"",IF(AVERAGE(S55:U55)&lt;10,LEFT(AVERAGE(S55:U55),4),LEFT(AVERAGE(S55:U55),5))))</f>
         <v/>
       </c>
-      <c r="X55" s="555" t="str">
+      <c r="X55" s="536" t="str">
         <f>IF(B55="","",IF(W55="","",IF(LEFT(W55,1)="0",0,ROUND(W55,0))))</f>
         <v/>
       </c>
@@ -34528,8 +34544,8 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="536"/>
-      <c r="B56" s="536"/>
+      <c r="A56" s="539"/>
+      <c r="B56" s="539"/>
       <c r="C56" s="286"/>
       <c r="D56" s="275"/>
       <c r="E56" s="275"/>
@@ -34558,12 +34574,12 @@
         <f ca="1">IF(Q56="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q56/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q56))</f>
         <v/>
       </c>
-      <c r="S56" s="538"/>
-      <c r="T56" s="540"/>
-      <c r="U56" s="550"/>
-      <c r="V56" s="552"/>
-      <c r="W56" s="554"/>
-      <c r="X56" s="556"/>
+      <c r="S56" s="541"/>
+      <c r="T56" s="543"/>
+      <c r="U56" s="545"/>
+      <c r="V56" s="547"/>
+      <c r="W56" s="535"/>
+      <c r="X56" s="537"/>
       <c r="Y56" s="281" t="str">
         <f>IF(B55="","",ROUNDUP(AVERAGE(R56,R56,X55),2))</f>
         <v/>
@@ -34574,10 +34590,10 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="535">
+      <c r="A57" s="538">
         <v>24</v>
       </c>
-      <c r="B57" s="535" t="str">
+      <c r="B57" s="538" t="str">
         <f>IF('1. Halbjahr'!B27&lt;&gt;"", '1. Halbjahr'!B27, "")</f>
         <v/>
       </c>
@@ -34609,18 +34625,18 @@
         <f ca="1">IF(Q57="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q57/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q57))</f>
         <v/>
       </c>
-      <c r="S57" s="537"/>
-      <c r="T57" s="539"/>
-      <c r="U57" s="549"/>
-      <c r="V57" s="551" t="str">
+      <c r="S57" s="540"/>
+      <c r="T57" s="542"/>
+      <c r="U57" s="544"/>
+      <c r="V57" s="546" t="str">
         <f>IF(B57="","",SUM(S57:U57))</f>
         <v/>
       </c>
-      <c r="W57" s="553" t="str">
+      <c r="W57" s="534" t="str">
         <f>IF(B57="","",IF(ISBLANK(S57),"",IF(AVERAGE(S57:U57)&lt;10,LEFT(AVERAGE(S57:U57),4),LEFT(AVERAGE(S57:U57),5))))</f>
         <v/>
       </c>
-      <c r="X57" s="555" t="str">
+      <c r="X57" s="536" t="str">
         <f>IF(B57="","",IF(W57="","",IF(LEFT(W57,1)="0",0,ROUND(W57,0))))</f>
         <v/>
       </c>
@@ -34634,8 +34650,8 @@
       </c>
     </row>
     <row r="58" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="536"/>
-      <c r="B58" s="536"/>
+      <c r="A58" s="539"/>
+      <c r="B58" s="539"/>
       <c r="C58" s="286"/>
       <c r="D58" s="275"/>
       <c r="E58" s="275"/>
@@ -34664,12 +34680,12 @@
         <f ca="1">IF(Q58="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q58/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q58))</f>
         <v/>
       </c>
-      <c r="S58" s="538"/>
-      <c r="T58" s="540"/>
-      <c r="U58" s="550"/>
-      <c r="V58" s="552"/>
-      <c r="W58" s="554"/>
-      <c r="X58" s="556"/>
+      <c r="S58" s="541"/>
+      <c r="T58" s="543"/>
+      <c r="U58" s="545"/>
+      <c r="V58" s="547"/>
+      <c r="W58" s="535"/>
+      <c r="X58" s="537"/>
       <c r="Y58" s="281" t="str">
         <f>IF(B57="","",ROUNDUP(AVERAGE(R58,R58,X57),2))</f>
         <v/>
@@ -34680,10 +34696,10 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="535">
+      <c r="A59" s="538">
         <v>25</v>
       </c>
-      <c r="B59" s="535" t="str">
+      <c r="B59" s="538" t="str">
         <f>IF('1. Halbjahr'!B28&lt;&gt;"", '1. Halbjahr'!B28, "")</f>
         <v/>
       </c>
@@ -34715,18 +34731,18 @@
         <f ca="1">IF(Q59="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q59/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q59))</f>
         <v/>
       </c>
-      <c r="S59" s="537"/>
-      <c r="T59" s="539"/>
-      <c r="U59" s="549"/>
-      <c r="V59" s="551" t="str">
+      <c r="S59" s="540"/>
+      <c r="T59" s="542"/>
+      <c r="U59" s="544"/>
+      <c r="V59" s="546" t="str">
         <f>IF(B59="","",SUM(S59:U59))</f>
         <v/>
       </c>
-      <c r="W59" s="553" t="str">
+      <c r="W59" s="534" t="str">
         <f>IF(B59="","",IF(ISBLANK(S59),"",IF(AVERAGE(S59:U59)&lt;10,LEFT(AVERAGE(S59:U59),4),LEFT(AVERAGE(S59:U59),5))))</f>
         <v/>
       </c>
-      <c r="X59" s="555" t="str">
+      <c r="X59" s="536" t="str">
         <f>IF(B59="","",IF(W59="","",IF(LEFT(W59,1)="0",0,ROUND(W59,0))))</f>
         <v/>
       </c>
@@ -34740,8 +34756,8 @@
       </c>
     </row>
     <row r="60" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="536"/>
-      <c r="B60" s="536"/>
+      <c r="A60" s="539"/>
+      <c r="B60" s="539"/>
       <c r="C60" s="286"/>
       <c r="D60" s="275"/>
       <c r="E60" s="275"/>
@@ -34770,12 +34786,12 @@
         <f ca="1">IF(Q60="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q60/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q60))</f>
         <v/>
       </c>
-      <c r="S60" s="538"/>
-      <c r="T60" s="540"/>
-      <c r="U60" s="550"/>
-      <c r="V60" s="552"/>
-      <c r="W60" s="554"/>
-      <c r="X60" s="556"/>
+      <c r="S60" s="541"/>
+      <c r="T60" s="543"/>
+      <c r="U60" s="545"/>
+      <c r="V60" s="547"/>
+      <c r="W60" s="535"/>
+      <c r="X60" s="537"/>
       <c r="Y60" s="281" t="str">
         <f>IF(B59="","",ROUNDUP(AVERAGE(R60,R60,X59),2))</f>
         <v/>
@@ -34786,10 +34802,10 @@
       </c>
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="535">
+      <c r="A61" s="538">
         <v>26</v>
       </c>
-      <c r="B61" s="535" t="str">
+      <c r="B61" s="538" t="str">
         <f>IF('1. Halbjahr'!B29&lt;&gt;"", '1. Halbjahr'!B29, "")</f>
         <v/>
       </c>
@@ -34821,18 +34837,18 @@
         <f ca="1">IF(Q61="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q61/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q61))</f>
         <v/>
       </c>
-      <c r="S61" s="537"/>
-      <c r="T61" s="539"/>
-      <c r="U61" s="549"/>
-      <c r="V61" s="551" t="str">
+      <c r="S61" s="540"/>
+      <c r="T61" s="542"/>
+      <c r="U61" s="544"/>
+      <c r="V61" s="546" t="str">
         <f>IF(B61="","",SUM(S61:U61))</f>
         <v/>
       </c>
-      <c r="W61" s="553" t="str">
+      <c r="W61" s="534" t="str">
         <f>IF(B61="","",IF(ISBLANK(S61),"",IF(AVERAGE(S61:U61)&lt;10,LEFT(AVERAGE(S61:U61),4),LEFT(AVERAGE(S61:U61),5))))</f>
         <v/>
       </c>
-      <c r="X61" s="555" t="str">
+      <c r="X61" s="536" t="str">
         <f>IF(B61="","",IF(W61="","",IF(LEFT(W61,1)="0",0,ROUND(W61,0))))</f>
         <v/>
       </c>
@@ -34846,8 +34862,8 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="536"/>
-      <c r="B62" s="536"/>
+      <c r="A62" s="539"/>
+      <c r="B62" s="539"/>
       <c r="C62" s="286"/>
       <c r="D62" s="275"/>
       <c r="E62" s="275"/>
@@ -34876,12 +34892,12 @@
         <f ca="1">IF(Q62="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q62/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q62))</f>
         <v/>
       </c>
-      <c r="S62" s="538"/>
-      <c r="T62" s="540"/>
-      <c r="U62" s="550"/>
-      <c r="V62" s="552"/>
-      <c r="W62" s="554"/>
-      <c r="X62" s="556"/>
+      <c r="S62" s="541"/>
+      <c r="T62" s="543"/>
+      <c r="U62" s="545"/>
+      <c r="V62" s="547"/>
+      <c r="W62" s="535"/>
+      <c r="X62" s="537"/>
       <c r="Y62" s="281" t="str">
         <f>IF(B61="","",ROUNDUP(AVERAGE(R62,R62,X61),2))</f>
         <v/>
@@ -34892,10 +34908,10 @@
       </c>
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="535">
+      <c r="A63" s="538">
         <v>27</v>
       </c>
-      <c r="B63" s="535" t="str">
+      <c r="B63" s="538" t="str">
         <f>IF('1. Halbjahr'!B30&lt;&gt;"", '1. Halbjahr'!B30, "")</f>
         <v/>
       </c>
@@ -34927,18 +34943,18 @@
         <f ca="1">IF(Q63="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q63/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q63))</f>
         <v/>
       </c>
-      <c r="S63" s="537"/>
-      <c r="T63" s="539"/>
-      <c r="U63" s="549"/>
-      <c r="V63" s="551" t="str">
+      <c r="S63" s="540"/>
+      <c r="T63" s="542"/>
+      <c r="U63" s="544"/>
+      <c r="V63" s="546" t="str">
         <f>IF(B63="","",SUM(S63:U63))</f>
         <v/>
       </c>
-      <c r="W63" s="553" t="str">
+      <c r="W63" s="534" t="str">
         <f>IF(B63="","",IF(ISBLANK(S63),"",IF(AVERAGE(S63:U63)&lt;10,LEFT(AVERAGE(S63:U63),4),LEFT(AVERAGE(S63:U63),5))))</f>
         <v/>
       </c>
-      <c r="X63" s="555" t="str">
+      <c r="X63" s="536" t="str">
         <f>IF(B63="","",IF(W63="","",IF(LEFT(W63,1)="0",0,ROUND(W63,0))))</f>
         <v/>
       </c>
@@ -34952,8 +34968,8 @@
       </c>
     </row>
     <row r="64" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="536"/>
-      <c r="B64" s="536"/>
+      <c r="A64" s="539"/>
+      <c r="B64" s="539"/>
       <c r="C64" s="286"/>
       <c r="D64" s="275"/>
       <c r="E64" s="275"/>
@@ -34982,12 +34998,12 @@
         <f ca="1">IF(Q64="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q64/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q64))</f>
         <v/>
       </c>
-      <c r="S64" s="538"/>
-      <c r="T64" s="540"/>
-      <c r="U64" s="550"/>
-      <c r="V64" s="552"/>
-      <c r="W64" s="554"/>
-      <c r="X64" s="556"/>
+      <c r="S64" s="541"/>
+      <c r="T64" s="543"/>
+      <c r="U64" s="545"/>
+      <c r="V64" s="547"/>
+      <c r="W64" s="535"/>
+      <c r="X64" s="537"/>
       <c r="Y64" s="281" t="str">
         <f>IF(B63="","",ROUNDUP(AVERAGE(R64,R64,X63),2))</f>
         <v/>
@@ -34998,10 +35014,10 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="535">
+      <c r="A65" s="538">
         <v>28</v>
       </c>
-      <c r="B65" s="535" t="str">
+      <c r="B65" s="538" t="str">
         <f>IF('1. Halbjahr'!B31&lt;&gt;"", '1. Halbjahr'!B31, "")</f>
         <v/>
       </c>
@@ -35033,18 +35049,18 @@
         <f ca="1">IF(Q65="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q65/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q65))</f>
         <v/>
       </c>
-      <c r="S65" s="537"/>
-      <c r="T65" s="539"/>
-      <c r="U65" s="549"/>
-      <c r="V65" s="551" t="str">
+      <c r="S65" s="540"/>
+      <c r="T65" s="542"/>
+      <c r="U65" s="544"/>
+      <c r="V65" s="546" t="str">
         <f>IF(B65="","",SUM(S65:U65))</f>
         <v/>
       </c>
-      <c r="W65" s="553" t="str">
+      <c r="W65" s="534" t="str">
         <f>IF(B65="","",IF(ISBLANK(S65),"",IF(AVERAGE(S65:U65)&lt;10,LEFT(AVERAGE(S65:U65),4),LEFT(AVERAGE(S65:U65),5))))</f>
         <v/>
       </c>
-      <c r="X65" s="555" t="str">
+      <c r="X65" s="536" t="str">
         <f>IF(B65="","",IF(W65="","",IF(LEFT(W65,1)="0",0,ROUND(W65,0))))</f>
         <v/>
       </c>
@@ -35058,8 +35074,8 @@
       </c>
     </row>
     <row r="66" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="536"/>
-      <c r="B66" s="536"/>
+      <c r="A66" s="539"/>
+      <c r="B66" s="539"/>
       <c r="C66" s="286"/>
       <c r="D66" s="275"/>
       <c r="E66" s="275"/>
@@ -35088,12 +35104,12 @@
         <f ca="1">IF(Q66="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q66/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q66))</f>
         <v/>
       </c>
-      <c r="S66" s="538"/>
-      <c r="T66" s="540"/>
-      <c r="U66" s="550"/>
-      <c r="V66" s="552"/>
-      <c r="W66" s="554"/>
-      <c r="X66" s="556"/>
+      <c r="S66" s="541"/>
+      <c r="T66" s="543"/>
+      <c r="U66" s="545"/>
+      <c r="V66" s="547"/>
+      <c r="W66" s="535"/>
+      <c r="X66" s="537"/>
       <c r="Y66" s="281" t="str">
         <f>IF(B65="","",ROUNDUP(AVERAGE(R66,R66,X65),2))</f>
         <v/>
@@ -35104,10 +35120,10 @@
       </c>
     </row>
     <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="535">
+      <c r="A67" s="538">
         <v>29</v>
       </c>
-      <c r="B67" s="535" t="str">
+      <c r="B67" s="538" t="str">
         <f>IF('1. Halbjahr'!B32&lt;&gt;"", '1. Halbjahr'!B32, "")</f>
         <v/>
       </c>
@@ -35139,18 +35155,18 @@
         <f ca="1">IF(Q67="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q67/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q67))</f>
         <v/>
       </c>
-      <c r="S67" s="537"/>
-      <c r="T67" s="539"/>
-      <c r="U67" s="549"/>
-      <c r="V67" s="551" t="str">
+      <c r="S67" s="540"/>
+      <c r="T67" s="542"/>
+      <c r="U67" s="544"/>
+      <c r="V67" s="546" t="str">
         <f>IF(B67="","",SUM(S67:U67))</f>
         <v/>
       </c>
-      <c r="W67" s="553" t="str">
+      <c r="W67" s="534" t="str">
         <f>IF(B67="","",IF(ISBLANK(S67),"",IF(AVERAGE(S67:U67)&lt;10,LEFT(AVERAGE(S67:U67),4),LEFT(AVERAGE(S67:U67),5))))</f>
         <v/>
       </c>
-      <c r="X67" s="555" t="str">
+      <c r="X67" s="536" t="str">
         <f>IF(B67="","",IF(W67="","",IF(LEFT(W67,1)="0",0,ROUND(W67,0))))</f>
         <v/>
       </c>
@@ -35164,8 +35180,8 @@
       </c>
     </row>
     <row r="68" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="536"/>
-      <c r="B68" s="536"/>
+      <c r="A68" s="539"/>
+      <c r="B68" s="539"/>
       <c r="C68" s="286"/>
       <c r="D68" s="275"/>
       <c r="E68" s="275"/>
@@ -35194,12 +35210,12 @@
         <f ca="1">IF(Q68="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q68/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q68))</f>
         <v/>
       </c>
-      <c r="S68" s="538"/>
-      <c r="T68" s="540"/>
-      <c r="U68" s="550"/>
-      <c r="V68" s="552"/>
-      <c r="W68" s="554"/>
-      <c r="X68" s="556"/>
+      <c r="S68" s="541"/>
+      <c r="T68" s="543"/>
+      <c r="U68" s="545"/>
+      <c r="V68" s="547"/>
+      <c r="W68" s="535"/>
+      <c r="X68" s="537"/>
       <c r="Y68" s="281" t="str">
         <f>IF(B67="","",ROUNDUP(AVERAGE(R68,R68,X67),2))</f>
         <v/>
@@ -35210,10 +35226,10 @@
       </c>
     </row>
     <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="535">
+      <c r="A69" s="538">
         <v>30</v>
       </c>
-      <c r="B69" s="535" t="str">
+      <c r="B69" s="538" t="str">
         <f>IF('1. Halbjahr'!B33&lt;&gt;"", '1. Halbjahr'!B33, "")</f>
         <v/>
       </c>
@@ -35245,18 +35261,18 @@
         <f ca="1">IF(Q69="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q69/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q69))</f>
         <v/>
       </c>
-      <c r="S69" s="537"/>
-      <c r="T69" s="539"/>
-      <c r="U69" s="549"/>
-      <c r="V69" s="551" t="str">
+      <c r="S69" s="540"/>
+      <c r="T69" s="542"/>
+      <c r="U69" s="544"/>
+      <c r="V69" s="546" t="str">
         <f>IF(B69="","",SUM(S69:U69))</f>
         <v/>
       </c>
-      <c r="W69" s="553" t="str">
+      <c r="W69" s="534" t="str">
         <f>IF(B69="","",IF(ISBLANK(S69),"",IF(AVERAGE(S69:U69)&lt;10,LEFT(AVERAGE(S69:U69),4),LEFT(AVERAGE(S69:U69),5))))</f>
         <v/>
       </c>
-      <c r="X69" s="555" t="str">
+      <c r="X69" s="536" t="str">
         <f>IF(B69="","",IF(W69="","",IF(LEFT(W69,1)="0",0,ROUND(W69,0))))</f>
         <v/>
       </c>
@@ -35270,8 +35286,8 @@
       </c>
     </row>
     <row r="70" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="536"/>
-      <c r="B70" s="536"/>
+      <c r="A70" s="539"/>
+      <c r="B70" s="539"/>
       <c r="C70" s="286"/>
       <c r="D70" s="275"/>
       <c r="E70" s="275"/>
@@ -35300,12 +35316,12 @@
         <f ca="1">IF(Q70="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q70/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q70))</f>
         <v/>
       </c>
-      <c r="S70" s="538"/>
-      <c r="T70" s="540"/>
-      <c r="U70" s="550"/>
-      <c r="V70" s="552"/>
-      <c r="W70" s="554"/>
-      <c r="X70" s="556"/>
+      <c r="S70" s="541"/>
+      <c r="T70" s="543"/>
+      <c r="U70" s="545"/>
+      <c r="V70" s="547"/>
+      <c r="W70" s="535"/>
+      <c r="X70" s="537"/>
       <c r="Y70" s="281" t="str">
         <f>IF(B69="","",ROUNDUP(AVERAGE(R70,R70,X69),2))</f>
         <v/>
@@ -35316,10 +35332,10 @@
       </c>
     </row>
     <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="535">
+      <c r="A71" s="538">
         <v>31</v>
       </c>
-      <c r="B71" s="535" t="str">
+      <c r="B71" s="538" t="str">
         <f>IF('1. Halbjahr'!B34&lt;&gt;"", '1. Halbjahr'!B34, "")</f>
         <v/>
       </c>
@@ -35351,18 +35367,18 @@
         <f ca="1">IF(Q71="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q71/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q71))</f>
         <v/>
       </c>
-      <c r="S71" s="537"/>
-      <c r="T71" s="539"/>
-      <c r="U71" s="549"/>
-      <c r="V71" s="551" t="str">
+      <c r="S71" s="540"/>
+      <c r="T71" s="542"/>
+      <c r="U71" s="544"/>
+      <c r="V71" s="546" t="str">
         <f>IF(B71="","",SUM(S71:U71))</f>
         <v/>
       </c>
-      <c r="W71" s="553" t="str">
+      <c r="W71" s="534" t="str">
         <f>IF(B71="","",IF(ISBLANK(S71),"",IF(AVERAGE(S71:U71)&lt;10,LEFT(AVERAGE(S71:U71),4),LEFT(AVERAGE(S71:U71),5))))</f>
         <v/>
       </c>
-      <c r="X71" s="555" t="str">
+      <c r="X71" s="536" t="str">
         <f>IF(B71="","",IF(W71="","",IF(LEFT(W71,1)="0",0,ROUND(W71,0))))</f>
         <v/>
       </c>
@@ -35376,8 +35392,8 @@
       </c>
     </row>
     <row r="72" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="536"/>
-      <c r="B72" s="536"/>
+      <c r="A72" s="539"/>
+      <c r="B72" s="539"/>
       <c r="C72" s="286"/>
       <c r="D72" s="275"/>
       <c r="E72" s="275"/>
@@ -35406,12 +35422,12 @@
         <f ca="1">IF(Q72="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q72/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q72))</f>
         <v/>
       </c>
-      <c r="S72" s="538"/>
-      <c r="T72" s="540"/>
-      <c r="U72" s="550"/>
-      <c r="V72" s="552"/>
-      <c r="W72" s="554"/>
-      <c r="X72" s="556"/>
+      <c r="S72" s="541"/>
+      <c r="T72" s="543"/>
+      <c r="U72" s="545"/>
+      <c r="V72" s="547"/>
+      <c r="W72" s="535"/>
+      <c r="X72" s="537"/>
       <c r="Y72" s="281" t="str">
         <f>IF(B71="","",ROUNDUP(AVERAGE(R72,R72,X71),2))</f>
         <v/>
@@ -35422,10 +35438,10 @@
       </c>
     </row>
     <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="535">
+      <c r="A73" s="538">
         <v>32</v>
       </c>
-      <c r="B73" s="535" t="str">
+      <c r="B73" s="538" t="str">
         <f>IF('1. Halbjahr'!B35&lt;&gt;"", '1. Halbjahr'!B35, "")</f>
         <v/>
       </c>
@@ -35457,18 +35473,18 @@
         <f ca="1">IF(Q73="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q73/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q73))</f>
         <v/>
       </c>
-      <c r="S73" s="537"/>
-      <c r="T73" s="539"/>
-      <c r="U73" s="549"/>
-      <c r="V73" s="551" t="str">
+      <c r="S73" s="540"/>
+      <c r="T73" s="542"/>
+      <c r="U73" s="544"/>
+      <c r="V73" s="546" t="str">
         <f>IF(B73="","",SUM(S73:U73))</f>
         <v/>
       </c>
-      <c r="W73" s="553" t="str">
+      <c r="W73" s="534" t="str">
         <f>IF(B73="","",IF(ISBLANK(S73),"",IF(AVERAGE(S73:U73)&lt;10,LEFT(AVERAGE(S73:U73),4),LEFT(AVERAGE(S73:U73),5))))</f>
         <v/>
       </c>
-      <c r="X73" s="555" t="str">
+      <c r="X73" s="536" t="str">
         <f>IF(B73="","",IF(W73="","",IF(LEFT(W73,1)="0",0,ROUND(W73,0))))</f>
         <v/>
       </c>
@@ -35482,8 +35498,8 @@
       </c>
     </row>
     <row r="74" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="536"/>
-      <c r="B74" s="536"/>
+      <c r="A74" s="539"/>
+      <c r="B74" s="539"/>
       <c r="C74" s="286"/>
       <c r="D74" s="275"/>
       <c r="E74" s="275"/>
@@ -35512,12 +35528,12 @@
         <f ca="1">IF(Q74="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q74/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q74))</f>
         <v/>
       </c>
-      <c r="S74" s="538"/>
-      <c r="T74" s="540"/>
-      <c r="U74" s="550"/>
-      <c r="V74" s="552"/>
-      <c r="W74" s="554"/>
-      <c r="X74" s="556"/>
+      <c r="S74" s="541"/>
+      <c r="T74" s="543"/>
+      <c r="U74" s="545"/>
+      <c r="V74" s="547"/>
+      <c r="W74" s="535"/>
+      <c r="X74" s="537"/>
       <c r="Y74" s="281" t="str">
         <f>IF(B73="","",ROUNDUP(AVERAGE(R74,R74,X73),2))</f>
         <v/>
@@ -35528,10 +35544,10 @@
       </c>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="535">
+      <c r="A75" s="538">
         <v>33</v>
       </c>
-      <c r="B75" s="535" t="str">
+      <c r="B75" s="538" t="str">
         <f>IF('1. Halbjahr'!B36&lt;&gt;"", '1. Halbjahr'!B36, "")</f>
         <v/>
       </c>
@@ -35563,18 +35579,18 @@
         <f ca="1">IF(Q75="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q75/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q75))</f>
         <v/>
       </c>
-      <c r="S75" s="537"/>
-      <c r="T75" s="539"/>
-      <c r="U75" s="549"/>
-      <c r="V75" s="551" t="str">
+      <c r="S75" s="540"/>
+      <c r="T75" s="542"/>
+      <c r="U75" s="544"/>
+      <c r="V75" s="546" t="str">
         <f>IF(B75="","",SUM(S75:U75))</f>
         <v/>
       </c>
-      <c r="W75" s="553" t="str">
+      <c r="W75" s="534" t="str">
         <f>IF(B75="","",IF(ISBLANK(S75),"",IF(AVERAGE(S75:U75)&lt;10,LEFT(AVERAGE(S75:U75),4),LEFT(AVERAGE(S75:U75),5))))</f>
         <v/>
       </c>
-      <c r="X75" s="555" t="str">
+      <c r="X75" s="536" t="str">
         <f>IF(B75="","",IF(W75="","",IF(LEFT(W75,1)="0",0,ROUND(W75,0))))</f>
         <v/>
       </c>
@@ -35588,8 +35604,8 @@
       </c>
     </row>
     <row r="76" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="536"/>
-      <c r="B76" s="536"/>
+      <c r="A76" s="539"/>
+      <c r="B76" s="539"/>
       <c r="C76" s="286"/>
       <c r="D76" s="275"/>
       <c r="E76" s="275"/>
@@ -35618,12 +35634,12 @@
         <f ca="1">IF(Q76="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q76/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q76))</f>
         <v/>
       </c>
-      <c r="S76" s="538"/>
-      <c r="T76" s="540"/>
-      <c r="U76" s="550"/>
-      <c r="V76" s="552"/>
-      <c r="W76" s="554"/>
-      <c r="X76" s="556"/>
+      <c r="S76" s="541"/>
+      <c r="T76" s="543"/>
+      <c r="U76" s="545"/>
+      <c r="V76" s="547"/>
+      <c r="W76" s="535"/>
+      <c r="X76" s="537"/>
       <c r="Y76" s="281" t="str">
         <f>IF(B75="","",ROUNDUP(AVERAGE(R76,R76,X75),2))</f>
         <v/>
@@ -35634,10 +35650,10 @@
       </c>
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="535">
+      <c r="A77" s="538">
         <v>34</v>
       </c>
-      <c r="B77" s="535" t="str">
+      <c r="B77" s="538" t="str">
         <f>IF('1. Halbjahr'!B37&lt;&gt;"", '1. Halbjahr'!B37, "")</f>
         <v/>
       </c>
@@ -35669,18 +35685,18 @@
         <f ca="1">IF(Q77="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q77/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q77))</f>
         <v/>
       </c>
-      <c r="S77" s="537"/>
-      <c r="T77" s="539"/>
-      <c r="U77" s="549"/>
-      <c r="V77" s="551" t="str">
+      <c r="S77" s="540"/>
+      <c r="T77" s="542"/>
+      <c r="U77" s="544"/>
+      <c r="V77" s="546" t="str">
         <f>IF(B77="","",SUM(S77:U77))</f>
         <v/>
       </c>
-      <c r="W77" s="553" t="str">
+      <c r="W77" s="534" t="str">
         <f>IF(B77="","",IF(ISBLANK(S77),"",IF(AVERAGE(S77:U77)&lt;10,LEFT(AVERAGE(S77:U77),4),LEFT(AVERAGE(S77:U77),5))))</f>
         <v/>
       </c>
-      <c r="X77" s="555" t="str">
+      <c r="X77" s="536" t="str">
         <f>IF(B77="","",IF(W77="","",IF(LEFT(W77,1)="0",0,ROUND(W77,0))))</f>
         <v/>
       </c>
@@ -35694,8 +35710,8 @@
       </c>
     </row>
     <row r="78" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="536"/>
-      <c r="B78" s="536"/>
+      <c r="A78" s="539"/>
+      <c r="B78" s="539"/>
       <c r="C78" s="286"/>
       <c r="D78" s="275"/>
       <c r="E78" s="275"/>
@@ -35724,12 +35740,12 @@
         <f ca="1">IF(Q78="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q78/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q78))</f>
         <v/>
       </c>
-      <c r="S78" s="557"/>
-      <c r="T78" s="558"/>
-      <c r="U78" s="559"/>
-      <c r="V78" s="560"/>
-      <c r="W78" s="554"/>
-      <c r="X78" s="556"/>
+      <c r="S78" s="548"/>
+      <c r="T78" s="549"/>
+      <c r="U78" s="550"/>
+      <c r="V78" s="551"/>
+      <c r="W78" s="535"/>
+      <c r="X78" s="537"/>
       <c r="Y78" s="294" t="str">
         <f>IF(B77="","",ROUNDUP(AVERAGE(R78,R78,X77),2))</f>
         <v/>
@@ -35740,10 +35756,10 @@
       </c>
     </row>
     <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="535">
+      <c r="A79" s="538">
         <v>35</v>
       </c>
-      <c r="B79" s="535" t="str">
+      <c r="B79" s="538" t="str">
         <f>IF('1. Halbjahr'!B38&lt;&gt;"", '1. Halbjahr'!B38, "")</f>
         <v/>
       </c>
@@ -35775,18 +35791,18 @@
         <f ca="1">IF(Q79="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q79/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q79))</f>
         <v/>
       </c>
-      <c r="S79" s="537"/>
-      <c r="T79" s="539"/>
-      <c r="U79" s="549"/>
-      <c r="V79" s="551" t="str">
+      <c r="S79" s="540"/>
+      <c r="T79" s="542"/>
+      <c r="U79" s="544"/>
+      <c r="V79" s="546" t="str">
         <f>IF(B79="","",SUM(S79:U79))</f>
         <v/>
       </c>
-      <c r="W79" s="553" t="str">
+      <c r="W79" s="534" t="str">
         <f>IF(B79="","",IF(ISBLANK(S79),"",IF(AVERAGE(S79:U79)&lt;10,LEFT(AVERAGE(S79:U79),4),LEFT(AVERAGE(S79:U79),5))))</f>
         <v/>
       </c>
-      <c r="X79" s="555" t="str">
+      <c r="X79" s="536" t="str">
         <f>IF(B79="","",IF(W79="","",IF(LEFT(W79,1)="0",0,ROUND(W79,0))))</f>
         <v/>
       </c>
@@ -35800,8 +35816,8 @@
       </c>
     </row>
     <row r="80" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="536"/>
-      <c r="B80" s="536"/>
+      <c r="A80" s="539"/>
+      <c r="B80" s="539"/>
       <c r="C80" s="291"/>
       <c r="D80" s="292"/>
       <c r="E80" s="292"/>
@@ -35830,12 +35846,12 @@
         <f ca="1">IF(Q80="","",IF(AP!$E$42="BE",INDIRECT("AP!P"&amp;MATCH(100*Q80/AP!$E$44,AP!$Q$4:$Q$20,-1)+4),Q80))</f>
         <v/>
       </c>
-      <c r="S80" s="538"/>
-      <c r="T80" s="540"/>
-      <c r="U80" s="550"/>
-      <c r="V80" s="552"/>
-      <c r="W80" s="554"/>
-      <c r="X80" s="556"/>
+      <c r="S80" s="541"/>
+      <c r="T80" s="543"/>
+      <c r="U80" s="545"/>
+      <c r="V80" s="547"/>
+      <c r="W80" s="535"/>
+      <c r="X80" s="537"/>
       <c r="Y80" s="281" t="str">
         <f>IF(B79="","",ROUNDUP(AVERAGE(R80,R80,X79),2))</f>
         <v/>
@@ -35864,6 +35880,278 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="zlV/bozH8shs+y3wCrKXew1V+5yLa2Fwcz9uJydmilQAz0Wd1brh2DGrU8yziGGz+itGmA23ZxWlYkeEEjn/Fg==" saltValue="d/O41a5690S2LJ5hgUzTYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="288">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="C6:R6"/>
+    <mergeCell ref="S6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X11:X12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:X18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="X21:X22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:U22"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="X25:X26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="U29:U30"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="U35:U36"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="X35:X36"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="W37:W38"/>
+    <mergeCell ref="X37:X38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="U37:U38"/>
+    <mergeCell ref="V37:V38"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="X45:X46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="V47:V48"/>
+    <mergeCell ref="W47:W48"/>
+    <mergeCell ref="X47:X48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="V45:V46"/>
+    <mergeCell ref="W49:W50"/>
+    <mergeCell ref="X49:X50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="X51:X52"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="V49:V50"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="X57:X58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="V59:V60"/>
+    <mergeCell ref="W59:W60"/>
+    <mergeCell ref="X59:X60"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="V57:V58"/>
+    <mergeCell ref="W61:W62"/>
+    <mergeCell ref="X61:X62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
+    <mergeCell ref="X63:X64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="T61:T62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="V61:V62"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="X65:X66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="V67:V68"/>
+    <mergeCell ref="W67:W68"/>
+    <mergeCell ref="X67:X68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="V65:V66"/>
+    <mergeCell ref="W69:W70"/>
+    <mergeCell ref="X69:X70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="S71:S72"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="U71:U72"/>
+    <mergeCell ref="V71:V72"/>
+    <mergeCell ref="W71:W72"/>
+    <mergeCell ref="X71:X72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="S69:S70"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="U69:U70"/>
+    <mergeCell ref="V69:V70"/>
+    <mergeCell ref="W73:W74"/>
+    <mergeCell ref="X73:X74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="V75:V76"/>
+    <mergeCell ref="W75:W76"/>
+    <mergeCell ref="X75:X76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="U73:U74"/>
+    <mergeCell ref="V73:V74"/>
     <mergeCell ref="W77:W78"/>
     <mergeCell ref="X77:X78"/>
     <mergeCell ref="A79:A80"/>
@@ -35880,278 +36168,6 @@
     <mergeCell ref="T77:T78"/>
     <mergeCell ref="U77:U78"/>
     <mergeCell ref="V77:V78"/>
-    <mergeCell ref="W73:W74"/>
-    <mergeCell ref="X73:X74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="S75:S76"/>
-    <mergeCell ref="T75:T76"/>
-    <mergeCell ref="U75:U76"/>
-    <mergeCell ref="V75:V76"/>
-    <mergeCell ref="W75:W76"/>
-    <mergeCell ref="X75:X76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="U73:U74"/>
-    <mergeCell ref="V73:V74"/>
-    <mergeCell ref="W69:W70"/>
-    <mergeCell ref="X69:X70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="S71:S72"/>
-    <mergeCell ref="T71:T72"/>
-    <mergeCell ref="U71:U72"/>
-    <mergeCell ref="V71:V72"/>
-    <mergeCell ref="W71:W72"/>
-    <mergeCell ref="X71:X72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="S69:S70"/>
-    <mergeCell ref="T69:T70"/>
-    <mergeCell ref="U69:U70"/>
-    <mergeCell ref="V69:V70"/>
-    <mergeCell ref="W65:W66"/>
-    <mergeCell ref="X65:X66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="S67:S68"/>
-    <mergeCell ref="T67:T68"/>
-    <mergeCell ref="U67:U68"/>
-    <mergeCell ref="V67:V68"/>
-    <mergeCell ref="W67:W68"/>
-    <mergeCell ref="X67:X68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="S65:S66"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="U65:U66"/>
-    <mergeCell ref="V65:V66"/>
-    <mergeCell ref="W61:W62"/>
-    <mergeCell ref="X61:X62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="S63:S64"/>
-    <mergeCell ref="T63:T64"/>
-    <mergeCell ref="U63:U64"/>
-    <mergeCell ref="V63:V64"/>
-    <mergeCell ref="W63:W64"/>
-    <mergeCell ref="X63:X64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="T61:T62"/>
-    <mergeCell ref="U61:U62"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="X57:X58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="V59:V60"/>
-    <mergeCell ref="W59:W60"/>
-    <mergeCell ref="X59:X60"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="V57:V58"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="X49:X50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="S51:S52"/>
-    <mergeCell ref="T51:T52"/>
-    <mergeCell ref="U51:U52"/>
-    <mergeCell ref="V51:V52"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="X51:X52"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="X45:X46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="V47:V48"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="T45:T46"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="V45:V46"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="T41:T42"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="V41:V42"/>
-    <mergeCell ref="W37:W38"/>
-    <mergeCell ref="X37:X38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="S39:S40"/>
-    <mergeCell ref="T39:T40"/>
-    <mergeCell ref="U39:U40"/>
-    <mergeCell ref="V39:V40"/>
-    <mergeCell ref="W39:W40"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="S37:S38"/>
-    <mergeCell ref="T37:T38"/>
-    <mergeCell ref="U37:U38"/>
-    <mergeCell ref="V37:V38"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="S35:S36"/>
-    <mergeCell ref="T35:T36"/>
-    <mergeCell ref="U35:U36"/>
-    <mergeCell ref="V35:V36"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="X35:X36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="W29:W30"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="S31:S32"/>
-    <mergeCell ref="T31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="S29:S30"/>
-    <mergeCell ref="T29:T30"/>
-    <mergeCell ref="U29:U30"/>
-    <mergeCell ref="V29:V30"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="X25:X26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="V25:V26"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="X21:X22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="S21:S22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:U22"/>
-    <mergeCell ref="V21:V22"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="X17:X18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="V17:V18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="X15:X16"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="C6:R6"/>
-    <mergeCell ref="S6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="S7:V7"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="X11:X12"/>
   </mergeCells>
   <conditionalFormatting sqref="C11 C15 C17 C19 C21 C23 C25 C27 C29 C31 C33 C35 C37 C39 C41 C43 C45 C47 C49 C51 C53 C55 C57 C59 C61 C63 C65 C67 C69 C71 C73 C75 C77 C79">
     <cfRule type="cellIs" dxfId="37" priority="21" stopIfTrue="1" operator="greaterThan">
@@ -36849,9 +36865,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -36881,17 +36895,17 @@
       <c r="B1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -37007,11 +37021,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -38325,50 +38339,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -38709,7 +38723,7 @@
       <c r="B59" s="172"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mVo6IRTpjPBUyZjzoOsMBszEEgmG8s+TzMXLaAPLT0FLryDpZK7EuZjha25dr5f2REUqMCLt4Qp4flvVW39Qig==" saltValue="G6pgw+IiMPNQiW3yOOtqHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+UKnQIaEt85VXixX4CJ4WcjK9EOXHQv78b8nkVijnkHsEZf4OKktVloGVnvlX1m6B8FLrU7s/V90Kd6Bvn3ZzQ==" saltValue="g0JGEmYTMpdkO3A2lmG1sA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -38760,9 +38774,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38792,17 +38804,17 @@
       <c r="B1" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -38918,11 +38930,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -40236,50 +40248,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -40620,7 +40632,7 @@
       <c r="B59" s="172"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vbHblA5LDEMVNBn37XJhtIC6+5Tdvc+0sbAAzbziXm3BKUFoZLxVu5LkXIdf1GTvoY19BPnDljAZyH40ADv9kw==" saltValue="ISQHOmvLbeY+A9mw4C4Ztg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bBNSaNjgTlA3PhoLdCA/gOIcmYtnND12yzGGD+GWNqsYG4AtSFTxGHQTaY8ZHYTMycQ62TeERoVI8emoQRqGYQ==" saltValue="dGnTHSnvN95L09TV0prXRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -40671,9 +40683,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -40703,17 +40713,17 @@
       <c r="B1" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -40829,11 +40839,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -42147,50 +42157,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -42531,7 +42541,7 @@
       <c r="B59" s="172"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dYSUP6e8s0oH331xWGbU4P9c2EHWU6FOp4rBZMrTlDrXVhXluvKMa8G1YNpc0RNO+0pGMs5LGnuF4WJWZSf9hw==" saltValue="lGod99XmvRQ8RBbdgsCQvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hNqZZFdqUf/IwmM4qBAamvk0QrSzd42Mr2Qi5JDNskAlvuLB/h7Ihe5qMoYJ+lVHdW8d2le01n8QqtVLxiTZxA==" saltValue="Zvib68z3avhElXXvzJz56Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -42582,9 +42592,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -42614,17 +42622,17 @@
       <c r="B1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -42740,11 +42748,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -44058,50 +44066,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -44442,7 +44450,7 @@
       <c r="B59" s="172"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2KOWqa99j9N610tPpNQ+I4dkwYYiNGnAio/u4L/QuHdSSxUq3JNbDUJV1Uh0CItVaijf/aa0kAsUxcFU5dv4Ew==" saltValue="K1YztkMyzcyiDFoQLsqWzg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="83fsXx0+40Jv4LiyTcZAmV6R1wwt1I3jWEd53YFnW66qNPfB7WnkAUJ+x3bc3tuZ5FTiTrldT41EXNDgEhifmw==" saltValue="hF219tuHVmpwMR1pZrsong==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -44493,9 +44501,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -44525,17 +44531,17 @@
       <c r="B1" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -44651,11 +44657,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -45969,50 +45975,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -46353,7 +46359,7 @@
       <c r="B59" s="172"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E2sdvai+1G+CKsZz9Wjx8lZQr4mhw0MAe9A9rOTU6GAHCp9ARSfxxPQCFRYym2ARnogfqqnHbdPjOYEVPClsmA==" saltValue="y7b0PPyzQs27LpG51oNFCA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kKO7zdSBUydwE4X/QQTiu4FuolsMq8/qLx4BPxTVEu/gjegEZvQlhGtRCvfQUVU2Rq3lntoE9+/1mQG0K8Gi/Q==" saltValue="9eV503AkzQ35leRdltGwuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -46404,9 +46410,7 @@
   </sheetPr>
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:R1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -46436,17 +46440,17 @@
       <c r="B1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="464" t="str">
+      <c r="C1" s="468" t="str">
         <f>IF('1. Halbjahr'!E1="","",'1. Halbjahr'!E1)</f>
         <v/>
       </c>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="462"/>
-      <c r="H1" s="463"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="467"/>
       <c r="I1" s="41"/>
       <c r="J1" s="41"/>
       <c r="K1" s="42"/>
@@ -46562,11 +46566,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="460" t="s">
+      <c r="F5" s="464" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
+      <c r="G5" s="465"/>
+      <c r="H5" s="465"/>
       <c r="I5" s="1"/>
       <c r="J5" s="47" t="str">
         <f t="shared" si="0"/>
@@ -47880,50 +47884,50 @@
     </row>
     <row r="39" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="457" t="s">
+      <c r="A40" s="461" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="465" t="s">
+      <c r="C40" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="466"/>
-      <c r="E40" s="469" t="s">
+      <c r="D40" s="470"/>
+      <c r="E40" s="473" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="469"/>
-      <c r="G40" s="470"/>
+      <c r="F40" s="473"/>
+      <c r="G40" s="474"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="458"/>
+      <c r="A41" s="462"/>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="467" t="s">
+      <c r="C41" s="471" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="468"/>
-      <c r="E41" s="471" t="s">
+      <c r="D41" s="472"/>
+      <c r="E41" s="475" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="471"/>
-      <c r="G41" s="472"/>
+      <c r="F41" s="475"/>
+      <c r="G41" s="476"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
+      <c r="A42" s="463"/>
       <c r="C42" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="471" t="s">
+      <c r="E42" s="475" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="471"/>
-      <c r="G42" s="472"/>
+      <c r="F42" s="475"/>
+      <c r="G42" s="476"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="165"/>
@@ -48264,7 +48268,7 @@
       <c r="B59" s="172"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZC6WCkrq/9epvQjb5lSpYUaBxZRdlwANEAkXUD1eejlRsPlFoHijF7k1+EsTCrgsbS//yy5ad6IWM5lOu7PInw==" saltValue="1jGZZKPc9PvEBNFdJzwCRQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mTdb3uxp76mdhq0E3kpGyGgFSOOPzfR5HiUXS2K5fLMlCHn9clyV8ix5JTrucnoW4/oztUGUMoU4UxjshEPFEA==" saltValue="478La9dUJyp61/vylkXOJg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -48355,31 +48359,31 @@
         <v>33</v>
       </c>
       <c r="D1" s="392"/>
-      <c r="E1" s="480">
+      <c r="E1" s="484">
         <f>'1. Halbjahr'!E1:H1</f>
         <v>0</v>
       </c>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="481"/>
-      <c r="I1" s="473" t="str">
+      <c r="F1" s="484"/>
+      <c r="G1" s="484"/>
+      <c r="H1" s="485"/>
+      <c r="I1" s="477" t="str">
         <f>'1. Halbjahr'!I1:J1</f>
         <v>Lehrer/in:</v>
       </c>
-      <c r="J1" s="474"/>
-      <c r="K1" s="480">
+      <c r="J1" s="478"/>
+      <c r="K1" s="484">
         <f>'1. Halbjahr'!K1:L1</f>
         <v>0</v>
       </c>
-      <c r="L1" s="481"/>
+      <c r="L1" s="485"/>
       <c r="M1" s="392" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="475">
+      <c r="N1" s="479">
         <f ca="1">TODAY()</f>
-        <v>45551</v>
-      </c>
-      <c r="O1" s="476"/>
+        <v>45582</v>
+      </c>
+      <c r="O1" s="480"/>
       <c r="P1" s="392"/>
       <c r="Q1" s="151"/>
       <c r="R1" s="151"/>
@@ -48407,27 +48411,27 @@
       <c r="B2" s="401" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="477" t="s">
+      <c r="C2" s="481" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="478"/>
-      <c r="E2" s="478"/>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="478"/>
-      <c r="J2" s="478"/>
-      <c r="K2" s="478"/>
-      <c r="L2" s="478"/>
-      <c r="M2" s="478"/>
-      <c r="N2" s="478"/>
-      <c r="O2" s="479"/>
+      <c r="D2" s="482"/>
+      <c r="E2" s="482"/>
+      <c r="F2" s="482"/>
+      <c r="G2" s="482"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="482"/>
+      <c r="J2" s="482"/>
+      <c r="K2" s="482"/>
+      <c r="L2" s="482"/>
+      <c r="M2" s="482"/>
+      <c r="N2" s="482"/>
+      <c r="O2" s="483"/>
       <c r="P2" s="138"/>
-      <c r="Q2" s="477" t="s">
+      <c r="Q2" s="481" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="478"/>
-      <c r="S2" s="482"/>
+      <c r="R2" s="482"/>
+      <c r="S2" s="486"/>
       <c r="T2" s="393"/>
       <c r="U2" s="393"/>
       <c r="V2" s="393"/>
@@ -51241,7 +51245,7 @@
         <f ca="1">II1SA!C38</f>
         <v/>
       </c>
-      <c r="M38" s="561" t="str">
+      <c r="M38" s="447" t="str">
         <f ca="1">II2SA!C38</f>
         <v/>
       </c>
@@ -51310,13 +51314,13 @@
       <c r="J39" s="390">
         <v>1</v>
       </c>
-      <c r="K39" s="563">
+      <c r="K39" s="449">
         <v>1</v>
       </c>
-      <c r="L39" s="564">
+      <c r="L39" s="450">
         <v>1</v>
       </c>
-      <c r="M39" s="562">
+      <c r="M39" s="448">
         <v>1</v>
       </c>
       <c r="N39" s="151"/>
@@ -54616,7 +54620,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.53" right="0.17" top="0.28999999999999998" bottom="0.22" header="7.874015748031496E-2" footer="0.2"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>